--- a/output_data/output.xlsx
+++ b/output_data/output.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Output data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dictionary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -424,436 +425,3911 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/42036-obodok-fary-chrom-lada-4h4-niva-legend</t>
+          <t>https://motorring.ru/product/35998-fonary-shashki-taksi-podsvetkoy-12v</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Хром ободок фары для Лада 4х4, Нива Легенд</t>
+          <t>Фонарь шашки (Такси) с подсветкой 12V</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>629</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37142-tonirovanniy-peredniy-plafon-podsvetki-salona-lyuks-lada-priora</t>
+          <t>https://motorring.ru/product/2696-signal-vozdushnyy-odnoroghkovyy-vstroennym-motorom</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Тонированный передний плафон подсветки салона под Люкс для Лада Приора, Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
+          <t>Сигнал воздушный Iskra однорожковый со встроенным мотором</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>590</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18238-plafon-osvescheniya-salona-lampochkoy-sbore-vaz-2104-2105</t>
+          <t>https://motorring.ru/product/26439-aromatizator-avtomobilynyy-contex-meshochek</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Оригинальный центральный плафон освещения салона для ВАЗ 2104, 2105, 2107, Лада 4х4 (Нива), Надежда, Ока</t>
+          <t>Ароматизатор автомобильный Contex</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20552-svetodiodnye-fonari-klyushki-vaz-2110</t>
+          <t>https://motorring.ru/product/3977-avtomobilynyy-kompressor-tornado-580</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Светодиодные фонари клюшки для ВАЗ 2110</t>
+          <t>Автомобильный компрессор TORNADO АС 580</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4190</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/21150-steklo-pravoy-fary-avtosvet-vaz-2113-2115</t>
+          <t>https://motorring.ru/product/2695-signal-vozdushnyy-treh-roghkovyy-hrom</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Стекло правой фары Автосвет для ВАЗ 2113-2115</t>
+          <t>Сигнал воздушный трехрожковый, хром</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>369</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/32278-komplekt-chernyh-zadnih-diodnyh-fonarey-lada-vesta</t>
+          <t>https://motorring.ru/product/26442-aromatizator-avtomobilynyy-contex-sprey</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Комплект черных задних диодных фонарей с динамическим поворотником для Лада Веста</t>
+          <t>Ароматизатор автомобильный Contex спрей</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9990</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16581-fonary-zadniy-levyy-kryshku-bagaghnika-lada-vesta</t>
+          <t>https://motorring.ru/product/25909-komplekt-teroson-premium-dlya-vkleivaniya-lobovogo-stekla</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Фонарь задний левый аналог ML на крышку багажника для Лада Веста</t>
+          <t>Комплект TerosOn Премиум для вклеивания лобового стекла</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2190</v>
+        <v>990</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/33085-modificirovannye-diodnye-platy-shtatnye-zadnie-fonari-2113</t>
+          <t>https://motorring.ru/product/26819-schetki-stekloochistitelya-beskarkas-alco-super-flat-60sm</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Модифицированные диодные платы в штатные задние фонари для ВАЗ 2108-21099, 2113, 2114</t>
+          <t xml:space="preserve">Щетка стеклоочистителя бескаркасная Alca Super Flat 24 дюймов (60см) </t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>990</v>
+        <v>729</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/30030-komplekt-zadnih-diodnyh-fonarey-dlya-lada-vesta</t>
+          <t>https://motorring.ru/product/26400-aromatizator-avtomobilynyy-areon</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Комплект задних диодных фонарей с динамическим поворотником для Лада Веста</t>
+          <t>Ароматизатор автомобильный Areon Mon classic</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8590</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/21132-steklo-pravoy-fary-lada-largus-analog</t>
+          <t>https://motorring.ru/product/26443-aromatizator-avtomobilynyy-contex-banka-gel</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Стекло правой фары для Лада Ларгус (аналог)</t>
+          <t>Ароматизатор автомобильный Contex банка Gel</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>890</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16582-fonary-zadniy-levyy-krylo-lada-vesta</t>
+          <t>https://motorring.ru/product/26440-aromatizator-avtomobilynyy-contex-gel</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Фонарь задний левый аналог ML на крыло для Лада Веста</t>
+          <t>Ароматизатор автомобильный Contex Gel</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2690</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/14234-povtoriteli-povorota-diodnye-tonirovannye-lada-kalina</t>
+          <t>https://motorring.ru/product/26800-schetki-stekloochistitelya-beskarkasnye-avs-basic-line</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Повторители поворота диодные тонированные для Лада Калина, Приора, Гранта</t>
+          <t xml:space="preserve">Щетка стеклоочистителя бескаркасная AVS Basic Line BL-14 дюймов (35см) </t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>529</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/4232-podfarniki-novogo-obrazca-oranghevyy-povorotnik-lada-niva</t>
+          <t>https://motorring.ru/product/26823-schetki-stekloochistitelya-beskarkas-alco-super-flat-dyuym</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Подфарники нового образца оранжевый поворотник для Лада 4х4, Нива Легенд</t>
+          <t xml:space="preserve">Щетка стеклоочистителя бескаркасная Alca Super Flat 16 дюймов (40см) </t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1190</v>
+        <v>690</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/21149-steklo-levoy-fary-avtosvet-vaz-2113-2115</t>
+          <t>https://motorring.ru/product/21114-ramka-nomernogo-znaka-metallicheskaya-chernyy</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Стекло левой фары Автосвет для ВАЗ 2113-2115</t>
+          <t>Металлическая черная рамка номерного знака Sal-Man с резиновыми буферами</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>369</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/21131-steklo-levoy-fary-lada-largus-analog</t>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Стекло левой фары для Лада Ларгус (аналог)</t>
+          <t>Ароматизатор автомобильный Car freshner</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>939</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2807-steklo-podfarnika-dlya-vaz-2106-osvar-levyy-belyy</t>
+          <t>https://motorring.ru/product/23940-znak-avariynoy-ostanovki-tp02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Левое стекло подфарника Освар белое для ВАЗ 2106</t>
+          <t>Знак аварийной остановки ТР 02</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>149</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/21147-steklo-levoy-fary-automotiv-layting-vaz-2110-2112</t>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Стекло левой фары Automotive Lighting для ВАЗ 2110-2112</t>
+          <t>Ароматизатор автомобильный Abro</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>329</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/39265-plafon-osvescheniya-salona-cherniy-vaz-2108-21099-2110-2112</t>
+          <t>https://motorring.ru/product/26391-aromatizator-avtomobilynyy-areon-gel</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Плафон освещения салона в черном корпусе диодный с кнопкой для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+          <t>Ароматизатор автомобильный Areon Gel</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>669</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/14190-fonary-zadniy-pravyy-krylo-lada-vesta</t>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Фонарь задний правый аналог ML на крыло для Лада Веста</t>
+          <t>Ароматизатор автомобильный Areon Freska</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2690</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/36548-korpus-levoy-blok-fary-pod-bosh-dlya-lada-priora</t>
+          <t>https://motorring.ru/product/21507-salonnoe-zerkalo-zadnego-vida-enes-universalynoe-prisoske</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Корпус левой блок-фары для Лада Приора с фарами Bosch</t>
+          <t>Салонное зеркало заднего вида Enes 33 см на присоске универсальное</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>690</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2724-blok-fara-levaya-lada-priora</t>
+          <t>https://motorring.ru/product/26459-aromatizator-avtomobilynyy-contex-bochonok-love</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Фара левая ML для Лада Приора</t>
+          <t>Ароматизатор автомобильный Contex бочонок Love is</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4990</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37143-tonirovanniy-plafon-osvescheniya-salona-zadniy-lada-priora-kalina</t>
+          <t>https://motorring.ru/product/26441-aromatizator-avtomobilynyy-contex-meshochek</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Тонированный задний плафон освещения салона Люкс для Лада Приора, Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
+          <t>Ароматизатор автомобильный Contex мешочек</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>690</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12724-perednie-fary-analog-lada-kalina</t>
+          <t>https://motorring.ru/product/26722-derghately-magnitnyy-dlya-telefona-holder-cpx-006</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Комплект передних фар ML со стеклом для Лада Калина</t>
+          <t>Держатель для телефона магнитный Holder в дефлектор воздуховода</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6490</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40800-diodnaya-maska-perednih-far-dlya-lada-granta-fl</t>
+          <t>https://motorring.ru/product/15150-antiskolyzyaschiy-kovrik-panely-avtomobilya</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Диодная маска передних фар ML для Лада Гранта FL</t>
+          <t>Антискользящий коврик на панель автомобиля</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7190</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/36549-korpus-pravoy-blok-fary-pod-bosh-dlya-lada-priora</t>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Корпус правой блок-фары для Лада Приора с фарами Bosch</t>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>690</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/21148-steklo-pravoy-fary-automotiv-layting-vaz-2110-2112</t>
+          <t>https://motorring.ru/product/26388-aromatizator-avtomobilynyy-slim</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Стекло правой фары Automotive Lighting для ВАЗ 2110-2112</t>
+          <t>Ароматизатор автомобильный Slim</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>329</v>
+        <v>890</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2723-blok-fara-pravaya-lada-priora</t>
+          <t>https://motorring.ru/product/8519-kryshka-benzobaka-zamkom-vaz-2107-2108-21099-2110-2112</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Фара правая ML для Лада Приора</t>
+          <t>Крышка бензобака с замком для ВАЗ 2107, 2108-21099, 2110-2112, Лада 4х4, Нива Легенд с заливной горловиной образца 21214</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4990</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2808-steklo-podfarnika-dlya-vaz-2106-osvar-pravyy-belyy</t>
+          <t>https://motorring.ru/product/7220-pasta-pritirochnaya-wmpauto-40gr-almaznaya-r2896</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Правое стекло подфарника Освар белое для ВАЗ 2106</t>
+          <t>Паста притирочная VMPAUTO 40гр алмазная</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>149</v>
+        <v>590</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/14189-fonary-zadniy-pravyy-kryshku-bagaghnika-lada-vesta</t>
+          <t>https://motorring.ru/product/21489-zvukovoy-signal-vozdushnyy-horn-speed-3110</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Фонарь задний правый аналог ML на крышку багажника для Лада Веста</t>
+          <t>Звуковой сигнал воздушный Horn Speed для ВАЗ и иномарок</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2190</v>
+        <v>929</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D192"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>132869</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15150-antiskolyzyaschiy-kovrik-panely-avtomobilya</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Антискользящий коврик на панель автомобиля</t>
+        </is>
+      </c>
+      <c r="D1" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>132992</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26440-aromatizator-avtomobilynyy-contex-gel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex Gel</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>131496</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26443-aromatizator-avtomobilynyy-contex-banka-gel</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex банка Gel</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>132994</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26439-aromatizator-avtomobilynyy-contex-meshochek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>132995</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26439-aromatizator-avtomobilynyy-contex-meshochek</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>132998</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26439-aromatizator-avtomobilynyy-contex-meshochek</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>132999</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26439-aromatizator-avtomobilynyy-contex-meshochek</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>133004</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26441-aromatizator-avtomobilynyy-contex-meshochek</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex мешочек</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>133005</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26441-aromatizator-avtomobilynyy-contex-meshochek</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex мешочек</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>133007</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26459-aromatizator-avtomobilynyy-contex-bochonok-love</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок Love is</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>133008</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26459-aromatizator-avtomobilynyy-contex-bochonok-love</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок Love is</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>133009</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26459-aromatizator-avtomobilynyy-contex-bochonok-love</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок Love is</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>133010</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26459-aromatizator-avtomobilynyy-contex-bochonok-love</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок Love is</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>133011</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26459-aromatizator-avtomobilynyy-contex-bochonok-love</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок Love is</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>133012</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>133013</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>133014</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>133016</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>133017</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>133018</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>133019</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>133020</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>133021</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>133022</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>133023</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>133024</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>133025</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>133026</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>133029</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26442-aromatizator-avtomobilynyy-contex-sprey</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex спрей</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>133030</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26442-aromatizator-avtomobilynyy-contex-sprey</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex спрей</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>133031</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26442-aromatizator-avtomobilynyy-contex-sprey</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex спрей</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>133032</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26442-aromatizator-avtomobilynyy-contex-sprey</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex спрей</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>133033</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26442-aromatizator-avtomobilynyy-contex-sprey</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex спрей</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>133034</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26442-aromatizator-avtomobilynyy-contex-sprey</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex спрей</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>185780</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26400-aromatizator-avtomobilynyy-areon</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Mon classic</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>185781</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26400-aromatizator-avtomobilynyy-areon</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Mon classic</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>185782</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26400-aromatizator-avtomobilynyy-areon</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Mon classic</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>185783</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26400-aromatizator-avtomobilynyy-areon</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Mon classic</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>185784</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26400-aromatizator-avtomobilynyy-areon</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Mon classic</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>185785</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26400-aromatizator-avtomobilynyy-areon</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Mon classic</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>185786</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26400-aromatizator-avtomobilynyy-areon</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Mon classic</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>185787</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26400-aromatizator-avtomobilynyy-areon</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Mon classic</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>185788</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26400-aromatizator-avtomobilynyy-areon</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Mon classic</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>185789</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26400-aromatizator-avtomobilynyy-areon</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Mon classic</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>132996</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26439-aromatizator-avtomobilynyy-contex-meshochek</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>132997</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26439-aromatizator-avtomobilynyy-contex-meshochek</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>133000</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26439-aromatizator-avtomobilynyy-contex-meshochek</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>133001</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26441-aromatizator-avtomobilynyy-contex-meshochek</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex мешочек</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>133002</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26441-aromatizator-avtomobilynyy-contex-meshochek</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex мешочек</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>133003</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26441-aromatizator-avtomobilynyy-contex-meshochek</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex мешочек</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>133006</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26441-aromatizator-avtomobilynyy-contex-meshochek</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex мешочек</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>133028</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26442-aromatizator-avtomobilynyy-contex-sprey</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex спрей</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>131477</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>131470</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>131468</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>131469</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>131492</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>131471</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>131475</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>131467</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>131476</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>131482</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>131478</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>131494</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>131483</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>131485</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>131488</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>131487</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>131486</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>131484</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>131466</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>131480</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>131491</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>131490</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>131493</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>131474</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>131473</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>131481</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>131489</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>131472</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>131495</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>131479</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>133015</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26438-aromatizator-avtomobilynyy-contex-bochonok</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>133045</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26391-aromatizator-avtomobilynyy-areon-gel</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Gel</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>133046</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26391-aromatizator-avtomobilynyy-areon-gel</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Gel</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>133047</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26391-aromatizator-avtomobilynyy-areon-gel</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Gel</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>133048</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26391-aromatizator-avtomobilynyy-areon-gel</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Gel</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>133049</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26391-aromatizator-avtomobilynyy-areon-gel</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Gel</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>133050</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26391-aromatizator-avtomobilynyy-areon-gel</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Gel</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>133044</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26391-aromatizator-avtomobilynyy-areon-gel</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Gel</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>133058</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>133059</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>133060</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>133061</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>133062</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>133063</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>133064</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>133065</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>133067</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>133069</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>133070</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>133071</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>133072</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>133073</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>133074</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>133075</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>133076</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>133079</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>133080</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>133081</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>133068</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>133077</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>133082</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26388-aromatizator-avtomobilynyy-slim</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Slim</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>133083</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26388-aromatizator-avtomobilynyy-slim</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Slim</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>133084</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26388-aromatizator-avtomobilynyy-slim</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Slim</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>133085</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26388-aromatizator-avtomobilynyy-slim</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Slim</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>140709</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26443-aromatizator-avtomobilynyy-contex-banka-gel</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex банка Gel</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>140710</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26443-aromatizator-avtomobilynyy-contex-banka-gel</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex банка Gel</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>143582</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26722-derghately-magnitnyy-dlya-telefona-holder-cpx-006</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Держатель для телефона магнитный Holder в дефлектор воздуховода</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>152870</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21489-zvukovoy-signal-vozdushnyy-horn-speed-3110</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Звуковой сигнал воздушный Horn Speed для ВАЗ и иномарок</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>153001</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/35998-fonary-shashki-taksi-podsvetkoy-12v</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Фонарь шашки (Такси) с подсветкой 12V</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>153002</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/35998-fonary-shashki-taksi-podsvetkoy-12v</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Фонарь шашки (Такси) с подсветкой 12V</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>153003</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/35998-fonary-shashki-taksi-podsvetkoy-12v</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Фонарь шашки (Такси) с подсветкой 12V</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>153004</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/35998-fonary-shashki-taksi-podsvetkoy-12v</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Фонарь шашки (Такси) с подсветкой 12V</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>153010</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/23940-znak-avariynoy-ostanovki-tp02</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Знак аварийной остановки ТР 02</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>164974</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25909-komplekt-teroson-premium-dlya-vkleivaniya-lobovogo-stekla</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Комплект TerosOn Премиум для вклеивания лобового стекла</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>131501</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3977-avtomobilynyy-kompressor-tornado-580</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Автомобильный компрессор TORNADO АС 580</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>162682</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8519-kryshka-benzobaka-zamkom-vaz-2107-2108-21099-2110-2112</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Крышка бензобака с замком для ВАЗ 2107, 2108-21099, 2110-2112, Лада 4х4, Нива Легенд с заливной горловиной образца 21214</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>133066</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>133078</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26638-aromatizator-avtomobilynyy-car-freshner</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Car freshner</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>185767</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>185770</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>185773</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>185760</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>185761</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>185762</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>185763</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>185764</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>185765</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>185776</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>185766</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>185768</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>185769</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>185777</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>185771</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>185772</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>185774</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>185775</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>185778</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>185779</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>185759</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26390-aromatizator-avtomobilynyy-areon-freska</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Freska</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>202605</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21114-ramka-nomernogo-znaka-metallicheskaya-chernyy</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Металлическая черная рамка номерного знака Sal-Man с резиновыми буферами</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>213873</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/2695-signal-vozdushnyy-treh-roghkovyy-hrom</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Сигнал воздушный трехрожковый, хром</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>226599</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26823-schetki-stekloochistitelya-beskarkas-alco-super-flat-dyuym</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Щетка стеклоочистителя бескаркасная Alca Super Flat 16 дюймов (40см) </t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>226600</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26819-schetki-stekloochistitelya-beskarkas-alco-super-flat-60sm</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Щетка стеклоочистителя бескаркасная Alca Super Flat 24 дюймов (60см) </t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>226704</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26800-schetki-stekloochistitelya-beskarkasnye-avs-basic-line</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Щетка стеклоочистителя бескаркасная AVS Basic Line BL-14 дюймов (35см) </t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>213870</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/2696-signal-vozdushnyy-odnoroghkovyy-vstroennym-motorom</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Сигнал воздушный Iskra однорожковый со встроенным мотором</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>152927</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21507-salonnoe-zerkalo-zadnego-vida-enes-universalynoe-prisoske</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Салонное зеркало заднего вида Enes 33 см на присоске универсальное</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>132993</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26440-aromatizator-avtomobilynyy-contex-gel</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex Gel</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>131462</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26459-aromatizator-avtomobilynyy-contex-bochonok-love</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок Love is</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>131460</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26459-aromatizator-avtomobilynyy-contex-bochonok-love</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок Love is</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>131459</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26459-aromatizator-avtomobilynyy-contex-bochonok-love</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок Love is</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>131464</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26459-aromatizator-avtomobilynyy-contex-bochonok-love</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок Love is</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>131461</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26459-aromatizator-avtomobilynyy-contex-bochonok-love</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок Love is</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>131463</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26459-aromatizator-avtomobilynyy-contex-bochonok-love</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex бочонок Love is</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>131497</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26442-aromatizator-avtomobilynyy-contex-sprey</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Contex спрей</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>152928</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21507-salonnoe-zerkalo-zadnego-vida-enes-universalynoe-prisoske</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Салонное зеркало заднего вида Enes 33 см на присоске универсальное</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>132913</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>132905</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>132909</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>132906</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>132907</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>132922</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>132910</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>132912</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>132914</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>132915</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>132927</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>132917</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>132919</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>132920</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>132923</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>132926</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>132925</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>132916</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>132911</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>132921</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>132908</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>132918</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>132924</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26600-aromatizator-avtomobilynyy-abro</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Abro</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>185758</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26400-aromatizator-avtomobilynyy-areon</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Ароматизатор автомобильный Areon Mon classic</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>186356</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/7220-pasta-pritirochnaya-wmpauto-40gr-almaznaya-r2896</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Паста притирочная VMPAUTO 40гр алмазная</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/output_data/output.xlsx
+++ b/output_data/output.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,226 +425,689 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/31897-mahovik-oblegchennyy-100detaley-16v-2101</t>
+          <t>https://motorring.ru/product/2310</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Маховик облегченный 100деталей для 16-клапанных ВАЗ 2101-2107, Лада 4х4</t>
+          <t>Кулиса КПП короткоходная Stinger для Лада Калина</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>4390</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1025-mahovik-oblegchennyy-100detaley-215mm-dlya-shevrole-niva</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/ustanovochnyy_komplekt_eur_dlya_vaz_2105-2107_-inzhektor/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Маховик облегченный (вес около 4.6кг) 100деталей 215мм для Шевроле Нива</t>
+          <t>Установочный комплект ЭУР для ВАЗ 2105-2107 (Инжектор)</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4590</v>
+        <v>13150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8244-mahovik-oblegchennyy-100detaley-dlya-vaz-2108-21099</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/rulevoy_val_-kardanchik-_dlya_ustanovki_eur_na_vaz_2101-_2106/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Маховик облегченный (вес около 4 кг) 100деталей для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Рулевой вал (карданчик) для установки ЭУР на ВАЗ 2101, 2106</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4590</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1026-mahovik-oblegchennyy-100detaley-turbo-215mm-dlya-shevrole</t>
+          <t>https://motorring.ru/product/8509-ustanovochnyy-komplekt-elektrousilitelya-rulya-bez-eura</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Маховик облегченный (вес около 4.6кг) 100деталей Турбо 215мм для Шевроле Нива</t>
+          <t>Установочный комплект электроусилителя руля (без ЭУРа) для инжекторных Лада 4х4 (Нива) 21214, 2131</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4490</v>
+        <v>10990</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5805-mahovik-oblegchennyy-4kg-sceplenie-2110-vaz-2108-21099-2113-2115</t>
+          <t>https://motorring.ru/product/7525-shesterni-razreznye-grm-staly-datchikom-faz-16kl-lada</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Маховик облегченный (вес около 4 кг) 100деталей под сцепление 2110 для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Шестерни разрезные ГРМ (сталь) с датчиком фаз для 16-клапанных Лада Приора, Калина, Гранта</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4390</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/31898-mahovik-oblegchennyy-100detaley-8v-2101</t>
+          <t>https://motorring.ru/product/18812-promeghutochnyy-rulevoy-val-kardanchik-dlya-ustanovki-eur</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Маховик облегченный 100деталей для 8-клапанных ВАЗ 2101-2107, Лада 4х4</t>
+          <t>Промежуточный рулевой вал (карданчик) под 05 редуктор для установки ЭУР на ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4590</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5803-mahovik-oblegchennyy-100detaley-dlya-vaz-2110-2112</t>
+          <t>https://motorring.ru/product/34018-promeghutochnyy-rulevoy-val-ustanovki-eur-vaz-2108-2115</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Маховик облегченный (вес около 4 кг) 100деталей для ВАЗ 2110-2112</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4390</v>
-      </c>
+          <t>Промежуточный рулевой вал (карданчик) универсальный для установки ЭУР для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40316-mahovik-oblegchennyy-stalnoy-100detaley-tros-kpp-granta</t>
+          <t>https://motorring.ru/product/15770-elektrousilitely-rulya-kaluga-priory-komplektom-dlya</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Маховик облегченный стальной 100деталей для Лада Гранта, Гранта FL с тросовым приводом КПП</t>
+          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки под 05 редуктор для карбюраторных ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12490</v>
+        <v>53990</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37234-mahovik-oblegchennyy-sceplenie-2123-100detaley-lada-vesta</t>
+          <t>https://33sport.ru/catalog/transmissiya/korotkokhodnye_kulisy/korotkohodnaja_kulisa_dlja_avtomobilej_vaz_2110/</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Маховик 21176 облегченный 100деталей под сцепление 2123 (тяжелый) для Лада Веста</t>
+          <t>Короткоходная кулиса для автомобилей ВАЗ 2110</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5490</v>
+        <v>975</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/29296-mahovik-oblegchennyy-100detaley-turbo-pod-sceplenie-2110</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/ustanovochnyy_komplekt_eur_dlya_vaz_2121_-karbyurator/</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Маховик (вес около 4 кг) 100деталей Турбо под сцепление 2110 для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Установочный комплект ЭУР для ВАЗ 2121 Нива 4х4 (Карбюратор)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4190</v>
+        <v>13340</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37236-mahovik-oblegchennyy-stalnoy-100detaley-vaz-2110-2112</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/zhgut_provodki_dlya_podrulevykh_pereklyuchateley_vaz_dopolnitelnyy/</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Маховик стальной облегченный 100деталей для ВАЗ 2110-2112</t>
+          <t>Жгуты проводки для подрулевых переключателей ВАЗ дополнительные</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11790</v>
+        <v>820</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5807-mahovik-oblegchennyy-100detaley-pod-sceplenie-2123-dlya-2101</t>
+          <t>https://motorring.ru/product/4686-kronshteyn-dlya-ustanovki-elektrousilitelya-rulya-vaz</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Маховик облегченный (тяжелый) 100деталей под сцепление 2123 для 16-клапанных ВАЗ 2101-2107, Лада 4х4</t>
+          <t>Кронштейн для установки электроусилителя руля на ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4490</v>
+        <v>990</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/14199-mahovik-oblegchennyy-100detaley-pod-trosovuyu-korobku</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/komplektuyushchie_rulevogo_mekhanizma/kronshtejn_dlja_ustanovki_jelektrousilitelja_rulja_na_avt_kalina_gr/</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Маховик облегченный (вес около 5.2кг) 100деталей под тросовую коробку передач для Лада Гранта</t>
+          <t>Кронштейн для установки электроусилителя руля на авт. Калина, Гранта</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4890</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37235-mahovik-oblegchennyy-100detaley-lada-vesta</t>
+          <t>https://motorring.ru/product/1043-val-rulevoy-promeghutochnyy-sbore-sharnirom-shevrole-niva</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Маховик 21176 облегченный 100деталей для Лада Веста</t>
+          <t>Вал рулевой промежуточный в сборе с шарниром для Шевроле/Лада Нива 2123</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4490</v>
+        <v>9990</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/31895-mahovik-oblegchennyy-100detaley-pod-sceplenie-2123-dlya-2101-4x4</t>
+          <t>https://motorring.ru/product/12739-kronshteyn-dlya-ustanovki-elektrousilitelya-rulya-eur-lada</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Маховик облегченный 100деталей под сцепление 2123 для 16-клапанных ВАЗ 2101-2107, Лада 4х4</t>
+          <t>Кронштейн для установки электроусилителя руля (ЭУР) для Лада Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4590</v>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/elektrousilitel_rulya_dlya_vaz_2101_2107_klassika_s_korotkim_valom_karbyurator_ot_lada_priora/</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля для ВАЗ 2105 -2107 "Классика" с коротким валом (карбюратор) от Лада Приора</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/2308-kulisa-kpp-korotkohodnaya-vaz-2113-2114-2115</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Кулиса КПП короткоходная для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/7530-shesternya-razreznaya-grm-sport-staly-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Шестерня разрезная ГРМ Спорт (сталь) для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/plastina_ustanovki_elektrousilitelya_rulya_vaz_2101_2107_2121/</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Пластина установки электроусилителя руля ВАЗ 2101 - 2107, 2121 PBK</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/dvigatel/shesterni_shkivy_grm/shesternja_razreznaja_grm_2123_pod_datchik_faz/</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Шестерня разрезная ГРМ 2123 под датчик фаз</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8508</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Установочный комплект электроусилителя руля (без ЭУРа) с обманкой датчика скорости для карбюраторных Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11890</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/7532-razreznaya-shesternya-grm-staly-lada-priora-kalina-granta</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Разрезная шестерня ГРМ (сталь) для 8-клапанных Лада, Приора 2, Калина 2, Гранта круглый зуб</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/transmissiya/korotkokhodnye_kulisy/kulisa_korotkohodnaja_kpp_2181_trosikovaja/</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Кулиса короткоходная КПП 2181 тросиковая</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/kardanchik_dlya_ustanovki_elektrousilitelya_rulya_vaz_2108_2112_universalnyy/</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Карданчик для установки электроусилителя руля ВАЗ 2108 - 2112, универсальный PBK</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/rulevoy_val_kardanchik_dlya_ustanovki_eur_na_klassiku/</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Рулевой вал (карданчик) для установки ЭУР на ВАЗ 2105, 2107 PBK</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18819-kronshteyn-dlya-ustanovki-elektrousilitelya-rulya-vaz</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Кронштейн для установки электроусилителя руля для ВАЗ 2101-2107, Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/rulevoy_val_-kardanchik-_dlya_ustanovki_eur_na_vaz_2101-_2106_reguliruemyy/</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Рулевой вал (карданчик) для установки ЭУР на ВАЗ 2101, 2106 регулируемый</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5800-shesternya-razreznaya-grm-stalynaya-stupica-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Шестерня разрезная ГРМ (стальная ступица) для 8 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора квадратный зуб</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15769-elektrousilitely-rulya-kaluga-priory-komplektom-dlya</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки на инжекторные ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>52990</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/14798-perehodnik-dlya-podrulevyh-pereklyuchateley</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Переходник подрулевых переключателей для ВАЗ 2101-2107, Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/7527-shesterni-razreznye-grm-sport-staly-datchikom-faz-16kl-vaz</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Шестерни разрезные ГРМ Спорт (сталь) с датчиком фаз для 16-клапанных ВАЗ 2110-2112, 2114</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/elektrousilitel_rulya_dlya_vaz_2101_2107_klassika_s_dlinnym_valom_inzhektor_ot_lada_priora/</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля для ВАЗ 2101 -2107 "Классика" с длинным валом (инжектор) от Лада Приора</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18811-promeghutochnyy-rulevoy-val-kardanchik-pod-reduktor-dlya</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Промежуточный рулевой вал (карданчик) под 01 редуктор для установки ЭУР на ВАЗ 2101-2106</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40426-elektrousilitely-rulya-kaluga-komplektom-pod-01-reductor-2101</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки под 01 редуктор для карбюраторных ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>54990</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/2307-kulisa-kpp-korotkohodnaya-vaz-2110-2112-lada-priora</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Короткоходная кулиса КПП для ВАЗ 2110, 2111, 2112, Лада Приора</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15768-elektrousilitely-rulya-kaluga-priory-komplektom-dlya</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки для карбюраторных Лада 4х4</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>60990</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/ustanovochnyy_komplekt_eur_dlya_vaz_2101-2107_-inzhektor/</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Установочный комплект ЭУР для ВАЗ 21214 Нива 4х4 (Инжектор)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>13340</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10946-korotkohodnaya-kulisa-dlya-trosikovoy-kpp-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Короткоходная кулиса под тросиковую КПП для Лада Калина, Калина 2, Гранта</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28465-promeghutochnyy-rulevoy-val-kardanchik-dvustoronney</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Промежуточный рулевой вал (карданчик) с двусторонней регулировкой для установки ЭУР для ВАЗ 2110-2112, Лада Приора</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4687-promeghutochnyy-rulevoy-val-kardanchik-dlya-ustanovki-eur</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Промежуточный рулевой вал (карданчик) для установки ЭУР на Лада Калина, Калина 2, Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/elektrousilitel_rulya_dlya_vaz_2101_2107_klassika_inzhektor_ot_lada_priora/</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля для ВАЗ 2101 -2107 "Классика" (инжектор) от Лада Приора</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6848-shesternya-grm-razreznaya-odnoryadnaya-pod-datchik-faz</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Шестерня ГРМ разрезная однорядная под датчик фаз для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8508-ustanovochnyy-komplekt-elektrousilitelya-rulya-4x4</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Установочный комплект электроусилителя руля (без ЭУРа) с обманкой датчика скорости для карбюраторных Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>11890</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15767-elektrousilitely-rulya-kaluga-priory-komplektom-dlya</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки для инжекторных Лада 4х4</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>53990</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/transmissiya/korotkokhodnye_kulisy/korotkohodnaja_kulisa_dlja_avtomobilej_vaz_2108/</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Короткоходная кулиса для автомобилей ВАЗ 2108</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/elektrousilitel_rulya_21213_-polnyy_komplekt-_karbyurator/</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля 21213 (полный комплект) карбюратор</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>55000</v>
       </c>
     </row>
   </sheetData>
@@ -658,7 +1121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,308 +1131,882 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>163842</v>
+        <v>160631</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/14199-mahovik-oblegchennyy-100detaley-pod-trosovuyu-korobku</t>
+          <t>https://motorring.ru/product/12739-kronshteyn-dlya-ustanovki-elektrousilitelya-rulya-eur-lada</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Маховик облегченный (вес около 5.2кг) 100деталей под тросовую коробку передач для Лада Гранта</t>
+          <t>Кронштейн для установки электроусилителя руля (ЭУР) для Лада Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="D1" t="n">
-        <v>4890</v>
+        <v>990</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>163873</v>
+        <v>162878</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/31898-mahovik-oblegchennyy-100detaley-8v-2101</t>
+          <t>https://motorring.ru/product/10946-korotkohodnaya-kulisa-dlya-trosikovoy-kpp-lada-kalina</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Маховик облегченный 100деталей для 8-клапанных ВАЗ 2101-2107, Лада 4х4</t>
+          <t>Короткоходная кулиса под тросиковую КПП для Лада Калина, Калина 2, Гранта</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4590</v>
+        <v>969</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>163874</v>
+        <v>193602</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/31897-mahovik-oblegchennyy-100detaley-16v-2101</t>
+          <t>https://motorring.ru/product/14798-perehodnik-dlya-podrulevyh-pereklyuchateley</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Маховик облегченный 100деталей для 16-клапанных ВАЗ 2101-2107, Лада 4х4</t>
+          <t>Переходник подрулевых переключателей для ВАЗ 2101-2107, Лада 4х4 (Нива)</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4390</v>
+        <v>790</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>163875</v>
+        <v>160629</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8244-mahovik-oblegchennyy-100detaley-dlya-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/18819-kronshteyn-dlya-ustanovki-elektrousilitelya-rulya-vaz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Маховик облегченный (вес около 4 кг) 100деталей для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Кронштейн для установки электроусилителя руля для ВАЗ 2101-2107, Лада 4х4 (Нива)</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4590</v>
+        <v>790</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>163876</v>
+        <v>160630</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5805-mahovik-oblegchennyy-4kg-sceplenie-2110-vaz-2108-21099-2113-2115</t>
+          <t>https://motorring.ru/product/4686-kronshteyn-dlya-ustanovki-elektrousilitelya-rulya-vaz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Маховик облегченный (вес около 4 кг) 100деталей под сцепление 2110 для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Кронштейн для установки электроусилителя руля на ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4390</v>
+        <v>990</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>163877</v>
+        <v>162882</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5803-mahovik-oblegchennyy-100detaley-dlya-vaz-2110-2112</t>
+          <t>https://motorring.ru/product/2310</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Маховик облегченный (вес около 4 кг) 100деталей для ВАЗ 2110-2112</t>
+          <t>Кулиса КПП короткоходная Stinger для Лада Калина</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4390</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>163879</v>
+        <v>162884</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/31898-mahovik-oblegchennyy-100detaley-8v-2101</t>
+          <t>https://motorring.ru/product/2308-kulisa-kpp-korotkohodnaya-vaz-2113-2114-2115</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Маховик облегченный 100деталей для 8-клапанных ВАЗ 2101-2107, Лада 4х4</t>
+          <t>Кулиса КПП короткоходная для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4590</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>163892</v>
+        <v>162881</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37234-mahovik-oblegchennyy-sceplenie-2123-100detaley-lada-vesta</t>
+          <t>https://motorring.ru/product/2307-kulisa-kpp-korotkohodnaya-vaz-2110-2112-lada-priora</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Маховик 21176 облегченный 100деталей под сцепление 2123 (тяжелый) для Лада Веста</t>
+          <t>Короткоходная кулиса КПП для ВАЗ 2110, 2111, 2112, Лада Приора</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5490</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>163893</v>
+        <v>202544</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37235-mahovik-oblegchennyy-100detaley-lada-vesta</t>
+          <t>https://motorring.ru/product/6848-shesternya-grm-razreznaya-odnoryadnaya-pod-datchik-faz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Маховик 21176 облегченный 100деталей для Лада Веста</t>
+          <t>Шестерня ГРМ разрезная однорядная под датчик фаз для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4490</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>163894</v>
+        <v>225778</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37236-mahovik-oblegchennyy-stalnoy-100detaley-vaz-2110-2112</t>
+          <t>https://motorring.ru/product/6848-shesternya-grm-razreznaya-odnoryadnaya-pod-datchik-faz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Маховик стальной облегченный 100деталей для ВАЗ 2110-2112</t>
+          <t>Шестерня ГРМ разрезная однорядная под датчик фаз для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11790</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>163895</v>
+        <v>202542</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40316-mahovik-oblegchennyy-stalnoy-100detaley-tros-kpp-granta</t>
+          <t>https://motorring.ru/product/7532-razreznaya-shesternya-grm-staly-lada-priora-kalina-granta</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Маховик облегченный стальной 100деталей для Лада Гранта, Гранта FL с тросовым приводом КПП</t>
+          <t>Разрезная шестерня ГРМ (сталь) для 8-клапанных Лада, Приора 2, Калина 2, Гранта круглый зуб</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12490</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>163896</v>
+        <v>225786</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/31895-mahovik-oblegchennyy-100detaley-pod-sceplenie-2123-dlya-2101-4x4</t>
+          <t>https://motorring.ru/product/5800-shesternya-razreznaya-grm-stalynaya-stupica-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Маховик облегченный 100деталей под сцепление 2123 для 16-клапанных ВАЗ 2101-2107, Лада 4х4</t>
+          <t>Шестерня разрезная ГРМ (стальная ступица) для 8 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора квадратный зуб</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4590</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>163897</v>
+        <v>225785</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1026-mahovik-oblegchennyy-100detaley-turbo-215mm-dlya-shevrole</t>
+          <t>https://motorring.ru/product/7530-shesternya-razreznaya-grm-sport-staly-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Маховик облегченный (вес около 4.6кг) 100деталей Турбо 215мм для Шевроле Нива</t>
+          <t>Шестерня разрезная ГРМ Спорт (сталь) для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4490</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>163898</v>
+        <v>211349</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/29296-mahovik-oblegchennyy-100detaley-turbo-pod-sceplenie-2110</t>
+          <t>https://motorring.ru/product/18812-promeghutochnyy-rulevoy-val-kardanchik-dlya-ustanovki-eur</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Маховик (вес около 4 кг) 100деталей Турбо под сцепление 2110 для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Промежуточный рулевой вал (карданчик) под 05 редуктор для установки ЭУР на ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4190</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>163899</v>
+        <v>211352</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5807-mahovik-oblegchennyy-100detaley-pod-sceplenie-2123-dlya-2101</t>
+          <t>https://motorring.ru/product/18811-promeghutochnyy-rulevoy-val-kardanchik-pod-reduktor-dlya</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Маховик облегченный (тяжелый) 100деталей под сцепление 2123 для 16-клапанных ВАЗ 2101-2107, Лада 4х4</t>
+          <t>Промежуточный рулевой вал (карданчик) под 01 редуктор для установки ЭУР на ВАЗ 2101-2106</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4490</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>163900</v>
+        <v>202545</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1025-mahovik-oblegchennyy-100detaley-215mm-dlya-shevrole-niva</t>
+          <t>https://motorring.ru/product/7527-shesterni-razreznye-grm-sport-staly-datchikom-faz-16kl-vaz</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Маховик облегченный (вес около 4.6кг) 100деталей 215мм для Шевроле Нива</t>
+          <t>Шестерни разрезные ГРМ Спорт (сталь) с датчиком фаз для 16-клапанных ВАЗ 2110-2112, 2114</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4590</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>163891</v>
+        <v>243567</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5807-mahovik-oblegchennyy-100detaley-pod-sceplenie-2123-dlya-2101</t>
+          <t>https://motorring.ru/product/1043-val-rulevoy-promeghutochnyy-sbore-sharnirom-shevrole-niva</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Маховик облегченный (тяжелый) 100деталей под сцепление 2123 для 16-клапанных ВАЗ 2101-2107, Лада 4х4</t>
+          <t>Вал рулевой промежуточный в сборе с шарниром для Шевроле/Лада Нива 2123</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4490</v>
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>225612</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/7525-shesterni-razreznye-grm-staly-datchikom-faz-16kl-lada</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Шестерни разрезные ГРМ (сталь) с датчиком фаз для 16-клапанных Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>211350</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4687-promeghutochnyy-rulevoy-val-kardanchik-dlya-ustanovki-eur</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Промежуточный рулевой вал (карданчик) для установки ЭУР на Лада Калина, Калина 2, Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>211351</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/34018-promeghutochnyy-rulevoy-val-ustanovki-eur-vaz-2108-2115</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Промежуточный рулевой вал (карданчик) универсальный для установки ЭУР для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>211347</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28465-promeghutochnyy-rulevoy-val-kardanchik-dvustoronney</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Промежуточный рулевой вал (карданчик) с двусторонней регулировкой для установки ЭУР для ВАЗ 2110-2112, Лада Приора</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>227090</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15767-elektrousilitely-rulya-kaluga-priory-komplektom-dlya</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки для инжекторных Лада 4х4</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>53990</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>227086</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15769-elektrousilitely-rulya-kaluga-priory-komplektom-dlya</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки на инжекторные ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>52990</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>227089</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40426-elektrousilitely-rulya-kaluga-komplektom-pod-01-reductor-2101</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки под 01 редуктор для карбюраторных ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>54990</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>227091</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15768-elektrousilitely-rulya-kaluga-priory-komplektom-dlya</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки для карбюраторных Лада 4х4</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>60990</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>227087</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15769-elektrousilitely-rulya-kaluga-priory-komplektom-dlya</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки на инжекторные ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>52990</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>227088</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15770-elektrousilitely-rulya-kaluga-priory-komplektom-dlya</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки под 05 редуктор для карбюраторных ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>53990</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>264891</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8509-ustanovochnyy-komplekt-elektrousilitelya-rulya-bez-eura</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Установочный комплект электроусилителя руля (без ЭУРа) для инжекторных Лада 4х4 (Нива) 21214, 2131</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>264892</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8508</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Установочный комплект электроусилителя руля (без ЭУРа) с обманкой датчика скорости для карбюраторных Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>11890</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>264893</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8509-ustanovochnyy-komplekt-elektrousilitelya-rulya-bez-eura</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Установочный комплект электроусилителя руля (без ЭУРа) для инжекторных Лада 4х4 (Нива) 21214, 2131</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>264894</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8508-ustanovochnyy-komplekt-elektrousilitelya-rulya-4x4</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Установочный комплект электроусилителя руля (без ЭУРа) с обманкой датчика скорости для карбюраторных Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>11890</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>160631</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/komplektuyushchie_rulevogo_mekhanizma/kronshtejn_dlja_ustanovki_jelektrousilitelja_rulja_na_avt_kalina_gr/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Кронштейн для установки электроусилителя руля на авт. Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>162878</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/transmissiya/korotkokhodnye_kulisy/kulisa_korotkohodnaja_kpp_2181_trosikovaja/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Кулиса короткоходная КПП 2181 тросиковая</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>193602</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/zhgut_provodki_dlya_podrulevykh_pereklyuchateley_vaz_dopolnitelnyy/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Жгуты проводки для подрулевых переключателей ВАЗ дополнительные</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>160629</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/plastina_ustanovki_elektrousilitelya_rulya_vaz_2101_2107_2121/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Пластина установки электроусилителя руля ВАЗ 2101 - 2107, 2121 PBK</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>162884</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/transmissiya/korotkokhodnye_kulisy/korotkohodnaja_kulisa_dlja_avtomobilej_vaz_2108/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Короткоходная кулиса для автомобилей ВАЗ 2108</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>162881</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/transmissiya/korotkokhodnye_kulisy/korotkohodnaja_kulisa_dlja_avtomobilej_vaz_2110/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Короткоходная кулиса для автомобилей ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>225778</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/dvigatel/shesterni_shkivy_grm/shesternja_razreznaja_grm_2123_pod_datchik_faz/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Шестерня разрезная ГРМ 2123 под датчик фаз</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>211349</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/rulevoy_val_kardanchik_dlya_ustanovki_eur_na_klassiku/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Рулевой вал (карданчик) для установки ЭУР на ВАЗ 2105, 2107 PBK</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>211352</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/rulevoy_val_-kardanchik-_dlya_ustanovki_eur_na_vaz_2101-_2106/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Рулевой вал (карданчик) для установки ЭУР на ВАЗ 2101, 2106</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>211351</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/kardanchik_dlya_ustanovki_elektrousilitelya_rulya_vaz_2108_2112_universalnyy/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Карданчик для установки электроусилителя руля ВАЗ 2108 - 2112, универсальный PBK</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>211347</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/rulevoy_val_-kardanchik-_dlya_ustanovki_eur_na_vaz_2101-_2106_reguliruemyy/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Рулевой вал (карданчик) для установки ЭУР на ВАЗ 2101, 2106 регулируемый</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>227086</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/elektrousilitel_rulya_dlya_vaz_2101_2107_klassika_inzhektor_ot_lada_priora/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля для ВАЗ 2101 -2107 "Классика" (инжектор) от Лада Приора</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>227091</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/elektrousilitel_rulya_21213_-polnyy_komplekt-_karbyurator/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля 21213 (полный комплект) карбюратор</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>227087</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/elektrousilitel_rulya_dlya_vaz_2101_2107_klassika_s_dlinnym_valom_inzhektor_ot_lada_priora/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля для ВАЗ 2101 -2107 "Классика" с длинным валом (инжектор) от Лада Приора</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>227088</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/elektrousilitel_rulya_dlya_vaz_2101_2107_klassika_s_korotkim_valom_karbyurator_ot_lada_priora/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Электроусилитель руля для ВАЗ 2105 -2107 "Классика" с коротким валом (карбюратор) от Лада Приора</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>264891</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/ustanovochnyy_komplekt_eur_dlya_vaz_2105-2107_-inzhektor/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Установочный комплект ЭУР для ВАЗ 2105-2107 (Инжектор)</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>13150</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>264893</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/ustanovochnyy_komplekt_eur_dlya_vaz_2101-2107_-inzhektor/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Установочный комплект ЭУР для ВАЗ 21214 Нива 4х4 (Инжектор)</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>13340</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>264894</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/ustanovochnyy_komplekt_eur_dlya_vaz_2121_-karbyurator/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Установочный комплект ЭУР для ВАЗ 2121 Нива 4х4 (Карбюратор)</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>13340</v>
       </c>
     </row>
   </sheetData>

--- a/output_data/output.xlsx
+++ b/output_data/output.xlsx
@@ -425,520 +425,520 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2310</t>
+          <t>https://motorring.ru/product/2307-kulisa-kpp-korotkohodnaya-vaz-2110-2112-lada-priora</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Кулиса КПП короткоходная Stinger для Лада Калина</t>
+          <t>Короткоходная кулиса КПП для ВАЗ 2110, 2111, 2112, Лада Приора</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1390</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/ustanovochnyy_komplekt_eur_dlya_vaz_2105-2107_-inzhektor/</t>
+          <t>https://motorring.ru/product/7527-shesterni-razreznye-grm-sport-staly-datchikom-faz-16kl-vaz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Установочный комплект ЭУР для ВАЗ 2105-2107 (Инжектор)</t>
+          <t>Шестерни разрезные ГРМ Спорт (сталь) с датчиком фаз для 16-клапанных ВАЗ 2110-2112, 2114</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13150</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/rulevoy_val_-kardanchik-_dlya_ustanovki_eur_na_vaz_2101-_2106/</t>
+          <t>https://motorring.ru/product/6848-shesternya-grm-razreznaya-odnoryadnaya-pod-datchik-faz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Рулевой вал (карданчик) для установки ЭУР на ВАЗ 2101, 2106</t>
+          <t>Шестерня ГРМ разрезная однорядная под датчик фаз для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2750</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8509-ustanovochnyy-komplekt-elektrousilitelya-rulya-bez-eura</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/rulevoy_val_-kardanchik-_dlya_ustanovki_eur_na_vaz_2101-_2106/</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Установочный комплект электроусилителя руля (без ЭУРа) для инжекторных Лада 4х4 (Нива) 21214, 2131</t>
+          <t>Рулевой вал (карданчик) для установки ЭУР на ВАЗ 2101, 2106</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10990</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/7525-shesterni-razreznye-grm-staly-datchikom-faz-16kl-lada</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/plastina_ustanovki_elektrousilitelya_rulya_vaz_2101_2107_2121/</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Шестерни разрезные ГРМ (сталь) с датчиком фаз для 16-клапанных Лада Приора, Калина, Гранта</t>
+          <t>Пластина установки электроусилителя руля ВАЗ 2101 - 2107, 2121 PBK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5990</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18812-promeghutochnyy-rulevoy-val-kardanchik-dlya-ustanovki-eur</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/rulevoy_val_-kardanchik-_dlya_ustanovki_eur_na_vaz_2101-_2106_reguliruemyy/</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Промежуточный рулевой вал (карданчик) под 05 редуктор для установки ЭУР на ВАЗ 2101-2107</t>
+          <t>Рулевой вал (карданчик) для установки ЭУР на ВАЗ 2101, 2106 регулируемый</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2190</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/34018-promeghutochnyy-rulevoy-val-ustanovki-eur-vaz-2108-2115</t>
+          <t>https://motorring.ru/product/10946-korotkohodnaya-kulisa-dlya-trosikovoy-kpp-lada-kalina</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Промежуточный рулевой вал (карданчик) универсальный для установки ЭУР для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>Короткоходная кулиса под тросиковую КПП для Лада Калина, Калина 2, Гранта</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15770-elektrousilitely-rulya-kaluga-priory-komplektom-dlya</t>
+          <t>https://motorring.ru/product/8508</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки под 05 редуктор для карбюраторных ВАЗ 2101-2107</t>
+          <t>Установочный комплект электроусилителя руля (без ЭУРа) с обманкой датчика скорости для карбюраторных Лада 4х4 (Нива)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>53990</v>
+        <v>11890</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/korotkokhodnye_kulisy/korotkohodnaja_kulisa_dlja_avtomobilej_vaz_2110/</t>
+          <t>https://33sport.ru/catalog/transmissiya/korotkokhodnye_kulisy/kulisa_korotkohodnaja_kpp_2181_trosikovaja/</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Короткоходная кулиса для автомобилей ВАЗ 2110</t>
+          <t>Кулиса короткоходная КПП 2181 тросиковая</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>975</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/ustanovochnyy_komplekt_eur_dlya_vaz_2121_-karbyurator/</t>
+          <t>https://motorring.ru/product/18811-promeghutochnyy-rulevoy-val-kardanchik-pod-reduktor-dlya</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Установочный комплект ЭУР для ВАЗ 2121 Нива 4х4 (Карбюратор)</t>
+          <t>Промежуточный рулевой вал (карданчик) под 01 редуктор для установки ЭУР на ВАЗ 2101-2106</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13340</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/zhgut_provodki_dlya_podrulevykh_pereklyuchateley_vaz_dopolnitelnyy/</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/elektrousilitel_rulya_dlya_vaz_2101_2107_klassika_s_korotkim_valom_karbyurator_ot_lada_priora/</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Жгуты проводки для подрулевых переключателей ВАЗ дополнительные</t>
+          <t>Электроусилитель руля для ВАЗ 2105 -2107 "Классика" с коротким валом (карбюратор) от Лада Приора</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>820</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/4686-kronshteyn-dlya-ustanovki-elektrousilitelya-rulya-vaz</t>
+          <t>https://motorring.ru/product/1043-val-rulevoy-promeghutochnyy-sbore-sharnirom-shevrole-niva</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Кронштейн для установки электроусилителя руля на ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора</t>
+          <t>Вал рулевой промежуточный в сборе с шарниром для Шевроле/Лада Нива 2123</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>990</v>
+        <v>9990</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/rulevoe_upravlenie/komplektuyushchie_rulevogo_mekhanizma/kronshtejn_dlja_ustanovki_jelektrousilitelja_rulja_na_avt_kalina_gr/</t>
+          <t>https://33sport.ru/catalog/dvigatel/shesterni_shkivy_grm/shesternja_razreznaja_grm_2123_pod_datchik_faz/</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Кронштейн для установки электроусилителя руля на авт. Калина, Гранта</t>
+          <t>Шестерня разрезная ГРМ 2123 под датчик фаз</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>475</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1043-val-rulevoy-promeghutochnyy-sbore-sharnirom-shevrole-niva</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/elektrousilitel_rulya_dlya_vaz_2101_2107_klassika_s_dlinnym_valom_inzhektor_ot_lada_priora/</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Вал рулевой промежуточный в сборе с шарниром для Шевроле/Лада Нива 2123</t>
+          <t>Электроусилитель руля для ВАЗ 2101 -2107 "Классика" с длинным валом (инжектор) от Лада Приора</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9990</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12739-kronshteyn-dlya-ustanovki-elektrousilitelya-rulya-eur-lada</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/elektrousilitel_rulya_21213_-polnyy_komplekt-_karbyurator/</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Кронштейн для установки электроусилителя руля (ЭУР) для Лада Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
+          <t>Электроусилитель руля 21213 (полный комплект) карбюратор</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>990</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/elektrousilitel_rulya_dlya_vaz_2101_2107_klassika_s_korotkim_valom_karbyurator_ot_lada_priora/</t>
+          <t>https://motorring.ru/product/34018-promeghutochnyy-rulevoy-val-ustanovki-eur-vaz-2108-2115</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Электроусилитель руля для ВАЗ 2105 -2107 "Классика" с коротким валом (карбюратор) от Лада Приора</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>55000</v>
-      </c>
+          <t>Промежуточный рулевой вал (карданчик) универсальный для установки ЭУР для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2308-kulisa-kpp-korotkohodnaya-vaz-2113-2114-2115</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/ustanovochnyy_komplekt_eur_dlya_vaz_2121_-karbyurator/</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Кулиса КПП короткоходная для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Установочный комплект ЭУР для ВАЗ 2121 Нива 4х4 (Карбюратор)</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1690</v>
+        <v>13340</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/7530-shesternya-razreznaya-grm-sport-staly-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/8509-ustanovochnyy-komplekt-elektrousilitelya-rulya-bez-eura</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Шестерня разрезная ГРМ Спорт (сталь) для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+          <t>Установочный комплект электроусилителя руля (без ЭУРа) для инжекторных Лада 4х4 (Нива) 21214, 2131</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2890</v>
+        <v>10990</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/plastina_ustanovki_elektrousilitelya_rulya_vaz_2101_2107_2121/</t>
+          <t>https://motorring.ru/product/7525-shesterni-razreznye-grm-staly-datchikom-faz-16kl-lada</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Пластина установки электроусилителя руля ВАЗ 2101 - 2107, 2121 PBK</t>
+          <t>Шестерни разрезные ГРМ (сталь) с датчиком фаз для 16-клапанных Лада Приора, Калина, Гранта</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>750</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/dvigatel/shesterni_shkivy_grm/shesternja_razreznaja_grm_2123_pod_datchik_faz/</t>
+          <t>https://motorring.ru/product/4687-promeghutochnyy-rulevoy-val-kardanchik-dlya-ustanovki-eur</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Шестерня разрезная ГРМ 2123 под датчик фаз</t>
+          <t>Промежуточный рулевой вал (карданчик) для установки ЭУР на Лада Калина, Калина 2, Гранта, Гранта FL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1950</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8508</t>
+          <t>https://motorring.ru/product/7532-razreznaya-shesternya-grm-staly-lada-priora-kalina-granta</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Установочный комплект электроусилителя руля (без ЭУРа) с обманкой датчика скорости для карбюраторных Лада 4х4 (Нива)</t>
+          <t>Разрезная шестерня ГРМ (сталь) для 8-клапанных Лада, Приора 2, Калина 2, Гранта круглый зуб</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>11890</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/7532-razreznaya-shesternya-grm-staly-lada-priora-kalina-granta</t>
+          <t>https://motorring.ru/product/8508-ustanovochnyy-komplekt-elektrousilitelya-rulya-4x4</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Разрезная шестерня ГРМ (сталь) для 8-клапанных Лада, Приора 2, Калина 2, Гранта круглый зуб</t>
+          <t>Установочный комплект электроусилителя руля (без ЭУРа) с обманкой датчика скорости для карбюраторных Лада 4х4 (Нива)</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1690</v>
+        <v>11890</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/korotkokhodnye_kulisy/kulisa_korotkohodnaja_kpp_2181_trosikovaja/</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/rulevoy_val_kardanchik_dlya_ustanovki_eur_na_klassiku/</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Кулиса короткоходная КПП 2181 тросиковая</t>
+          <t>Рулевой вал (карданчик) для установки ЭУР на ВАЗ 2105, 2107 PBK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/kardanchik_dlya_ustanovki_elektrousilitelya_rulya_vaz_2108_2112_universalnyy/</t>
+          <t>https://motorring.ru/product/18819-kronshteyn-dlya-ustanovki-elektrousilitelya-rulya-vaz</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Карданчик для установки электроусилителя руля ВАЗ 2108 - 2112, универсальный PBK</t>
+          <t>Кронштейн для установки электроусилителя руля для ВАЗ 2101-2107, Лада 4х4 (Нива)</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2300</v>
+        <v>790</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/rulevoy_val_kardanchik_dlya_ustanovki_eur_na_klassiku/</t>
+          <t>https://motorring.ru/product/2310</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Рулевой вал (карданчик) для установки ЭУР на ВАЗ 2105, 2107 PBK</t>
+          <t>Кулиса КПП короткоходная Stinger для Лада Калина</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1900</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18819-kronshteyn-dlya-ustanovki-elektrousilitelya-rulya-vaz</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/komplektuyushchie_rulevogo_mekhanizma/kronshtejn_dlja_ustanovki_jelektrousilitelja_rulja_na_avt_kalina_gr/</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Кронштейн для установки электроусилителя руля для ВАЗ 2101-2107, Лада 4х4 (Нива)</t>
+          <t>Кронштейн для установки электроусилителя руля на авт. Калина, Гранта</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>790</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/rulevoy_val_-kardanchik-_dlya_ustanovki_eur_na_vaz_2101-_2106_reguliruemyy/</t>
+          <t>https://motorring.ru/product/7530-shesternya-razreznaya-grm-sport-staly-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Рулевой вал (карданчик) для установки ЭУР на ВАЗ 2101, 2106 регулируемый</t>
+          <t>Шестерня разрезная ГРМ Спорт (сталь) для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3250</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5800-shesternya-razreznaya-grm-stalynaya-stupica-vaz-2108-21099</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/elektrousilitel_rulya_dlya_vaz_2101_2107_klassika_inzhektor_ot_lada_priora/</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Шестерня разрезная ГРМ (стальная ступица) для 8 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора квадратный зуб</t>
+          <t>Электроусилитель руля для ВАЗ 2101 -2107 "Классика" (инжектор) от Лада Приора</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2890</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15769-elektrousilitely-rulya-kaluga-priory-komplektom-dlya</t>
+          <t>https://33sport.ru/catalog/transmissiya/korotkokhodnye_kulisy/korotkohodnaja_kulisa_dlja_avtomobilej_vaz_2110/</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки на инжекторные ВАЗ 2101-2107</t>
+          <t>Короткоходная кулиса для автомобилей ВАЗ 2110</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>52990</v>
+        <v>975</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/14798-perehodnik-dlya-podrulevyh-pereklyuchateley</t>
+          <t>https://33sport.ru/catalog/transmissiya/korotkokhodnye_kulisy/korotkohodnaja_kulisa_dlja_avtomobilej_vaz_2108/</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Переходник подрулевых переключателей для ВАЗ 2101-2107, Лада 4х4 (Нива)</t>
+          <t>Короткоходная кулиса для автомобилей ВАЗ 2108</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>790</v>
+        <v>975</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/7527-shesterni-razreznye-grm-sport-staly-datchikom-faz-16kl-vaz</t>
+          <t>https://motorring.ru/product/15770-elektrousilitely-rulya-kaluga-priory-komplektom-dlya</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Шестерни разрезные ГРМ Спорт (сталь) с датчиком фаз для 16-клапанных ВАЗ 2110-2112, 2114</t>
+          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки под 05 редуктор для карбюраторных ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2990</v>
+        <v>53990</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/elektrousilitel_rulya_dlya_vaz_2101_2107_klassika_s_dlinnym_valom_inzhektor_ot_lada_priora/</t>
+          <t>https://motorring.ru/product/18812-promeghutochnyy-rulevoy-val-kardanchik-dlya-ustanovki-eur</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Электроусилитель руля для ВАЗ 2101 -2107 "Классика" с длинным валом (инжектор) от Лада Приора</t>
+          <t>Промежуточный рулевой вал (карданчик) под 05 редуктор для установки ЭУР на ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>55000</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18811-promeghutochnyy-rulevoy-val-kardanchik-pod-reduktor-dlya</t>
+          <t>https://motorring.ru/product/40426-elektrousilitely-rulya-kaluga-komplektom-pod-01-reductor-2101</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Промежуточный рулевой вал (карданчик) под 01 редуктор для установки ЭУР на ВАЗ 2101-2106</t>
+          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки под 01 редуктор для карбюраторных ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2890</v>
+        <v>54990</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40426-elektrousilitely-rulya-kaluga-komplektom-pod-01-reductor-2101</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/zhgut_provodki_dlya_podrulevykh_pereklyuchateley_vaz_dopolnitelnyy/</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки под 01 редуктор для карбюраторных ВАЗ 2101-2107</t>
+          <t>Жгуты проводки для подрулевых переключателей ВАЗ дополнительные</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>54990</v>
+        <v>820</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2307-kulisa-kpp-korotkohodnaya-vaz-2110-2112-lada-priora</t>
+          <t>https://motorring.ru/product/2308-kulisa-kpp-korotkohodnaya-vaz-2113-2114-2115</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Короткоходная кулиса КПП для ВАЗ 2110, 2111, 2112, Лада Приора</t>
+          <t>Кулиса КПП короткоходная для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -978,136 +978,136 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10946-korotkohodnaya-kulisa-dlya-trosikovoy-kpp-lada-kalina</t>
+          <t>https://motorring.ru/product/15767-elektrousilitely-rulya-kaluga-priory-komplektom-dlya</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Короткоходная кулиса под тросиковую КПП для Лада Калина, Калина 2, Гранта</t>
+          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки для инжекторных Лада 4х4</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>969</v>
+        <v>53990</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/28465-promeghutochnyy-rulevoy-val-kardanchik-dvustoronney</t>
+          <t>https://motorring.ru/product/12739-kronshteyn-dlya-ustanovki-elektrousilitelya-rulya-eur-lada</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Промежуточный рулевой вал (карданчик) с двусторонней регулировкой для установки ЭУР для ВАЗ 2110-2112, Лада Приора</t>
+          <t>Кронштейн для установки электроусилителя руля (ЭУР) для Лада Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3490</v>
+        <v>990</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/4687-promeghutochnyy-rulevoy-val-kardanchik-dlya-ustanovki-eur</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/ustanovochnyy_komplekt_eur_dlya_vaz_2105-2107_-inzhektor/</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Промежуточный рулевой вал (карданчик) для установки ЭУР на Лада Калина, Калина 2, Гранта, Гранта FL</t>
+          <t>Установочный комплект ЭУР для ВАЗ 2105-2107 (Инжектор)</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2190</v>
+        <v>13150</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/elektrousilitel_rulya_dlya_vaz_2101_2107_klassika_inzhektor_ot_lada_priora/</t>
+          <t>https://motorring.ru/product/4686-kronshteyn-dlya-ustanovki-elektrousilitelya-rulya-vaz</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Электроусилитель руля для ВАЗ 2101 -2107 "Классика" (инжектор) от Лада Приора</t>
+          <t>Кронштейн для установки электроусилителя руля на ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>55000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6848-shesternya-grm-razreznaya-odnoryadnaya-pod-datchik-faz</t>
+          <t>https://motorring.ru/product/28465-promeghutochnyy-rulevoy-val-kardanchik-dvustoronney</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Шестерня ГРМ разрезная однорядная под датчик фаз для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Промежуточный рулевой вал (карданчик) с двусторонней регулировкой для установки ЭУР для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2090</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8508-ustanovochnyy-komplekt-elektrousilitelya-rulya-4x4</t>
+          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/kardanchik_dlya_ustanovki_elektrousilitelya_rulya_vaz_2108_2112_universalnyy/</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Установочный комплект электроусилителя руля (без ЭУРа) с обманкой датчика скорости для карбюраторных Лада 4х4 (Нива)</t>
+          <t>Карданчик для установки электроусилителя руля ВАЗ 2108 - 2112, универсальный PBK</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>11890</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15767-elektrousilitely-rulya-kaluga-priory-komplektom-dlya</t>
+          <t>https://motorring.ru/product/5800-shesternya-razreznaya-grm-stalynaya-stupica-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки для инжекторных Лада 4х4</t>
+          <t>Шестерня разрезная ГРМ (стальная ступица) для 8 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора квадратный зуб</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>53990</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/korotkokhodnye_kulisy/korotkohodnaja_kulisa_dlja_avtomobilej_vaz_2108/</t>
+          <t>https://motorring.ru/product/14798-perehodnik-dlya-podrulevyh-pereklyuchateley</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Короткоходная кулиса для автомобилей ВАЗ 2108</t>
+          <t>Переходник подрулевых переключателей для ВАЗ 2101-2107, Лада 4х4 (Нива)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>975</v>
+        <v>790</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/rulevoe_upravlenie/usilitel_rulya/elektrousilitel_rulya_21213_-polnyy_komplekt-_karbyurator/</t>
+          <t>https://motorring.ru/product/15769-elektrousilitely-rulya-kaluga-priory-komplektom-dlya</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Электроусилитель руля 21213 (полный комплект) карбюратор</t>
+          <t>Электроусилитель руля Калуга от Приоры с комплектом для установки на инжекторные ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>55000</v>
+        <v>52990</v>
       </c>
     </row>
   </sheetData>

--- a/output_data/output.xlsx
+++ b/output_data/output.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,121 +425,674 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/24709-komplekt-detaley-dlya-remonta-privoda-grm-rusmash-dlya</t>
+          <t>https://33sport.ru/catalog/elektirika_vaz/benzonasos_vaz/motor_el-benzonasosa_2112_vie_-tolyatti-_vaz-inomarki-davl-6atm_-2112-11392009/</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Комплект деталей для ремонта привода ГРМ РусМаш 21213 для карбюраторных Лада 4х4 (Нива)</t>
+          <t>Мотор электробензонасоса 2112 ВИЭ (Тольятти) ВАЗ,иномарки,давл.6Атм (2112-11392009)</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>4690</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37177-remkomplekt-privoda-grm-rusmash-21124-16v-vaz-2110</t>
+          <t>https://motorring.ru/product/20636-datchik-faz-vie-analog-141-3855-vaz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Комплект деталей для ремонта привода ГРМ РусМаш для 16-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+          <t>Датчик фаз ВИЭ (аналог 141,3855) под инжектор для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Калина, Приора, Лада 4х4 (Нива), Шевроле Нива</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4090</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2673-avtomaticheskiy-natyaghitely-cepi-pilot-vaz-2101-2107-2121</t>
+          <t>https://motorring.ru/product/15607-elektrokorrektor-far-lada-niva</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Автоматический натяжитель цепи РусМаш Пилот для ВАЗ 2101-2107, Лада 4х4 (Нива 2121, 21213), Москвич 2141</t>
+          <t>Электрокорректор фар для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>949</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37176-remkomplekt-privoda-grm-rusmash-2108-8v-vaz-2109</t>
+          <t>https://motorring.ru/product/38961-elektrobenzonas-vie-sbore-starogo-obrazca-gayke-21214</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Комплект деталей для ремонта привода ГРМ РусМаш ВАЗ 2108 для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта в комплектации Стандарт, Ока</t>
+          <t>Электробензонас ВИЭ в сборе старого образца (на гайке) для 3-дверной Лада 4х4 (Нива)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3690</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37168-remkomplekt-privoda-grm-rusmash-21126-16v-kalina</t>
+          <t>https://motorring.ru/product/20644-forsunka-735-vie-16kl-vaz-2110-2112-lada-kalina-priora</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Комплект деталей для ремонта привода ГРМ РусМаш ВАЗ 21126 для 16-клапанных Лада Приора, Калина, Калина 2, Гранта, Гранта FL, Ларгус, Ларгус FL, Веста, Икс Рей, Датсун</t>
+          <t>Форсунка ВИЭ 735 под двигатель 1.6л для 16-клапанных ВАЗ 2110-2112, Лада Калина, Приора, Гранта</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4390</v>
+        <v>990</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37166-remkomplekt-privoda-grm-rusmash-classic-vaz-2106-2121</t>
+          <t>https://motorring.ru/product/20640-motor-elektrobenzonasosa-vie-lada-largus-reno-logan-sandero</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Комплект деталей для ремонта привода ГРМ РусМаш Classic для карбюраторных ВАЗ 2101-2106, Лада 4х4 (Нива)</t>
+          <t>Мотор электробензонасоса ВИЭ для Лада Ларгус, Рено Логан, Сандеро, Дастер с двигателем 1.4, 1.6л</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4690</v>
+        <v>990</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37165-remkomplekt-privoda-grm-rusmash-21214-chevrole-niva</t>
+          <t>https://motorring.ru/product/88-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Комплект деталей для ремонта привода ГРМ РусМаш 21214 под фазированный впрыск для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 52 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4890</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2674-avtomaticheskiy-natyaghitely-cepi-pilot-vaz-21213-21214</t>
+          <t>https://motorring.ru/product/13316-prokladka-drosselynoy-zaslonki-vaz-2108-2115-lada-priora-kalina-k</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Автоматический натяжитель цепи РусМаш Пилот для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Прокладка дроссельной заслонки для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта, Нива Легенд/Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>949</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38955-forsunka-vie-72370-dlya-lada-kalina-kalina-priora-granta</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Форсунка ВИЭ 72370 для 8-клапанных Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Веста, Ларгус, Датсун</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38946-regulyator-holostogo-hoda-vie-plastikoviy-nakonechnik-lada-niva</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Регулятор холостого хода ВИЭ с пластиковым наконечником для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/96-drosselynaya-zaslonka-lada-4h4-shevrole-niva-prokladka</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 56 мм для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16635-standartnaya-drosselynaya-zaslonka-lada-4h4-niva-2121-21213</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Стандартная дроссельная заслонка ВИЭ 46 мм для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38958-elektrobenzonasos-sbore-vie-21101-vaz-2110-2112-lada</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Электробензонасос ВИЭ в сборе для инжекторных ВАЗ 2110-2112, Лада Приора, Калина, Гранта, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/94-drosselynaya-zaslonka-lada-4h4-shevrole-niva-prokladka</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 52 мм для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20704-regulyator-davleniya-topliva-vie-380-vaz-2110-2115-lada</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Регулятор давления топлива ВИЭ 380 под двигатель 1.6л для ВАЗ 2110-2112, 2113-2115, Лада Приора, Калина, Гранта, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38942-datchik-faz-vie-dlya-inghektornyh-vaz</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Датчик фаз ВИЭ для 16-клапанных инжекторных ВАЗ 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Ларгус, Ларгус FL, Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5530-elektrokorrektor-far-dlya-lada-granta</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Электрокорректор фар для Лада Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3047-rezistor-elektronnogo-ventilyatora-otopitelya-dlya-lada</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Резистор электронного вентилятора отопителя для Лада Приора с кондиционером Panasonic </t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20635-halyaving-datchik-skorosti-vie-dlya-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ХалявING! Датчик скорости ВИЭ для ВАЗ 2108-21099 с механической комбинацией приборов </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38951-forsunka-vie-017-dlya-8-klapannyh-vaz-2110-2112-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Форсунка ВИЭ 017 для 8-клапанных ВАЗ 2110-2112, Лада Калина, Приора, Гранта, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_kholostogo_khoda_vaz/regulyator_kholostogo_khoda_21203_vie_tolyatti_usilennyy_-21203-1148300/</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Регулятор холостого хода 21203 ВИЭ Тольятти усиленный (21203-1148300)</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38960-elektrobenzonasos-sbore-vie-vaz-2110-2112-2113-2115</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Электробензонасос ВИЭ в сборе для ВАЗ 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18963-podrulevoy-pereklyuchately-shleyf-starogo-obrazca-dlya-lada</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Подрулевой переключатель (шлейф) старого образца ВИЭ для Лада Приора, Калина до 2011 г с подушкой безопасности</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_faz_vaz/datchik_faz_2112_vie_toltti_-2112-3706040/</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Датчик фаз 2112 ВИЭ Тольтти (2112-3706040)</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/89-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 54 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/90-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 56 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/elektirika_vaz/benzonasos_vaz/motor_elektrobenzonasosa_-vie-_dlya_lada_vesta/</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Мотор электробензонасоса "ВИЭ" для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15358-podrulevoy-pereklyuchately-shleyf-novogo-obrazca-lada</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Подрулевой переключатель (шлейф) ВИЭ нового образца для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20639-motor-elektrobenzonasosa-vie-lada-vesta</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Мотор электробензонасоса ВИЭ для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19060-standartnaya-drosselynaya-zaslonka-sbore-datchikami-vaz</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Стандартная дроссельная заслонка ВИЭ 46 мм в сборе с датчиками для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_detonatsii5031/datchik_detonatsii_2112_vie_tolyatti_-2112-3855020/</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Датчик детонации 2112 ВИЭ Тольятти (2112-3855020)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20645-forsunka-6238-vie-vaz-2108-21099-2110-2112-2113-2115</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Топливная форсунка ВИЭ 6238 для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_kholostogo_khoda_vaz/regulyator_kholostogo_khoda_2112_vie_tolyatti_usilennyy_-2112-1148300/</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Регулятор холостого хода 2112 ВИЭ Тольятти усиленный (2112-1148300)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12200-standartnaya-drosselynaya-zaslonka-vaz-2108-2115-2110-2112</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Стандартная дроссельная заслонка ВИЭ 46 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38962-elektrobenzonas-vie-sbore-novogo-obrazca-shtucere-21313</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Электробензонас ВИЭ в сборе нового образца (на штуцере) для 5-дверной Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18249-motor-elektrobenzonasosa-2112-povyshennoy</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Мотор электробензонасоса ВИЭ (аналог 0 580 454 035) для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта, Нива 4х4, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40555-drosselynaya-zaslonka-vie-21116-lada-priora-kalina-granta</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Дроссельная заслонка ВИЭ 21116 в сборе с датчиками для 8-клапанных ВАЗ 2113-2115, Лада Приора, Калина, Калина 2, Гранта с Е-Газ</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38959-elektrobenzonasos-sbore-vie-vaz-21044-dlya-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Электробензонасос ВИЭ в сборе для инжекторных ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/95-drosselynaya-zaslonka-lada-4h4-shevrole-niva-prokladka</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 54 мм для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20641-regulyator-holostogo-hoda-vie-vaz-2105-2107-2108-21099</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Регулятор холостого хода ВИЭ с металлическим наконечником для ВАЗ 2105, 2107, 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/17852-regulyator-davleniya-topliva-rdt-300-vie-21083</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Регулятор давления топлива РДТ-300 ВИЭ под двигатель 1.5л для инжекторных ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3061-moduly-zaghiganiya-soate-vaz-2104-2107-2110-2112-lada</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Модуль зажигания СОАТЭ для 8-клапанных ВАЗ 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Гранта, Гранта FL, 4х4, Нива Легенд, Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38963-elektrobenzonasos-vie-2123-sbore-dlya-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Электробензонасос ВИЭ 2123 в сборе для Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11342-regulyator-holostogo-hoda-vie-lada-4h4-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Регулятор холостого хода ВИЭ с металлическим наконечником для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_polozheniya_zaslonki_vaz/datchik_polozheniya_zaslonki_vie_tolyatti_-2112-1148200/</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Датчик положения заслонки ВИЭ Тольятти (2112-1148200)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +1106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,146 +1116,900 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>158507</v>
+        <v>203496</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/24709-komplekt-detaley-dlya-remonta-privoda-grm-rusmash-dlya</t>
+          <t>https://motorring.ru/product/3047-rezistor-elektronnogo-ventilyatora-otopitelya-dlya-lada</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Комплект деталей для ремонта привода ГРМ РусМаш 21213 для карбюраторных Лада 4х4 (Нива)</t>
+          <t xml:space="preserve">Резистор электронного вентилятора отопителя для Лада Приора с кондиционером Panasonic </t>
         </is>
       </c>
       <c r="D1" t="n">
-        <v>4690</v>
+        <v>990</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>204389</v>
+        <v>201416</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37177-remkomplekt-privoda-grm-rusmash-21124-16v-vaz-2110</t>
+          <t>https://motorring.ru/product/13316-prokladka-drosselynoy-zaslonki-vaz-2108-2115-lada-priora-kalina-k</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Комплект деталей для ремонта привода ГРМ РусМаш для 16-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+          <t>Прокладка дроссельной заслонки для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта, Нива Легенд/Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4090</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>204388</v>
+        <v>142061</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37176-remkomplekt-privoda-grm-rusmash-2108-8v-vaz-2109</t>
+          <t>https://motorring.ru/product/20635-halyaving-datchik-skorosti-vie-dlya-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Комплект деталей для ремонта привода ГРМ РусМаш ВАЗ 2108 для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта в комплектации Стандарт, Ока</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3690</v>
-      </c>
+          <t xml:space="preserve">ХалявING! Датчик скорости ВИЭ для ВАЗ 2108-21099 с механической комбинацией приборов </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>204390</v>
+        <v>142182</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37168-remkomplekt-privoda-grm-rusmash-21126-16v-kalina</t>
+          <t>https://motorring.ru/product/20636-datchik-faz-vie-analog-141-3855-vaz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Комплект деталей для ремонта привода ГРМ РусМаш ВАЗ 21126 для 16-клапанных Лада Приора, Калина, Калина 2, Гранта, Гранта FL, Ларгус, Ларгус FL, Веста, Икс Рей, Датсун</t>
+          <t>Датчик фаз ВИЭ (аналог 141,3855) под инжектор для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Калина, Приора, Лада 4х4 (Нива), Шевроле Нива</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4390</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>159454</v>
+        <v>142183</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37165-remkomplekt-privoda-grm-rusmash-21214-chevrole-niva</t>
+          <t>https://motorring.ru/product/38942-datchik-faz-vie-dlya-inghektornyh-vaz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Комплект деталей для ремонта привода ГРМ РусМаш 21214 под фазированный впрыск для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Датчик фаз ВИЭ для 16-клапанных инжекторных ВАЗ 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Ларгус, Ларгус FL, Веста, Икс Рей</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4890</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131450</v>
+        <v>203181</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2673-avtomaticheskiy-natyaghitely-cepi-pilot-vaz-2101-2107-2121</t>
+          <t>https://motorring.ru/product/20704-regulyator-davleniya-topliva-vie-380-vaz-2110-2115-lada</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Автоматический натяжитель цепи РусМаш Пилот для ВАЗ 2101-2107, Лада 4х4 (Нива 2121, 21213), Москвич 2141</t>
+          <t>Регулятор давления топлива ВИЭ 380 под двигатель 1.6л для ВАЗ 2110-2112, 2113-2115, Лада Приора, Калина, Гранта, Шевроле Нива</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>949</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131451</v>
+        <v>203221</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2674-avtomaticheskiy-natyaghitely-cepi-pilot-vaz-21213-21214</t>
+          <t>https://motorring.ru/product/11342-regulyator-holostogo-hoda-vie-lada-4h4-shevrole-niva</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Автоматический натяжитель цепи РусМаш Пилот для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Регулятор холостого хода ВИЭ с металлическим наконечником для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>949</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>158505</v>
+        <v>203187</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37166-remkomplekt-privoda-grm-rusmash-classic-vaz-2106-2121</t>
+          <t>https://motorring.ru/product/17852-regulyator-davleniya-topliva-rdt-300-vie-21083</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Комплект деталей для ремонта привода ГРМ РусМаш Classic для карбюраторных ВАЗ 2101-2106, Лада 4х4 (Нива)</t>
+          <t>Регулятор давления топлива РДТ-300 ВИЭ под двигатель 1.5л для инжекторных ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
         </is>
       </c>
       <c r="D8" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>164625</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20640-motor-elektrobenzonasosa-vie-lada-largus-reno-logan-sandero</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Мотор электробензонасоса ВИЭ для Лада Ларгус, Рено Логан, Сандеро, Дастер с двигателем 1.4, 1.6л</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>224438</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20644-forsunka-735-vie-16kl-vaz-2110-2112-lada-kalina-priora</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Форсунка ВИЭ 735 под двигатель 1.6л для 16-клапанных ВАЗ 2110-2112, Лада Калина, Приора, Гранта</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>164623</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18249-motor-elektrobenzonasosa-2112-povyshennoy</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Мотор электробензонасоса ВИЭ (аналог 0 580 454 035) для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта, Нива 4х4, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>224434</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20645-forsunka-6238-vie-vaz-2108-21099-2110-2112-2113-2115</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Топливная форсунка ВИЭ 6238 для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>194534</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15358-podrulevoy-pereklyuchately-shleyf-novogo-obrazca-lada</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Подрулевой переключатель (шлейф) ВИЭ нового образца для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>226136</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18963-podrulevoy-pereklyuchately-shleyf-starogo-obrazca-dlya-lada</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Подрулевой переключатель (шлейф) старого образца ВИЭ для Лада Приора, Калина до 2011 г с подушкой безопасности</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>164624</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20639-motor-elektrobenzonasosa-vie-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Мотор электробензонасоса ВИЭ для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>155819</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3061-moduly-zaghiganiya-soate-vaz-2104-2107-2110-2112-lada</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Модуль зажигания СОАТЭ для 8-клапанных ВАЗ 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Гранта, Гранта FL, 4х4, Нива Легенд, Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>144423</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12200-standartnaya-drosselynaya-zaslonka-vaz-2108-2115-2110-2112</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Стандартная дроссельная заслонка ВИЭ 46 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>144424</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16635-standartnaya-drosselynaya-zaslonka-lada-4h4-niva-2121-21213</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Стандартная дроссельная заслонка ВИЭ 46 мм для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>226916</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5530-elektrokorrektor-far-dlya-lada-granta</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Электрокорректор фар для Лада Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>226915</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15607-elektrokorrektor-far-lada-niva</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Электрокорректор фар для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>203219</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20641-regulyator-holostogo-hoda-vie-vaz-2105-2107-2108-21099</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Регулятор холостого хода ВИЭ с металлическим наконечником для ВАЗ 2105, 2107, 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>224436</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38955-forsunka-vie-72370-dlya-lada-kalina-kalina-priora-granta</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Форсунка ВИЭ 72370 для 8-клапанных Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Веста, Ларгус, Датсун</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>144435</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19060-standartnaya-drosselynaya-zaslonka-sbore-datchikami-vaz</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Стандартная дроссельная заслонка ВИЭ 46 мм в сборе с датчиками для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>203220</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38946-regulyator-holostogo-hoda-vie-plastikoviy-nakonechnik-lada-niva</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Регулятор холостого хода ВИЭ с пластиковым наконечником для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>203218</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11342-regulyator-holostogo-hoda-vie-lada-4h4-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Регулятор холостого хода ВИЭ с металлическим наконечником для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>219322</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38959-elektrobenzonasos-sbore-vie-vaz-21044-dlya-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Электробензонасос ВИЭ в сборе для инжекторных ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>219326</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38960-elektrobenzonasos-sbore-vie-vaz-2110-2112-2113-2115</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Электробензонасос ВИЭ в сборе для ВАЗ 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>219327</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38961-elektrobenzonas-vie-sbore-starogo-obrazca-gayke-21214</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Электробензонас ВИЭ в сборе старого образца (на гайке) для 3-дверной Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>219329</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38962-elektrobenzonas-vie-sbore-novogo-obrazca-shtucere-21313</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Электробензонас ВИЭ в сборе нового образца (на штуцере) для 5-дверной Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>219328</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38963-elektrobenzonasos-vie-2123-sbore-dlya-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Электробензонасос ВИЭ 2123 в сборе для Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>219330</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38958-elektrobenzonasos-sbore-vie-21101-vaz-2110-2112-lada</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Электробензонасос ВИЭ в сборе для инжекторных ВАЗ 2110-2112, Лада Приора, Калина, Гранта, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>164616</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18249-motor-elektrobenzonasosa-2112-povyshennoy</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Мотор электробензонасоса ВИЭ (аналог 0 580 454 035) для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта, Нива 4х4, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>224431</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38951-forsunka-vie-017-dlya-8-klapannyh-vaz-2110-2112-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Форсунка ВИЭ 017 для 8-клапанных ВАЗ 2110-2112, Лада Калина, Приора, Гранта, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>144434</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40555-drosselynaya-zaslonka-vie-21116-lada-priora-kalina-granta</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Дроссельная заслонка ВИЭ 21116 в сборе с датчиками для 8-клапанных ВАЗ 2113-2115, Лада Приора, Калина, Калина 2, Гранта с Е-Газ</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
         <v>4690</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>244523</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/88-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 52 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>244524</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/89-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 54 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>244525</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/90-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 56 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>244520</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/88-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 52 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>244521</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/89-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 54 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>244522</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/90-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 56 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>244526</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/94-drosselynaya-zaslonka-lada-4h4-shevrole-niva-prokladka</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 52 мм для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>244527</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/95-drosselynaya-zaslonka-lada-4h4-shevrole-niva-prokladka</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 54 мм для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>244528</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/96-drosselynaya-zaslonka-lada-4h4-shevrole-niva-prokladka</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 56 мм для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>142035</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_polozheniya_zaslonki_vaz/datchik_polozheniya_zaslonki_vie_tolyatti_-2112-1148200/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Датчик положения заслонки ВИЭ Тольятти (2112-1148200)</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>141964</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_detonatsii5031/datchik_detonatsii_2112_vie_tolyatti_-2112-3855020/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Датчик детонации 2112 ВИЭ Тольятти (2112-3855020)</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>142183</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_faz_vaz/datchik_faz_2112_vie_toltti_-2112-3706040/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Датчик фаз 2112 ВИЭ Тольтти (2112-3706040)</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>164624</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/elektirika_vaz/benzonasos_vaz/motor_elektrobenzonasosa_-vie-_dlya_lada_vesta/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Мотор электробензонасоса "ВИЭ" для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>203217</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_kholostogo_khoda_vaz/regulyator_kholostogo_khoda_2112_vie_tolyatti_usilennyy_-2112-1148300/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Регулятор холостого хода 2112 ВИЭ Тольятти усиленный (2112-1148300)</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>203218</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_kholostogo_khoda_vaz/regulyator_kholostogo_khoda_21203_vie_tolyatti_usilennyy_-21203-1148300/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Регулятор холостого хода 21203 ВИЭ Тольятти усиленный (21203-1148300)</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>164616</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/elektirika_vaz/benzonasos_vaz/motor_el-benzonasosa_2112_vie_-tolyatti-_vaz-inomarki-davl-6atm_-2112-11392009/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Мотор электробензонасоса 2112 ВИЭ (Тольятти) ВАЗ,иномарки,давл.6Атм (2112-11392009)</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>

--- a/output_data/output.xlsx
+++ b/output_data/output.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,674 +425,526 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/elektirika_vaz/benzonasos_vaz/motor_el-benzonasosa_2112_vie_-tolyatti-_vaz-inomarki-davl-6atm_-2112-11392009/</t>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2120_2131_v_sbore__shrus__zao_kardan-249845/</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Мотор электробензонасоса 2112 ВИЭ (Тольятти) ВАЗ,иномарки,давл.6Атм (2112-11392009)</t>
+          <t>Вал карданный ВАЗ-2120,2131 в сборе (ШРУС) ЗАО КАРДАН</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1100</v>
+        <v>25975</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20636-datchik-faz-vie-analog-141-3855-vaz</t>
+          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_zadniy_21214_so_shrusom_zao_kardan/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Датчик фаз ВИЭ (аналог 141,3855) под инжектор для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Калина, Приора, Лада 4х4 (Нива), Шевроле Нива</t>
+          <t>Вал карданный задний 21214 со ШРУСом. АО "КАРДАН" г.Сызрань. 21214-2201012-00</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>590</v>
+        <v>12840</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15607-elektrokorrektor-far-lada-niva</t>
+          <t>https://motorring.ru/product/10313-val-kardannyy-zadniy-2121-214-krestovine-lada-4h4-niva</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Электрокорректор фар для Лада 4х4, Нива Легенд</t>
+          <t>Вал карданный 21214 (длинный) КАРДАН на крестовине для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3390</v>
+        <v>10990</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38961-elektrobenzonas-vie-sbore-starogo-obrazca-gayke-21214</t>
+          <t>https://motorring.ru/product/17240-val-kardannyy-zadniy-zaschitnoy-gofroy-kardan-shevrole-niva</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Электробензонас ВИЭ в сборе старого образца (на гайке) для 3-дверной Лада 4х4 (Нива)</t>
+          <t>Вал карданный задний с защитной гофрой КАРДАН для Лада 4х4, Нива Легенд, Шевроле/Лада Нива, Нива Тревел</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1790</v>
+        <v>10690</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20644-forsunka-735-vie-16kl-vaz-2110-2112-lada-kalina-priora</t>
+          <t>https://motorring.ru/product/17238-val-kardannyy-sbore-shrus-lada-niva-4h4-5-dverey</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Форсунка ВИЭ 735 под двигатель 1.6л для 16-клапанных ВАЗ 2110-2112, Лада Калина, Приора, Гранта</t>
+          <t>Вал карданный задний КАРДАН на ШРУСах в сборе для 5-дверных Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>990</v>
+        <v>24990</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20640-motor-elektrobenzonasosa-vie-lada-largus-reno-logan-sandero</t>
+          <t>https://motorring.ru/product/40055-val-kardannyy-usilenniy-sbore-vaz-2104-2105-2107</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Мотор электробензонасоса ВИЭ для Лада Ларгус, Рено Логан, Сандеро, Дастер с двигателем 1.4, 1.6л</t>
+          <t>Вал карданный с усиленными крестовинами в сборе для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>990</v>
+        <v>13990</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/88-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
+          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_peredniy_21214_so_shrusom_zao_kardan/</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 52 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+          <t>Вал карданный передний 21214 со ШРУСом. АО "КАРДАН" г.Сызрань. 21214-2203012-00</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1690</v>
+        <v>12480</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13316-prokladka-drosselynoy-zaslonki-vaz-2108-2115-lada-priora-kalina-k</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/krestovina_ao_-kardan-kardannogo_vala_v_sbore_vaz_2105-2202025/</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Прокладка дроссельной заслонки для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта, Нива Легенд/Тревел, Шевроле Нива</t>
+          <t>Крестовина АО "Кардан" карданного вала в сборе ВАЗ 2105-2202025</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>49</v>
+        <v>728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38955-forsunka-vie-72370-dlya-lada-kalina-kalina-priora-granta</t>
+          <t>https://motorring.ru/product/924-krestovina-kardannogo-vala-sbore-vaz-2101-2107</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Форсунка ВИЭ 72370 для 8-клапанных Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Веста, Ларгус, Датсун</t>
+          <t>Крестовина карданного вала КАРДАН в сборе для ВАЗ 2101-2107, Лада 4х4 (Нива)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>990</v>
+        <v>890</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38946-regulyator-holostogo-hoda-vie-plastikoviy-nakonechnik-lada-niva</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_promezhutochnyy_v_sbore_vaz_2123-2202010-03_original_kardan/</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Регулятор холостого хода ВИЭ с пластиковым наконечником для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Вал карданный промежуточный в сборе ВАЗ 2123-2202010-03 ОРИГИНАЛ КАРДАН</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>590</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/96-drosselynaya-zaslonka-lada-4h4-shevrole-niva-prokladka</t>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_21214_peredniiy_n_o__shrus__kardan_zao-090986/</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 56 мм для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Вал карданный ВАЗ-21214 передний Н/О (ШРУС) КАРДАН ЗАО</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1790</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16635-standartnaya-drosselynaya-zaslonka-lada-4h4-niva-2121-21213</t>
+          <t>https://www.avtoall.ru/krestovina_vaz_2101_07_vala_kardannogo_zao_kardan-011497/</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Стандартная дроссельная заслонка ВИЭ 46 мм для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Крестовина ВАЗ-2101-07 вала карданного ЗАО Кардан</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1790</v>
+        <v>940</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38958-elektrobenzonasos-sbore-vie-21101-vaz-2110-2112-lada</t>
+          <t>https://www.avtoall.ru/krestovina_vaz_21213_vala_kardannogo_zao_kardan-137160/</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Электробензонасос ВИЭ в сборе для инжекторных ВАЗ 2110-2112, Лада Приора, Калина, Гранта, Шевроле Нива</t>
+          <t>Крестовина ВАЗ-21213 вала карданного ЗАО Кардан</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1990</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/94-drosselynaya-zaslonka-lada-4h4-shevrole-niva-prokladka</t>
+          <t>https://motorring.ru/product/17239-val-kardannyy-peredniy-zaschitnoy-gofroy-kardan-lada-niva</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 52 мм для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Вал карданный передний (короткий) КАРДАН с защитной гофрой для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1790</v>
+        <v>10890</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20704-regulyator-davleniya-topliva-vie-380-vaz-2110-2115-lada</t>
+          <t>https://motorring.ru/product/921-val-kardannyy-sbore-vaz-2104-2105-2107</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Регулятор давления топлива ВИЭ 380 под двигатель 1.6л для ВАЗ 2110-2112, 2113-2115, Лада Приора, Калина, Гранта, Шевроле Нива</t>
+          <t>Вал карданный в сборе для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>590</v>
+        <v>12390</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38942-datchik-faz-vie-dlya-inghektornyh-vaz</t>
+          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_zadniy_2121_214_na_krestovine_zao_kardan/</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Датчик фаз ВИЭ для 16-клапанных инжекторных ВАЗ 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Ларгус, Ларгус FL, Веста, Икс Рей</t>
+          <t>Вал карданный задний 2121-214 на крестовине. АО КАРДАН 21214-2201012-10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>349</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5530-elektrokorrektor-far-dlya-lada-granta</t>
+          <t>https://motorring.ru/product/10314-kardannyy-val-peredniy-krestovine-syzrany-lada-niva</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Электрокорректор фар для Лада Гранта, Гранта FL</t>
+          <t>Карданный вал передний (короткий) КАРДАН на крестовине для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3390</v>
+        <v>14290</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3047-rezistor-elektronnogo-ventilyatora-otopitelya-dlya-lada</t>
+          <t>https://33sport.ru/catalog/transmissiya/komplektuyushchie_kpp_vaz/flanets_elastichnoy_mufty_vaz_2101-2202023-00_kardan/</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Резистор электронного вентилятора отопителя для Лада Приора с кондиционером Panasonic </t>
+          <t>Фланец эластичной муфты ВАЗ 2101-2202023-00 КАРДАН</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>990</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20635-halyaving-datchik-skorosti-vie-dlya-vaz-2108-21099</t>
+          <t>https://www.avtoall.ru/flanec_vaz_2101_lastichnoiy_mufty_k_kardannomu_valu_kardan_zao-003606/</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">ХалявING! Датчик скорости ВИЭ для ВАЗ 2108-21099 с механической комбинацией приборов </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>Фланец ВАЗ-2101 эластичной муфты к карданному валу КАРДАН ЗАО</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1470</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38951-forsunka-vie-017-dlya-8-klapannyh-vaz-2110-2112-lada-kalina</t>
+          <t>https://motorring.ru/product/18103-krestovina-sbore-bez-shtucera-lada-niva-21214-2131-nadeghda</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Форсунка ВИЭ 017 для 8-клапанных ВАЗ 2110-2112, Лада Калина, Приора, Гранта, Шевроле Нива</t>
+          <t xml:space="preserve">Крестовина КАРДАН в сборе без штуцера для Лада 4х4 (Нива), Надежда, Шевроле Нива </t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>790</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_kholostogo_khoda_vaz/regulyator_kholostogo_khoda_21203_vie_tolyatti_usilennyy_-21203-1148300/</t>
+          <t>https://motorring.ru/product/929</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Регулятор холостого хода 21203 ВИЭ Тольятти усиленный (21203-1148300)</t>
+          <t>Вал карданный передний (короткий) КАРДАН на ШРУСах для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>810</v>
+        <v>10490</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38960-elektrobenzonasos-sbore-vie-vaz-2110-2112-2113-2115</t>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_21214_zadniiy_2123_n_o__shrus__kardan_zao-090798/</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Электробензонасос ВИЭ в сборе для ВАЗ 2110-2112, 2113-2115</t>
+          <t>Вал карданный ВАЗ-21214 задний,2123 Н/О (ШРУС) КАРДАН ЗАО</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1990</v>
+        <v>16510</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18963-podrulevoy-pereklyuchately-shleyf-starogo-obrazca-dlya-lada</t>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2101_2107_zao_kardan-240418/</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Подрулевой переключатель (шлейф) старого образца ВИЭ для Лада Приора, Калина до 2011 г с подушкой безопасности</t>
+          <t>Вал карданный ВАЗ-2101-2107 ЗАО КАРДАН</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>849</v>
+        <v>14750</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_faz_vaz/datchik_faz_2112_vie_toltti_-2112-3706040/</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_privoda_zadnego_mosta_-gofra-_21214-2201012-11_kardan/</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Датчик фаз 2112 ВИЭ Тольтти (2112-3706040)</t>
+          <t>Вал карданный привода заднего моста (Гофра) 21214-2201012-11 КАРДАН</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>450</v>
+        <v>12350</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/89-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
+          <t>https://motorring.ru/product/40057-val-kardannyy-zadniy-2121-214-gofra-lada-4h4-niva</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 54 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+          <t>Вал карданный 21214 (длинный) КАРДАН с гофрой для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1690</v>
+        <v>10790</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/90-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2121_214_zadniiy_zao__kardan_-000531/</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 56 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+          <t>Вал карданный ВАЗ-2121-214 задний ЗАО "Кардан"</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1690</v>
+        <v>12450</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/elektirika_vaz/benzonasos_vaz/motor_elektrobenzonasosa_-vie-_dlya_lada_vesta/</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/krestovina-zao-kardan-kardannogo-vala-v-sbore-niva-21211-2202026-00/</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Мотор электробензонасоса "ВИЭ" для Лада Веста</t>
+          <t>Крестовина АО "Кардан" карданного вала в сборе НИВА (21211220202500)</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>660</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15358-podrulevoy-pereklyuchately-shleyf-novogo-obrazca-lada</t>
+          <t>https://motorring.ru/product/933</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Подрулевой переключатель (шлейф) ВИЭ нового образца для Лада Приора</t>
+          <t>Вал карданный 21214 (длинный) КАРДАН на ШРУСах для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>790</v>
+        <v>13890</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20639-motor-elektrobenzonasosa-vie-lada-vesta</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_2105-2200012-02_-usilennyy-_kardan/</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Мотор электробензонасоса ВИЭ для Лада Веста</t>
+          <t>Вал карданный 2105-2200012-02 (усиленный) КАРДАН</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>790</v>
+        <v>16990</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/19060-standartnaya-drosselynaya-zaslonka-sbore-datchikami-vaz</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_privoda_perednego_mosta_21214-2203012-11_kardan/</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Стандартная дроссельная заслонка ВИЭ 46 мм в сборе с датчиками для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+          <t>Вал карданный привода переднего моста с гофрой 21214-2203012-11 КАРДАН</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2390</v>
+        <v>12350</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_detonatsii5031/datchik_detonatsii_2112_vie_tolyatti_-2112-3855020/</t>
+          <t>https://motorring.ru/product/17743-val-kardannyy-promeghutochnyy-shevrole-niva</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Датчик детонации 2112 ВИЭ Тольятти (2112-3855020)</t>
+          <t>Промежуточный карданный вал КАРДАН для Шевроле Нива, Лада Нива Тревел</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>450</v>
+        <v>10890</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20645-forsunka-6238-vie-vaz-2108-21099-2110-2112-2113-2115</t>
+          <t>https://www.avtoall.ru/shrus_vaz_21214_2123_vala_kardannogo_v_sbore_kardan_zao-090995/</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Топливная форсунка ВИЭ 6238 для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+          <t>ШРУС ВАЗ-21214,2123 вала карданного в сборе КАРДАН ЗАО</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>990</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_kholostogo_khoda_vaz/regulyator_kholostogo_khoda_2112_vie_tolyatti_usilennyy_-2112-1148300/</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/rem-komplekt-dlya-kardana-na-shrusakh-vaz-21214-2123-kardan-21214-2201160-00-/</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Регулятор холостого хода 2112 ВИЭ Тольятти усиленный (2112-1148300)</t>
+          <t>Ремонтный комплект для кардана на шрусах ВАЗ-21214, 2123 (КАРДАН ) 21214-2201160-00</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>810</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12200-standartnaya-drosselynaya-zaslonka-vaz-2108-2115-2110-2112</t>
+          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_peredniy_2121_214_na_krestovine_zao_kardan/</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Стандартная дроссельная заслонка ВИЭ 46 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+          <t>Вал карданный передний 2121-214 на крестовине. АО КАРДАН 21214-2203012-10</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1690</v>
+        <v>10150</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38962-elektrobenzonas-vie-sbore-novogo-obrazca-shtucere-21313</t>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2121_214_peredniiy_zao__kardan_-000532/</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Электробензонас ВИЭ в сборе нового образца (на штуцере) для 5-дверной Лада 4х4 (Нива)</t>
+          <t>Вал карданный ВАЗ-2121-214 передний ЗАО "Кардан"</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/18249-motor-elektrobenzonasosa-2112-povyshennoy</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Мотор электробензонасоса ВИЭ (аналог 0 580 454 035) для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта, Нива 4х4, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40555-drosselynaya-zaslonka-vie-21116-lada-priora-kalina-granta</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Дроссельная заслонка ВИЭ 21116 в сборе с датчиками для 8-клапанных ВАЗ 2113-2115, Лада Приора, Калина, Калина 2, Гранта с Е-Газ</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>4690</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/38959-elektrobenzonasos-sbore-vie-vaz-21044-dlya-vaz-2101-2107</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Электробензонасос ВИЭ в сборе для инжекторных ВАЗ 2101-2107</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/95-drosselynaya-zaslonka-lada-4h4-shevrole-niva-prokladka</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 54 мм для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/20641-regulyator-holostogo-hoda-vie-vaz-2105-2107-2108-21099</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Регулятор холостого хода ВИЭ с металлическим наконечником для ВАЗ 2105, 2107, 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/17852-regulyator-davleniya-topliva-rdt-300-vie-21083</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Регулятор давления топлива РДТ-300 ВИЭ под двигатель 1.5л для инжекторных ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/3061-moduly-zaghiganiya-soate-vaz-2104-2107-2110-2112-lada</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Модуль зажигания СОАТЭ для 8-клапанных ВАЗ 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Гранта, Гранта FL, 4х4, Нива Легенд, Нива Тревел, Шевроле Нива, Датсун</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/38963-elektrobenzonasos-vie-2123-sbore-dlya-shevrole-niva</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Электробензонасос ВИЭ 2123 в сборе для Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/11342-regulyator-holostogo-hoda-vie-lada-4h4-shevrole-niva</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Регулятор холостого хода ВИЭ с металлическим наконечником для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_polozheniya_zaslonki_vaz/datchik_polozheniya_zaslonki_vie_tolyatti_-2112-1148200/</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Датчик положения заслонки ВИЭ Тольятти (2112-1148200)</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>304</v>
+        <v>11110</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1116,900 +968,650 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>203496</v>
+        <v>376516</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3047-rezistor-elektronnogo-ventilyatora-otopitelya-dlya-lada</t>
+          <t>https://motorring.ru/product/40055-val-kardannyy-usilenniy-sbore-vaz-2104-2105-2107</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Резистор электронного вентилятора отопителя для Лада Приора с кондиционером Panasonic </t>
+          <t>Вал карданный с усиленными крестовинами в сборе для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="D1" t="n">
-        <v>990</v>
+        <v>13990</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>201416</v>
+        <v>139012</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13316-prokladka-drosselynoy-zaslonki-vaz-2108-2115-lada-priora-kalina-k</t>
+          <t>https://motorring.ru/product/17238-val-kardannyy-sbore-shrus-lada-niva-4h4-5-dverey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Прокладка дроссельной заслонки для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта, Нива Легенд/Тревел, Шевроле Нива</t>
+          <t>Вал карданный задний КАРДАН на ШРУСах в сборе для 5-дверных Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>24990</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>142061</v>
+        <v>139013</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20635-halyaving-datchik-skorosti-vie-dlya-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/933</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ХалявING! Датчик скорости ВИЭ для ВАЗ 2108-21099 с механической комбинацией приборов </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>Вал карданный 21214 (длинный) КАРДАН на ШРУСах для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>13890</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>142182</v>
+        <v>139014</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20636-datchik-faz-vie-analog-141-3855-vaz</t>
+          <t>https://motorring.ru/product/10313-val-kardannyy-zadniy-2121-214-krestovine-lada-4h4-niva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Датчик фаз ВИЭ (аналог 141,3855) под инжектор для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Калина, Приора, Лада 4х4 (Нива), Шевроле Нива</t>
+          <t>Вал карданный 21214 (длинный) КАРДАН на крестовине для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>590</v>
+        <v>10990</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>142183</v>
+        <v>139015</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38942-datchik-faz-vie-dlya-inghektornyh-vaz</t>
+          <t>https://motorring.ru/product/929</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Датчик фаз ВИЭ для 16-клапанных инжекторных ВАЗ 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Ларгус, Ларгус FL, Веста, Икс Рей</t>
+          <t>Вал карданный передний (короткий) КАРДАН на ШРУСах для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>349</v>
+        <v>10490</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>203181</v>
+        <v>139016</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20704-regulyator-davleniya-topliva-vie-380-vaz-2110-2115-lada</t>
+          <t>https://motorring.ru/product/10314-kardannyy-val-peredniy-krestovine-syzrany-lada-niva</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Регулятор давления топлива ВИЭ 380 под двигатель 1.6л для ВАЗ 2110-2112, 2113-2115, Лада Приора, Калина, Гранта, Шевроле Нива</t>
+          <t>Карданный вал передний (короткий) КАРДАН на крестовине для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>590</v>
+        <v>14290</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>203221</v>
+        <v>139029</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11342-regulyator-holostogo-hoda-vie-lada-4h4-shevrole-niva</t>
+          <t>https://motorring.ru/product/921-val-kardannyy-sbore-vaz-2104-2105-2107</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Регулятор холостого хода ВИЭ с металлическим наконечником для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Вал карданный в сборе для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>629</v>
+        <v>12390</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>203187</v>
+        <v>376875</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/17852-regulyator-davleniya-topliva-rdt-300-vie-21083</t>
+          <t>https://motorring.ru/product/40057-val-kardannyy-zadniy-2121-214-gofra-lada-4h4-niva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Регулятор давления топлива РДТ-300 ВИЭ под двигатель 1.5л для инжекторных ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+          <t>Вал карданный 21214 (длинный) КАРДАН с гофрой для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>649</v>
+        <v>10790</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>164625</v>
+        <v>376876</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20640-motor-elektrobenzonasosa-vie-lada-largus-reno-logan-sandero</t>
+          <t>https://motorring.ru/product/17240-val-kardannyy-zadniy-zaschitnoy-gofroy-kardan-shevrole-niva</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Мотор электробензонасоса ВИЭ для Лада Ларгус, Рено Логан, Сандеро, Дастер с двигателем 1.4, 1.6л</t>
+          <t>Вал карданный задний с защитной гофрой КАРДАН для Лада 4х4, Нива Легенд, Шевроле/Лада Нива, Нива Тревел</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>990</v>
+        <v>10690</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>224438</v>
+        <v>376815</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20644-forsunka-735-vie-16kl-vaz-2110-2112-lada-kalina-priora</t>
+          <t>https://motorring.ru/product/17239-val-kardannyy-peredniy-zaschitnoy-gofroy-kardan-lada-niva</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Форсунка ВИЭ 735 под двигатель 1.6л для 16-клапанных ВАЗ 2110-2112, Лада Калина, Приора, Гранта</t>
+          <t>Вал карданный передний (короткий) КАРДАН с защитной гофрой для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>990</v>
+        <v>10890</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>164623</v>
+        <v>155722</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18249-motor-elektrobenzonasosa-2112-povyshennoy</t>
+          <t>https://motorring.ru/product/17743-val-kardannyy-promeghutochnyy-shevrole-niva</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Мотор электробензонасоса ВИЭ (аналог 0 580 454 035) для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта, Нива 4х4, Шевроле Нива</t>
+          <t>Промежуточный карданный вал КАРДАН для Шевроле Нива, Лада Нива Тревел</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>969</v>
+        <v>10890</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>224434</v>
+        <v>376810</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20645-forsunka-6238-vie-vaz-2108-21099-2110-2112-2113-2115</t>
+          <t>https://motorring.ru/product/18103-krestovina-sbore-bez-shtucera-lada-niva-21214-2131-nadeghda</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Топливная форсунка ВИЭ 6238 для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+          <t xml:space="preserve">Крестовина КАРДАН в сборе без штуцера для Лада 4х4 (Нива), Надежда, Шевроле Нива </t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>990</v>
+        <v>749</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>194534</v>
+        <v>160519</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15358-podrulevoy-pereklyuchately-shleyf-novogo-obrazca-lada</t>
+          <t>https://motorring.ru/product/924-krestovina-kardannogo-vala-sbore-vaz-2101-2107</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Подрулевой переключатель (шлейф) ВИЭ нового образца для Лада Приора</t>
+          <t>Крестовина карданного вала КАРДАН в сборе для ВАЗ 2101-2107, Лада 4х4 (Нива)</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>790</v>
+        <v>890</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>226136</v>
+        <v>376516</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18963-podrulevoy-pereklyuchately-shleyf-starogo-obrazca-dlya-lada</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_2105-2200012-02_-usilennyy-_kardan/</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Подрулевой переключатель (шлейф) старого образца ВИЭ для Лада Приора, Калина до 2011 г с подушкой безопасности</t>
+          <t>Вал карданный 2105-2200012-02 (усиленный) КАРДАН</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>849</v>
+        <v>16990</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>164624</v>
+        <v>139013</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20639-motor-elektrobenzonasosa-vie-lada-vesta</t>
+          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_zadniy_21214_so_shrusom_zao_kardan/</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Мотор электробензонасоса ВИЭ для Лада Веста</t>
+          <t>Вал карданный задний 21214 со ШРУСом. АО "КАРДАН" г.Сызрань. 21214-2201012-00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>790</v>
+        <v>12840</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>155819</v>
+        <v>139014</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3061-moduly-zaghiganiya-soate-vaz-2104-2107-2110-2112-lada</t>
+          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_zadniy_2121_214_na_krestovine_zao_kardan/</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Модуль зажигания СОАТЭ для 8-клапанных ВАЗ 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Гранта, Гранта FL, 4х4, Нива Легенд, Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Вал карданный задний 2121-214 на крестовине. АО КАРДАН 21214-2201012-10</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1690</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>144423</v>
+        <v>139015</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12200-standartnaya-drosselynaya-zaslonka-vaz-2108-2115-2110-2112</t>
+          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_peredniy_21214_so_shrusom_zao_kardan/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Стандартная дроссельная заслонка ВИЭ 46 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+          <t>Вал карданный передний 21214 со ШРУСом. АО "КАРДАН" г.Сызрань. 21214-2203012-00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1690</v>
+        <v>12480</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>144424</v>
+        <v>139016</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16635-standartnaya-drosselynaya-zaslonka-lada-4h4-niva-2121-21213</t>
+          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_peredniy_2121_214_na_krestovine_zao_kardan/</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Стандартная дроссельная заслонка ВИЭ 46 мм для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Вал карданный передний 2121-214 на крестовине. АО КАРДАН 21214-2203012-10</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1790</v>
+        <v>10150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>226916</v>
+        <v>376875</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5530-elektrokorrektor-far-dlya-lada-granta</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_privoda_zadnego_mosta_-gofra-_21214-2201012-11_kardan/</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Электрокорректор фар для Лада Гранта, Гранта FL</t>
+          <t>Вал карданный привода заднего моста (Гофра) 21214-2201012-11 КАРДАН</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3390</v>
+        <v>12350</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>226915</v>
+        <v>376815</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15607-elektrokorrektor-far-lada-niva</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_privoda_perednego_mosta_21214-2203012-11_kardan/</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Электрокорректор фар для Лада 4х4, Нива Легенд</t>
+          <t>Вал карданный привода переднего моста с гофрой 21214-2203012-11 КАРДАН</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3390</v>
+        <v>12350</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>203219</v>
+        <v>155722</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20641-regulyator-holostogo-hoda-vie-vaz-2105-2107-2108-21099</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_promezhutochnyy_v_sbore_vaz_2123-2202010-03_original_kardan/</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Регулятор холостого хода ВИЭ с металлическим наконечником для ВАЗ 2105, 2107, 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта</t>
+          <t>Вал карданный промежуточный в сборе ВАЗ 2123-2202010-03 ОРИГИНАЛ КАРДАН</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>649</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>224436</v>
+        <v>160520</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38955-forsunka-vie-72370-dlya-lada-kalina-kalina-priora-granta</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/krestovina-zao-kardan-kardannogo-vala-v-sbore-niva-21211-2202026-00/</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Форсунка ВИЭ 72370 для 8-клапанных Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Веста, Ларгус, Датсун</t>
+          <t>Крестовина АО "Кардан" карданного вала в сборе НИВА (21211220202500)</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>990</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>144435</v>
+        <v>160519</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/19060-standartnaya-drosselynaya-zaslonka-sbore-datchikami-vaz</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/krestovina_ao_-kardan-kardannogo_vala_v_sbore_vaz_2105-2202025/</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Стандартная дроссельная заслонка ВИЭ 46 мм в сборе с датчиками для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+          <t>Крестовина АО "Кардан" карданного вала в сборе ВАЗ 2105-2202025</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2390</v>
+        <v>728</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>203220</v>
+        <v>376869</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38946-regulyator-holostogo-hoda-vie-plastikoviy-nakonechnik-lada-niva</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/rem-komplekt-dlya-kardana-na-shrusakh-vaz-21214-2123-kardan-21214-2201160-00-/</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Регулятор холостого хода ВИЭ с пластиковым наконечником для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Ремонтный комплект для кардана на шрусах ВАЗ-21214, 2123 (КАРДАН ) 21214-2201160-00</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>590</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>203218</v>
+        <v>376807</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11342-regulyator-holostogo-hoda-vie-lada-4h4-shevrole-niva</t>
+          <t>https://33sport.ru/catalog/transmissiya/komplektuyushchie_kpp_vaz/flanets_elastichnoy_mufty_vaz_2101-2202023-00_kardan/</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Регулятор холостого хода ВИЭ с металлическим наконечником для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Фланец эластичной муфты ВАЗ 2101-2202023-00 КАРДАН</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>629</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>219322</v>
+        <v>376516</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38959-elektrobenzonasos-sbore-vie-vaz-21044-dlya-vaz-2101-2107</t>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2101_2107_zao_kardan-240418/</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Электробензонасос ВИЭ в сборе для инжекторных ВАЗ 2101-2107</t>
+          <t>Вал карданный ВАЗ-2101-2107 ЗАО КАРДАН</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1990</v>
+        <v>14750</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>219326</v>
+        <v>139012</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38960-elektrobenzonasos-sbore-vie-vaz-2110-2112-2113-2115</t>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2120_2131_v_sbore__shrus__zao_kardan-249845/</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Электробензонасос ВИЭ в сборе для ВАЗ 2110-2112, 2113-2115</t>
+          <t>Вал карданный ВАЗ-2120,2131 в сборе (ШРУС) ЗАО КАРДАН</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1990</v>
+        <v>25975</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>219327</v>
+        <v>139013</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38961-elektrobenzonas-vie-sbore-starogo-obrazca-gayke-21214</t>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_21214_zadniiy_2123_n_o__shrus__kardan_zao-090798/</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Электробензонас ВИЭ в сборе старого образца (на гайке) для 3-дверной Лада 4х4 (Нива)</t>
+          <t>Вал карданный ВАЗ-21214 задний,2123 Н/О (ШРУС) КАРДАН ЗАО</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1790</v>
+        <v>16510</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>219329</v>
+        <v>139014</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38962-elektrobenzonas-vie-sbore-novogo-obrazca-shtucere-21313</t>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2121_214_zadniiy_zao__kardan_-000531/</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Электробензонас ВИЭ в сборе нового образца (на штуцере) для 5-дверной Лада 4х4 (Нива)</t>
+          <t>Вал карданный ВАЗ-2121-214 задний ЗАО "Кардан"</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1790</v>
+        <v>12450</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>219328</v>
+        <v>139015</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38963-elektrobenzonasos-vie-2123-sbore-dlya-shevrole-niva</t>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_21214_peredniiy_n_o__shrus__kardan_zao-090986/</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Электробензонасос ВИЭ 2123 в сборе для Шевроле Нива</t>
+          <t>Вал карданный ВАЗ-21214 передний Н/О (ШРУС) КАРДАН ЗАО</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1990</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>219330</v>
+        <v>139016</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38958-elektrobenzonasos-sbore-vie-21101-vaz-2110-2112-lada</t>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2121_214_peredniiy_zao__kardan_-000532/</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Электробензонасос ВИЭ в сборе для инжекторных ВАЗ 2110-2112, Лада Приора, Калина, Гранта, Шевроле Нива</t>
+          <t>Вал карданный ВАЗ-2121-214 передний ЗАО "Кардан"</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1990</v>
+        <v>11110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>164616</v>
+        <v>139029</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18249-motor-elektrobenzonasosa-2112-povyshennoy</t>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2101_2107_zao_kardan-240418/</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Мотор электробензонасоса ВИЭ (аналог 0 580 454 035) для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта, Нива 4х4, Шевроле Нива</t>
+          <t>Вал карданный ВАЗ-2101-2107 ЗАО КАРДАН</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>969</v>
+        <v>14750</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>224431</v>
+        <v>160520</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38951-forsunka-vie-017-dlya-8-klapannyh-vaz-2110-2112-lada-kalina</t>
+          <t>https://www.avtoall.ru/krestovina_vaz_21213_vala_kardannogo_zao_kardan-137160/</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Форсунка ВИЭ 017 для 8-клапанных ВАЗ 2110-2112, Лада Калина, Приора, Гранта, Шевроле Нива</t>
+          <t>Крестовина ВАЗ-21213 вала карданного ЗАО Кардан</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>790</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>144434</v>
+        <v>160519</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40555-drosselynaya-zaslonka-vie-21116-lada-priora-kalina-granta</t>
+          <t>https://www.avtoall.ru/krestovina_vaz_2101_07_vala_kardannogo_zao_kardan-011497/</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Дроссельная заслонка ВИЭ 21116 в сборе с датчиками для 8-клапанных ВАЗ 2113-2115, Лада Приора, Калина, Калина 2, Гранта с Е-Газ</t>
+          <t>Крестовина ВАЗ-2101-07 вала карданного ЗАО Кардан</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4690</v>
+        <v>940</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>244523</v>
+        <v>376869</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/88-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
+          <t>https://www.avtoall.ru/shrus_vaz_21214_2123_vala_kardannogo_v_sbore_kardan_zao-090995/</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 52 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+          <t>ШРУС ВАЗ-21214,2123 вала карданного в сборе КАРДАН ЗАО</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1690</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>244524</v>
+        <v>376807</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/89-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
+          <t>https://www.avtoall.ru/flanec_vaz_2101_lastichnoiy_mufty_k_kardannomu_valu_kardan_zao-003606/</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 54 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
+          <t>Фланец ВАЗ-2101 эластичной муфты к карданному валу КАРДАН ЗАО</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>244525</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/90-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 56 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>244520</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/88-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 52 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>244521</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/89-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 54 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>244522</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/90-drosselynaya-zaslonka-vaz-2108-2115-lada-priora-kalina-granta</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 56 мм для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>244526</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/94-drosselynaya-zaslonka-lada-4h4-shevrole-niva-prokladka</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 52 мм для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>244527</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/95-drosselynaya-zaslonka-lada-4h4-shevrole-niva-prokladka</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 54 мм для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>244528</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/96-drosselynaya-zaslonka-lada-4h4-shevrole-niva-prokladka</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Дроссельная заслонка ВИЭ увеличенного диаметра 56 мм для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>142035</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_polozheniya_zaslonki_vaz/datchik_polozheniya_zaslonki_vie_tolyatti_-2112-1148200/</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Датчик положения заслонки ВИЭ Тольятти (2112-1148200)</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>141964</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_detonatsii5031/datchik_detonatsii_2112_vie_tolyatti_-2112-3855020/</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Датчик детонации 2112 ВИЭ Тольятти (2112-3855020)</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>142183</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_faz_vaz/datchik_faz_2112_vie_toltti_-2112-3706040/</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Датчик фаз 2112 ВИЭ Тольтти (2112-3706040)</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>164624</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>https://33sport.ru/catalog/elektirika_vaz/benzonasos_vaz/motor_elektrobenzonasosa_-vie-_dlya_lada_vesta/</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Мотор электробензонасоса "ВИЭ" для Лада Веста</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>203217</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_kholostogo_khoda_vaz/regulyator_kholostogo_khoda_2112_vie_tolyatti_usilennyy_-2112-1148300/</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Регулятор холостого хода 2112 ВИЭ Тольятти усиленный (2112-1148300)</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>203218</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>https://33sport.ru/catalog/elektirika_vaz/datchiki_vaz/datchiki_kholostogo_khoda_vaz/regulyator_kholostogo_khoda_21203_vie_tolyatti_usilennyy_-21203-1148300/</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Регулятор холостого хода 21203 ВИЭ Тольятти усиленный (21203-1148300)</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>164616</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>https://33sport.ru/catalog/elektirika_vaz/benzonasos_vaz/motor_el-benzonasosa_2112_vie_-tolyatti-_vaz-inomarki-davl-6atm_-2112-11392009/</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Мотор электробензонасоса 2112 ВИЭ (Тольятти) ВАЗ,иномарки,давл.6Атм (2112-11392009)</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>1100</v>
+        <v>1470</v>
       </c>
     </row>
   </sheetData>

--- a/output_data/output.xlsx
+++ b/output_data/output.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,526 +425,3690 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2120_2131_v_sbore__shrus__zao_kardan-249845/</t>
+          <t>https://motorring.ru/product/27716-svetodiodnye-fary-uzor-dyuymov-chernye-led-kolycom</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Вал карданный ВАЗ-2120,2131 в сборе (ШРУС) ЗАО КАРДАН</t>
+          <t>Светодиодные фары TheBestPartner 7 дюймов черные с узором Кханда и LED кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>25975</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_zadniy_21214_so_shrusom_zao_kardan/</t>
+          <t>https://motorring.ru/product/11867-dekorativnye-nakladki-ghabry-0395-kuzov-avtomobilya-krasnye</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Вал карданный задний 21214 со ШРУСом. АО "КАРДАН" г.Сызрань. 21214-2201012-00</t>
+          <t>Декоративные накладки «Жабры» на кузов автомобиля, красные</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12840</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10313-val-kardannyy-zadniy-2121-214-krestovine-lada-4h4-niva</t>
+          <t>https://motorring.ru/product/27718-svetodiodnye-fary-boss-chernye-povtoritelem-povorotnika-dho</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Вал карданный 21214 (длинный) КАРДАН на крестовине для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Светодиодные фары TheBestPartner 7 дюймов BOSS черные с повторителем поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10990</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/17240-val-kardannyy-zadniy-zaschitnoy-gofroy-kardan-shevrole-niva</t>
+          <t>https://motorring.ru/product/11866-dekorativnye-nakladki-laquo-ghabry-raquo-0395-kuzov</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Вал карданный задний с защитной гофрой КАРДАН для Лада 4х4, Нива Легенд, Шевроле/Лада Нива, Нива Тревел</t>
+          <t>Синие декоративные накладки Жабры на кузов автомобиля</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10690</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/17238-val-kardannyy-sbore-shrus-lada-niva-4h4-5-dverey</t>
+          <t>https://motorring.ru/product/40881-chernye-perednie-fary-thebestpartner-lada-granta</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Вал карданный задний КАРДАН на ШРУСах в сборе для 5-дверных Лада 4х4, Нива Легенд</t>
+          <t>Черные передние фары TheBestPartner с двумя Би-лед линзами, динамическим розжигом ДХО и поворотниками для Лада Гранта</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24990</v>
+        <v>21290</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40055-val-kardannyy-usilenniy-sbore-vaz-2104-2105-2107</t>
+          <t>https://motorring.ru/product/38644-komplekt-diodnyh-fonarey-polosy-lada-4h4-niva</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Вал карданный с усиленными крестовинами в сборе для ВАЗ 2101-2107</t>
+          <t xml:space="preserve">Комплект диодных фонарей TheBestPartner с LED обводкой и дополнительным стоп-сигналом (Полосы) с режимом повторителя на дверь багажника для Лада 4х4, Нива Легенд	</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13990</v>
+        <v>12490</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_peredniy_21214_so_shrusom_zao_kardan/</t>
+          <t>https://motorring.ru/product/19339-diodnaya-balka-327s</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Вал карданный передний 21214 со ШРУСом. АО "КАРДАН" г.Сызрань. 21214-2203012-00</t>
+          <t>Диодная балка с повторителем 327S</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12480</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/krestovina_ao_-kardan-kardannogo_vala_v_sbore_vaz_2105-2202025/</t>
+          <t>https://motorring.ru/product/15967-bokovye-zerkala-volna-hrom-chernyy-vaz-2108-2115</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Крестовина АО "Кардан" карданного вала в сборе ВАЗ 2105-2202025</t>
+          <t>Боковые механические зеркала Волна хром для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>728</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/924-krestovina-kardannogo-vala-sbore-vaz-2101-2107</t>
+          <t>https://motorring.ru/product/27722-diodnye-ptf-polos-analog-lada-granta-lada-vesta-iks-rey</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Крестовина карданного вала КАРДАН в сборе для ВАЗ 2101-2107, Лада 4х4 (Нива)</t>
+          <t>Диодные ПТФ 5 полос TheBestPartner для Лада Гранта FL, Лада Веста, Икс Рей, Ларгус FL, Нива Урбан, Рено</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>890</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_promezhutochnyy_v_sbore_vaz_2123-2202010-03_original_kardan/</t>
+          <t>https://motorring.ru/product/8278-diodnaya-balka-pl-3101-24w-3vt</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Вал карданный промежуточный в сборе ВАЗ 2123-2202010-03 ОРИГИНАЛ КАРДАН</t>
+          <t>Диодная балка PL-3101 FS 24W (8*3Вт)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12900</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/val_kardannyiy_vaz_21214_peredniiy_n_o__shrus__kardan_zao-090986/</t>
+          <t>https://motorring.ru/product/13366-diodnye-zadnie-fonari-red-led-krasnye-begayuschim</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Вал карданный ВАЗ-21214 передний Н/О (ШРУС) КАРДАН ЗАО</t>
+          <t>Диодные задние фонари TheBestPartner RED LED (красные) с бегающим повторителем для Лада 4х4, Нива Легенд 21213, 21214, 2131, Урбан</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13950</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/krestovina_vaz_2101_07_vala_kardannogo_zao_kardan-011497/</t>
+          <t>https://motorring.ru/product/20818-perehodnik-dlya-ustanovki-sportivnogo-rulya-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Крестовина ВАЗ-2101-07 вала карданного ЗАО Кардан</t>
+          <t>Переходник для установки спортивного руля для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>940</v>
+        <v>890</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/krestovina_vaz_21213_vala_kardannogo_zao_kardan-137160/</t>
+          <t>https://motorring.ru/product/27720-diodnye-ptf-polos-analog-vaz-2110-2112-2113-2115-shevrole</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Крестовина ВАЗ-21213 вала карданного ЗАО Кардан</t>
+          <t>Диодные ПТФ 5 полос TheBestPartner для ВАЗ 2110-2112, 2113-2115, Шевроле Нива (до рестайлинга)</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1720</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/17239-val-kardannyy-peredniy-zaschitnoy-gofroy-kardan-lada-niva</t>
+          <t>https://motorring.ru/product/20429-svetodiodnye-podfarniki-dho-begayuschim-povorotnikom-lada</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Вал карданный передний (короткий) КАРДАН с защитной гофрой для Лада 4х4, Нива Легенд</t>
+          <t>Светодиодные подфарники TheBestPartner с ДХО и бегающим поворотником для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10890</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/921-val-kardannyy-sbore-vaz-2104-2105-2107</t>
+          <t>https://motorring.ru/product/20303-povtoriteli-povorota-nadpisyyu-urban-lada-niva-4h4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Вал карданный в сборе для ВАЗ 2101-2107</t>
+          <t>Повторители поворота оранжевые с надписью Urban для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12390</v>
+        <v>649</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_zadniy_2121_214_na_krestovine_zao_kardan/</t>
+          <t>https://motorring.ru/product/40443-diodnye-ptf-linz-6000k-s-rasseivatelem-dlya-toyota-leksus</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Вал карданный задний 2121-214 на крестовине. АО КАРДАН 21214-2201012-10</t>
+          <t>Диодные ПТФ TheBestPartner 6000к с хром рассеивателем для Тойота, Лексус</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10400</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10314-kardannyy-val-peredniy-krestovine-syzrany-lada-niva</t>
+          <t>https://motorring.ru/product/8171-diodnye-krasno-belye-fonari-lada-granta-sedan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Карданный вал передний (короткий) КАРДАН на крестовине для Лада 4х4, Нива Легенд</t>
+          <t>Диодные красно-белые фонари TheBestPartner с простым LED-поворотником для Лада Гранта, Гранта FL седан</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14290</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/komplektuyushchie_kpp_vaz/flanets_elastichnoy_mufty_vaz_2101-2202023-00_kardan/</t>
+          <t>https://motorring.ru/product/11770-diodnaya-balka-xrb-180-180w-3vt</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Фланец эластичной муфты ВАЗ 2101-2202023-00 КАРДАН</t>
+          <t>Диодная балка XRB-180 180W (60*3Вт)</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1260</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/flanec_vaz_2101_lastichnoiy_mufty_k_kardannomu_valu_kardan_zao-003606/</t>
+          <t>https://motorring.ru/product/32637-komplekt-chernyh-svetodiodnyh-linzovannyh-far-lada-vesta</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Фланец ВАЗ-2101 эластичной муфты к карданному валу КАРДАН ЗАО</t>
+          <t>Комплект черных светодиодных линзованных фар для Лада Веста</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1470</v>
+        <v>21290</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18103-krestovina-sbore-bez-shtucera-lada-niva-21214-2131-nadeghda</t>
+          <t>https://motorring.ru/product/8283-diodnaya-balka-pl-3107-300w-100-3vt</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Крестовина КАРДАН в сборе без штуцера для Лада 4х4 (Нива), Надежда, Шевроле Нива </t>
+          <t>Диодная балка PL-3107 300W (100*3Вт)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>749</v>
+        <v>18890</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/929</t>
+          <t>https://motorring.ru/product/21787-svetodiodnye-lampy-sal-man-6000k-3800lm-h11</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Вал карданный передний (короткий) КАРДАН на ШРУСах для Лада 4х4, Нива Легенд</t>
+          <t>Светодиодные лампы C9 30W 6000K 3800LM H11 для Лада Гранта-Калина, Приора, Ларгус, Икс Рей, Веста, Нива Легенд/Тревел, Шевроле Нива, Датсун</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10490</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/val_kardannyiy_vaz_21214_zadniiy_2123_n_o__shrus__kardan_zao-090798/</t>
+          <t>https://motorring.ru/product/15989-bokovye-zerkala-karbon</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Вал карданный ВАЗ-21214 задний,2123 Н/О (ШРУС) КАРДАН ЗАО</t>
+          <t>Боковые зеркала F2 с Эконом приводом под карбон</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>16510</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2101_2107_zao_kardan-240418/</t>
+          <t>https://motorring.ru/product/15119-svetodiodnye-fary-chernom-korpuse-96w-dyuymov-povtoritelem</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Вал карданный ВАЗ-2101-2107 ЗАО КАРДАН</t>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 96W с повторителем поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14750</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_privoda_zadnego_mosta_-gofra-_21214-2201012-11_kardan/</t>
+          <t>https://motorring.ru/product/38639-komplekt-diodnyh-serih-fonarey-led-obvodkoy-lada-4h4-niva</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Вал карданный привода заднего моста (Гофра) 21214-2201012-11 КАРДАН</t>
+          <t>Комплект диодных тонированных фонарей TheBestPartner с LED обводкой и дополнительным стоп-сигналом с режимом повторителя на дверь багажника для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>12350</v>
+        <v>12490</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40057-val-kardannyy-zadniy-2121-214-gofra-lada-4h4-niva</t>
+          <t>https://motorring.ru/product/11857-nakladki-pedali-type-serebristo-chernye</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Вал карданный 21214 (длинный) КАРДАН с гофрой для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Накладки на педали Type R серебристо-черные</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10790</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2121_214_zadniiy_zao__kardan_-000531/</t>
+          <t>https://motorring.ru/product/15957-bokovye-zerkala-piter-chernye-libo-belye-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Вал карданный ВАЗ-2121-214 задний ЗАО "Кардан"</t>
+          <t>Боковые механические зеркала Питер черные либо белые для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>12450</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/krestovina-zao-kardan-kardannogo-vala-v-sbore-niva-21211-2202026-00/</t>
+          <t>https://motorring.ru/product/25053-svetodiodnye-podfarniki-plavniye-dho-povtoritel-4x4-niva</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Крестовина АО "Кардан" карданного вала в сборе НИВА (21211220202500)</t>
+          <t>Светодиодные подфарники DLAA с плавным загоранием ДХО и динамическим поворотником для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1015</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/933</t>
+          <t>https://motorring.ru/product/21211-povtoriteli-povorotov-led-nadpisyyu-granta-lada-granta</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Вал карданный 21214 (длинный) КАРДАН на ШРУСах для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Повторители поворотов LED с надписью Granta белые для Лада Гранта, Гранта FL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>13890</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_2105-2200012-02_-usilennyy-_kardan/</t>
+          <t>https://motorring.ru/product/38641-komplekt-diodnyh-fonarey-puls-lada-4h4-niva</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Вал карданный 2105-2200012-02 (усиленный) КАРДАН</t>
+          <t xml:space="preserve">Комплект диодных фонарей TheBestPartner с LED обводкой и дополнительным стоп-сигналом (Пульс) с режимом повторителя на дверь багажника для Лада 4х4, Нива Легенд	</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>16990</v>
+        <v>12490</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_privoda_perednego_mosta_21214-2203012-11_kardan/</t>
+          <t>https://motorring.ru/product/15959-bokovye-zerkala-volna-povtoritelem-chernyy-korpus-vaz</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Вал карданный привода переднего моста с гофрой 21214-2203012-11 КАРДАН</t>
+          <t>Боковые механические зеркала Волна с повторителем черный корпус для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>12350</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/17743-val-kardannyy-promeghutochnyy-shevrole-niva</t>
+          <t>https://motorring.ru/product/15995-bokovye-zerkala-volna-chernye-vaz-2104-2105-2107</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Промежуточный карданный вал КАРДАН для Шевроле Нива, Лада Нива Тревел</t>
+          <t>Боковые механические зеркала Волна черные для ВАЗ 2104, 2105, 2107</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10890</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/shrus_vaz_21214_2123_vala_kardannogo_v_sbore_kardan_zao-090995/</t>
+          <t>https://motorring.ru/product/12748-bokovye-zerkala-piter-chernye-antiblikom-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ШРУС ВАЗ-21214,2123 вала карданного в сборе КАРДАН ЗАО</t>
+          <t>Боковые механические зеркала Питер черные с антибликом для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8350</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/rem-komplekt-dlya-kardana-na-shrusakh-vaz-21214-2123-kardan-21214-2201160-00-/</t>
+          <t>https://motorring.ru/product/21668-led-povtoriteli-povorotnika-oranghevye-gerbom-dvuglavyy</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ремонтный комплект для кардана на шрусах ВАЗ-21214, 2123 (КАРДАН ) 21214-2201160-00</t>
+          <t>LED повторители поворотника оранжевые с гербом (двуглавый орел) для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6500</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_peredniy_2121_214_na_krestovine_zao_kardan/</t>
+          <t>https://motorring.ru/product/32726-zadnie-diodnye-fonari-418g-toporiki-tonirovannye-dlya-vaz</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Вал карданный передний 2121-214 на крестовине. АО КАРДАН 21214-2203012-10</t>
+          <t>Задние диодные фонари Пианино (топорики) TheBestPartner тонированные для ВАЗ 2108-21099, 2113, 2114</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10150</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2121_214_peredniiy_zao__kardan_-000532/</t>
+          <t>https://motorring.ru/product/28138-zadnie-diodnye-fonari-orlinyy-glaz-tonirovannye-vaz</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Вал карданный ВАЗ-2121-214 передний ЗАО "Кардан"</t>
+          <t>Задние диодные фонари Орлиный глаз TheBestPartner в стиле Ауди тонированные с динамическим поворотником для ВАЗ 2108-21099, 2113, 2114</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>11110</v>
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11776-diodnaya-balka-xrb-240-240w-3vt</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Диодная балка XRB-240 240W (80*3Вт)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15969-zadnie-diodnye-fonari-chernye-beloy-polosoy-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Задние диодные фонари TheBestPartner черные с белой полосой для ВАЗ 2108-21099, 2113, 2114</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8351</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Противотуманные фары диодные хром в рестайлинговый бампер Лада Приора седан, Приора 2</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/13665-nakladki-pedali-type-gheltye-kvadratnym-rezinovym</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Накладки на педали Type R желтые с квадратным резиновым протектором</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/14255-svetodiodnye-fary-chernom-korpuse-90w-dyuymov-kolycom</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 90W с кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд, УАЗ, Jeep Wrangler</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20182-diodnaya-balka-ys-45w</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Диодная балка YS-45W</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15970-bokovye-zerkala-hrom-povtoritelem-3245-vaz-2108-15</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала хромированные с повторителем (модификация 3245) для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38698-komplekt-diodnyh-far-thebestpartner-stile-audi-lada-vesta</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Комплект диодных фар TheBestPartner с Би-лед линзами в стиле Ауди для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>21290</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19347-diodnaya-balka-xk-36w</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Диодная балка XK-36w</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21207-povtoriteli-povorota-2polosy-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Повторители поворота с L-образным рисунком (2 полосы) белые для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15997-bokovye-zerkala-volna-hrom-nakladkami-vaz-2104-2105-2107</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Волна с хром накладками для ВАЗ 2104, 2105, 2107</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15968-bokovye-zerkala-piter-hrom-vaz-2108-21099-2113-2115</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер хром для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15993-zadnie-fonari-krasnoy-polosoy-dlya-vaz-2106-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Задние фонари с красной полосой для ВАЗ 2106, Лада Нива 4х4 (старого образца)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19766-ptf-699-lada-vesta-iks-rey-granta-niva-urban-reno</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ПТФ DLAA 6 светодиодов для Лада Веста, Икс Рей, Гранта FL, Ларгус FL, Нива Урбан, Рено</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27721-diodnye-ptf-polos-dvuhcvetnye-analog-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ 5 полос двухцветные 3000/6000К TheBestPartner для ВАЗ 2110-2112, 2113-2115, Шевроле Нива (до рестайлинга)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/41830-diodnye-krasno-belye-fonari-dinamicheskie-granta-sedan</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Диодные красно-белые фонари TheBestPartner с динамическим LED-поворотником для Лада Гранта, Гранта FL седан</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40325-zadnie-tonirovannye-led-fonari-stile-audi-dlya-vaz-2110</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Задние тонированные LED фонари TheBestPartner в стиле Ауди для ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>8990</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36856-perednie-fary-vypolnennye-stile-audi-q8-lada-granta-fl</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Передние фары TheBestPartner в стиле Ауди Q8 с двумя Би-лед линзами, динамическим розжигом ДХО и поворотниками для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>23790</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11869-spoylery-diodom-dvorniki-karbon</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Спойлеры с диодом на дворники, карбон</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21205-povtoriteli-povorota-led-nadpisyyu-niva-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Повторители поворота LED с надписью Niva белые для Лада Нива 4х4</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19334-diodnaya-balka-k-30</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Диодная балка K-30</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21669-led-povtoriteli-povorotnika-belye-gerbom-dvuglavyy-orel-vaz</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>LED повторители поворотника белые с гербом (двуглавый орел) для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37146-zadnie-diodnye-krasnye-fonari-stile-mersedes-lada-granta</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Задние диодные красные фонари TheBestPartner в стиле Мерседес АМГ для Лада Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15996-bokovye-zerkala-piter-chernye-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер черные для ВАЗ 2104, 2105, 2107</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21068-nakladki-bokovye-zerkala-urban-stile-mersedes-amg-lada-niva</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Накладки TheBestPartner на боковые зеркала Урбан в стиле Мерседес amg для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8347-protivotumannye-fary-ld-327-dlya-lada-priora</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Противотуманные фары TheBestPartner LD-327 для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15981-bokovye-zerkala-chernyy-lak-vaz-2108-21099-2113-2115</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала черный лак для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/32387-svetodiodnye-lampy-6000k-linzoy</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Светодиодные лампы TheBestPartner Y6 6000К H4 с линзой</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19759-ramki-ptf-dho-lada-granta</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Рамки ПТФ TheBestPartner с ДХО в бампер нового образца для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/746-blok-fara-pravaya-analog-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Блок-фара правая (аналог) ML для Лада Калина 2</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27717-svetodiodnye-fary-cherep-dyuymov-chernye-led-kolycom</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов Череп черные с LED кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25915-zadnie-chernye-svetodiodnye-fonari-polosy-begayuschim</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Задние черные светодиодные фонари TheBestPartner Полосы с бегающим повторителем для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27715-svetodiodnye-fary-zvezdi-dyuymov-chernye-led-kolycom</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов черные 5 звезд с LED кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/39162-chernye-perednie-fary-thebestpartner-stil-audi-trevel</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Черные передние фары TheBestPartner в стиле Ауди с двумя Би-лед линзами, динамическим розжигом ДХО и поворотниками для Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>30990</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15197</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Набор инструментов Аэрофорс 84-PC 1/4, 1/2 - 84 предмета</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/14680-protivotumannye-fary-linzoy-ld-271-ramkami-lada-granta</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Противотуманные фары DLAA с линзой с рамками в бампер образца 2014-2017 годов для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24715-svetodiodnye-fary-nv-300-povtoritelem-povorota-vaz-2101</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Светодиодные фары 7 дюймов NV-300 с повторителем поворота для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>7990</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15956-bokovye-zerkala-volna-belye-libo-chernye-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Волна белые либо черные для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27713-svetodiodnye-fary-polosa-dyuymov-chernye-led-kolycom</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов черные с матовыми линиями и LED кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18765-antenna-shtatnaya-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Оригинальная антенна на крышу для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/13579-svetodiodnye-fary-80w-dyuymov-chernye-povtoritelem-povorota</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 80W черные с кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада Нива 4х4, УАЗ</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8338-protivotumannye-fary-glaz-orla-vaz-2110-2115</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Противотуманные фары Глаз Орла TheBestPartner для ВАЗ 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11754-diodnaya-balka-24w-b-dalyniy-3vt</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Диодная балка 24W-B дальний (8*3Вт)</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36707-diodnye-belo-serye-fonari-lada-granta-sedan</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Диодные серые фонари TheBestPartner с простым LED-поворотником для Лада Гранта седан</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11872-spoylery-diodom-dvorniki-sinie</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Спойлеры с диодом на дворники, синие</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/14257-svetodiodnye-fary-dyuymov-d0875x-vaz-2101-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 90W, 13 диодов и 2 полосы, ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40272-reshetka-radiatora-hrom-led-plankoy-dho-obramlenii-far-lada4x4</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Решетка радиатора с LED-планкой, ДХО в обрамлении фар и вставками Хром для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4599-protivotumannye-fary-diodov-dlya-lada-priora</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Противотуманные фары на 9 диодов для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11740-diodnaya-balka-18w-a-dalyniy-3vt</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Диодная балка 18W-A дальний (6*3Вт)</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/17703-svetodiodnye-podfarniki-dlaa-begayuschim-povtoritelem-dho</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Светодиодные подфарники DLAA с бегающим повторителем и ДХО темный хром для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36728-fary-dyuymov-diodnoy-liniey-dlya-vaz-2101-2102-lada-4h4</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Фары светодиодные 7 дюймов 1с диодной линией для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11862-nakladki-pedali-type-sinie-kvadratnym-rezinovym-protektorom</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Накладки на педали Type R синие с квадратным резиновым протектором</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/32389-diodnye-ptf-linzy-kolycom-dho-dlya-lada-granta-lada-vesta</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ TheBestPartner 2 линзы 6000к с кольцом ДХО для Лада Гранта FL, Лада Веста, Икс Рей, Ларгус FL, Нива Урбан, Рено</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15972-bokovye-zerkala-volna-chernye-hrom-nakladkoy-povtoritelem</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Волна черные с хром накладкой и повторителем для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22260-zadnie-svetodiodnye-fonari-britaniya-chernye-begayuschim</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Задние светодиодные фонари TheBestPartner Британия (черные) с бегающим повторителем для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25913-zadnie-svetodiodnye-fonari-iksy-krasnye-begayuschim</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Задние светодиодные фонари TheBestPartner Иксы (красные) с бегающим повторителем для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/30580-zadnie-svetodiodnye-fonari-kapli-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Задние светодиодные фонари TheBestPartner в стиле Мерседеса с рисунком Капли и прозрачным стеклом для Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11757-diodnaya-balka-180w-kombinirovannaya-10vt</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Диодная балка 180W комбинированная (12*10Вт)</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/32636-komplekt-chernyh-zadnih-led-fonarey-dinamich-vesta</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Комплект черных задних диодных фонарей TheBestPartner в стиле Ауди с бегающим поворотником для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>18190</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/42182-povtoriteli-povorota-beliye-nadpisyyu-urban-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Повторители поворота белые с надписью Urban для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8280-diodnaya-balka-pl-3103-60w-3vt</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Диодная балка PL-3103 FS 60W (20*3Вт)</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20460-bokovye-zerkala-volna-chernye-povtoritelem-dlya-vaz-2104</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Волна черные с повторителем для ВАЗ 2104, 2105, 2107</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21786-svetodiodnye-lampy-sal-man-6000k-3800lm</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Светодиодные лампы C9 30W 6000K H7 для Лада Калина, Калина 2, Приора, Веста, Иксрей, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24470-svetodiodnye-led-protivotumannye-fary-analog-polosy</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Светодиодные (LED) противотуманные фары 4 полосы (аналог без гарантии) для ВАЗ 2110-2112, 2113-2115, Шевроле Нива (до рестайлинга)</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8271-diodnaya-balka-pl-1219-10w-10vt</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Диодная балка PL-1219 10W (1*10Вт)</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21804-svetodiodnye-fary-60w-dyuymov-chernye-krug-centre</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 60W черные (круг в центре) с повторителем поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20643-svetodiodnye-dinamicheskie-povtoriteli-povorota-leksus</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Светодиодные динамические повторители поворота TheBestPartner Лексус Стайл в зеркала образца 2015 года для Лада Веста </t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40519-zadnie-krasniye-led-fonari-stile-audi-dlya-vaz-2110</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Задние красные LED фонари TheBestPartner в стиле Ауди для ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>8990</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27724-diodnye-dvuhcvetnye-ptf-polos-analog-lada-granta-lada-vesta</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Диодные двухцветные ПТФ 3000/6000К TheBestPartner 5 полос для Лада Гранта FL, Лада Веста, Икс Рей, Ларгус FL, Нива Урбан, Рено</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19349-diodnaya-balka-24s</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Диодная балка 24S</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16660-svetodiodnye-nakladki-porogi-nadpisyyu-urban-lada-niva</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Светодиодные накладки на пороги с надписью Urban для Лада Нива 21213, 21214</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40270-reshetka-radiatora-led-plankoy-dho-obramlenii-far-lada4x4</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Решетка радиатора с LED-планкой и ДХО в обрамлении фар для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>11290</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8342-chernye-diodnye-protivotumannye-fary-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Черные диодные противотуманные фары для ВАЗ 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15958-bokovye-zerkala-belye-chernye-povtoritelem-vaz-2108-2115</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала белые/черные с повторителем на ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15979-bokovye-zerkala-chernyy-lak-antiblikom-3381-vaz-2108-2115</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала черный лак с антибликом на ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20988-bokovye-zerkala-urban-elektroprivod-begayuschim</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Боковые зеркала Урбан электропривод c бегающим поворотником в стиле Мерседес AMG для Лада Нива 21214</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/249-zadnie-diodnye-fonari-krasno-belye-vaz-2108-2113-2109-2114</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Задние диодные фонари красно-белые для ВАЗ 2108, 2113, 2109, 2114, 21099</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40446-diodnye-ptf-thebestpartner-1linza-6000k-dho-priora</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Диодные двухцветные ПТФ TheBestPartner 6000к с линзой и кольцом ДХО для Лада Приора, Шевроле Нива с 2009 г.в., Лада Нива 2123</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11863-nakladki-pedali-type-chernye</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Накладки на педали Type R черные для ВАЗ</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15987-bokovye-zerkala-volna-belye-povtoritelem-vaz-2104-2107</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Волна Белые с повторителем для ВАЗ 2104, 2105, 2107</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/42798-svetodiodnye-ptf-thebestpartner-linza-regulirovkoy-vesta</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Светодиодные ПТФ TheBestPartner с линзой и регулировкой для Лада Гранта FL, Лада Веста, Икс Рей, Ларгус FL, Нива Урбан, Рено</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11742-diodnaya-balka-18w-c-dalyniy-3vt</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Диодная балка 18W-C дальний (6*3Вт)</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21208-povtoriteli-povorotov-led-nadpisyyu-priora-lada-priora</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Повторители поворотов LED белые с надписью Priora для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19342-diodnaya-balka-xk-18w</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Диодные балки XK-18w</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15868-tuning-fonari-lada-niva-4x4-chernye</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Тюнинг фонари черные для Лада Нива 4х4</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27726-diodnye-ptf-60w-dvuhryadnie-analog-lada-priora</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ 5 полос TheBestPartner для Лада Приора, Шевроле Нива с 2009 г.в., Лада Нива 2123</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12231-svetodiodnye-fary-90w-dyuymov-chernye-diodnym-kolycom</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 90W черные с кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15120-svetodiodnye-fary-90w-dyuymov-chernye-povtoritelem-povorota</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 90W черные с повторителем поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11765-diodnaya-balka-xrb-120-120w-3vt</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Диодная балка XRB-120 120W (40*3Вт)</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8144-ramki-ptf-diodnymi-hodovymi-ognyami-lada-largus</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Рамки ПТФ с диодными ходовыми огнями для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/148-blok-fara-levaya-analog-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Блок-фара левая (аналог) ML для Лада Калина 2</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19341-diodnaya-balka</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Диодная балка 10R</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24471-svetodiodnye-dvuhcvetnie-led-protivotumannye-fary-analog-polosy</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Светодиодные двухцветные (LED) противотуманные фары 4 полосы (аналог без гарантии) для ВАЗ 2110-2112, 2113-2115, Шевроле Нива (до рестайлинга)</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19767-ptf-998-led-lada-vesta-iks-rey-granta-niva-urban-reno</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Светодиодные ПТФ с ангельскими глазками для Лада Веста, Икс Рей, Гранта FL, Ларгус FL, Нива Урбан, Рено</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21783-svetodiodnye-lampy-sal-man-6000k-3800lm</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Светодиодные лампы C9 30W 6000K H1</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/42183-povtoriteli-povorota-oranzevaya-polosa-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Повторители поворота 1 полоса оранжевые для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/2444-diodnye-zadnie-fonari-grey-led-chernye-begayuschim</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Диодные задние фонари TheBestPartner GREY LED (черные) с бегающим повторителем для Лада 4х4, Нива Легенд 21213, 21214, 2131, Урбан</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/34537-chernye-perednie-fary-thebestpartner-stil-audi-largus-fl</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Черные передние фары TheBestPartner в стиле Ауди с двумя Би-лед линзами, динамическим розжигом ДХО и поворотниками для Лада Ларгус FL</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>24390</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18760-diodnaya-balka-18l</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Диодная балка 18L 160мм</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21357-diodnye-ptf-30w-dho-lada-kalina-kalina-granta-largus-datsun</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ TheBestPartner с ангельскими глазками для Лада Калина, Калина 2, Гранта, Ларгус, Датсун до 2019 г.в.</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/7158-ramki-ptf-hodovymi-ognyami-dlya-lada-largus</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Рамки ПТФ с ходовыми огнями для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21802-svetodiodnye-fary-chernom-korpuse-60w-dyuymov-h-obraznym</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 60W с Х-образный рисунок, повторитель поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/35105-zadnie-diodnye-fonari-orlinyy-glaz-tonirovannye-vaz-2105</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Задние диодные фонари Орлиный глаз TheBestPartner в стиле Ауди тонированные с динамическим поворотником для ВАЗ 2105, 2107</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/688-nabor-instrumentov-aerofors-97-pc-predmetov</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Набор инструментов Аэрофорс 97-PC 1/4, 1/2 - 97 предметов</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8282-diodnaya-balka-pl-3106-240w-3vt</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Диодная балка PL-3106 FS 240W (80*3Вт)</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4250-zadnie-fonari-torino-hy-200-krasnye-beloy-polosoy-vaz</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Задние фонари Torino красные с белой полосой для ВАЗ 2108-21099, 2113, 2114</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37147-zadnie-diodnye-tonirovanniye-fonari-stile-mersedes-granta</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Задние диодные черные фонари TheBestPartner в стиле Мерседес АМГ для Лада Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36972-komplekt-diodnyh-fonarey-led-obvodkoy-lada-4h4-niva</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Комплект диодных фонарей TheBestPartner с LED обводкой и дополнительным стоп-сигналом с режимом повторителя на дверь багажника для Лада 4х4, Нива Легенд	</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11858-nakladki-pedali-type-serebristo-krasnye</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Накладки на педали Type R серебристо-красные</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/35954-ruly-nardi-old-school-derevo-dlya-shervole-niva</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Деревянный руль Nardi Old School для Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/31560-svetodiodnye-fary-90w-bluetooth-regulirovkoy-cveta</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Светодиодные фары 90W с Bluetooth регулировкой цвета габаритов для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд, УАЗ</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>7990</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36708-zadnie-svetodiodnye-svetlie-fonari-stile-range-rover-niva</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Задние светодиодные светлые тюнинг фонари TheBestPartner в стиле Рэндж Ровера для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/13905-diodnye-povtoriteli-nadpisyyu-dlya-lada-priora</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>LED повторители поворотника TheBestPartner оранжевые с разъемом в черном корпусе с надписью SE для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24273-bokovye-zerkala-piter-snejka-vaz-2104-2107</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер снежка с антибликом для ВАЗ 2104, 2105, 2107</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6425-diodnye-povtoriteli-nadpisyyu-priora-dlya-lada-priora</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Диодные повторители с надписью Priora желтые для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12868-podlokotnik-boks-vaz-2108-2109-21099</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Подлокотник-бокс для ВАЗ 2108-21099</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/42797-svetodiodnye-ptf-thebestpartner-linza-beluye-priora</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Светодиодные ПТФ TheBestPartner с линзой и регулировкой для Лада Приора, Шевроле Нива с 2009 г.в., Лада Нива 2123, ГАЗ Газель</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10566-podfarniki-dlaa-diodnymi-povorotnikami-dho-temnyy-hrom-niva</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Подфарники DLAA с диодными поворотниками и ДХО темный хром для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27746-zadnie-diodnye-fonari-iksy-tonirovannye-vaz-2108-21099-2113</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Задние диодные фонари Иксы тонированные для ВАЗ 2108-21099, 2113, 2114</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27714-svetodiodnye-fary-linii-dyuymov-chernye-led-kolycom</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов черные с линиями и LED кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11855-nakladki-pedali-type-serebristo-sinie</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Накладки на педали Type R серебристо-синие</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8357-svetodiodnye-ptf-lada-vesta-iks-rey-granta-niva-urban-reno</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Светодиодные ПТФ DLAA для Лада Веста, Икс Рей, Гранта FL, Ларгус FL, Нива Урбан, Рено</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/41799-chernye-fary-thebestpartner-linzami-dho-povorotnikom-largus</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Черные передние фары TheBestPartner с Би-лед линзами, динамическим розжигом ДХО и поворотниками для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>24390</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24714-zadnie-svetodiodnye-fonari-kapli-chernye-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Задние светодиодные фонари TheBestPartner в стиле Мерседеса с рисунком Капли и тонированным стеклом для Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38688-zadnie-diodnye-fonari-orlinyy-glaz-vaz-2105</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Задние диодные фонари Орлиный глаз TheBestPartner в стиле Ауди с динамическим поворотником для ВАЗ 2105, 2107</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19332-diodnaya-balka-10s</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Диодная балка 10S</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/32064-zadnie-chernye-svetodiodnye-fonari-stile-amg-lada-priora</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Задние черные светодиодные фонари TheBestPartner в стиле Мерседес АМГ для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11746-diodnaya-balka-27w-b-dalyniy-3vt</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Диодная балка 27W-B (R) дальний (9х3Вт)</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8326-protivotumannye-fary-ld-472-lada-kalina-granta-largus</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Противотуманные фары TheBestPartner для Лада Калина, Гранта, Ларгус, Датсун до 2019 г.в.</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/42185-povtoriteli-povorota-l-obraznym-risunkom-beliye-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Повторители поворота с L-образным рисунком (3 полосы) белые для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11903-podsvetka-salona-knopkoy-a-10</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Подсветка салона с кнопкой A-10</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40882-chernye-perednie-fary-thebestpartner-lada-xray</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Черные передние фары TheBestPartner с двумя Би-лед линзами, динамическим розжигом ДХО и поворотниками для Лада Икс Рей</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>30990</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/34862-tonirovannye-svetodiodnye-led-podfarniki-polos-dho</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Тонированные светодиодные (LED) подфарники 6 полос (ДХО, бегущий поворотник, прожектор) для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/849</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Набор инструментов Аэрофорс 92-PC 1/4, 1/2 - 92 предмета</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>9790</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/260</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Набор инструментов Аэрофорс 132-PC 1/4, 1/2 - 132 предмета</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8288-diodnaya-balka-pl-3205-120w-3vt</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Диодная балка PL-3205 FS 120W (40*3Вт)</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8287-diodnaya-balka-pl-3204-90w-3vt</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Диодная балка PL-3204 FS 90W (30*3Вт)</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>7490</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38690-komplekt-krasnyh-zadnih-led-fonarey-dinamich-vesta</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Комплект красных задних диодных фонарей TheBestPartner в стиле Ауди с бегающим поворотником для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>17990</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15954-svetodiodnye-zadnie-fonari-krasnye-seroy-polosoy-2108</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Светодиодные задние фонари красные с серой полосой для ВАЗ 2108-21099, 2113, 2114</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8348-protivotumannye-fary-ld-093-pod-kirghach-lada-priora</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Противотуманные фары TheBestPartner LD-093 для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40620-fonary-zadniye-cherniye-stil-audi-lada-iks-rey</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Светодиодные черные фонари TheBestPartner в стиле Ауди с динамическим поворотником для Лада Икс Рей</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>18990</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11752-vspyshki-fso-48w-16-svetodiodov</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Вспышка ФСО 48W (16 светодиодов по 3 Вт)</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11748-vspyshki-fso-27w-svetodiod</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Вспышка ФСО 27W (9 светодиодов по 3 Вт)</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40610-fonary-zadniye-stil-audi-lada-iks-rey</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Светодиодные фонари TheBestPartner в стиле Ауди с динамическим поворотником для Лада Икс Рей</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11764-diodnaya-balka-cclb-36-36w-3vt</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Диодная балка CCLB-36 36W (12*3Вт)</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21524-svetodiodnye-fary-chernom-korpuse-96w-dyuymov-led-kolycom</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов черные 96W с кольцом повторителя поворота и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10664</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Набор инструментов Аэрофорс 76-PC 1/4, 1/2 - 76 предметов</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8329-protivotumannye-fary-dlaa-vaz-2110-2112-2113-2115</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Противотуманные фары DLAA для ВАЗ 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27719-svetodiodnye-fary-shkali-dyuymov-chernye-led-kolycom</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов черные Шкалы с LED кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10675-nabor-instrumentov-aerofors-59-pc-predmetov</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Набор инструментов Аэрофорс 59-PC 1/4, 1/2 - 59 предметов</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21784-svetodiodnye-lampy-sal-man-6000k-3800lm</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Светодиодные лампы C9 30W 6000K 3800LM H3 для ВАЗ 2110-2112, 2113-2115, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8328-klassicheskie-protivotumannye-fary-dlaa-dlya-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Классические противотуманные фары DLAA для ВАЗ 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11737-diodnaya-balka-10w-r-blighniy-10vt</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Диодная балка 10W-R ближний (1*10Вт)</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22269-svetodiodnye-podfarniki-krasnye-dho-begayuschim</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Светодиодные подфарники (красные) с ДХО и бегающим поворотником для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/13578-svetodiodnye-fary-chernye-90w-dyuymov-led-povtoritelem</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов черные 90W с повторителем поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21785-svetodiodnye-lampy-sal-man-6000k-3800lm</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Светодиодные лампы C9 30W 6000K H4 для ВАЗ 2101-2107, 2108-21099, 2113-2115, Лада 4х4, Нива Легенд, Гранта, Ларгус</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12749-bokovye-zerkala-piter-sneghka-antiblikom-vaz-2108-2115</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер снежка с антибликом для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15374-perehodnik-dlya-ustanovki-sportivnogo-rulya-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Переходник для установки спортивного руля для ВАЗ 2101-2107, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22263-led-povtoriteli-povorotnika-l-obraznym-risunkom-polosy</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>LED повторители поворотника с L-образным рисунком (1 полоса, 3 квадрата) белые для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/32728-zadnie-diodnye-fonari-orlinyy-glaz-belyue-vaz</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Задние диодные фонари Орлиный глаз TheBestPartner в стиле Ауди с прозрачным стеклом для ВАЗ 2108-21099, 2113, 2114</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25914-zadnie-svetodiodnye-fonari-belie-iksy-chernye-begayuschim</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Задние светодиодные фонари TheBestPartner белые Иксы (белые) с бегающим повторителем для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16189-tyuning-fary-chernom-korpuse-diodnymi-dho-lada-granta</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Тюнинг фары в черном корпусе с диодными ДХО для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25912-zadnie-svetodiodnye-fonari-iksy-chernye-begayuschim</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Задние светодиодные фонари TheBestPartner Иксы (черные) с бегающим повторителем для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8172-diodnye-krasno-serye-fonari-lada-granta-sedan</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Диодные красно-серые фонари TheBestPartner для Лада Гранта седан</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/32800-tyuning-fary-chernym-korpusom-polosoy-dho-linzoy-lada-priora</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Тюнинг фары с черным корпусом, полосой ДХО и линзой для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>11290</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/14256-svetodiodnye-fary-80w-dyuymov-chernye-povtoritelem-povorota</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 80W, черные с повторителем поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20430-svetodiodnye-podfarniki-tonirovannoe-steklo-dho-begayuschim</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Светодиодные подфарники (тонированное стекло) с ДХО и бегающим поворотником для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8345-protivotumannye-fary-ld-089-ramkami-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Противотуманные фары TheBestPartner LD-089 с рамками для Лада Калина</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18762-svetodiodnye-fary-chernom-korpuse-90w-dyuymov-povtoritelem</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 90W с повторителем поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15961-bokovye-zerkala-piter-karbon-vaz-2108-2115</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Боковые зеркала механические Питер под карбон для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21803-svetodiodnye-fary-chernom-korpuse-60w-dyuymov-v-obraznym</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 60W с V-образный рисунок, повторитель поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22265-led-povtoriteli-povorotnika-risunkom-kvadraty-belye-lada</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>LED повторители поворотника с рисунком (квадраты) белые для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/34249-zadnie-svetodiodnye-fonari-tonirovannye-stile-range-rover-niva</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Задние светодиодные тюнинг фонари TheBestPartner в стиле Рэндж Ровера тонированные для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11738-diodnaya-balka-10w-r-dalyniy-10vt</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Диодная балка 10W-R дальний (1*10Вт)</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22259-zadnie-svetodiodnye-fonari-britaniya-krasnye-begayuschim</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Задние светодиодные фонари TheBestPartner Британия (красные) с бегающим повторителем для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6919-zadnie-fonari-prosport-rs-09070-audi-dlya-vaz-2108-14</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Задние диодные фонари Кольца TheBestPartner с тонированным стеклом для ВАЗ 2108-21099, 2113, 2114</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20179-begayuschie-povtoriteli-povorota-leksus-stayl-zerkala</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Светодиодные динамические повторители поворота Лексус Стайл черные в зеркала нового образца для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8483-fary-neonovymi-dho-tonirovannye-dlya-lada-4h4-niva-vaz-2101</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Фары DLAA с неоновыми ДХО тонированные для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/42799-svetodiodnye-fary-thebestpartner-yarusniye-dho-7duimov</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов с линзой, повторителем поворотника и многоярусными ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11751-diodnaya-balka-48w-a-blighniy-3vt</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Диодная балка 48W-A ближний (16*3Вт)</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6424-diodnye-povtoriteli-nadpisyyu-granta-dlya-lada-granta</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Диодные повторители с надписью Granta желтые для Лада Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12750-bokovye-zerkala-piter-belye-antiblikom-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер белые с голубым антибликом для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25052-svetodiodnye-podfarniki-dho-povtoritel-4x4-niva</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Светодиодные подфарники DLAA с ДХО и динамическим поворотником для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15965-bokovye-zerkala-hrom-povtoritelem-vaz-2108-21099-2113-2115</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Боковые зеркала хром с Эконом приводом и повторителем для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12746-bokovye-zerkala-piter-belye-antiblikom-vaz-2104-2105-2107</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер белые с голубым антибликом для ВАЗ 2104, 2105, 2107</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20181-svetodiodnye-vspyshki-fso-54w</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Светодиодные вспышки ФСО 54 Вт</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8279-diodnaya-balka-pl-3102-36w-3vt</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Диодная балка PL-3102 FS 36W (12*3Вт)</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21805-svetodiodnye-fary-60w-dyuymov-chernye-risunok-misheny</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 60W черные Мишень с повторителем поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8334-protivotumannye-fary-ld-088-chernye-vaz-2110-12-2113-15</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Противотуманные фары с линзой, черный корпус для ВАЗ 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21355-diodnye-ptf-30w-lada-priora-analog</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ 30W для Лада Приора (аналог)</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12751</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер снежка для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11781-diodnaya-balka-42-hk-yx</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Диодная балка 42-HK-YX</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27725-diodnye-dvuhcvetnye-ptf-angelyskimi-glazkami-lada-kalina3</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ TheBestPartner с двухцветными ангельскими глазками 3000/6000К для Лада Калина, Калина 2, Гранта, Ларгус, Датсун до 2019 г.в.</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11870-spoylery-diodom-dvorniki-krasnye</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Спойлеры красные с диодом на дворники</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20616-protivotumannye-fary-ld-673-lada-vesta-iks-rey-granta-niva</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Противотуманные фары TheBestPartner для Лада Веста, Икс Рей, Гранта FL, Ларгус FL, Нива Урбан, Рено</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20819-perehodnik-dlya-ustanovki-sportivnogo-rulya-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Переходник для установки спортивного руля для ВАЗ 2110-2112 с европанелью,Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12720-zadnie-fonari-diodnymi-povtoritelyami-stopami-gabaritami</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Задние фонари с диодными повторителями, стопами и габаритами для Лада Приора седан, хэтчбек</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11775-diodnaya-balka-g-240-240w-3vt</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Диодная балка G-240 240W (80*3Вт)</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19338-diodnaya-balka-l-30</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Диодная балка L-30</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10471-fary-neonovymi-dho-hromirovannye-lada-niva-4h4-vaz-2101</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Фары DLAA с неоновыми ДХО хромированные для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15988-bokovye-zerkala-f2-belye</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Боковые зеркала F2 с Эконом приводом белые</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8281-diodnaya-balka-pl-3104-120w-3vt</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Диодная балка PL-3104 FS 120W (40*3Вт)</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8343-protivotumannye-fary-diodnye-ld-089l-ramkami-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Противотуманные фары 9 диодов с рамками для Лада Калина</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4252-zadnie-fonari-krasnoy-polosoy-vaz-2108-21099-2113-2114</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Задние фонари с красной полосой для ВАЗ 2108-21099, 2113, 2114</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22575-protivotumannye-fary-diodnye-polosy-restaylingovyy-bamper</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Противотуманные фары диодные 3 полосы в рестайлинговый бампер для Лада Приора седан, Приора 2</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15994</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Задние фонари с черной полосой для ВАЗ 2106, Лада Нива 4х4 (старого образца)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11873-spoylery-diodom-dvorniki-hrom</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Спойлеры с диодом на дворники, хром</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4259-zadnie-fonari-krasnoy-polosoy-dlya-vaz-2105-2107</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Задние фонари с красной полосой для ВАЗ 2105, 2107 </t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/31230-protivotumannyy-fonary-bamper-dlya-lada-vesta</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Противотуманный фонарь в бампер для Лада Веста с надписью Веста</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12752-bokovye-zerkala-piter-chernye-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер черные для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38645-komplekt-diodnyh-fonarey-polosy-lada-4h4-niva</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Комплект диодных фонарей TheBestPartner с LED обводкой и дополнительным стоп-сигналом (Стрелки) с режимом повторителя на дверь багажника для Лада 4х4, Нива Легенд	</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16590-rele-povtoriteley-dlya-diodnyh-podfarnikov-dho</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Реле 4-контактное для диодных подфарников и фонарей с ДХО и динамическим поворотником для ВАЗ 2101-2107, Лада 4х4 (Нива) до 2020 г.в.</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +4122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,650 +4132,5260 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>376516</v>
+        <v>145535</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40055-val-kardannyy-usilenniy-sbore-vaz-2104-2105-2107</t>
+          <t>https://motorring.ru/product/32728-zadnie-diodnye-fonari-orlinyy-glaz-belyue-vaz</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Вал карданный с усиленными крестовинами в сборе для ВАЗ 2101-2107</t>
+          <t>Задние диодные фонари Орлиный глаз TheBestPartner в стиле Ауди с прозрачным стеклом для ВАЗ 2108-21099, 2113, 2114</t>
         </is>
       </c>
       <c r="D1" t="n">
-        <v>13990</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>139012</v>
+        <v>203963</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/17238-val-kardannyy-sbore-shrus-lada-niva-4h4-5-dverey</t>
+          <t>https://motorring.ru/product/16590-rele-povtoriteley-dlya-diodnyh-podfarnikov-dho</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Вал карданный задний КАРДАН на ШРУСах в сборе для 5-дверных Лада 4х4, Нива Легенд</t>
+          <t>Реле 4-контактное для диодных подфарников и фонарей с ДХО и динамическим поворотником для ВАЗ 2101-2107, Лада 4х4 (Нива) до 2020 г.в.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24990</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>139013</v>
+        <v>194545</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/933</t>
+          <t>https://motorring.ru/product/11903-podsvetka-salona-knopkoy-a-10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Вал карданный 21214 (длинный) КАРДАН на ШРУСах для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Подсветка салона с кнопкой A-10</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13890</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>139014</v>
+        <v>133308</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10313-val-kardannyy-zadniy-2121-214-krestovine-lada-4h4-niva</t>
+          <t>https://motorring.ru/product/11737-diodnaya-balka-10w-r-blighniy-10vt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Вал карданный 21214 (длинный) КАРДАН на крестовине для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Диодная балка 10W-R ближний (1*10Вт)</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10990</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>139015</v>
+        <v>133309</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/929</t>
+          <t>https://motorring.ru/product/11738-diodnaya-balka-10w-r-dalyniy-10vt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Вал карданный передний (короткий) КАРДАН на ШРУСах для Лада 4х4, Нива Легенд</t>
+          <t>Диодная балка 10W-R дальний (1*10Вт)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10490</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>139016</v>
+        <v>133310</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10314-kardannyy-val-peredniy-krestovine-syzrany-lada-niva</t>
+          <t>https://motorring.ru/product/11752-vspyshki-fso-48w-16-svetodiodov</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Карданный вал передний (короткий) КАРДАН на крестовине для Лада 4х4, Нива Легенд</t>
+          <t>Вспышка ФСО 48W (16 светодиодов по 3 Вт)</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14290</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>139029</v>
+        <v>133311</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/921-val-kardannyy-sbore-vaz-2104-2105-2107</t>
+          <t>https://motorring.ru/product/11752-vspyshki-fso-48w-16-svetodiodov</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Вал карданный в сборе для ВАЗ 2101-2107</t>
+          <t>Вспышка ФСО 48W (16 светодиодов по 3 Вт)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12390</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>376875</v>
+        <v>133220</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40057-val-kardannyy-zadniy-2121-214-gofra-lada-4h4-niva</t>
+          <t>https://motorring.ru/product/18760-diodnaya-balka-18l</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Вал карданный 21214 (длинный) КАРДАН с гофрой для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Диодная балка 18L 160мм</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10790</v>
+        <v>990</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>376876</v>
+        <v>133229</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/17240-val-kardannyy-zadniy-zaschitnoy-gofroy-kardan-shevrole-niva</t>
+          <t>https://motorring.ru/product/11748-vspyshki-fso-27w-svetodiod</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Вал карданный задний с защитной гофрой КАРДАН для Лада 4х4, Нива Легенд, Шевроле/Лада Нива, Нива Тревел</t>
+          <t>Вспышка ФСО 27W (9 светодиодов по 3 Вт)</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10690</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>376815</v>
+        <v>133238</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/17239-val-kardannyy-peredniy-zaschitnoy-gofroy-kardan-lada-niva</t>
+          <t>https://motorring.ru/product/11781-diodnaya-balka-42-hk-yx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Вал карданный передний (короткий) КАРДАН с защитной гофрой для Лада 4х4, Нива Легенд</t>
+          <t>Диодная балка 42-HK-YX</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10890</v>
+        <v>990</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>155722</v>
+        <v>256974</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/17743-val-kardannyy-promeghutochnyy-shevrole-niva</t>
+          <t>https://motorring.ru/product/18765-antenna-shtatnaya-shevrole-niva</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Промежуточный карданный вал КАРДАН для Шевроле Нива, Лада Нива Тревел</t>
+          <t>Оригинальная антенна на крышу для Шевроле Нива, Лада Нива Тревел</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10890</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>376810</v>
+        <v>139539</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18103-krestovina-sbore-bez-shtucera-lada-niva-21214-2131-nadeghda</t>
+          <t>https://motorring.ru/product/11748-vspyshki-fso-27w-svetodiod</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Крестовина КАРДАН в сборе без штуцера для Лада 4х4 (Нива), Надежда, Шевроле Нива </t>
+          <t>Вспышка ФСО 27W (9 светодиодов по 3 Вт)</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>749</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>160519</v>
+        <v>139538</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/924-krestovina-kardannogo-vala-sbore-vaz-2101-2107</t>
+          <t>https://motorring.ru/product/11751-diodnaya-balka-48w-a-blighniy-3vt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Крестовина карданного вала КАРДАН в сборе для ВАЗ 2101-2107, Лада 4х4 (Нива)</t>
+          <t>Диодная балка 48W-A ближний (16*3Вт)</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>890</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>376516</v>
+        <v>133313</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_2105-2200012-02_-usilennyy-_kardan/</t>
+          <t>https://motorring.ru/product/11742-diodnaya-balka-18w-c-dalyniy-3vt</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Вал карданный 2105-2200012-02 (усиленный) КАРДАН</t>
+          <t>Диодная балка 18W-C дальний (6*3Вт)</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16990</v>
+        <v>849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>139013</v>
+        <v>194063</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_zadniy_21214_so_shrusom_zao_kardan/</t>
+          <t>https://motorring.ru/product/21208-povtoriteli-povorotov-led-nadpisyyu-priora-lada-priora</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Вал карданный задний 21214 со ШРУСом. АО "КАРДАН" г.Сызрань. 21214-2201012-00</t>
+          <t>Повторители поворотов LED белые с надписью Priora для Лада Приора</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12840</v>
+        <v>690</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>139014</v>
+        <v>194056</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_zadniy_2121_214_na_krestovine_zao_kardan/</t>
+          <t>https://motorring.ru/product/21211-povtoriteli-povorotov-led-nadpisyyu-granta-lada-granta</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Вал карданный задний 2121-214 на крестовине. АО КАРДАН 21214-2201012-10</t>
+          <t>Повторители поворотов LED с надписью Granta белые для Лада Гранта, Гранта FL</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10400</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>139015</v>
+        <v>194073</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_peredniy_21214_so_shrusom_zao_kardan/</t>
+          <t>https://motorring.ru/product/21669-led-povtoriteli-povorotnika-belye-gerbom-dvuglavyy-orel-vaz</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Вал карданный передний 21214 со ШРУСом. АО "КАРДАН" г.Сызрань. 21214-2203012-00</t>
+          <t>LED повторители поворотника белые с гербом (двуглавый орел) для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12480</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>139016</v>
+        <v>194074</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_peredniy_2121_214_na_krestovine_zao_kardan/</t>
+          <t>https://motorring.ru/product/21668-led-povtoriteli-povorotnika-oranghevye-gerbom-dvuglavyy</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Вал карданный передний 2121-214 на крестовине. АО КАРДАН 21214-2203012-10</t>
+          <t>LED повторители поворотника оранжевые с гербом (двуглавый орел) для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10150</v>
+        <v>629</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>376875</v>
+        <v>194061</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_privoda_zadnego_mosta_-gofra-_21214-2201012-11_kardan/</t>
+          <t>https://motorring.ru/product/6424-diodnye-povtoriteli-nadpisyyu-granta-dlya-lada-granta</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Вал карданный привода заднего моста (Гофра) 21214-2201012-11 КАРДАН</t>
+          <t>Диодные повторители с надписью Granta желтые для Лада Гранта, Гранта FL</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12350</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>376815</v>
+        <v>194064</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_privoda_perednego_mosta_21214-2203012-11_kardan/</t>
+          <t>https://motorring.ru/product/6425-diodnye-povtoriteli-nadpisyyu-priora-dlya-lada-priora</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Вал карданный привода переднего моста с гофрой 21214-2203012-11 КАРДАН</t>
+          <t>Диодные повторители с надписью Priora желтые для Лада Приора</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12350</v>
+        <v>990</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>155722</v>
+        <v>133226</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_promezhutochnyy_v_sbore_vaz_2123-2202010-03_original_kardan/</t>
+          <t>https://motorring.ru/product/11746-diodnaya-balka-27w-b-dalyniy-3vt</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Вал карданный промежуточный в сборе ВАЗ 2123-2202010-03 ОРИГИНАЛ КАРДАН</t>
+          <t>Диодная балка 27W-B (R) дальний (9х3Вт)</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>12900</v>
+        <v>749</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>160520</v>
+        <v>133234</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/krestovina-zao-kardan-kardannogo-vala-v-sbore-niva-21211-2202026-00/</t>
+          <t>https://motorring.ru/product/19339-diodnaya-balka-327s</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Крестовина АО "Кардан" карданного вала в сборе НИВА (21211220202500)</t>
+          <t>Диодная балка с повторителем 327S</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1015</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>160519</v>
+        <v>224256</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/krestovina_ao_-kardan-kardannogo_vala_v_sbore_vaz_2105-2202025/</t>
+          <t>https://motorring.ru/product/31230-protivotumannyy-fonary-bamper-dlya-lada-vesta</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Крестовина АО "Кардан" карданного вала в сборе ВАЗ 2105-2202025</t>
+          <t>Противотуманный фонарь в бампер для Лада Веста с надписью Веста</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>728</v>
+        <v>990</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>376869</v>
+        <v>201783</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/rem-komplekt-dlya-kardana-na-shrusakh-vaz-21214-2123-kardan-21214-2201160-00-/</t>
+          <t>https://motorring.ru/product/8342-chernye-diodnye-protivotumannye-fary-vaz-2110-2112</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ремонтный комплект для кардана на шрусах ВАЗ-21214, 2123 (КАРДАН ) 21214-2201160-00</t>
+          <t>Черные диодные противотуманные фары для ВАЗ 2110-2112, 2113-2115</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6500</v>
+        <v>690</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>376807</v>
+        <v>133314</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/transmissiya/komplektuyushchie_kpp_vaz/flanets_elastichnoy_mufty_vaz_2101-2202023-00_kardan/</t>
+          <t>https://motorring.ru/product/11754-diodnaya-balka-24w-b-dalyniy-3vt</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Фланец эластичной муфты ВАЗ 2101-2202023-00 КАРДАН</t>
+          <t>Диодная балка 24W-B дальний (8*3Вт)</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1260</v>
+        <v>949</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>376516</v>
+        <v>133284</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2101_2107_zao_kardan-240418/</t>
+          <t>https://motorring.ru/product/19347-diodnaya-balka-xk-36w</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Вал карданный ВАЗ-2101-2107 ЗАО КАРДАН</t>
+          <t>Диодная балка XK-36w</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>14750</v>
+        <v>849</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>139012</v>
+        <v>139540</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2120_2131_v_sbore__shrus__zao_kardan-249845/</t>
+          <t>https://motorring.ru/product/11752-vspyshki-fso-48w-16-svetodiodov</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Вал карданный ВАЗ-2120,2131 в сборе (ШРУС) ЗАО КАРДАН</t>
+          <t>Вспышка ФСО 48W (16 светодиодов по 3 Вт)</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>25975</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>139013</v>
+        <v>201781</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/val_kardannyiy_vaz_21214_zadniiy_2123_n_o__shrus__kardan_zao-090798/</t>
+          <t>https://motorring.ru/product/8338-protivotumannye-fary-glaz-orla-vaz-2110-2115</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Вал карданный ВАЗ-21214 задний,2123 Н/О (ШРУС) КАРДАН ЗАО</t>
+          <t>Противотуманные фары Глаз Орла TheBestPartner для ВАЗ 2110-2112, 2113-2115</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>16510</v>
+        <v>790</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>139014</v>
+        <v>133312</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2121_214_zadniiy_zao__kardan_-000531/</t>
+          <t>https://motorring.ru/product/11740-diodnaya-balka-18w-a-dalyniy-3vt</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Вал карданный ВАЗ-2121-214 задний ЗАО "Кардан"</t>
+          <t>Диодная балка 18W-A дальний (6*3Вт)</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12450</v>
+        <v>990</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>139015</v>
+        <v>158383</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/val_kardannyiy_vaz_21214_peredniiy_n_o__shrus__kardan_zao-090986/</t>
+          <t>https://motorring.ru/product/11751-diodnaya-balka-48w-a-blighniy-3vt</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Вал карданный ВАЗ-21214 передний Н/О (ШРУС) КАРДАН ЗАО</t>
+          <t>Диодная балка 48W-A ближний (16*3Вт)</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>13950</v>
+        <v>590</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>139016</v>
+        <v>133288</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2121_214_peredniiy_zao__kardan_-000532/</t>
+          <t>https://motorring.ru/product/19338-diodnaya-balka-l-30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Вал карданный ВАЗ-2121-214 передний ЗАО "Кардан"</t>
+          <t>Диодная балка L-30</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>11110</v>
+        <v>990</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>139029</v>
+        <v>133341</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2101_2107_zao_kardan-240418/</t>
+          <t>https://motorring.ru/product/19341-diodnaya-balka</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Вал карданный ВАЗ-2101-2107 ЗАО КАРДАН</t>
+          <t>Диодная балка 10R</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>14750</v>
+        <v>790</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>160520</v>
+        <v>133342</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/krestovina_vaz_21213_vala_kardannogo_zao_kardan-137160/</t>
+          <t>https://motorring.ru/product/19332-diodnaya-balka-10s</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Крестовина ВАЗ-21213 вала карданного ЗАО Кардан</t>
+          <t>Диодная балка 10S</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1720</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>160519</v>
+        <v>133222</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/krestovina_vaz_2101_07_vala_kardannogo_zao_kardan-011497/</t>
+          <t>https://motorring.ru/product/19349-diodnaya-balka-24s</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Крестовина ВАЗ-2101-07 вала карданного ЗАО Кардан</t>
+          <t>Диодная балка 24S</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>940</v>
+        <v>990</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>376869</v>
+        <v>117271</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/shrus_vaz_21214_2123_vala_kardannogo_v_sbore_kardan_zao-090995/</t>
+          <t>https://motorring.ru/product/42183-povtoriteli-povorota-oranzevaya-polosa-lada-niva-4h4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ШРУС ВАЗ-21214,2123 вала карданного в сборе КАРДАН ЗАО</t>
+          <t>Повторители поворота 1 полоса оранжевые для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>8350</v>
+        <v>529</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>376807</v>
+        <v>194077</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/flanec_vaz_2101_lastichnoiy_mufty_k_kardannomu_valu_kardan_zao-003606/</t>
+          <t>https://motorring.ru/product/22263-led-povtoriteli-povorotnika-l-obraznym-risunkom-polosy</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Фланец ВАЗ-2101 эластичной муфты к карданному валу КАРДАН ЗАО</t>
+          <t>LED повторители поворотника с L-образным рисунком (1 полоса, 3 квадрата) белые для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1470</v>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>194092</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/42182-povtoriteli-povorota-beliye-nadpisyyu-urban-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Повторители поворота белые с надписью Urban для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>117277</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/42185-povtoriteli-povorota-l-obraznym-risunkom-beliye-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Повторители поворота с L-образным рисунком (3 полосы) белые для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>194091</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21205-povtoriteli-povorota-led-nadpisyyu-niva-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Повторители поворота LED с надписью Niva белые для Лада Нива 4х4</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>194093</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20303-povtoriteli-povorota-nadpisyyu-urban-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Повторители поворота оранжевые с надписью Urban для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>133232</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19334-diodnaya-balka-k-30</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Диодная балка K-30</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>133285</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20182-diodnaya-balka-ys-45w</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Диодная балка YS-45W</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>193605</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15374-perehodnik-dlya-ustanovki-sportivnogo-rulya-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Переходник для установки спортивного руля для ВАЗ 2101-2107, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>117279</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22265-led-povtoriteli-povorotnika-risunkom-kvadraty-belye-lada</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>LED повторители поворотника с рисунком (квадраты) белые для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>193611</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20818-perehodnik-dlya-ustanovki-sportivnogo-rulya-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Переходник для установки спортивного руля для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>213581</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20181-svetodiodnye-vspyshki-fso-54w</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Светодиодные вспышки ФСО 54 Вт</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>117292</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21207-povtoriteli-povorota-2polosy-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Повторители поворота с L-образным рисунком (2 полосы) белые для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>133283</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19342-diodnaya-balka-xk-18w</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Диодные балки XK-18w</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>193597</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20819-perehodnik-dlya-ustanovki-sportivnogo-rulya-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Переходник для установки спортивного руля для ВАЗ 2110-2112 с европанелью,Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>213586</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20179-begayuschie-povtoriteli-povorota-leksus-stayl-zerkala</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Светодиодные динамические повторители поворота Лексус Стайл черные в зеркала нового образца для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>138486</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15970-bokovye-zerkala-hrom-povtoritelem-3245-vaz-2108-15</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала хромированные с повторителем (модификация 3245) для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>213587</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20643-svetodiodnye-dinamicheskie-povtoriteli-povorota-leksus</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Светодиодные динамические повторители поворота TheBestPartner Лексус Стайл в зеркала образца 2015 года для Лада Веста </t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>201802</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8343-protivotumannye-fary-diodnye-ld-089l-ramkami-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Противотуманные фары 9 диодов с рамками для Лада Калина</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>201806</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8348-protivotumannye-fary-ld-093-pod-kirghach-lada-priora</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Противотуманные фары TheBestPartner LD-093 для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>138538</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15965-bokovye-zerkala-hrom-povtoritelem-vaz-2108-21099-2113-2115</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Боковые зеркала хром с Эконом приводом и повторителем для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>138487</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15958-bokovye-zerkala-belye-chernye-povtoritelem-vaz-2108-2115</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала белые/черные с повторителем на ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>201800</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4599-protivotumannye-fary-diodov-dlya-lada-priora</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Противотуманные фары на 9 диодов для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>201784</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8326-protivotumannye-fary-ld-472-lada-kalina-granta-largus</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Противотуманные фары TheBestPartner для Лада Калина, Гранта, Ларгус, Датсун до 2019 г.в.</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>145553</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15868-tuning-fonari-lada-niva-4x4-chernye</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Тюнинг фонари черные для Лада Нива 4х4</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>137271</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15988-bokovye-zerkala-f2-belye</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Боковые зеркала F2 с Эконом приводом белые</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>137272</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15989-bokovye-zerkala-karbon</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Боковые зеркала F2 с Эконом приводом под карбон</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>201778</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8328-klassicheskie-protivotumannye-fary-dlaa-dlya-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Классические противотуманные фары DLAA для ВАЗ 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>201780</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8334-protivotumannye-fary-ld-088-chernye-vaz-2110-12-2113-15</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Противотуманные фары с линзой, черный корпус для ВАЗ 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>201777</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8329-protivotumannye-fary-dlaa-vaz-2110-2112-2113-2115</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Противотуманные фары DLAA для ВАЗ 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>194416</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12868-podlokotnik-boks-vaz-2108-2109-21099</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Подлокотник-бокс для ВАЗ 2108-21099</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>201793</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8347-protivotumannye-fary-ld-327-dlya-lada-priora</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Противотуманные фары TheBestPartner LD-327 для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>201761</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/14680-protivotumannye-fary-linzoy-ld-271-ramkami-lada-granta</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Противотуманные фары DLAA с линзой с рамками в бампер образца 2014-2017 годов для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>201753</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20616-protivotumannye-fary-ld-673-lada-vesta-iks-rey-granta-niva</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Противотуманные фары TheBestPartner для Лада Веста, Икс Рей, Гранта FL, Ларгус FL, Нива Урбан, Рено</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>202712</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8144-ramki-ptf-diodnymi-hodovymi-ognyami-lada-largus</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Рамки ПТФ с диодными ходовыми огнями для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>202716</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19759-ramki-ptf-dho-lada-granta</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Рамки ПТФ TheBestPartner с ДХО в бампер нового образца для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>138440</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15957-bokovye-zerkala-piter-chernye-libo-belye-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер черные либо белые для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>158510</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21355-diodnye-ptf-30w-lada-priora-analog</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ 30W для Лада Приора (аналог)</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>138413</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15967-bokovye-zerkala-volna-hrom-chernyy-vaz-2108-2115</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Волна хром для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>138433</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15961-bokovye-zerkala-piter-karbon-vaz-2108-2115</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Боковые зеркала механические Питер под карбон для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>138442</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12752-bokovye-zerkala-piter-chernye-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер черные для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>145570</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4259-zadnie-fonari-krasnoy-polosoy-dlya-vaz-2105-2107</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Задние фонари с красной полосой для ВАЗ 2105, 2107 </t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>145527</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4250-zadnie-fonari-torino-hy-200-krasnye-beloy-polosoy-vaz</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Задние фонари Torino красные с белой полосой для ВАЗ 2108-21099, 2113, 2114</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>138412</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15972-bokovye-zerkala-volna-chernye-hrom-nakladkoy-povtoritelem</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Волна черные с хром накладкой и повторителем для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>138415</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15956-bokovye-zerkala-volna-belye-libo-chernye-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Волна белые либо черные для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>138439</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15968-bokovye-zerkala-piter-hrom-vaz-2108-21099-2113-2115</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер хром для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>138431</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12748-bokovye-zerkala-piter-chernye-antiblikom-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер черные с антибликом для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>138432</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12750-bokovye-zerkala-piter-belye-antiblikom-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер белые с голубым антибликом для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>138441</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12751</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер снежка для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>213677</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24470-svetodiodnye-led-protivotumannye-fary-analog-polosy</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Светодиодные (LED) противотуманные фары 4 полосы (аналог без гарантии) для ВАЗ 2110-2112, 2113-2115, Шевроле Нива (до рестайлинга)</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>201787</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24471-svetodiodnye-dvuhcvetnie-led-protivotumannye-fary-analog-polosy</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Светодиодные двухцветные (LED) противотуманные фары 4 полосы (аналог без гарантии) для ВАЗ 2110-2112, 2113-2115, Шевроле Нива (до рестайлинга)</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>138436</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24273-bokovye-zerkala-piter-snejka-vaz-2104-2107</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер снежка с антибликом для ВАЗ 2104, 2105, 2107</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>138408</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15997-bokovye-zerkala-volna-hrom-nakladkami-vaz-2104-2105-2107</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Волна с хром накладками для ВАЗ 2104, 2105, 2107</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>138434</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12746-bokovye-zerkala-piter-belye-antiblikom-vaz-2104-2105-2107</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер белые с голубым антибликом для ВАЗ 2104, 2105, 2107</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>133333</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8278-diodnaya-balka-pl-3101-24w-3vt</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Диодная балка PL-3101 FS 24W (8*3Вт)</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>133317</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11764-diodnaya-balka-cclb-36-36w-3vt</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Диодная балка CCLB-36 36W (12*3Вт)</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>138438</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12749-bokovye-zerkala-piter-sneghka-antiblikom-vaz-2108-2115</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер снежка с антибликом для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>201811</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27725-diodnye-dvuhcvetnye-ptf-angelyskimi-glazkami-lada-kalina3</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ TheBestPartner с двухцветными ангельскими глазками 3000/6000К для Лада Калина, Калина 2, Гранта, Ларгус, Датсун до 2019 г.в.</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>143809</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27724-diodnye-dvuhcvetnye-ptf-polos-analog-lada-granta-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Диодные двухцветные ПТФ 3000/6000К TheBestPartner 5 полос для Лада Гранта FL, Лада Веста, Икс Рей, Ларгус FL, Нива Урбан, Рено</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>145568</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15993-zadnie-fonari-krasnoy-polosoy-dlya-vaz-2106-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Задние фонари с красной полосой для ВАЗ 2106, Лада Нива 4х4 (старого образца)</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>213679</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27720-diodnye-ptf-polos-analog-vaz-2110-2112-2113-2115-shevrole</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ 5 полос TheBestPartner для ВАЗ 2110-2112, 2113-2115, Шевроле Нива (до рестайлинга)</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>143806</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27726-diodnye-ptf-60w-dvuhryadnie-analog-lada-priora</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ 5 полос TheBestPartner для Лада Приора, Шевроле Нива с 2009 г.в., Лада Нива 2123</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>138414</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15959-bokovye-zerkala-volna-povtoritelem-chernyy-korpus-vaz</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Волна с повторителем черный корпус для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>143764</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27722-diodnye-ptf-polos-analog-lada-granta-lada-vesta-iks-rey</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ 5 полос TheBestPartner для Лада Гранта FL, Лада Веста, Икс Рей, Ларгус FL, Нива Урбан, Рено</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>138550</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15981-bokovye-zerkala-chernyy-lak-vaz-2108-21099-2113-2115</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала черный лак для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>133347</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8271-diodnaya-balka-pl-1219-10w-10vt</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Диодная балка PL-1219 10W (1*10Вт)</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>201795</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19766-ptf-699-lada-vesta-iks-rey-granta-niva-urban-reno</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ПТФ DLAA 6 светодиодов для Лада Веста, Икс Рей, Гранта FL, Ларгус FL, Нива Урбан, Рено</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>170592</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16660-svetodiodnye-nakladki-porogi-nadpisyyu-urban-lada-niva</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Светодиодные накладки на пороги с надписью Urban для Лада Нива 21213, 21214</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>201813</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21357-diodnye-ptf-30w-dho-lada-kalina-kalina-granta-largus-datsun</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ TheBestPartner с ангельскими глазками для Лада Калина, Калина 2, Гранта, Ларгус, Датсун до 2019 г.в.</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>201786</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/32389-diodnye-ptf-linzy-kolycom-dho-dlya-lada-granta-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ TheBestPartner 2 линзы 6000к с кольцом ДХО для Лада Гранта FL, Лада Веста, Икс Рей, Ларгус FL, Нива Урбан, Рено</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>345619</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/42797-svetodiodnye-ptf-thebestpartner-linza-beluye-priora</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Светодиодные ПТФ TheBestPartner с линзой и регулировкой для Лада Приора, Шевроле Нива с 2009 г.в., Лада Нива 2123, ГАЗ Газель</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>345617</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/42798-svetodiodnye-ptf-thebestpartner-linza-regulirovkoy-vesta</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Светодиодные ПТФ TheBestPartner с линзой и регулировкой для Лада Гранта FL, Лада Веста, Икс Рей, Ларгус FL, Нива Урбан, Рено</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>213678</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27721-diodnye-ptf-polos-dvuhcvetnye-analog-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ 5 полос двухцветные 3000/6000К TheBestPartner для ВАЗ 2110-2112, 2113-2115, Шевроле Нива (до рестайлинга)</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>138406</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15987-bokovye-zerkala-volna-belye-povtoritelem-vaz-2104-2107</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Волна Белые с повторителем для ВАЗ 2104, 2105, 2107</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>138543</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15979-bokovye-zerkala-chernyy-lak-antiblikom-3381-vaz-2108-2115</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала черный лак с антибликом на ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>117283</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22269-svetodiodnye-podfarniki-krasnye-dho-begayuschim</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Светодиодные подфарники (красные) с ДХО и бегающим поворотником для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>117281</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/34862-tonirovannye-svetodiodnye-led-podfarniki-polos-dho</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Тонированные светодиодные (LED) подфарники 6 полос (ДХО, бегущий поворотник, прожектор) для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>117286</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20429-svetodiodnye-podfarniki-dho-begayuschim-povorotnikom-lada</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Светодиодные подфарники TheBestPartner с ДХО и бегающим поворотником для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>143761</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20430-svetodiodnye-podfarniki-tonirovannoe-steklo-dho-begayuschim</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Светодиодные подфарники (тонированное стекло) с ДХО и бегающим поворотником для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>133322</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11765-diodnaya-balka-xrb-120-120w-3vt</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Диодная балка XRB-120 120W (40*3Вт)</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>145559</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15969-zadnie-diodnye-fonari-chernye-beloy-polosoy-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Задние диодные фонари TheBestPartner черные с белой полосой для ВАЗ 2108-21099, 2113, 2114</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>145557</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15954-svetodiodnye-zadnie-fonari-krasnye-seroy-polosoy-2108</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Светодиодные задние фонари красные с серой полосой для ВАЗ 2108-21099, 2113, 2114</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>145556</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/249-zadnie-diodnye-fonari-krasno-belye-vaz-2108-2113-2109-2114</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Задние диодные фонари красно-белые для ВАЗ 2108, 2113, 2109, 2114, 21099</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>213668</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25053-svetodiodnye-podfarniki-plavniye-dho-povtoritel-4x4-niva</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Светодиодные подфарники DLAA с плавным загоранием ДХО и динамическим поворотником для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>133334</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8279-diodnaya-balka-pl-3102-36w-3vt</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Диодная балка PL-3102 FS 36W (12*3Вт)</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>143762</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25052-svetodiodnye-podfarniki-dho-povtoritel-4x4-niva</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Светодиодные подфарники DLAA с ДХО и динамическим поворотником для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>201804</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40443-diodnye-ptf-linz-6000k-s-rasseivatelem-dlya-toyota-leksus</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ TheBestPartner 6000к с хром рассеивателем для Тойота, Лексус</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>145537</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38688-zadnie-diodnye-fonari-orlinyy-glaz-vaz-2105</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Задние диодные фонари Орлиный глаз TheBestPartner в стиле Ауди с динамическим поворотником для ВАЗ 2105, 2107</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>213661</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/32387-svetodiodnye-lampy-6000k-linzoy</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Светодиодные лампы TheBestPartner Y6 6000К H4 с линзой</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>145474</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/13366-diodnye-zadnie-fonari-red-led-krasnye-begayuschim</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Диодные задние фонари TheBestPartner RED LED (красные) с бегающим повторителем для Лада 4х4, Нива Легенд 21213, 21214, 2131, Урбан</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>145491</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/2444-diodnye-zadnie-fonari-grey-led-chernye-begayuschim</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Диодные задние фонари TheBestPartner GREY LED (черные) с бегающим повторителем для Лада 4х4, Нива Легенд 21213, 21214, 2131, Урбан</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>145476</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25915-zadnie-chernye-svetodiodnye-fonari-polosy-begayuschim</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Задние черные светодиодные фонари TheBestPartner Полосы с бегающим повторителем для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>145493</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/34249-zadnie-svetodiodnye-fonari-tonirovannye-stile-range-rover-niva</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Задние светодиодные тюнинг фонари TheBestPartner в стиле Рэндж Ровера тонированные для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>223838</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/148-blok-fara-levaya-analog-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Блок-фара левая (аналог) ML для Лада Калина 2</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>223861</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/746-blok-fara-pravaya-analog-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Блок-фара правая (аналог) ML для Лада Калина 2</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>211430</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/35954-ruly-nardi-old-school-derevo-dlya-shervole-niva</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Деревянный руль Nardi Old School для Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>201797</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8357-svetodiodnye-ptf-lada-vesta-iks-rey-granta-niva-urban-reno</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Светодиодные ПТФ DLAA для Лада Веста, Икс Рей, Гранта FL, Ларгус FL, Нива Урбан, Рено</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>145492</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24714-zadnie-svetodiodnye-fonari-kapli-chernye-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Задние светодиодные фонари TheBestPartner в стиле Мерседеса с рисунком Капли и тонированным стеклом для Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>220053</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8171-diodnye-krasno-belye-fonari-lada-granta-sedan</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Диодные красно-белые фонари TheBestPartner с простым LED-поворотником для Лада Гранта, Гранта FL седан</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>223950</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10471-fary-neonovymi-dho-hromirovannye-lada-niva-4h4-vaz-2101</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Фары DLAA с неоновыми ДХО хромированные для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>202706</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/7158-ramki-ptf-hodovymi-ognyami-dlya-lada-largus</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Рамки ПТФ с ходовыми огнями для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>213706</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/13579-svetodiodnye-fary-80w-dyuymov-chernye-povtoritelem-povorota</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 80W черные с кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада Нива 4х4, УАЗ</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>213704</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/14256-svetodiodnye-fary-80w-dyuymov-chernye-povtoritelem-povorota</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 80W, черные с повторителем поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>213694</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/14257-svetodiodnye-fary-dyuymov-d0875x-vaz-2101-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 90W, 13 диодов и 2 полосы, ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>133320</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11770-diodnaya-balka-xrb-180-180w-3vt</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Диодная балка XRB-180 180W (60*3Вт)</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>133321</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11776-diodnaya-balka-xrb-240-240w-3vt</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Диодная балка XRB-240 240W (80*3Вт)</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>145487</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/30580-zadnie-svetodiodnye-fonari-kapli-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Задние светодиодные фонари TheBestPartner в стиле Мерседеса с рисунком Капли и прозрачным стеклом для Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>220055</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36707-diodnye-belo-serye-fonari-lada-granta-sedan</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Диодные серые фонари TheBestPartner с простым LED-поворотником для Лада Гранта седан</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>145538</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/35105-zadnie-diodnye-fonari-orlinyy-glaz-tonirovannye-vaz-2105</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Задние диодные фонари Орлиный глаз TheBestPartner в стиле Ауди тонированные с динамическим поворотником для ВАЗ 2105, 2107</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>145536</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28138-zadnie-diodnye-fonari-orlinyy-glaz-tonirovannye-vaz</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Задние диодные фонари Орлиный глаз TheBestPartner в стиле Ауди тонированные с динамическим поворотником для ВАЗ 2108-21099, 2113, 2114</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>213712</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12231-svetodiodnye-fary-90w-dyuymov-chernye-diodnym-kolycom</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 90W черные с кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>143742</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40446-diodnye-ptf-thebestpartner-1linza-6000k-dho-priora</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Диодные двухцветные ПТФ TheBestPartner 6000к с линзой и кольцом ДХО для Лада Приора, Шевроле Нива с 2009 г.в., Лада Нива 2123</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>274203</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12720-zadnie-fonari-diodnymi-povtoritelyami-stopami-gabaritami</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Задние фонари с диодными повторителями, стопами и габаритами для Лада Приора седан, хэтчбек</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>145490</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36708-zadnie-svetodiodnye-svetlie-fonari-stile-range-rover-niva</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Задние светодиодные светлые тюнинг фонари TheBestPartner в стиле Рэндж Ровера для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>223949</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8483-fary-neonovymi-dho-tonirovannye-dlya-lada-4h4-niva-vaz-2101</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Фары DLAA с неоновыми ДХО тонированные для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>145540</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/32726-zadnie-diodnye-fonari-418g-toporiki-tonirovannye-dlya-vaz</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Задние диодные фонари Пианино (топорики) TheBestPartner тонированные для ВАЗ 2108-21099, 2113, 2114</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>117270</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10566-podfarniki-dlaa-diodnymi-povorotnikami-dho-temnyy-hrom-niva</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Подфарники DLAA с диодными поворотниками и ДХО темный хром для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>145534</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6919-zadnie-fonari-prosport-rs-09070-audi-dlya-vaz-2108-14</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Задние диодные фонари Кольца TheBestPartner с тонированным стеклом для ВАЗ 2108-21099, 2113, 2114</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>145477</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25912-zadnie-svetodiodnye-fonari-iksy-chernye-begayuschim</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Задние светодиодные фонари TheBestPartner Иксы (черные) с бегающим повторителем для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>145475</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25913-zadnie-svetodiodnye-fonari-iksy-krasnye-begayuschim</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Задние светодиодные фонари TheBestPartner Иксы (красные) с бегающим повторителем для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>145483</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25914-zadnie-svetodiodnye-fonari-belie-iksy-chernye-begayuschim</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Задние светодиодные фонари TheBestPartner белые Иксы (белые) с бегающим повторителем для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>145544</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27746-zadnie-diodnye-fonari-iksy-tonirovannye-vaz-2108-21099-2113</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Задние диодные фонари Иксы тонированные для ВАЗ 2108-21099, 2113, 2114</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>256651</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/41830-diodnye-krasno-belye-fonari-dinamicheskie-granta-sedan</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Диодные красно-белые фонари TheBestPartner с динамическим LED-поворотником для Лада Гранта, Гранта FL седан</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>224161</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22260-zadnie-svetodiodnye-fonari-britaniya-chernye-begayuschim</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Задние светодиодные фонари TheBestPartner Британия (черные) с бегающим повторителем для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>224160</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22259-zadnie-svetodiodnye-fonari-britaniya-krasnye-begayuschim</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Задние светодиодные фонари TheBestPartner Британия (красные) с бегающим повторителем для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>213693</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27715-svetodiodnye-fary-zvezdi-dyuymov-chernye-led-kolycom</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов черные 5 звезд с LED кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>133318</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11775-diodnaya-balka-g-240-240w-3vt</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Диодная балка G-240 240W (80*3Вт)</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>117269</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/17703-svetodiodnye-podfarniki-dlaa-begayuschim-povtoritelem-dho</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Светодиодные подфарники DLAA с бегающим повторителем и ДХО темный хром для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>201796</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19767-ptf-998-led-lada-vesta-iks-rey-granta-niva-urban-reno</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Светодиодные ПТФ с ангельскими глазками для Лада Веста, Икс Рей, Гранта FL, Ларгус FL, Нива Урбан, Рено</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>213701</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21805-svetodiodnye-fary-60w-dyuymov-chernye-risunok-misheny</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 60W черные Мишень с повторителем поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>213685</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27718-svetodiodnye-fary-boss-chernye-povtoritelem-povorotnika-dho</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов BOSS черные с повторителем поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>213692</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27713-svetodiodnye-fary-polosa-dyuymov-chernye-led-kolycom</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов черные с матовыми линиями и LED кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>255952</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36728-fary-dyuymov-diodnoy-liniey-dlya-vaz-2101-2102-lada-4h4</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Фары светодиодные 7 дюймов 1с диодной линией для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>213690</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27716-svetodiodnye-fary-uzor-dyuymov-chernye-led-kolycom</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов черные с узором Кханда и LED кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>213709</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/13578-svetodiodnye-fary-chernye-90w-dyuymov-led-povtoritelem</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов черные 90W с повторителем поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>213713</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/14255-svetodiodnye-fary-chernom-korpuse-90w-dyuymov-kolycom</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 90W с кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд, УАЗ, Jeep Wrangler</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>213715</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21524-svetodiodnye-fary-chernom-korpuse-96w-dyuymov-led-kolycom</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов черные 96W с кольцом повторителя поворота и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>213714</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15119-svetodiodnye-fary-chernom-korpuse-96w-dyuymov-povtoritelem</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 96W с повторителем поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>213700</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21804-svetodiodnye-fary-60w-dyuymov-chernye-krug-centre</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 60W черные (круг в центре) с повторителем поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>213702</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21803-svetodiodnye-fary-chernom-korpuse-60w-dyuymov-v-obraznym</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 60W с V-образный рисунок, повторитель поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>213703</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21802-svetodiodnye-fary-chernom-korpuse-60w-dyuymov-h-obraznym</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 60W с Х-образный рисунок, повторитель поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>213691</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27714-svetodiodnye-fary-linii-dyuymov-chernye-led-kolycom</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов черные с линиями и LED кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>213686</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27719-svetodiodnye-fary-shkali-dyuymov-chernye-led-kolycom</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов черные Шкалы с LED кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>213688</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27717-svetodiodnye-fary-cherep-dyuymov-chernye-led-kolycom</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов Череп черные с LED кольцом повторителя поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>145488</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/32064-zadnie-chernye-svetodiodnye-fonari-stile-amg-lada-priora</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Задние черные светодиодные фонари TheBestPartner в стиле Мерседес АМГ для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>133335</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8280-diodnaya-balka-pl-3103-60w-3vt</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Диодная балка PL-3103 FS 60W (20*3Вт)</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>133339</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8287-diodnaya-balka-pl-3204-90w-3vt</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Диодная балка PL-3204 FS 90W (30*3Вт)</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>7490</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>223954</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24715-svetodiodnye-fary-nv-300-povtoritelem-povorota-vaz-2101</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Светодиодные фары 7 дюймов NV-300 с повторителем поворота для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>7990</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>213708</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/31560-svetodiodnye-fary-90w-bluetooth-regulirovkoy-cveta</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Светодиодные фары 90W с Bluetooth регулировкой цвета габаритов для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд, УАЗ</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>7990</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>133307</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11757-diodnaya-balka-180w-kombinirovannaya-10vt</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Диодная балка 180W комбинированная (12*10Вт)</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>145484</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37146-zadnie-diodnye-krasnye-fonari-stile-mersedes-lada-granta</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Задние диодные красные фонари TheBestPartner в стиле Мерседес АМГ для Лада Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>145485</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37147-zadnie-diodnye-tonirovanniye-fonari-stile-mersedes-granta</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Задние диодные черные фонари TheBestPartner в стиле Мерседес АМГ для Лада Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>222871</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16189-tyuning-fary-chernom-korpuse-diodnymi-dho-lada-granta</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Тюнинг фары в черном корпусе с диодными ДХО для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>345623</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/42799-svetodiodnye-fary-thebestpartner-yarusniye-dho-7duimov</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов с линзой, повторителем поворотника и многоярусными ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>133336</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8281-diodnaya-balka-pl-3104-120w-3vt</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Диодная балка PL-3104 FS 120W (40*3Вт)</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>133340</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8288-diodnaya-balka-pl-3205-120w-3vt</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Диодная балка PL-3205 FS 120W (40*3Вт)</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>258087</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40519-zadnie-krasniye-led-fonari-stile-audi-dlya-vaz-2110</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Задние красные LED фонари TheBestPartner в стиле Ауди для ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>8990</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>258088</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40325-zadnie-tonirovannye-led-fonari-stile-audi-dlya-vaz-2110</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Задние тонированные LED фонари TheBestPartner в стиле Ауди для ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>8990</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>159816</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38639-komplekt-diodnyh-serih-fonarey-led-obvodkoy-lada-4h4-niva</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Комплект диодных тонированных фонарей TheBestPartner с LED обводкой и дополнительным стоп-сигналом с режимом повторителя на дверь багажника для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>158556</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38641-komplekt-diodnyh-fonarey-puls-lada-4h4-niva</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Комплект диодных фонарей TheBestPartner с LED обводкой и дополнительным стоп-сигналом (Пульс) с режимом повторителя на дверь багажника для Лада 4х4, Нива Легенд	</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>158555</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38644-komplekt-diodnyh-fonarey-polosy-lada-4h4-niva</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Комплект диодных фонарей TheBestPartner с LED обводкой и дополнительным стоп-сигналом (Полосы) с режимом повторителя на дверь багажника для Лада 4х4, Нива Легенд	</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>158557</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38645-komplekt-diodnyh-fonarey-polosy-lada-4h4-niva</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Комплект диодных фонарей TheBestPartner с LED обводкой и дополнительным стоп-сигналом (Стрелки) с режимом повторителя на дверь багажника для Лада 4х4, Нива Легенд	</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>158558</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36972-komplekt-diodnyh-fonarey-led-obvodkoy-lada-4h4-niva</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Комплект диодных фонарей TheBestPartner с LED обводкой и дополнительным стоп-сигналом с режимом повторителя на дверь багажника для Лада 4х4, Нива Легенд	</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>213728</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/32636-komplekt-chernyh-zadnih-led-fonarey-dinamich-vesta</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Комплект черных задних диодных фонарей TheBestPartner в стиле Ауди с бегающим поворотником для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>18190</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>213726</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38690-komplekt-krasnyh-zadnih-led-fonarey-dinamich-vesta</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Комплект красных задних диодных фонарей TheBestPartner в стиле Ауди с бегающим поворотником для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>17990</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>213716</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/32637-komplekt-chernyh-svetodiodnyh-linzovannyh-far-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Комплект черных светодиодных линзованных фар для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>21290</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>213727</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40620-fonary-zadniye-cherniye-stil-audi-lada-iks-rey</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Светодиодные черные фонари TheBestPartner в стиле Ауди с динамическим поворотником для Лада Икс Рей</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>18990</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>213725</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40610-fonary-zadniye-stil-audi-lada-iks-rey</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Светодиодные фонари TheBestPartner в стиле Ауди с динамическим поворотником для Лада Икс Рей</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>256788</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40881-chernye-perednie-fary-thebestpartner-lada-granta</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Черные передние фары TheBestPartner с двумя Би-лед линзами, динамическим розжигом ДХО и поворотниками для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>21290</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>133337</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8282-diodnaya-balka-pl-3106-240w-3vt</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Диодная балка PL-3106 FS 240W (80*3Вт)</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>222869</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36856-perednie-fary-vypolnennye-stile-audi-q8-lada-granta-fl</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Передние фары TheBestPartner в стиле Ауди Q8 с двумя Би-лед линзами, динамическим розжигом ДХО и поворотниками для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>23790</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>264881</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/34537-chernye-perednie-fary-thebestpartner-stil-audi-largus-fl</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Черные передние фары TheBestPartner в стиле Ауди с двумя Би-лед линзами, динамическим розжигом ДХО и поворотниками для Лада Ларгус FL</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>24390</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>274200</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/41799-chernye-fary-thebestpartner-linzami-dho-povorotnikom-largus</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Черные передние фары TheBestPartner с Би-лед линзами, динамическим розжигом ДХО и поворотниками для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>24390</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>133338</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8283-diodnaya-balka-pl-3107-300w-100-3vt</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Диодная балка PL-3107 300W (100*3Вт)</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>18890</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>222868</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38698-komplekt-diodnyh-far-thebestpartner-stile-audi-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Комплект диодных фар TheBestPartner с Би-лед линзами в стиле Ауди для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>21290</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>256787</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40882-chernye-perednie-fary-thebestpartner-lada-xray</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Черные передние фары TheBestPartner с двумя Би-лед линзами, динамическим розжигом ДХО и поворотниками для Лада Икс Рей</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>30990</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>264882</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/39162-chernye-perednie-fary-thebestpartner-stil-audi-trevel</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Черные передние фары TheBestPartner в стиле Ауди с двумя Би-лед линзами, динамическим розжигом ДХО и поворотниками для Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>30990</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>143529</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11867-dekorativnye-nakladki-ghabry-0395-kuzov-avtomobilya-krasnye</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Декоративные накладки «Жабры» на кузов автомобиля, красные</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>217222</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11869-spoylery-diodom-dvorniki-karbon</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Спойлеры с диодом на дворники, карбон</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>217226</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11873-spoylery-diodom-dvorniki-hrom</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Спойлеры с диодом на дворники, хром</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>217223</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11870-spoylery-diodom-dvorniki-krasnye</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Спойлеры красные с диодом на дворники</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>133225</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11746-diodnaya-balka-27w-b-dalyniy-3vt</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Диодная балка 27W-B (R) дальний (9х3Вт)</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>133228</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11748-vspyshki-fso-27w-svetodiod</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Вспышка ФСО 27W (9 светодиодов по 3 Вт)</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>133315</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11748-vspyshki-fso-27w-svetodiod</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Вспышка ФСО 27W (9 светодиодов по 3 Вт)</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>117296</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/13905-diodnye-povtoriteli-nadpisyyu-dlya-lada-priora</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>LED повторители поворотника TheBestPartner оранжевые с разъемом в черном корпусе с надписью SE для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Гранта</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>133316</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11746-diodnaya-balka-27w-b-dalyniy-3vt</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Диодная балка 27W-B (R) дальний (9х3Вт)</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>201816</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8345-protivotumannye-fary-ld-089-ramkami-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Противотуманные фары TheBestPartner LD-089 с рамками для Лада Калина</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>201801</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8351</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Противотуманные фары диодные хром в рестайлинговый бампер Лада Приора седан, Приора 2</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>138411</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20460-bokovye-zerkala-volna-chernye-povtoritelem-dlya-vaz-2104</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Волна черные с повторителем для ВАЗ 2104, 2105, 2107</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>133343</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20181-svetodiodnye-vspyshki-fso-54w</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Светодиодные вспышки ФСО 54 Вт</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>138437</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15996-bokovye-zerkala-piter-chernye-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Питер черные для ВАЗ 2104, 2105, 2107</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>145572</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15994</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Задние фонари с черной полосой для ВАЗ 2106, Лада Нива 4х4 (старого образца)</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>201794</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24470-svetodiodnye-led-protivotumannye-fary-analog-polosy</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Светодиодные (LED) противотуманные фары 4 полосы (аналог без гарантии) для ВАЗ 2110-2112, 2113-2115, Шевроле Нива (до рестайлинга)</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>145569</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4252-zadnie-fonari-krasnoy-polosoy-vaz-2108-21099-2113-2114</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Задние фонари с красной полосой для ВАЗ 2108-21099, 2113, 2114</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>138409</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15995-bokovye-zerkala-volna-chernye-vaz-2104-2105-2107</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Боковые механические зеркала Волна черные для ВАЗ 2104, 2105, 2107</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>143741</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22575-protivotumannye-fary-diodnye-polosy-restaylingovyy-bamper</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Противотуманные фары диодные 3 полосы в рестайлинговый бампер для Лада Приора седан, Приора 2</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>201768</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27724-diodnye-dvuhcvetnye-ptf-polos-analog-lada-granta-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Диодные двухцветные ПТФ 3000/6000К TheBestPartner 5 полос для Лада Гранта FL, Лада Веста, Икс Рей, Ларгус FL, Нива Урбан, Рено</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>143760</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25053-svetodiodnye-podfarniki-plavniye-dho-povtoritel-4x4-niva</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Светодиодные подфарники DLAA с плавным загоранием ДХО и динамическим поворотником для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>213707</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15120-svetodiodnye-fary-90w-dyuymov-chernye-povtoritelem-povorota</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 90W черные с повторителем поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>220054</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8172-diodnye-krasno-serye-fonari-lada-granta-sedan</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Диодные красно-серые фонари TheBestPartner для Лада Гранта седан</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>213710</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18762-svetodiodnye-fary-chernom-korpuse-90w-dyuymov-povtoritelem</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Светодиодные фары TheBestPartner 7 дюймов 90W с повторителем поворотника и ДХО для ВАЗ 2101, 2102, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>164906</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10675-nabor-instrumentov-aerofors-59-pc-predmetov</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Набор инструментов Аэрофорс 59-PC 1/4, 1/2 - 59 предметов</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>164914</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15197</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Набор инструментов Аэрофорс 84-PC 1/4, 1/2 - 84 предмета</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>164913</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10664</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Набор инструментов Аэрофорс 76-PC 1/4, 1/2 - 76 предметов</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>164912</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/688-nabor-instrumentov-aerofors-97-pc-predmetov</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Набор инструментов Аэрофорс 97-PC 1/4, 1/2 - 97 предметов</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>223945</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/32800-tyuning-fary-chernym-korpusom-polosoy-dho-linzoy-lada-priora</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Тюнинг фары с черным корпусом, полосой ДХО и линзой для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>11290</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>164910</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/849</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Набор инструментов Аэрофорс 92-PC 1/4, 1/2 - 92 предмета</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>9790</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>164904</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/260</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Набор инструментов Аэрофорс 132-PC 1/4, 1/2 - 132 предмета</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>152907</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20988-bokovye-zerkala-urban-elektroprivod-begayuschim</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Боковые зеркала Урбан электропривод c бегающим поворотником в стиле Мерседес AMG для Лада Нива 21214</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>152908</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20988-bokovye-zerkala-urban-elektroprivod-begayuschim</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Боковые зеркала Урбан электропривод c бегающим поворотником в стиле Мерседес AMG для Лада Нива 21214</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>335658</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20988-bokovye-zerkala-urban-elektroprivod-begayuschim</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Боковые зеркала Урбан электропривод c бегающим поворотником в стиле Мерседес AMG для Лада Нива 21214</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>152909</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20988-bokovye-zerkala-urban-elektroprivod-begayuschim</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Боковые зеркала Урбан электропривод c бегающим поворотником в стиле Мерседес AMG для Лада Нива 21214</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>152910</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20988-bokovye-zerkala-urban-elektroprivod-begayuschim</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Боковые зеркала Урбан электропривод c бегающим поворотником в стиле Мерседес AMG для Лада Нива 21214</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>152911</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20988-bokovye-zerkala-urban-elektroprivod-begayuschim</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Боковые зеркала Урбан электропривод c бегающим поворотником в стиле Мерседес AMG для Лада Нива 21214</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>152912</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20988-bokovye-zerkala-urban-elektroprivod-begayuschim</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Боковые зеркала Урбан электропривод c бегающим поворотником в стиле Мерседес AMG для Лада Нива 21214</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>152913</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20988-bokovye-zerkala-urban-elektroprivod-begayuschim</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Боковые зеркала Урбан электропривод c бегающим поворотником в стиле Мерседес AMG для Лада Нива 21214</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>152914</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20988-bokovye-zerkala-urban-elektroprivod-begayuschim</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Боковые зеркала Урбан электропривод c бегающим поворотником в стиле Мерседес AMG для Лада Нива 21214</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>152915</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20988-bokovye-zerkala-urban-elektroprivod-begayuschim</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Боковые зеркала Урбан электропривод c бегающим поворотником в стиле Мерседес AMG для Лада Нива 21214</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>152916</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20988-bokovye-zerkala-urban-elektroprivod-begayuschim</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Боковые зеркала Урбан электропривод c бегающим поворотником в стиле Мерседес AMG для Лада Нива 21214</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>152917</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20988-bokovye-zerkala-urban-elektroprivod-begayuschim</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Боковые зеркала Урбан электропривод c бегающим поворотником в стиле Мерседес AMG для Лада Нива 21214</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>152918</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20988-bokovye-zerkala-urban-elektroprivod-begayuschim</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Боковые зеркала Урбан электропривод c бегающим поворотником в стиле Мерседес AMG для Лада Нива 21214</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>152919</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20988-bokovye-zerkala-urban-elektroprivod-begayuschim</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Боковые зеркала Урбан электропривод c бегающим поворотником в стиле Мерседес AMG для Лада Нива 21214</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>152920</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20988-bokovye-zerkala-urban-elektroprivod-begayuschim</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Боковые зеркала Урбан электропривод c бегающим поворотником в стиле Мерседес AMG для Лада Нива 21214</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>152921</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20988-bokovye-zerkala-urban-elektroprivod-begayuschim</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Боковые зеркала Урбан электропривод c бегающим поворотником в стиле Мерседес AMG для Лада Нива 21214</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>169224</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21068-nakladki-bokovye-zerkala-urban-stile-mersedes-amg-lada-niva</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Накладки TheBestPartner на боковые зеркала Урбан в стиле Мерседес amg для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>169225</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21068-nakladki-bokovye-zerkala-urban-stile-mersedes-amg-lada-niva</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Накладки TheBestPartner на боковые зеркала Урбан в стиле Мерседес amg для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>348048</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21068-nakladki-bokovye-zerkala-urban-stile-mersedes-amg-lada-niva</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Накладки TheBestPartner на боковые зеркала Урбан в стиле Мерседес amg для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>169226</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21068-nakladki-bokovye-zerkala-urban-stile-mersedes-amg-lada-niva</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Накладки TheBestPartner на боковые зеркала Урбан в стиле Мерседес amg для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>169227</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21068-nakladki-bokovye-zerkala-urban-stile-mersedes-amg-lada-niva</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Накладки TheBestPartner на боковые зеркала Урбан в стиле Мерседес amg для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>169228</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21068-nakladki-bokovye-zerkala-urban-stile-mersedes-amg-lada-niva</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Накладки TheBestPartner на боковые зеркала Урбан в стиле Мерседес amg для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>169229</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21068-nakladki-bokovye-zerkala-urban-stile-mersedes-amg-lada-niva</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Накладки TheBestPartner на боковые зеркала Урбан в стиле Мерседес amg для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>169230</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21068-nakladki-bokovye-zerkala-urban-stile-mersedes-amg-lada-niva</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Накладки TheBestPartner на боковые зеркала Урбан в стиле Мерседес amg для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>169231</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21068-nakladki-bokovye-zerkala-urban-stile-mersedes-amg-lada-niva</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Накладки TheBestPartner на боковые зеркала Урбан в стиле Мерседес amg для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>169232</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21068-nakladki-bokovye-zerkala-urban-stile-mersedes-amg-lada-niva</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Накладки TheBestPartner на боковые зеркала Урбан в стиле Мерседес amg для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>169233</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21068-nakladki-bokovye-zerkala-urban-stile-mersedes-amg-lada-niva</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Накладки TheBestPartner на боковые зеркала Урбан в стиле Мерседес amg для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>169234</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21068-nakladki-bokovye-zerkala-urban-stile-mersedes-amg-lada-niva</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Накладки TheBestPartner на боковые зеркала Урбан в стиле Мерседес amg для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>169235</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21068-nakladki-bokovye-zerkala-urban-stile-mersedes-amg-lada-niva</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Накладки TheBestPartner на боковые зеркала Урбан в стиле Мерседес amg для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>169236</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21068-nakladki-bokovye-zerkala-urban-stile-mersedes-amg-lada-niva</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Накладки TheBestPartner на боковые зеркала Урбан в стиле Мерседес amg для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>169237</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21068-nakladki-bokovye-zerkala-urban-stile-mersedes-amg-lada-niva</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Накладки TheBestPartner на боковые зеркала Урбан в стиле Мерседес amg для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>169238</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21068-nakladki-bokovye-zerkala-urban-stile-mersedes-amg-lada-niva</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Накладки TheBestPartner на боковые зеркала Урбан в стиле Мерседес amg для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>207590</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40272-reshetka-radiatora-hrom-led-plankoy-dho-obramlenii-far-lada4x4</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Решетка радиатора с LED-планкой, ДХО в обрамлении фар и вставками Хром для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>207591</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40270-reshetka-radiatora-led-plankoy-dho-obramlenii-far-lada4x4</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Решетка радиатора с LED-планкой и ДХО в обрамлении фар для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>11290</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>267808</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11862-nakladki-pedali-type-sinie-kvadratnym-rezinovym-protektorom</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Накладки на педали Type R синие с квадратным резиновым протектором</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>358195</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/13665-nakladki-pedali-type-gheltye-kvadratnym-rezinovym</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Накладки на педали Type R желтые с квадратным резиновым протектором</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>267809</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11863-nakladki-pedali-type-chernye</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Накладки на педали Type R черные для ВАЗ</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>267810</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11858-nakladki-pedali-type-serebristo-krasnye</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Накладки на педали Type R серебристо-красные</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>267811</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11855-nakladki-pedali-type-serebristo-sinie</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Накладки на педали Type R серебристо-синие</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>267812</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11857-nakladki-pedali-type-serebristo-chernye</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Накладки на педали Type R серебристо-черные</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>357440</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21783-svetodiodnye-lampy-sal-man-6000k-3800lm</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Светодиодные лампы C9 30W 6000K H1</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>357442</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21787-svetodiodnye-lampy-sal-man-6000k-3800lm-h11</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Светодиодные лампы C9 30W 6000K 3800LM H11 для Лада Гранта-Калина, Приора, Ларгус, Икс Рей, Веста, Нива Легенд/Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>357452</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21784-svetodiodnye-lampy-sal-man-6000k-3800lm</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Светодиодные лампы C9 30W 6000K 3800LM H3 для ВАЗ 2110-2112, 2113-2115, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>357439</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21785-svetodiodnye-lampy-sal-man-6000k-3800lm</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Светодиодные лампы C9 30W 6000K H4 для ВАЗ 2101-2107, 2108-21099, 2113-2115, Лада 4х4, Нива Легенд, Гранта, Ларгус</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>357441</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21786-svetodiodnye-lampy-sal-man-6000k-3800lm</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Светодиодные лампы C9 30W 6000K H7 для Лада Калина, Калина 2, Приора, Веста, Иксрей, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>363991</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11867-dekorativnye-nakladki-ghabry-0395-kuzov-avtomobilya-krasnye</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Декоративные накладки «Жабры» на кузов автомобиля, красные</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>363993</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11866-dekorativnye-nakladki-laquo-ghabry-raquo-0395-kuzov</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Синие декоративные накладки Жабры на кузов автомобиля</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>363408</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11870-spoylery-diodom-dvorniki-krasnye</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Спойлеры красные с диодом на дворники</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>363399</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11872-spoylery-diodom-dvorniki-sinie</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Спойлеры с диодом на дворники, синие</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>363401</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11873-spoylery-diodom-dvorniki-hrom</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Спойлеры с диодом на дворники, хром</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>363415</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11869-spoylery-diodom-dvorniki-karbon</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Спойлеры с диодом на дворники, карбон</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/output_data/output.xlsx
+++ b/output_data/output.xlsx
@@ -414,90 +414,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/10313-val-kardannyy-zadniy-2121-214-krestovine-lada-4h4-niva</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Вал карданный 21214 (длинный) КАРДАН на крестовине для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>10990</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/929</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Вал карданный передний (короткий) КАРДАН на ШРУСах для Лада 4х4, Нива Легенд</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10490</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/10314-kardannyy-val-peredniy-krestovine-syzrany-lada-niva</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Карданный вал передний (короткий) КАРДАН на крестовине для Лада 4х4, Нива Легенд</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14290</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/924-krestovina-kardannogo-vala-sbore-vaz-2101-2107</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Крестовина карданного вала КАРДАН в сборе для ВАЗ 2101-2107, Лада 4х4 (Нива)</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/933</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Вал карданный 21214 (длинный) КАРДАН на ШРУСах для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13890</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -508,141 +432,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>139013</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/933</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Вал карданный 21214 (длинный) КАРДАН на ШРУСах для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="D1" t="n">
-        <v>13890</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>139014</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/10313-val-kardannyy-zadniy-2121-214-krestovine-lada-4h4-niva</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Вал карданный 21214 (длинный) КАРДАН на крестовине для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>10990</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>139015</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/929</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Вал карданный передний (короткий) КАРДАН на ШРУСах для Лада 4х4, Нива Легенд</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>10490</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>139016</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/10314-kardannyy-val-peredniy-krestovine-syzrany-lada-niva</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Карданный вал передний (короткий) КАРДАН на крестовине для Лада 4х4, Нива Легенд</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>14290</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>160519</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/924-krestovina-kardannogo-vala-sbore-vaz-2101-2107</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Крестовина карданного вала КАРДАН в сборе для ВАЗ 2101-2107, Лада 4х4 (Нива)</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>354239</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/10313-val-kardannyy-zadniy-2121-214-krestovine-lada-4h4-niva</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Вал карданный 21214 (длинный) КАРДАН на крестовине для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>10990</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>354492</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/924-krestovina-kardannogo-vala-sbore-vaz-2101-2107</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Крестовина карданного вала КАРДАН в сборе для ВАЗ 2101-2107, Лада 4х4 (Нива)</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>890</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output_data/output.xlsx
+++ b/output_data/output.xlsx
@@ -414,14 +414,2595 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10308</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Третья опора раздатки 21214М для Лада Нива 4х4 с инжектором</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33371-zadnie-diskovye-tormoza-vector-15-dlya-lada-4h4-niva</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Задние дисковые тормоза Vector 15 для Лада 4х4, Нива Легенд, Шевроле/Лада Нива 2123</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34490</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3048-rezistor-elektronnogo-ventilyatora-otopitelya-pod</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Резистор электронного вентилятора отопителя под кондиционер Halla для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26581-kolodka-knopke-steklopodyemnika</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Колодка к кнопке стеклоподъемника</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22788-komplekt-maslyanyh-stoek-peredney-podveski-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Комплект масляных стоек передней подвески ЭластоМаг для ВАЗ 2108-21099</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11201-dempfernyy-shkiv-kolenvala-slon-16kl-vaz-2110-2112-2114</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Демпферный шкив коленвала SLON зеленный прорезиненный для 16-клапанных ВАЗ 2110-2112, 2114, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22780-opory-perednih-stoek-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Опоры передних стоек ЭластоМаг для Лада Калина</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16132-vtulki-shtangi-stabilizatora-koncevye-dlya-lada-4h4-niva</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Втулки штанги стабилизатора концевые для Лада 4х4 (Нива) до 2016 г.в.</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12864-originalynyy-vykidnoy-klyuch-dlya-lada-vesta-iksrey</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Оригинальный выкидной ключ замка зажигания с платой и логотипом для Лада Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37377-vint-klyucha-zaghiganiya-dlya-lada-kalina-granta-priora</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Винт ключа зажигания для Лада Калина, Гранта, Гранта FL с 2023 г.в., Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27914-pnevmogidravlicheskie-upory-bagaghnika-dlya-lada-vesta</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Пневмогидравлические упоры багажника для Лада Веста, Веста Кросс седан</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3957-vtulki-shtangi-stabilizatora-dlya-vaz-2108-21099-2113-2115</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Втулки штанги стабилизатора 16мм для ВАЗ 2108-21099, 2113-2115, Лада Ока</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3961-saylentbloki-verhnego-rychaga-lada-4h4-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Сайлентблоки нижнего рычага для ВАЗ 2101-2107 и верхнего для Лада Надежда, 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37840-salonnyy-filytr-dlya-lada-4h4-niva-legend</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Салонный фильтр ФИЛЬТРСЕРВИС для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18474-razyem-koncevika-dvernogo-vyklyuchatelya-lada-kalina-granta</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Разъем концевика дверного выключателя для Лада Калина 2, Гранта, Веста, Датсун</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12862-modernizirovannyy-povodok-nakonechnika-trosa-privoda</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Модернизированный поводок наконечника троса привода сцепления АГАТ для ВАЗ 2110-2112, Лада Приора, Приора 2, Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37477-klyuch-zamka-zaghiganiya-hrom-3knopki-reno</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ключ замка зажигания с хром логотипом и чипом HITAG 3 PCF 7961 на 3 кнопки с автозапуском для Рено Логан 2</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3954-vtulki-reaktivnoy-tyagi-bolyshie-vaz-2101-2107-lada-4h4</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Втулки реактивной тяги большие для ВАЗ 2101-2107, Лада 4х4, Нива Легенд, Нива Тревел, Надежда, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22773-amortizatory-zadney-podveski-masyanye-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Амортизаторы задней подвески ЭластоМаг масляные для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37662-plata-vykidnogo-klyucha-zaghiganiya-audi-largus</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Плата выкидного ключа зажигания в стиле Ауди для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/2388-kronshteyny-krepleniya-rastyaghki-kraby-sport-politeh-avto</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Кронштейны крепления растяжки (крабы) Спорт Политех-Авто для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22771-amortizatory-zadney-podveski-masyanye-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Амортизаторы задней подвески ЭластоМаг масляные для ВАЗ 2108-21099</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12442-pechka-vaz-2108-dlya-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Отопитель N-Parts с мотором 2108 и пластиковым корпусом для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37545-plata-vykidnogo-klyucha-zaghiganiya-stile-audi-ekonom-1118</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Плата выкидного ключа зажигания в стиле Ауди Эконом для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6741-chip-klyuch-immobilayzera-transponder-obuchayuschiy-dlya</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Чип-ключ иммобилайзера (транспондер) обучающий с красной меткой для Лада Калина, Приора, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в.</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16076-obuchayuschiy-klyuch-zagotovka-lada-priora-kalina-kalina</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Обучающий ключ-заготовка с красной меткой для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5879-avtoodeyalo-dlya-inomarok-vesta-largus-xray-renault-audi</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №2 для Веста, Ларгус, Xray, Renault, Audi A6, Toyota Corolla, BMW 3</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26573-kolodka-diagnostiki-16-kontaktnaya-evro</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Колодка диагностики 16-контактная (Евро 3,4) OBD3</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11199-dempfernyy-shkiv-kolenvala-slon-8kl-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Демпферный шкив коленвала SLON для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24050-komplekt-maslyanyh-stoek-peredney-podveski-elastomag-lada</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Комплект газомасляных стоек передней подвески ЭластоМаг для Лада Веста, Веста SW</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3412</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Датчик уровня тосола Е202 (средний) для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18104-pulyt-klyucha-zaghiganiya-bez-knopok-chipom-renault-hitag</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ключ замка зажигания без кнопок с чипом HITAG 3 PCF 7939 для Рено Дастер</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11285-knopka-steklopodyemnika-lada-vesta</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Кнопка стеклоподъемника для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37548-plata-vykidnogo-klyucha-zaghiganiya-stile-audi-1118</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Плата выкидного ключа зажигания в стиле Ауди для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37485-vykidnoy-klyuch-zamka-zaghiganiya-bez-platy-original-xray</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Выкидной ключ замка зажигания без платы в оригинальном корпусе для Лада Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3064-klyuch-zamka-zaghiganiya-norma-s-zagotovkoy-priora-kalina-granta</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Штатный ключ замка зажигания с брелком Норма (пластиковые кнопки) для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Датсун</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37396-zhalo-klyucha-zaghiganiya-lezvie-hu-136-nissan-reno</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Жало ключа зажигания (лезвие HU-136) для Рено, Ниссан</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5946-avtoodeyalo-dlya-land-cruiser-200-interkuler</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №37 для Land Cruiser 200 (интеркулер)</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10307-tretyya-opora-rkp-tipu-2121-dlya-lada-4h4-karbyuratorom</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Третья опора РКП по типу 2121 для карбюраторных Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12233-originalynyy-vykidnoy-klyuch-dlya-lada-granta-fl</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Оригинальный выкидной ключ с чипом под замок Рено для Лада Гранта FL 2018-2023 г.в.</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15735-treugolynye-rychagi-tehnomaster-vaz-2110-2111-2112-lada</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Треугольные рычаги ТехноМастер для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37488-vykidnoy-klyuch-zamka-zaghiganiya-stile-audi-bez-platy-largus</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Выкидной ключ замка зажигания в стиле Ауди без платы для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37435-klyuch-zamka-zaghiganiya-vykidnoy-vw-3knopki-kalina</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ключ замка зажигания выкидной с чипом в стиле Фольксваген на 3 кнопки для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4339-zaschita-opory-stoyki-politeh-avto-lada-kalina-kalina2-granta-dat</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Защита опоры стойки Политех-Авто для Лада Калина, Калина 2, Гранта, Datsun</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37534-korpus-klyucha-zaghiganiya-rezinovie-knopki-nissan</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Корпус ключа зажигания с резиновыми кнопками для Ниссан</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37688-plata-klyucha-zaghiganiya-hitag-pcf-7961-3knopki-logan2</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Плата ключа зажигания HITAG 3 PCF 7961 под 3 кнопки для Рено Логан 2</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37430-vykidnoy-klyuch-zamka-zaghiganiya-china-bez-platy-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Выкидной ключ замка зажигания China без платы для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11276-blok-predohraniteley-montaghnyy-blok-kostroma-lada-priora</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Блок предохранителей (монтажный блок) Кострома для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/1505-kardanchik-kulisy-kpp-lada-kalina-dlya-vaz-2108-21099-vaz</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Карданчик кулисы КПП от Калины для ВАЗ 2108-21099, ВАЗ 2110-2112, 2113-2115, Лада Приора, Калина</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5895-avtoodeyalo-dlya-renault-megan</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №24 для Renault Megan 2, Scenic</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3012-regulyator-napryagheniya-katek-dlya-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Регулятор напряжения КАТЭК для Лада Калина</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3962</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Сайлентблоки заднего амортизатора желтые для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5871-avtoodeyalo-dlya-inomarok-gazely-ford-bmw-toyota-avensis</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло  №1 для автомобилей Ford, BMW 7, Toyota Avensis, Nissan Primera</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22792-stoyki-stabilizatora-usilennye-lada-kalina-priora</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Стойки стабилизатора ЭластоМаг 20мм усиленные для Лада Калина, Приора</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16136-vtulki-shtangi-stabilizatora-centralynye-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Втулки штанги стабилизатора центральные 22 мм для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37691-plata-klyucha-zaghiganiya-hitag-pcf-7946-dlya-lada-largus</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Плата ключа зажигания HITAG 2 PCF 7946 для Лада Ларгус, Ниссан Альмера</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18884-vtulka-stabilizatora-lada-vesta</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Втулка стабилизатора для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16073-korpus-brelka-norma-lada-priora-kalina-granta</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Корпус брелока Норма с пластиковыми кнопками для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Датсун</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3960-saylentbloki-verhnego-rychaga-2101-2107</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Сайлентблоки верхнего рычага для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/31843-blokirovka-differenciala-vintovaya-avtosprinter-zuba-dlya</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Блокировка дифференциала винтовая Avtosprinter (24 зуба) для Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>9690</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3963</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сайлентблоки заднего рычага желтые для ВАЗ 2108-21099, 2113-2115 </t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5891-avtoodeyalo-dlya-daewoo-nexia</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №12 для Daewoo Nexia седан, Fiat Panda хэтчбек</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37434-vykidnoy-klyuch-zaghiganiya-vw-stily-2knopki-lada-granta</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Выкидной ключ зажигания с чипом в стиле Фольксваген на 2 кнопки для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16127</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Втулки штанги стабилизатора для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3956-vtulki-stoyki-stabilizatora-nighnie-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Втулки стойки стабилизатора нижние для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Ока</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22786-komplekt-maslyanyh-stoek-peredney-podveski-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Комплект масляных стоек передней подвески ЭластоМаг для Лада Калина</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>6790</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22772-amortizatory-zadney-podveski-masyanye-vaz-2110-2112-lada</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Амортизаторы задней подвески ЭластоМаг масляные для ВАЗ 2110-2112, Лада Калина, Приора</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37685-plata-klyucha-zaghiganiya-1118-itelma-dlya-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Плата ключа зажигания ИТЭЛМА нового  образца 1118 для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3951</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Втулки штанги стабилизатора 22 мм концевые для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10237-razyem-kombinacii-priborov-lada-priora-kalina-kalina</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Разъем комбинации приборов с фиксатором для Лада Приора, Калина, Калина 2</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22770-amortizatory-zadney-podveski-masyanye-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Амортизаторы задней подвески ЭластоМаг масляные для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5009-klyuch-zamka-zaghiganiya-vykidnoy-bez-platy-vw-kalina</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Ключ замка зажигания выкидной без платы в стиле Фольксваген на 3 кнопки для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11204-dempfernyy-shkiv-kolenvala-slon-dlya-lada-4h4-niva</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Демпферный шкив коленвала SLON (распределенный впрыск) для Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/1482-perehodnoy-komplekt-dlya-ustanovki-karbyuratora-vaz</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Переходной комплект для установки 08 карбюратора для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37542-analogovyy-korpus-klyucha-zaghiganiya-bez-knopok-largus</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Аналоговый корпус ключа зажигания без кнопок для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37474-pulyt-klyucha-zaghiganiya-bez-knopok-chipom-renault-hrom</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Ключ замка зажигания без кнопок HITAG 3 PCF 7939 с чипом и хром логотипом для Рено Дастер</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16078-obuchayuschiy-klyuch-zagotovka-chipom-dlya-lada-priora</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Обучающий ключ-заготовка с чипом для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37546-plata-vykidnogo-klyucha-zaghiganiya-stile-vw-1118</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Плата выкидного ключа зажигания в стиле Фольксваген для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37532-korpus-klyucha-zaghiganiya-plastikovie-knopki-datsun</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Корпус ключа зажигания с пластиковыми кнопками для Датсун</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5897-avtoodeyalo-dlya-lada-4h4-niva-inomarki</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №7 для Лада 4х4 (Нива) 21213, 21214, 2131, Урбан, Suzuki Grand Vitara 2000-2005</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37537-korpus-klyucha-zaghiganiya-bez-knopok-dlya-lada-vesta</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Корпус ключа зажигания без кнопок для Лада Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37660-plata-vykidnogo-klyucha-zaghiganiya-profi-lada-vesta</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Плата выкидного ключа зажигания для Лада Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20695-vykidnoy-klyuch-zaghiganiya-bmv-stily-lada-granta</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Выкидной ключ зажигания с чипом в стиле БМВ под замок Рено для Лада Гранта FL 2018-2023 г.в.</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22778-amortizatory-peredney-podveski-masyanye-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Амортизаторы передней подвески ЭластоМаг масляные для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6742-chip-klyuch-immobilayzera-transponder-rabochiy-dlya-lada</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Чип-ключ иммобилайзера (транспондер) рабочий с синей меткой для Лада Калина, Приора, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в.</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3967-saylentbloki-rastyaghki-dlya-vaz-2108-21099-2110-2112</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Сайлентблоки растяжки для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37489-vykidnoy-klyuch-zamka-zaghiganiya-stile-vw-bez-platy-largus</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Выкидной ключ замка зажигания в стиле Фольксваген без платы для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15122-klyuch-obuchayuschiy-lada-granta-fl</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Ключ обучающий под замок Рено для Лада Гранта FL 2018-2023 г.в.</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37687-plata-klyucha-zaghiganiya-hitag-pcf-7961-pod-knopki-logan2</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Плата ключа зажигания HITAG 3 PCF 7961 под 2 кнопки для Рено Логан 2</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25615-vykidnoy-klyuch-zaghiganiya-bentli-stily-lada-priora-kalina</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Выкидной ключ зажигания Бентли стиль с чипом для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37402-zhalo-klyucha-zaghiganiya-lezvie-dac4d-largus</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Жало ключа зажигания (лезвие DAC4D) для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37398-zhalo-klyucha-zaghiganiya-lezvie-me73-reno-logan2</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Жало ключа зажигания (лезвие МЕ73) для Рено Логан 2</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37484-vykidnoy-klyuch-zamka-zaghiganiya-s-platoy-analog-xray</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Выкидной ключ замка зажигания с платой в аналоговом корпусе с Ладьей для Лада Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37490-vykidnoy-klyuch-zamka-zaghiganiya-stile-vw-s-platoy-largus</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Выкидной ключ замка зажигания в стиле Фольксваген с платой для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22791-komplekt-maslyanyh-stoek-peredney-podveski-lada-granta</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Комплект масляных стоек передней подвески ЭластоМаг для Лада Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>6890</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20696-vykidnoy-klyuch-zaghiganiya-bmv-stily-lada-priora-kalina</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Выкидной ключ зажигания с чипом в стиле БМВ под замок старого образца для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/14232-pechka-motor-otopitelya-modernizirovannaya-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Печка (мотор отопителя) модернизированная для Лада Нива 4х4, Нива Урбан</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>7390</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/17402-filytr-toplivnyy-vaz-2101-2107-2108-21099-2110-2112</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Фильтр топливный Салют-Фильтр для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада 4х4, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12863-dopolnitelynyy-klyuch-bez-knopok-lada-vesta-iksrey</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Дополнительный ключ замка зажигания с чипом (без кнопок) для Лада Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/1622-blokirovka-differenciala-vintovaya-forsavto-zuba-dlya-vaz</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Блокировка дифференциала винтовая Форс-Авто (22 зуба) для ВАЗ 2101-2107, Лада 4x4 (Нива), Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>11790</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25616-originalynyy-sinteponovyy-salonnyy-filytr-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Оригинальный синтепоновый салонный фильтр для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16153</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Сайлентблоки нижнего рычага для Лада Надежда, 4х4 (Нива), Шевроле Нива до 2009 г.в.</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22790-komplekt-maslyanyh-stoek-peredney-podveski-lada-priora</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Комплект масляных стоек передней подвески ЭластоМаг для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>6790</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5943-avtoodeyalo-dlya-toyota-camri-2006-goda-vypuska</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №30 для Toyota Camry с 2006 года выпуска</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11232-kronshteyn-adsorbera-21214-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Кронштейн адсорбера 21214 для Лада 4х4 (Нива) 21214</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22789-komplekt-maslyanyh-stoek-peredney-podveski-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Комплект масляных стоек передней подвески ЭластоМаг для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5881-avtoodeyalo-dlya-inomarok-toyota-carina-hyundai-sonata</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №3 для Toyota Carina, Hyundai Sonata, Mazda (6, 3, Familia), Chevrolet Cruze</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5889-avtoodeyalo-dlya-dvigatelya-vaz-2110-2112-lada-priora</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло для двигателя №10 для ВАЗ 2110-2112, Лада Приора</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22775-amortizatory-zadney-podveski-masyanye-lada-granta</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Амортизаторы задней подвески ЭластоМаг масляные для Лада Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26556-kolodka-blok-fare-lada-priora</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Колодка к блок-фаре Лада Приора</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5884-avtoodeyalo-dlya-chevrolet-niva-volkswagen-land-rover</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №8 для Шевроле/Лада Нива 2123, Volkswagen, Land Rover, Renault, Honda, Citroen</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26591-kolodka-prikurivatelyu-vaz-2110-2112-2113-2115-lada-priora</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Колодка к прикуривателю для ВАЗ 2110-2112, 2113-2115, Лада Приора, Калина, Гранта, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37461-vykidnoy-klyuch-vw-stily-3knopki-lada-granta-fl</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Выкидной ключ зажигания с платой в стиле Фольксваген Люкс на 3 кнопки под замок Рено для Лада Гранта FL 2018-2023 г.в.</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10585-saylentbloki-nighnego-rychaga-lada-niva-21214-urban</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Сайлентблоки нижнего рычага для Лада 4х4 с 2009 г.в, Нива Легенд, Нива Тревел, Шевроле Нива с 2009 г.в.</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5896-avtoodeyalo-dlya-kia-rio-2014-goda-vypuska</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №25 для Kia Rio (до 2011), Ford Fiesta, Nissan Tiida, Opel Corsa</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16072</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Кнопки для брелка Норма для Лада Приора, Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в.</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3949-podushki-zadnego-amortizatora-bubliki-zheltiye-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Подушки заднего амортизатора (бублики) для ВАЗ 2101-2107, 2108-2115, 2110-2112, Лада Ока, Калина, Приора, Гранта, Нива Легенд/Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18485-razyem-elektrozerkala-mama-lada-kalina-priora-granta</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Разъем электрозеркала (мама) для Лада Калина, Приора, Гранта</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37449-vykidnoy-klyuch-zamka-zaghiganiya-ladiya-lada-niva-trevel</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Выкидной ключ замка зажигания с платой и корпусом с Ладьей для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37442-vykidnoy-klyuch-zaghiganiya-ladyey-dlya-vaz-2101-2107-niva</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Выкидной ключ зажигания без чипа в корпусе с Ладьей для ВАЗ 2101-2107, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37478-klyuch-zamka-zaghiganiya-hitag-pcf-7961-reno-logan2</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Ключ замка зажигания HITAG 3 PCF 7961 с резиновыми кнопками для Рено Логан 2</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37393-ghalo-vykidnogo-klyucha-lezvie-1118-uaz-lada-kalina-granta</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Жало выкидного ключа (лезвие 1118) для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Датсун, УАЗ</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36694-ghalo-vykidnogo-klyucha-stile-audi-lada-priora-kalina</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Жало выкидного ключа в стиле Ауди и Фольксваген под замок старого образца для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37661-plata-vykidnogo-klyucha-zaghiganiya-audi-ekonom-largus</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Плата выкидного ключа зажигания в стиле Ауди Эконом для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/14800-vykidnoy-kluch-audi-style-lada-priora-kalina-granta-shevrole-dats</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Выкидной ключ зажигания с чипом в стиле Ауди Люкс под замок старого образца для Лада Приора, Калина, Калина 2, Гранта, Гранта FL  до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24078-datchik-urovnya-omyvayuschey-ghidkosti-emi-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Датчик уровня омывающей жидкости ЭМИ для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16120</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Втулки стойки стабилизатора верхние ID 16мм для ВАЗ 2108-21099, 2113-2115, Лада Ока</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5890-avtoodeyalo-dlya-inomarok-lada-granta-kalina-chery-chery</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №4 для Лада Гранта, Калина 2, Chery QQ, Chery Very, Dodge Caliber, ZAZ Vida</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6256-ruchka-kpp-hrom-vstavkoy-lada-largus-iks-rey</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Ручка КПП с серебристой вставкой для Лада Ларгус, Икс Рей</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16069-klyuch-zamka-zaghiganiya-vykidnoy-china-dlya-lada-priora</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Выкидной ключ замка зажигания China с чипом для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5885-avtoodeyalo-dlya-dvigatelya-vaz-2108-21099-2113-2115-igh</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №9 на двигатель для ВАЗ 2108-21099, 2113-2115, ИЖ, Toyota, Nissan, Mitsubishi</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/13480-prostavki-domiki-pod-zadniy-amortizator-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Проставки (домики) под задние амортизаторы для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22785-sharniry-rastyaghki-peredney-podveski-romashki-vaz</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Шарниры растяжки передней подвески ЭластоМаг (ромашки) для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18648-razyem-elektrozamka-bagaghnika-lada-granta-vesta</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Разъем электрозамка багажника для Лада Гранта, Веста</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19214-datchik-ukazatelya-urovnya-topliva-dut-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Датчик указателя уровня топлива ДУТ- КЗ для Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26522-razyem-knopki-steklopodyemnika-lada-priora</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Разъем кнопки стеклоподъемника для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21508-originalynyy-kabely-usb-slot-bardachok-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Оригинальный кабель USB на 1 слот в бардачок Лада Калина 2, Гранта</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22781-opory-perednih-stoek-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Опоры передних стоек ЭластоМаг Комфорт для ВАЗ 2108-21099</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37447-klyuch-zaghiganiya-stile-granty-krasnoy-metkoy-vaz-2101</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Ключ зажигания в стиле Гранты FL с красной меткой для ВАЗ 2101-2107, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28464-remkomplekt-golovki-bloka-21120-klapana-obratnogo-sliva</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Ремкомплект головки блока 21120 клапана обратного слива масла (клапан, пружина, шарик) для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16135-vtulki-shtangi-stabilizatora-centralynye-ss20-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Втулки штанги стабилизатора центральные SS20 для Лада 4х4 (Нива) до 2016 г.в.</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16079-rabochiy-klyuch-zagotovka-chipom-lada-priora-kalina-kalina</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Рабочий ключ-заготовка с чипом для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22777-amortizatory-peredney-podveski-masyanye-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Амортизаторы передней подвески ЭластоМаг масляные для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38071-toplivnyy-filytr-big-dlya-1-6-litrovyh-vaz-2110-2115</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Топливный фильтр BIG для 1.6-литровых ВАЗ 2110-2112, 2113-2115, Калина, Калина 2, Гранта, Гранта FL, Приора, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3965</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Сайлентблоки нижнего рычага (2шт желт) для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16075-shtatnyy-brelok-pulyt-centralynogo-zamka-itelma-k110-lada</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Штатный брелок (пульт) центрального замка ИТЭЛМА Норма K110 с пластиковыми кнопками для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Датсун</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16407-zadnie-opory-stoek-evolex-vaz-2108-21099-2110-2112</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Задние опоры стоек EVOLEX для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16118-vtulki-stoyki-stabilizatora-verhnie-20mm-lada-priora-kalina</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Втулки стойки стабилизатора верхние FR ID 20мм Лада Приора, Калина</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37842-motoreduktor-blokirovki-zamka-dveri-4-provodnoy-priora</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Моторедуктор блокировки замка двери 4-проводной (водительский) для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3011-regulyator-napryagheniya-k161-katek-dlya-vaz-21101-vaz</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Регулятор напряжения К161 КАТЭК под двигатель 1.6л для ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22776-amortizatory-zadney-podveski-masyanye-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Амортизаторы задней подвески ЭластоМаг масляные для Лада 4х4 с 2010 г.в., Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3966-saylentbloki-perednego-sharnira-rastyaghki-gheltye-2108-15-granta</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Сайлентблоки переднего шарнира (растяжки) желтые для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37388-zhalo-vykidnogo-klyucha-zaghiganiya-lezvie-va2-vesta</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Жало выкидного ключа зажигания (лезвие VA2) для Лада Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37425-vykidnoy-klyuch-zaghiganiya-bez-platy-stile-audi-lyuks-granta</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Выкидной ключ зажигания без платы в стиле Ауди Люкс под замок старого образца для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в.., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37401-ghalo-pod-klyuch-zaghiganiya-bez-knopok-lezvie-va2-dlya</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Жало под ключ зажигания без кнопок (лезвие VA2) для Лада Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37695-shtatnyy-brelok-pulyt-centralynogo-zamka-lyuks-rezinovymi</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Штатный брелок (пульт) центрального замка Люкс с резиновыми кнопками для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Датсун</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/9753-chip-klyuch-immobilayzera-aps-4-vaz-2108-2109-21099-2110-2111-211</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Чип-ключ иммобилайзера АПС-4 для инжекторных ВАЗ 2108-21099, 2110-2112</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16912-razyem-dlya-regulirovki-elektro-zerkal-datsun-on-do-mi-do</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Разъем для регулировки электро зеркал для Датсун On-Do, Mi-Do</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3958-opory-rulevoy-reyki-starogo-obrazca-gheltye-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Опоры рулевой рейки старого образца желтые для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3413-datchik-urovnya-tosola-a600-korotkiy-dlya-vaz-2110-2111</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Датчик уровня тосола А600 (короткий) для ВАЗ 2110, 2111, 2112</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24043-amortizatory-zadney-podveski-elastomag-masyanye-lada-vesta</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Амортизаторы задней подвески ЭластоМаг газомасляные для Лада Веста, Веста SW</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16077-rabochiy-klyuch-zamka-zaghiganiya-lada-priora-kalina-kalina</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Рабочий ключ-заготовка замка зажигания для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5894-avtoodeyalo-dlya-inomarok-vaz-2101-2107-lada-kalina-oka</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №6 для ВАЗ 2101-2107, Лада Калина, Ока, Jaguar S-TAPE, BMW (6,3), Volkswagen Pointer</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37541-analogovyy-korpus-klyucha-zaghiganiya-lada-largus</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Аналоговый корпус ключа зажигания с резиновыми кнопками для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22774-amortizatory-zadney-podveski-masyanye-lada-priora</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Амортизаторы задней подвески ЭластоМаг масляные для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/1620-blokirovka-differenciala-vintovaya-vaz-2108-2115-lada</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Блокировка дифференциала винтовая для ВАЗ 2108-2115, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3953</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Втулки штанги стабилизатора 17мм для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3955-vtulki-reaktivnoy-tyagi-malye-vaz-2101-2107-lada-4h4</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Втулки реактивной тяги малые для ВАЗ 2101-2107, Лада 4х4, Нива Легенд, Нива Тревел, Надежда, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37475-pulyt-klyucha-zaghiganiya-2-knopki-chipom-renault</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Ключ замка зажигания HITAG 3 PCF 7961 с 2 кнопками с чипом логотипом для Рено Логан 2</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22783-opory-perednih-stoek-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Опоры передних стоек ЭластоМаг для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37408-rabochiy-klyuch-zamka-zaghiganiya-analog-lada-priora-kalina</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Рабочий ключ-заготовка замка зажигания (аналог) для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16148-saylentbloki-zadnego-rychaga-vaz-2110-2112-lada-priora</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Сайлентблоки заднего рычага для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -432,14 +3013,3399 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>139223</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37377-vint-klyucha-zaghiganiya-dlya-lada-kalina-granta-priora</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Винт ключа зажигания для Лада Калина, Гранта, Гранта FL с 2023 г.в., Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="D1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>145360</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37393-ghalo-vykidnogo-klyucha-lezvie-1118-uaz-lada-kalina-granta</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Жало выкидного ключа (лезвие 1118) для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Датсун, УАЗ</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>156771</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Кнопки для брелка Норма для Лада Приора, Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в.</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>145363</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37398-zhalo-klyucha-zaghiganiya-lezvie-me73-reno-logan2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Жало ключа зажигания (лезвие МЕ73) для Рено Логан 2</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>202553</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18474-razyem-koncevika-dvernogo-vyklyuchatelya-lada-kalina-granta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Разъем концевика дверного выключателя для Лада Калина 2, Гранта, Веста, Датсун</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>202566</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26522-razyem-knopki-steklopodyemnika-lada-priora</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Разъем кнопки стеклоподъемника для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>156732</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16076-obuchayuschiy-klyuch-zagotovka-lada-priora-kalina-kalina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Обучающий ключ-заготовка с красной меткой для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>156735</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16077-rabochiy-klyuch-zamka-zaghiganiya-lada-priora-kalina-kalina</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Рабочий ключ-заготовка замка зажигания для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>202565</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26591-kolodka-prikurivatelyu-vaz-2110-2112-2113-2115-lada-priora</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Колодка к прикуривателю для ВАЗ 2110-2112, 2113-2115, Лада Приора, Калина, Гранта, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>145354</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36694-ghalo-vykidnogo-klyucha-stile-audi-lada-priora-kalina</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Жало выкидного ключа в стиле Ауди и Фольксваген под замок старого образца для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>180984</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28464-remkomplekt-golovki-bloka-21120-klapana-obratnogo-sliva</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ремкомплект головки блока 21120 клапана обратного слива масла (клапан, пружина, шарик) для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>145361</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37396-zhalo-klyucha-zaghiganiya-lezvie-hu-136-nissan-reno</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Жало ключа зажигания (лезвие HU-136) для Рено, Ниссан</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>145359</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37401-ghalo-pod-klyuch-zaghiganiya-bez-knopok-lezvie-va2-dlya</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Жало под ключ зажигания без кнопок (лезвие VA2) для Лада Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>160611</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11232-kronshteyn-adsorbera-21214-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Кронштейн адсорбера 21214 для Лада 4х4 (Нива) 21214</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>145356</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37388-zhalo-vykidnogo-klyucha-zaghiganiya-lezvie-va2-vesta</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Жало выкидного ключа зажигания (лезвие VA2) для Лада Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>202562</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26581-kolodka-knopke-steklopodyemnika</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Колодка к кнопке стеклоподъемника</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>160418</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16073-korpus-brelka-norma-lada-priora-kalina-granta</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Корпус брелока Норма с пластиковыми кнопками для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Датсун</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>139844</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18884-vtulka-stabilizatora-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Втулка стабилизатора для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>160404</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37537-korpus-klyucha-zaghiganiya-bez-knopok-dlya-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Корпус ключа зажигания без кнопок для Лада Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>202547</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26556-kolodka-blok-fare-lada-priora</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Колодка к блок-фаре Лада Приора</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>202556</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18648-razyem-elektrozamka-bagaghnika-lada-granta-vesta</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Разъем электрозамка багажника для Лада Гранта, Веста</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>139841</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3956-vtulki-stoyki-stabilizatora-nighnie-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Втулки стойки стабилизатора нижние для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Ока</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>139840</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16120</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Втулки стойки стабилизатора верхние ID 16мм для ВАЗ 2108-21099, 2113-2115, Лада Ока</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>160400</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37542-analogovyy-korpus-klyucha-zaghiganiya-bez-knopok-largus</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Аналоговый корпус ключа зажигания без кнопок для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>156100</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37442-vykidnoy-klyuch-zaghiganiya-ladyey-dlya-vaz-2101-2107-niva</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Выкидной ключ зажигания без чипа в корпусе с Ладьей для ВАЗ 2101-2107, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>142170</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19214-datchik-ukazatelya-urovnya-topliva-dut-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Датчик указателя уровня топлива ДУТ- КЗ для Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>139851</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16135-vtulki-shtangi-stabilizatora-centralynye-ss20-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Втулки штанги стабилизатора центральные SS20 для Лада 4х4 (Нива) до 2016 г.в.</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>145362</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37402-zhalo-klyucha-zaghiganiya-lezvie-dac4d-largus</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Жало ключа зажигания (лезвие DAC4D) для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>201660</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/13480-prostavki-domiki-pod-zadniy-amortizator-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Проставки (домики) под задние амортизаторы для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>139839</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16118-vtulki-stoyki-stabilizatora-verhnie-20mm-lada-priora-kalina</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Втулки стойки стабилизатора верхние FR ID 20мм Лада Приора, Калина</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>224101</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/17402-filytr-toplivnyy-vaz-2101-2107-2108-21099-2110-2112</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Фильтр топливный Салют-Фильтр для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада 4х4, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>139848</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16127</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Втулки штанги стабилизатора для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>139849</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16132-vtulki-shtangi-stabilizatora-koncevye-dlya-lada-4h4-niva</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Втулки штанги стабилизатора концевые для Лада 4х4 (Нива) до 2016 г.в.</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>202552</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/26573-kolodka-diagnostiki-16-kontaktnaya-evro</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Колодка диагностики 16-контактная (Евро 3,4) OBD3</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>224106</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38071-toplivnyy-filytr-big-dlya-1-6-litrovyh-vaz-2110-2115</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Топливный фильтр BIG для 1.6-литровых ВАЗ 2110-2112, 2113-2115, Калина, Калина 2, Гранта, Гранта FL, Приора, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>194022</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12862-modernizirovannyy-povodok-nakonechnika-trosa-privoda</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Модернизированный поводок наконечника троса привода сцепления АГАТ для ВАЗ 2110-2112, Лада Приора, Приора 2, Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>156769</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11285-knopka-steklopodyemnika-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Кнопка стеклоподъемника для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>139801</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3949-podushki-zadnego-amortizatora-bubliki-zheltiye-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Подушки заднего амортизатора (бублики) для ВАЗ 2101-2107, 2108-2115, 2110-2112, Лада Ока, Калина, Приора, Гранта, Нива Легенд/Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>225372</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6741-chip-klyuch-immobilayzera-transponder-obuchayuschiy-dlya</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Чип-ключ иммобилайзера (транспондер) обучающий с красной меткой для Лада Калина, Приора, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в.</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>225373</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6742-chip-klyuch-immobilayzera-transponder-rabochiy-dlya-lada</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Чип-ключ иммобилайзера (транспондер) рабочий с синей меткой для Лада Калина, Приора, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в.</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>139488</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25616-originalynyy-sinteponovyy-salonnyy-filytr-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Оригинальный синтепоновый салонный фильтр для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>151757</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4339-zaschita-opory-stoyki-politeh-avto-lada-kalina-kalina2-granta-dat</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Защита опоры стойки Политех-Авто для Лада Калина, Калина 2, Гранта, Datsun</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>139847</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3953</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Втулки штанги стабилизатора 17мм для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>225446</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22785-sharniry-rastyaghki-peredney-podveski-romashki-vaz</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Шарниры растяжки передней подвески ЭластоМаг (ромашки) для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>139846</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3957-vtulki-shtangi-stabilizatora-dlya-vaz-2108-21099-2113-2115</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Втулки штанги стабилизатора 16мм для ВАЗ 2108-21099, 2113-2115, Лада Ока</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>160401</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37541-analogovyy-korpus-klyucha-zaghiganiya-lada-largus</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Аналоговый корпус ключа зажигания с резиновыми кнопками для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>156736</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16079-rabochiy-klyuch-zagotovka-chipom-lada-priora-kalina-kalina</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Рабочий ключ-заготовка с чипом для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>156733</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16078-obuchayuschiy-klyuch-zagotovka-chipom-dlya-lada-priora</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Обучающий ключ-заготовка с чипом для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>139852</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16136-vtulki-shtangi-stabilizatora-centralynye-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Втулки штанги стабилизатора центральные 22 мм для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>213142</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3962</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Сайлентблоки заднего амортизатора желтые для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>202546</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10237-razyem-kombinacii-priborov-lada-priora-kalina-kalina</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Разъем комбинации приборов с фиксатором для Лада Приора, Калина, Калина 2</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>181853</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3958-opory-rulevoy-reyki-starogo-obrazca-gheltye-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Опоры рулевой рейки старого образца желтые для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>156161</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37430-vykidnoy-klyuch-zamka-zaghiganiya-china-bez-platy-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Выкидной ключ замка зажигания China без платы для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>156138</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5009-klyuch-zamka-zaghiganiya-vykidnoy-bez-platy-vw-kalina</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ключ замка зажигания выкидной без платы в стиле Фольксваген на 3 кнопки для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>213150</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3965</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Сайлентблоки нижнего рычага (2шт желт) для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>156160</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37425-vykidnoy-klyuch-zaghiganiya-bez-platy-stile-audi-lyuks-granta</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Выкидной ключ зажигания без платы в стиле Ауди Люкс под замок старого образца для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в.., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>213139</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3960-saylentbloki-verhnego-rychaga-2101-2107</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Сайлентблоки верхнего рычага для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>153102</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21508-originalynyy-kabely-usb-slot-bardachok-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Оригинальный кабель USB на 1 слот в бардачок Лада Калина 2, Гранта</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>203198</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3011-regulyator-napryagheniya-k161-katek-dlya-vaz-21101-vaz</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Регулятор напряжения К161 КАТЭК под двигатель 1.6л для ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>218447</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22792-stoyki-stabilizatora-usilennye-lada-kalina-priora</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Стойки стабилизатора ЭластоМаг 20мм усиленные для Лада Калина, Приора</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>218446</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22792-stoyki-stabilizatora-usilennye-lada-kalina-priora</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Стойки стабилизатора ЭластоМаг 20мм усиленные для Лада Калина, Приора</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>218462</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22792-stoyki-stabilizatora-usilennye-lada-kalina-priora</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Стойки стабилизатора ЭластоМаг 20мм усиленные для Лада Калина, Приора</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>218463</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22792-stoyki-stabilizatora-usilennye-lada-kalina-priora</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Стойки стабилизатора ЭластоМаг 20мм усиленные для Лада Калина, Приора</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>139823</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3954-vtulki-reaktivnoy-tyagi-bolyshie-vaz-2101-2107-lada-4h4</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Втулки реактивной тяги большие для ВАЗ 2101-2107, Лада 4х4, Нива Легенд, Нива Тревел, Надежда, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>203509</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3048-rezistor-elektronnogo-ventilyatora-otopitelya-pod</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Резистор электронного вентилятора отопителя под кондиционер Halla для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>164632</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37842-motoreduktor-blokirovki-zamka-dveri-4-provodnoy-priora</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Моторедуктор блокировки замка двери 4-проводной (водительский) для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>213162</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3967-saylentbloki-rastyaghki-dlya-vaz-2108-21099-2110-2112</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Сайлентблоки растяжки для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>203196</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3012-regulyator-napryagheniya-katek-dlya-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Регулятор напряжения КАТЭК для Лада Калина</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>213140</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3961-saylentbloki-verhnego-rychaga-lada-4h4-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Сайлентблоки нижнего рычага для ВАЗ 2101-2107 и верхнего для Лада Надежда, 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>213151</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3961-saylentbloki-verhnego-rychaga-lada-4h4-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Сайлентблоки нижнего рычага для ВАЗ 2101-2107 и верхнего для Лада Надежда, 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>213160</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3966-saylentbloki-perednego-sharnira-rastyaghki-gheltye-2108-15-granta</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Сайлентблоки переднего шарнира (растяжки) желтые для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>156431</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15122-klyuch-obuchayuschiy-lada-granta-fl</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ключ обучающий под замок Рено для Лада Гранта FL 2018-2023 г.в.</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>213152</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10585-saylentbloki-nighnego-rychaga-lada-niva-21214-urban</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Сайлентблоки нижнего рычага для Лада 4х4 с 2009 г.в, Нива Легенд, Нива Тревел, Шевроле Нива с 2009 г.в.</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>213143</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3963</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сайлентблоки заднего рычага желтые для ВАЗ 2108-21099, 2113-2115 </t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>213178</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16148-saylentbloki-zadnego-rychaga-vaz-2110-2112-lada-priora</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Сайлентблоки заднего рычага для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>160690</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/2388-kronshteyny-krepleniya-rastyaghki-kraby-sport-politeh-avto</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Кронштейны крепления растяжки (крабы) Спорт Политех-Авто для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>139822</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3955-vtulki-reaktivnoy-tyagi-malye-vaz-2101-2107-lada-4h4</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Втулки реактивной тяги малые для ВАЗ 2101-2107, Лада 4х4, Нива Легенд, Нива Тревел, Надежда, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>139850</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3951</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Втулки штанги стабилизатора 22 мм концевые для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>160399</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37532-korpus-klyucha-zaghiganiya-plastikovie-knopki-datsun</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Корпус ключа зажигания с пластиковыми кнопками для Датсун</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>213153</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16153</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Сайлентблоки нижнего рычага для Лада Надежда, 4х4 (Нива), Шевроле Нива до 2009 г.в.</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>156142</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37488-vykidnoy-klyuch-zamka-zaghiganiya-stile-audi-bez-platy-largus</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Выкидной ключ замка зажигания в стиле Ауди без платы для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>156143</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37489-vykidnoy-klyuch-zamka-zaghiganiya-stile-vw-bez-platy-largus</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Выкидной ключ замка зажигания в стиле Фольксваген без платы для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>156153</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12863-dopolnitelynyy-klyuch-bez-knopok-lada-vesta-iksrey</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Дополнительный ключ замка зажигания с чипом (без кнопок) для Лада Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>136885</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11276-blok-predohraniteley-montaghnyy-blok-kostroma-lada-priora</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Блок предохранителей (монтажный блок) Кострома для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>156141</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37488-vykidnoy-klyuch-zamka-zaghiganiya-stile-audi-bez-platy-largus</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Выкидной ключ замка зажигания в стиле Ауди без платы для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>193939</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37660-plata-vykidnogo-klyucha-zaghiganiya-profi-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Плата выкидного ключа зажигания для Лада Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>193934</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37545-plata-vykidnogo-klyucha-zaghiganiya-stile-audi-ekonom-1118</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Плата выкидного ключа зажигания в стиле Ауди Эконом для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>193936</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37546-plata-vykidnogo-klyucha-zaghiganiya-stile-vw-1118</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Плата выкидного ключа зажигания в стиле Фольксваген для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>193941</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37687-plata-klyucha-zaghiganiya-hitag-pcf-7961-pod-knopki-logan2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Плата ключа зажигания HITAG 3 PCF 7961 под 2 кнопки для Рено Логан 2</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>193937</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37661-plata-vykidnogo-klyucha-zaghiganiya-audi-ekonom-largus</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Плата выкидного ключа зажигания в стиле Ауди Эконом для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>193938</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37662-plata-vykidnogo-klyucha-zaghiganiya-audi-largus</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Плата выкидного ключа зажигания в стиле Ауди для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>193935</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37548-plata-vykidnogo-klyucha-zaghiganiya-stile-audi-1118</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Плата выкидного ключа зажигания в стиле Ауди для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>202080</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37695-shtatnyy-brelok-pulyt-centralynogo-zamka-lyuks-rezinovymi</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Штатный брелок (пульт) центрального замка Люкс с резиновыми кнопками для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Датсун</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>156146</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18104-pulyt-klyucha-zaghiganiya-bez-knopok-chipom-renault-hitag</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Ключ замка зажигания без кнопок с чипом HITAG 3 PCF 7939 для Рено Дастер</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>193942</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37688-plata-klyucha-zaghiganiya-hitag-pcf-7961-3knopki-logan2</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Плата ключа зажигания HITAG 3 PCF 7961 под 3 кнопки для Рено Логан 2</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>156743</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/9753-chip-klyuch-immobilayzera-aps-4-vaz-2108-2109-21099-2110-2111-211</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Чип-ключ иммобилайзера АПС-4 для инжекторных ВАЗ 2108-21099, 2110-2112</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>193943</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37685-plata-klyucha-zaghiganiya-1118-itelma-dlya-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Плата ключа зажигания ИТЭЛМА нового  образца 1118 для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>156147</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37474-pulyt-klyucha-zaghiganiya-bez-knopok-chipom-renault-hrom</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Ключ замка зажигания без кнопок HITAG 3 PCF 7939 с чипом и хром логотипом для Рено Дастер</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>156139</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37434-vykidnoy-klyuch-zaghiganiya-vw-stily-2knopki-lada-granta</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Выкидной ключ зажигания с чипом в стиле Фольксваген на 2 кнопки для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>156156</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16069-klyuch-zamka-zaghiganiya-vykidnoy-china-dlya-lada-priora</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Выкидной ключ замка зажигания China с чипом для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>156157</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37435-klyuch-zamka-zaghiganiya-vykidnoy-vw-3knopki-kalina</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Ключ замка зажигания выкидной с чипом в стиле Фольксваген на 3 кнопки для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>225893</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11199-dempfernyy-shkiv-kolenvala-slon-8kl-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Демпферный шкив коленвала SLON для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>185094</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/14800-vykidnoy-kluch-audi-style-lada-priora-kalina-granta-shevrole-dats</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Выкидной ключ зажигания с чипом в стиле Ауди Люкс под замок старого образца для Лада Приора, Калина, Калина 2, Гранта, Гранта FL  до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>160683</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10307-tretyya-opora-rkp-tipu-2121-dlya-lada-4h4-karbyuratorom</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Третья опора РКП по типу 2121 для карбюраторных Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>160685</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10308</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Третья опора раздатки 21214М для Лада Нива 4х4 с инжектором</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>160403</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37534-korpus-klyucha-zaghiganiya-rezinovie-knopki-nissan</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Корпус ключа зажигания с резиновыми кнопками для Ниссан</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>156159</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37484-vykidnoy-klyuch-zamka-zaghiganiya-s-platoy-analog-xray</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Выкидной ключ замка зажигания с платой в аналоговом корпусе с Ладьей для Лада Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>156140</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37490-vykidnoy-klyuch-zamka-zaghiganiya-stile-vw-s-platoy-largus</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Выкидной ключ замка зажигания в стиле Фольксваген с платой для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>140008</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20695-vykidnoy-klyuch-zaghiganiya-bmv-stily-lada-granta</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Выкидной ключ зажигания с чипом в стиле БМВ под замок Рено для Лада Гранта FL 2018-2023 г.в.</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>140009</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20696-vykidnoy-klyuch-zaghiganiya-bmv-stily-lada-priora-kalina</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Выкидной ключ зажигания с чипом в стиле БМВ под замок старого образца для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>140007</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25615-vykidnoy-klyuch-zaghiganiya-bentli-stily-lada-priora-kalina</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Выкидной ключ зажигания Бентли стиль с чипом для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>143545</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11199-dempfernyy-shkiv-kolenvala-slon-8kl-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Демпферный шкив коленвала SLON для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>223753</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5889-avtoodeyalo-dlya-dvigatelya-vaz-2110-2112-lada-priora</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло для двигателя №10 для ВАЗ 2110-2112, Лада Приора</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>223763</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5896-avtoodeyalo-dlya-kia-rio-2014-goda-vypuska</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №25 для Kia Rio (до 2011), Ford Fiesta, Nissan Tiida, Opel Corsa</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>223771</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5894-avtoodeyalo-dlya-inomarok-vaz-2101-2107-lada-kalina-oka</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №6 для ВАЗ 2101-2107, Лада Калина, Ока, Jaguar S-TAPE, BMW (6,3), Volkswagen Pointer</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>223774</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5885-avtoodeyalo-dlya-dvigatelya-vaz-2108-21099-2113-2115-igh</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №9 на двигатель для ВАЗ 2108-21099, 2113-2115, ИЖ, Toyota, Nissan, Mitsubishi</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>143544</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11201-dempfernyy-shkiv-kolenvala-slon-16kl-vaz-2110-2112-2114</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Демпферный шкив коленвала SLON зеленный прорезиненный для 16-клапанных ВАЗ 2110-2112, 2114, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>181840</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22781-opory-perednih-stoek-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Опоры передних стоек ЭластоМаг Комфорт для ВАЗ 2108-21099</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>223318</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27914-pnevmogidravlicheskie-upory-bagaghnika-dlya-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Пневмогидравлические упоры багажника для Лада Веста, Веста Кросс седан</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>223752</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5871-avtoodeyalo-dlya-inomarok-gazely-ford-bmw-toyota-avensis</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло  №1 для автомобилей Ford, BMW 7, Toyota Avensis, Nissan Primera</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>223755</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5891-avtoodeyalo-dlya-daewoo-nexia</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №12 для Daewoo Nexia седан, Fiat Panda хэтчбек</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>223759</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5879-avtoodeyalo-dlya-inomarok-vesta-largus-xray-renault-audi</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №2 для Веста, Ларгус, Xray, Renault, Audi A6, Toyota Corolla, BMW 3</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>223762</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5895-avtoodeyalo-dlya-renault-megan</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №24 для Renault Megan 2, Scenic</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>223769</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5890-avtoodeyalo-dlya-inomarok-lada-granta-kalina-chery-chery</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №4 для Лада Гранта, Калина 2, Chery QQ, Chery Very, Dodge Caliber, ZAZ Vida</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>223765</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5881-avtoodeyalo-dlya-inomarok-toyota-carina-hyundai-sonata</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №3 для Toyota Carina, Hyundai Sonata, Mazda (6, 3, Familia), Chevrolet Cruze</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>223773</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5884-avtoodeyalo-dlya-chevrolet-niva-volkswagen-land-rover</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №8 для Шевроле/Лада Нива 2123, Volkswagen, Land Rover, Renault, Honda, Citroen</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>181839</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22781-opory-perednih-stoek-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Опоры передних стоек ЭластоМаг Комфорт для ВАЗ 2108-21099</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>156136</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3064-klyuch-zamka-zaghiganiya-norma-s-zagotovkoy-priora-kalina-granta</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Штатный ключ замка зажигания с брелком Норма (пластиковые кнопки) для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Датсун</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>156166</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37449-vykidnoy-klyuch-zamka-zaghiganiya-ladiya-lada-niva-trevel</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Выкидной ключ замка зажигания с платой и корпусом с Ладьей для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>223766</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5943-avtoodeyalo-dlya-toyota-camri-2006-goda-vypuska</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №30 для Toyota Camry с 2006 года выпуска</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>223772</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5897-avtoodeyalo-dlya-lada-4h4-niva-inomarki</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №7 для Лада 4х4 (Нива) 21213, 21214, 2131, Урбан, Suzuki Grand Vitara 2000-2005</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>202071</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16075-shtatnyy-brelok-pulyt-centralynogo-zamka-itelma-k110-lada</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Штатный брелок (пульт) центрального замка ИТЭЛМА Норма K110 с пластиковыми кнопками для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Датсун</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>156148</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37475-pulyt-klyucha-zaghiganiya-2-knopki-chipom-renault</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Ключ замка зажигания HITAG 3 PCF 7961 с 2 кнопками с чипом логотипом для Рено Логан 2</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>181841</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22783-opory-perednih-stoek-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Опоры передних стоек ЭластоМаг для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>181842</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22780-opory-perednih-stoek-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Опоры передних стоек ЭластоМаг для Лада Калина</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>156150</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37477-klyuch-zamka-zaghiganiya-hrom-3knopki-reno</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Ключ замка зажигания с хром логотипом и чипом HITAG 3 PCF 7961 на 3 кнопки с автозапуском для Рено Логан 2</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>143547</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/11204-dempfernyy-shkiv-kolenvala-slon-dlya-lada-4h4-niva</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Демпферный шкив коленвала SLON (распределенный впрыск) для Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>223768</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5946-avtoodeyalo-dlya-land-cruiser-200-interkuler</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Автоодеяло АвтоТепло №37 для Land Cruiser 200 (интеркулер)</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>156152</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37485-vykidnoy-klyuch-zamka-zaghiganiya-bez-platy-original-xray</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Выкидной ключ замка зажигания без платы в оригинальном корпусе для Лада Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>193940</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37691-plata-klyucha-zaghiganiya-hitag-pcf-7946-dlya-lada-largus</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Плата ключа зажигания HITAG 2 PCF 7946 для Лада Ларгус, Ниссан Альмера</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>132477</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22777-amortizatory-peredney-podveski-masyanye-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Амортизаторы передней подвески ЭластоМаг масляные для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>132378</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22771-amortizatory-zadney-podveski-masyanye-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Амортизаторы задней подвески ЭластоМаг масляные для ВАЗ 2108-21099</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>132379</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22772-amortizatory-zadney-podveski-masyanye-vaz-2110-2112-lada</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Амортизаторы задней подвески ЭластоМаг масляные для ВАЗ 2110-2112, Лада Калина, Приора</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>132383</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22774-amortizatory-zadney-podveski-masyanye-lada-priora</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Амортизаторы задней подвески ЭластоМаг масляные для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>156144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37478-klyuch-zamka-zaghiganiya-hitag-pcf-7961-reno-logan2</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Ключ замка зажигания HITAG 3 PCF 7961 с резиновыми кнопками для Рено Логан 2</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>132377</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22770-amortizatory-zadney-podveski-masyanye-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Амортизаторы задней подвески ЭластоМаг масляные для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>132479</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22778-amortizatory-peredney-podveski-masyanye-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Амортизаторы передней подвески ЭластоМаг масляные для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>132384</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22773-amortizatory-zadney-podveski-masyanye-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Амортизаторы задней подвески ЭластоМаг масляные для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>132382</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22776-amortizatory-zadney-podveski-masyanye-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Амортизаторы задней подвески ЭластоМаг масляные для Лада 4х4 с 2010 г.в., Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>132381</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22775-amortizatory-zadney-podveski-masyanye-lada-granta</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Амортизаторы задней подвески ЭластоМаг масляные для Лада Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>156151</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37478-klyuch-zamka-zaghiganiya-hitag-pcf-7961-reno-logan2</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Ключ замка зажигания HITAG 3 PCF 7961 с резиновыми кнопками для Рено Логан 2</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>156162</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12864-originalynyy-vykidnoy-klyuch-dlya-lada-vesta-iksrey</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Оригинальный выкидной ключ замка зажигания с платой и логотипом для Лада Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>156163</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12233-originalynyy-vykidnoy-klyuch-dlya-lada-granta-fl</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Оригинальный выкидной ключ с чипом под замок Рено для Лада Гранта FL 2018-2023 г.в.</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>132380</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24043-amortizatory-zadney-podveski-elastomag-masyanye-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Амортизаторы задней подвески ЭластоМаг газомасляные для Лада Веста, Веста SW</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>158668</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22788-komplekt-maslyanyh-stoek-peredney-podveski-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Комплект масляных стоек передней подвески ЭластоМаг для ВАЗ 2108-21099</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>158669</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22789-komplekt-maslyanyh-stoek-peredney-podveski-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Комплект масляных стоек передней подвески ЭластоМаг для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>158925</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22786-komplekt-maslyanyh-stoek-peredney-podveski-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Комплект масляных стоек передней подвески ЭластоМаг для Лада Калина</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>6790</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>158672</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22790-komplekt-maslyanyh-stoek-peredney-podveski-lada-priora</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Комплект масляных стоек передней подвески ЭластоМаг для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>6790</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158671</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22786-komplekt-maslyanyh-stoek-peredney-podveski-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Комплект масляных стоек передней подвески ЭластоМаг для Лада Калина</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>6790</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>158670</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22791-komplekt-maslyanyh-stoek-peredney-podveski-lada-granta</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Комплект масляных стоек передней подвески ЭластоМаг для Лада Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>6890</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>158673</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24050-komplekt-maslyanyh-stoek-peredney-podveski-elastomag-lada</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Комплект газомасляных стоек передней подвески ЭластоМаг для Лада Веста, Веста SW</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>158909</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33371-zadnie-diskovye-tormoza-vector-15-dlya-lada-4h4-niva</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Задние дисковые тормоза Vector 15 для Лада 4х4, Нива Легенд, Шевроле/Лада Нива 2123</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>34490</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>202558</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16912-razyem-dlya-regulirovki-elektro-zerkal-datsun-on-do-mi-do</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Разъем для регулировки электро зеркал для Датсун On-Do, Mi-Do</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>202569</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18485-razyem-elektrozerkala-mama-lada-kalina-priora-granta</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Разъем электрозеркала (мама) для Лада Калина, Приора, Гранта</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>193614</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/1482-perehodnoy-komplekt-dlya-ustanovki-karbyuratora-vaz</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Переходной комплект для установки 08 карбюратора для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>155725</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/1505-kardanchik-kulisy-kpp-lada-kalina-dlya-vaz-2108-21099-vaz</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Карданчик кулисы КПП от Калины для ВАЗ 2108-21099, ВАЗ 2110-2112, 2113-2115, Лада Приора, Калина</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>181836</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16407-zadnie-opory-stoek-evolex-vaz-2108-21099-2110-2112</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Задние опоры стоек EVOLEX для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>142177</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24078-datchik-urovnya-omyvayuschey-ghidkosti-emi-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Датчик уровня омывающей жидкости ЭМИ для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>142179</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3412</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Датчик уровня тосола Е202 (средний) для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>142180</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3413-datchik-urovnya-tosola-a600-korotkiy-dlya-vaz-2110-2111</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Датчик уровня тосола А600 (короткий) для ВАЗ 2110, 2111, 2112</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>164601</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12442-pechka-vaz-2108-dlya-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Отопитель N-Parts с мотором 2108 и пластиковым корпусом для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>193644</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/14232-pechka-motor-otopitelya-modernizirovannaya-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Печка (мотор отопителя) модернизированная для Лада Нива 4х4, Нива Урбан</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>7390</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>156137</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37447-klyuch-zaghiganiya-stile-granty-krasnoy-metkoy-vaz-2101</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Ключ зажигания в стиле Гранты FL с красной меткой для ВАЗ 2101-2107, Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>156734</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37408-rabochiy-klyuch-zamka-zaghiganiya-analog-lada-priora-kalina</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Рабочий ключ-заготовка замка зажигания (аналог) для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>156158</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37461-vykidnoy-klyuch-vw-stily-3knopki-lada-granta-fl</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Выкидной ключ зажигания с платой в стиле Фольксваген Люкс на 3 кнопки под замок Рено для Лада Гранта FL 2018-2023 г.в.</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>224084</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37840-salonnyy-filytr-dlya-lada-4h4-niva-legend</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Салонный фильтр ФИЛЬТРСЕРВИС для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>265455</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12442-pechka-vaz-2108-dlya-lada-niva-4h4</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Отопитель N-Parts с мотором 2108 и пластиковым корпусом для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>274097</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6256-ruchka-kpp-hrom-vstavkoy-lada-largus-iks-rey</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Ручка КПП с серебристой вставкой для Лада Ларгус, Икс Рей</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>213120</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15735-treugolynye-rychagi-tehnomaster-vaz-2110-2111-2112-lada</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Треугольные рычаги ТехноМастер для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>137038</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/1620-blokirovka-differenciala-vintovaya-vaz-2108-2115-lada</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Блокировка дифференциала винтовая для ВАЗ 2108-2115, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>137039</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/1620-blokirovka-differenciala-vintovaya-vaz-2108-2115-lada</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Блокировка дифференциала винтовая для ВАЗ 2108-2115, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>137040</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/1620-blokirovka-differenciala-vintovaya-vaz-2108-2115-lada</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Блокировка дифференциала винтовая для ВАЗ 2108-2115, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>137042</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/1622-blokirovka-differenciala-vintovaya-forsavto-zuba-dlya-vaz</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Блокировка дифференциала винтовая Форс-Авто (22 зуба) для ВАЗ 2101-2107, Лада 4x4 (Нива), Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>11790</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>137043</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/1622-blokirovka-differenciala-vintovaya-forsavto-zuba-dlya-vaz</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Блокировка дифференциала винтовая Форс-Авто (22 зуба) для ВАЗ 2101-2107, Лада 4x4 (Нива), Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>11790</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>137044</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/1622-blokirovka-differenciala-vintovaya-forsavto-zuba-dlya-vaz</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Блокировка дифференциала винтовая Форс-Авто (22 зуба) для ВАЗ 2101-2107, Лада 4x4 (Нива), Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>11790</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>137046</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/31843-blokirovka-differenciala-vintovaya-avtosprinter-zuba-dlya</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Блокировка дифференциала винтовая Avtosprinter (24 зуба) для Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>9690</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>137047</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/31843-blokirovka-differenciala-vintovaya-avtosprinter-zuba-dlya</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Блокировка дифференциала винтовая Avtosprinter (24 зуба) для Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>9690</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>137048</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/31843-blokirovka-differenciala-vintovaya-avtosprinter-zuba-dlya</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Блокировка дифференциала винтовая Avtosprinter (24 зуба) для Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>9690</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output_data/output.xlsx
+++ b/output_data/output.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,237 +425,237 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10308</t>
+          <t>https://motorring.ru/product/30351-antennyy-usilitely-orion-vympel-a-10</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Третья опора раздатки 21214М для Лада Нива 4х4 с инжектором</t>
+          <t>Антенный усилитель Орион Вымпел А-10</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>2390</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/33371-zadnie-diskovye-tormoza-vector-15-dlya-lada-4h4-niva</t>
+          <t>https://motorring.ru/product/37890-rele-strob-kontroller-2-h-kanalynyy-reghimov</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Задние дисковые тормоза Vector 15 для Лада 4х4, Нива Легенд, Шевроле/Лада Нива 2123</t>
+          <t>Строб-контроллер (реле) 2-канальный с 5 режимами мигания</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34490</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3048-rezistor-elektronnogo-ventilyatora-otopitelya-pod</t>
+          <t>https://motorring.ru/product/2547-provodka-dlya-podklyucheniya-ptf-kalina2-granta-datsun</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Резистор электронного вентилятора отопителя под кондиционер Halla для Лада Приора</t>
+          <t>Комплект проводки подключения ПТФ ML для Лада Калина 2, Гранта, Датсун</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>690</v>
+        <v>990</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/26581-kolodka-knopke-steklopodyemnika</t>
+          <t>https://motorring.ru/product/9723-adapter-elm-327-usb-dlya-diagnostiki-avtomobilya</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Колодка к кнопке стеклоподъемника</t>
+          <t>Адаптер Орион ELM 327 USB для диагностики автомобиля</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>169</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22788-komplekt-maslyanyh-stoek-peredney-podveski-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/8473-moduly-zaschity-lamp-blighnego-sveta-dlya-avtomobiley-vaz</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Комплект масляных стоек передней подвески ЭластоМаг для ВАЗ 2108-21099</t>
+          <t>Модули защиты ламп ближнего света с цоколем H7 для автомобилей Лада</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6390</v>
+        <v>990</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11201-dempfernyy-shkiv-kolenvala-slon-16kl-vaz-2110-2112-2114</t>
+          <t>https://motorring.ru/product/1203-bortovoy-kompyyuter-mulytitroniks-700-vaz-inomarki</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Демпферный шкив коленвала SLON зеленный прорезиненный для 16-клапанных ВАЗ 2110-2112, 2114, Лада Приора, Калина, Гранта</t>
+          <t>Бортовой компьютер Мультитроникс RC-701 TFT дисплей для ВАЗ и иномарок</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1890</v>
+        <v>13490</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22780-opory-perednih-stoek-lada-kalina</t>
+          <t>https://motorring.ru/product/16378-bortovoy-kompyuter-orion-dlya-karbyuratornyh-dvigateley</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Опоры передних стоек ЭластоМаг для Лада Калина</t>
+          <t>Бортовой компьютер Орион БК-03 универсальный</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1790</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16132-vtulki-shtangi-stabilizatora-koncevye-dlya-lada-4h4-niva</t>
+          <t>https://motorring.ru/product/13347-ustanovochnyy-komplekt-shtat-115-lada-niva-4h4-inghektor</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Втулки штанги стабилизатора концевые для Лада 4х4 (Нива) до 2016 г.в.</t>
+          <t>Установочный комплект ШТАТ 115 для инжекторных Лада 4х4 (Нива)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>590</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12864-originalynyy-vykidnoy-klyuch-dlya-lada-vesta-iksrey</t>
+          <t>https://motorring.ru/product/30635-stroboskop-orion-st-04-dlya-karbyuratornyh-inghektornyh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Оригинальный выкидной ключ замка зажигания с платой и логотипом для Лада Веста, Икс Рей</t>
+          <t>Стробоскоп Орион СТ-04 для карбюраторных и инжекторных двигателей</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4190</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37377-vint-klyucha-zaghiganiya-dlya-lada-kalina-granta-priora</t>
+          <t>https://motorring.ru/product/5903-shtat-adapter-usb-k-line</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Винт ключа зажигания для Лада Калина, Гранта, Гранта FL с 2023 г.в., Приора, Датсун</t>
+          <t xml:space="preserve">ШТАТ Адаптер USB-K-line </t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/27914-pnevmogidravlicheskie-upory-bagaghnika-dlya-lada-vesta</t>
+          <t>https://motorring.ru/product/37774-zaryadnoe-ustroystvo-dlya-akkumulyatora-vympel20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Пневмогидравлические упоры багажника для Лада Веста, Веста Кросс седан</t>
+          <t>Зарядное устройство Орион Вымпел-20 для аккумулятора</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2190</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3957-vtulki-shtangi-stabilizatora-dlya-vaz-2108-21099-2113-2115</t>
+          <t>https://motorring.ru/product/37763-bortovoy-kompyyuter-shtat-bk-7-dlya-lada-largus-largus-fl</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Втулки штанги стабилизатора 16мм для ВАЗ 2108-21099, 2113-2115, Лада Ока</t>
+          <t>Бортовой компьютер ШТАТ БК-7 под двигатели ВАЗ для Лада Ларгус, Ларгус FL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>590</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3961-saylentbloki-verhnego-rychaga-lada-4h4-shevrole-niva</t>
+          <t>https://motorring.ru/product/9763</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Сайлентблоки нижнего рычага для ВАЗ 2101-2107 и верхнего для Лада Надежда, 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Адаптер BDM-ПО5 для программатора ПО-5 с насадкой</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>990</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37840-salonnyy-filytr-dlya-lada-4h4-niva-legend</t>
+          <t>https://motorring.ru/product/37762-bortovoy-kompyyuter-shtat-bk-3-dlya-lada-largus-largus</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Салонный фильтр ФИЛЬТРСЕРВИС для Лада 4х4, Нива Легенд</t>
+          <t>Бортовой компьютер ШТАТ БК-3 для Лада Ларгус, Ларгус FL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>490</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18474-razyem-koncevika-dvernogo-vyklyuchatelya-lada-kalina-granta</t>
+          <t>https://motorring.ru/product/9740-zaryadnoe-ustroystvo-orion-265</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Разъем концевика дверного выключателя для Лада Калина 2, Гранта, Веста, Датсун</t>
+          <t xml:space="preserve">Зарядное устройство Орион Вымпел-265 (7 ампер) для аккумулятора </t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>199</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12862-modernizirovannyy-povodok-nakonechnika-trosa-privoda</t>
+          <t>https://motorring.ru/product/8470-kontroller-otkrytiya-dverey-kod-dlya-avtomobiley-vaz</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Модернизированный поводок наконечника троса привода сцепления АГАТ для ВАЗ 2110-2112, Лада Приора, Приора 2, Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
+          <t>Контроллер открытия дверей КОД для ВАЗ</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -665,507 +665,507 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37477-klyuch-zamka-zaghiganiya-hrom-3knopki-reno</t>
+          <t>https://motorring.ru/product/8479-rele-dho-30-dalyniy-svet-kak-dho</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ключ замка зажигания с хром логотипом и чипом HITAG 3 PCF 7961 на 3 кнопки с автозапуском для Рено Логан 2</t>
+          <t>Реле ДХО-30 включения дальнего света как ходовых огней для Лада Калина, Калина 2, Гранта, Приора, Ларгус</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2890</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3954-vtulki-reaktivnoy-tyagi-bolyshie-vaz-2101-2107-lada-4h4</t>
+          <t>https://motorring.ru/product/3494-moduly-avtomaticheskogo-upravleniya-svetom-maus-2-dlya-vaz</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Втулки реактивной тяги большие для ВАЗ 2101-2107, Лада 4х4, Нива Легенд, Нива Тревел, Надежда, Шевроле Нива</t>
+          <t>Модуль автоматического управления светом МАУС-2 15А для ВАЗ 2107, 2110-2112, 2113-2115, Лада 4х4 (Нива), Калина, Приора, Шевроле Нива без АБС</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>890</v>
+        <v>949</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22773-amortizatory-zadney-podveski-masyanye-shevrole-niva</t>
+          <t>https://motorring.ru/product/4420-komplekt-podklyucheniya-protivotumannyh-far-lada-kalina</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Амортизаторы задней подвески ЭластоМаг масляные для Шевроле Нива, Лада Нива Тревел</t>
+          <t>Проводка для подключения противотуманных фар (ПТФ) ML Auto Light Technology для Лада Калина</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4690</v>
+        <v>990</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37662-plata-vykidnogo-klyucha-zaghiganiya-audi-largus</t>
+          <t>https://motorring.ru/product/37801-bortovoy-kompyyuter-multitronics-c-900</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Плата выкидного ключа зажигания в стиле Ауди для Лада Ларгус</t>
+          <t>Бортовой компьютер Multitronics C-900</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1690</v>
+        <v>14390</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2388-kronshteyny-krepleniya-rastyaghki-kraby-sport-politeh-avto</t>
+          <t>https://motorring.ru/product/37782-indikator-napryagheniya-3-dioda</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Кронштейны крепления растяжки (крабы) Спорт Политех-Авто для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Светодиодный индикатор напряжения ИНА-3 в прикуриватель</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1390</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22771-amortizatory-zadney-podveski-masyanye-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/34917-filytr-pitaniya-orion-dlya-avtomagnitoly-vympel-301</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Амортизаторы задней подвески ЭластоМаг масляные для ВАЗ 2108-21099</t>
+          <t>Фильтр питания Орион для автомагнитолы Вымпел 301</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4490</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12442-pechka-vaz-2108-dlya-lada-niva-4h4</t>
+          <t>https://motorring.ru/product/12227-kommutator-shtat-dlya-vaz-2108-21099-2110</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Отопитель N-Parts с мотором 2108 и пластиковым корпусом для Лада 4х4, Нива Легенд</t>
+          <t>Коммутатор ШТАТ для ВАЗ 2108-21099, 2110</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5890</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37545-plata-vykidnogo-klyucha-zaghiganiya-stile-audi-ekonom-1118</t>
+          <t>https://motorring.ru/product/29038-indikator-tempretury-vozduha-int-12-krasniy-vaz-2110</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Плата выкидного ключа зажигания в стиле Ауди Эконом для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Индикатор темпретуры воздуха ИНТ-12 на место кнопки с красной подсветкой и вольтометром для ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1490</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6741-chip-klyuch-immobilayzera-transponder-obuchayuschiy-dlya</t>
+          <t>https://motorring.ru/product/9722-adapter-elm-327-bluetooth-mini-dlya-diagnostiki-avtomobilya</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Чип-ключ иммобилайзера (транспондер) обучающий с красной меткой для Лада Калина, Приора, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в.</t>
+          <t>Адаптер Орион ELM 327 BLUETOOTH Mini ARM для диагностики автомобиля</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>590</v>
+        <v>890</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16076-obuchayuschiy-klyuch-zagotovka-lada-priora-kalina-kalina</t>
+          <t>https://motorring.ru/product/35291-elektronnaya-kombinaciya-priborov-flash-x-103v-vaz-2108-2115</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Обучающий ключ-заготовка с красной меткой для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Электронная комбинация приборов Flash X-103V RGB для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада 4х4 (Нива), Шевроле Нива</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>189</v>
+        <v>19990</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5879-avtoodeyalo-dlya-inomarok-vesta-largus-xray-renault-audi</t>
+          <t>https://motorring.ru/product/31965-indikator-napryagheniya-int-12-siniy-volytometrom-kalina</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №2 для Веста, Ларгус, Xray, Renault, Audi A6, Toyota Corolla, BMW 3</t>
+          <t>Индикатор температуры ИНТ-12 синий с вольтометром для ВАЗ 2110-2112 (европанель), 2113-2115, Лада Калина, Шевроле Нива</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2690</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/26573-kolodka-diagnostiki-16-kontaktnaya-evro</t>
+          <t>https://motorring.ru/product/25461-antenna-glonass-gps</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Колодка диагностики 16-контактная (Евро 3,4) OBD3</t>
+          <t>Антенна ГЛОНАСС/GPS</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>329</v>
+        <v>829</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11199-dempfernyy-shkiv-kolenvala-slon-8kl-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/37889-rele-strob-kontroller-odnokanalynyy</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Демпферный шкив коленвала SLON для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта</t>
+          <t>Реле Строб-контроллер одноканальный</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1890</v>
+        <v>590</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/24050-komplekt-maslyanyh-stoek-peredney-podveski-elastomag-lada</t>
+          <t>https://motorring.ru/product/9793-vihrevoe-ustroystvo-optimizacii-sgoraniya-topliva-ekotop</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Комплект газомасляных стоек передней подвески ЭластоМаг для Лада Веста, Веста SW</t>
+          <t>Вихревое устройство оптимизации сгорания топлива ЭКОТОП для карбюраторных ВАЗ 2101-2107, 2108-21099, 2110-2112, Лада Нива 4х4</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6390</v>
+        <v>990</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3412</t>
+          <t>https://motorring.ru/product/26474-cifrovoy-indikator-temperatury-dvigatelya-siniy-funkciey</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Датчик уровня тосола Е202 (средний) для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Цифровой индикатор температуры двигателя синий с функцией диагностики, под CAN шину для Лада Гранта, Калина 2, Приора с 2013 г.в., Икс Рей, Лада Веста</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>290</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18104-pulyt-klyucha-zaghiganiya-bez-knopok-chipom-renault-hitag</t>
+          <t>https://motorring.ru/product/9790-podogrev-tosola-220v-magnum-5kvt-dlya-shevrole-niva-honda</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ключ замка зажигания без кнопок с чипом HITAG 3 PCF 7939 для Рено Дастер</t>
+          <t>Подогрев тосола 220В Магнум №5 1,5кВт для Шевроле/Лада Нива 2123, Honda CRV</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1690</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11285-knopka-steklopodyemnika-lada-vesta</t>
+          <t>https://motorring.ru/product/37768-bortovoy-kompyyuter-shtat-mk-3-sensornyy-universalynyy</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Кнопка стеклоподъемника для Лада Веста</t>
+          <t>Бортовой компьютер ШТАТ МК-3 сенсорный универсальный</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>290</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37548-plata-vykidnogo-klyucha-zaghiganiya-stile-audi-1118</t>
+          <t>https://motorring.ru/product/32327-indikator-napryagheniya-int-12-siniy-volytometrom-granta</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Плата выкидного ключа зажигания в стиле Ауди для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Индикатор температуры ИНТ-12 синий с вольтометром для Лада Гранта, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1690</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37485-vykidnoy-klyuch-zamka-zaghiganiya-bez-platy-original-xray</t>
+          <t>https://motorring.ru/product/7208-usb-zaryadnoe-slota-vmesto-zaglushki-paneli-priborov-vaz</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Выкидной ключ замка зажигания без платы в оригинальном корпусе для Лада Веста, Икс Рей</t>
+          <t>USB зарядное на 2 слота вместо заглушки панели приборов ВАЗ 2106, 2107</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3990</v>
+        <v>749</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3064-klyuch-zamka-zaghiganiya-norma-s-zagotovkoy-priora-kalina-granta</t>
+          <t>https://motorring.ru/product/9788-podogrev-tosola-220v-magnum-5kvt-vaz-2101-2107-niva-21213</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Штатный ключ замка зажигания с брелком Норма (пластиковые кнопки) для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Датсун</t>
+          <t>Подогрев тосола 220В Магнум №3 1,5кВт для ВАЗ 2101-2107, Лада 4х4 (Нива) 21213, Приора, Калина, ИЖ, Ока, Fiat, Suzuki</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1690</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37396-zhalo-klyucha-zaghiganiya-lezvie-hu-136-nissan-reno</t>
+          <t>https://motorring.ru/product/24877-provodka-dlya-podklyucheniya-ptf-granta-fl</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Жало ключа зажигания (лезвие HU-136) для Рено, Ниссан</t>
+          <t>Проводка ML Auto Light Technology для подключения ПТФ (кнопка с белой подсветкой) для Лада Гранта FL, 4х4 с 2019 г.в., Нива Легенд</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>229</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5946-avtoodeyalo-dlya-land-cruiser-200-interkuler</t>
+          <t>https://motorring.ru/product/39808-usb-zaryadnoe-2slota-vaz-2110-2112</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №37 для Land Cruiser 200 (интеркулер)</t>
+          <t>USB зарядное на 2 слота вместо заглушки кнопки для ВАЗ 2110, 2111, 2112</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3290</v>
+        <v>749</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10307-tretyya-opora-rkp-tipu-2121-dlya-lada-4h4-karbyuratorom</t>
+          <t>https://motorring.ru/product/37883-rele-povorotnikov-dlya-svetodiodnyh-lamp-emi-dlya-vaz</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Третья опора РКП по типу 2121 для карбюраторных Лада 4х4 (Нива)</t>
+          <t>Реле поворотников для светодиодных ламп ЭМИ для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2390</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12233-originalynyy-vykidnoy-klyuch-dlya-lada-granta-fl</t>
+          <t>https://motorring.ru/product/5899-bortovoy-kompyyuter-shtat-x1-lada-granta-kalina-2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Оригинальный выкидной ключ с чипом под замок Рено для Лада Гранта FL 2018-2023 г.в.</t>
+          <t>Бортовой компьютер ШТАТ Х1-G с зеленой подсветкой вместо заглушки кнопки для Лада Гранта, Калина 2, Приора 2, Датсун</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5190</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15735-treugolynye-rychagi-tehnomaster-vaz-2110-2111-2112-lada</t>
+          <t>https://motorring.ru/product/37794-cifrovoy-volytmetr-korpuse-vrezaemyy-diagonalyyu</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Треугольные рычаги ТехноМастер для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Гранта, Гранта FL</t>
+          <t>Цифровой вольтметр в корпусе врезаемый диагональю 1,5 см</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>14490</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37488-vykidnoy-klyuch-zamka-zaghiganiya-stile-audi-bez-platy-largus</t>
+          <t>https://motorring.ru/product/4248-provodka-dlya-podklyucheniya-ptf-lada-priora</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Выкидной ключ замка зажигания в стиле Ауди без платы для Лада Ларгус</t>
+          <t>Проводка подключения противотуманных фар (ПТФ) для Лада Приора</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1390</v>
+        <v>990</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37435-klyuch-zamka-zaghiganiya-vykidnoy-vw-3knopki-kalina</t>
+          <t>https://motorring.ru/product/1320-bortovoy-kompyyuter-mulytitroniks-570-golos-vmesto-bloka</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ключ замка зажигания выкидной с чипом в стиле Фольксваген на 3 кнопки для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Бортовой компьютер Мультитроникс C-575 вместо блока БСК с голосовым синтезатором для Шевроле Нива, Лада Нива Тревел</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1790</v>
+        <v>8790</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/4339-zaschita-opory-stoyki-politeh-avto-lada-kalina-kalina2-granta-dat</t>
+          <t>https://motorring.ru/product/9815-pusko-zaryadnoe-ustroystvo-orion-700</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Защита опоры стойки Политех-Авто для Лада Калина, Калина 2, Гранта, Datsun</t>
+          <t>Пуско-зарядное устройство Орион Вымпел-700</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>649</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37534-korpus-klyucha-zaghiganiya-rezinovie-knopki-nissan</t>
+          <t>https://motorring.ru/product/1318-bortovoy-kompyyuter-multitronics-c-580-uaz-patriot-biznes</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Корпус ключа зажигания с резиновыми кнопками для Ниссан</t>
+          <t>Бортовой компьютер Multitronics C-580 с голосовым синтезатором для автомобилей УАЗ Патриот, ГАЗель Бизнес</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1990</v>
+        <v>9190</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37688-plata-klyucha-zaghiganiya-hitag-pcf-7961-3knopki-logan2</t>
+          <t>https://motorring.ru/product/6679-usb-zaryadnik-shtat-vmesto-zaglushki-knopki-lada-priora</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Плата ключа зажигания HITAG 3 PCF 7961 под 3 кнопки для Рено Логан 2</t>
+          <t>USB-зарядник Штат 2.0 вместо заглушки кнопки для Лада Приора, Калина 2, Гранта, Гранта FL</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1590</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37430-vykidnoy-klyuch-zamka-zaghiganiya-china-bez-platy-lada-kalina</t>
+          <t>https://motorring.ru/product/9771-rele-dho-30b-vklyucheniya-dalynego-sveta-kak-hodovye</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Выкидной ключ замка зажигания China без платы для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Реле ДХО-30Б включения дальнего света как ходовых огней для ВАЗ 2107, 2108-2109, 2110-2112, 2113-2115</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>729</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11276-blok-predohraniteley-montaghnyy-blok-kostroma-lada-priora</t>
+          <t>https://motorring.ru/product/9767-radar-detektor-orion-525</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Блок предохранителей (монтажный блок) Кострома для Лада Приора</t>
+          <t>Радар-детектор Орион 525-СТ</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1190</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1505-kardanchik-kulisy-kpp-lada-kalina-dlya-vaz-2108-21099-vaz</t>
+          <t>https://motorring.ru/product/8469-rele-avtosveta-nezabudka2-avtomobili-vaz</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Карданчик кулисы КПП от Калины для ВАЗ 2108-21099, ВАЗ 2110-2112, 2113-2115, Лада Приора, Калина</t>
+          <t>Реле автосвета Незабудка 2М для автомобилей ВАЗ</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>929</v>
+        <v>590</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5895-avtoodeyalo-dlya-renault-megan</t>
+          <t>https://motorring.ru/product/9759-preobrazovately-napryagheniya-invertornyy-35a</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №24 для Renault Megan 2, Scenic</t>
+          <t>Преобразователь напряжения инверторный с 24В на 12В 35А</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1175,687 +1175,685 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3012-regulyator-napryagheniya-katek-dlya-lada-kalina</t>
+          <t>https://motorring.ru/product/37860-provodka-dlya-podklyucheniya-ptf-2106-lada-niva-4x4</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Регулятор напряжения КАТЭК для Лада Калина</t>
+          <t>Проводка для подключения противотуманных фар (ПТФ) для ВАЗ 2106, Лада 4х4 (Нива)</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>929</v>
+        <v>769</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3962</t>
+          <t>https://motorring.ru/product/34925-rele-buv-dlya-isklyucheniya-zapaha-omyvayki</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Сайлентблоки заднего амортизатора желтые для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+          <t>Реле блока управления вентилятором (БУВ) для предотвращения попадания запаха стеклоомывающей жидкости в салон</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>790</v>
+        <v>969</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5871-avtoodeyalo-dlya-inomarok-gazely-ford-bmw-toyota-avensis</t>
+          <t>https://motorring.ru/product/1745-elektronnaya-kombinaciya-priborov-flash-lada-priora-kalina</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло  №1 для автомобилей Ford, BMW 7, Toyota Avensis, Nissan Primera</t>
+          <t>Электронная комбинация приборов Flash X4 для Лада Приора, Калина, ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2290</v>
+        <v>14290</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22792-stoyki-stabilizatora-usilennye-lada-kalina-priora</t>
+          <t>https://motorring.ru/product/1747-elektronnaya-kombinaciya-priborov-flash-light-lada-priora</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Стойки стабилизатора ЭластоМаг 20мм усиленные для Лада Калина, Приора</t>
+          <t>Электронная комбинация приборов Flash X5 для Лада Приора, Калина, ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>949</v>
+        <v>17390</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16136-vtulki-shtangi-stabilizatora-centralynye-shevrole-niva</t>
+          <t>https://motorring.ru/product/9814-sensornyy-vyklyuchately-shtat-bez-fiksacii</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Втулки штанги стабилизатора центральные 22 мм для Шевроле Нива, Лада Нива Тревел</t>
+          <t>Сенсорный выключатель Штат TS без фиксации</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>690</v>
+        <v>590</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37691-plata-klyucha-zaghiganiya-hitag-pcf-7946-dlya-lada-largus</t>
+          <t>https://motorring.ru/product/9777-rele-plavnogo-zapuska-ventilyatora-radiatora-300vt-rpv-2</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Плата ключа зажигания HITAG 2 PCF 7946 для Лада Ларгус, Ниссан Альмера</t>
+          <t>Реле плавного запуска вентилятора радиатора 300Вт (РПВ-2)</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3890</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18884-vtulka-stabilizatora-lada-vesta</t>
+          <t>https://motorring.ru/product/7103-usb-zaryadnoe-2slota-vaz-2108-21099-2113-2115-kalina-niva</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Втулка стабилизатора для Лада Веста</t>
+          <t xml:space="preserve">USB зарядное на 2 слота для ВАЗ 2108-21099, 2110-2112 с европанелью, 2113-2115, Лада Калина, Нива 4х4, Шевроле Нива </t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>269</v>
+        <v>749</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16073-korpus-brelka-norma-lada-priora-kalina-granta</t>
+          <t>https://motorring.ru/product/9780-pribor-dlya-proverki-moduley-zaghiganiya-spmz-3</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Корпус брелока Норма с пластиковыми кнопками для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Датсун</t>
+          <t>Прибор для проверки модулей зажигания СПМЗ-3</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>290</v>
+        <v>7190</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3960-saylentbloki-verhnego-rychaga-2101-2107</t>
+          <t>https://motorring.ru/product/1202-bortovoy-kompyyuter-mulytitroniks-730-vaz-inomarki</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Сайлентблоки верхнего рычага для ВАЗ 2101-2107</t>
+          <t>Бортовой компьютер Мультитроникс VC-730 TFT дисплей на стекло для ВАЗ и иномарки</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>829</v>
+        <v>8690</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/31843-blokirovka-differenciala-vintovaya-avtosprinter-zuba-dlya</t>
+          <t>https://motorring.ru/product/9785</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Блокировка дифференциала винтовая Avtosprinter (24 зуба) для Лада Нива Тревел</t>
+          <t>Тестер форсунок ТФ-01</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>9690</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3963</t>
+          <t>https://motorring.ru/product/25422-usb-zaryadnoe-ustroystvo-slota-prikurivatelya-avtomobilya</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сайлентблоки заднего рычага желтые для ВАЗ 2108-21099, 2113-2115 </t>
+          <t>USB зарядное устройство на 2 слота от прикуривателя автомобиля</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1090</v>
+        <v>749</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5891-avtoodeyalo-dlya-daewoo-nexia</t>
+          <t>https://motorring.ru/product/15790-bortovoy-kompyyuter-shtat-115x23m-dlya-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №12 для Daewoo Nexia седан, Fiat Panda хэтчбек</t>
+          <t>Бортовой компьютер Штат 115x23М для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2290</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37434-vykidnoy-klyuch-zaghiganiya-vw-stily-2knopki-lada-granta</t>
+          <t>https://motorring.ru/product/9760</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Выкидной ключ зажигания с чипом в стиле Фольксваген на 2 кнопки для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Преобразователь напряжения повышающий 12/24 Орион ПН-50 10А</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1790</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16127</t>
+          <t>https://motorring.ru/product/30634-strelochnaya-nagruzochnaya-vilka-nv-05</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Втулки штанги стабилизатора для ВАЗ 2101-2107</t>
+          <t>Нагрузочная вилка НВ-05 цифровая для проверки АКБ и генератора</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>590</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3956-vtulki-stoyki-stabilizatora-nighnie-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/30629-komplekt-podklyucheniya-ptf-vaz-evropanel-2110-2111-2112</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Втулки стойки стабилизатора нижние для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Ока</t>
+          <t>Проводка для подключения противотуманных фар (ПТФ) под евро-панель для ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>590</v>
+        <v>890</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22786-komplekt-maslyanyh-stoek-peredney-podveski-lada-kalina</t>
+          <t>https://motorring.ru/product/37888-nasos-dlya-perekachki-ghidkosti-vympel-nm-12-52-mm</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Комплект масляных стоек передней подвески ЭластоМаг для Лада Калина</t>
+          <t>Насос для перекачки жидкости Вымпел НС-12, 24 В 52 мм</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6790</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22772-amortizatory-zadney-podveski-masyanye-vaz-2110-2112-lada</t>
+          <t>https://motorring.ru/product/39804-moduly-avtomaticheskogo-kontrollera-steklopodyemnikov-kalina</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Амортизаторы задней подвески ЭластоМаг масляные для ВАЗ 2110-2112, Лада Калина, Приора</t>
+          <t>Модуль автоматического контроллера стеклоподъемников МАКС-2 для Лада Калина</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4490</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37685-plata-klyucha-zaghiganiya-1118-itelma-dlya-lada-kalina</t>
+          <t>https://motorring.ru/product/9792-podogrev-tosola-220v-magnum-5kvt-dlya-lada-granta-kalina</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Плата ключа зажигания ИТЭЛМА нового  образца 1118 для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Датсун</t>
+          <t>Подогрев тосола 220В Магнум №29 1,5кВт для 8-клапанных Лада Гранта, Калина 2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1990</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3951</t>
+          <t>https://motorring.ru/product/37795-cifrovoy-volytmetr-ampermetr</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Втулки штанги стабилизатора 22 мм концевые для Шевроле Нива, Лада Нива Тревел</t>
+          <t>Цифровой вольтметр амперметр</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1190</v>
+        <v>590</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10237-razyem-kombinacii-priborov-lada-priora-kalina-kalina</t>
+          <t>https://motorring.ru/product/25437-rele-vremeni-avtomobilynyh-signalizaciy</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Разъем комбинации приборов с фиксатором для Лада Приора, Калина, Калина 2</t>
+          <t>Реле времени РВ автомобильных сигнализаций</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>790</v>
+        <v>590</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22770-amortizatory-zadney-podveski-masyanye-vaz-2101-2107</t>
+          <t>https://motorring.ru/product/31610-indikator-napryagheniya-int-12-krasniy-volytometrom-granta</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Амортизаторы задней подвески ЭластоМаг масляные для ВАЗ 2101-2107</t>
+          <t>Индикатор температуры ИНТ-12 красный с вольтометром для Лада Гранта, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4590</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5009-klyuch-zamka-zaghiganiya-vykidnoy-bez-platy-vw-kalina</t>
+          <t>https://motorring.ru/product/3482-komplekt-podklyucheniya-protivotumannyh-far-vaz-2105-2107</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ключ замка зажигания выкидной без платы в стиле Фольксваген на 3 кнопки для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Проводка ML подключения противотуманных фар (ПТФ) для ВАЗ 2101-2107, Лада 4х4 (Нива) до 2019 г.в.</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>729</v>
+        <v>829</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11204-dempfernyy-shkiv-kolenvala-slon-dlya-lada-4h4-niva</t>
+          <t>https://motorring.ru/product/9782-stroboskop-orion-st-02-dlya-karbyuratornyh-inghektornyh</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Демпферный шкив коленвала SLON (распределенный впрыск) для Лада 4х4 (Нива)</t>
+          <t>Стробоскоп Орион СТ-02 для карбюраторных и инжекторных двигателей</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3090</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1482-perehodnoy-komplekt-dlya-ustanovki-karbyuratora-vaz</t>
+          <t>https://motorring.ru/product/37783-cifrovoy-indikator-bort-seti-prikurivately-malyy-3-30v</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Переходной комплект для установки 08 карбюратора для ВАЗ 2101-2107</t>
+          <t>Цифровой индикатор бортовой сети ИН Малый 3-30V в прикуриватель</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>590</v>
+        <v>490</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37542-analogovyy-korpus-klyucha-zaghiganiya-bez-knopok-largus</t>
+          <t>https://motorring.ru/product/9728-antenna-orion-a-25</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Аналоговый корпус ключа зажигания без кнопок для Лада Ларгус</t>
+          <t>Антенна Орион Вымпел А-25</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>269</v>
+        <v>690</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37474-pulyt-klyucha-zaghiganiya-bez-knopok-chipom-renault-hrom</t>
+          <t>https://motorring.ru/product/4422-komplekt-podklyucheniya-protivotumannyh-far-vaz-2110-2111-2112</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ключ замка зажигания без кнопок HITAG 3 PCF 7939 с чипом и хром логотипом для Рено Дастер</t>
+          <t>Проводка для подключения противотуманных фар (ПТФ) для ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1790</v>
+        <v>890</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16078-obuchayuschiy-klyuch-zagotovka-chipom-dlya-lada-priora</t>
+          <t>https://motorring.ru/product/9770-universalynoe-rele-zaschity-lamp-dlya-avtomobiley-vaz</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Обучающий ключ-заготовка с чипом для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Универсальное реле защиты ламп для автомобилей ВАЗ</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>629</v>
+        <v>949</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37546-plata-vykidnogo-klyucha-zaghiganiya-stile-vw-1118</t>
+          <t>https://motorring.ru/product/37777-datchik-doghdya-dda-dlya-lada-inomarok</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Плата выкидного ключа зажигания в стиле Фольксваген для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Датчик дождя ДДА 55 для Лада и иномарок</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1490</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37532-korpus-klyucha-zaghiganiya-plastikovie-knopki-datsun</t>
+          <t>https://motorring.ru/product/25429-moduli-avtomaticheskoy-tonirovki-maks-2t-20a</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Корпус ключа зажигания с пластиковыми кнопками для Датсун</t>
+          <t>Модули автоматической тонировки МАКС-2Т 20А</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1390</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5897-avtoodeyalo-dlya-lada-4h4-niva-inomarki</t>
+          <t>https://motorring.ru/product/9741-zaryadnoe-ustroystvo-orion-325</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №7 для Лада 4х4 (Нива) 21213, 21214, 2131, Урбан, Suzuki Grand Vitara 2000-2005</t>
+          <t>Зарядное устройство Орион Вымпел-325 20 ампер</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2990</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37537-korpus-klyucha-zaghiganiya-bez-knopok-dlya-lada-vesta</t>
+          <t>https://motorring.ru/product/13527-montaghnyy-nabor-podklyucheniya-protivotumannyh-far-lada</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Корпус ключа зажигания без кнопок для Лада Веста, Икс Рей</t>
+          <t>Монтажный набор подключения противотуманных фар для Лада Веста</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>349</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37660-plata-vykidnogo-klyucha-zaghiganiya-profi-lada-vesta</t>
+          <t>https://motorring.ru/product/8490-gnezdo-vstavka-tonnely-pola-pod-dopolnitelynye-knopki-lada</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Плата выкидного ключа зажигания для Лада Веста, Икс Рей</t>
+          <t>Гнездо-вставка в тоннель пола под дополнительные кнопки Лада Гранта, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1490</v>
+        <v>729</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20695-vykidnoy-klyuch-zaghiganiya-bmv-stily-lada-granta</t>
+          <t>https://motorring.ru/product/1333-parktronik-multitronics-apt-4c</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Выкидной ключ зажигания с чипом в стиле БМВ под замок Рено для Лада Гранта FL 2018-2023 г.в.</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>2190</v>
-      </c>
+          <t>Парктроник Multitronics APT-4C</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22778-amortizatory-peredney-podveski-masyanye-shevrole-niva</t>
+          <t>https://motorring.ru/product/8468-rele-dvornikov-reguliruemoy-pauzoy-dlya-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Амортизаторы передней подвески ЭластоМаг масляные для Шевроле Нива, Лада Нива Тревел</t>
+          <t>Реле дворников с регулируемой паузой для ВАЗ 2108-21099 с новым блоком, 2113-2115, Лада Приора, Калина, Гранта</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4590</v>
+        <v>649</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6742-chip-klyuch-immobilayzera-transponder-rabochiy-dlya-lada</t>
+          <t>https://motorring.ru/product/5926-bortovoy-kompyyuter-shtat-shevi-matrix-3-vmesto-bloka-bsk</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Чип-ключ иммобилайзера (транспондер) рабочий с синей меткой для Лада Калина, Приора, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в.</t>
+          <t>Бортовой компьютер ШТАТ Шеви MATRIX-M вместо блока БСК для Шевроле Нива</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>590</v>
+        <v>7190</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3967-saylentbloki-rastyaghki-dlya-vaz-2108-21099-2110-2112</t>
+          <t>https://motorring.ru/product/5911-bortovoy-kompyyuter-shtat-unicomp-410l-dlya-daewoo-peugeot</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Сайлентблоки растяжки для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+          <t>Бортовой компьютер ШТАТ UniComp-410ML для Лада, Шевроле Нива, Рено и прочих иномарок</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>990</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37489-vykidnoy-klyuch-zamka-zaghiganiya-stile-vw-bez-platy-largus</t>
+          <t>https://motorring.ru/product/37799-kommutator-elektronnyy-dlya-lada-oka</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Выкидной ключ замка зажигания в стиле Фольксваген без платы для Лада Ларгус</t>
+          <t>Коммутатор электронный для Лада Ока</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1190</v>
+        <v>690</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15122-klyuch-obuchayuschiy-lada-granta-fl</t>
+          <t>https://motorring.ru/product/9736-strelochnaya-nagruzochnaya-vilka-nv-02</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ключ обучающий под замок Рено для Лада Гранта FL 2018-2023 г.в.</t>
+          <t>Нагрузочная вилка НВ-02 аналоговая для проверки АКБ и генератора 100/200А</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1390</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37687-plata-klyucha-zaghiganiya-hitag-pcf-7961-pod-knopki-logan2</t>
+          <t>https://motorring.ru/product/30633-strelochnaya-nagruzochnaya-vilka-nv-03</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Плата ключа зажигания HITAG 3 PCF 7961 под 2 кнопки для Рено Логан 2</t>
+          <t>Нагрузочная вилка НВ-03 цифровая для проверки АКБ и генератора 100/200А</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1590</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25615-vykidnoy-klyuch-zaghiganiya-bentli-stily-lada-priora-kalina</t>
+          <t>https://motorring.ru/product/4607-komplekt-podklyucheniya-protivotumannyh-far-vaz-2113-2114-2115</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Выкидной ключ зажигания Бентли стиль с чипом для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Проводка подключения противотуманных фар (ПТФ) ML Auto Light Technology для ВАЗ 2113, 2114, 2115</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2190</v>
+        <v>829</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37402-zhalo-klyucha-zaghiganiya-lezvie-dac4d-largus</t>
+          <t>https://motorring.ru/product/5927</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Жало ключа зажигания (лезвие DAC4D) для Лада Ларгус</t>
+          <t>Бортовой компьютер ШТАТ Шеви Вектор-P вместо блока БСК для Шевроле Нива</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>469</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37398-zhalo-klyucha-zaghiganiya-lezvie-me73-reno-logan2</t>
+          <t>https://motorring.ru/product/25433-moduly-plavnogo-vklyucheniya-podsvetki-kombinacii-priborov</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Жало ключа зажигания (лезвие МЕ73) для Рено Логан 2</t>
+          <t>Модуль плавного включения подсветки комбинации приборов</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>169</v>
+        <v>569</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37484-vykidnoy-klyuch-zamka-zaghiganiya-s-platoy-analog-xray</t>
+          <t>https://motorring.ru/product/9743-imitator-datchika-skorosti</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Выкидной ключ замка зажигания с платой в аналоговом корпусе с Ладьей для Лада Веста, Икс Рей</t>
+          <t>Имитатор датчика скорости для Лада и иномарок</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1990</v>
+        <v>569</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37490-vykidnoy-klyuch-zamka-zaghiganiya-stile-vw-s-platoy-largus</t>
+          <t>https://motorring.ru/product/9731-bezklyuchevoy-obhodchik-immobilayzera-shtat-dlya-lada</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Выкидной ключ замка зажигания в стиле Фольксваген с платой для Лада Ларгус</t>
+          <t>Безключевой обходчик иммобилайзера Штат для Лада Гранта, Калина 2, Приора 2, Datsun</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2890</v>
+        <v>969</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22791-komplekt-maslyanyh-stoek-peredney-podveski-lada-granta</t>
+          <t>https://motorring.ru/product/37756-adapter-elm-327-bluetooth-15-mini-dlya-diagnostiki-avtomobilya</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Комплект масляных стоек передней подвески ЭластоМаг для Лада Гранта, Гранта FL</t>
+          <t>Адаптер ELM 327 BLUETOOTH MINI v1.5 для диагностики автомобиля (Китай)</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6890</v>
+        <v>790</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20696-vykidnoy-klyuch-zaghiganiya-bmv-stily-lada-priora-kalina</t>
+          <t>https://motorring.ru/product/5901-bortovoy-kompyyuter-shtat-x-33-vmesto-zaglushki-knopki-vaz</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Выкидной ключ зажигания с чипом в стиле БМВ под замок старого образца для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Бортовой компьютер ШТАТ X-33 вместо заглушки кнопки для ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -1865,1141 +1863,1448 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/14232-pechka-motor-otopitelya-modernizirovannaya-lada-niva-4h4</t>
+          <t>https://motorring.ru/product/25430-moduli-avtomaticheskoy-tonirovki-maks-2t-30a</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Печка (мотор отопителя) модернизированная для Лада Нива 4х4, Нива Урбан</t>
+          <t>Модули автоматической тонировки МАКС-2Т 30А</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7390</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/17402-filytr-toplivnyy-vaz-2101-2107-2108-21099-2110-2112</t>
+          <t>https://motorring.ru/product/5900</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Фильтр топливный Салют-Фильтр для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада 4х4, Шевроле Нива</t>
+          <t>Бортовой компьютер ШТАТ Х1-P вместо заглушки кнопки для Лада Приора</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>490</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12863-dopolnitelynyy-klyuch-bez-knopok-lada-vesta-iksrey</t>
+          <t>https://motorring.ru/product/37798-kommutator-elektronnyy-shtat-plazma-dlya-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Дополнительный ключ замка зажигания с чипом (без кнопок) для Лада Веста, Икс Рей</t>
+          <t>Коммутатор электронный ШТАТ Плазма для ВАЗ 2108-21099, 2110</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1390</v>
+        <v>690</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1622-blokirovka-differenciala-vintovaya-forsavto-zuba-dlya-vaz</t>
+          <t>https://motorring.ru/product/9775-rele-dvornikov-reguliruemoy-pauzoy-vaz-2108-21099-starym</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Блокировка дифференциала винтовая Форс-Авто (22 зуба) для ВАЗ 2101-2107, Лада 4x4 (Нива), Шевроле Нива</t>
+          <t>Реле дворников с регулируемой паузой для ВАЗ 2108-21099 со старым блоком, 2110-2112, Шевроле Нива</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>11790</v>
+        <v>629</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25616-originalynyy-sinteponovyy-salonnyy-filytr-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/39806-indikator-napryagheniya-in-12-krasniy-dlya-vaz-2110</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Оригинальный синтепоновый салонный фильтр для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Индикатор напряжения ИН-12 с красной подсветкой для ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>189</v>
+        <v>629</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16153</t>
+          <t>https://motorring.ru/product/34607-volytmetr-siney-podsvetkoy-prikurivately-funkciey</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Сайлентблоки нижнего рычага для Лада Надежда, 4х4 (Нива), Шевроле Нива до 2009 г.в.</t>
+          <t>Вольтметр с синей подсветкой в прикуриватель 4 в 1 с функцией зарядного устройства USB</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1290</v>
+        <v>629</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22790-komplekt-maslyanyh-stoek-peredney-podveski-lada-priora</t>
+          <t>https://motorring.ru/product/9745-indikator-temperatury-dvigatelya-dlya-folyksvagen-polo</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Комплект масляных стоек передней подвески ЭластоМаг для Лада Приора</t>
+          <t>Индикатор температуры двигателя для Фольксваген Поло</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>6790</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5943-avtoodeyalo-dlya-toyota-camri-2006-goda-vypuska</t>
+          <t>https://motorring.ru/product/9768</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №30 для Toyota Camry с 2006 года выпуска</t>
+          <t>Радар-детектор Орион 575-СТ с голосовым оповещением</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2390</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11232-kronshteyn-adsorbera-21214-lada-niva-4h4</t>
+          <t>https://motorring.ru/product/8466</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Кронштейн адсорбера 21214 для Лада 4х4 (Нива) 21214</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>390</v>
-      </c>
+          <t>Преобразователь напряжения (розетка автомобильная) 12/220 Орион ПН-60 450W</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22789-komplekt-maslyanyh-stoek-peredney-podveski-vaz-2110-2112</t>
+          <t>https://motorring.ru/product/33974-indikator-napryagheniya-in-12-siniy-dlya-vaz-2110-12</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Комплект масляных стоек передней подвески ЭластоМаг для ВАЗ 2110-2112</t>
+          <t>Индикатор напряжения ИН-12 синий для ВАЗ 2110-2112 (европанель), 2113-2115, Лада Калина, Шевроле Нива</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>6390</v>
+        <v>629</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5881-avtoodeyalo-dlya-inomarok-toyota-carina-hyundai-sonata</t>
+          <t>https://motorring.ru/product/37894-termometr-zabortnoy-temperatury-batareykah</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №3 для Toyota Carina, Hyundai Sonata, Mazda (6, 3, Familia), Chevrolet Cruze</t>
+          <t>Термометр забортной температуры на батарейках</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2390</v>
+        <v>449</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5889-avtoodeyalo-dlya-dvigatelya-vaz-2110-2112-lada-priora</t>
+          <t>https://motorring.ru/product/37804-bortovoy-kompyyuter-mulytitroniks-sl-50v-dlya-inghektornyh</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло для двигателя №10 для ВАЗ 2110-2112, Лада Приора</t>
+          <t>Бортовой компьютер Мультитроникс SL-50V для инжекторных автомобилей ВАЗ и иномарок</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2690</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22775-amortizatory-zadney-podveski-masyanye-lada-granta</t>
+          <t>https://motorring.ru/product/9779</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Амортизаторы задней подвески ЭластоМаг масляные для Лада Гранта, Гранта FL</t>
+          <t>Сканер-тестер S7000 (USB исполнение) для диагностики автомобилей ВАЗ, ГАЗ</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4790</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/26556-kolodka-blok-fare-lada-priora</t>
+          <t>https://motorring.ru/product/25427-moduly-kontrollera-steklopodyemnikov-largus</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Колодка к блок-фаре Лада Приора</t>
+          <t>Модуль автоматического контроллера стеклоподъемников МАКС-2 для Лада Ларгус, Renault Logan, Sandero, Nissan Almera</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>590</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5884-avtoodeyalo-dlya-chevrolet-niva-volkswagen-land-rover</t>
+          <t>https://motorring.ru/product/9789-podogrev-tosola-220v-magnum-5kvt-dlya-vaz-2108-15-2110-12</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №8 для Шевроле/Лада Нива 2123, Volkswagen, Land Rover, Renault, Honda, Citroen</t>
+          <t>Подогрев тосола 220В Магнум №16 1,5кВт для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Ларгус, Renault</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2990</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/26591-kolodka-prikurivatelyu-vaz-2110-2112-2113-2115-lada-priora</t>
+          <t>https://motorring.ru/product/22749</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Колодка к прикуривателю для ВАЗ 2110-2112, 2113-2115, Лада Приора, Калина, Гранта, Шевроле Нива</t>
+          <t>Модуль автоматического контроллера стеклоподъемников МАКС-2 для Лада Веста</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>169</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37461-vykidnoy-klyuch-vw-stily-3knopki-lada-granta-fl</t>
+          <t>https://motorring.ru/product/31966-indikator-napryagheniya-int-12-krasniy-volytometrom-kalina</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Выкидной ключ зажигания с платой в стиле Фольксваген Люкс на 3 кнопки под замок Рено для Лада Гранта FL 2018-2023 г.в.</t>
+          <t>Индикатор температуры ИНТ-12 красный с вольтометром для ВАЗ 2110-2112 (европанель), 2113-2115, Лада Калина, Шевроле Нива</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1890</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10585-saylentbloki-nighnego-rychaga-lada-niva-21214-urban</t>
+          <t>https://motorring.ru/product/9764-adapter-eeprom-po5-dlya-programmatora-po-5</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Сайлентблоки нижнего рычага для Лада 4х4 с 2009 г.в, Нива Легенд, Нива Тревел, Шевроле Нива с 2009 г.в.</t>
+          <t>Адаптер EEPROM-ПО5 для программатора ПО-5</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>969</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5896-avtoodeyalo-dlya-kia-rio-2014-goda-vypuska</t>
+          <t>https://motorring.ru/product/28523</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №25 для Kia Rio (до 2011), Ford Fiesta, Nissan Tiida, Opel Corsa</t>
+          <t>Зарядно-предпусковое устройство Орион Вымпел-30 (20 ампер) для аккумулятора</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2690</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16072</t>
+          <t>https://motorring.ru/product/1319-bortovoy-kompyyuter-multitronics-cl-580-dlya-avtomobiley</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Кнопки для брелка Норма для Лада Приора, Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в.</t>
+          <t>Бортовой компьютер Multitronics CL-580 без голосового синтезатора для автомобилей УАЗ Патриот, ГАЗ</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>149</v>
+        <v>8490</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3949-podushki-zadnego-amortizatora-bubliki-zheltiye-vaz-2101-2107</t>
+          <t>https://motorring.ru/product/25421-3-h-kanalynoe-usb-zaryadnoe-ustroystvo-komplekt</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Подушки заднего амортизатора (бублики) для ВАЗ 2101-2107, 2108-2115, 2110-2112, Лада Ока, Калина, Приора, Гранта, Нива Легенд/Тревел, Шевроле Нива, Датсун</t>
+          <t>3-х канальное USB зарядное устройство (комплект)</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>590</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18485-razyem-elektrozerkala-mama-lada-kalina-priora-granta</t>
+          <t>https://motorring.ru/product/1329-parktronik-multitronics-pu-4tc</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Разъем электрозеркала (мама) для Лада Калина, Приора, Гранта</t>
+          <t>Парктроник Multitronics PU4-TC</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>490</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37449-vykidnoy-klyuch-zamka-zaghiganiya-ladiya-lada-niva-trevel</t>
+          <t>https://motorring.ru/product/37791-cifrovoy-indikator-bortovoy-seti-bolyshoy-3-30v</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Выкидной ключ замка зажигания с платой и корпусом с Ладьей для Шевроле Нива, Лада Нива Тревел</t>
+          <t>Цифровой индикатор бортовой сети ИН Большой 3-30V в прикуриватель</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2890</v>
+        <v>590</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37442-vykidnoy-klyuch-zaghiganiya-ladyey-dlya-vaz-2101-2107-niva</t>
+          <t>https://motorring.ru/product/8476-regulyator-obogreva-sideniy-avtomatom-ros-dlya-vaz</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Выкидной ключ зажигания без чипа в корпусе с Ладьей для ВАЗ 2101-2107, Лада 4х4, Нива Легенд</t>
+          <t>Регулятор обогрева сидений с автоматом РОС для Лада, Шевроле Нива</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>390</v>
+        <v>590</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37478-klyuch-zamka-zaghiganiya-hitag-pcf-7961-reno-logan2</t>
+          <t>https://motorring.ru/product/5928-bortovoy-kompyyuter-shtat-h-1-universal-vmesto-zaglushki</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Ключ замка зажигания HITAG 3 PCF 7961 с резиновыми кнопками для Рено Логан 2</t>
+          <t>Бортовой компьютер ШТАТ Х1-M Универсал вместо заглушки кнопки для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Шевроле Нива</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>4590</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37393-ghalo-vykidnogo-klyucha-lezvie-1118-uaz-lada-kalina-granta</t>
+          <t>https://motorring.ru/product/10904-provodka-dlya-podklyucheniya-ptf-lada-vesta-xray</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Жало выкидного ключа (лезвие 1118) для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Датсун, УАЗ</t>
+          <t>Проводка для подключения противотуманных фар (ПТФ) с универсальной кнопкой для Лада Веста, Иксрей</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>189</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/36694-ghalo-vykidnogo-klyucha-stile-audi-lada-priora-kalina</t>
+          <t>https://motorring.ru/product/1335</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Жало выкидного ключа в стиле Ауди и Фольксваген под замок старого образца для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>190</v>
-      </c>
+          <t>Парктроник Мультитроникс PT4-TC</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37661-plata-vykidnogo-klyucha-zaghiganiya-audi-ekonom-largus</t>
+          <t>https://motorring.ru/product/37797</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Плата выкидного ключа зажигания в стиле Ауди Эконом для Лада Ларгус</t>
+          <t>Коммутатор электронный ШТАТ Remix для ВАЗ 2108-21099, 2110</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1690</v>
+        <v>690</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/14800-vykidnoy-kluch-audi-style-lada-priora-kalina-granta-shevrole-dats</t>
+          <t>https://motorring.ru/product/9762-programmator-odometrov-po-5</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Выкидной ключ зажигания с чипом в стиле Ауди Люкс под замок старого образца для Лада Приора, Калина, Калина 2, Гранта, Гранта FL  до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Программатор одометров ПО-5</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1890</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/24078-datchik-urovnya-omyvayuschey-ghidkosti-emi-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/8480-cifrovoy-volytmetr-vrezaemyy</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Датчик уровня омывающей жидкости ЭМИ для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+          <t>Цифровой вольтметр врезаемый с красной подсветкой</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16120</t>
+          <t>https://motorring.ru/product/15248-datchik-doghdya-dda-lada-granta-lyuks-lada-largus-reno</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Втулки стойки стабилизатора верхние ID 16мм для ВАЗ 2108-21099, 2113-2115, Лада Ока</t>
+          <t>Датчик дождя ДДА 45 для Лада Гранта (люкс),  Калина 2, Ларгус, Рено</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>390</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5890-avtoodeyalo-dlya-inomarok-lada-granta-kalina-chery-chery</t>
+          <t>https://motorring.ru/product/9720-adapter-elm-327-bluetooth-dlya-diagnostiki-avtomobilya</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №4 для Лада Гранта, Калина 2, Chery QQ, Chery Very, Dodge Caliber, ZAZ Vida</t>
+          <t>Адаптер ELM 327 BLUETOOTH v2.1 для диагностики автомобиля (Китай)</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2890</v>
+        <v>690</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6256-ruchka-kpp-hrom-vstavkoy-lada-largus-iks-rey</t>
+          <t>https://motorring.ru/product/15235-bortovoy-kompyyuter-mulytitroniks-cl-590-vmesto-vozduhovoda</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Ручка КПП с серебристой вставкой для Лада Ларгус, Икс Рей</t>
+          <t>Бортовой компьютер Мультитроникс CL-590 без звукового синтезатора вместо воздуховода для Лада Гранта, Ларгус, Рено, Ниссан</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>990</v>
+        <v>7790</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16069-klyuch-zamka-zaghiganiya-vykidnoy-china-dlya-lada-priora</t>
+          <t>https://motorring.ru/product/31840-usb-zaryadnoe-ustroystvo-15vt-slota-dlya-lada-vesta-iks-rey</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Выкидной ключ замка зажигания China с чипом для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>USB зарядное устройство Штат 15Вт на 2 слота в подлокотник для Лада Веста, Икс Рей, Ларгус FL</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1790</v>
+        <v>790</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5885-avtoodeyalo-dlya-dvigatelya-vaz-2108-21099-2113-2115-igh</t>
+          <t>https://motorring.ru/product/24175-zaryadnoe-ustroystvo-impulysnoe-orion-pw150m</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №9 на двигатель для ВАЗ 2108-21099, 2113-2115, ИЖ, Toyota, Nissan, Mitsubishi</t>
+          <t>Зарядное устройство импульсное Орион PW150M</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2690</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13480-prostavki-domiki-pod-zadniy-amortizator-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/13881-usb-zaryadnoe-slota-vmesto-zaglushki-paneli-priborov-vaz</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Проставки (домики) под задние амортизаторы для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора</t>
+          <t>USB зарядное на 2 слота вместо заглушки панели приборов для ВАЗ 2108-21099 с высокой панелью, ВАЗ 2113-2115, Лада 4х4 (Нива) 21213, 21214, 2131</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>429</v>
+        <v>749</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22785-sharniry-rastyaghki-peredney-podveski-romashki-vaz</t>
+          <t>https://motorring.ru/product/37776-datchik-doghdya-dda15-02-vaz-2108-21099-2113-2115-2110-2112</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Шарниры растяжки передней подвески ЭластоМаг (ромашки) для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+          <t>Датчик дождя ДДА15.02 под старый блок предохранителей для ВАЗ 2108-21099, 2113-2115, 2110-2112, Шевроле Нива</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>819</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18648-razyem-elektrozamka-bagaghnika-lada-granta-vesta</t>
+          <t>https://motorring.ru/product/37900-centralynyy-zamok-vympel-a-y16</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Разъем электрозамка багажника для Лада Гранта, Веста</t>
+          <t>Центральный замок на 4 двери Орион Вымпел A-Y16 с 2 ключами управления</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>629</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/19214-datchik-ukazatelya-urovnya-topliva-dut-shevrole-niva</t>
+          <t>https://motorring.ru/product/5918-bortovoy-kompyyuter-shtat-1118-kalina-x5mk-lada-kalina</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Датчик указателя уровня топлива ДУТ- КЗ для Шевроле Нива</t>
+          <t>Бортовой компьютер Штат 1118 Калина X5MК для Лада Калина</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>449</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/26522-razyem-knopki-steklopodyemnika-lada-priora</t>
+          <t>https://motorring.ru/product/9769-regulyator-obogreva-sideniy-ros-2</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Разъем кнопки стеклоподъемника для Лада Приора</t>
+          <t>Регулятор обогрева сидений РОС-2 для ВАЗ</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>169</v>
+        <v>719</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/21508-originalynyy-kabely-usb-slot-bardachok-lada-kalina</t>
+          <t>https://motorring.ru/product/33977</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Оригинальный кабель USB на 1 слот в бардачок Лада Калина 2, Гранта</t>
+          <t>Комплект модулей на 4 двери МАКС-2 для Лада Икс Рей, Ларгус FL, Рено Дастер</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1190</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22781-opory-perednih-stoek-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/10418-diagnosticheskiy-skaner-tester-shtat-dst-ekspress-dlya</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Опоры передних стоек ЭластоМаг Комфорт для ВАЗ 2108-21099</t>
+          <t>Диагностический сканер тестер Штат ДСТ-Экспресс для автомобилей ВАЗ</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2590</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37447-klyuch-zaghiganiya-stile-granty-krasnoy-metkoy-vaz-2101</t>
+          <t>https://motorring.ru/product/18487-indikator-napryagheniya-in-12-lada-priora-kalina-kalina</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ключ зажигания в стиле Гранты FL с красной меткой для ВАЗ 2101-2107, Лада 4х4, Нива Легенд</t>
+          <t>Индикатор напряжения ИН-12 с красной подсветкой для Лада Приора, Калина 2, Гранта, Датсун</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>769</v>
+        <v>629</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/28464-remkomplekt-golovki-bloka-21120-klapana-obratnogo-sliva</t>
+          <t>https://motorring.ru/product/6678-usb-zaryadnik-shtat-vmesto-zaglushki-knopki-vaz-2110-2112</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Ремкомплект головки блока 21120 клапана обратного слива масла (клапан, пружина, шарик) для ВАЗ 2110-2112</t>
+          <t>USB-зарядник Штат 2.0 вместо заглушки кнопки для ВАЗ 2110-2112, 2113-2115, Лада Калина, Шевроле Нива</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>269</v>
+        <v>590</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16135-vtulki-shtangi-stabilizatora-centralynye-ss20-lada-niva-4h4</t>
+          <t>https://motorring.ru/product/37767-bortovoy-kompyyuter-shtat-mk-2-sensornyy-obd-2-can</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Втулки штанги стабилизатора центральные SS20 для Лада 4х4 (Нива) до 2016 г.в.</t>
+          <t>Бортовой компьютер ШТАТ МК-2 сенсорный OBD-2 CAN универсальный</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1190</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16079-rabochiy-klyuch-zagotovka-chipom-lada-priora-kalina-kalina</t>
+          <t>https://motorring.ru/product/22615-avariynoe-zaghiganie-az-1-vaz-2104-2107-2108-21099</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Рабочий ключ-заготовка с чипом для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Аварийное зажигание АЗ-1 для ВАЗ 2108-21099, 2110-2112, 2113-2115, Таврия, Ока</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>629</v>
+        <v>249</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22777-amortizatory-peredney-podveski-masyanye-vaz-2101-2107</t>
+          <t>https://motorring.ru/product/13430-provodka-dlya-podklyucheniya-ptf-chevrolet-niva-restayling</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Амортизаторы передней подвески ЭластоМаг масляные для ВАЗ 2101-2107</t>
+          <t>Проводка ML подключения противотуманных фар (ПТФ) для Шевроле Нива с 2009 года</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>4390</v>
+        <v>829</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38071-toplivnyy-filytr-big-dlya-1-6-litrovyh-vaz-2110-2115</t>
+          <t>https://motorring.ru/product/1748-elektronnaya-kombinaciya-priborov-flash-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Топливный фильтр BIG для 1.6-литровых ВАЗ 2110-2112, 2113-2115, Калина, Калина 2, Гранта, Гранта FL, Приора, Шевроле Нива, Датсун</t>
+          <t>Электронная комбинация приборов Flash Х3 для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада 4х4 (Нива), Шевроле Нива</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>779</v>
+        <v>13990</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3965</t>
+          <t>https://motorring.ru/product/8477-regulyator-obogreva-stekla-avtomatom-rost-dlya-vaz</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Сайлентблоки нижнего рычага (2шт желт) для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
+          <t>Регулятор обогрева стекла с автоматом РОСт для ВАЗ</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>779</v>
+        <v>719</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16075-shtatnyy-brelok-pulyt-centralynogo-zamka-itelma-k110-lada</t>
+          <t>https://motorring.ru/product/9766-imitator-signala-skorosti-can-lada-priora-kalina-granta</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Штатный брелок (пульт) центрального замка ИТЭЛМА Норма K110 с пластиковыми кнопками для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Датсун</t>
+          <t>Имитатор сигнала скорости CAN для Лада Приора, Калина 2, Гранта</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3690</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16407-zadnie-opory-stoek-evolex-vaz-2108-21099-2110-2112</t>
+          <t>https://motorring.ru/product/18510-rele-miganiya-dopolnitelynogo-stop-signala</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Задние опоры стоек EVOLEX для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
+          <t>Реле мигания дополнительного LED стоп-сигнала 5 режимов</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2690</v>
+        <v>590</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16118-vtulki-stoyki-stabilizatora-verhnie-20mm-lada-priora-kalina</t>
+          <t>https://motorring.ru/product/33976-moduly-avtomaticheskogo-kontrollera-steklopodyemnikov-xray</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Втулки стойки стабилизатора верхние FR ID 20мм Лада Приора, Калина</t>
+          <t>Модуль автоматического контроллера стеклоподъемников МАКС-2 для Лада Икс Рей, Ларгус FL, Рено Логан 2, Сандеро 2, Дастер, Клио 4, Трафик</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>390</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37842-motoreduktor-blokirovki-zamka-dveri-4-provodnoy-priora</t>
+          <t>https://motorring.ru/product/8472-indikator-zvukovoy-povtoritely-dlya-avtomobiley-vaz</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Моторедуктор блокировки замка двери 4-проводной (водительский) для Лада Приора</t>
+          <t>Индикатор звуковой (повторитель) для автомобилей ВАЗ</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>790</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3011-regulyator-napryagheniya-k161-katek-dlya-vaz-21101-vaz</t>
+          <t>https://motorring.ru/product/16379-bortovoy-kompyyuter-orion-dlya-karbyuratornyh-dvigateley</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Регулятор напряжения К161 КАТЭК под двигатель 1.6л для ВАЗ 2110</t>
+          <t>Бортовой компьютер Орион БК-06 универсальный</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>790</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22776-amortizatory-zadney-podveski-masyanye-lada-niva-4h4</t>
+          <t>https://motorring.ru/product/1169-bortovoy-kompyyuter-mulytitroniks-750-vaz-inomarki</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Амортизаторы задней подвески ЭластоМаг масляные для Лада 4х4 с 2010 г.в., Нива Легенд</t>
+          <t>Бортовой компьютер Мультитроникс TC-750 с голосовым синтезатором для ВАЗ и иномарки</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>4690</v>
+        <v>10990</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3966-saylentbloki-perednego-sharnira-rastyaghki-gheltye-2108-15-granta</t>
+          <t>https://motorring.ru/product/8471-moduly-udlinitely-upravleniya-signalami-povorotov-dlya-vaz</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Сайлентблоки переднего шарнира (растяжки) желтые для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+          <t>Модуль (удлинитель) управления сигналами поворотов для Лада</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>990</v>
+        <v>969</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37388-zhalo-vykidnogo-klyucha-zaghiganiya-lezvie-va2-vesta</t>
+          <t>https://motorring.ru/product/33977-moduly-komplect-4-dvery-max-2-xray</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Жало выкидного ключа зажигания (лезвие VA2) для Лада Веста, Икс Рей</t>
+          <t>Комплект модулей на 4 двери МАКС-2 для Лада Икс Рей, Ларгус FL, Рено Дастер</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>290</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37425-vykidnoy-klyuch-zaghiganiya-bez-platy-stile-audi-lyuks-granta</t>
+          <t>https://motorring.ru/product/1321-bortovoy-kompyyuter-mulytitroniks-570-vmesto-bloka-bsk</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Выкидной ключ зажигания без платы в стиле Ауди Люкс под замок старого образца для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в.., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Бортовой компьютер Мультитроникс CL-575 вместо блока БСК без голосового синтезатора для Шевроле Нива, Лада Нива Тревел</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>769</v>
+        <v>7790</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37401-ghalo-pod-klyuch-zaghiganiya-bez-knopok-lezvie-va2-dlya</t>
+          <t>https://motorring.ru/product/1201</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Жало под ключ зажигания без кнопок (лезвие VA2) для Лада Веста, Икс Рей</t>
+          <t>Бортовой компьютер Мультитроникс VC-731 (VC-755) с голосовым синтезатором для ВАЗ и иномарки</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>390</v>
+        <v>10490</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37695-shtatnyy-brelok-pulyt-centralynogo-zamka-lyuks-rezinovymi</t>
+          <t>https://motorring.ru/product/9735-bortovoy-kompyyuter-orion-bk-08</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Штатный брелок (пульт) центрального замка Люкс с резиновыми кнопками для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Датсун</t>
+          <t>Бортовой компьютер Орион БК-08 универсальный</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1690</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9753-chip-klyuch-immobilayzera-aps-4-vaz-2108-2109-21099-2110-2111-211</t>
+          <t>https://motorring.ru/product/15234-bortovoy-kompyyuter-mulytitroniks-590-vmesto-vozduhovoda</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Чип-ключ иммобилайзера АПС-4 для инжекторных ВАЗ 2108-21099, 2110-2112</t>
+          <t>Бортовой компьютер Мультитроникс C-590 с голосовым синтезатором вместо воздуховода для Лада Гранта, Ларгус, Рено, Ниссан</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3790</v>
+        <v>8690</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16912-razyem-dlya-regulirovki-elektro-zerkal-datsun-on-do-mi-do</t>
+          <t>https://motorring.ru/product/33975-indikator-napryagheniya-in-12-krasniy-dlya-vaz-2110-12</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Разъем для регулировки электро зеркал для Датсун On-Do, Mi-Do</t>
+          <t>Индикатор напряжения ИН-12 красный для ВАЗ 2110-2012 (европанель), 2113-2115, Лада Калина, Шевроле Нива</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3958-opory-rulevoy-reyki-starogo-obrazca-gheltye-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/39805-indikator-napryagheniya-in-12-siniy-dlya-vaz-2110</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Опоры рулевой рейки старого образца желтые для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+          <t>Индикатор напряжения ИН-12 с синей подсветкой для ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>769</v>
+        <v>629</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3413-datchik-urovnya-tosola-a600-korotkiy-dlya-vaz-2110-2111</t>
+          <t>https://motorring.ru/product/15247-datchik-doghdya-dda-dlya-vaz-vstroennym-elektronnym-rele</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Датчик уровня тосола А600 (короткий) для ВАЗ 2110, 2111, 2112</t>
+          <t>Датчик дождя ДДА 35 для ВАЗ со встроенным электронным реле стеклоочистителя</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>229</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/24043-amortizatory-zadney-podveski-elastomag-masyanye-lada-vesta</t>
+          <t>https://motorring.ru/product/24137-indikator-napryagheniya-bortovoy-seti-dlya-folyksvagen-polo</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Амортизаторы задней подвески ЭластоМаг газомасляные для Лада Веста, Веста SW</t>
+          <t>Индикатор напряжения бортовой сети для Фольксваген Поло</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>5790</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16077-rabochiy-klyuch-zamka-zaghiganiya-lada-priora-kalina-kalina</t>
+          <t>https://motorring.ru/product/15776-tahometr-multitronics-dm10-dlya-karbyuratornyh-dvigateley</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Рабочий ключ-заготовка замка зажигания для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Тахометр Multitronics DM10 для карбюраторных двигателей</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5894-avtoodeyalo-dlya-inomarok-vaz-2101-2107-lada-kalina-oka</t>
+          <t>https://motorring.ru/product/176-usb-zaryadnoe-slota-vmesto-zaglushki-paneli-priborov-gazely</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №6 для ВАЗ 2101-2107, Лада Калина, Ока, Jaguar S-TAPE, BMW (6,3), Volkswagen Pointer</t>
+          <t>USB зарядное устройство АПЭЛ на 2 слота вместо заглушки панели приборов для автомобилей ГАЗель Некст, Бизнес</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3290</v>
+        <v>749</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37541-analogovyy-korpus-klyucha-zaghiganiya-lada-largus</t>
+          <t>https://motorring.ru/product/9813-sensornyy-vyklyuchately-shtat-ts-t-fiksaciey</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Аналоговый корпус ключа зажигания с резиновыми кнопками для Лада Ларгус</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>769</v>
-      </c>
+          <t>Сенсорный выключатель Штат TS-T с фиксацией</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22774-amortizatory-zadney-podveski-masyanye-lada-priora</t>
+          <t>https://motorring.ru/product/20933-bortovoy-kompyyuter-shtat-h1-g-vmesto-zaglushki-knopki-lada</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Амортизаторы задней подвески ЭластоМаг масляные для Лада Приора</t>
+          <t>Бортовой компьютер ШТАТ Х1-G с белой подсветкой вместо заглушки кнопки для Лада 4х4, Нива Легенд, Гранта FL</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>4490</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1620-blokirovka-differenciala-vintovaya-vaz-2108-2115-lada</t>
+          <t>https://motorring.ru/product/25418-programmator-odometrov-po-5-pro</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Блокировка дифференциала винтовая для ВАЗ 2108-2115, Лада Приора, Калина, Гранта</t>
+          <t>Программатор одометров ПО-5 PRO</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>10990</v>
+        <v>9990</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3953</t>
+          <t>https://motorring.ru/product/9776-regulyator-plavnogo-zapuska-ventilyatora-radiatora-150vt</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Втулки штанги стабилизатора 17мм для ВАЗ 2110-2112</t>
+          <t>Регулятор плавного запуска вентилятора радиатора 150Вт (РПВ-1)</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>590</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3955-vtulki-reaktivnoy-tyagi-malye-vaz-2101-2107-lada-4h4</t>
+          <t>https://motorring.ru/product/9791-podogrev-tosola-220v-magnum-5kvt-dlya-406-dvigatelem</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Втулки реактивной тяги малые для ВАЗ 2101-2107, Лада 4х4, Нива Легенд, Нива Тревел, Надежда, Шевроле Нива</t>
+          <t>Подогрев тосола 220В Магнум №21 1,5кВт для автомобилей с двигателем ЗМЗ-405 Евро 2, ЗМЗ-406</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1190</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37475-pulyt-klyucha-zaghiganiya-2-knopki-chipom-renault</t>
+          <t>https://motorring.ru/product/10968-komplekt-podklyucheniya-protivotumannyh-far-vaz-2108-2109-21099</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ключ замка зажигания HITAG 3 PCF 7961 с 2 кнопками с чипом логотипом для Рено Логан 2</t>
+          <t>Проводка для подключения противотуманных фар (ПТФ) для ВАЗ 2108-21099</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2490</v>
+        <v>829</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22783-opory-perednih-stoek-vaz-2110-2112</t>
+          <t>https://motorring.ru/product/9781-stroboskop-orion-st-01-dlya-karbyuratornyh-inghektornyh</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Опоры передних стоек ЭластоМаг для ВАЗ 2110-2112</t>
+          <t>Стробоскоп Орион СТ-01 для карбюраторных и инжекторных двигателей</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2790</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37408-rabochiy-klyuch-zamka-zaghiganiya-analog-lada-priora-kalina</t>
+          <t>https://motorring.ru/product/37871-kolesnyy-cifrovoy-manometr-mn-04</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Рабочий ключ-заготовка замка зажигания (аналог) для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Колесный цифровой манометр Вымпел МН-04 10 атмосфер</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>149</v>
+        <v>790</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16148-saylentbloki-zadnego-rychaga-vaz-2110-2112-lada-priora</t>
+          <t>https://motorring.ru/product/32326-aktivator-zamka-dveri-vympel-bcs-5p-5-provodnoy-vaz</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Сайлентблоки заднего рычага для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+          <t>Активатор замка двери Вымпел BCS-5P 5-проводной для автомобилей ВАЗ</t>
         </is>
       </c>
       <c r="C172" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15224-bortovoy-kompyyuter-mulytitroniks-vmesto-zaglushki-knopki</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Бортовой компьютер Мультитроникс UX 8 вместо заглушки кнопки для ВАЗ 2110-2112, 2113-2115, Калина, Гранта, Приора, Шевроле Нива, Датсун</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37876-mgnovennaya-diagnostika-md-1-dlya-vaz-2108-2109-21099-2110</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Мгновенная диагностика МД-1 для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Ока, ЗАЗ Таврия</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5950-bortovoy-kompyyuter-multitronics-di17g-dlya-avtomobiley-gaz</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Бортовой компьютер Multitronics Di17g (Di15g) для автомобилей ГАЗ, УАЗ</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/9761</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Программатор одометров ПО-4</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37856-universalynyy-centralynyy-zamok-vympel-a-y216-kanalom</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Универсальный центральный замок Вымпел A-Y216 с каналом управления багажником (4 активатора, 2 брелока)</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40332-bortovoy-kompyyuter-shtat-h1-t-beloy-podsvetkoy-nva-travel</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Бортовой компьютер Штат Х1-Т с белой подсветкой вместо заглушки кнопки для Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28751-indikator-tempretury-vozduha-int-12-siniy-vaz-2110</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Индикатор темпретуры воздуха ИНТ-12 на место кнопки с синей подсветкой и вольтометром для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/9724</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Адаптер Орион ELM 327 Wi-Fi ARM (Android, iOS) для диагностики автомобиля</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/7044-zaryadnoe-ustroystvo-usb-2slota-lada-priora-granta-kalina2</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Зарядное устройство USB 2 слота для Лада Приора, Гранта, Гранта FL, Калина 2</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5923-bortovoy-kompyyuter-shtat-07x-1m-vmesto-zaglushki-knopki</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Бортовой компьютер ШТАТ 07X-1М вместо заглушки кнопки для ВАЗ 2105, 2107</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/9742-datchik-doghdya-dda-25-regulirovkoy-pauzy-dlya-vaz</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Датчик дождя ДДА-25.02 с регулировкой паузы для ВАЗ 2108-21099, 2113-2115, Лада Приора, Калина, Гранта</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8524-indikator-temperatury-dvigatelya-cifrovoy-lada-granta</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>CAN индикатор температуры двигателя цифровой для Лада Гранта, Калина 2, Приора 2, Датсун</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37761-diagnosticheskiy-skaner-tester-shtat-dst-mini-dlya-lada</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Диагностический сканер тестер ШТАТ ДСТ-mini для Лада и иномарок</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/9783-taksometr-ta-2-dlya-avtomobiley-vaz</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Таксометр ТА-2</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5902</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бортовой компьютер Штат Приора Матрикс вместо часов OLED-дисплей на переднюю панель для Лада Приора </t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/9721-adapter-elm-327-bluetooth-dlya-diagnostiki-avtomobilya</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Адаптер Орион ELM 327 BLUETOOTH для диагностики автомобиля</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
         <v>1190</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/1200</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Бортовой компьютер Мультитроникс TC-740 без голосового синтезатора для ВАЗ и иномарки</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>8990</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/37778</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Датчик дождя ДДА 65 с датчиком света для Лада и иномарок</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/9784-tester-regulyatora-holostogo-hoda-rhh</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Тестер регулятора холостого хода РХХ</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/9752-mikroshema-dlya-vosstanovleniya-kombinaciy-priborov-ms-1</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Микросхема для восстановления комбинаций приборов МС-1</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/9734-bortovoy-kompyyuter-orion-bk-07</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Бортовой компьютер Орион БК-07 универсальный</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>2290</v>
       </c>
     </row>
   </sheetData>
@@ -3013,7 +3318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3023,358 +3328,356 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>139223</v>
+        <v>153079</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37377-vint-klyucha-zaghiganiya-dlya-lada-kalina-granta-priora</t>
+          <t>https://motorring.ru/product/8472-indikator-zvukovoy-povtoritely-dlya-avtomobiley-vaz</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Винт ключа зажигания для Лада Калина, Гранта, Гранта FL с 2023 г.в., Приора, Датсун</t>
+          <t>Индикатор звуковой (повторитель) для автомобилей ВАЗ</t>
         </is>
       </c>
       <c r="D1" t="n">
-        <v>19</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>145360</v>
+        <v>213732</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37393-ghalo-vykidnogo-klyucha-lezvie-1118-uaz-lada-kalina-granta</t>
+          <t>https://motorring.ru/product/37782-indikator-napryagheniya-3-dioda</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Жало выкидного ключа (лезвие 1118) для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Датсун, УАЗ</t>
+          <t>Светодиодный индикатор напряжения ИНА-3 в прикуриватель</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>189</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>156771</v>
+        <v>163973</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16072</t>
+          <t>https://motorring.ru/product/9752-mikroshema-dlya-vosstanovleniya-kombinaciy-priborov-ms-1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Кнопки для брелка Норма для Лада Приора, Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в.</t>
+          <t>Микросхема для восстановления комбинаций приборов МС-1</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>149</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>145363</v>
+        <v>117337</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37398-zhalo-klyucha-zaghiganiya-lezvie-me73-reno-logan2</t>
+          <t>https://motorring.ru/product/22615-avariynoe-zaghiganie-az-1-vaz-2104-2107-2108-21099</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Жало ключа зажигания (лезвие МЕ73) для Рено Логан 2</t>
+          <t>Аварийное зажигание АЗ-1 для ВАЗ 2108-21099, 2110-2112, 2113-2115, Таврия, Ока</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>169</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>202553</v>
+        <v>163903</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18474-razyem-koncevika-dvernogo-vyklyuchatelya-lada-kalina-granta</t>
+          <t>https://motorring.ru/product/37876-mgnovennaya-diagnostika-md-1-dlya-vaz-2108-2109-21099-2110</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Разъем концевика дверного выключателя для Лада Калина 2, Гранта, Веста, Датсун</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>199</v>
-      </c>
+          <t>Мгновенная диагностика МД-1 для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Ока, ЗАЗ Таврия</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>202566</v>
+        <v>224676</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/26522-razyem-knopki-steklopodyemnika-lada-priora</t>
+          <t>https://motorring.ru/product/8480-cifrovoy-volytmetr-vrezaemyy</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Разъем кнопки стеклоподъемника для Лада Приора</t>
+          <t>Цифровой вольтметр врезаемый с красной подсветкой</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>169</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>156732</v>
+        <v>203954</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16076-obuchayuschiy-klyuch-zagotovka-lada-priora-kalina-kalina</t>
+          <t>https://motorring.ru/product/37883-rele-povorotnikov-dlya-svetodiodnyh-lamp-emi-dlya-vaz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Обучающий ключ-заготовка с красной меткой для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Реле поворотников для светодиодных ламп ЭМИ для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>189</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>156735</v>
+        <v>223717</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16077-rabochiy-klyuch-zamka-zaghiganiya-lada-priora-kalina-kalina</t>
+          <t>https://motorring.ru/product/13347-ustanovochnyy-komplekt-shtat-115-lada-niva-4h4-inghektor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Рабочий ключ-заготовка замка зажигания для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Установочный комплект ШТАТ 115 для инжекторных Лада 4х4 (Нива)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>189</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>202565</v>
+        <v>224678</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/26591-kolodka-prikurivatelyu-vaz-2110-2112-2113-2115-lada-priora</t>
+          <t>https://motorring.ru/product/37783-cifrovoy-indikator-bort-seti-prikurivately-malyy-3-30v</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Колодка к прикуривателю для ВАЗ 2110-2112, 2113-2115, Лада Приора, Калина, Гранта, Шевроле Нива</t>
+          <t>Цифровой индикатор бортовой сети ИН Малый 3-30V в прикуриватель</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>169</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>145354</v>
+        <v>219137</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/36694-ghalo-vykidnogo-klyucha-stile-audi-lada-priora-kalina</t>
+          <t>https://motorring.ru/product/37894-termometr-zabortnoy-temperatury-batareykah</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Жало выкидного ключа в стиле Ауди и Фольксваген под замок старого образца для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Термометр забортной температуры на батарейках</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>190</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>180984</v>
+        <v>153073</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/28464-remkomplekt-golovki-bloka-21120-klapana-obratnogo-sliva</t>
+          <t>https://motorring.ru/product/9743-imitator-datchika-skorosti</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ремкомплект головки блока 21120 клапана обратного слива масла (клапан, пружина, шарик) для ВАЗ 2110-2112</t>
+          <t>Имитатор датчика скорости для Лада и иномарок</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>269</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>145361</v>
+        <v>224677</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37396-zhalo-klyucha-zaghiganiya-lezvie-hu-136-nissan-reno</t>
+          <t>https://motorring.ru/product/37791-cifrovoy-indikator-bortovoy-seti-bolyshoy-3-30v</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Жало ключа зажигания (лезвие HU-136) для Рено, Ниссан</t>
+          <t>Цифровой индикатор бортовой сети ИН Большой 3-30V в прикуриватель</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>229</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>145359</v>
+        <v>203952</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37401-ghalo-pod-klyuch-zaghiganiya-bez-knopok-lezvie-va2-dlya</t>
+          <t>https://motorring.ru/product/8468-rele-dvornikov-reguliruemoy-pauzoy-dlya-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Жало под ключ зажигания без кнопок (лезвие VA2) для Лада Веста, Икс Рей</t>
+          <t>Реле дворников с регулируемой паузой для ВАЗ 2108-21099 с новым блоком, 2113-2115, Лада Приора, Калина, Гранта</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>390</v>
+        <v>649</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>160611</v>
+        <v>132865</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11232-kronshteyn-adsorbera-21214-lada-niva-4h4</t>
+          <t>https://motorring.ru/product/30351-antennyy-usilitely-orion-vympel-a-10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Кронштейн адсорбера 21214 для Лада 4х4 (Нива) 21214</t>
+          <t>Антенный усилитель Орион Вымпел А-10</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>390</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>145356</v>
+        <v>223730</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37388-zhalo-vykidnogo-klyucha-zaghiganiya-lezvie-va2-vesta</t>
+          <t>https://motorring.ru/product/8469-rele-avtosveta-nezabudka2-avtomobili-vaz</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Жало выкидного ключа зажигания (лезвие VA2) для Лада Веста, Икс Рей</t>
+          <t>Реле автосвета Незабудка 2М для автомобилей ВАЗ</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>290</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>202562</v>
+        <v>224053</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/26581-kolodka-knopke-steklopodyemnika</t>
+          <t>https://motorring.ru/product/34917-filytr-pitaniya-orion-dlya-avtomagnitoly-vympel-301</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Колодка к кнопке стеклоподъемника</t>
+          <t>Фильтр питания Орион для автомагнитолы Вымпел 301</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>169</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>160418</v>
+        <v>203205</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16073-korpus-brelka-norma-lada-priora-kalina-granta</t>
+          <t>https://motorring.ru/product/8476-regulyator-obogreva-sideniy-avtomatom-ros-dlya-vaz</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Корпус брелока Норма с пластиковыми кнопками для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Датсун</t>
+          <t>Регулятор обогрева сидений с автоматом РОС для Лада, Шевроле Нива</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>290</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>139844</v>
+        <v>203958</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18884-vtulka-stabilizatora-lada-vesta</t>
+          <t>https://motorring.ru/product/18510-rele-miganiya-dopolnitelynogo-stop-signala</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Втулка стабилизатора для Лада Веста</t>
+          <t>Реле мигания дополнительного LED стоп-сигнала 5 режимов</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>269</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>160404</v>
+        <v>164036</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37537-korpus-klyucha-zaghiganiya-bez-knopok-dlya-lada-vesta</t>
+          <t>https://motorring.ru/product/37889-rele-strob-kontroller-odnokanalynyy</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Корпус ключа зажигания без кнопок для Лада Веста, Икс Рей</t>
+          <t>Реле Строб-контроллер одноканальный</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>349</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>202547</v>
+        <v>203946</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/26556-kolodka-blok-fare-lada-priora</t>
+          <t>https://motorring.ru/product/25437-rele-vremeni-avtomobilynyh-signalizaciy</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Колодка к блок-фаре Лада Приора</t>
+          <t>Реле времени РВ автомобильных сигнализаций</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3383,736 +3686,734 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>202556</v>
+        <v>132860</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18648-razyem-elektrozamka-bagaghnika-lada-granta-vesta</t>
+          <t>https://motorring.ru/product/9728-antenna-orion-a-25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Разъем электрозамка багажника для Лада Гранта, Веста</t>
+          <t>Антенна Орион Вымпел А-25</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>629</v>
+        <v>690</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>139841</v>
+        <v>153080</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3956-vtulki-stoyki-stabilizatora-nighnie-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/18487-indikator-napryagheniya-in-12-lada-priora-kalina-kalina</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Втулки стойки стабилизатора нижние для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора, Ока</t>
+          <t>Индикатор напряжения ИН-12 с красной подсветкой для Лада Приора, Калина 2, Гранта, Датсун</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>590</v>
+        <v>629</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>139840</v>
+        <v>117308</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16120</t>
+          <t>https://motorring.ru/product/6678-usb-zaryadnik-shtat-vmesto-zaglushki-knopki-vaz-2110-2112</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Втулки стойки стабилизатора верхние ID 16мм для ВАЗ 2108-21099, 2113-2115, Лада Ока</t>
+          <t>USB-зарядник Штат 2.0 вместо заглушки кнопки для ВАЗ 2110-2112, 2113-2115, Лада Калина, Шевроле Нива</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>390</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>160400</v>
+        <v>117313</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37542-analogovyy-korpus-klyucha-zaghiganiya-bez-knopok-largus</t>
+          <t>https://motorring.ru/product/6679-usb-zaryadnik-shtat-vmesto-zaglushki-knopki-lada-priora</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Аналоговый корпус ключа зажигания без кнопок для Лада Ларгус</t>
+          <t>USB-зарядник Штат 2.0 вместо заглушки кнопки для Лада Приора, Калина 2, Гранта, Гранта FL</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>269</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>156100</v>
+        <v>117307</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37442-vykidnoy-klyuch-zaghiganiya-ladyey-dlya-vaz-2101-2107-niva</t>
+          <t>https://motorring.ru/product/25422-usb-zaryadnoe-ustroystvo-slota-prikurivatelya-avtomobilya</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Выкидной ключ зажигания без чипа в корпусе с Ладьей для ВАЗ 2101-2107, Лада 4х4, Нива Легенд</t>
+          <t>USB зарядное устройство на 2 слота от прикуривателя автомобиля</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>390</v>
+        <v>749</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>142170</v>
+        <v>131502</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/19214-datchik-ukazatelya-urovnya-topliva-dut-shevrole-niva</t>
+          <t>https://motorring.ru/product/37794-cifrovoy-volytmetr-korpuse-vrezaemyy-diagonalyyu</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Датчик указателя уровня топлива ДУТ- КЗ для Шевроле Нива</t>
+          <t>Цифровой вольтметр в корпусе врезаемый диагональю 1,5 см</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>449</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>139851</v>
+        <v>224674</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16135-vtulki-shtangi-stabilizatora-centralynye-ss20-lada-niva-4h4</t>
+          <t>https://motorring.ru/product/37795-cifrovoy-volytmetr-ampermetr</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Втулки штанги стабилизатора центральные SS20 для Лада 4х4 (Нива) до 2016 г.в.</t>
+          <t>Цифровой вольтметр амперметр</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1190</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>145362</v>
+        <v>158251</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37402-zhalo-klyucha-zaghiganiya-lezvie-dac4d-largus</t>
+          <t>https://motorring.ru/product/12227-kommutator-shtat-dlya-vaz-2108-21099-2110</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Жало ключа зажигания (лезвие DAC4D) для Лада Ларгус</t>
+          <t>Коммутатор ШТАТ для ВАЗ 2108-21099, 2110</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>469</v>
+        <v>590</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>201660</v>
+        <v>160143</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13480-prostavki-domiki-pod-zadniy-amortizator-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/8470-kontroller-otkrytiya-dverey-kod-dlya-avtomobiley-vaz</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Проставки (домики) под задние амортизаторы для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Приора</t>
+          <t>Контроллер открытия дверей КОД для ВАЗ</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>429</v>
+        <v>590</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>139839</v>
+        <v>117314</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16118-vtulki-stoyki-stabilizatora-verhnie-20mm-lada-priora-kalina</t>
+          <t>https://motorring.ru/product/7044-zaryadnoe-ustroystvo-usb-2slota-lada-priora-granta-kalina2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Втулки стойки стабилизатора верхние FR ID 20мм Лада Приора, Калина</t>
+          <t>Зарядное устройство USB 2 слота для Лада Приора, Гранта, Гранта FL, Калина 2</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>390</v>
+        <v>749</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>224101</v>
+        <v>117319</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/17402-filytr-toplivnyy-vaz-2101-2107-2108-21099-2110-2112</t>
+          <t>https://motorring.ru/product/7103-usb-zaryadnoe-2slota-vaz-2108-21099-2113-2115-kalina-niva</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Фильтр топливный Салют-Фильтр для ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада 4х4, Шевроле Нива</t>
+          <t xml:space="preserve">USB зарядное на 2 слота для ВАЗ 2108-21099, 2110-2112 с европанелью, 2113-2115, Лада Калина, Нива 4х4, Шевроле Нива </t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>490</v>
+        <v>749</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>139848</v>
+        <v>213843</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16127</t>
+          <t>https://motorring.ru/product/9813-sensornyy-vyklyuchately-shtat-ts-t-fiksaciey</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Втулки штанги стабилизатора для ВАЗ 2101-2107</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>590</v>
-      </c>
+          <t>Сенсорный выключатель Штат TS-T с фиксацией</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>139849</v>
+        <v>158253</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16132-vtulki-shtangi-stabilizatora-koncevye-dlya-lada-4h4-niva</t>
+          <t>https://motorring.ru/product/37797</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Втулки штанги стабилизатора концевые для Лада 4х4 (Нива) до 2016 г.в.</t>
+          <t>Коммутатор электронный ШТАТ Remix для ВАЗ 2108-21099, 2110</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>590</v>
+        <v>690</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>202552</v>
+        <v>117318</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/26573-kolodka-diagnostiki-16-kontaktnaya-evro</t>
+          <t>https://motorring.ru/product/39808-usb-zaryadnoe-2slota-vaz-2110-2112</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Колодка диагностики 16-контактная (Евро 3,4) OBD3</t>
+          <t>USB зарядное на 2 слота вместо заглушки кнопки для ВАЗ 2110, 2111, 2112</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>329</v>
+        <v>749</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>224106</v>
+        <v>117317</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38071-toplivnyy-filytr-big-dlya-1-6-litrovyh-vaz-2110-2115</t>
+          <t>https://motorring.ru/product/13881-usb-zaryadnoe-slota-vmesto-zaglushki-paneli-priborov-vaz</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Топливный фильтр BIG для 1.6-литровых ВАЗ 2110-2112, 2113-2115, Калина, Калина 2, Гранта, Гранта FL, Приора, Шевроле Нива, Датсун</t>
+          <t>USB зарядное на 2 слота вместо заглушки панели приборов для ВАЗ 2108-21099 с высокой панелью, ВАЗ 2113-2115, Лада 4х4 (Нива) 21213, 21214, 2131</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>779</v>
+        <v>749</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>194022</v>
+        <v>117316</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12862-modernizirovannyy-povodok-nakonechnika-trosa-privoda</t>
+          <t>https://motorring.ru/product/7208-usb-zaryadnoe-slota-vmesto-zaglushki-paneli-priborov-vaz</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Модернизированный поводок наконечника троса привода сцепления АГАТ для ВАЗ 2110-2112, Лада Приора, Приора 2, Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
+          <t>USB зарядное на 2 слота вместо заглушки панели приборов ВАЗ 2106, 2107</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>590</v>
+        <v>749</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>156769</v>
+        <v>117309</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11285-knopka-steklopodyemnika-lada-vesta</t>
+          <t>https://motorring.ru/product/176-usb-zaryadnoe-slota-vmesto-zaglushki-paneli-priborov-gazely</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Кнопка стеклоподъемника для Лада Веста</t>
+          <t>USB зарядное устройство АПЭЛ на 2 слота вместо заглушки панели приборов для автомобилей ГАЗель Некст, Бизнес</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>290</v>
+        <v>749</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>139801</v>
+        <v>158250</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3949-podushki-zadnego-amortizatora-bubliki-zheltiye-vaz-2101-2107</t>
+          <t>https://motorring.ru/product/37798-kommutator-elektronnyy-shtat-plazma-dlya-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Подушки заднего амортизатора (бублики) для ВАЗ 2101-2107, 2108-2115, 2110-2112, Лада Ока, Калина, Приора, Гранта, Нива Легенд/Тревел, Шевроле Нива, Датсун</t>
+          <t>Коммутатор электронный ШТАТ Плазма для ВАЗ 2108-21099, 2110</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>590</v>
+        <v>690</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>225372</v>
+        <v>158249</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6741-chip-klyuch-immobilayzera-transponder-obuchayuschiy-dlya</t>
+          <t>https://motorring.ru/product/37799-kommutator-elektronnyy-dlya-lada-oka</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Чип-ключ иммобилайзера (транспондер) обучающий с красной меткой для Лада Калина, Приора, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в.</t>
+          <t>Коммутатор электронный для Лада Ока</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>590</v>
+        <v>690</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>225373</v>
+        <v>224680</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6742-chip-klyuch-immobilayzera-transponder-rabochiy-dlya-lada</t>
+          <t>https://motorring.ru/product/37871-kolesnyy-cifrovoy-manometr-mn-04</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Чип-ключ иммобилайзера (транспондер) рабочий с синей меткой для Лада Калина, Приора, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в.</t>
+          <t>Колесный цифровой манометр Вымпел МН-04 10 атмосфер</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>590</v>
+        <v>790</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>139488</v>
+        <v>203206</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25616-originalynyy-sinteponovyy-salonnyy-filytr-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/8477-regulyator-obogreva-stekla-avtomatom-rost-dlya-vaz</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Оригинальный синтепоновый салонный фильтр для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Регулятор обогрева стекла с автоматом РОСт для ВАЗ</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>189</v>
+        <v>719</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>151757</v>
+        <v>203204</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/4339-zaschita-opory-stoyki-politeh-avto-lada-kalina-kalina2-granta-dat</t>
+          <t>https://motorring.ru/product/9769-regulyator-obogreva-sideniy-ros-2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Защита опоры стойки Политех-Авто для Лада Калина, Калина 2, Гранта, Datsun</t>
+          <t>Регулятор обогрева сидений РОС-2 для ВАЗ</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>649</v>
+        <v>719</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>139847</v>
+        <v>139489</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3953</t>
+          <t>https://motorring.ru/product/34607-volytmetr-siney-podsvetkoy-prikurivately-funkciey</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Втулки штанги стабилизатора 17мм для ВАЗ 2110-2112</t>
+          <t>Вольтметр с синей подсветкой в прикуриватель 4 в 1 с функцией зарядного устройства USB</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>590</v>
+        <v>629</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>225446</v>
+        <v>131563</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22785-sharniry-rastyaghki-peredney-podveski-romashki-vaz</t>
+          <t>https://motorring.ru/product/9720-adapter-elm-327-bluetooth-dlya-diagnostiki-avtomobilya</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Шарниры растяжки передней подвески ЭластоМаг (ромашки) для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+          <t>Адаптер ELM 327 BLUETOOTH v2.1 для диагностики автомобиля (Китай)</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>819</v>
+        <v>690</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>139846</v>
+        <v>201289</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3957-vtulki-shtangi-stabilizatora-dlya-vaz-2108-21099-2113-2115</t>
+          <t>https://motorring.ru/product/10968-komplekt-podklyucheniya-protivotumannyh-far-vaz-2108-2109-21099</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Втулки штанги стабилизатора 16мм для ВАЗ 2108-21099, 2113-2115, Лада Ока</t>
+          <t>Проводка для подключения противотуманных фар (ПТФ) для ВАЗ 2108-21099</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>590</v>
+        <v>829</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>160401</v>
+        <v>201288</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37541-analogovyy-korpus-klyucha-zaghiganiya-lada-largus</t>
+          <t>https://motorring.ru/product/3482-komplekt-podklyucheniya-protivotumannyh-far-vaz-2105-2107</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Аналоговый корпус ключа зажигания с резиновыми кнопками для Лада Ларгус</t>
+          <t>Проводка ML подключения противотуманных фар (ПТФ) для ВАЗ 2101-2107, Лада 4х4 (Нива) до 2019 г.в.</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>769</v>
+        <v>829</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>156736</v>
+        <v>201287</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16079-rabochiy-klyuch-zagotovka-chipom-lada-priora-kalina-kalina</t>
+          <t>https://motorring.ru/product/37860-provodka-dlya-podklyucheniya-ptf-2106-lada-niva-4x4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Рабочий ключ-заготовка с чипом для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Проводка для подключения противотуманных фар (ПТФ) для ВАЗ 2106, Лада 4х4 (Нива)</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>629</v>
+        <v>769</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>156733</v>
+        <v>201292</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16078-obuchayuschiy-klyuch-zagotovka-chipom-dlya-lada-priora</t>
+          <t>https://motorring.ru/product/4607-komplekt-podklyucheniya-protivotumannyh-far-vaz-2113-2114-2115</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Обучающий ключ-заготовка с чипом для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Проводка подключения противотуманных фар (ПТФ) ML Auto Light Technology для ВАЗ 2113, 2114, 2115</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>629</v>
+        <v>829</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>139852</v>
+        <v>132857</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16136-vtulki-shtangi-stabilizatora-centralynye-shevrole-niva</t>
+          <t>https://motorring.ru/product/25461-antenna-glonass-gps</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Втулки штанги стабилизатора центральные 22 мм для Шевроле Нива, Лада Нива Тревел</t>
+          <t>Антенна ГЛОНАСС/GPS</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>690</v>
+        <v>829</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>213142</v>
+        <v>201291</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3962</t>
+          <t>https://motorring.ru/product/30629-komplekt-podklyucheniya-ptf-vaz-evropanel-2110-2111-2112</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Сайлентблоки заднего амортизатора желтые для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+          <t>Проводка для подключения противотуманных фар (ПТФ) под евро-панель для ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>790</v>
+        <v>890</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>202546</v>
+        <v>164035</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10237-razyem-kombinacii-priborov-lada-priora-kalina-kalina</t>
+          <t>https://motorring.ru/product/37890-rele-strob-kontroller-2-h-kanalynyy-reghimov</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Разъем комбинации приборов с фиксатором для Лада Приора, Калина, Калина 2</t>
+          <t>Строб-контроллер (реле) 2-канальный с 5 режимами мигания</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>790</v>
+        <v>929</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>181853</v>
+        <v>164005</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3958-opory-rulevoy-reyki-starogo-obrazca-gheltye-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/8471-moduly-udlinitely-upravleniya-signalami-povorotov-dlya-vaz</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Опоры рулевой рейки старого образца желтые для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+          <t>Модуль (удлинитель) управления сигналами поворотов для Лада</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>769</v>
+        <v>969</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>156161</v>
+        <v>139231</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37430-vykidnoy-klyuch-zamka-zaghiganiya-china-bez-platy-lada-kalina</t>
+          <t>https://motorring.ru/product/9793-vihrevoe-ustroystvo-optimizacii-sgoraniya-topliva-ekotop</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Выкидной ключ замка зажигания China без платы для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Вихревое устройство оптимизации сгорания топлива ЭКОТОП для карбюраторных ВАЗ 2101-2107, 2108-21099, 2110-2112, Лада Нива 4х4</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>729</v>
+        <v>990</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>156138</v>
+        <v>164032</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5009-klyuch-zamka-zaghiganiya-vykidnoy-bez-platy-vw-kalina</t>
+          <t>https://motorring.ru/product/8473-moduly-zaschity-lamp-blighnego-sveta-dlya-avtomobiley-vaz</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ключ замка зажигания выкидной без платы в стиле Фольксваген на 3 кнопки для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Модули защиты ламп ближнего света с цоколем H7 для автомобилей Лада</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>729</v>
+        <v>990</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>213150</v>
+        <v>136661</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3965</t>
+          <t>https://motorring.ru/product/9731-bezklyuchevoy-obhodchik-immobilayzera-shtat-dlya-lada</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Сайлентблоки нижнего рычага (2шт желт) для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
+          <t>Безключевой обходчик иммобилайзера Штат для Лада Гранта, Калина 2, Приора 2, Datsun</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>779</v>
+        <v>969</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>156160</v>
+        <v>223070</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37425-vykidnoy-klyuch-zaghiganiya-bez-platy-stile-audi-lyuks-granta</t>
+          <t>https://motorring.ru/product/9770-universalynoe-rele-zaschity-lamp-dlya-avtomobiley-vaz</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Выкидной ключ зажигания без платы в стиле Ауди Люкс под замок старого образца для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в.., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Универсальное реле защиты ламп для автомобилей ВАЗ</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>769</v>
+        <v>949</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>213139</v>
+        <v>201293</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3960-saylentbloki-verhnego-rychaga-2101-2107</t>
+          <t>https://motorring.ru/product/10904-provodka-dlya-podklyucheniya-ptf-lada-vesta-xray</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Сайлентблоки верхнего рычага для ВАЗ 2101-2107</t>
+          <t>Проводка для подключения противотуманных фар (ПТФ) с универсальной кнопкой для Лада Веста, Иксрей</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>829</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>153102</v>
+        <v>165355</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/21508-originalynyy-kabely-usb-slot-bardachok-lada-kalina</t>
+          <t>https://motorring.ru/product/30634-strelochnaya-nagruzochnaya-vilka-nv-05</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Оригинальный кабель USB на 1 слот в бардачок Лада Калина 2, Гранта</t>
+          <t>Нагрузочная вилка НВ-05 цифровая для проверки АКБ и генератора</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1190</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>203198</v>
+        <v>136896</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3011-regulyator-napryagheniya-k161-katek-dlya-vaz-21101-vaz</t>
+          <t>https://motorring.ru/product/34925-rele-buv-dlya-isklyucheniya-zapaha-omyvayki</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Регулятор напряжения К161 КАТЭК под двигатель 1.6л для ВАЗ 2110</t>
+          <t>Реле блока управления вентилятором (БУВ) для предотвращения попадания запаха стеклоомывающей жидкости в салон</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>790</v>
+        <v>969</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>218447</v>
+        <v>219100</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22792-stoyki-stabilizatora-usilennye-lada-kalina-priora</t>
+          <t>https://motorring.ru/product/15776-tahometr-multitronics-dm10-dlya-karbyuratornyh-dvigateley</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Стойки стабилизатора ЭластоМаг 20мм усиленные для Лада Калина, Приора</t>
+          <t>Тахометр Multitronics DM10 для карбюраторных двигателей</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>949</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>218446</v>
+        <v>164010</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22792-stoyki-stabilizatora-usilennye-lada-kalina-priora</t>
+          <t>https://motorring.ru/product/3494-moduly-avtomaticheskogo-upravleniya-svetom-maus-2-dlya-vaz</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Стойки стабилизатора ЭластоМаг 20мм усиленные для Лада Калина, Приора</t>
+          <t>Модуль автоматического управления светом МАУС-2 15А для ВАЗ 2107, 2110-2112, 2113-2115, Лада 4х4 (Нива), Калина, Приора, Шевроле Нива без АБС</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -4121,106 +4422,106 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>218462</v>
+        <v>203955</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22792-stoyki-stabilizatora-usilennye-lada-kalina-priora</t>
+          <t>https://motorring.ru/product/8479-rele-dho-30-dalyniy-svet-kak-dho</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Стойки стабилизатора ЭластоМаг 20мм усиленные для Лада Калина, Приора</t>
+          <t>Реле ДХО-30 включения дальнего света как ходовых огней для Лада Калина, Калина 2, Гранта, Приора, Ларгус</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>949</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>218463</v>
+        <v>203956</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22792-stoyki-stabilizatora-usilennye-lada-kalina-priora</t>
+          <t>https://motorring.ru/product/9771-rele-dho-30b-vklyucheniya-dalynego-sveta-kak-hodovye</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Стойки стабилизатора ЭластоМаг 20мм усиленные для Лада Калина, Приора</t>
+          <t>Реле ДХО-30Б включения дальнего света как ходовых огней для ВАЗ 2107, 2108-2109, 2110-2112, 2113-2115</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>949</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>139823</v>
+        <v>201297</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3954-vtulki-reaktivnoy-tyagi-bolyshie-vaz-2101-2107-lada-4h4</t>
+          <t>https://motorring.ru/product/4248-provodka-dlya-podklyucheniya-ptf-lada-priora</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Втулки реактивной тяги большие для ВАЗ 2101-2107, Лада 4х4, Нива Легенд, Нива Тревел, Надежда, Шевроле Нива</t>
+          <t>Проводка подключения противотуманных фар (ПТФ) для Лада Приора</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>890</v>
+        <v>990</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>203509</v>
+        <v>201290</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3048-rezistor-elektronnogo-ventilyatora-otopitelya-pod</t>
+          <t>https://motorring.ru/product/4422-komplekt-podklyucheniya-protivotumannyh-far-vaz-2110-2111-2112</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Резистор электронного вентилятора отопителя под кондиционер Halla для Лада Приора</t>
+          <t>Проводка для подключения противотуманных фар (ПТФ) для ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>690</v>
+        <v>890</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>164632</v>
+        <v>201295</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37842-motoreduktor-blokirovki-zamka-dveri-4-provodnoy-priora</t>
+          <t>https://motorring.ru/product/4420-komplekt-podklyucheniya-protivotumannyh-far-lada-kalina</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Моторедуктор блокировки замка двери 4-проводной (водительский) для Лада Приора</t>
+          <t>Проводка для подключения противотуманных фар (ПТФ) ML Auto Light Technology для Лада Калина</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>790</v>
+        <v>990</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>213162</v>
+        <v>201296</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3967-saylentbloki-rastyaghki-dlya-vaz-2108-21099-2110-2112</t>
+          <t>https://motorring.ru/product/2547-provodka-dlya-podklyucheniya-ptf-kalina2-granta-datsun</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Сайлентблоки растяжки для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+          <t>Комплект проводки подключения ПТФ ML для Лада Калина 2, Гранта, Датсун</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -4229,394 +4530,394 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>203196</v>
+        <v>201298</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3012-regulyator-napryagheniya-katek-dlya-lada-kalina</t>
+          <t>https://motorring.ru/product/13430-provodka-dlya-podklyucheniya-ptf-chevrolet-niva-restayling</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Регулятор напряжения КАТЭК для Лада Калина</t>
+          <t>Проводка ML подключения противотуманных фар (ПТФ) для Шевроле Нива с 2009 года</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>929</v>
+        <v>829</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>213140</v>
+        <v>201299</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3961-saylentbloki-verhnego-rychaga-lada-4h4-shevrole-niva</t>
+          <t>https://motorring.ru/product/24877-provodka-dlya-podklyucheniya-ptf-granta-fl</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Сайлентблоки нижнего рычага для ВАЗ 2101-2107 и верхнего для Лада Надежда, 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Проводка ML Auto Light Technology для подключения ПТФ (кнопка с белой подсветкой) для Лада Гранта FL, 4х4 с 2019 г.в., Нива Легенд</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>990</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>213151</v>
+        <v>153081</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3961-saylentbloki-verhnego-rychaga-lada-4h4-shevrole-niva</t>
+          <t>https://motorring.ru/product/24137-indikator-napryagheniya-bortovoy-seti-dlya-folyksvagen-polo</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Сайлентблоки нижнего рычага для ВАЗ 2101-2107 и верхнего для Лада Надежда, 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Индикатор напряжения бортовой сети для Фольксваген Поло</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>990</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>213160</v>
+        <v>203207</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3966-saylentbloki-perednego-sharnira-rastyaghki-gheltye-2108-15-granta</t>
+          <t>https://motorring.ru/product/9776-regulyator-plavnogo-zapuska-ventilyatora-radiatora-150vt</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Сайлентблоки переднего шарнира (растяжки) желтые для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+          <t>Регулятор плавного запуска вентилятора радиатора 150Вт (РПВ-1)</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>990</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>156431</v>
+        <v>131562</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15122-klyuch-obuchayuschiy-lada-granta-fl</t>
+          <t>https://motorring.ru/product/37756-adapter-elm-327-bluetooth-15-mini-dlya-diagnostiki-avtomobilya</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ключ обучающий под замок Рено для Лада Гранта FL 2018-2023 г.в.</t>
+          <t>Адаптер ELM 327 BLUETOOTH MINI v1.5 для диагностики автомобиля (Китай)</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1390</v>
+        <v>790</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>213152</v>
+        <v>138717</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10585-saylentbloki-nighnego-rychaga-lada-niva-21214-urban</t>
+          <t>https://motorring.ru/product/16378-bortovoy-kompyuter-orion-dlya-karbyuratornyh-dvigateley</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Сайлентблоки нижнего рычага для Лада 4х4 с 2009 г.в, Нива Легенд, Нива Тревел, Шевроле Нива с 2009 г.в.</t>
+          <t>Бортовой компьютер Орион БК-03 универсальный</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>969</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>213143</v>
+        <v>203208</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3963</t>
+          <t>https://motorring.ru/product/9777-rele-plavnogo-zapuska-ventilyatora-radiatora-300vt-rpv-2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сайлентблоки заднего рычага желтые для ВАЗ 2108-21099, 2113-2115 </t>
+          <t>Реле плавного запуска вентилятора радиатора 300Вт (РПВ-2)</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1090</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>213178</v>
+        <v>153082</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16148-saylentbloki-zadnego-rychaga-vaz-2110-2112-lada-priora</t>
+          <t>https://motorring.ru/product/9745-indikator-temperatury-dvigatelya-dlya-folyksvagen-polo</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Сайлентблоки заднего рычага для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+          <t>Индикатор температуры двигателя для Фольксваген Поло</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1190</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>160690</v>
+        <v>226388</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2388-kronshteyny-krepleniya-rastyaghki-kraby-sport-politeh-avto</t>
+          <t>https://motorring.ru/product/5903-shtat-adapter-usb-k-line</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Кронштейны крепления растяжки (крабы) Спорт Политех-Авто для ВАЗ 2108-21099, 2113-2115</t>
+          <t xml:space="preserve">ШТАТ Адаптер USB-K-line </t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1390</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>139822</v>
+        <v>138682</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3955-vtulki-reaktivnoy-tyagi-malye-vaz-2101-2107-lada-4h4</t>
+          <t>https://motorring.ru/product/16379-bortovoy-kompyyuter-orion-dlya-karbyuratornyh-dvigateley</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Втулки реактивной тяги малые для ВАЗ 2101-2107, Лада 4х4, Нива Легенд, Нива Тревел, Надежда, Шевроле Нива</t>
+          <t>Бортовой компьютер Орион БК-06 универсальный</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1190</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>139850</v>
+        <v>171719</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3951</t>
+          <t>https://motorring.ru/product/37888-nasos-dlya-perekachki-ghidkosti-vympel-nm-12-52-mm</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Втулки штанги стабилизатора 22 мм концевые для Шевроле Нива, Лада Нива Тревел</t>
+          <t>Насос для перекачки жидкости Вымпел НС-12, 24 В 52 мм</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1190</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>160399</v>
+        <v>131561</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37532-korpus-klyucha-zaghiganiya-plastikovie-knopki-datsun</t>
+          <t>https://motorring.ru/product/9721-adapter-elm-327-bluetooth-dlya-diagnostiki-avtomobilya</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Корпус ключа зажигания с пластиковыми кнопками для Датсун</t>
+          <t>Адаптер Орион ELM 327 BLUETOOTH для диагностики автомобиля</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1390</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>213153</v>
+        <v>131564</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16153</t>
+          <t>https://motorring.ru/product/9722-adapter-elm-327-bluetooth-mini-dlya-diagnostiki-avtomobilya</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Сайлентблоки нижнего рычага для Лада Надежда, 4х4 (Нива), Шевроле Нива до 2009 г.в.</t>
+          <t>Адаптер Орион ELM 327 BLUETOOTH Mini ARM для диагностики автомобиля</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1290</v>
+        <v>890</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>156142</v>
+        <v>131566</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37488-vykidnoy-klyuch-zamka-zaghiganiya-stile-audi-bez-platy-largus</t>
+          <t>https://motorring.ru/product/9723-adapter-elm-327-usb-dlya-diagnostiki-avtomobilya</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Выкидной ключ замка зажигания в стиле Ауди без платы для Лада Ларгус</t>
+          <t>Адаптер Орион ELM 327 USB для диагностики автомобиля</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1390</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>156143</v>
+        <v>218498</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37489-vykidnoy-klyuch-zamka-zaghiganiya-stile-vw-bez-platy-largus</t>
+          <t>https://motorring.ru/product/9781-stroboskop-orion-st-01-dlya-karbyuratornyh-inghektornyh</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Выкидной ключ замка зажигания в стиле Фольксваген без платы для Лада Ларгус</t>
+          <t>Стробоскоп Орион СТ-01 для карбюраторных и инжекторных двигателей</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1190</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>156153</v>
+        <v>138684</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12863-dopolnitelynyy-klyuch-bez-knopok-lada-vesta-iksrey</t>
+          <t>https://motorring.ru/product/9735-bortovoy-kompyyuter-orion-bk-08</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Дополнительный ключ замка зажигания с чипом (без кнопок) для Лада Веста, Икс Рей</t>
+          <t>Бортовой компьютер Орион БК-08 универсальный</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1390</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>136885</v>
+        <v>223736</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11276-blok-predohraniteley-montaghnyy-blok-kostroma-lada-priora</t>
+          <t>https://motorring.ru/product/24175-zaryadnoe-ustroystvo-impulysnoe-orion-pw150m</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Блок предохранителей (монтажный блок) Кострома для Лада Приора</t>
+          <t>Зарядное устройство импульсное Орион PW150M</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1190</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>156141</v>
+        <v>171720</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37488-vykidnoy-klyuch-zamka-zaghiganiya-stile-audi-bez-platy-largus</t>
+          <t>https://motorring.ru/product/37888-nasos-dlya-perekachki-ghidkosti-vympel-nm-12-52-mm</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Выкидной ключ замка зажигания в стиле Ауди без платы для Лада Ларгус</t>
+          <t>Насос для перекачки жидкости Вымпел НС-12, 24 В 52 мм</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1390</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>193939</v>
+        <v>153083</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37660-plata-vykidnogo-klyucha-zaghiganiya-profi-lada-vesta</t>
+          <t>https://motorring.ru/product/8524-indikator-temperatury-dvigatelya-cifrovoy-lada-granta</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Плата выкидного ключа зажигания для Лада Веста, Икс Рей</t>
+          <t>CAN индикатор температуры двигателя цифровой для Лада Гранта, Калина 2, Приора 2, Датсун</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1490</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>193934</v>
+        <v>117311</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37545-plata-vykidnogo-klyucha-zaghiganiya-stile-audi-ekonom-1118</t>
+          <t>https://motorring.ru/product/25421-3-h-kanalynoe-usb-zaryadnoe-ustroystvo-komplekt</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Плата выкидного ключа зажигания в стиле Ауди Эконом для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>3-х канальное USB зарядное устройство (комплект)</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1490</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>193936</v>
+        <v>224679</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37546-plata-vykidnogo-klyucha-zaghiganiya-stile-vw-1118</t>
+          <t>https://motorring.ru/product/26474-cifrovoy-indikator-temperatury-dvigatelya-siniy-funkciey</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Плата выкидного ключа зажигания в стиле Фольксваген для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Цифровой индикатор температуры двигателя синий с функцией диагностики, под CAN шину для Лада Гранта, Калина 2, Приора с 2013 г.в., Икс Рей, Лада Веста</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1490</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>193941</v>
+        <v>219058</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37687-plata-klyucha-zaghiganiya-hitag-pcf-7961-pod-knopki-logan2</t>
+          <t>https://motorring.ru/product/9783-taksometr-ta-2-dlya-avtomobiley-vaz</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Плата ключа зажигания HITAG 3 PCF 7961 под 2 кнопки для Рено Логан 2</t>
+          <t>Таксометр ТА-2</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -4625,448 +4926,448 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>193937</v>
+        <v>138683</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37661-plata-vykidnogo-klyucha-zaghiganiya-audi-ekonom-largus</t>
+          <t>https://motorring.ru/product/9734-bortovoy-kompyyuter-orion-bk-07</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Плата выкидного ключа зажигания в стиле Ауди Эконом для Лада Ларгус</t>
+          <t>Бортовой компьютер Орион БК-07 универсальный</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1690</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>193938</v>
+        <v>194468</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37662-plata-vykidnogo-klyucha-zaghiganiya-audi-largus</t>
+          <t>https://motorring.ru/product/9790-podogrev-tosola-220v-magnum-5kvt-dlya-shevrole-niva-honda</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Плата выкидного ключа зажигания в стиле Ауди для Лада Ларгус</t>
+          <t>Подогрев тосола 220В Магнум №5 1,5кВт для Шевроле/Лада Нива 2123, Honda CRV</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1690</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>193935</v>
+        <v>218482</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37548-plata-vykidnogo-klyucha-zaghiganiya-stile-audi-1118</t>
+          <t>https://motorring.ru/product/9736-strelochnaya-nagruzochnaya-vilka-nv-02</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Плата выкидного ключа зажигания в стиле Ауди для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Нагрузочная вилка НВ-02 аналоговая для проверки АКБ и генератора 100/200А</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1690</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>202080</v>
+        <v>194466</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37695-shtatnyy-brelok-pulyt-centralynogo-zamka-lyuks-rezinovymi</t>
+          <t>https://motorring.ru/product/9792-podogrev-tosola-220v-magnum-5kvt-dlya-lada-granta-kalina</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Штатный брелок (пульт) центрального замка Люкс с резиновыми кнопками для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Датсун</t>
+          <t>Подогрев тосола 220В Магнум №29 1,5кВт для 8-клапанных Лада Гранта, Калина 2</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1690</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>156146</v>
+        <v>201030</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18104-pulyt-klyucha-zaghiganiya-bez-knopok-chipom-renault-hitag</t>
+          <t>https://motorring.ru/product/9759-preobrazovately-napryagheniya-invertornyy-35a</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ключ замка зажигания без кнопок с чипом HITAG 3 PCF 7939 для Рено Дастер</t>
+          <t>Преобразователь напряжения инверторный с 24В на 12В 35А</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1690</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>193942</v>
+        <v>131560</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37688-plata-klyucha-zaghiganiya-hitag-pcf-7961-3knopki-logan2</t>
+          <t>https://motorring.ru/product/9764-adapter-eeprom-po5-dlya-programmatora-po-5</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Плата ключа зажигания HITAG 3 PCF 7961 под 3 кнопки для Рено Логан 2</t>
+          <t>Адаптер EEPROM-ПО5 для программатора ПО-5</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1590</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>156743</v>
+        <v>151264</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9753-chip-klyuch-immobilayzera-aps-4-vaz-2108-2109-21099-2110-2111-211</t>
+          <t>https://motorring.ru/product/9740-zaryadnoe-ustroystvo-orion-265</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Чип-ключ иммобилайзера АПС-4 для инжекторных ВАЗ 2108-21099, 2110-2112</t>
+          <t xml:space="preserve">Зарядное устройство Орион Вымпел-265 (7 ампер) для аккумулятора </t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3790</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>193943</v>
+        <v>138714</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37685-plata-klyucha-zaghiganiya-1118-itelma-dlya-lada-kalina</t>
+          <t>https://motorring.ru/product/5900</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Плата ключа зажигания ИТЭЛМА нового  образца 1118 для Лада Калина, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Приора, Датсун</t>
+          <t>Бортовой компьютер ШТАТ Х1-P вместо заглушки кнопки для Лада Приора</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1990</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>156147</v>
+        <v>138711</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37474-pulyt-klyucha-zaghiganiya-bez-knopok-chipom-renault-hrom</t>
+          <t>https://motorring.ru/product/5928-bortovoy-kompyyuter-shtat-h-1-universal-vmesto-zaglushki</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ключ замка зажигания без кнопок HITAG 3 PCF 7939 с чипом и хром логотипом для Рено Дастер</t>
+          <t>Бортовой компьютер ШТАТ Х1-M Универсал вместо заглушки кнопки для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Шевроле Нива</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1790</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>156139</v>
+        <v>138713</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37434-vykidnoy-klyuch-zaghiganiya-vw-stily-2knopki-lada-granta</t>
+          <t>https://motorring.ru/product/5899-bortovoy-kompyyuter-shtat-x1-lada-granta-kalina-2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Выкидной ключ зажигания с чипом в стиле Фольксваген на 2 кнопки для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Бортовой компьютер ШТАТ Х1-G с зеленой подсветкой вместо заглушки кнопки для Лада Гранта, Калина 2, Приора 2, Датсун</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1790</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>156156</v>
+        <v>138700</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16069-klyuch-zamka-zaghiganiya-vykidnoy-china-dlya-lada-priora</t>
+          <t>https://motorring.ru/product/5901-bortovoy-kompyyuter-shtat-x-33-vmesto-zaglushki-knopki-vaz</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Выкидной ключ замка зажигания China с чипом для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Бортовой компьютер ШТАТ X-33 вместо заглушки кнопки для ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1790</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>156157</v>
+        <v>138712</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37435-klyuch-zamka-zaghiganiya-vykidnoy-vw-3knopki-kalina</t>
+          <t>https://motorring.ru/product/20933-bortovoy-kompyyuter-shtat-h1-g-vmesto-zaglushki-knopki-lada</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Ключ замка зажигания выкидной с чипом в стиле Фольксваген на 3 кнопки для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Бортовой компьютер ШТАТ Х1-G с белой подсветкой вместо заглушки кнопки для Лада 4х4, Нива Легенд, Гранта FL</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1790</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>225893</v>
+        <v>138644</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11199-dempfernyy-shkiv-kolenvala-slon-8kl-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/20933-bortovoy-kompyyuter-shtat-h1-g-vmesto-zaglushki-knopki-lada</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Демпферный шкив коленвала SLON для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта</t>
+          <t>Бортовой компьютер ШТАТ Х1-G с белой подсветкой вместо заглушки кнопки для Лада 4х4, Нива Легенд, Гранта FL</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1890</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>185094</v>
+        <v>138643</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/14800-vykidnoy-kluch-audi-style-lada-priora-kalina-granta-shevrole-dats</t>
+          <t>https://motorring.ru/product/37767-bortovoy-kompyyuter-shtat-mk-2-sensornyy-obd-2-can</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Выкидной ключ зажигания с чипом в стиле Ауди Люкс под замок старого образца для Лада Приора, Калина, Калина 2, Гранта, Гранта FL  до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Бортовой компьютер ШТАТ МК-2 сенсорный OBD-2 CAN универсальный</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1890</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>160683</v>
+        <v>138692</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10307-tretyya-opora-rkp-tipu-2121-dlya-lada-4h4-karbyuratorom</t>
+          <t>https://motorring.ru/product/5923-bortovoy-kompyyuter-shtat-07x-1m-vmesto-zaglushki-knopki</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Третья опора РКП по типу 2121 для карбюраторных Лада 4х4 (Нива)</t>
+          <t>Бортовой компьютер ШТАТ 07X-1М вместо заглушки кнопки для ВАЗ 2105, 2107</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2390</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>160685</v>
+        <v>138664</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10308</t>
+          <t>https://motorring.ru/product/5950-bortovoy-kompyyuter-multitronics-di17g-dlya-avtomobiley-gaz</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Третья опора раздатки 21214М для Лада Нива 4х4 с инжектором</t>
+          <t>Бортовой компьютер Multitronics Di17g (Di15g) для автомобилей ГАЗ, УАЗ</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2390</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>160403</v>
+        <v>164007</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37534-korpus-klyucha-zaghiganiya-rezinovie-knopki-nissan</t>
+          <t>https://motorring.ru/product/25427-moduly-kontrollera-steklopodyemnikov-largus</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Корпус ключа зажигания с резиновыми кнопками для Ниссан</t>
+          <t>Модуль автоматического контроллера стеклоподъемников МАКС-2 для Лада Ларгус, Renault Logan, Sandero, Nissan Almera</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1990</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>156159</v>
+        <v>218499</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37484-vykidnoy-klyuch-zamka-zaghiganiya-s-platoy-analog-xray</t>
+          <t>https://motorring.ru/product/9782-stroboskop-orion-st-02-dlya-karbyuratornyh-inghektornyh</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Выкидной ключ замка зажигания с платой в аналоговом корпусе с Ладьей для Лада Веста, Икс Рей</t>
+          <t>Стробоскоп Орион СТ-02 для карбюраторных и инжекторных двигателей</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1990</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>156140</v>
+        <v>201031</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37490-vykidnoy-klyuch-zamka-zaghiganiya-stile-vw-s-platoy-largus</t>
+          <t>https://motorring.ru/product/9759-preobrazovately-napryagheniya-invertornyy-35a</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Выкидной ключ замка зажигания в стиле Фольксваген с платой для Лада Ларгус</t>
+          <t>Преобразователь напряжения инверторный с 24В на 12В 35А</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2890</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>140008</v>
+        <v>138639</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20695-vykidnoy-klyuch-zaghiganiya-bmv-stily-lada-granta</t>
+          <t>https://motorring.ru/product/37762-bortovoy-kompyyuter-shtat-bk-3-dlya-lada-largus-largus</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Выкидной ключ зажигания с чипом в стиле БМВ под замок Рено для Лада Гранта FL 2018-2023 г.в.</t>
+          <t>Бортовой компьютер ШТАТ БК-3 для Лада Ларгус, Ларгус FL</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2190</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>140009</v>
+        <v>138640</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20696-vykidnoy-klyuch-zaghiganiya-bmv-stily-lada-priora-kalina</t>
+          <t>https://motorring.ru/product/37763-bortovoy-kompyyuter-shtat-bk-7-dlya-lada-largus-largus-fl</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Выкидной ключ зажигания с чипом в стиле БМВ под замок старого образца для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Бортовой компьютер ШТАТ БК-7 под двигатели ВАЗ для Лада Ларгус, Ларгус FL</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2190</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>140007</v>
+        <v>138673</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25615-vykidnoy-klyuch-zaghiganiya-bentli-stily-lada-priora-kalina</t>
+          <t>https://motorring.ru/product/15224-bortovoy-kompyyuter-mulytitroniks-vmesto-zaglushki-knopki</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Выкидной ключ зажигания Бентли стиль с чипом для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Бортовой компьютер Мультитроникс UX 8 вместо заглушки кнопки для ВАЗ 2110-2112, 2113-2115, Калина, Гранта, Приора, Шевроле Нива, Датсун</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>2190</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>143545</v>
+        <v>117065</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11199-dempfernyy-shkiv-kolenvala-slon-8kl-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/9766-imitator-signala-skorosti-can-lada-priora-kalina-granta</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Демпферный шкив коленвала SLON для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта</t>
+          <t>Имитатор сигнала скорости CAN для Лада Приора, Калина 2, Гранта</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1890</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>223753</v>
+        <v>151261</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5889-avtoodeyalo-dlya-dvigatelya-vaz-2110-2112-lada-priora</t>
+          <t>https://motorring.ru/product/37774-zaryadnoe-ustroystvo-dlya-akkumulyatora-vympel20</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло для двигателя №10 для ВАЗ 2110-2112, Лада Приора</t>
+          <t>Зарядное устройство Орион Вымпел-20 для аккумулятора</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2690</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>223763</v>
+        <v>141972</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5896-avtoodeyalo-dlya-kia-rio-2014-goda-vypuska</t>
+          <t>https://motorring.ru/product/15247-datchik-doghdya-dda-dlya-vaz-vstroennym-elektronnym-rele</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №25 для Kia Rio (до 2011), Ford Fiesta, Nissan Tiida, Opel Corsa</t>
+          <t>Датчик дождя ДДА 35 для ВАЗ со встроенным электронным реле стеклоочистителя</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -5075,214 +5376,214 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>223771</v>
+        <v>131567</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5894-avtoodeyalo-dlya-inomarok-vaz-2101-2107-lada-kalina-oka</t>
+          <t>https://motorring.ru/product/9724</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №6 для ВАЗ 2101-2107, Лада Калина, Ока, Jaguar S-TAPE, BMW (6,3), Volkswagen Pointer</t>
+          <t>Адаптер Орион ELM 327 Wi-Fi ARM (Android, iOS) для диагностики автомобиля</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3290</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>223774</v>
+        <v>141973</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5885-avtoodeyalo-dlya-dvigatelya-vaz-2108-21099-2113-2115-igh</t>
+          <t>https://motorring.ru/product/15248-datchik-doghdya-dda-lada-granta-lyuks-lada-largus-reno</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №9 на двигатель для ВАЗ 2108-21099, 2113-2115, ИЖ, Toyota, Nissan, Mitsubishi</t>
+          <t>Датчик дождя ДДА 45 для Лада Гранта (люкс),  Калина 2, Ларгус, Рено</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2690</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>143544</v>
+        <v>219241</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11201-dempfernyy-shkiv-kolenvala-slon-16kl-vaz-2110-2112-2114</t>
+          <t>https://motorring.ru/product/9784-tester-regulyatora-holostogo-hoda-rhh</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Демпферный шкив коленвала SLON зеленный прорезиненный для 16-клапанных ВАЗ 2110-2112, 2114, Лада Приора, Калина, Гранта</t>
+          <t>Тестер регулятора холостого хода РХХ</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1890</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>181840</v>
+        <v>223733</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22781-opory-perednih-stoek-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/9741-zaryadnoe-ustroystvo-orion-325</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Опоры передних стоек ЭластоМаг Комфорт для ВАЗ 2108-21099</t>
+          <t>Зарядное устройство Орион Вымпел-325 20 ампер</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2590</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>223318</v>
+        <v>223734</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/27914-pnevmogidravlicheskie-upory-bagaghnika-dlya-lada-vesta</t>
+          <t>https://motorring.ru/product/28523</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Пневмогидравлические упоры багажника для Лада Веста, Веста Кросс седан</t>
+          <t>Зарядно-предпусковое устройство Орион Вымпел-30 (20 ампер) для аккумулятора</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2190</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>223752</v>
+        <v>141971</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5871-avtoodeyalo-dlya-inomarok-gazely-ford-bmw-toyota-avensis</t>
+          <t>https://motorring.ru/product/9742-datchik-doghdya-dda-25-regulirovkoy-pauzy-dlya-vaz</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло  №1 для автомобилей Ford, BMW 7, Toyota Avensis, Nissan Primera</t>
+          <t>Датчик дождя ДДА-25.02 с регулировкой паузы для ВАЗ 2108-21099, 2113-2115, Лада Приора, Калина, Гранта</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2290</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>223755</v>
+        <v>201307</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5891-avtoodeyalo-dlya-daewoo-nexia</t>
+          <t>https://motorring.ru/product/9761</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №12 для Daewoo Nexia седан, Fiat Panda хэтчбек</t>
+          <t>Программатор одометров ПО-4</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>2290</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>223759</v>
+        <v>141975</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5879-avtoodeyalo-dlya-inomarok-vesta-largus-xray-renault-audi</t>
+          <t>https://motorring.ru/product/37776-datchik-doghdya-dda15-02-vaz-2108-21099-2113-2115-2110-2112</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №2 для Веста, Ларгус, Xray, Renault, Audi A6, Toyota Corolla, BMW 3</t>
+          <t>Датчик дождя ДДА15.02 под старый блок предохранителей для ВАЗ 2108-21099, 2113-2115, 2110-2112, Шевроле Нива</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>2690</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>223762</v>
+        <v>201032</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5895-avtoodeyalo-dlya-renault-megan</t>
+          <t>https://motorring.ru/product/9760</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №24 для Renault Megan 2, Scenic</t>
+          <t>Преобразователь напряжения повышающий 12/24 Орион ПН-50 10А</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2290</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>223769</v>
+        <v>164008</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5890-avtoodeyalo-dlya-inomarok-lada-granta-kalina-chery-chery</t>
+          <t>https://motorring.ru/product/22749</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №4 для Лада Гранта, Калина 2, Chery QQ, Chery Very, Dodge Caliber, ZAZ Vida</t>
+          <t>Модуль автоматического контроллера стеклоподъемников МАКС-2 для Лада Веста</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2890</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>223765</v>
+        <v>141970</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5881-avtoodeyalo-dlya-inomarok-toyota-carina-hyundai-sonata</t>
+          <t>https://motorring.ru/product/37777-datchik-doghdya-dda-dlya-lada-inomarok</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №3 для Toyota Carina, Hyundai Sonata, Mazda (6, 3, Familia), Chevrolet Cruze</t>
+          <t>Датчик дождя ДДА 55 для Лада и иномарок</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2390</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>223773</v>
+        <v>143690</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5884-avtoodeyalo-dlya-chevrolet-niva-volkswagen-land-rover</t>
+          <t>https://motorring.ru/product/37761-diagnosticheskiy-skaner-tester-shtat-dst-mini-dlya-lada</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №8 для Шевроле/Лада Нива 2123, Volkswagen, Land Rover, Renault, Honda, Citroen</t>
+          <t>Диагностический сканер тестер ШТАТ ДСТ-mini для Лада и иномарок</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -5291,1118 +5592,1310 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>181839</v>
+        <v>224671</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22781-opory-perednih-stoek-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/30633-strelochnaya-nagruzochnaya-vilka-nv-03</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Опоры передних стоек ЭластоМаг Комфорт для ВАЗ 2108-21099</t>
+          <t>Нагрузочная вилка НВ-03 цифровая для проверки АКБ и генератора 100/200А</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>2590</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>156136</v>
+        <v>141974</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3064-klyuch-zamka-zaghiganiya-norma-s-zagotovkoy-priora-kalina-granta</t>
+          <t>https://motorring.ru/product/9742-datchik-doghdya-dda-25-regulirovkoy-pauzy-dlya-vaz</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Штатный ключ замка зажигания с брелком Норма (пластиковые кнопки) для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Датсун</t>
+          <t>Датчик дождя ДДА-25.02 с регулировкой паузы для ВАЗ 2108-21099, 2113-2115, Лада Приора, Калина, Гранта</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1690</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>156166</v>
+        <v>202283</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37449-vykidnoy-klyuch-zamka-zaghiganiya-ladiya-lada-niva-trevel</t>
+          <t>https://motorring.ru/product/9767-radar-detektor-orion-525</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Выкидной ключ замка зажигания с платой и корпусом с Ладьей для Шевроле Нива, Лада Нива Тревел</t>
+          <t>Радар-детектор Орион 525-СТ</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2890</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>223766</v>
+        <v>219243</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5943-avtoodeyalo-dlya-toyota-camri-2006-goda-vypuska</t>
+          <t>https://motorring.ru/product/9785</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №30 для Toyota Camry с 2006 года выпуска</t>
+          <t>Тестер форсунок ТФ-01</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2390</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>223772</v>
+        <v>141976</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5897-avtoodeyalo-dlya-lada-4h4-niva-inomarki</t>
+          <t>https://motorring.ru/product/37778</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №7 для Лада 4х4 (Нива) 21213, 21214, 2131, Урбан, Suzuki Grand Vitara 2000-2005</t>
+          <t>Датчик дождя ДДА 65 с датчиком света для Лада и иномарок</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2990</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>202071</v>
+        <v>131559</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16075-shtatnyy-brelok-pulyt-centralynogo-zamka-itelma-k110-lada</t>
+          <t>https://motorring.ru/product/9763</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Штатный брелок (пульт) центрального замка ИТЭЛМА Норма K110 с пластиковыми кнопками для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Датсун</t>
+          <t>Адаптер BDM-ПО5 для программатора ПО-5 с насадкой</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>3690</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>156148</v>
+        <v>202284</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37475-pulyt-klyucha-zaghiganiya-2-knopki-chipom-renault</t>
+          <t>https://motorring.ru/product/9768</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Ключ замка зажигания HITAG 3 PCF 7961 с 2 кнопками с чипом логотипом для Рено Логан 2</t>
+          <t>Радар-детектор Орион 575-СТ с голосовым оповещением</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2490</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>181841</v>
+        <v>138709</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22783-opory-perednih-stoek-vaz-2110-2112</t>
+          <t>https://motorring.ru/product/5911-bortovoy-kompyyuter-shtat-unicomp-410l-dlya-daewoo-peugeot</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Опоры передних стоек ЭластоМаг для ВАЗ 2110-2112</t>
+          <t>Бортовой компьютер ШТАТ UniComp-410ML для Лада, Шевроле Нива, Рено и прочих иномарок</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2790</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>181842</v>
+        <v>138696</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22780-opory-perednih-stoek-lada-kalina</t>
+          <t>https://motorring.ru/product/15790-bortovoy-kompyyuter-shtat-115x23m-dlya-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Опоры передних стоек ЭластоМаг для Лада Калина</t>
+          <t>Бортовой компьютер Штат 115x23М для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1790</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>156150</v>
+        <v>186321</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37477-klyuch-zamka-zaghiganiya-hrom-3knopki-reno</t>
+          <t>https://motorring.ru/product/1329-parktronik-multitronics-pu-4tc</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Ключ замка зажигания с хром логотипом и чипом HITAG 3 PCF 7961 на 3 кнопки с автозапуском для Рено Логан 2</t>
+          <t>Парктроник Multitronics PU4-TC</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2890</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>143547</v>
+        <v>186320</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11204-dempfernyy-shkiv-kolenvala-slon-dlya-lada-4h4-niva</t>
+          <t>https://motorring.ru/product/1335</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Демпферный шкив коленвала SLON (распределенный впрыск) для Лада 4х4 (Нива)</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>3090</v>
-      </c>
+          <t>Парктроник Мультитроникс PT4-TC</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>223768</v>
+        <v>201308</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5946-avtoodeyalo-dlya-land-cruiser-200-interkuler</t>
+          <t>https://motorring.ru/product/9762-programmator-odometrov-po-5</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Автоодеяло АвтоТепло №37 для Land Cruiser 200 (интеркулер)</t>
+          <t>Программатор одометров ПО-5</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3290</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>156152</v>
+        <v>158690</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37485-vykidnoy-klyuch-zamka-zaghiganiya-bez-platy-original-xray</t>
+          <t>https://motorring.ru/product/33977</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Выкидной ключ замка зажигания без платы в оригинальном корпусе для Лада Веста, Икс Рей</t>
+          <t>Комплект модулей на 4 двери МАКС-2 для Лада Икс Рей, Ларгус FL, Рено Дастер</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>3990</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>193940</v>
+        <v>138638</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37691-plata-klyucha-zaghiganiya-hitag-pcf-7946-dlya-lada-largus</t>
+          <t>https://motorring.ru/product/5918-bortovoy-kompyyuter-shtat-1118-kalina-x5mk-lada-kalina</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Плата ключа зажигания HITAG 2 PCF 7946 для Лада Ларгус, Ниссан Альмера</t>
+          <t>Бортовой компьютер Штат 1118 Калина X5MК для Лада Калина</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>3890</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>132477</v>
+        <v>201027</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22777-amortizatory-peredney-podveski-masyanye-vaz-2101-2107</t>
+          <t>https://motorring.ru/product/8466</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Амортизаторы передней подвески ЭластоМаг масляные для ВАЗ 2101-2107</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>4390</v>
-      </c>
+          <t>Преобразователь напряжения (розетка автомобильная) 12/220 Орион ПН-60 450W</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>132378</v>
+        <v>138702</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22771-amortizatory-zadney-podveski-masyanye-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/5902</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Амортизаторы задней подвески ЭластоМаг масляные для ВАЗ 2108-21099</t>
+          <t xml:space="preserve">Бортовой компьютер Штат Приора Матрикс вместо часов OLED-дисплей на переднюю панель для Лада Приора </t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>4490</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>132379</v>
+        <v>131499</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22772-amortizatory-zadney-podveski-masyanye-vaz-2110-2112-lada</t>
+          <t>https://motorring.ru/product/10418-diagnosticheskiy-skaner-tester-shtat-dst-ekspress-dlya</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Амортизаторы задней подвески ЭластоМаг масляные для ВАЗ 2110-2112, Лада Калина, Приора</t>
+          <t>Диагностический сканер тестер Штат ДСТ-Экспресс для автомобилей ВАЗ</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>4490</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>132383</v>
+        <v>186317</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22774-amortizatory-zadney-podveski-masyanye-lada-priora</t>
+          <t>https://motorring.ru/product/1333-parktronik-multitronics-apt-4c</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Амортизаторы задней подвески ЭластоМаг масляные для Лада Приора</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>4490</v>
-      </c>
+          <t>Парктроник Multitronics APT-4C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>156144</v>
+        <v>218487</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37478-klyuch-zamka-zaghiganiya-hitag-pcf-7961-reno-logan2</t>
+          <t>https://motorring.ru/product/30635-stroboskop-orion-st-04-dlya-karbyuratornyh-inghektornyh</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Ключ замка зажигания HITAG 3 PCF 7961 с резиновыми кнопками для Рено Логан 2</t>
+          <t>Стробоскоп Орион СТ-04 для карбюраторных и инжекторных двигателей</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>4590</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>132377</v>
+        <v>214015</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22770-amortizatory-zadney-podveski-masyanye-vaz-2101-2107</t>
+          <t>https://motorring.ru/product/9779</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Амортизаторы задней подвески ЭластоМаг масляные для ВАЗ 2101-2107</t>
+          <t>Сканер-тестер S7000 (USB исполнение) для диагностики автомобилей ВАЗ, ГАЗ</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>4590</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>132479</v>
+        <v>201038</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22778-amortizatory-peredney-podveski-masyanye-shevrole-niva</t>
+          <t>https://motorring.ru/product/9780-pribor-dlya-proverki-moduley-zaghiganiya-spmz-3</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Амортизаторы передней подвески ЭластоМаг масляные для Шевроле Нива, Лада Нива Тревел</t>
+          <t>Прибор для проверки модулей зажигания СПМЗ-3</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>4590</v>
+        <v>7190</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>132384</v>
+        <v>138633</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22773-amortizatory-zadney-podveski-masyanye-shevrole-niva</t>
+          <t>https://motorring.ru/product/37804-bortovoy-kompyyuter-mulytitroniks-sl-50v-dlya-inghektornyh</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Амортизаторы задней подвески ЭластоМаг масляные для Шевроле Нива, Лада Нива Тревел</t>
+          <t>Бортовой компьютер Мультитроникс SL-50V для инжекторных автомобилей ВАЗ и иномарок</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4690</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>132382</v>
+        <v>138716</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22776-amortizatory-zadney-podveski-masyanye-lada-niva-4h4</t>
+          <t>https://motorring.ru/product/5927</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Амортизаторы задней подвески ЭластоМаг масляные для Лада 4х4 с 2010 г.в., Нива Легенд</t>
+          <t>Бортовой компьютер ШТАТ Шеви Вектор-P вместо блока БСК для Шевроле Нива</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>4690</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>132381</v>
+        <v>202081</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22775-amortizatory-zadney-podveski-masyanye-lada-granta</t>
+          <t>https://motorring.ru/product/9815-pusko-zaryadnoe-ustroystvo-orion-700</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Амортизаторы задней подвески ЭластоМаг масляные для Лада Гранта, Гранта FL</t>
+          <t>Пуско-зарядное устройство Орион Вымпел-700</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>4790</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>156151</v>
+        <v>138715</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37478-klyuch-zamka-zaghiganiya-hitag-pcf-7961-reno-logan2</t>
+          <t>https://motorring.ru/product/5926-bortovoy-kompyyuter-shtat-shevi-matrix-3-vmesto-bloka-bsk</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Ключ замка зажигания HITAG 3 PCF 7961 с резиновыми кнопками для Рено Логан 2</t>
+          <t>Бортовой компьютер ШТАТ Шеви MATRIX-M вместо блока БСК для Шевроле Нива</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>4590</v>
+        <v>7190</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>156162</v>
+        <v>138660</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12864-originalynyy-vykidnoy-klyuch-dlya-lada-vesta-iksrey</t>
+          <t>https://motorring.ru/product/15235-bortovoy-kompyyuter-mulytitroniks-cl-590-vmesto-vozduhovoda</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Оригинальный выкидной ключ замка зажигания с платой и логотипом для Лада Веста, Икс Рей</t>
+          <t>Бортовой компьютер Мультитроникс CL-590 без звукового синтезатора вместо воздуховода для Лада Гранта, Ларгус, Рено, Ниссан</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>4190</v>
+        <v>7790</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>156163</v>
+        <v>138658</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12233-originalynyy-vykidnoy-klyuch-dlya-lada-granta-fl</t>
+          <t>https://motorring.ru/product/1321-bortovoy-kompyyuter-mulytitroniks-570-vmesto-bloka-bsk</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Оригинальный выкидной ключ с чипом под замок Рено для Лада Гранта FL 2018-2023 г.в.</t>
+          <t>Бортовой компьютер Мультитроникс CL-575 вместо блока БСК без голосового синтезатора для Шевроле Нива, Лада Нива Тревел</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>5190</v>
+        <v>7790</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>132380</v>
+        <v>138659</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/24043-amortizatory-zadney-podveski-elastomag-masyanye-lada-vesta</t>
+          <t>https://motorring.ru/product/1319-bortovoy-kompyyuter-multitronics-cl-580-dlya-avtomobiley</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Амортизаторы задней подвески ЭластоМаг газомасляные для Лада Веста, Веста SW</t>
+          <t>Бортовой компьютер Multitronics CL-580 без голосового синтезатора для автомобилей УАЗ Патриот, ГАЗ</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>5790</v>
+        <v>8490</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>158668</v>
+        <v>138654</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22788-komplekt-maslyanyh-stoek-peredney-podveski-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/15234-bortovoy-kompyyuter-mulytitroniks-590-vmesto-vozduhovoda</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Комплект масляных стоек передней подвески ЭластоМаг для ВАЗ 2108-21099</t>
+          <t>Бортовой компьютер Мультитроникс C-590 с голосовым синтезатором вместо воздуховода для Лада Гранта, Ларгус, Рено, Ниссан</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>6390</v>
+        <v>8690</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>158669</v>
+        <v>138674</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22789-komplekt-maslyanyh-stoek-peredney-podveski-vaz-2110-2112</t>
+          <t>https://motorring.ru/product/1202-bortovoy-kompyyuter-mulytitroniks-730-vaz-inomarki</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Комплект масляных стоек передней подвески ЭластоМаг для ВАЗ 2110-2112</t>
+          <t>Бортовой компьютер Мультитроникс VC-730 TFT дисплей на стекло для ВАЗ и иномарки</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>6390</v>
+        <v>8690</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>158925</v>
+        <v>138652</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22786-komplekt-maslyanyh-stoek-peredney-podveski-lada-kalina</t>
+          <t>https://motorring.ru/product/1320-bortovoy-kompyyuter-mulytitroniks-570-golos-vmesto-bloka</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Комплект масляных стоек передней подвески ЭластоМаг для Лада Калина</t>
+          <t>Бортовой компьютер Мультитроникс C-575 вместо блока БСК с голосовым синтезатором для Шевроле Нива, Лада Нива Тревел</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>6790</v>
+        <v>8790</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>158672</v>
+        <v>138653</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22790-komplekt-maslyanyh-stoek-peredney-podveski-lada-priora</t>
+          <t>https://motorring.ru/product/1318-bortovoy-kompyyuter-multitronics-c-580-uaz-patriot-biznes</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Комплект масляных стоек передней подвески ЭластоМаг для Лада Приора</t>
+          <t>Бортовой компьютер Multitronics C-580 с голосовым синтезатором для автомобилей УАЗ Патриот, ГАЗель Бизнес</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>6790</v>
+        <v>9190</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>158671</v>
+        <v>138671</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22786-komplekt-maslyanyh-stoek-peredney-podveski-lada-kalina</t>
+          <t>https://motorring.ru/product/1200</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Комплект масляных стоек передней подвески ЭластоМаг для Лада Калина</t>
+          <t>Бортовой компьютер Мультитроникс TC-740 без голосового синтезатора для ВАЗ и иномарки</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>6790</v>
+        <v>8990</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>158670</v>
+        <v>201306</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22791-komplekt-maslyanyh-stoek-peredney-podveski-lada-granta</t>
+          <t>https://motorring.ru/product/25418-programmator-odometrov-po-5-pro</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Комплект масляных стоек передней подвески ЭластоМаг для Лада Гранта, Гранта FL</t>
+          <t>Программатор одометров ПО-5 PRO</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>6890</v>
+        <v>9990</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>158673</v>
+        <v>138675</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/24050-komplekt-maslyanyh-stoek-peredney-podveski-elastomag-lada</t>
+          <t>https://motorring.ru/product/1201</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Комплект газомасляных стоек передней подвески ЭластоМаг для Лада Веста, Веста SW</t>
+          <t>Бортовой компьютер Мультитроникс VC-731 (VC-755) с голосовым синтезатором для ВАЗ и иномарки</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>6390</v>
+        <v>10490</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>158909</v>
+        <v>138672</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/33371-zadnie-diskovye-tormoza-vector-15-dlya-lada-4h4-niva</t>
+          <t>https://motorring.ru/product/1169-bortovoy-kompyyuter-mulytitroniks-750-vaz-inomarki</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Задние дисковые тормоза Vector 15 для Лада 4х4, Нива Легенд, Шевроле/Лада Нива 2123</t>
+          <t>Бортовой компьютер Мультитроникс TC-750 с голосовым синтезатором для ВАЗ и иномарки</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>34490</v>
+        <v>10990</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>202558</v>
+        <v>226982</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16912-razyem-dlya-regulirovki-elektro-zerkal-datsun-on-do-mi-do</t>
+          <t>https://motorring.ru/product/1745-elektronnaya-kombinaciya-priborov-flash-lada-priora-kalina</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Разъем для регулировки электро зеркал для Датсун On-Do, Mi-Do</t>
+          <t>Электронная комбинация приборов Flash X4 для Лада Приора, Калина, ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>529</v>
+        <v>14290</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>202569</v>
+        <v>226981</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18485-razyem-elektrozerkala-mama-lada-kalina-priora-granta</t>
+          <t>https://motorring.ru/product/1748-elektronnaya-kombinaciya-priborov-flash-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Разъем электрозеркала (мама) для Лада Калина, Приора, Гранта</t>
+          <t>Электронная комбинация приборов Flash Х3 для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада 4х4 (Нива), Шевроле Нива</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>490</v>
+        <v>13990</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>193614</v>
+        <v>138666</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1482-perehodnoy-komplekt-dlya-ustanovki-karbyuratora-vaz</t>
+          <t>https://motorring.ru/product/1203-bortovoy-kompyyuter-mulytitroniks-700-vaz-inomarki</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Переходной комплект для установки 08 карбюратора для ВАЗ 2101-2107</t>
+          <t>Бортовой компьютер Мультитроникс RC-701 TFT дисплей для ВАЗ и иномарок</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>590</v>
+        <v>13490</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>155725</v>
+        <v>138632</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1505-kardanchik-kulisy-kpp-lada-kalina-dlya-vaz-2108-21099-vaz</t>
+          <t>https://motorring.ru/product/37801-bortovoy-kompyyuter-multitronics-c-900</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Карданчик кулисы КПП от Калины для ВАЗ 2108-21099, ВАЗ 2110-2112, 2113-2115, Лада Приора, Калина</t>
+          <t>Бортовой компьютер Multitronics C-900</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>929</v>
+        <v>14390</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>181836</v>
+        <v>226972</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16407-zadnie-opory-stoek-evolex-vaz-2108-21099-2110-2112</t>
+          <t>https://motorring.ru/product/35291-elektronnaya-kombinaciya-priborov-flash-x-103v-vaz-2108-2115</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Задние опоры стоек EVOLEX для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
+          <t>Электронная комбинация приборов Flash X-103V RGB для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада 4х4 (Нива), Шевроле Нива</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2690</v>
+        <v>19990</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>142177</v>
+        <v>226973</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/24078-datchik-urovnya-omyvayuschey-ghidkosti-emi-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/1747-elektronnaya-kombinaciya-priborov-flash-light-lada-priora</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Датчик уровня омывающей жидкости ЭМИ для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+          <t>Электронная комбинация приборов Flash X5 для Лада Приора, Калина, ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>249</v>
+        <v>17390</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>142179</v>
+        <v>136694</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3412</t>
+          <t>https://motorring.ru/product/9814-sensornyy-vyklyuchately-shtat-bez-fiksacii</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Датчик уровня тосола Е202 (средний) для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Сенсорный выключатель Штат TS без фиксации</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>290</v>
+        <v>590</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>142180</v>
+        <v>224563</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3413-datchik-urovnya-tosola-a600-korotkiy-dlya-vaz-2110-2111</t>
+          <t>https://motorring.ru/product/37900-centralynyy-zamok-vympel-a-y16</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Датчик уровня тосола А600 (короткий) для ВАЗ 2110, 2111, 2112</t>
+          <t>Центральный замок на 4 двери Орион Вымпел A-Y16 с 2 ключами управления</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>229</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>164601</v>
+        <v>203951</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12442-pechka-vaz-2108-dlya-lada-niva-4h4</t>
+          <t>https://motorring.ru/product/9775-rele-dvornikov-reguliruemoy-pauzoy-vaz-2108-21099-starym</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Отопитель N-Parts с мотором 2108 и пластиковым корпусом для Лада 4х4, Нива Легенд</t>
+          <t>Реле дворников с регулируемой паузой для ВАЗ 2108-21099 со старым блоком, 2110-2112, Шевроле Нива</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>5890</v>
+        <v>629</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>193644</v>
+        <v>131693</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/14232-pechka-motor-otopitelya-modernizirovannaya-lada-niva-4h4</t>
+          <t>https://motorring.ru/product/32326-aktivator-zamka-dveri-vympel-bcs-5p-5-provodnoy-vaz</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Печка (мотор отопителя) модернизированная для Лада Нива 4х4, Нива Урбан</t>
+          <t>Активатор замка двери Вымпел BCS-5P 5-проводной для автомобилей ВАЗ</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>7390</v>
+        <v>390</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>156137</v>
+        <v>141292</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37447-klyuch-zaghiganiya-stile-granty-krasnoy-metkoy-vaz-2101</t>
+          <t>https://motorring.ru/product/8490-gnezdo-vstavka-tonnely-pola-pod-dopolnitelynye-knopki-lada</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Ключ зажигания в стиле Гранты FL с красной меткой для ВАЗ 2101-2107, Лада 4х4, Нива Легенд</t>
+          <t>Гнездо-вставка в тоннель пола под дополнительные кнопки Лада Гранта, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>769</v>
+        <v>729</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>156734</v>
+        <v>224564</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37408-rabochiy-klyuch-zamka-zaghiganiya-analog-lada-priora-kalina</t>
+          <t>https://motorring.ru/product/37856-universalynyy-centralynyy-zamok-vympel-a-y216-kanalom</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Рабочий ключ-заготовка замка зажигания (аналог) для Лада Приора, Калина, Калина 2, Гранта, Гранта FL до 2019 г.в. и с 2023 г.в., Нива Тревел, Шевроле Нива, Датсун</t>
+          <t>Универсальный центральный замок Вымпел A-Y216 с каналом управления багажником (4 активатора, 2 брелока)</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>149</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>156158</v>
+        <v>251961</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37461-vykidnoy-klyuch-vw-stily-3knopki-lada-granta-fl</t>
+          <t>https://motorring.ru/product/31840-usb-zaryadnoe-ustroystvo-15vt-slota-dlya-lada-vesta-iks-rey</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Выкидной ключ зажигания с платой в стиле Фольксваген Люкс на 3 кнопки под замок Рено для Лада Гранта FL 2018-2023 г.в.</t>
+          <t>USB зарядное устройство Штат 15Вт на 2 слота в подлокотник для Лада Веста, Икс Рей, Ларгус FL</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1890</v>
+        <v>790</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>224084</v>
+        <v>319528</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37840-salonnyy-filytr-dlya-lada-4h4-niva-legend</t>
+          <t>https://motorring.ru/product/1320-bortovoy-kompyyuter-mulytitroniks-570-golos-vmesto-bloka</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Салонный фильтр ФИЛЬТРСЕРВИС для Лада 4х4, Нива Легенд</t>
+          <t>Бортовой компьютер Мультитроникс C-575 вместо блока БСК с голосовым синтезатором для Шевроле Нива, Лада Нива Тревел</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>490</v>
+        <v>8790</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>265455</v>
+        <v>323314</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12442-pechka-vaz-2108-dlya-lada-niva-4h4</t>
+          <t>https://motorring.ru/product/15224-bortovoy-kompyyuter-mulytitroniks-vmesto-zaglushki-knopki</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Отопитель N-Parts с мотором 2108 и пластиковым корпусом для Лада 4х4, Нива Легенд</t>
+          <t>Бортовой компьютер Мультитроникс UX 8 вместо заглушки кнопки для ВАЗ 2110-2112, 2113-2115, Калина, Гранта, Приора, Шевроле Нива, Датсун</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>5890</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>274097</v>
+        <v>257936</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6256-ruchka-kpp-hrom-vstavkoy-lada-largus-iks-rey</t>
+          <t>https://motorring.ru/product/40332-bortovoy-kompyyuter-shtat-h1-t-beloy-podsvetkoy-nva-travel</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Ручка КПП с серебристой вставкой для Лада Ларгус, Икс Рей</t>
+          <t>Бортовой компьютер Штат Х1-Т с белой подсветкой вместо заглушки кнопки для Лада Нива Тревел</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>990</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>213120</v>
+        <v>258809</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15735-treugolynye-rychagi-tehnomaster-vaz-2110-2111-2112-lada</t>
+          <t>https://motorring.ru/product/33977-moduly-komplect-4-dvery-max-2-xray</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Треугольные рычаги ТехноМастер для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Гранта, Гранта FL</t>
+          <t>Комплект модулей на 4 двери МАКС-2 для Лада Икс Рей, Ларгус FL, Рено Дастер</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>14490</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>137038</v>
+        <v>258920</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1620-blokirovka-differenciala-vintovaya-vaz-2108-2115-lada</t>
+          <t>https://motorring.ru/product/25429-moduli-avtomaticheskoy-tonirovki-maks-2t-20a</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Блокировка дифференциала винтовая для ВАЗ 2108-2115, Лада Приора, Калина, Гранта</t>
+          <t>Модули автоматической тонировки МАКС-2Т 20А</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>10990</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>137039</v>
+        <v>258921</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1620-blokirovka-differenciala-vintovaya-vaz-2108-2115-lada</t>
+          <t>https://motorring.ru/product/25430-moduli-avtomaticheskoy-tonirovki-maks-2t-30a</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Блокировка дифференциала винтовая для ВАЗ 2108-2115, Лада Приора, Калина, Гранта</t>
+          <t>Модули автоматической тонировки МАКС-2Т 30А</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>10990</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>137040</v>
+        <v>258922</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1620-blokirovka-differenciala-vintovaya-vaz-2108-2115-lada</t>
+          <t>https://motorring.ru/product/33976-moduly-avtomaticheskogo-kontrollera-steklopodyemnikov-xray</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Блокировка дифференциала винтовая для ВАЗ 2108-2115, Лада Приора, Калина, Гранта</t>
+          <t>Модуль автоматического контроллера стеклоподъемников МАКС-2 для Лада Икс Рей, Ларгус FL, Рено Логан 2, Сандеро 2, Дастер, Клио 4, Трафик</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>10990</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>137042</v>
+        <v>258923</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1622-blokirovka-differenciala-vintovaya-forsavto-zuba-dlya-vaz</t>
+          <t>https://motorring.ru/product/39804-moduly-avtomaticheskogo-kontrollera-steklopodyemnikov-kalina</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Блокировка дифференциала винтовая Форс-Авто (22 зуба) для ВАЗ 2101-2107, Лада 4x4 (Нива), Шевроле Нива</t>
+          <t>Модуль автоматического контроллера стеклоподъемников МАКС-2 для Лада Калина</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>11790</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>137043</v>
+        <v>258924</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1622-blokirovka-differenciala-vintovaya-forsavto-zuba-dlya-vaz</t>
+          <t>https://motorring.ru/product/25433-moduly-plavnogo-vklyucheniya-podsvetki-kombinacii-priborov</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Блокировка дифференциала винтовая Форс-Авто (22 зуба) для ВАЗ 2101-2107, Лада 4x4 (Нива), Шевроле Нива</t>
+          <t>Модуль плавного включения подсветки комбинации приборов</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>11790</v>
+        <v>569</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>137044</v>
+        <v>201294</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1622-blokirovka-differenciala-vintovaya-forsavto-zuba-dlya-vaz</t>
+          <t>https://motorring.ru/product/13527-montaghnyy-nabor-podklyucheniya-protivotumannyh-far-lada</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Блокировка дифференциала винтовая Форс-Авто (22 зуба) для ВАЗ 2101-2107, Лада 4x4 (Нива), Шевроле Нива</t>
+          <t>Монтажный набор подключения противотуманных фар для Лада Веста</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>11790</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>137046</v>
+        <v>347232</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/31843-blokirovka-differenciala-vintovaya-avtosprinter-zuba-dlya</t>
+          <t>https://motorring.ru/product/37768-bortovoy-kompyyuter-shtat-mk-3-sensornyy-universalynyy</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Блокировка дифференциала винтовая Avtosprinter (24 зуба) для Лада Нива Тревел</t>
+          <t>Бортовой компьютер ШТАТ МК-3 сенсорный универсальный</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>9690</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>137047</v>
+        <v>258453</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/31843-blokirovka-differenciala-vintovaya-avtosprinter-zuba-dlya</t>
+          <t>https://motorring.ru/product/33975-indikator-napryagheniya-in-12-krasniy-dlya-vaz-2110-12</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Блокировка дифференциала винтовая Avtosprinter (24 зуба) для Лада Нива Тревел</t>
+          <t>Индикатор напряжения ИН-12 красный для ВАЗ 2110-2012 (европанель), 2113-2115, Лада Калина, Шевроле Нива</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>9690</v>
+        <v>629</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>137048</v>
+        <v>258454</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/31843-blokirovka-differenciala-vintovaya-avtosprinter-zuba-dlya</t>
+          <t>https://motorring.ru/product/33974-indikator-napryagheniya-in-12-siniy-dlya-vaz-2110-12</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Блокировка дифференциала винтовая Avtosprinter (24 зуба) для Лада Нива Тревел</t>
+          <t>Индикатор напряжения ИН-12 синий для ВАЗ 2110-2112 (европанель), 2113-2115, Лада Калина, Шевроле Нива</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>9690</v>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>258456</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/39806-indikator-napryagheniya-in-12-krasniy-dlya-vaz-2110</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Индикатор напряжения ИН-12 с красной подсветкой для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>258457</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/39805-indikator-napryagheniya-in-12-siniy-dlya-vaz-2110</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Индикатор напряжения ИН-12 с синей подсветкой для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>258459</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/31966-indikator-napryagheniya-int-12-krasniy-volytometrom-kalina</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Индикатор температуры ИНТ-12 красный с вольтометром для ВАЗ 2110-2112 (европанель), 2113-2115, Лада Калина, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>258460</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/31965-indikator-napryagheniya-int-12-siniy-volytometrom-kalina</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Индикатор температуры ИНТ-12 синий с вольтометром для ВАЗ 2110-2112 (европанель), 2113-2115, Лада Калина, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>258462</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/29038-indikator-tempretury-vozduha-int-12-krasniy-vaz-2110</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Индикатор темпретуры воздуха ИНТ-12 на место кнопки с красной подсветкой и вольтометром для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>258463</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28751-indikator-tempretury-vozduha-int-12-siniy-vaz-2110</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Индикатор темпретуры воздуха ИНТ-12 на место кнопки с синей подсветкой и вольтометром для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>258465</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/31610-indikator-napryagheniya-int-12-krasniy-volytometrom-granta</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Индикатор температуры ИНТ-12 красный с вольтометром для Лада Гранта, Калина 2, Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>258466</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/32327-indikator-napryagheniya-int-12-siniy-volytometrom-granta</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Индикатор температуры ИНТ-12 синий с вольтометром для Лада Гранта, Калина 2, Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>268603</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/9789-podogrev-tosola-220v-magnum-5kvt-dlya-vaz-2108-15-2110-12</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Подогрев тосола 220В Магнум №16 1,5кВт для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Ларгус, Renault</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>268605</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/9791-podogrev-tosola-220v-magnum-5kvt-dlya-406-dvigatelem</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Подогрев тосола 220В Магнум №21 1,5кВт для автомобилей с двигателем ЗМЗ-405 Евро 2, ЗМЗ-406</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>268611</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/9788-podogrev-tosola-220v-magnum-5kvt-vaz-2101-2107-niva-21213</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Подогрев тосола 220В Магнум №3 1,5кВт для ВАЗ 2101-2107, Лада 4х4 (Нива) 21213, Приора, Калина, ИЖ, Ока, Fiat, Suzuki</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>1990</v>
       </c>
     </row>
   </sheetData>

--- a/output_data/output.xlsx
+++ b/output_data/output.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,537 +425,535 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/30351-antennyy-usilitely-orion-vympel-a-10</t>
+          <t>https://motorring.ru/product/29874-pryamotochnyy-glushitely-avtoprodukt-f51-dlya-lada-kalina</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Антенный усилитель Орион Вымпел А-10</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для Лада Калина, Калина 2 хэтчбек</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>590</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37890-rele-strob-kontroller-2-h-kanalynyy-reghimov</t>
+          <t>https://motorring.ru/product/29885-pryamotochnyy-glushitely-avtoprodukt-f51-priora-2112</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Строб-контроллер (реле) 2-канальный с 5 режимами мигания</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для Лада Приора хэтчбек, ВАЗ 2112 с 2007 г.в.</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>929</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2547-provodka-dlya-podklyucheniya-ptf-kalina2-granta-datsun</t>
+          <t>https://motorring.ru/product/29950-prostavki-ugla-razvala-autoproduct-3-5-gradusa-vaz-2108</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Комплект проводки подключения ПТФ ML для Лада Калина 2, Гранта, Датсун</t>
+          <t>Проставки угла развала AutoProduct Drive на 3.5 градуса для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>990</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9723-adapter-elm-327-usb-dlya-diagnostiki-avtomobilya</t>
+          <t>https://motorring.ru/product/29884-pryamotochnyy-glushitely-avtoprodukt-f51-priora-sedan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Адаптер Орион ELM 327 USB для диагностики автомобиля</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для Лада Приора седан, универсал</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1190</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8473-moduly-zaschity-lamp-blighnego-sveta-dlya-avtomobiley-vaz</t>
+          <t>https://motorring.ru/product/6084-rastyaghka-zadnego-rychaga-avtoprodukt-poliuretan-lada</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Модули защиты ламп ближнего света с цоколем H7 для автомобилей Лада</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>990</v>
-      </c>
+          <t>Растяжка AutoProduct Parts заднего рычага SPRINT с полиуретановыми сайлентблоками для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Датсун</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1203-bortovoy-kompyyuter-mulytitroniks-700-vaz-inomarki</t>
+          <t>https://motorring.ru/product/23897-koplekt-prostavok-autoproduct-drive-pod-sharovuyu-oportu</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Мультитроникс RC-701 TFT дисплей для ВАЗ и иномарок</t>
+          <t>Комплект проставок AutoProduct Drive под шаровую опору 10мм для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Гранта, Гранта FL, Ока, Датсун</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13490</v>
+        <v>890</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16378-bortovoy-kompyuter-orion-dlya-karbyuratornyh-dvigateley</t>
+          <t>https://motorring.ru/product/29992-kronshteyn-zapasnogo-kolesa-autoproduct-comfort-largus</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Орион БК-03 универсальный</t>
+          <t>Бесшумный кронштейн запасного колеса AutoProduct Comfort для Лада Ларгус</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1690</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13347-ustanovochnyy-komplekt-shtat-115-lada-niva-4h4-inghektor</t>
+          <t>https://motorring.ru/product/29890-komplekt-rulevyh-tyag-avtoprodukt-sbore-70mm-2110</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Установочный комплект ШТАТ 115 для инжекторных Лада 4х4 (Нива)</t>
+          <t>Комплект рулевых тяг AutoProduct Sport в сборе под увеличенную на 70мм колею для ВАЗ 2110-2112, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>490</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/30635-stroboskop-orion-st-04-dlya-karbyuratornyh-inghektornyh</t>
+          <t>https://motorring.ru/product/15587-rychag-zadniy-sbore-autoproduct-vaz-2108-21099-2113-2115</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Стробоскоп Орион СТ-04 для карбюраторных и инжекторных двигателей</t>
+          <t>Рычаг задний в сборе AutoProduct Sport Pro с полиуретановыми сайлентблоками для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6490</v>
+        <v>19190</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5903-shtat-adapter-usb-k-line</t>
+          <t>https://motorring.ru/product/1766-komplekt-opor-dvigatelya-sport-avtoprodukt-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ШТАТ Адаптер USB-K-line </t>
+          <t>Комплект опор двигателя AutoProduct Sport для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1490</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37774-zaryadnoe-ustroystvo-dlya-akkumulyatora-vympel20</t>
+          <t>https://motorring.ru/product/15615-rasporka-nighnyaya-autoproduct-drive-lada-4h4-shevrole-niva</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Зарядное устройство Орион Вымпел-20 для аккумулятора</t>
+          <t>Распорка нижняя AutoProduct Drive для Лада 4х4, Нива Легенд, Шевроле Нива, Лада Нива Тревел</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2890</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37763-bortovoy-kompyyuter-shtat-bk-7-dlya-lada-largus-largus-fl</t>
+          <t>https://motorring.ru/product/15467-usiliteli-opor-stoek-avtoprodukt-kasterom-gradusa-kalina</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ БК-7 под двигатели ВАЗ для Лада Ларгус, Ларгус FL</t>
+          <t>Усилители опор стоек AutoProduct Drive с кастором на 1,5 градуса для Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2290</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9763</t>
+          <t>https://motorring.ru/product/37453-stabilizator-poperechnoy-ustoychivosti-autoproduct-sbore-24-mm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Адаптер BDM-ПО5 для программатора ПО-5 с насадкой</t>
+          <t>Стабилизатор поперечной устойчивости AutoProduct 24 мм в сборе для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3790</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37762-bortovoy-kompyyuter-shtat-bk-3-dlya-lada-largus-largus</t>
+          <t>https://motorring.ru/product/29903-samoblokiruyuschiysya-differencial-rzm-avtoprodukt-2101</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ БК-3 для Лада Ларгус, Ларгус FL</t>
+          <t>Самоблокирующийся дифференциал (РЗМ) AutoProduct Drive под 22 шлица для ВАЗ 2101-2107, Лада 4х4 (Нива), Шевроле Нива</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2290</v>
+        <v>12690</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9740-zaryadnoe-ustroystvo-orion-265</t>
+          <t>https://motorring.ru/product/1759-rasporka-nighnyaya-autoproduct-safe-lada-granta-kalina</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Зарядное устройство Орион Вымпел-265 (7 ампер) для аккумулятора </t>
+          <t>Распорка нижних рычагов AutoProduct Safe под тросовую КПП для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2390</v>
+        <v>990</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8470-kontroller-otkrytiya-dverey-kod-dlya-avtomobiley-vaz</t>
+          <t>https://motorring.ru/product/37467-gayka-regulirovochnaya-zadney-nezavisimoy-podveski</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Контроллер открытия дверей КОД для ВАЗ</t>
+          <t>Гайка регулировочная задней независимой подвески AutoProduct для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>590</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8479-rele-dho-30-dalyniy-svet-kak-dho</t>
+          <t>https://motorring.ru/product/15105-kronshteyn-zadney-opory-silovogo-agregata-pod-mkpp-kalina</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Реле ДХО-30 включения дальнего света как ходовых огней для Лада Калина, Калина 2, Гранта, Приора, Ларгус</t>
+          <t>Кронштейн задней опоры двигателя AutoProduct Drive под МКПП для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1190</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3494-moduly-avtomaticheskogo-upravleniya-svetom-maus-2-dlya-vaz</t>
+          <t>https://motorring.ru/product/29904-samoblokiruyuschiysya-differencial-avtoprodukt-2108</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Модуль автоматического управления светом МАУС-2 15А для ВАЗ 2107, 2110-2112, 2113-2115, Лада 4х4 (Нива), Калина, Приора, Шевроле Нива без АБС</t>
+          <t>Самоблокирующийся дифференциал AutoProduct Drive с увеличенным КБ для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>949</v>
+        <v>11590</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/4420-komplekt-podklyucheniya-protivotumannyh-far-lada-kalina</t>
+          <t>https://motorring.ru/product/15471-usiliteli-opor-stoek-avtoprodukt-kasterom-gradusa-2110</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Проводка для подключения противотуманных фар (ПТФ) ML Auto Light Technology для Лада Калина</t>
+          <t>Усилители опор стоек AutoProduct Drive с кастором на 1,5 градуса для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>990</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37801-bortovoy-kompyyuter-multitronics-c-900</t>
+          <t>https://motorring.ru/product/6077-poperechina-autoproduct-drive-rezinovymi-saylentblokami</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Multitronics C-900</t>
+          <t>Поперечина AutoProduct Drive с резиновыми сайлентблоками для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>14390</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37782-indikator-napryagheniya-3-dioda</t>
+          <t>https://motorring.ru/product/28607-rychagi-podramnika-ghestkie-autoproduct-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Светодиодный индикатор напряжения ИНА-3 в прикуриватель</t>
+          <t>Рычаги подрамника AutoProduct Drive жесткие для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>149</v>
+        <v>9090</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/34917-filytr-pitaniya-orion-dlya-avtomagnitoly-vympel-301</t>
+          <t>https://motorring.ru/product/29948-prostavki-ugla-razvala-autoproduct-1gradus</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Фильтр питания Орион для автомагнитолы Вымпел 301</t>
+          <t>Проставки угла развала AutoProduct Drive на 1 градус для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>590</v>
+        <v>829</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12227-kommutator-shtat-dlya-vaz-2108-21099-2110</t>
+          <t>https://motorring.ru/product/29902-neobslughivaemyy-differencial-autoproduct-4x4</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Коммутатор ШТАТ для ВАЗ 2108-21099, 2110</t>
+          <t>Необслуживаемый самоблокирующийся дифференциал AutoProduct Drive для Лада 4х4, Нива Легенд, Шевроле/Лада Нива 2123, Нива Тревел</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>590</v>
+        <v>12690</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/29038-indikator-tempretury-vozduha-int-12-krasniy-vaz-2110</t>
+          <t>https://motorring.ru/product/29867-zadnyaya-nezavisimaya-podveska-avtoprodukt-vaz-2108</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Индикатор темпретуры воздуха ИНТ-12 на место кнопки с красной подсветкой и вольтометром для ВАЗ 2110-2112</t>
+          <t>Задняя независимая подвеска AutoProduct Drive для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта, Датсун</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1090</v>
+        <v>36590</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9722-adapter-elm-327-bluetooth-mini-dlya-diagnostiki-avtomobilya</t>
+          <t>https://motorring.ru/product/15092-prostavki-ugla-razvala-autoproduct-2-5-gradusa-vaz-2108</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Адаптер Орион ELM 327 BLUETOOTH Mini ARM для диагностики автомобиля</t>
+          <t>Проставки угла развала AutoProduct Drive на 2.5 градуса для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>890</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/35291-elektronnaya-kombinaciya-priborov-flash-x-103v-vaz-2108-2115</t>
+          <t>https://motorring.ru/product/29949-prostavki-korrektirovki-shoghdeniya-avtoprodukt-drive-largus</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Электронная комбинация приборов Flash X-103V RGB для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада 4х4 (Нива), Шевроле Нива</t>
+          <t>Проставки корректировки схождения AutoProduct Drive для Лада Ларгус</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19990</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/31965-indikator-napryagheniya-int-12-siniy-volytometrom-kalina</t>
+          <t>https://motorring.ru/product/15576-rychagi-reguliruemye-perednie-lada-granta-kalina-priora</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Индикатор температуры ИНТ-12 синий с вольтометром для ВАЗ 2110-2112 (европанель), 2113-2115, Лада Калина, Шевроле Нива</t>
+          <t>Рычаги регулируемые передние AutoProduct Sport для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1090</v>
+        <v>10990</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25461-antenna-glonass-gps</t>
+          <t>https://motorring.ru/product/19291-opora-generatora-avtoprodukt-regulirovkoy-lada-granta</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Антенна ГЛОНАСС/GPS</t>
+          <t>Универсальный стальной кронштейн генератора AutoProduct Parts с регулировкой для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>829</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37889-rele-strob-kontroller-odnokanalynyy</t>
+          <t>https://motorring.ru/product/6086-kronshteyn-zadney-opory-0488-ar90-1001030-dlya-lada-granta</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Реле Строб-контроллер одноканальный</t>
+          <t>Кронштейн задней опоры двигателя AutoProduct Drive под АКПП для Лада Гранта, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>590</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9793-vihrevoe-ustroystvo-optimizacii-sgoraniya-topliva-ekotop</t>
+          <t>https://motorring.ru/product/29882-pryamotochnyy-glushitely-avtoprodukt-f51-2110</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Вихревое устройство оптимизации сгорания топлива ЭКОТОП для карбюраторных ВАЗ 2101-2107, 2108-21099, 2110-2112, Лада Нива 4х4</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для ВАЗ 2110</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>990</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/26474-cifrovoy-indikator-temperatury-dvigatelya-siniy-funkciey</t>
+          <t>https://motorring.ru/product/15545-podramnik-avtoprodukt-drive-bez-zaschity-lada-granta-kalina</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Цифровой индикатор температуры двигателя синий с функцией диагностики, под CAN шину для Лада Гранта, Калина 2, Приора с 2013 г.в., Икс Рей, Лада Веста</t>
+          <t>Подрамник AutoProduct Drive с резиновыми сайлентблоками без защиты для Лада Гранта, Гранта FL, Калина</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1790</v>
+        <v>7390</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9790-podogrev-tosola-220v-magnum-5kvt-dlya-shevrole-niva-honda</t>
+          <t>https://motorring.ru/product/6068-stabilizator-poperechnoy-ustoychivosti-avtoprodukt-vaz</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Подогрев тосола 220В Магнум №5 1,5кВт для Шевроле/Лада Нива 2123, Honda CRV</t>
+          <t>Стабилизатор поперечной устойчивости AutoProduct Drive 22 мм для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2129</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37768-bortovoy-kompyyuter-shtat-mk-3-sensornyy-universalynyy</t>
+          <t>https://motorring.ru/product/29892-remkomplekt-reguliruemyh-rychagov-avtoprodukt-dlya-vaz</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ МК-3 сенсорный универсальный</t>
+          <t>Ремкомплект регулируемых передних рычагов AutoProduct Parts для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2390</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/32327-indikator-napryagheniya-int-12-siniy-volytometrom-granta</t>
+          <t>https://motorring.ru/product/29899-kronshteyn-regulyatora-tormoznogo-davleniya-avtoprodukt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Индикатор температуры ИНТ-12 синий с вольтометром для Лада Гранта, Калина 2, Приора, Датсун</t>
+          <t>Кронштейн регулятора тормозного давления AutoProduct Parts для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Калина, Калина 2, Приора</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1090</v>
+        <v>829</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/7208-usb-zaryadnoe-slota-vmesto-zaglushki-paneli-priborov-vaz</t>
+          <t>https://motorring.ru/product/6048-opora-razdatochnoy-korobki-avtoprodukt-lada-niva-4h4</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>USB зарядное на 2 слота вместо заглушки панели приборов ВАЗ 2106, 2107</t>
+          <t>Опора раздаточной коробки AutoProduct Drive для Лада 4х4, Нива Легенд, Шевроле/Лада Нива 2123, Нива Тревел</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>749</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9788-podogrev-tosola-220v-magnum-5kvt-vaz-2101-2107-niva-21213</t>
+          <t>https://motorring.ru/product/15632-rasporka-zadnyaya-autoproduct-vaz-2108-21099-2113-2115</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Подогрев тосола 220В Магнум №3 1,5кВт для ВАЗ 2101-2107, Лада 4х4 (Нива) 21213, Приора, Калина, ИЖ, Ока, Fiat, Suzuki</t>
+          <t>Распорка задняя AutoProduct Drive для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -965,27 +963,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/24877-provodka-dlya-podklyucheniya-ptf-granta-fl</t>
+          <t>https://motorring.ru/product/1751-rasporka-autoproduct-drive-perednyaya-reguliruemaya</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Проводка ML Auto Light Technology для подключения ПТФ (кнопка с белой подсветкой) для Лада Гранта FL, 4х4 с 2019 г.в., Нива Легенд</t>
+          <t>Распорка AutoProduct Drive передняя регулируемая с поддержкой силового агрегата для 16-клапанных ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1190</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/39808-usb-zaryadnoe-2slota-vaz-2110-2112</t>
+          <t>https://motorring.ru/product/6053-sharnir-reaktivnoy-tyagi-lada-priora</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>USB зарядное на 2 слота вместо заглушки кнопки для ВАЗ 2110, 2111, 2112</t>
+          <t>Шарнир реактивной тяги AutoProduct Comfort для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -995,2315 +993,1661 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37883-rele-povorotnikov-dlya-svetodiodnyh-lamp-emi-dlya-vaz</t>
+          <t>https://motorring.ru/product/1763-rasporka-perednyaya-avtoprodukt-vaz-2114</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Реле поворотников для светодиодных ламп ЭМИ для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+          <t>Распорка передняя AutoProduct Drive для 16-клапанных ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>289</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5899-bortovoy-kompyyuter-shtat-x1-lada-granta-kalina-2</t>
+          <t>https://motorring.ru/product/29932-skrytaya-rasporka-perednih-stoek-avtoprodukt-drive-vesta</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ Х1-G с зеленой подсветкой вместо заглушки кнопки для Лада Гранта, Калина 2, Приора 2, Датсун</t>
+          <t>Скрытая распорка передних стоек AutoProduct Drive для Лада Веста</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2190</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37794-cifrovoy-volytmetr-korpuse-vrezaemyy-diagonalyyu</t>
+          <t>https://motorring.ru/product/6088-rychagi-reguliruemye-perednie-autoproduct-pod-uvelichennuyu</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Цифровой вольтметр в корпусе врезаемый диагональю 1,5 см</t>
+          <t>Рычаги регулируемые передние AutoProduct Sport под увеличенную на 70мм колею для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>390</v>
+        <v>13690</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/4248-provodka-dlya-podklyucheniya-ptf-lada-priora</t>
+          <t>https://motorring.ru/product/15470-usiliteli-opor-stoek-avtoprodukt-kasterom-gradusa-2108</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Проводка подключения противотуманных фар (ПТФ) для Лада Приора</t>
+          <t>Усилители опор стоек AutoProduct Drive с кастором на 1,5 градуса для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>990</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1320-bortovoy-kompyyuter-mulytitroniks-570-golos-vmesto-bloka</t>
+          <t>https://motorring.ru/product/5849-opora-dvigatelya-avtoprodukt-vaz-2110-2111-2112-lada-priora</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Мультитроникс C-575 вместо блока БСК с голосовым синтезатором для Шевроле Нива, Лада Нива Тревел</t>
+          <t>Опора двигателя (растяжка) AutoProduct Comfort для 16-клапанных ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8790</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9815-pusko-zaryadnoe-ustroystvo-orion-700</t>
+          <t>https://motorring.ru/product/6061-rasporka-autoproduct-drive-perednyaya-rastyaghkoy-silovogo</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Пуско-зарядное устройство Орион Вымпел-700</t>
+          <t>Распорка AutoProduct Drive передняя с растяжкой силового агрегата для 16-клапанных Лада Приора</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8290</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1318-bortovoy-kompyyuter-multitronics-c-580-uaz-patriot-biznes</t>
+          <t>https://motorring.ru/product/15544-podramnik-avtoprodukt-drive-poliuretan-bez-zaschity-lada</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Multitronics C-580 с голосовым синтезатором для автомобилей УАЗ Патриот, ГАЗель Бизнес</t>
+          <t>Подрамник AutoProduct Drive с полиуретановыми сайлентблоками без защиты для Лада Гранта, Калина с 2013 г.в., Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9190</v>
+        <v>8090</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6679-usb-zaryadnik-shtat-vmesto-zaglushki-knopki-lada-priora</t>
+          <t>https://motorring.ru/product/1760-rasporka-perednyaya-avtoprodukt-lada-granta-kalina-kalina</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>USB-зарядник Штат 2.0 вместо заглушки кнопки для Лада Приора, Калина 2, Гранта, Гранта FL</t>
+          <t>Распорка передняя AutoProduct Drive для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>590</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9771-rele-dho-30b-vklyucheniya-dalynego-sveta-kak-hodovye</t>
+          <t>https://motorring.ru/product/6064-usilitely-schitka-peredka-avtoprodukt-vaz-2110-2111-2112</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Реле ДХО-30Б включения дальнего света как ходовых огней для ВАЗ 2107, 2108-2109, 2110-2112, 2113-2115</t>
+          <t>Усилитель щитка передка (рулевой рейки) AutoProduct Drive для 8-клапанных ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1190</v>
+        <v>829</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9767-radar-detektor-orion-525</t>
+          <t>https://motorring.ru/product/29919-remkomplekt-podramnika-avtoprodukt-parts-dlya-vaz</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Радар-детектор Орион 525-СТ</t>
+          <t>Ремкомплект подрамника AutoProduct Parts для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3990</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8469-rele-avtosveta-nezabudka2-avtomobili-vaz</t>
+          <t>https://motorring.ru/product/29943-poperechina-autoproduct-drive-poliuretan-granta-kalina</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Реле автосвета Незабудка 2М для автомобилей ВАЗ</t>
+          <t>Поперечина AutoProduct Sport с полиуретановыми сайленблоками для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>590</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9759-preobrazovately-napryagheniya-invertornyy-35a</t>
+          <t>https://motorring.ru/product/15529-podramnik-autoproduct-ghestkimi-rychagami-bez-zaschity-2108</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Преобразователь напряжения инверторный с 24В на 12В 35А</t>
+          <t>Подрамник AutoProduct Drive с жесткими рычагами без защиты для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2290</v>
+        <v>15590</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37860-provodka-dlya-podklyucheniya-ptf-2106-lada-niva-4x4</t>
+          <t>https://motorring.ru/product/15538-stabilizator-poperechnoy-ustoychivosti-autoproduct-granta</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Проводка для подключения противотуманных фар (ПТФ) для ВАЗ 2106, Лада 4х4 (Нива)</t>
+          <t>Стабилизатор поперечной устойчивости 24 мм AutoProduct Drive для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>769</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/34925-rele-buv-dlya-isklyucheniya-zapaha-omyvayki</t>
+          <t>https://motorring.ru/product/15537-podramnik-autoproduct-drive-rezinovymi-saylentblokami-bez</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Реле блока управления вентилятором (БУВ) для предотвращения попадания запаха стеклоомывающей жидкости в салон</t>
+          <t>Подрамник AutoProduct Drive с резиновыми сайлентблоками без защиты для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>969</v>
+        <v>9090</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1745-elektronnaya-kombinaciya-priborov-flash-lada-priora-kalina</t>
+          <t>https://motorring.ru/product/29876-pryamotochnyy-glushitely-avtoprodukt-f51-kalina-sedan</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Электронная комбинация приборов Flash X4 для Лада Приора, Калина, ВАЗ 2110-2112</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для Лада Калина седан, универсал</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>14290</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1747-elektronnaya-kombinaciya-priborov-flash-light-lada-priora</t>
+          <t>https://motorring.ru/product/1757-rasporka-nighnyaya-avtoprodukt-lada-granta-kalina-kalina</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Электронная комбинация приборов Flash X5 для Лада Приора, Калина, ВАЗ 2110-2112</t>
+          <t>Распорка нижняя AutoProduct Drive для Лада Гранта, Калина до 2013 г.в.</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17390</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9814-sensornyy-vyklyuchately-shtat-bez-fiksacii</t>
+          <t>https://motorring.ru/product/37515-opora-dvigatelya-pravaya-usilennaya-podushkoy-dlya-lada-vesta-spo</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Сенсорный выключатель Штат TS без фиксации</t>
+          <t>Опора двигателя правая усиленная с подушкой для Лада Веста, Веста Спорт</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>590</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9777-rele-plavnogo-zapuska-ventilyatora-radiatora-300vt-rpv-2</t>
+          <t>https://motorring.ru/product/15591-rychag-zadniy-sbore-autoproduct-rezinovyy-saylentblok-lada</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Реле плавного запуска вентилятора радиатора 300Вт (РПВ-2)</t>
+          <t>Рычаг задний в сборе AutoProduct Sport Pro с резиновыми сайлентблоками для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1290</v>
+        <v>18590</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/7103-usb-zaryadnoe-2slota-vaz-2108-21099-2113-2115-kalina-niva</t>
+          <t>https://motorring.ru/product/6058-usilitely-zadniy-avtoprodukt-lada-granta-kalina-kalina</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">USB зарядное на 2 слота для ВАЗ 2108-21099, 2110-2112 с европанелью, 2113-2115, Лада Калина, Нива 4х4, Шевроле Нива </t>
+          <t>Усилитель кузова задний AutoProduct Sport для Лада Гранта, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>749</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9780-pribor-dlya-proverki-moduley-zaghiganiya-spmz-3</t>
+          <t>https://motorring.ru/product/6036-komplekt-tyag-avtoprodukt-kontrgaykami-rulevoy-trapecii-vaz</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Прибор для проверки модулей зажигания СПМЗ-3</t>
+          <t>Комплект тяг AutoProduct Drive с контргайками рулевой трапеции для ВАЗ 2101-2107, Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7190</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1202-bortovoy-kompyyuter-mulytitroniks-730-vaz-inomarki</t>
+          <t>https://motorring.ru/product/15091-prostavki-ugla-razvala-autoproduct-2gradusa-dlya-vaz</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Мультитроникс VC-730 TFT дисплей на стекло для ВАЗ и иномарки</t>
+          <t>Проставки угла развала AutoProduct Drive на 2 градуса для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8690</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9785</t>
+          <t>https://motorring.ru/product/6054-saylentblok-rychaga-vertikalynyy-avtoprodukt-zapchasty-lada</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Тестер форсунок ТФ-01</t>
+          <t>Сайлентблок рычага подрамника AutoProduct Drive для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Приора, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3290</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25422-usb-zaryadnoe-ustroystvo-slota-prikurivatelya-avtomobilya</t>
+          <t>https://motorring.ru/product/3840-poperechina-autoproduct-drive-rezinovymi-saylentblokami-vaz</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>USB зарядное устройство на 2 слота от прикуривателя автомобиля</t>
+          <t>Поперечина AutoProduct Drive с резиновыми сайлентблоками для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>749</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15790-bortovoy-kompyyuter-shtat-115x23m-dlya-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/1755-rasporka-perednyaya-avtoprodukt-lada-priora</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Штат 115x23М для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Распорка передняя регулируемая AutoProduct Drive для Лада Приора</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5690</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9760</t>
+          <t>https://motorring.ru/product/29879-pryamotochnyy-glushitely-avtoprodukt-f51-21099</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Преобразователь напряжения повышающий 12/24 Орион ПН-50 10А</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для ВАЗ 21099</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3690</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/30634-strelochnaya-nagruzochnaya-vilka-nv-05</t>
+          <t>https://motorring.ru/product/32384-poperechina-autoproduct-peredney-oporoy-silovogo-agregata</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Нагрузочная вилка НВ-05 цифровая для проверки АКБ и генератора</t>
+          <t>Поперечина AutoProduct c передней опорой силового агрегата для Лада Веста, Веста Спорт</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1290</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/30629-komplekt-podklyucheniya-ptf-vaz-evropanel-2110-2111-2112</t>
+          <t>https://motorring.ru/product/15543-podramnik-avtoprodukt-ghestkimi-rychagami-bez-zaschity-lada</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Проводка для подключения противотуманных фар (ПТФ) под евро-панель для ВАЗ 2110-2112</t>
+          <t>Подрамник AutoProduct Drive с жесткими рычагами без защиты для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>890</v>
+        <v>15690</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37888-nasos-dlya-perekachki-ghidkosti-vympel-nm-12-52-mm</t>
+          <t>https://motorring.ru/product/15549-zaschita-dvigatelya-autoproduct-stalynaya-ocinkovannaya</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Насос для перекачки жидкости Вымпел НС-12, 24 В 52 мм</t>
+          <t>Защита двигателя AutoProduct Safe стальная оцинкованная под подрамник для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1790</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/39804-moduly-avtomaticheskogo-kontrollera-steklopodyemnikov-kalina</t>
+          <t>https://motorring.ru/product/29965-nakladki-pedali-avtoprodukt-sport-amt-lada-vesta-2016</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Модуль автоматического контроллера стеклоподъемников МАКС-2 для Лада Калина</t>
+          <t>Накладки на педали AutoProduct Sport АМТ 1.8 для Лада Веста с 2016 г.в.</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2590</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9792-podogrev-tosola-220v-magnum-5kvt-dlya-lada-granta-kalina</t>
+          <t>https://motorring.ru/product/18816-rasporka-perednyaya-avtoprodukt-lada-vesta</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Подогрев тосола 220В Магнум №29 1,5кВт для 8-клапанных Лада Гранта, Калина 2</t>
+          <t>Распорка передняя AutoProduct Drive для Лада Веста</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2190</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37795-cifrovoy-volytmetr-ampermetr</t>
+          <t>https://motorring.ru/product/31389-rychagi-reguliruemye-pered-autoproduct-sport-pu-2108</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Цифровой вольтметр амперметр</t>
+          <t>Рычаги регулируемые передние AutoProduct Sport с полиуретановыми сайлентблоками для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>590</v>
+        <v>11190</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25437-rele-vremeni-avtomobilynyh-signalizaciy</t>
+          <t>https://motorring.ru/product/37440-remkomplekt-usiliteley-zadnih-stoek-dlya-lada-kalina-kalina</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Реле времени РВ автомобильных сигнализаций</t>
+          <t>Ремкомплект распорок задних стоек и усилителей кузова для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>590</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/31610-indikator-napryagheniya-int-12-krasniy-volytometrom-granta</t>
+          <t>https://motorring.ru/product/29881-pryamotochnyy-glushitely-avtoprodukt-f51-2115</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Индикатор температуры ИНТ-12 красный с вольтометром для Лада Гранта, Калина 2, Приора, Датсун</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для ВАЗ 2115</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1090</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3482-komplekt-podklyucheniya-protivotumannyh-far-vaz-2105-2107</t>
+          <t>https://motorring.ru/product/15472-usiliteli-opor-stoek-avtoprodukt-lada-priora-vaz-2110-12</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Проводка ML подключения противотуманных фар (ПТФ) для ВАЗ 2101-2107, Лада 4х4 (Нива) до 2019 г.в.</t>
+          <t>Усилители опор стоек AutoProduct Safe для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>829</v>
+        <v>949</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9782-stroboskop-orion-st-02-dlya-karbyuratornyh-inghektornyh</t>
+          <t>https://motorring.ru/product/15541-podramnik-avtoprodukt-drive-poliuretan-bez-zaschity-granta</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Стробоскоп Орион СТ-02 для карбюраторных и инжекторных двигателей</t>
+          <t>Подрамник AutoProduct Drive с полиуретановыми сайлентблоками без защиты для Лада Гранта, Калина до 2013 г.в.</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2690</v>
+        <v>8490</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37783-cifrovoy-indikator-bort-seti-prikurivately-malyy-3-30v</t>
+          <t>https://motorring.ru/product/22836-poperechina-autoproduct-sport-lada-granta-kalina-kalina</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Цифровой индикатор бортовой сети ИН Малый 3-30V в прикуриватель</t>
+          <t>Поперечина AutoProduct Sport для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>490</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9728-antenna-orion-a-25</t>
+          <t>https://motorring.ru/product/29891-tyagi-avtoprodukt-kontrgaykami-rulevoy-trapecii-vaz-2101</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Антенна Орион Вымпел А-25</t>
+          <t>Комплект тяг AutoProduct Sport с контргайками рулевой трапеции Дрифт для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>690</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/4422-komplekt-podklyucheniya-protivotumannyh-far-vaz-2110-2111-2112</t>
+          <t>https://motorring.ru/product/6063-usilitely-schitka-peredka-avtoprodukt-vaz-2110-2112-priora</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Проводка для подключения противотуманных фар (ПТФ) для ВАЗ 2110-2112</t>
+          <t>Усилитель щитка передка (рулевой рейки) AutoProduct Drive для 16-клапанных ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>890</v>
+        <v>829</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9770-universalynoe-rele-zaschity-lamp-dlya-avtomobiley-vaz</t>
+          <t>https://motorring.ru/product/15090-prostavki-ugla-razvala-autoproduct-1-5-gradusa</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Универсальное реле защиты ламп для автомобилей ВАЗ</t>
+          <t>Проставки угла развала AutoProduct Drive на 1.5 градуса для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>949</v>
+        <v>990</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37777-datchik-doghdya-dda-dlya-lada-inomarok</t>
+          <t>https://motorring.ru/product/29888-opory-reyki-rulevogo-mehanizma-avtoprodukt-vaz-2108</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Датчик дождя ДДА 55 для Лада и иномарок</t>
+          <t>Опоры рейки рулевого механизма AutoProduct Drive для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3690</v>
+        <v>949</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25429-moduli-avtomaticheskoy-tonirovki-maks-2t-20a</t>
+          <t>https://motorring.ru/product/6087-komplekt-regulirovochnyh-shayb-podramnika-autoproduct-vaz</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Модули автоматической тонировки МАКС-2Т 20А</t>
+          <t>Комплект регулировочных шайб подрамника AutoProduct Parts для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4890</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9741-zaryadnoe-ustroystvo-orion-325</t>
+          <t>https://motorring.ru/product/15535-podramnik-avtoprodukt-ghestkimi-rychagami-bez-zaschity-2110</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Зарядное устройство Орион Вымпел-325 20 ампер</t>
+          <t>Подрамник AutoProduct Drive с жесткими рычагами без защиты для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3190</v>
+        <v>16190</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13527-montaghnyy-nabor-podklyucheniya-protivotumannyh-far-lada</t>
+          <t>https://motorring.ru/product/4312-poperechina-autoproduct-safe-rezinovymi-saylentblokami-vaz</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Монтажный набор подключения противотуманных фар для Лада Веста</t>
+          <t>Поперечина AutoProduct Safe с резиновыми сайлентблоками для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3290</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8490-gnezdo-vstavka-tonnely-pola-pod-dopolnitelynye-knopki-lada</t>
+          <t>https://motorring.ru/product/29900-komplekt-prostavok-znp-pod-zadnie-diskovye-tormoza</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Гнездо-вставка в тоннель пола под дополнительные кнопки Лада Гранта, Калина 2, Датсун</t>
+          <t>Комплект проставок ЗНП под задние дисковые тормоза AutoProduct Parts для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Гранта, Гранта FL, Приора</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>729</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1333-parktronik-multitronics-apt-4c</t>
+          <t>https://motorring.ru/product/5414-usiliteli-opor-stoek-avtoprodukt-lada-kalina-kalina-granta</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Парктроник Multitronics APT-4C</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
+          <t>Усилители опор стоек AutoProduct Safe для Лада Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8468-rele-dvornikov-reguliruemoy-pauzoy-dlya-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/29877-pryamotochnyy-glushitely-avtoprodukt-f51-granta</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Реле дворников с регулируемой паузой для ВАЗ 2108-21099 с новым блоком, 2113-2115, Лада Приора, Калина, Гранта</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для Лада Гранта</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>649</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5926-bortovoy-kompyyuter-shtat-shevi-matrix-3-vmesto-bloka-bsk</t>
+          <t>https://motorring.ru/product/30416-zadnyaya-nezavisimaya-podveska-avtoprodukt-kalna</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ Шеви MATRIX-M вместо блока БСК для Шевроле Нива</t>
+          <t>Задняя независимая подвеска AutoProduct Drive для Лада Калина, Калина 2, Гранта, Датсун</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7190</v>
+        <v>36590</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5911-bortovoy-kompyyuter-shtat-unicomp-410l-dlya-daewoo-peugeot</t>
+          <t>https://motorring.ru/product/15600-rychag-zadniy-autoproduct-sbore-lada-granta-kalina-kalina</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ UniComp-410ML для Лада, Шевроле Нива, Рено и прочих иномарок</t>
+          <t>Рычаг задний AutoProduct Sport Pro в сборе с полиуретановыми сайлентблоками для Лада Гранта, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4590</v>
+        <v>24990</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37799-kommutator-elektronnyy-dlya-lada-oka</t>
+          <t>https://motorring.ru/product/29898-uplotnitelynye-kolyca-drosselynoy-zaslonki-avtoprodukt</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Коммутатор электронный для Лада Ока</t>
+          <t>Уплотнительные кольца дроссельной заслонки AutoProduct Parts для 16-клапанных Лада Ларгус, Рено Логан, Сандеро, Дастер</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>690</v>
+        <v>749</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9736-strelochnaya-nagruzochnaya-vilka-nv-02</t>
+          <t>https://motorring.ru/product/29967-nakladki-pedali-avtoprodukt-sport-1-6-amt-lada-vesta-2016</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Нагрузочная вилка НВ-02 аналоговая для проверки АКБ и генератора 100/200А</t>
+          <t>Накладки на педали AutoProduct Sport АМТ 1.6 для Лада Веста с 2016 г.в.</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2190</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/30633-strelochnaya-nagruzochnaya-vilka-nv-03</t>
+          <t>https://motorring.ru/product/6085-rastyaghka-zadnego-rychaga-avtoprodukt-vaz-datsun</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Нагрузочная вилка НВ-03 цифровая для проверки АКБ и генератора 100/200А</t>
+          <t>Растяжка AutoProduct Parts заднего рычага R1 для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3990</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/4607-komplekt-podklyucheniya-protivotumannyh-far-vaz-2113-2114-2115</t>
+          <t>https://motorring.ru/product/1761-rasporka-zadnyaya-avtoprodukt-lada-granta-kalina-kalina</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Проводка подключения противотуманных фар (ПТФ) ML Auto Light Technology для ВАЗ 2113, 2114, 2115</t>
+          <t>Распорка задних стоек AutoProduct Drive для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>829</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5927</t>
+          <t>https://motorring.ru/product/18810-prostavki-ugla-razvala-gradus-lada-vesta-iks-rey</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ Шеви Вектор-P вместо блока БСК для Шевроле Нива</t>
+          <t>Проставки угла развала AutoProduct Drive на 1 градус для Лада Веста, Икс Рей</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6190</v>
+        <v>729</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25433-moduly-plavnogo-vklyucheniya-podsvetki-kombinacii-priborov</t>
+          <t>https://motorring.ru/product/6079-poperechina-autoproduct-safe-rezinovymi-saylentblokami-dlya</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Модуль плавного включения подсветки комбинации приборов</t>
+          <t>Поперечина AutoProduct Safe с резиновыми сайлентблоками для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>569</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9743-imitator-datchika-skorosti</t>
+          <t>https://motorring.ru/product/37514-zadnyaya-nezavisimaya-podveska-dlya-lada-vesta-vesta-sw</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Имитатор датчика скорости для Лада и иномарок</t>
+          <t>Задняя независимая подвеска для Лада Веста, Веста SW</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>569</v>
+        <v>55690</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9731-bezklyuchevoy-obhodchik-immobilayzera-shtat-dlya-lada</t>
+          <t>https://motorring.ru/product/29880-pryamotochnyy-glushitely-avtoprodukt-f51-2113</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Безключевой обходчик иммобилайзера Штат для Лада Гранта, Калина 2, Приора 2, Datsun</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для ВАЗ 2113, 2114</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>969</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37756-adapter-elm-327-bluetooth-15-mini-dlya-diagnostiki-avtomobilya</t>
+          <t>https://motorring.ru/product/6067-rastyaghka-rychagov-nighnyaya-autoproduct-drive-plus-pod</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Адаптер ELM 327 BLUETOOTH MINI v1.5 для диагностики автомобиля (Китай)</t>
+          <t>Растяжка нижних рычагов AutoProduct Drive под тросовую КПП для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>790</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5901-bortovoy-kompyyuter-shtat-x-33-vmesto-zaglushki-knopki-vaz</t>
+          <t>https://motorring.ru/product/36923-stabilizator-poperechnoy-ustoychivosti-avtoprodukt-22mm-v-sbore</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ X-33 вместо заглушки кнопки для ВАЗ 2110-2112</t>
+          <t>Стабилизатор поперечной устойчивости AutoProduct Drive 22 мм в сборе для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2190</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25430-moduli-avtomaticheskoy-tonirovki-maks-2t-30a</t>
+          <t>https://motorring.ru/product/37443-poperechina-autoproduct-drive-poliuretanovymi-sharnirami</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Модули автоматической тонировки МАКС-2Т 30А</t>
+          <t>Поперечина AutoProduct Drive с полиуретановыми шарнирами для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5090</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5900</t>
+          <t>https://motorring.ru/product/15526-opora-dvigatelya-levaya-sport-avtoprodukt-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ Х1-P вместо заглушки кнопки для Лада Приора</t>
+          <t>Опора двигателя левая AutoProduct Sport для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2190</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37798-kommutator-elektronnyy-shtat-plazma-dlya-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/29931-kronshteyn-levoy-opory-kulisnoy-kpp-avtoprodukt-drive-granta</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Коммутатор электронный ШТАТ Плазма для ВАЗ 2108-21099, 2110</t>
+          <t>Кронштейн левой опоры кулисной КПП AutoProduct Drive для Лада Гранта, Калина, Калина 2</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>690</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9775-rele-dvornikov-reguliruemoy-pauzoy-vaz-2108-21099-starym</t>
+          <t>https://motorring.ru/product/15627-rasporka-perednyaya-autoproduct-drive-rastyaghkoy-silovogo</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Реле дворников с регулируемой паузой для ВАЗ 2108-21099 со старым блоком, 2110-2112, Шевроле Нива</t>
+          <t>Распорка передняя AutoProduct Drive с растяжкой силового агрегата для 16-клапанных Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>629</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/39806-indikator-napryagheniya-in-12-krasniy-dlya-vaz-2110</t>
+          <t>https://motorring.ru/product/22838-poperechina-autoproduct-sport-vaz-2108-21099-2113-2115</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Индикатор напряжения ИН-12 с красной подсветкой для ВАЗ 2110-2112</t>
+          <t>Поперечина AutoProduct Sport для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>629</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/34607-volytmetr-siney-podsvetkoy-prikurivately-funkciey</t>
+          <t>https://motorring.ru/product/4311-poperechina-autoproduct-drive-poliuretanovymi</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Вольтметр с синей подсветкой в прикуриватель 4 в 1 с функцией зарядного устройства USB</t>
+          <t>Поперечина AutoProduct DRIVE с полиуретановыми сайлентблоками для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>629</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9745-indikator-temperatury-dvigatelya-dlya-folyksvagen-polo</t>
+          <t>https://motorring.ru/product/15553-zaschita-dvigatelya-stalynaya-ocinkovannaya-avtoprodukt</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Индикатор температуры двигателя для Фольксваген Поло</t>
+          <t>Защита двигателя AutoProduct Safe стальная оцинкованная под подрамник для Лада Гранта, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1390</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9768</t>
+          <t>https://motorring.ru/product/6055-usilitely-zadniy-avtoprodukt-vaz-2108-2109-2113-2114</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Радар-детектор Орион 575-СТ с голосовым оповещением</t>
+          <t>Усилитель задний AutoProduct Sport для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4790</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8466</t>
+          <t>https://motorring.ru/product/15528-komplekt-opor-dvigatelya-sport-pro-avtoprodukt-2108</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Преобразователь напряжения (розетка автомобильная) 12/220 Орион ПН-60 450W</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
+          <t>Комплект опор двигателя AutoProduct Sport Pro для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>4990</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/33974-indikator-napryagheniya-in-12-siniy-dlya-vaz-2110-12</t>
+          <t>https://motorring.ru/product/15540-podramnik-avtoprodukt-ghestkimi-rychagami-bez-zaschity-granta</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Индикатор напряжения ИН-12 синий для ВАЗ 2110-2112 (европанель), 2113-2115, Лада Калина, Шевроле Нива</t>
+          <t>Подрамник AutoProduct Drive с жесткими рычагами без защиты для Лада Гранта, Калина до 2013 г.в.</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>629</v>
+        <v>15890</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37894-termometr-zabortnoy-temperatury-batareykah</t>
+          <t>https://motorring.ru/product/1762-rasporka-perednyaya-rastyaghkoy-dop-oporoy-dvigatelya-vaz</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Термометр забортной температуры на батарейках</t>
+          <t>Распорка передних стоек AutoProduct Drive с растяжкой силового агрегата для 16-клапанных ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>449</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37804-bortovoy-kompyyuter-mulytitroniks-sl-50v-dlya-inghektornyh</t>
+          <t>https://motorring.ru/product/15525-opora-dvigatelya-zadnyaya-sport-avtoprodukt-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Мультитроникс SL-50V для инжекторных автомобилей ВАЗ и иномарок</t>
+          <t>Опора двигателя задняя AutoProduct Sport для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>6790</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9779</t>
+          <t>https://motorring.ru/product/29956-prostavki-ugla-razvala-autoproduct-3gradusa-dlya-vaz</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Сканер-тестер S7000 (USB исполнение) для диагностики автомобилей ВАЗ, ГАЗ</t>
+          <t>Проставки угла развала AutoProduct Drive на 3 градуса для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>5890</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25427-moduly-kontrollera-steklopodyemnikov-largus</t>
+          <t>https://motorring.ru/product/1752-rasporka-nighnyaya-avtoprodukt-vaz-2108-21099-2110-2112</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Модуль автоматического контроллера стеклоподъемников МАКС-2 для Лада Ларгус, Renault Logan, Sandero, Nissan Almera</t>
+          <t>Распорка нижних передних рычагов AutoProduct Drive для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2190</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9789-podogrev-tosola-220v-magnum-5kvt-dlya-vaz-2108-15-2110-12</t>
+          <t>https://motorring.ru/product/15469-usiliteli-opor-stoek-avtoprodukt-vaz-2108-21099-2113-2115</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Подогрев тосола 220В Магнум №16 1,5кВт для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Ларгус, Renault</t>
+          <t>Усилители опор стоек AutoProduct Safe для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1990</v>
+        <v>949</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22749</t>
+          <t>https://motorring.ru/product/15599-rychag-zadniy-autoproduct-sbore-rezinovyy-saylentblok-lada</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Модуль автоматического контроллера стеклоподъемников МАКС-2 для Лада Веста</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>3190</v>
-      </c>
+          <t>Рычаг задний AutoProduct Sport Pro в сборе с резиновыми сайлентблоками для Лада Гранта, Калина, Калина 2, Датсун</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/31966-indikator-napryagheniya-int-12-krasniy-volytometrom-kalina</t>
+          <t>https://motorring.ru/product/37463-stabilizator-poperechnoy-ustoychivosti-autoproduct-sbore-24-mm</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Индикатор температуры ИНТ-12 красный с вольтометром для ВАЗ 2110-2112 (европанель), 2113-2115, Лада Калина, Шевроле Нива</t>
+          <t>Стабилизатор поперечной устойчивости AutoProduct 24 мм в сборе с усиленными стойками для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1090</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9764-adapter-eeprom-po5-dlya-programmatora-po-5</t>
+          <t>https://motorring.ru/product/15630-rasporka-perednyaya-autoproduct-drive-2108-21099-2113-2115</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Адаптер EEPROM-ПО5 для программатора ПО-5</t>
+          <t>Распорка передняя AutoProduct Drive для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1790</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/28523</t>
+          <t>https://motorring.ru/product/6060-rastyaghka-perednih-stoek-autoproduct-drive-reguliruemaya</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Зарядно-предпусковое устройство Орион Вымпел-30 (20 ампер) для аккумулятора</t>
+          <t>Растяжка передних стоек AutoProduct Drive регулируемая для Лада Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3290</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1319-bortovoy-kompyyuter-multitronics-cl-580-dlya-avtomobiley</t>
+          <t>https://motorring.ru/product/15629-rasporka-perednyaya-autoproduct-drive-reguliruemaya-vaz</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Multitronics CL-580 без голосового синтезатора для автомобилей УАЗ Патриот, ГАЗ</t>
+          <t>Распорка передняя AutoProduct Drive регулируемая для ВАЗ 2108-21099, 2110-2112. 2113-2115</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>8490</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25421-3-h-kanalynoe-usb-zaryadnoe-ustroystvo-komplekt</t>
+          <t>https://motorring.ru/product/29951-prostavki-zadnego-rychaga-autoproduct-drive-70mm</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>3-х канальное USB зарядное устройство (комплект)</t>
+          <t>Проставки заднего рычага AutoProduct Drive с расширением колеи на 70мм для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Датсун</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1690</v>
+        <v>6990</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1329-parktronik-multitronics-pu-4tc</t>
+          <t>https://motorring.ru/product/1767-opora-dvigatelya-perednyaya-sport-avtoprodukt-vaz</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Парктроник Multitronics PU4-TC</t>
+          <t>Опора двигателя передняя AutoProduct Sport для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>4490</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37791-cifrovoy-indikator-bortovoy-seti-bolyshoy-3-30v</t>
+          <t>https://motorring.ru/product/29878-pryamotochnyy-glushitely-avtoprodukt-f51-2108</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Цифровой индикатор бортовой сети ИН Большой 3-30V в прикуриватель</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для ВАЗ 2108, 2109</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>590</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8476-regulyator-obogreva-sideniy-avtomatom-ros-dlya-vaz</t>
+          <t>https://motorring.ru/product/15542-podramnik-avtoprodukt-drive-bez-zaschity-lada-granta-kalina</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Регулятор обогрева сидений с автоматом РОС для Лада, Шевроле Нива</t>
+          <t>Подрамник AutoProduct Drive с резиновыми сайлентблоками без защиты для Лада Гранта, Калина до 2013 г.в.</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>590</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5928-bortovoy-kompyyuter-shtat-h-1-universal-vmesto-zaglushki</t>
+          <t>https://motorring.ru/product/29905-valy-privoda-perednih-koles-avtoprodukt-sport-70mm</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ Х1-M Универсал вместо заглушки кнопки для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Шевроле Нива</t>
+          <t>Валы привода передних колес AutoProduct Sport под увеличения колеи на 70мм для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2290</v>
+        <v>9390</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10904-provodka-dlya-podklyucheniya-ptf-lada-vesta-xray</t>
+          <t>https://motorring.ru/product/29889-opory-reyki-rulevogo-mehanizma-avtoprodukt-vaz-2110</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Проводка для подключения противотуманных фар (ПТФ) с универсальной кнопкой для Лада Веста, Иксрей</t>
+          <t>Опоры рейки рулевого механизма AutoProduct Drive для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1090</v>
+        <v>949</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1335</t>
+          <t>https://motorring.ru/product/15527-opora-dvigatelya-perednyaya-avtoprodukt-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Парктроник Мультитроникс PT4-TC</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr"/>
+          <t>Опора двигателя передняя AutoProduct Drive для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1490</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37797</t>
+          <t>https://motorring.ru/product/29924-rychagi-podramnika-ghestkie-70mm-autoproduct-vaz-2108-2115</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Коммутатор электронный ШТАТ Remix для ВАЗ 2108-21099, 2110</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>690</v>
-      </c>
+          <t>Рычаги подрамника AutoProduct Drive жесткие под увеличенную на 70мм колею для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9762-programmator-odometrov-po-5</t>
+          <t>https://motorring.ru/product/2394-poperechina-avtoprodukt-drive-vaz-2110-2112-priora</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Программатор одометров ПО-5</t>
+          <t>Поперечина AutoProduct Drive с опорой двигателя для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4390</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8480-cifrovoy-volytmetr-vrezaemyy</t>
+          <t>https://motorring.ru/product/15533-podramnik-autoproduct-sport-bez-zaschity-lada-granta-kalina</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Цифровой вольтметр врезаемый с красной подсветкой</t>
+          <t>Подрамник AutoProduct Sport без защиты для Лада Гранта, Гранта FL, Калина, Калина 2 с МКПП</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>269</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15248-datchik-doghdya-dda-lada-granta-lyuks-lada-largus-reno</t>
+          <t>https://motorring.ru/product/15613-rasporka-perednyaya-avtoprodukt-vaz-2110-2112-priora</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Датчик дождя ДДА 45 для Лада Гранта (люкс),  Калина 2, Ларгус, Рено</t>
+          <t>Распорка передняя AutoProduct Drive для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2890</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9720-adapter-elm-327-bluetooth-dlya-diagnostiki-avtomobilya</t>
+          <t>https://motorring.ru/product/29883-pryamotochnyy-glushitely-avtoprodukt-f51-2112</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Адаптер ELM 327 BLUETOOTH v2.1 для диагностики автомобиля (Китай)</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для ВАЗ 2112 до 2007 г.в.</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>690</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15235-bortovoy-kompyyuter-mulytitroniks-cl-590-vmesto-vozduhovoda</t>
+          <t>https://motorring.ru/product/29872-gib-avtoprodukt-perehod-cherez-zadnyuyu-balku-2108</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Мультитроникс CL-590 без звукового синтезатора вместо воздуховода для Лада Гранта, Ларгус, Рено, Ниссан</t>
+          <t>Гиб AutoProduct переход через заднюю балку Ф51 для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>7790</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/31840-usb-zaryadnoe-ustroystvo-15vt-slota-dlya-lada-vesta-iks-rey</t>
+          <t>https://motorring.ru/product/9620-sharnir-reaktivnoy-tyagi-avtoprodukt-lada-kalina-granta</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>USB зарядное устройство Штат 15Вт на 2 слота в подлокотник для Лада Веста, Икс Рей, Ларгус FL</t>
+          <t>Шарнир реактивной тяги AutoProduct Comfort для Лада Калина, Гранта</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>790</v>
+        <v>729</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/24175-zaryadnoe-ustroystvo-impulysnoe-orion-pw150m</t>
+          <t>https://motorring.ru/product/29966-nakladki-pedali-avtoprodukt-sport-mt-lada-xray-logan</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Зарядное устройство импульсное Орион PW150M</t>
+          <t>Накладки на педали AutoProduct Sport МТ для Лада Икс Рей, Рено Логан 2</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1690</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13881-usb-zaryadnoe-slota-vmesto-zaglushki-paneli-priborov-vaz</t>
+          <t>https://motorring.ru/product/15539-dopolnitelynaya-opora-dvigatelya-avtoprodukt-vaz-2110-2112</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>USB зарядное на 2 слота вместо заглушки панели приборов для ВАЗ 2108-21099 с высокой панелью, ВАЗ 2113-2115, Лада 4х4 (Нива) 21213, 21214, 2131</t>
+          <t>Дополнительная опора двигателя AutoProduct Drive для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>749</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37776-datchik-doghdya-dda15-02-vaz-2108-21099-2113-2115-2110-2112</t>
+          <t>https://motorring.ru/product/6052-kronshteyn-levoy-opory-kpp-autoproduct-drive-lada-granta</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Датчик дождя ДДА15.02 под старый блок предохранителей для ВАЗ 2108-21099, 2113-2115, 2110-2112, Шевроле Нива</t>
+          <t>Кронштейн левой опоры тросиковой КПП AutoProduct Drive для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3590</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37900-centralynyy-zamok-vympel-a-y16</t>
+          <t>https://motorring.ru/product/29887-tyagi-rulevoy-trapecii-avtoprodukt-kontrgaykami-4x4</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Центральный замок на 4 двери Орион Вымпел A-Y16 с 2 ключами управления</t>
+          <t>Тяги рулевой трапеции AutoProduct Drive с контргайками для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2290</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5918-bortovoy-kompyyuter-shtat-1118-kalina-x5mk-lada-kalina</t>
+          <t>https://motorring.ru/product/29886-pryamotochnyy-glushitely-avtoprodukt-f51-2111</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Штат 1118 Калина X5MК для Лада Калина</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для ВАЗ 2111</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>5190</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9769-regulyator-obogreva-sideniy-ros-2</t>
+          <t>https://motorring.ru/product/15534-podramnik-autoproduct-sport-bez-zaschity-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Регулятор обогрева сидений РОС-2 для ВАЗ</t>
+          <t>Подрамник AutoProduct Sport с резиновыми сайлентблоками без защиты для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>719</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/33977</t>
+          <t>https://motorring.ru/product/22837-poperechina-autoproduct-drive-dopolnitelynoy-oporoy-vaz</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Комплект модулей на 4 двери МАКС-2 для Лада Икс Рей, Ларгус FL, Рено Дастер</t>
+          <t>Поперечина AutoProduct Drive с дополнительной опорой для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4090</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10418-diagnosticheskiy-skaner-tester-shtat-dst-ekspress-dlya</t>
+          <t>https://motorring.ru/product/15531-podramnik-avtoprodukt-drive-bez-zaschity-rezina-2108</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Диагностический сканер тестер Штат ДСТ-Экспресс для автомобилей ВАЗ</t>
+          <t>Подрамник AutoProduct Drive без защиты с резиновыми сайлентблоками для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4290</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18487-indikator-napryagheniya-in-12-lada-priora-kalina-kalina</t>
+          <t>https://motorring.ru/product/29954-prostavki-ugla-razvala-autoproduct-1gradus-datsun</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Индикатор напряжения ИН-12 с красной подсветкой для Лада Приора, Калина 2, Гранта, Датсун</t>
+          <t>Проставки угла развала на 1 градус AutoProduct серии Drive для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>629</v>
+        <v>829</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6678-usb-zaryadnik-shtat-vmesto-zaglushki-knopki-vaz-2110-2112</t>
+          <t>https://motorring.ru/product/29873-gib-avtoprodukt-perehod-cherez-zadnyuyu-balku-2110</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>USB-зарядник Штат 2.0 вместо заглушки кнопки для ВАЗ 2110-2112, 2113-2115, Лада Калина, Шевроле Нива</t>
+          <t>Гиб AutoProduct переход через заднюю балку Ф51 для ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>590</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37767-bortovoy-kompyyuter-shtat-mk-2-sensornyy-obd-2-can</t>
+          <t>https://motorring.ru/product/6057-usilitely-zadniy-avtoprodukt-vaz-2111-2112</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ МК-2 сенсорный OBD-2 CAN универсальный</t>
+          <t>Усилитель задний AutoProduct Sport для ВАЗ 2111, 2112, Лада Приора хэтчбек, универсал</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2190</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22615-avariynoe-zaghiganie-az-1-vaz-2104-2107-2108-21099</t>
+          <t>https://motorring.ru/product/29964-nakladki-pedali-avtoprodukt-sport-mt-lada-vesta-2016</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Аварийное зажигание АЗ-1 для ВАЗ 2108-21099, 2110-2112, 2113-2115, Таврия, Ока</t>
+          <t>Накладки на педали AutoProduct Sport МТ для Лада Веста с 2016 г.в.</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>249</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13430-provodka-dlya-podklyucheniya-ptf-chevrolet-niva-restayling</t>
+          <t>https://motorring.ru/product/29875-pryamotochnyy-glushitely-avtoprodukt-f51-kalina-universal</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Проводка ML подключения противотуманных фар (ПТФ) для Шевроле Нива с 2009 года</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для Лада Калина 2 Кросс, Калина 2 универсал</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>829</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1748-elektronnaya-kombinaciya-priborov-flash-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/38364-usilennyy-kronshteyn-zapasnogo-kolesa-autoproduct-largus</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Электронная комбинация приборов Flash Х3 для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада 4х4 (Нива), Шевроле Нива</t>
+          <t>Усиленный кронштейн запасного колеса AutoProduct с катафорезным покрытием для Лада Ларгус</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>13990</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8477-regulyator-obogreva-stekla-avtomatom-rost-dlya-vaz</t>
+          <t>https://motorring.ru/product/37446-stabilizator-poperechnoy-ustoychivosti-autoproduct-sbore</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Регулятор обогрева стекла с автоматом РОСт для ВАЗ</t>
+          <t>Стабилизатор поперечной устойчивости AutoProduct 22 мм в сборе для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>719</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9766-imitator-signala-skorosti-can-lada-priora-kalina-granta</t>
+          <t>https://motorring.ru/product/29897-stalynoy-kronshteyn-generatora-avtoprodukt-pod-gur-2110</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Имитатор сигнала скорости CAN для Лада Приора, Калина 2, Гранта</t>
+          <t>Стальной кронштейн генератора AutoProduct Parts под ГУР для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2490</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18510-rele-miganiya-dopolnitelynogo-stop-signala</t>
+          <t>https://motorring.ru/product/29968-nakladki-pedali-avtoprodukt-sport-amt-lada-xray</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Реле мигания дополнительного LED стоп-сигнала 5 режимов</t>
+          <t>Накладки на педали AutoProduct Sport АМТ для Лада Икс Рей</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>590</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/33976-moduly-avtomaticheskogo-kontrollera-steklopodyemnikov-xray</t>
+          <t>https://motorring.ru/product/29870-gib-avtoprodukt-perehod-cherez-zadnyuyu-balku-1118-f51</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Модуль автоматического контроллера стеклоподъемников МАКС-2 для Лада Икс Рей, Ларгус FL, Рено Логан 2, Сандеро 2, Дастер, Клио 4, Трафик</t>
+          <t>Гиб AutoProduct переход через заднюю балку Ф51 для Лада Калина</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2690</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8472-indikator-zvukovoy-povtoritely-dlya-avtomobiley-vaz</t>
+          <t>https://motorring.ru/product/31388-nakladki-pedali-avtoprodukt-sport-mt-lada-vesta-do-2016</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Индикатор звуковой (повторитель) для автомобилей ВАЗ</t>
+          <t>Накладки на педали AutoProduct Sport МТ для Лада Веста до 2016 г.в.</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/16379-bortovoy-kompyyuter-orion-dlya-karbyuratornyh-dvigateley</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Орион БК-06 универсальный</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/1169-bortovoy-kompyyuter-mulytitroniks-750-vaz-inomarki</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Мультитроникс TC-750 с голосовым синтезатором для ВАЗ и иномарки</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>10990</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/8471-moduly-udlinitely-upravleniya-signalami-povorotov-dlya-vaz</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Модуль (удлинитель) управления сигналами поворотов для Лада</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/33977-moduly-komplect-4-dvery-max-2-xray</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Комплект модулей на 4 двери МАКС-2 для Лада Икс Рей, Ларгус FL, Рено Дастер</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>4090</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/1321-bortovoy-kompyyuter-mulytitroniks-570-vmesto-bloka-bsk</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Мультитроникс CL-575 вместо блока БСК без голосового синтезатора для Шевроле Нива, Лада Нива Тревел</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>7790</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/1201</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Мультитроникс VC-731 (VC-755) с голосовым синтезатором для ВАЗ и иномарки</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>10490</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9735-bortovoy-kompyyuter-orion-bk-08</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Орион БК-08 универсальный</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/15234-bortovoy-kompyyuter-mulytitroniks-590-vmesto-vozduhovoda</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Мультитроникс C-590 с голосовым синтезатором вместо воздуховода для Лада Гранта, Ларгус, Рено, Ниссан</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>8690</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/33975-indikator-napryagheniya-in-12-krasniy-dlya-vaz-2110-12</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Индикатор напряжения ИН-12 красный для ВАЗ 2110-2012 (европанель), 2113-2115, Лада Калина, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/39805-indikator-napryagheniya-in-12-siniy-dlya-vaz-2110</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Индикатор напряжения ИН-12 с синей подсветкой для ВАЗ 2110-2112</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/15247-datchik-doghdya-dda-dlya-vaz-vstroennym-elektronnym-rele</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Датчик дождя ДДА 35 для ВАЗ со встроенным электронным реле стеклоочистителя</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/24137-indikator-napryagheniya-bortovoy-seti-dlya-folyksvagen-polo</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Индикатор напряжения бортовой сети для Фольксваген Поло</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/15776-tahometr-multitronics-dm10-dlya-karbyuratornyh-dvigateley</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Тахометр Multitronics DM10 для карбюраторных двигателей</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/176-usb-zaryadnoe-slota-vmesto-zaglushki-paneli-priborov-gazely</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>USB зарядное устройство АПЭЛ на 2 слота вместо заглушки панели приборов для автомобилей ГАЗель Некст, Бизнес</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9813-sensornyy-vyklyuchately-shtat-ts-t-fiksaciey</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Сенсорный выключатель Штат TS-T с фиксацией</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/20933-bortovoy-kompyyuter-shtat-h1-g-vmesto-zaglushki-knopki-lada</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер ШТАТ Х1-G с белой подсветкой вместо заглушки кнопки для Лада 4х4, Нива Легенд, Гранта FL</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/25418-programmator-odometrov-po-5-pro</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Программатор одометров ПО-5 PRO</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>9990</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9776-regulyator-plavnogo-zapuska-ventilyatora-radiatora-150vt</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Регулятор плавного запуска вентилятора радиатора 150Вт (РПВ-1)</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9791-podogrev-tosola-220v-magnum-5kvt-dlya-406-dvigatelem</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Подогрев тосола 220В Магнум №21 1,5кВт для автомобилей с двигателем ЗМЗ-405 Евро 2, ЗМЗ-406</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/10968-komplekt-podklyucheniya-protivotumannyh-far-vaz-2108-2109-21099</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Проводка для подключения противотуманных фар (ПТФ) для ВАЗ 2108-21099</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9781-stroboskop-orion-st-01-dlya-karbyuratornyh-inghektornyh</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Стробоскоп Орион СТ-01 для карбюраторных и инжекторных двигателей</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/37871-kolesnyy-cifrovoy-manometr-mn-04</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Колесный цифровой манометр Вымпел МН-04 10 атмосфер</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/32326-aktivator-zamka-dveri-vympel-bcs-5p-5-provodnoy-vaz</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Активатор замка двери Вымпел BCS-5P 5-проводной для автомобилей ВАЗ</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/15224-bortovoy-kompyyuter-mulytitroniks-vmesto-zaglushki-knopki</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Мультитроникс UX 8 вместо заглушки кнопки для ВАЗ 2110-2112, 2113-2115, Калина, Гранта, Приора, Шевроле Нива, Датсун</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/37876-mgnovennaya-diagnostika-md-1-dlya-vaz-2108-2109-21099-2110</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Мгновенная диагностика МД-1 для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Ока, ЗАЗ Таврия</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/5950-bortovoy-kompyyuter-multitronics-di17g-dlya-avtomobiley-gaz</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Multitronics Di17g (Di15g) для автомобилей ГАЗ, УАЗ</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9761</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Программатор одометров ПО-4</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/37856-universalynyy-centralynyy-zamok-vympel-a-y216-kanalom</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Универсальный центральный замок Вымпел A-Y216 с каналом управления багажником (4 активатора, 2 брелока)</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>2790</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40332-bortovoy-kompyyuter-shtat-h1-t-beloy-podsvetkoy-nva-travel</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Штат Х1-Т с белой подсветкой вместо заглушки кнопки для Лада Нива Тревел</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/28751-indikator-tempretury-vozduha-int-12-siniy-vaz-2110</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Индикатор темпретуры воздуха ИНТ-12 на место кнопки с синей подсветкой и вольтометром для ВАЗ 2110-2112</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9724</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Адаптер Орион ELM 327 Wi-Fi ARM (Android, iOS) для диагностики автомобиля</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/7044-zaryadnoe-ustroystvo-usb-2slota-lada-priora-granta-kalina2</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Зарядное устройство USB 2 слота для Лада Приора, Гранта, Гранта FL, Калина 2</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/5923-bortovoy-kompyyuter-shtat-07x-1m-vmesto-zaglushki-knopki</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер ШТАТ 07X-1М вместо заглушки кнопки для ВАЗ 2105, 2107</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9742-datchik-doghdya-dda-25-regulirovkoy-pauzy-dlya-vaz</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Датчик дождя ДДА-25.02 с регулировкой паузы для ВАЗ 2108-21099, 2113-2115, Лада Приора, Калина, Гранта</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>3790</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/8524-indikator-temperatury-dvigatelya-cifrovoy-lada-granta</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>CAN индикатор температуры двигателя цифровой для Лада Гранта, Калина 2, Приора 2, Датсун</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/37761-diagnosticheskiy-skaner-tester-shtat-dst-mini-dlya-lada</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Диагностический сканер тестер ШТАТ ДСТ-mini для Лада и иномарок</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9783-taksometr-ta-2-dlya-avtomobiley-vaz</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Таксометр ТА-2</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/5902</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Бортовой компьютер Штат Приора Матрикс вместо часов OLED-дисплей на переднюю панель для Лада Приора </t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>5490</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9721-adapter-elm-327-bluetooth-dlya-diagnostiki-avtomobilya</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Адаптер Орион ELM 327 BLUETOOTH для диагностики автомобиля</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/1200</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Мультитроникс TC-740 без голосового синтезатора для ВАЗ и иномарки</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>8990</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/37778</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Датчик дождя ДДА 65 с датчиком света для Лада и иномарок</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>4190</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9784-tester-regulyatora-holostogo-hoda-rhh</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Тестер регулятора холостого хода РХХ</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9752-mikroshema-dlya-vosstanovleniya-kombinaciy-priborov-ms-1</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Микросхема для восстановления комбинаций приборов МС-1</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9734-bortovoy-kompyyuter-orion-bk-07</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Орион БК-07 универсальный</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
         <v>2290</v>
       </c>
     </row>
@@ -3318,7 +2662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3328,3574 +2672,2678 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>153079</v>
+        <v>140685</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8472-indikator-zvukovoy-povtoritely-dlya-avtomobiley-vaz</t>
+          <t>https://motorring.ru/product/37467-gayka-regulirovochnaya-zadney-nezavisimoy-podveski</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Индикатор звуковой (повторитель) для автомобилей ВАЗ</t>
+          <t>Гайка регулировочная задней независимой подвески AutoProduct для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D1" t="n">
-        <v>149</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>213732</v>
+        <v>225418</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37782-indikator-napryagheniya-3-dioda</t>
+          <t>https://motorring.ru/product/6053-sharnir-reaktivnoy-tyagi-lada-priora</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Светодиодный индикатор напряжения ИНА-3 в прикуриватель</t>
+          <t>Шарнир реактивной тяги AutoProduct Comfort для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>149</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>163973</v>
+        <v>225419</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9752-mikroshema-dlya-vosstanovleniya-kombinaciy-priborov-ms-1</t>
+          <t>https://motorring.ru/product/9620-sharnir-reaktivnoy-tyagi-avtoprodukt-lada-kalina-granta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Микросхема для восстановления комбинаций приборов МС-1</t>
+          <t>Шарнир реактивной тяги AutoProduct Comfort для Лада Калина, Гранта</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>469</v>
+        <v>729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>117337</v>
+        <v>201630</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22615-avariynoe-zaghiganie-az-1-vaz-2104-2107-2108-21099</t>
+          <t>https://motorring.ru/product/18810-prostavki-ugla-razvala-gradus-lada-vesta-iks-rey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Аварийное зажигание АЗ-1 для ВАЗ 2108-21099, 2110-2112, 2113-2115, Таврия, Ока</t>
+          <t>Проставки угла развала AutoProduct Drive на 1 градус для Лада Веста, Икс Рей</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249</v>
+        <v>729</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>163903</v>
+        <v>223309</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37876-mgnovennaya-diagnostika-md-1-dlya-vaz-2108-2109-21099-2110</t>
+          <t>https://motorring.ru/product/29898-uplotnitelynye-kolyca-drosselynoy-zaslonki-avtoprodukt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Мгновенная диагностика МД-1 для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Ока, ЗАЗ Таврия</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>Уплотнительные кольца дроссельной заслонки AutoProduct Parts для 16-клапанных Лада Ларгус, Рено Логан, Сандеро, Дастер</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>224676</v>
+        <v>160774</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8480-cifrovoy-volytmetr-vrezaemyy</t>
+          <t>https://motorring.ru/product/29899-kronshteyn-regulyatora-tormoznogo-davleniya-avtoprodukt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Цифровой вольтметр врезаемый с красной подсветкой</t>
+          <t>Кронштейн регулятора тормозного давления AutoProduct Parts для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Калина, Калина 2, Приора</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>269</v>
+        <v>829</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>203954</v>
+        <v>223693</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37883-rele-povorotnikov-dlya-svetodiodnyh-lamp-emi-dlya-vaz</t>
+          <t>https://motorring.ru/product/6063-usilitely-schitka-peredka-avtoprodukt-vaz-2110-2112-priora</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Реле поворотников для светодиодных ламп ЭМИ для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
+          <t>Усилитель щитка передка (рулевой рейки) AutoProduct Drive для 16-клапанных ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>289</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>223717</v>
+        <v>201733</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13347-ustanovochnyy-komplekt-shtat-115-lada-niva-4h4-inghektor</t>
+          <t>https://motorring.ru/product/29954-prostavki-ugla-razvala-autoproduct-1gradus-datsun</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Установочный комплект ШТАТ 115 для инжекторных Лада 4х4 (Нива)</t>
+          <t>Проставки угла развала на 1 градус AutoProduct серии Drive для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>490</v>
+        <v>829</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>224678</v>
+        <v>201628</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37783-cifrovoy-indikator-bort-seti-prikurivately-malyy-3-30v</t>
+          <t>https://motorring.ru/product/29948-prostavki-ugla-razvala-autoproduct-1gradus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Цифровой индикатор бортовой сети ИН Малый 3-30V в прикуриватель</t>
+          <t>Проставки угла развала AutoProduct Drive на 1 градус для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>490</v>
+        <v>829</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>219137</v>
+        <v>223694</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37894-termometr-zabortnoy-temperatury-batareykah</t>
+          <t>https://motorring.ru/product/6064-usilitely-schitka-peredka-avtoprodukt-vaz-2110-2111-2112</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Термометр забортной температуры на батарейках</t>
+          <t>Усилитель щитка передка (рулевой рейки) AutoProduct Drive для 8-клапанных ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>449</v>
+        <v>829</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>153073</v>
+        <v>181850</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9743-imitator-datchika-skorosti</t>
+          <t>https://motorring.ru/product/29888-opory-reyki-rulevogo-mehanizma-avtoprodukt-vaz-2108</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Имитатор датчика скорости для Лада и иномарок</t>
+          <t>Опоры рейки рулевого механизма AutoProduct Drive для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>569</v>
+        <v>949</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>224677</v>
+        <v>201736</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37791-cifrovoy-indikator-bortovoy-seti-bolyshoy-3-30v</t>
+          <t>https://motorring.ru/product/23897-koplekt-prostavok-autoproduct-drive-pod-sharovuyu-oportu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Цифровой индикатор бортовой сети ИН Большой 3-30V в прикуриватель</t>
+          <t>Комплект проставок AutoProduct Drive под шаровую опору 10мм для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Гранта, Гранта FL, Ока, Датсун</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>590</v>
+        <v>890</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>203952</v>
+        <v>181851</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8468-rele-dvornikov-reguliruemoy-pauzoy-dlya-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/29889-opory-reyki-rulevogo-mehanizma-avtoprodukt-vaz-2110</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Реле дворников с регулируемой паузой для ВАЗ 2108-21099 с новым блоком, 2113-2115, Лада Приора, Калина, Гранта</t>
+          <t>Опоры рейки рулевого механизма AutoProduct Drive для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>649</v>
+        <v>949</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>132865</v>
+        <v>223539</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/30351-antennyy-usilitely-orion-vympel-a-10</t>
+          <t>https://motorring.ru/product/15469-usiliteli-opor-stoek-avtoprodukt-vaz-2108-21099-2113-2115</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Антенный усилитель Орион Вымпел А-10</t>
+          <t>Усилители опор стоек AutoProduct Safe для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>590</v>
+        <v>949</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>223730</v>
+        <v>223540</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8469-rele-avtosveta-nezabudka2-avtomobili-vaz</t>
+          <t>https://motorring.ru/product/15472-usiliteli-opor-stoek-avtoprodukt-lada-priora-vaz-2110-12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Реле автосвета Незабудка 2М для автомобилей ВАЗ</t>
+          <t>Усилители опор стоек AutoProduct Safe для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>590</v>
+        <v>949</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>224053</v>
+        <v>223541</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/34917-filytr-pitaniya-orion-dlya-avtomagnitoly-vympel-301</t>
+          <t>https://motorring.ru/product/5414-usiliteli-opor-stoek-avtoprodukt-lada-kalina-kalina-granta</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Фильтр питания Орион для автомагнитолы Вымпел 301</t>
+          <t>Усилители опор стоек AutoProduct Safe для Лада Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>590</v>
+        <v>949</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>203205</v>
+        <v>201629</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8476-regulyator-obogreva-sideniy-avtomatom-ros-dlya-vaz</t>
+          <t>https://motorring.ru/product/15090-prostavki-ugla-razvala-autoproduct-1-5-gradusa</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Регулятор обогрева сидений с автоматом РОС для Лада, Шевроле Нива</t>
+          <t>Проставки угла развала AutoProduct Drive на 1.5 градуса для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>590</v>
+        <v>990</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>203958</v>
+        <v>202753</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18510-rele-miganiya-dopolnitelynogo-stop-signala</t>
+          <t>https://motorring.ru/product/1759-rasporka-nighnyaya-autoproduct-safe-lada-granta-kalina</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Реле мигания дополнительного LED стоп-сигнала 5 режимов</t>
+          <t>Распорка нижних рычагов AutoProduct Safe под тросовую КПП для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>590</v>
+        <v>990</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>164036</v>
+        <v>222924</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37889-rele-strob-kontroller-odnokanalynyy</t>
+          <t>https://motorring.ru/product/6036-komplekt-tyag-avtoprodukt-kontrgaykami-rulevoy-trapecii-vaz</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Реле Строб-контроллер одноканальный</t>
+          <t>Комплект тяг AutoProduct Drive с контргайками рулевой трапеции для ВАЗ 2101-2107, Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>590</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>203946</v>
+        <v>181690</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25437-rele-vremeni-avtomobilynyh-signalizaciy</t>
+          <t>https://motorring.ru/product/6048-opora-razdatochnoy-korobki-avtoprodukt-lada-niva-4h4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Реле времени РВ автомобильных сигнализаций</t>
+          <t>Опора раздаточной коробки AutoProduct Drive для Лада 4х4, Нива Легенд, Шевроле/Лада Нива 2123, Нива Тревел</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>590</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>132860</v>
+        <v>140766</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9728-antenna-orion-a-25</t>
+          <t>https://motorring.ru/product/29872-gib-avtoprodukt-perehod-cherez-zadnyuyu-balku-2108</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Антенна Орион Вымпел А-25</t>
+          <t>Гиб AutoProduct переход через заднюю балку Ф51 для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>690</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>153080</v>
+        <v>140763</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18487-indikator-napryagheniya-in-12-lada-priora-kalina-kalina</t>
+          <t>https://motorring.ru/product/29873-gib-avtoprodukt-perehod-cherez-zadnyuyu-balku-2110</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Индикатор напряжения ИН-12 с красной подсветкой для Лада Приора, Калина 2, Гранта, Датсун</t>
+          <t>Гиб AutoProduct переход через заднюю балку Ф51 для ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>629</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>117308</v>
+        <v>203075</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6678-usb-zaryadnik-shtat-vmesto-zaglushki-knopki-vaz-2110-2112</t>
+          <t>https://motorring.ru/product/5849-opora-dvigatelya-avtoprodukt-vaz-2110-2111-2112-lada-priora</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>USB-зарядник Штат 2.0 вместо заглушки кнопки для ВАЗ 2110-2112, 2113-2115, Лада Калина, Шевроле Нива</t>
+          <t>Опора двигателя (растяжка) AutoProduct Comfort для 16-клапанных ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>590</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>117313</v>
+        <v>201662</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6679-usb-zaryadnik-shtat-vmesto-zaglushki-knopki-lada-priora</t>
+          <t>https://motorring.ru/product/15091-prostavki-ugla-razvala-autoproduct-2gradusa-dlya-vaz</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>USB-зарядник Штат 2.0 вместо заглушки кнопки для Лада Приора, Калина 2, Гранта, Гранта FL</t>
+          <t>Проставки угла развала AutoProduct Drive на 2 градуса для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>590</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>117307</v>
+        <v>140764</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25422-usb-zaryadnoe-ustroystvo-slota-prikurivatelya-avtomobilya</t>
+          <t>https://motorring.ru/product/29870-gib-avtoprodukt-perehod-cherez-zadnyuyu-balku-1118-f51</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>USB зарядное устройство на 2 слота от прикуривателя автомобиля</t>
+          <t>Гиб AutoProduct переход через заднюю балку Ф51 для Лада Калина</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>749</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131502</v>
+        <v>202751</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37794-cifrovoy-volytmetr-korpuse-vrezaemyy-diagonalyyu</t>
+          <t>https://motorring.ru/product/15615-rasporka-nighnyaya-autoproduct-drive-lada-4h4-shevrole-niva</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Цифровой вольтметр в корпусе врезаемый диагональю 1,5 см</t>
+          <t>Распорка нижняя AutoProduct Drive для Лада 4х4, Нива Легенд, Шевроле Нива, Лада Нива Тревел</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>390</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>224674</v>
+        <v>223542</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37795-cifrovoy-volytmetr-ampermetr</t>
+          <t>https://motorring.ru/product/15470-usiliteli-opor-stoek-avtoprodukt-kasterom-gradusa-2108</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Цифровой вольтметр амперметр</t>
+          <t>Усилители опор стоек AutoProduct Drive с кастором на 1,5 градуса для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>590</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>158251</v>
+        <v>223543</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12227-kommutator-shtat-dlya-vaz-2108-21099-2110</t>
+          <t>https://motorring.ru/product/15471-usiliteli-opor-stoek-avtoprodukt-kasterom-gradusa-2110</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Коммутатор ШТАТ для ВАЗ 2108-21099, 2110</t>
+          <t>Усилители опор стоек AutoProduct Drive с кастором на 1,5 градуса для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>590</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>160143</v>
+        <v>202750</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8470-kontroller-otkrytiya-dverey-kod-dlya-avtomobiley-vaz</t>
+          <t>https://motorring.ru/product/1752-rasporka-nighnyaya-avtoprodukt-vaz-2108-21099-2110-2112</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Контроллер открытия дверей КОД для ВАЗ</t>
+          <t>Распорка нижних передних рычагов AutoProduct Drive для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>590</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>117314</v>
+        <v>222925</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/7044-zaryadnoe-ustroystvo-usb-2slota-lada-priora-granta-kalina2</t>
+          <t>https://motorring.ru/product/29891-tyagi-avtoprodukt-kontrgaykami-rulevoy-trapecii-vaz-2101</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Зарядное устройство USB 2 слота для Лада Приора, Гранта, Гранта FL, Калина 2</t>
+          <t>Комплект тяг AutoProduct Sport с контргайками рулевой трапеции Дрифт для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>749</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>117319</v>
+        <v>223544</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/7103-usb-zaryadnoe-2slota-vaz-2108-21099-2113-2115-kalina-niva</t>
+          <t>https://motorring.ru/product/15467-usiliteli-opor-stoek-avtoprodukt-kasterom-gradusa-kalina</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">USB зарядное на 2 слота для ВАЗ 2108-21099, 2110-2112 с европанелью, 2113-2115, Лада Калина, Нива 4х4, Шевроле Нива </t>
+          <t>Усилители опор стоек AutoProduct Drive с кастором на 1,5 градуса для Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>749</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>213843</v>
+        <v>202754</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9813-sensornyy-vyklyuchately-shtat-ts-t-fiksaciey</t>
+          <t>https://motorring.ru/product/1757-rasporka-nighnyaya-avtoprodukt-lada-granta-kalina-kalina</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Сенсорный выключатель Штат TS-T с фиксацией</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>Распорка нижняя AutoProduct Drive для Лада Гранта, Калина до 2013 г.в.</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1290</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>158253</v>
+        <v>181701</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37797</t>
+          <t>https://motorring.ru/product/15527-opora-dvigatelya-perednyaya-avtoprodukt-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Коммутатор электронный ШТАТ Remix для ВАЗ 2108-21099, 2110</t>
+          <t>Опора двигателя передняя AutoProduct Drive для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>690</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>117318</v>
+        <v>201631</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/39808-usb-zaryadnoe-2slota-vaz-2110-2112</t>
+          <t>https://motorring.ru/product/15092-prostavki-ugla-razvala-autoproduct-2-5-gradusa-vaz-2108</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>USB зарядное на 2 слота вместо заглушки кнопки для ВАЗ 2110, 2111, 2112</t>
+          <t>Проставки угла развала AutoProduct Drive на 2.5 градуса для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>749</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>117317</v>
+        <v>144406</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13881-usb-zaryadnoe-slota-vmesto-zaglushki-paneli-priborov-vaz</t>
+          <t>https://motorring.ru/product/15539-dopolnitelynaya-opora-dvigatelya-avtoprodukt-vaz-2110-2112</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>USB зарядное на 2 слота вместо заглушки панели приборов для ВАЗ 2108-21099 с высокой панелью, ВАЗ 2113-2115, Лада 4х4 (Нива) 21213, 21214, 2131</t>
+          <t>Дополнительная опора двигателя AutoProduct Drive для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>749</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>117316</v>
+        <v>181703</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/7208-usb-zaryadnoe-slota-vmesto-zaglushki-paneli-priborov-vaz</t>
+          <t>https://motorring.ru/product/15526-opora-dvigatelya-levaya-sport-avtoprodukt-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>USB зарядное на 2 слота вместо заглушки панели приборов ВАЗ 2106, 2107</t>
+          <t>Опора двигателя левая AutoProduct Sport для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>749</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>117309</v>
+        <v>201633</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/176-usb-zaryadnoe-slota-vmesto-zaglushki-paneli-priborov-gazely</t>
+          <t>https://motorring.ru/product/29950-prostavki-ugla-razvala-autoproduct-3-5-gradusa-vaz-2108</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>USB зарядное устройство АПЭЛ на 2 слота вместо заглушки панели приборов для автомобилей ГАЗель Некст, Бизнес</t>
+          <t>Проставки угла развала AutoProduct Drive на 3.5 градуса для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>749</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>158250</v>
+        <v>201632</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37798-kommutator-elektronnyy-shtat-plazma-dlya-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/29956-prostavki-ugla-razvala-autoproduct-3gradusa-dlya-vaz</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Коммутатор электронный ШТАТ Плазма для ВАЗ 2108-21099, 2110</t>
+          <t>Проставки угла развала AutoProduct Drive на 3 градуса для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>690</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>158249</v>
+        <v>181704</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37799-kommutator-elektronnyy-dlya-lada-oka</t>
+          <t>https://motorring.ru/product/1767-opora-dvigatelya-perednyaya-sport-avtoprodukt-vaz</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Коммутатор электронный для Лада Ока</t>
+          <t>Опора двигателя передняя AutoProduct Sport для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>690</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>224680</v>
+        <v>225383</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37871-kolesnyy-cifrovoy-manometr-mn-04</t>
+          <t>https://motorring.ru/product/6087-komplekt-regulirovochnyh-shayb-podramnika-autoproduct-vaz</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Колесный цифровой манометр Вымпел МН-04 10 атмосфер</t>
+          <t>Комплект регулировочных шайб подрамника AutoProduct Parts для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>790</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>203206</v>
+        <v>202752</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8477-regulyator-obogreva-stekla-avtomatom-rost-dlya-vaz</t>
+          <t>https://motorring.ru/product/6067-rastyaghka-rychagov-nighnyaya-autoproduct-drive-plus-pod</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Регулятор обогрева стекла с автоматом РОСт для ВАЗ</t>
+          <t>Растяжка нижних рычагов AutoProduct Drive под тросовую КПП для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>719</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>203204</v>
+        <v>213164</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9769-regulyator-obogreva-sideniy-ros-2</t>
+          <t>https://motorring.ru/product/6054-saylentblok-rychaga-vertikalynyy-avtoprodukt-zapchasty-lada</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Регулятор обогрева сидений РОС-2 для ВАЗ</t>
+          <t>Сайлентблок рычага подрамника AutoProduct Drive для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Приора, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>719</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>139489</v>
+        <v>202988</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/34607-volytmetr-siney-podsvetkoy-prikurivately-funkciey</t>
+          <t>https://motorring.ru/product/6084-rastyaghka-zadnego-rychaga-avtoprodukt-poliuretan-lada</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Вольтметр с синей подсветкой в прикуриватель 4 в 1 с функцией зарядного устройства USB</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>629</v>
-      </c>
+          <t>Растяжка AutoProduct Parts заднего рычага SPRINT с полиуретановыми сайлентблоками для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Датсун</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131563</v>
+        <v>202745</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9720-adapter-elm-327-bluetooth-dlya-diagnostiki-avtomobilya</t>
+          <t>https://motorring.ru/product/15630-rasporka-perednyaya-autoproduct-drive-2108-21099-2113-2115</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Адаптер ELM 327 BLUETOOTH v2.1 для диагностики автомобиля (Китай)</t>
+          <t>Распорка передняя AutoProduct Drive для ВАЗ 2108-21099, 2110-2112, 2113-2115</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>690</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>201289</v>
+        <v>202748</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10968-komplekt-podklyucheniya-protivotumannyh-far-vaz-2108-2109-21099</t>
+          <t>https://motorring.ru/product/15613-rasporka-perednyaya-avtoprodukt-vaz-2110-2112-priora</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Проводка для подключения противотуманных фар (ПТФ) для ВАЗ 2108-21099</t>
+          <t>Распорка передняя AutoProduct Drive для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>829</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>201288</v>
+        <v>202747</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3482-komplekt-podklyucheniya-protivotumannyh-far-vaz-2105-2107</t>
+          <t>https://motorring.ru/product/1760-rasporka-perednyaya-avtoprodukt-lada-granta-kalina-kalina</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Проводка ML подключения противотуманных фар (ПТФ) для ВАЗ 2101-2107, Лада 4х4 (Нива) до 2019 г.в.</t>
+          <t>Распорка передняя AutoProduct Drive для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>829</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>201287</v>
+        <v>181702</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37860-provodka-dlya-podklyucheniya-ptf-2106-lada-niva-4x4</t>
+          <t>https://motorring.ru/product/15525-opora-dvigatelya-zadnyaya-sport-avtoprodukt-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Проводка для подключения противотуманных фар (ПТФ) для ВАЗ 2106, Лада 4х4 (Нива)</t>
+          <t>Опора двигателя задняя AutoProduct Sport для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>769</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>201292</v>
+        <v>170836</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/4607-komplekt-podklyucheniya-protivotumannyh-far-vaz-2113-2114-2115</t>
+          <t>https://motorring.ru/product/29967-nakladki-pedali-avtoprodukt-sport-1-6-amt-lada-vesta-2016</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Проводка подключения противотуманных фар (ПТФ) ML Auto Light Technology для ВАЗ 2113, 2114, 2115</t>
+          <t>Накладки на педали AutoProduct Sport АМТ 1.6 для Лада Веста с 2016 г.в.</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>829</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>132857</v>
+        <v>170837</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25461-antenna-glonass-gps</t>
+          <t>https://motorring.ru/product/29965-nakladki-pedali-avtoprodukt-sport-amt-lada-vesta-2016</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Антенна ГЛОНАСС/GPS</t>
+          <t>Накладки на педали AutoProduct Sport АМТ 1.8 для Лада Веста с 2016 г.в.</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>829</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>201291</v>
+        <v>202736</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/30629-komplekt-podklyucheniya-ptf-vaz-evropanel-2110-2111-2112</t>
+          <t>https://motorring.ru/product/18816-rasporka-perednyaya-avtoprodukt-lada-vesta</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Проводка для подключения противотуманных фар (ПТФ) под евро-панель для ВАЗ 2110-2112</t>
+          <t>Распорка передняя AutoProduct Drive для Лада Веста</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>890</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>164035</v>
+        <v>170838</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37890-rele-strob-kontroller-2-h-kanalynyy-reghimov</t>
+          <t>https://motorring.ru/product/29968-nakladki-pedali-avtoprodukt-sport-amt-lada-xray</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Строб-контроллер (реле) 2-канальный с 5 режимами мигания</t>
+          <t>Накладки на педали AutoProduct Sport АМТ для Лада Икс Рей</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>929</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>164005</v>
+        <v>201634</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8471-moduly-udlinitely-upravleniya-signalami-povorotov-dlya-vaz</t>
+          <t>https://motorring.ru/product/29949-prostavki-korrektirovki-shoghdeniya-avtoprodukt-drive-largus</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Модуль (удлинитель) управления сигналами поворотов для Лада</t>
+          <t>Проставки корректировки схождения AutoProduct Drive для Лада Ларгус</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>969</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>139231</v>
+        <v>202742</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9793-vihrevoe-ustroystvo-optimizacii-sgoraniya-topliva-ekotop</t>
+          <t>https://motorring.ru/product/15632-rasporka-zadnyaya-autoproduct-vaz-2108-21099-2113-2115</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Вихревое устройство оптимизации сгорания топлива ЭКОТОП для карбюраторных ВАЗ 2101-2107, 2108-21099, 2110-2112, Лада Нива 4х4</t>
+          <t>Распорка задняя AutoProduct Drive для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>990</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>164032</v>
+        <v>202743</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8473-moduly-zaschity-lamp-blighnego-sveta-dlya-avtomobiley-vaz</t>
+          <t>https://motorring.ru/product/1761-rasporka-zadnyaya-avtoprodukt-lada-granta-kalina-kalina</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Модули защиты ламп ближнего света с цоколем H7 для автомобилей Лада</t>
+          <t>Распорка задних стоек AutoProduct Drive для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>990</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>136661</v>
+        <v>202756</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9731-bezklyuchevoy-obhodchik-immobilayzera-shtat-dlya-lada</t>
+          <t>https://motorring.ru/product/15629-rasporka-perednyaya-autoproduct-drive-reguliruemaya-vaz</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Безключевой обходчик иммобилайзера Штат для Лада Гранта, Калина 2, Приора 2, Datsun</t>
+          <t>Распорка передняя AutoProduct Drive регулируемая для ВАЗ 2108-21099, 2110-2112. 2113-2115</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>969</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>223070</v>
+        <v>202737</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9770-universalynoe-rele-zaschity-lamp-dlya-avtomobiley-vaz</t>
+          <t>https://motorring.ru/product/29932-skrytaya-rasporka-perednih-stoek-avtoprodukt-drive-vesta</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Универсальное реле защиты ламп для автомобилей ВАЗ</t>
+          <t>Скрытая распорка передних стоек AutoProduct Drive для Лада Веста</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>949</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>201293</v>
+        <v>217372</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10904-provodka-dlya-podklyucheniya-ptf-lada-vesta-xray</t>
+          <t>https://motorring.ru/product/29931-kronshteyn-levoy-opory-kulisnoy-kpp-avtoprodukt-drive-granta</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Проводка для подключения противотуманных фар (ПТФ) с универсальной кнопкой для Лада Веста, Иксрей</t>
+          <t>Кронштейн левой опоры кулисной КПП AutoProduct Drive для Лада Гранта, Калина, Калина 2</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1090</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>165355</v>
+        <v>203072</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/30634-strelochnaya-nagruzochnaya-vilka-nv-05</t>
+          <t>https://motorring.ru/product/6060-rastyaghka-perednih-stoek-autoproduct-drive-reguliruemaya</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Нагрузочная вилка НВ-05 цифровая для проверки АКБ и генератора</t>
+          <t>Растяжка передних стоек AutoProduct Drive регулируемая для Лада Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1290</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>136896</v>
+        <v>202749</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/34925-rele-buv-dlya-isklyucheniya-zapaha-omyvayki</t>
+          <t>https://motorring.ru/product/1755-rasporka-perednyaya-avtoprodukt-lada-priora</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Реле блока управления вентилятором (БУВ) для предотвращения попадания запаха стеклоомывающей жидкости в салон</t>
+          <t>Распорка передняя регулируемая AutoProduct Drive для Лада Приора</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>969</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>219100</v>
+        <v>223499</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15776-tahometr-multitronics-dm10-dlya-karbyuratornyh-dvigateley</t>
+          <t>https://motorring.ru/product/29897-stalynoy-kronshteyn-generatora-avtoprodukt-pod-gur-2110</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Тахометр Multitronics DM10 для карбюраторных двигателей</t>
+          <t>Стальной кронштейн генератора AutoProduct Parts под ГУР для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1190</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>164010</v>
+        <v>202987</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3494-moduly-avtomaticheskogo-upravleniya-svetom-maus-2-dlya-vaz</t>
+          <t>https://motorring.ru/product/6085-rastyaghka-zadnego-rychaga-avtoprodukt-vaz-datsun</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Модуль автоматического управления светом МАУС-2 15А для ВАЗ 2107, 2110-2112, 2113-2115, Лада 4х4 (Нива), Калина, Приора, Шевроле Нива без АБС</t>
+          <t>Растяжка AutoProduct Parts заднего рычага R1 для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>949</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>203955</v>
+        <v>160643</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8479-rele-dho-30-dalyniy-svet-kak-dho</t>
+          <t>https://motorring.ru/product/15105-kronshteyn-zadney-opory-silovogo-agregata-pod-mkpp-kalina</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Реле ДХО-30 включения дальнего света как ходовых огней для Лада Калина, Калина 2, Гранта, Приора, Ларгус</t>
+          <t>Кронштейн задней опоры двигателя AutoProduct Drive под МКПП для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1190</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>203956</v>
+        <v>223469</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9771-rele-dho-30b-vklyucheniya-dalynego-sveta-kak-hodovye</t>
+          <t>https://motorring.ru/product/6052-kronshteyn-levoy-opory-kpp-autoproduct-drive-lada-granta</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Реле ДХО-30Б включения дальнего света как ходовых огней для ВАЗ 2107, 2108-2109, 2110-2112, 2113-2115</t>
+          <t>Кронштейн левой опоры тросиковой КПП AutoProduct Drive для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1190</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>201297</v>
+        <v>160642</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/4248-provodka-dlya-podklyucheniya-ptf-lada-priora</t>
+          <t>https://motorring.ru/product/6086-kronshteyn-zadney-opory-0488-ar90-1001030-dlya-lada-granta</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Проводка подключения противотуманных фар (ПТФ) для Лада Приора</t>
+          <t>Кронштейн задней опоры двигателя AutoProduct Drive под АКПП для Лада Гранта, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>990</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>201290</v>
+        <v>217355</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/4422-komplekt-podklyucheniya-protivotumannyh-far-vaz-2110-2111-2112</t>
+          <t>https://motorring.ru/product/15538-stabilizator-poperechnoy-ustoychivosti-autoproduct-granta</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Проводка для подключения противотуманных фар (ПТФ) для ВАЗ 2110-2112</t>
+          <t>Стабилизатор поперечной устойчивости 24 мм AutoProduct Drive для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>890</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>201295</v>
+        <v>217364</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/4420-komplekt-podklyucheniya-protivotumannyh-far-lada-kalina</t>
+          <t>https://motorring.ru/product/6068-stabilizator-poperechnoy-ustoychivosti-avtoprodukt-vaz</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Проводка для подключения противотуманных фар (ПТФ) ML Auto Light Technology для Лада Калина</t>
+          <t>Стабилизатор поперечной устойчивости AutoProduct Drive 22 мм для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>990</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>201296</v>
+        <v>170841</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2547-provodka-dlya-podklyucheniya-ptf-kalina2-granta-datsun</t>
+          <t>https://motorring.ru/product/29964-nakladki-pedali-avtoprodukt-sport-mt-lada-vesta-2016</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Комплект проводки подключения ПТФ ML для Лада Калина 2, Гранта, Датсун</t>
+          <t>Накладки на педали AutoProduct Sport МТ для Лада Веста с 2016 г.в.</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>990</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>201298</v>
+        <v>170840</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13430-provodka-dlya-podklyucheniya-ptf-chevrolet-niva-restayling</t>
+          <t>https://motorring.ru/product/31388-nakladki-pedali-avtoprodukt-sport-mt-lada-vesta-do-2016</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Проводка ML подключения противотуманных фар (ПТФ) для Шевроле Нива с 2009 года</t>
+          <t>Накладки на педали AutoProduct Sport МТ для Лада Веста до 2016 г.в.</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>829</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>201299</v>
+        <v>203970</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/24877-provodka-dlya-podklyucheniya-ptf-granta-fl</t>
+          <t>https://motorring.ru/product/29919-remkomplekt-podramnika-avtoprodukt-parts-dlya-vaz</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Проводка ML Auto Light Technology для подключения ПТФ (кнопка с белой подсветкой) для Лада Гранта FL, 4х4 с 2019 г.в., Нива Легенд</t>
+          <t>Ремкомплект подрамника AutoProduct Parts для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1190</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>153081</v>
+        <v>202757</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/24137-indikator-napryagheniya-bortovoy-seti-dlya-folyksvagen-polo</t>
+          <t>https://motorring.ru/product/1762-rasporka-perednyaya-rastyaghkoy-dop-oporoy-dvigatelya-vaz</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Индикатор напряжения бортовой сети для Фольксваген Поло</t>
+          <t>Распорка передних стоек AutoProduct Drive с растяжкой силового агрегата для 16-клапанных ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1190</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>203207</v>
+        <v>151522</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9776-regulyator-plavnogo-zapuska-ventilyatora-radiatora-150vt</t>
+          <t>https://motorring.ru/product/15553-zaschita-dvigatelya-stalynaya-ocinkovannaya-avtoprodukt</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Регулятор плавного запуска вентилятора радиатора 150Вт (РПВ-1)</t>
+          <t>Защита двигателя AutoProduct Safe стальная оцинкованная под подрамник для Лада Гранта, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1090</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131562</v>
+        <v>160614</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37756-adapter-elm-327-bluetooth-15-mini-dlya-diagnostiki-avtomobilya</t>
+          <t>https://motorring.ru/product/19291-opora-generatora-avtoprodukt-regulirovkoy-lada-granta</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Адаптер ELM 327 BLUETOOTH MINI v1.5 для диагностики автомобиля (Китай)</t>
+          <t>Универсальный стальной кронштейн генератора AutoProduct Parts с регулировкой для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>790</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>138717</v>
+        <v>202734</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16378-bortovoy-kompyuter-orion-dlya-karbyuratornyh-dvigateley</t>
+          <t>https://motorring.ru/product/1751-rasporka-autoproduct-drive-perednyaya-reguliruemaya</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Орион БК-03 универсальный</t>
+          <t>Распорка AutoProduct Drive передняя регулируемая с поддержкой силового агрегата для 16-клапанных ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1690</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>203208</v>
+        <v>202759</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9777-rele-plavnogo-zapuska-ventilyatora-radiatora-300vt-rpv-2</t>
+          <t>https://motorring.ru/product/6061-rasporka-autoproduct-drive-perednyaya-rastyaghkoy-silovogo</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Реле плавного запуска вентилятора радиатора 300Вт (РПВ-2)</t>
+          <t>Распорка AutoProduct Drive передняя с растяжкой силового агрегата для 16-клапанных Лада Приора</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1290</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>153082</v>
+        <v>151521</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9745-indikator-temperatury-dvigatelya-dlya-folyksvagen-polo</t>
+          <t>https://motorring.ru/product/15549-zaschita-dvigatelya-autoproduct-stalynaya-ocinkovannaya</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Индикатор температуры двигателя для Фольксваген Поло</t>
+          <t>Защита двигателя AutoProduct Safe стальная оцинкованная под подрамник для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1390</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>226388</v>
+        <v>159496</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5903-shtat-adapter-usb-k-line</t>
+          <t>https://motorring.ru/product/29900-komplekt-prostavok-znp-pod-zadnie-diskovye-tormoza</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">ШТАТ Адаптер USB-K-line </t>
+          <t>Комплект проставок ЗНП под задние дисковые тормоза AutoProduct Parts для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Гранта, Гранта FL, Приора</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1490</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>138682</v>
+        <v>202758</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16379-bortovoy-kompyyuter-orion-dlya-karbyuratornyh-dvigateley</t>
+          <t>https://motorring.ru/product/15627-rasporka-perednyaya-autoproduct-drive-rastyaghkoy-silovogo</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Орион БК-06 универсальный</t>
+          <t>Распорка передняя AutoProduct Drive с растяжкой силового агрегата для 16-клапанных Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1790</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>171719</v>
+        <v>195299</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37888-nasos-dlya-perekachki-ghidkosti-vympel-nm-12-52-mm</t>
+          <t>https://motorring.ru/product/4312-poperechina-autoproduct-safe-rezinovymi-saylentblokami-vaz</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Насос для перекачки жидкости Вымпел НС-12, 24 В 52 мм</t>
+          <t>Поперечина AutoProduct Safe с резиновыми сайлентблоками для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1790</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131561</v>
+        <v>195301</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9721-adapter-elm-327-bluetooth-dlya-diagnostiki-avtomobilya</t>
+          <t>https://motorring.ru/product/6079-poperechina-autoproduct-safe-rezinovymi-saylentblokami-dlya</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Адаптер Орион ELM 327 BLUETOOTH для диагностики автомобиля</t>
+          <t>Поперечина AutoProduct Safe с резиновыми сайлентблоками для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1190</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131564</v>
+        <v>195294</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9722-adapter-elm-327-bluetooth-mini-dlya-diagnostiki-avtomobilya</t>
+          <t>https://motorring.ru/product/6077-poperechina-autoproduct-drive-rezinovymi-saylentblokami</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Адаптер Орион ELM 327 BLUETOOTH Mini ARM для диагностики автомобиля</t>
+          <t>Поперечина AutoProduct Drive с резиновыми сайлентблоками для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>890</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131566</v>
+        <v>195292</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9723-adapter-elm-327-usb-dlya-diagnostiki-avtomobilya</t>
+          <t>https://motorring.ru/product/3840-poperechina-autoproduct-drive-rezinovymi-saylentblokami-vaz</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Адаптер Орион ELM 327 USB для диагностики автомобиля</t>
+          <t>Поперечина AutoProduct Drive с резиновыми сайлентблоками для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1190</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>218498</v>
+        <v>195276</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9781-stroboskop-orion-st-01-dlya-karbyuratornyh-inghektornyh</t>
+          <t>https://motorring.ru/product/22836-poperechina-autoproduct-sport-lada-granta-kalina-kalina</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Стробоскоп Орион СТ-01 для карбюраторных и инжекторных двигателей</t>
+          <t>Поперечина AutoProduct Sport для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1690</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>138684</v>
+        <v>195302</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9735-bortovoy-kompyyuter-orion-bk-08</t>
+          <t>https://motorring.ru/product/22838-poperechina-autoproduct-sport-vaz-2108-21099-2113-2115</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Орион БК-08 универсальный</t>
+          <t>Поперечина AutoProduct Sport для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1790</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>223736</v>
+        <v>181854</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/24175-zaryadnoe-ustroystvo-impulysnoe-orion-pw150m</t>
+          <t>https://motorring.ru/product/1766-komplekt-opor-dvigatelya-sport-avtoprodukt-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Зарядное устройство импульсное Орион PW150M</t>
+          <t>Комплект опор двигателя AutoProduct Sport для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1690</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>171720</v>
+        <v>195296</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37888-nasos-dlya-perekachki-ghidkosti-vympel-nm-12-52-mm</t>
+          <t>https://motorring.ru/product/4311-poperechina-autoproduct-drive-poliuretanovymi</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Насос для перекачки жидкости Вымпел НС-12, 24 В 52 мм</t>
+          <t>Поперечина AutoProduct DRIVE с полиуретановыми сайлентблоками для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1790</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>153083</v>
+        <v>195298</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8524-indikator-temperatury-dvigatelya-cifrovoy-lada-granta</t>
+          <t>https://motorring.ru/product/37443-poperechina-autoproduct-drive-poliuretanovymi-sharnirami</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CAN индикатор температуры двигателя цифровой для Лада Гранта, Калина 2, Приора 2, Датсун</t>
+          <t>Поперечина AutoProduct Drive с полиуретановыми шарнирами для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1690</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>117311</v>
+        <v>159921</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25421-3-h-kanalynoe-usb-zaryadnoe-ustroystvo-komplekt</t>
+          <t>https://motorring.ru/product/29887-tyagi-rulevoy-trapecii-avtoprodukt-kontrgaykami-4x4</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3-х канальное USB зарядное устройство (комплект)</t>
+          <t>Тяги рулевой трапеции AutoProduct Drive с контргайками для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1690</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>224679</v>
+        <v>195295</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/26474-cifrovoy-indikator-temperatury-dvigatelya-siniy-funkciey</t>
+          <t>https://motorring.ru/product/22837-poperechina-autoproduct-drive-dopolnitelynoy-oporoy-vaz</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Цифровой индикатор температуры двигателя синий с функцией диагностики, под CAN шину для Лада Гранта, Калина 2, Приора с 2013 г.в., Икс Рей, Лада Веста</t>
+          <t>Поперечина AutoProduct Drive с дополнительной опорой для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1790</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>219058</v>
+        <v>195246</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9783-taksometr-ta-2-dlya-avtomobiley-vaz</t>
+          <t>https://motorring.ru/product/32384-poperechina-autoproduct-peredney-oporoy-silovogo-agregata</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Таксометр ТА-2</t>
+          <t>Поперечина AutoProduct c передней опорой силового агрегата для Лада Веста, Веста Спорт</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1590</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>138683</v>
+        <v>181855</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9734-bortovoy-kompyyuter-orion-bk-07</t>
+          <t>https://motorring.ru/product/15528-komplekt-opor-dvigatelya-sport-pro-avtoprodukt-2108</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Орион БК-07 универсальный</t>
+          <t>Комплект опор двигателя AutoProduct Sport Pro для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2290</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>194468</v>
+        <v>223621</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9790-podogrev-tosola-220v-magnum-5kvt-dlya-shevrole-niva-honda</t>
+          <t>https://motorring.ru/product/6058-usilitely-zadniy-avtoprodukt-lada-granta-kalina-kalina</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Подогрев тосола 220В Магнум №5 1,5кВт для Шевроле/Лада Нива 2123, Honda CRV</t>
+          <t>Усилитель кузова задний AutoProduct Sport для Лада Гранта, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2129</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>218482</v>
+        <v>223620</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9736-strelochnaya-nagruzochnaya-vilka-nv-02</t>
+          <t>https://motorring.ru/product/6055-usilitely-zadniy-avtoprodukt-vaz-2108-2109-2113-2114</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Нагрузочная вилка НВ-02 аналоговая для проверки АКБ и генератора 100/200А</t>
+          <t>Усилитель задний AutoProduct Sport для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2190</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>194466</v>
+        <v>141266</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9792-podogrev-tosola-220v-magnum-5kvt-dlya-lada-granta-kalina</t>
+          <t>https://motorring.ru/product/29878-pryamotochnyy-glushitely-avtoprodukt-f51-2108</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Подогрев тосола 220В Магнум №29 1,5кВт для 8-клапанных Лада Гранта, Калина 2</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для ВАЗ 2108, 2109</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2190</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>201030</v>
+        <v>141267</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9759-preobrazovately-napryagheniya-invertornyy-35a</t>
+          <t>https://motorring.ru/product/29879-pryamotochnyy-glushitely-avtoprodukt-f51-21099</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Преобразователь напряжения инверторный с 24В на 12В 35А</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для ВАЗ 21099</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2290</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131560</v>
+        <v>141268</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9764-adapter-eeprom-po5-dlya-programmatora-po-5</t>
+          <t>https://motorring.ru/product/29882-pryamotochnyy-glushitely-avtoprodukt-f51-2110</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Адаптер EEPROM-ПО5 для программатора ПО-5</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для ВАЗ 2110</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1790</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>151264</v>
+        <v>141269</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9740-zaryadnoe-ustroystvo-orion-265</t>
+          <t>https://motorring.ru/product/29886-pryamotochnyy-glushitely-avtoprodukt-f51-2111</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Зарядное устройство Орион Вымпел-265 (7 ампер) для аккумулятора </t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для ВАЗ 2111</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2390</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>138714</v>
+        <v>141276</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5900</t>
+          <t>https://motorring.ru/product/29884-pryamotochnyy-glushitely-avtoprodukt-f51-priora-sedan</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ Х1-P вместо заглушки кнопки для Лада Приора</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для Лада Приора седан, универсал</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2190</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>138711</v>
+        <v>141270</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5928-bortovoy-kompyyuter-shtat-h-1-universal-vmesto-zaglushki</t>
+          <t>https://motorring.ru/product/29883-pryamotochnyy-glushitely-avtoprodukt-f51-2112</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ Х1-M Универсал вместо заглушки кнопки для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Шевроле Нива</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для ВАЗ 2112 до 2007 г.в.</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2290</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>138713</v>
+        <v>141271</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5899-bortovoy-kompyyuter-shtat-x1-lada-granta-kalina-2</t>
+          <t>https://motorring.ru/product/29880-pryamotochnyy-glushitely-avtoprodukt-f51-2113</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ Х1-G с зеленой подсветкой вместо заглушки кнопки для Лада Гранта, Калина 2, Приора 2, Датсун</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для ВАЗ 2113, 2114</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2190</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>138700</v>
+        <v>141113</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5901-bortovoy-kompyyuter-shtat-x-33-vmesto-zaglushki-knopki-vaz</t>
+          <t>https://motorring.ru/product/29881-pryamotochnyy-glushitely-avtoprodukt-f51-2115</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ X-33 вместо заглушки кнопки для ВАЗ 2110-2112</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для ВАЗ 2115</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2190</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>138712</v>
+        <v>141273</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20933-bortovoy-kompyyuter-shtat-h1-g-vmesto-zaglushki-knopki-lada</t>
+          <t>https://motorring.ru/product/29876-pryamotochnyy-glushitely-avtoprodukt-f51-kalina-sedan</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ Х1-G с белой подсветкой вместо заглушки кнопки для Лада 4х4, Нива Легенд, Гранта FL</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для Лада Калина седан, универсал</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2190</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>138644</v>
+        <v>141277</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20933-bortovoy-kompyyuter-shtat-h1-g-vmesto-zaglushki-knopki-lada</t>
+          <t>https://motorring.ru/product/29885-pryamotochnyy-glushitely-avtoprodukt-f51-priora-2112</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ Х1-G с белой подсветкой вместо заглушки кнопки для Лада 4х4, Нива Легенд, Гранта FL</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для Лада Приора хэтчбек, ВАЗ 2112 с 2007 г.в.</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2190</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>138643</v>
+        <v>141272</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37767-bortovoy-kompyyuter-shtat-mk-2-sensornyy-obd-2-can</t>
+          <t>https://motorring.ru/product/29877-pryamotochnyy-glushitely-avtoprodukt-f51-granta</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ МК-2 сенсорный OBD-2 CAN универсальный</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для Лада Гранта</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2190</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>138692</v>
+        <v>141275</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5923-bortovoy-kompyyuter-shtat-07x-1m-vmesto-zaglushki-knopki</t>
+          <t>https://motorring.ru/product/29874-pryamotochnyy-glushitely-avtoprodukt-f51-dlya-lada-kalina</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ 07X-1М вместо заглушки кнопки для ВАЗ 2105, 2107</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для Лада Калина, Калина 2 хэтчбек</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2190</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>138664</v>
+        <v>141274</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5950-bortovoy-kompyyuter-multitronics-di17g-dlya-avtomobiley-gaz</t>
+          <t>https://motorring.ru/product/29875-pryamotochnyy-glushitely-avtoprodukt-f51-kalina-universal</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Multitronics Di17g (Di15g) для автомобилей ГАЗ, УАЗ</t>
+          <t>Прямоточный глушитель AutoProduct Parts Ф51 для Лада Калина 2 Кросс, Калина 2 универсал</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2290</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>164007</v>
+        <v>195293</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25427-moduly-kontrollera-steklopodyemnikov-largus</t>
+          <t>https://motorring.ru/product/2394-poperechina-avtoprodukt-drive-vaz-2110-2112-priora</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Модуль автоматического контроллера стеклоподъемников МАКС-2 для Лада Ларгус, Renault Logan, Sandero, Nissan Almera</t>
+          <t>Поперечина AutoProduct Drive с опорой двигателя для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2190</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>218499</v>
+        <v>223619</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9782-stroboskop-orion-st-02-dlya-karbyuratornyh-inghektornyh</t>
+          <t>https://motorring.ru/product/6057-usilitely-zadniy-avtoprodukt-vaz-2111-2112</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Стробоскоп Орион СТ-02 для карбюраторных и инжекторных двигателей</t>
+          <t>Усилитель задний AutoProduct Sport для ВАЗ 2111, 2112, Лада Приора хэтчбек, универсал</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2690</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>201031</v>
+        <v>222889</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9759-preobrazovately-napryagheniya-invertornyy-35a</t>
+          <t>https://motorring.ru/product/29890-komplekt-rulevyh-tyag-avtoprodukt-sbore-70mm-2110</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Преобразователь напряжения инверторный с 24В на 12В 35А</t>
+          <t>Комплект рулевых тяг AutoProduct Sport в сборе под увеличенную на 70мм колею для ВАЗ 2110-2112, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2290</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>138639</v>
+        <v>136706</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37762-bortovoy-kompyyuter-shtat-bk-3-dlya-lada-largus-largus</t>
+          <t>https://motorring.ru/product/29992-kronshteyn-zapasnogo-kolesa-autoproduct-comfort-largus</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ БК-3 для Лада Ларгус, Ларгус FL</t>
+          <t>Бесшумный кронштейн запасного колеса AutoProduct Comfort для Лада Ларгус</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2290</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>138640</v>
+        <v>201661</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37763-bortovoy-kompyyuter-shtat-bk-7-dlya-lada-largus-largus-fl</t>
+          <t>https://motorring.ru/product/29951-prostavki-zadnego-rychaga-autoproduct-drive-70mm</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ БК-7 под двигатели ВАЗ для Лада Ларгус, Ларгус FL</t>
+          <t>Проставки заднего рычага AutoProduct Drive с расширением колеи на 70мм для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Датсун</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2290</v>
+        <v>6990</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>138673</v>
+        <v>194499</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15224-bortovoy-kompyyuter-mulytitroniks-vmesto-zaglushki-knopki</t>
+          <t>https://motorring.ru/product/15531-podramnik-avtoprodukt-drive-bez-zaschity-rezina-2108</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Мультитроникс UX 8 вместо заглушки кнопки для ВАЗ 2110-2112, 2113-2115, Калина, Гранта, Приора, Шевроле Нива, Датсун</t>
+          <t>Подрамник AutoProduct Drive без защиты с резиновыми сайлентблоками для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>2290</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>117065</v>
+        <v>139090</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9766-imitator-signala-skorosti-can-lada-priora-kalina-granta</t>
+          <t>https://motorring.ru/product/29905-valy-privoda-perednih-koles-avtoprodukt-sport-70mm</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Имитатор сигнала скорости CAN для Лада Приора, Калина 2, Гранта</t>
+          <t>Валы привода передних колес AutoProduct Sport под увеличения колеи на 70мм для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>2490</v>
+        <v>9390</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>151261</v>
+        <v>194501</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37774-zaryadnoe-ustroystvo-dlya-akkumulyatora-vympel20</t>
+          <t>https://motorring.ru/product/15545-podramnik-avtoprodukt-drive-bez-zaschity-lada-granta-kalina</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Зарядное устройство Орион Вымпел-20 для аккумулятора</t>
+          <t>Подрамник AutoProduct Drive с резиновыми сайлентблоками без защиты для Лада Гранта, Гранта FL, Калина</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2890</v>
+        <v>7390</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>141972</v>
+        <v>194479</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15247-datchik-doghdya-dda-dlya-vaz-vstroennym-elektronnym-rele</t>
+          <t>https://motorring.ru/product/15534-podramnik-autoproduct-sport-bez-zaschity-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Датчик дождя ДДА 35 для ВАЗ со встроенным электронным реле стеклоочистителя</t>
+          <t>Подрамник AutoProduct Sport с резиновыми сайлентблоками без защиты для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2690</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>131567</v>
+        <v>194480</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9724</t>
+          <t>https://motorring.ru/product/15533-podramnik-autoproduct-sport-bez-zaschity-lada-granta-kalina</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Адаптер Орион ELM 327 Wi-Fi ARM (Android, iOS) для диагностики автомобиля</t>
+          <t>Подрамник AutoProduct Sport без защиты для Лада Гранта, Гранта FL, Калина, Калина 2 с МКПП</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1290</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>141973</v>
+        <v>194500</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15248-datchik-doghdya-dda-lada-granta-lyuks-lada-largus-reno</t>
+          <t>https://motorring.ru/product/15542-podramnik-avtoprodukt-drive-bez-zaschity-lada-granta-kalina</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Датчик дождя ДДА 45 для Лада Гранта (люкс),  Калина 2, Ларгус, Рено</t>
+          <t>Подрамник AutoProduct Drive с резиновыми сайлентблоками без защиты для Лада Гранта, Калина до 2013 г.в.</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2890</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>219241</v>
+        <v>213107</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9784-tester-regulyatora-holostogo-hoda-rhh</t>
+          <t>https://motorring.ru/product/28607-rychagi-podramnika-ghestkie-autoproduct-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Тестер регулятора холостого хода РХХ</t>
+          <t>Рычаги подрамника AutoProduct Drive жесткие для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2490</v>
+        <v>9090</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>223733</v>
+        <v>194504</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9741-zaryadnoe-ustroystvo-orion-325</t>
+          <t>https://motorring.ru/product/15544-podramnik-avtoprodukt-drive-poliuretan-bez-zaschity-lada</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Зарядное устройство Орион Вымпел-325 20 ампер</t>
+          <t>Подрамник AutoProduct Drive с полиуретановыми сайлентблоками без защиты для Лада Гранта, Калина с 2013 г.в., Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3190</v>
+        <v>8090</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>223734</v>
+        <v>194503</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/28523</t>
+          <t>https://motorring.ru/product/15541-podramnik-avtoprodukt-drive-poliuretan-bez-zaschity-granta</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Зарядно-предпусковое устройство Орион Вымпел-30 (20 ампер) для аккумулятора</t>
+          <t>Подрамник AutoProduct Drive с полиуретановыми сайлентблоками без защиты для Лада Гранта, Калина до 2013 г.в.</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3290</v>
+        <v>8490</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>141971</v>
+        <v>194477</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9742-datchik-doghdya-dda-25-regulirovkoy-pauzy-dlya-vaz</t>
+          <t>https://motorring.ru/product/15537-podramnik-autoproduct-drive-rezinovymi-saylentblokami-bez</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Датчик дождя ДДА-25.02 с регулировкой паузы для ВАЗ 2108-21099, 2113-2115, Лада Приора, Калина, Гранта</t>
+          <t>Подрамник AutoProduct Drive с резиновыми сайлентблоками без защиты для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>3790</v>
+        <v>9090</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>201307</v>
+        <v>213100</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9761</t>
+          <t>https://motorring.ru/product/29924-rychagi-podramnika-ghestkie-70mm-autoproduct-vaz-2108-2115</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Программатор одометров ПО-4</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>3190</v>
-      </c>
+          <t>Рычаги подрамника AutoProduct Drive жесткие под увеличенную на 70мм колею для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Калина 2, Гранта, Гранта FL, Датсун</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>141975</v>
+        <v>213109</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37776-datchik-doghdya-dda15-02-vaz-2108-21099-2113-2115-2110-2112</t>
+          <t>https://motorring.ru/product/31389-rychagi-reguliruemye-pered-autoproduct-sport-pu-2108</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Датчик дождя ДДА15.02 под старый блок предохранителей для ВАЗ 2108-21099, 2113-2115, 2110-2112, Шевроле Нива</t>
+          <t>Рычаги регулируемые передние AutoProduct Sport с полиуретановыми сайлентблоками для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>3590</v>
+        <v>11190</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>201032</v>
+        <v>213108</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9760</t>
+          <t>https://motorring.ru/product/15576-rychagi-reguliruemye-perednie-lada-granta-kalina-priora</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Преобразователь напряжения повышающий 12/24 Орион ПН-50 10А</t>
+          <t>Рычаги регулируемые передние AutoProduct Sport для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>3690</v>
+        <v>10990</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>164008</v>
+        <v>213110</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/22749</t>
+          <t>https://motorring.ru/product/6088-rychagi-reguliruemye-perednie-autoproduct-pod-uvelichennuyu</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Модуль автоматического контроллера стеклоподъемников МАКС-2 для Лада Веста</t>
+          <t>Рычаги регулируемые передние AutoProduct Sport под увеличенную на 70мм колею для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>3190</v>
+        <v>13690</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>141970</v>
+        <v>139226</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37777-datchik-doghdya-dda-dlya-lada-inomarok</t>
+          <t>https://motorring.ru/product/29904-samoblokiruyuschiysya-differencial-avtoprodukt-2108</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Датчик дождя ДДА 55 для Лада и иномарок</t>
+          <t>Самоблокирующийся дифференциал AutoProduct Drive с увеличенным КБ для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3690</v>
+        <v>11590</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>143690</v>
+        <v>139229</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37761-diagnosticheskiy-skaner-tester-shtat-dst-mini-dlya-lada</t>
+          <t>https://motorring.ru/product/29903-samoblokiruyuschiysya-differencial-rzm-avtoprodukt-2101</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Диагностический сканер тестер ШТАТ ДСТ-mini для Лада и иномарок</t>
+          <t>Самоблокирующийся дифференциал (РЗМ) AutoProduct Drive под 22 шлица для ВАЗ 2101-2107, Лада 4х4 (Нива), Шевроле Нива</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>2990</v>
+        <v>12690</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>224671</v>
+        <v>139227</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/30633-strelochnaya-nagruzochnaya-vilka-nv-03</t>
+          <t>https://motorring.ru/product/29902-neobslughivaemyy-differencial-autoproduct-4x4</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Нагрузочная вилка НВ-03 цифровая для проверки АКБ и генератора 100/200А</t>
+          <t>Необслуживаемый самоблокирующийся дифференциал AutoProduct Drive для Лада 4х4, Нива Легенд, Шевроле/Лада Нива 2123, Нива Тревел</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3990</v>
+        <v>12690</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>141974</v>
+        <v>194519</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9742-datchik-doghdya-dda-25-regulirovkoy-pauzy-dlya-vaz</t>
+          <t>https://motorring.ru/product/15543-podramnik-avtoprodukt-ghestkimi-rychagami-bez-zaschity-lada</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Датчик дождя ДДА-25.02 с регулировкой паузы для ВАЗ 2108-21099, 2113-2115, Лада Приора, Калина, Гранта</t>
+          <t>Подрамник AutoProduct Drive с жесткими рычагами без защиты для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>3790</v>
+        <v>15690</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>202283</v>
+        <v>194517</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9767-radar-detektor-orion-525</t>
+          <t>https://motorring.ru/product/15529-podramnik-autoproduct-ghestkimi-rychagami-bez-zaschity-2108</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Радар-детектор Орион 525-СТ</t>
+          <t>Подрамник AutoProduct Drive с жесткими рычагами без защиты для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>3990</v>
+        <v>15590</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>219243</v>
+        <v>194518</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9785</t>
+          <t>https://motorring.ru/product/15540-podramnik-avtoprodukt-ghestkimi-rychagami-bez-zaschity-granta</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Тестер форсунок ТФ-01</t>
+          <t>Подрамник AutoProduct Drive с жесткими рычагами без защиты для Лада Гранта, Калина до 2013 г.в.</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>3290</v>
+        <v>15890</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>141976</v>
+        <v>194481</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37778</t>
+          <t>https://motorring.ru/product/15535-podramnik-avtoprodukt-ghestkimi-rychagami-bez-zaschity-2110</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Датчик дождя ДДА 65 с датчиком света для Лада и иномарок</t>
+          <t>Подрамник AutoProduct Drive с жесткими рычагами без защиты для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4190</v>
+        <v>16190</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>131559</v>
+        <v>212987</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9763</t>
+          <t>https://motorring.ru/product/15599-rychag-zadniy-autoproduct-sbore-rezinovyy-saylentblok-lada</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Адаптер BDM-ПО5 для программатора ПО-5 с насадкой</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>3790</v>
-      </c>
+          <t>Рычаг задний AutoProduct Sport Pro в сборе с резиновыми сайлентблоками для Лада Гранта, Калина, Калина 2, Датсун</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>202284</v>
+        <v>212992</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9768</t>
+          <t>https://motorring.ru/product/15600-rychag-zadniy-autoproduct-sbore-lada-granta-kalina-kalina</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Радар-детектор Орион 575-СТ с голосовым оповещением</t>
+          <t>Рычаг задний AutoProduct Sport Pro в сборе с полиуретановыми сайлентблоками для Лада Гранта, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>4790</v>
+        <v>24990</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>138709</v>
+        <v>212988</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5911-bortovoy-kompyyuter-shtat-unicomp-410l-dlya-daewoo-peugeot</t>
+          <t>https://motorring.ru/product/15591-rychag-zadniy-sbore-autoproduct-rezinovyy-saylentblok-lada</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ UniComp-410ML для Лада, Шевроле Нива, Рено и прочих иномарок</t>
+          <t>Рычаг задний в сборе AutoProduct Sport Pro с резиновыми сайлентблоками для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>4590</v>
+        <v>18590</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>138696</v>
+        <v>212991</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15790-bortovoy-kompyyuter-shtat-115x23m-dlya-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/15587-rychag-zadniy-sbore-autoproduct-vaz-2108-21099-2113-2115</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Штат 115x23М для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Рычаг задний в сборе AutoProduct Sport Pro с полиуретановыми сайлентблоками для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>5690</v>
+        <v>19190</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>186321</v>
+        <v>194098</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1329-parktronik-multitronics-pu-4tc</t>
+          <t>https://motorring.ru/product/29867-zadnyaya-nezavisimaya-podveska-avtoprodukt-vaz-2108</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Парктроник Multitronics PU4-TC</t>
+          <t>Задняя независимая подвеска AutoProduct Drive для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Приора, Калина, Гранта, Датсун</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>4490</v>
+        <v>36590</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>186320</v>
+        <v>194099</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1335</t>
+          <t>https://motorring.ru/product/30416-zadnyaya-nezavisimaya-podveska-avtoprodukt-kalna</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Парктроник Мультитроникс PT4-TC</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+          <t>Задняя независимая подвеска AutoProduct Drive для Лада Калина, Калина 2, Гранта, Датсун</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>36590</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>201308</v>
+        <v>202746</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9762-programmator-odometrov-po-5</t>
+          <t>https://motorring.ru/product/1763-rasporka-perednyaya-avtoprodukt-vaz-2114</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Программатор одометров ПО-5</t>
+          <t>Распорка передняя AutoProduct Drive для 16-клапанных ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>4390</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>158690</v>
+        <v>160524</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/33977</t>
+          <t>https://motorring.ru/product/37515-opora-dvigatelya-pravaya-usilennaya-podushkoy-dlya-lada-vesta-spo</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Комплект модулей на 4 двери МАКС-2 для Лада Икс Рей, Ларгус FL, Рено Дастер</t>
+          <t>Опора двигателя правая усиленная с подушкой для Лада Веста, Веста Спорт</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>4090</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>138638</v>
+        <v>217325</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5918-bortovoy-kompyyuter-shtat-1118-kalina-x5mk-lada-kalina</t>
+          <t>https://motorring.ru/product/37453-stabilizator-poperechnoy-ustoychivosti-autoproduct-sbore-24-mm</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Штат 1118 Калина X5MК для Лада Калина</t>
+          <t>Стабилизатор поперечной устойчивости AutoProduct 24 мм в сборе для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>5190</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>201027</v>
+        <v>217322</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8466</t>
+          <t>https://motorring.ru/product/37446-stabilizator-poperechnoy-ustoychivosti-autoproduct-sbore</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Преобразователь напряжения (розетка автомобильная) 12/220 Орион ПН-60 450W</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>Стабилизатор поперечной устойчивости AutoProduct 22 мм в сборе для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>3390</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>138702</v>
+        <v>217321</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5902</t>
+          <t>https://motorring.ru/product/36923-stabilizator-poperechnoy-ustoychivosti-avtoprodukt-22mm-v-sbore</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бортовой компьютер Штат Приора Матрикс вместо часов OLED-дисплей на переднюю панель для Лада Приора </t>
+          <t>Стабилизатор поперечной устойчивости AutoProduct Drive 22 мм в сборе для ВАЗ 2110-2112, Лада Приора</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>5490</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>131499</v>
+        <v>204316</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10418-diagnosticheskiy-skaner-tester-shtat-dst-ekspress-dlya</t>
+          <t>https://motorring.ru/product/37440-remkomplekt-usiliteley-zadnih-stoek-dlya-lada-kalina-kalina</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Диагностический сканер тестер Штат ДСТ-Экспресс для автомобилей ВАЗ</t>
+          <t>Ремкомплект распорок задних стоек и усилителей кузова для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>4290</v>
+        <v>329</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>186317</v>
+        <v>217326</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/1333-parktronik-multitronics-apt-4c</t>
+          <t>https://motorring.ru/product/37463-stabilizator-poperechnoy-ustoychivosti-autoproduct-sbore-24-mm</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Парктроник Multitronics APT-4C</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>Стабилизатор поперечной устойчивости AutoProduct 24 мм в сборе с усиленными стойками для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>3290</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>218487</v>
+        <v>136705</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/30635-stroboskop-orion-st-04-dlya-karbyuratornyh-inghektornyh</t>
+          <t>https://motorring.ru/product/38364-usilennyy-kronshteyn-zapasnogo-kolesa-autoproduct-largus</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Стробоскоп Орион СТ-04 для карбюраторных и инжекторных двигателей</t>
+          <t>Усиленный кронштейн запасного колеса AutoProduct с катафорезным покрытием для Лада Ларгус</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>6490</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>214015</v>
+        <v>194100</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9779</t>
+          <t>https://motorring.ru/product/37514-zadnyaya-nezavisimaya-podveska-dlya-lada-vesta-vesta-sw</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Сканер-тестер S7000 (USB исполнение) для диагностики автомобилей ВАЗ, ГАЗ</t>
+          <t>Задняя независимая подвеска для Лада Веста, Веста SW</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>5890</v>
+        <v>55690</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>201038</v>
+        <v>195277</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9780-pribor-dlya-proverki-moduley-zaghiganiya-spmz-3</t>
+          <t>https://motorring.ru/product/29943-poperechina-autoproduct-drive-poliuretan-granta-kalina</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Прибор для проверки модулей зажигания СПМЗ-3</t>
+          <t>Поперечина AutoProduct Sport с полиуретановыми сайленблоками для Лада Гранта, Гранта FL, Калина, Калина 2, Датсун</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>7190</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>138633</v>
+        <v>204518</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37804-bortovoy-kompyyuter-mulytitroniks-sl-50v-dlya-inghektornyh</t>
+          <t>https://motorring.ru/product/29892-remkomplekt-reguliruemyh-rychagov-avtoprodukt-dlya-vaz</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Бортовой компьютер Мультитроникс SL-50V для инжекторных автомобилей ВАЗ и иномарок</t>
+          <t>Ремкомплект регулируемых передних рычагов AutoProduct Parts для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>6790</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>138716</v>
+        <v>170839</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5927</t>
+          <t>https://motorring.ru/product/29966-nakladki-pedali-avtoprodukt-sport-mt-lada-xray-logan</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Бортовой компьютер ШТАТ Шеви Вектор-P вместо блока БСК для Шевроле Нива</t>
+          <t>Накладки на педали AutoProduct Sport МТ для Лада Икс Рей, Рено Логан 2</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>6190</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>202081</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9815-pusko-zaryadnoe-ustroystvo-orion-700</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Пуско-зарядное устройство Орион Вымпел-700</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>8290</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>138715</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/5926-bortovoy-kompyyuter-shtat-shevi-matrix-3-vmesto-bloka-bsk</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер ШТАТ Шеви MATRIX-M вместо блока БСК для Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>7190</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>138660</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/15235-bortovoy-kompyyuter-mulytitroniks-cl-590-vmesto-vozduhovoda</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Мультитроникс CL-590 без звукового синтезатора вместо воздуховода для Лада Гранта, Ларгус, Рено, Ниссан</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>7790</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>138658</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/1321-bortovoy-kompyyuter-mulytitroniks-570-vmesto-bloka-bsk</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Мультитроникс CL-575 вместо блока БСК без голосового синтезатора для Шевроле Нива, Лада Нива Тревел</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>7790</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>138659</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/1319-bortovoy-kompyyuter-multitronics-cl-580-dlya-avtomobiley</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Multitronics CL-580 без голосового синтезатора для автомобилей УАЗ Патриот, ГАЗ</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>8490</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>138654</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/15234-bortovoy-kompyyuter-mulytitroniks-590-vmesto-vozduhovoda</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Мультитроникс C-590 с голосовым синтезатором вместо воздуховода для Лада Гранта, Ларгус, Рено, Ниссан</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v>8690</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>138674</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/1202-bortovoy-kompyyuter-mulytitroniks-730-vaz-inomarki</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Мультитроникс VC-730 TFT дисплей на стекло для ВАЗ и иномарки</t>
-        </is>
-      </c>
-      <c r="D156" t="n">
-        <v>8690</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>138652</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/1320-bortovoy-kompyyuter-mulytitroniks-570-golos-vmesto-bloka</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Мультитроникс C-575 вместо блока БСК с голосовым синтезатором для Шевроле Нива, Лада Нива Тревел</t>
-        </is>
-      </c>
-      <c r="D157" t="n">
-        <v>8790</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>138653</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/1318-bortovoy-kompyyuter-multitronics-c-580-uaz-patriot-biznes</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Multitronics C-580 с голосовым синтезатором для автомобилей УАЗ Патриот, ГАЗель Бизнес</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
-        <v>9190</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>138671</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/1200</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Мультитроникс TC-740 без голосового синтезатора для ВАЗ и иномарки</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
-        <v>8990</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>201306</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/25418-programmator-odometrov-po-5-pro</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Программатор одометров ПО-5 PRO</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
-        <v>9990</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>138675</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/1201</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Мультитроникс VC-731 (VC-755) с голосовым синтезатором для ВАЗ и иномарки</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
-        <v>10490</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>138672</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/1169-bortovoy-kompyyuter-mulytitroniks-750-vaz-inomarki</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Мультитроникс TC-750 с голосовым синтезатором для ВАЗ и иномарки</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>10990</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>226982</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/1745-elektronnaya-kombinaciya-priborov-flash-lada-priora-kalina</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Электронная комбинация приборов Flash X4 для Лада Приора, Калина, ВАЗ 2110-2112</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>14290</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>226981</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/1748-elektronnaya-kombinaciya-priborov-flash-vaz-2108-21099</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Электронная комбинация приборов Flash Х3 для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада 4х4 (Нива), Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>13990</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>138666</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/1203-bortovoy-kompyyuter-mulytitroniks-700-vaz-inomarki</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Мультитроникс RC-701 TFT дисплей для ВАЗ и иномарок</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>13490</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>138632</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/37801-bortovoy-kompyyuter-multitronics-c-900</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Multitronics C-900</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
-        <v>14390</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>226972</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/35291-elektronnaya-kombinaciya-priborov-flash-x-103v-vaz-2108-2115</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Электронная комбинация приборов Flash X-103V RGB для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада 4х4 (Нива), Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>19990</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>226973</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/1747-elektronnaya-kombinaciya-priborov-flash-light-lada-priora</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Электронная комбинация приборов Flash X5 для Лада Приора, Калина, ВАЗ 2110-2112</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>17390</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>136694</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9814-sensornyy-vyklyuchately-shtat-bez-fiksacii</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Сенсорный выключатель Штат TS без фиксации</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>224563</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/37900-centralynyy-zamok-vympel-a-y16</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Центральный замок на 4 двери Орион Вымпел A-Y16 с 2 ключами управления</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
         <v>2290</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>203951</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9775-rele-dvornikov-reguliruemoy-pauzoy-vaz-2108-21099-starym</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Реле дворников с регулируемой паузой для ВАЗ 2108-21099 со старым блоком, 2110-2112, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>131693</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/32326-aktivator-zamka-dveri-vympel-bcs-5p-5-provodnoy-vaz</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Активатор замка двери Вымпел BCS-5P 5-проводной для автомобилей ВАЗ</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>141292</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/8490-gnezdo-vstavka-tonnely-pola-pod-dopolnitelynye-knopki-lada</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Гнездо-вставка в тоннель пола под дополнительные кнопки Лада Гранта, Калина 2, Датсун</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>224564</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/37856-universalynyy-centralynyy-zamok-vympel-a-y216-kanalom</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Универсальный центральный замок Вымпел A-Y216 с каналом управления багажником (4 активатора, 2 брелока)</t>
-        </is>
-      </c>
-      <c r="D174" t="n">
-        <v>2790</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>251961</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/31840-usb-zaryadnoe-ustroystvo-15vt-slota-dlya-lada-vesta-iks-rey</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>USB зарядное устройство Штат 15Вт на 2 слота в подлокотник для Лада Веста, Икс Рей, Ларгус FL</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>319528</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/1320-bortovoy-kompyyuter-mulytitroniks-570-golos-vmesto-bloka</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Мультитроникс C-575 вместо блока БСК с голосовым синтезатором для Шевроле Нива, Лада Нива Тревел</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>8790</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>323314</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/15224-bortovoy-kompyyuter-mulytitroniks-vmesto-zaglushki-knopki</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Мультитроникс UX 8 вместо заглушки кнопки для ВАЗ 2110-2112, 2113-2115, Калина, Гранта, Приора, Шевроле Нива, Датсун</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>257936</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40332-bortovoy-kompyyuter-shtat-h1-t-beloy-podsvetkoy-nva-travel</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер Штат Х1-Т с белой подсветкой вместо заглушки кнопки для Лада Нива Тревел</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>258809</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/33977-moduly-komplect-4-dvery-max-2-xray</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Комплект модулей на 4 двери МАКС-2 для Лада Икс Рей, Ларгус FL, Рено Дастер</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>4090</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>258920</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/25429-moduli-avtomaticheskoy-tonirovki-maks-2t-20a</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Модули автоматической тонировки МАКС-2Т 20А</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>4890</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>258921</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/25430-moduli-avtomaticheskoy-tonirovki-maks-2t-30a</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Модули автоматической тонировки МАКС-2Т 30А</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>5090</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>258922</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/33976-moduly-avtomaticheskogo-kontrollera-steklopodyemnikov-xray</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Модуль автоматического контроллера стеклоподъемников МАКС-2 для Лада Икс Рей, Ларгус FL, Рено Логан 2, Сандеро 2, Дастер, Клио 4, Трафик</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>258923</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/39804-moduly-avtomaticheskogo-kontrollera-steklopodyemnikov-kalina</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Модуль автоматического контроллера стеклоподъемников МАКС-2 для Лада Калина</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>2590</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>258924</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/25433-moduly-plavnogo-vklyucheniya-podsvetki-kombinacii-priborov</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Модуль плавного включения подсветки комбинации приборов</t>
-        </is>
-      </c>
-      <c r="D184" t="n">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>201294</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/13527-montaghnyy-nabor-podklyucheniya-protivotumannyh-far-lada</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Монтажный набор подключения противотуманных фар для Лада Веста</t>
-        </is>
-      </c>
-      <c r="D185" t="n">
-        <v>3290</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>347232</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/37768-bortovoy-kompyyuter-shtat-mk-3-sensornyy-universalynyy</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Бортовой компьютер ШТАТ МК-3 сенсорный универсальный</t>
-        </is>
-      </c>
-      <c r="D186" t="n">
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>258453</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/33975-indikator-napryagheniya-in-12-krasniy-dlya-vaz-2110-12</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Индикатор напряжения ИН-12 красный для ВАЗ 2110-2012 (европанель), 2113-2115, Лада Калина, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="D187" t="n">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>258454</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/33974-indikator-napryagheniya-in-12-siniy-dlya-vaz-2110-12</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Индикатор напряжения ИН-12 синий для ВАЗ 2110-2112 (европанель), 2113-2115, Лада Калина, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="D188" t="n">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>258456</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/39806-indikator-napryagheniya-in-12-krasniy-dlya-vaz-2110</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Индикатор напряжения ИН-12 с красной подсветкой для ВАЗ 2110-2112</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>258457</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/39805-indikator-napryagheniya-in-12-siniy-dlya-vaz-2110</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Индикатор напряжения ИН-12 с синей подсветкой для ВАЗ 2110-2112</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>258459</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/31966-indikator-napryagheniya-int-12-krasniy-volytometrom-kalina</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Индикатор температуры ИНТ-12 красный с вольтометром для ВАЗ 2110-2112 (европанель), 2113-2115, Лада Калина, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="D191" t="n">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>258460</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/31965-indikator-napryagheniya-int-12-siniy-volytometrom-kalina</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Индикатор температуры ИНТ-12 синий с вольтометром для ВАЗ 2110-2112 (европанель), 2113-2115, Лада Калина, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="D192" t="n">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>258462</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/29038-indikator-tempretury-vozduha-int-12-krasniy-vaz-2110</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Индикатор темпретуры воздуха ИНТ-12 на место кнопки с красной подсветкой и вольтометром для ВАЗ 2110-2112</t>
-        </is>
-      </c>
-      <c r="D193" t="n">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>258463</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/28751-indikator-tempretury-vozduha-int-12-siniy-vaz-2110</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Индикатор темпретуры воздуха ИНТ-12 на место кнопки с синей подсветкой и вольтометром для ВАЗ 2110-2112</t>
-        </is>
-      </c>
-      <c r="D194" t="n">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>258465</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/31610-indikator-napryagheniya-int-12-krasniy-volytometrom-granta</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Индикатор температуры ИНТ-12 красный с вольтометром для Лада Гранта, Калина 2, Приора, Датсун</t>
-        </is>
-      </c>
-      <c r="D195" t="n">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>258466</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/32327-indikator-napryagheniya-int-12-siniy-volytometrom-granta</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Индикатор температуры ИНТ-12 синий с вольтометром для Лада Гранта, Калина 2, Приора, Датсун</t>
-        </is>
-      </c>
-      <c r="D196" t="n">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>268603</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9789-podogrev-tosola-220v-magnum-5kvt-dlya-vaz-2108-15-2110-12</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Подогрев тосола 220В Магнум №16 1,5кВт для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Ларгус, Renault</t>
-        </is>
-      </c>
-      <c r="D197" t="n">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>268605</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9791-podogrev-tosola-220v-magnum-5kvt-dlya-406-dvigatelem</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Подогрев тосола 220В Магнум №21 1,5кВт для автомобилей с двигателем ЗМЗ-405 Евро 2, ЗМЗ-406</t>
-        </is>
-      </c>
-      <c r="D198" t="n">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>268611</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/9788-podogrev-tosola-220v-magnum-5kvt-vaz-2101-2107-niva-21213</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Подогрев тосола 220В Магнум №3 1,5кВт для ВАЗ 2101-2107, Лада 4х4 (Нива) 21213, Приора, Калина, ИЖ, Ока, Fiat, Suzuki</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>1990</v>
       </c>
     </row>
   </sheetData>

--- a/output_data/output.xlsx
+++ b/output_data/output.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,376 +425,1426 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8582-zamki-kapota-pod-skrytuyu-ustanovku-klyuchom-plastik</t>
+          <t>https://motorring.ru/product/27640-glushitely-pryamotochnyy-stt-krepleniya-novogo-obrazca-vaz-2112</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Замки капота Sal-Man (пластик) под скрытую установку с ключом</t>
+          <t>Глушитель прямоточный STT крепления нового образца для ВАЗ 2112</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1290</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2370-filytr-nulevogo-soprotivleniya-inghektor-dlya-vaz</t>
+          <t>https://motorring.ru/product/27581-vypusknoy-kollektor-pauk-4-2-1-stt-sport-vyhod-63mm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Фильтр нулевого сопротивления закрытый конус синий для инжекторных ВАЗ 2101-2107, 2108-2115, 2110-2112, Лада Гранта, Калина, Приора, Нива Легенд/Тревел, Шевроле Нива</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport выход 63мм нержавеющая сталь под 1ДК для 16-клапанных Лада Гранта, Калина 2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>769</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38485-filytr-nulevogo-soprotivleniya-inghektor-krasniy-vaz</t>
+          <t>https://motorring.ru/product/27601-vypusknoy-kollektor-pauk-4-2-1-stt-sport-8kl-lada-kalina</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Фильтр нулевого сопротивления закрытый конус красный для инжекторных ВАЗ 2101-2107, 2108-2115, 2110-2112, Лада Гранта, Калина, Приора, Нива Легенд/Тревел, Шевроле Нива</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport под 1ДК для 8кл Лада Калина</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>769</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3003-vozdushnyy-filytr-nulevogo-soprotivleniya-prosport</t>
+          <t>https://motorring.ru/product/27630-glushitely-pryamotochnyy-stt-bez-nasadki-vaz-21099</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Воздушный фильтр нулевого сопротивления синий конусный для инжекторных ВАЗ 2101-2107, 2108-2115, 2110-2112, Лада 4х4, Гранта/Калина, Приора, Нива Легенд/Тревел, Шевроле Нива</t>
+          <t>Глушитель прямоточный STT без насадки для ВАЗ 21099</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>899</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11752-vspyshki-fso-48w-16-svetodiodov</t>
+          <t>https://motorring.ru/product/27562-vypusknoy-kollektor-pauk-4-2-1-stt-16kl-vaz-2101-2107</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Вспышка ФСО 48W (16 светодиодов по 3 Вт)</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 16кл ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>590</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/29225-filytr-nulevogo-soprotivleniya-siniy-karbyurator-vaz</t>
+          <t>https://motorring.ru/product/27603-vypusknoy-kollektor-pauk-4-2-1-stt-sport-nerghaveyuschaya-kalina</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Воздушный фильтр нулевого сопротивления синий для карбюраторных ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада 4х4 (Нива), Ока</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport нержавеющая сталь под 1ДК для 8кл Лада Калина</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1190</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/32067-komplekt-chernyh-linzovannyh-far-stile-amg-dlya-lada-priora</t>
+          <t>https://motorring.ru/product/27586-vypusknoy-kollektor-pauk-4-2-1-stt-sport-vyhod-63mm-16kl-2110</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Комплект черных линзованных фар (2 линзы) в стиле АМГ (Кастом) для Лада Приора</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport выход 63мм под 1ДК для 16кл ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22490</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/34428-universalynaya-rezinovaya-guba-samurai-beliy-kant</t>
+          <t>https://motorring.ru/product/27572-vypusknoy-kollektor-pauk-4-2-1-subaru-sound-16kl-lada</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Универсальная резиновая губа Самурай черная с белым кантом на передний бампер</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Subaru Sound под 1ДК для 16-клапанных Лада Приора</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>890</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/21338-korpusa-zadnih-fonarey-belym-povorotnikom-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/5232-vstavka-zamenitely-katalizatora-4-1-stt-dlya-dvigateley-vaz</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Корпуса задних фонарей с белым поворотником для ВАЗ 2108-21099, 2113, 2114</t>
+          <t>Вставка заменитель катализатора 4-1 STT (2 датчика кислорода) для 16 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Калина 2, Гранта, Приора</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1590</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20552-svetodiodnye-fonari-klyushki-vaz-2110</t>
+          <t>https://motorring.ru/product/27625-rezonator-pod-vypusknoy-kollektor-stt-nerghaveyuschaya</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Светодиодные фонари клюшки для ВАЗ 2110</t>
+          <t>Резонатор под выпускной коллектор STT нержавеющая сталь для Лада Приора</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4190</v>
+        <v>9890</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12708-universalynaya-rezinovaya-guba-samurai-bamper</t>
+          <t>https://motorring.ru/product/27616-rezonator-truba-pod-vypusknoy-kollektor-stt-lada-kalina</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Универсальная резиновая губа Самурай черная на передний бампер</t>
+          <t>Резонатор-труба под выпускной коллектор STT для Лада Калина</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>790</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25891-termolenta-steklovolokno-krasnaya-vypusknuyu-sistemu</t>
+          <t>https://motorring.ru/product/27585-vypusknoy-kollektor-pauk-4-2-1-stt-sport-16kl-vaz-2110-2112</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Термолента стекловолокно красная на выпускную систему</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport под 1ДК для 16кл ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>990</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/21150-steklo-pravoy-fary-avtosvet-vaz-2113-2115</t>
+          <t>https://motorring.ru/product/27618-rezonator-pod-vypusknoy-kollektor-stt-nerghaveyuschaya-kalina</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Стекло правой фары Автосвет для ВАЗ 2113-2115</t>
+          <t>Резонатор под выпускной коллектор STT нержавеющая сталь для Лада Калина</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>369</v>
+        <v>9590</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37863-platy-zadnih-fonarey-dlya-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/27576-vypusknoy-kollektor-pauk-4-2-1-stt-sport-16kl-lada-granta</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Платы задних фонарей для ВАЗ 2108-21099</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport под 1ДК для 16кл Лада Гранта, Калина 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>590</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/41035-kruglaya-nasadka-glushitelya-akrapovic-tq004c-skosom</t>
+          <t>https://motorring.ru/product/27595-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-2110</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Круглая насадка глушителя Akrapovic TQ004c из нержавеющей стали со скосом и карбоновой накладкой</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 8кл ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2890</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2368-filytr-nulevogo-soprotivleniya-karbyurator-vaz</t>
+          <t>https://motorring.ru/product/27587-vypusknoy-kollektor-pauk-4-2-1-stt-sport-16kl-vaz</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Фильтр нулевого сопротивления красный для карбюраторных ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада 4х4 (Нива), Ока</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport под 1 ДК для 16-клапанных ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1190</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25892-termolenta-alyuminizirovannoe-steklovolokno-vypusknuyu</t>
+          <t>https://motorring.ru/product/27611-rezonator-pod-vypusknoy-kollektor-stt-16kl-lada-vesta</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Термолента из алюминизированного стекловолокна на выпускную систему</t>
+          <t>Резонатор под выпускной коллектор STT для 16кл Лада Веста 1.6 до 2018 г.в</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1290</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/27379-vspyshka-fso-belo-krasnaya-svetodiodov</t>
+          <t>https://motorring.ru/product/27638-glushitely-pryamotochnyy-stt-krepleniya-starogo-obrazca-vaz</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Вспышка ФСО бело-красная (16 светодиодов)</t>
+          <t>Глушитель прямоточный STT крепления старого образца для ВАЗ 2110, 2111</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>590</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3009-vozdushnyy-filytr-nulevogo-soprotivleniya-inghektornyy</t>
+          <t>https://motorring.ru/product/27580-vypusknoy-kollektor-pauk-4-2-1-stt-sport-vyhod-63mm-16kl</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Воздушный фильтр нулевого сопротивления красный конус для инжекторных ВАЗ 2101-2107, 2108-2115, 2110-2112, Лада Гранта, Калина, Приора, Нива Тревел/Легенд, Шевроле Нива</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport выход 63мм под 1ДК для 16кл Лада Калина</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>949</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10393-filytr-nulevogo-soprotivleniya-shtatnyy-korpus</t>
+          <t>https://motorring.ru/product/27621-rezonator-truba-gofroy-pod-vypusknoy-kollektor-stt-lada</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Воздушный фильтр нулевого сопротивления в штатный корпус для инжекторных ВАЗ 2107, 2108-2115, 2110-2112, Калина, Гранта, Приора, Нива Легенд/Тревел, Шевроле Нива</t>
+          <t>Резонатор-труба с гофрой под выпускной коллектор STT для Лада Гранта, Калина 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>829</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/26000-zamki-kapota-pod-skrytuyu-ustanovku-plastik</t>
+          <t>https://motorring.ru/product/27566-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-granta</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Замки капота Sal-Man под скрытую установку без ключа пластик</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 16-клапанных Лада Гранта, Калина 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1190</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/4465-termolenta-vypusknuyu-sistemu</t>
+          <t>https://motorring.ru/product/27651-vstavka-zamenitely-katalizatora-4-2-1-stt-pod-datchika-8kl</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Термолента Sal-Man стекловолокно на выпускную систему для Лада и иномарок</t>
+          <t>Вставка заменитель катализатора 4-2-1 STT под 1 датчика кислорода для 8 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта, Приора</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>929</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/32730-led-rgb-lampy-gabarity-puytom-lightspace-t10-w5w</t>
+          <t>https://motorring.ru/product/27609-rezonator-pryamotochnyy-stt-pod-shtatnuyu-ustanovku-16kl</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LED RGB лампы в габариты с пультом LightSpace T10 W5W</t>
+          <t>Резонатор прямоточный STT под штатную установку для 16-клапанных 1.6л Лада Веста</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>290</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38324-fonari-svetodiodnye-stile-audi-vaz-2110-krasnii</t>
+          <t>https://motorring.ru/product/27653-vstavka-zamenitely-katalizatora-4-1-stt-pod-datchika-vesta-16kl</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Фонари светодиодные в стиле Ауди RS для ВАЗ 2110 красные </t>
+          <t>Вставка заменитель катализатора 4-1 STT под 2 датчика кислорода для 1.6л 16-клапанных Лада Веста</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9190</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/21483-termolenta-titan-vypusknuyu-sistemu</t>
+          <t>https://motorring.ru/product/27652-vstavka-zamenitely-katalizatora-4-1-stt-pod-datchika-vesta</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Термолента Sal-Man Титан 1200C на выпускную систему</t>
+          <t>Вставка заменитель катализатора 4-1 STT под 2 датчика кислорода для 16 кл Лада Веста 1,8л</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1690</v>
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/15582-vstavka-zamenitely-katalizatora-4-2-1-stt-dlya-dvigateley</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Вставка заменитель катализатора 4-2-1 STT под 2 датчика кислорода для 8 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта, Приора</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3867-rezonator-gofroy-pod-vypusknoy-kollektor-stt-vaz-2113-2115</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Резонатор с гофрой под выпускной коллектор STT для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27596-vypusknoy-kollektor-pauk-4-2-1-stt-8kl-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 8кл ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27590-vypusknoy-kollektor-pauk-4-2-1-stt-sport-vyhod-63mm-8kl</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport выход Ø63мм под 1ДК для 8кл Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27557-vypusknoy-kollektor-pauk-4-2-1-stt-dvuhsostavnoy-razbornyy</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT двухсоставной, разборный под 1ДК для 16кл Лада Веста 1.6</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27649-vstavka-zamenitely-katalizatora-4-2-1-stt-datchikom</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Вставка заменитель катализатора 4-2-1 STT с 1 датчиком кислорода для 16 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта, Приора</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27588-vypusknoy-kollektor-pauk-4-2-1-stt-sport-nerghaveyuschaya-2113</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport нержавеющая сталь под 1ДК для 16-клапанных ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>7990</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10749-vstavka-zamenitely-katalizatora-4-2-1-stt-dlya-dvigateley</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Вставка заменитель катализатора 4-2-1 STT под 2 датчика кислорода для 16 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта, Приора</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27602-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-kalina</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 8-клапанных Лада Калина</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>7390</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27597-vypusknoy-kollektor-pauk-4-2-1-stt-sport-vyhod-63mm-8kl-vaz</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport c выход 63мм под 1ДК для 8кл ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/19360-rezonator-pod-vypusknoy-kollektor-stt-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Резонатор под выпускной коллектор STT для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27579-vypusknoy-kollektor-pauk-4-2-1-stt-sport-16kl-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport под 1ДК для 16кл Лада Калина</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27606-rezonator-truba-pod-vypusknoy-kollektor-stt-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Резонатор-труба под выпускной коллектор STT для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16221-vstavka-zamenitely-katalizatora-4-1-stt-dlya-dvigateley-vaz</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Вставка заменитель катализатора 4-1 STT под 2 датчика кислорода для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта, Приора</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27626-rezonator-gofroy-pod-vypusknoy-kollektor-stt-priora</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Резонатор с гофрой под выпускной коллектор STT нержавеющая сталь для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>10690</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27598-vypusknoy-kollektor-pauk-4-2-1-stt-sport-8kl-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport для 8-клапанных под 1ДК ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27582-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-2110</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 16кл ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27639-glushitely-pryamotochnyy-stt-krepleniya-novogo-obrazca-vaz</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT крепления нового образца для ВАЗ 2110, 2111</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27561-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-2101</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 8-клапанных ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10390</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27620-rezonator-gofroy-pod-vypusknoy-kollektor-stt</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Резонатор с гофрой под выпускной коллектор STT нержавеющая сталь для Лада Калина</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27573-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-priora</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 16кл Лада Приора</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>7990</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27558-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-vesta</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 16кл Лада Веста 1.6</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27591-vypusknoy-kollektor-pauk-4-2-1-stt-sport-8kl-lada-granta</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport под 1ДК для 8кл Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27654-vstavka-zamenitely-katalizatora-4-1-stt-nerghaveyuschaya</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Вставка заменитель катализатора 4-1 STT нержавеющая сталь под 2 датчика кислорода  для 16 кл Лада Веста 1,6л</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/14327-pauk-4-2-1-16v-stt-dlya-lada-priora-pod-datchik-kisloroda</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Паук 4-2-1 16v STT для Лада Приора под 1 датчик кислорода</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27594-vypusknoy-kollektor-pauk-4-2-1-stt-sport-8kl-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport под 1ДК для 8кл ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27646-glushitely-pryamotochnyy-stt-lada-priora-hetchbek</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT для Лада Приора хэтчбек</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27599-vypusknoy-kollektor-pauk-4-2-1-stt-sport-vyhod-63mm-8kl-vaz</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport с выход 63мм под 1ДК для 8кл ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27600-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-2108</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27619-rezonator-gofroy-pod-vypusknoy-kollektor-stt-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Резонатор с гофрой под выпускной коллектор STT для Лада Калина</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27642-glushitely-pryamotochnyy-stt-vaz-2115</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT для ВАЗ 2115</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27645-glushitely-pryamotochnyy-stt-lada-priora-sedan-universal</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT для Лада Приора седан, универсал</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20817</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Паук 4-2-1 STT под 1 ДК для 8кл ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12235-glushitely-pryamotochnyy-stt-vaz-2113-2114</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT для ВАЗ 2113, 2114</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27564-vypusknoy-kollektor-pauk-4-2-1-stt-8kl-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>6990</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27628-rezonator-truba-pod-vypusknoy-kollektor-stt-dlya-lada</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Резонатор-труба под выпускной коллектор STT для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27643-glushitely-pryamotochnyy-stt-lada-kalina-sedan-universal</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT для Лада Калина седан, универсал</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27592-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-8kl</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 8кл Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27605-rezonator-pryamotochnyy-stt-nerghaveyuschaya-staly-vaz</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Резонатор прямоточный STT нержавеющая сталь для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>9690</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27589-vypusknoy-kollektor-pauk-4-2-1-stt-sport-16kl-lada-priora</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport под 1ДК для 16-клапанных Лада Приора</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27612-rezonator-pod-vypusknoy-kollektor-stt-nerghaveyuschaya</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Резонатор под выпускной коллектор STT нержавеющая сталь для 16кл Лада Веста 1.6 до 2018 г.в</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27555-vypusknoy-kollektor-pauk-4-2-1-stt-16kl-lada-vesta</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 16кл Лада Веста 1.6</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27608-rezonator-pod-vypusknoy-kollektor-stt-lada-niva-4h4-2121</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Резонатор под выпускной коллектор STT для Лада Нива 4х4 2121, 21213, 21214</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27569-vypusknoy-kollektor-pauk-4-2-1-stt-16kl-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 16-клапанных Лада Калина</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27610-rezonator-pryamotochnyy-stt-nerghaveyuschaya-staly-pod</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Резонатор прямоточный STT нержавеющая сталь под штатную установку на 16кл Лада Веста 1.6</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>12590</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27624-rezonator-pod-vypusknoy-kollektor-stt-lada-priora</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Резонатор под выпускной коллектор STT для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27593-vypusknoy-kollektor-pauk-4-2-1-stt-sport-nerghaveyuschaya-8kl</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport нержавеющая сталь под 1ДК для 8кл Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/31536-resiver-stt-dvuh-obyemnyy-vaz-2113-2114-2115-lada-granta</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Ресивер STT 4л двух-объемный для 8-клапанных ВАЗ 2113, 2114, 2115, Лада Гранта</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>7690</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27583-vypusknoy-kollektor-pauk-4-2-1-stt-sport-vyhod-63mm-16</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport выход 63мм нержавеющая сталь под 1ДК для 16кл ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>8390</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27567-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-kalina</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 16кл Лада Калина</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>7690</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27641-glushitely-pryamotochnyy-stt-krepleniya-starogo-obrazca-vaz-2112</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT крепления старого образца для ВАЗ 2112</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27578-vypusknoy-kollektor-pauk-4-2-1-stt-sport-nerghaveyuschaya-kalina</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport нержавеющая сталь под 1ДК для 16кл Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/1730-pauk-4-2-1-stt-dlya-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 8кл Лада Калина</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27647-glushitely-pryamotochnyy-stt-lada-niva-4h4-2121-21213-21214</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT для Лада Нива 4х4 2121, 21213, 21214</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27571-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-2108</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 16кл ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27570-vypusknoy-kollektor-pauk-4-2-1-stt-16kl-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 16кл ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27629-glushitely-pryamotochnyy-stt-bez-nasadki-vaz-2108-2109</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT без насадки для ВАЗ 2108, 2109</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27607-rezonator-truba-pod-vypusknoy-kollektor-stt-2101</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Резонатор-труба под выпускной коллектор STT нержавеющая сталь для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27650-vstavka-zamenitely-katalizatora-4-1-stt-pod-datchik-8kl</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Вставка заменитель катализатора 4-1 STT под 1 датчик кислорода для 8 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта, Приора</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27584-vypusknoy-kollektor-pauk-4-2-1-stt-16kl-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 16кл ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27559-vypusknoy-kollektor-pauk-4-2-1-stt-8kl-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 8-клапанных ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27563-vypusknoy-kollektor-pauk-4-2-1-8kl-lada-niva-4h4-2121-21213</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 под 1ДК для 8кл Лада Нива 4х4 2121, 21213, 21214</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27565-vypusknoy-kollektor-pauk-4-2-1-stt-16kl-lada-granta-kalina</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 16кл Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27604-rezonator-pryamotochnyy-stt-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Резонатор прямоточный STT для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27648-vstavka-zamenitely-katalizatora-4-1-stt-pod-datchik</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Вставка заменитель катализатора 4-1 STT (под 1 датчик кислорода) для 16 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Калина 2, Гранта, Приора</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27575-vypusknoy-kollektor-pauk-4-2-1-stt-8kl-lada-granta-kalina</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 8кл Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27627-rezonator-pod-vypusknoy-kollektor-gofroy-stt-lada-priora</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Резонатор под выпускной коллектор с гофрой STT для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27622-rezonator-gofroy-pod-vypusknoy-kollektor-stt-lada-granta</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Резонатор с гофрой под выпускной коллектор STT для Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27617-rezonator-pod-vypusknoy-kollektor-stt-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Резонатор под выпускной коллектор STT для Лада Калина</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27623-rezonator-gofroy-pod-vypusknoy-kollektor-stt-granta-kalina</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Резонатор из нержавеющей стали с гофрой под выпускной коллектор STT для Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>10590</v>
       </c>
     </row>
   </sheetData>
@@ -808,7 +1858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,542 +1868,1766 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>171601</v>
+        <v>203628</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/41035-kruglaya-nasadka-glushitelya-akrapovic-tq004c-skosom</t>
+          <t>https://motorring.ru/product/27628-rezonator-truba-pod-vypusknoy-kollektor-stt-dlya-lada</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Круглая насадка глушителя Akrapovic TQ004c из нержавеющей стали со скосом и карбоновой накладкой</t>
+          <t>Резонатор-труба под выпускной коллектор STT для Лада Приора</t>
         </is>
       </c>
       <c r="D1" t="n">
-        <v>2890</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>139541</v>
+        <v>203713</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/27379-vspyshka-fso-belo-krasnaya-svetodiodov</t>
+          <t>https://motorring.ru/product/27606-rezonator-truba-pod-vypusknoy-kollektor-stt-vaz-2101-2107</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Вспышка ФСО бело-красная (16 светодиодов)</t>
+          <t>Резонатор-труба под выпускной коллектор STT для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>590</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>185791</v>
+        <v>203715</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37863-platy-zadnih-fonarey-dlya-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/27616-rezonator-truba-pod-vypusknoy-kollektor-stt-lada-kalina</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Платы задних фонарей для ВАЗ 2108-21099</t>
+          <t>Резонатор-труба под выпускной коллектор STT для Лада Калина</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>590</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>185790</v>
+        <v>139555</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37863-platy-zadnih-fonarey-dlya-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/27648-vstavka-zamenitely-katalizatora-4-1-stt-pod-datchik</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Платы задних фонарей для ВАЗ 2108-21099</t>
+          <t>Вставка заменитель катализатора 4-1 STT (под 1 датчик кислорода) для 16 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Калина 2, Гранта, Приора</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>590</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>224046</v>
+        <v>139553</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10393-filytr-nulevogo-soprotivleniya-shtatnyy-korpus</t>
+          <t>https://motorring.ru/product/5232-vstavka-zamenitely-katalizatora-4-1-stt-dlya-dvigateley-vaz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Воздушный фильтр нулевого сопротивления в штатный корпус для инжекторных ВАЗ 2107, 2108-2115, 2110-2112, Калина, Гранта, Приора, Нива Легенд/Тревел, Шевроле Нива</t>
+          <t>Вставка заменитель катализатора 4-1 STT (2 датчика кислорода) для 16 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Калина 2, Гранта, Приора</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>829</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>219131</v>
+        <v>139556</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/21483-termolenta-titan-vypusknuyu-sistemu</t>
+          <t>https://motorring.ru/product/27650-vstavka-zamenitely-katalizatora-4-1-stt-pod-datchik-8kl</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Термолента Sal-Man Титан 1200C на выпускную систему</t>
+          <t>Вставка заменитель катализатора 4-1 STT под 1 датчик кислорода для 8 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта, Приора</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1690</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>145541</v>
+        <v>139557</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/21338-korpusa-zadnih-fonarey-belym-povorotnikom-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/16221-vstavka-zamenitely-katalizatora-4-1-stt-dlya-dvigateley-vaz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Корпуса задних фонарей с белым поворотником для ВАЗ 2108-21099, 2113, 2114</t>
+          <t>Вставка заменитель катализатора 4-1 STT под 2 датчика кислорода для 8-клапанных ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта, Приора</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1590</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>145555</v>
+        <v>139559</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38324-fonari-svetodiodnye-stile-audi-vaz-2110-krasnii</t>
+          <t>https://motorring.ru/product/27649-vstavka-zamenitely-katalizatora-4-2-1-stt-datchikom</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Фонари светодиодные в стиле Ауди RS для ВАЗ 2110 красные </t>
+          <t>Вставка заменитель катализатора 4-2-1 STT с 1 датчиком кислорода для 16 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта, Приора</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9190</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>145554</v>
+        <v>203694</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38324-fonari-svetodiodnye-stile-audi-vaz-2110-krasnii</t>
+          <t>https://motorring.ru/product/27621-rezonator-truba-gofroy-pod-vypusknoy-kollektor-stt-lada</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Фонари светодиодные в стиле Ауди RS для ВАЗ 2110 красные </t>
+          <t>Резонатор-труба с гофрой под выпускной коллектор STT для Лада Гранта, Калина 2</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9190</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>217461</v>
+        <v>139560</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/21150-steklo-pravoy-fary-avtosvet-vaz-2113-2115</t>
+          <t>https://motorring.ru/product/10749-vstavka-zamenitely-katalizatora-4-2-1-stt-dlya-dvigateley</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Стекло правой фары Автосвет для ВАЗ 2113-2115</t>
+          <t>Вставка заменитель катализатора 4-2-1 STT под 2 датчика кислорода для 16 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта, Приора</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>369</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>158382</v>
+        <v>139561</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11752-vspyshki-fso-48w-16-svetodiodov</t>
+          <t>https://motorring.ru/product/27651-vstavka-zamenitely-katalizatora-4-2-1-stt-pod-datchika-8kl</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Вспышка ФСО 48W (16 светодиодов по 3 Вт)</t>
+          <t>Вставка заменитель катализатора 4-2-1 STT под 1 датчика кислорода для 8 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта, Приора</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>590</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>158334</v>
+        <v>139562</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/32730-led-rgb-lampy-gabarity-puytom-lightspace-t10-w5w</t>
+          <t>https://motorring.ru/product/27651-vstavka-zamenitely-katalizatora-4-2-1-stt-pod-datchika-8kl</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LED RGB лампы в габариты с пультом LightSpace T10 W5W</t>
+          <t>Вставка заменитель катализатора 4-2-1 STT под 1 датчика кислорода для 8 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта, Приора</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>290</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>213729</v>
+        <v>139563</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20552-svetodiodnye-fonari-klyushki-vaz-2110</t>
+          <t>https://motorring.ru/product/15582-vstavka-zamenitely-katalizatora-4-2-1-stt-dlya-dvigateley</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Светодиодные фонари клюшки для ВАЗ 2110</t>
+          <t>Вставка заменитель катализатора 4-2-1 STT под 2 датчика кислорода для 8 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта, Приора</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4190</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>223052</v>
+        <v>139564</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/34428-universalynaya-rezinovaya-guba-samurai-beliy-kant</t>
+          <t>https://motorring.ru/product/15582-vstavka-zamenitely-katalizatora-4-2-1-stt-dlya-dvigateley</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Универсальная резиновая губа Самурай черная с белым кантом на передний бампер</t>
+          <t>Вставка заменитель катализатора 4-2-1 STT под 2 датчика кислорода для 8 кл ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Гранта, Приора</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>890</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>223059</v>
+        <v>203634</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12708-universalynaya-rezinovaya-guba-samurai-bamper</t>
+          <t>https://motorring.ru/product/27608-rezonator-pod-vypusknoy-kollektor-stt-lada-niva-4h4-2121</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Универсальная резиновая губа Самурай черная на передний бампер</t>
+          <t>Резонатор под выпускной коллектор STT для Лада Нива 4х4 2121, 21213, 21214</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>790</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>223944</v>
+        <v>203664</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/32067-komplekt-chernyh-linzovannyh-far-stile-amg-dlya-lada-priora</t>
+          <t>https://motorring.ru/product/27604-rezonator-pryamotochnyy-stt-vaz-2101-2107</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Комплект черных линзованных фар (2 линзы) в стиле АМГ (Кастом) для Лада Приора</t>
+          <t>Резонатор прямоточный STT для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>22490</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>243588</v>
+        <v>203631</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/38485-filytr-nulevogo-soprotivleniya-inghektor-krasniy-vaz</t>
+          <t>https://motorring.ru/product/27624-rezonator-pod-vypusknoy-kollektor-stt-lada-priora</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Фильтр нулевого сопротивления закрытый конус красный для инжекторных ВАЗ 2101-2107, 2108-2115, 2110-2112, Лада Гранта, Калина, Приора, Нива Легенд/Тревел, Шевроле Нива</t>
+          <t>Резонатор под выпускной коллектор STT для Лада Приора</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>769</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>243589</v>
+        <v>203662</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2370-filytr-nulevogo-soprotivleniya-inghektor-dlya-vaz</t>
+          <t>https://motorring.ru/product/19360-rezonator-pod-vypusknoy-kollektor-stt-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Фильтр нулевого сопротивления закрытый конус синий для инжекторных ВАЗ 2101-2107, 2108-2115, 2110-2112, Лада Гранта, Калина, Приора, Нива Легенд/Тревел, Шевроле Нива</t>
+          <t>Резонатор под выпускной коллектор STT для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>769</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>243590</v>
+        <v>203640</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2370-filytr-nulevogo-soprotivleniya-inghektor-dlya-vaz</t>
+          <t>https://motorring.ru/product/27617-rezonator-pod-vypusknoy-kollektor-stt-lada-kalina</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Фильтр нулевого сопротивления закрытый конус синий для инжекторных ВАЗ 2101-2107, 2108-2115, 2110-2112, Лада Гранта, Калина, Приора, Нива Легенд/Тревел, Шевроле Нива</t>
+          <t>Резонатор под выпускной коллектор STT для Лада Калина</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>769</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>257956</v>
+        <v>139552</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3009-vozdushnyy-filytr-nulevogo-soprotivleniya-inghektornyy</t>
+          <t>https://motorring.ru/product/27653-vstavka-zamenitely-katalizatora-4-1-stt-pod-datchika-vesta-16kl</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Воздушный фильтр нулевого сопротивления красный конус для инжекторных ВАЗ 2101-2107, 2108-2115, 2110-2112, Лада Гранта, Калина, Приора, Нива Тревел/Легенд, Шевроле Нива</t>
+          <t>Вставка заменитель катализатора 4-1 STT под 2 датчика кислорода для 1.6л 16-клапанных Лада Веста</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>949</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>257957</v>
+        <v>186965</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3003-vozdushnyy-filytr-nulevogo-soprotivleniya-prosport</t>
+          <t>https://motorring.ru/product/27584-vypusknoy-kollektor-pauk-4-2-1-stt-16kl-vaz-2110-2112</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Воздушный фильтр нулевого сопротивления синий конусный для инжекторных ВАЗ 2101-2107, 2108-2115, 2110-2112, Лада 4х4, Гранта/Калина, Приора, Нива Легенд/Тревел, Шевроле Нива</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 16кл ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>899</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>257958</v>
+        <v>186984</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3003-vozdushnyy-filytr-nulevogo-soprotivleniya-prosport</t>
+          <t>https://motorring.ru/product/27570-vypusknoy-kollektor-pauk-4-2-1-stt-16kl-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Воздушный фильтр нулевого сопротивления синий конусный для инжекторных ВАЗ 2101-2107, 2108-2115, 2110-2112, Лада 4х4, Гранта/Калина, Приора, Нива Легенд/Тревел, Шевроле Нива</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 16кл ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>899</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>257959</v>
+        <v>186986</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/3003-vozdushnyy-filytr-nulevogo-soprotivleniya-prosport</t>
+          <t>https://motorring.ru/product/27569-vypusknoy-kollektor-pauk-4-2-1-stt-16kl-lada-kalina</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Воздушный фильтр нулевого сопротивления синий конусный для инжекторных ВАЗ 2101-2107, 2108-2115, 2110-2112, Лада 4х4, Гранта/Калина, Приора, Нива Легенд/Тревел, Шевроле Нива</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 16-клапанных Лада Калина</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>899</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>324303</v>
+        <v>186987</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/4465-termolenta-vypusknuyu-sistemu</t>
+          <t>https://motorring.ru/product/14327-pauk-4-2-1-16v-stt-dlya-lada-priora-pod-datchik-kisloroda</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Термолента Sal-Man стекловолокно на выпускную систему для Лада и иномарок</t>
+          <t>Паук 4-2-1 16v STT для Лада Приора под 1 датчик кислорода</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>929</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>324307</v>
+        <v>186972</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25891-termolenta-steklovolokno-krasnaya-vypusknuyu-sistemu</t>
+          <t>https://motorring.ru/product/27596-vypusknoy-kollektor-pauk-4-2-1-stt-8kl-vaz-2110-2112</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Термолента стекловолокно красная на выпускную систему</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 8кл ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>990</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>324309</v>
+        <v>186985</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25892-termolenta-alyuminizirovannoe-steklovolokno-vypusknuyu</t>
+          <t>https://motorring.ru/product/27565-vypusknoy-kollektor-pauk-4-2-1-stt-16kl-lada-granta-kalina</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Термолента из алюминизированного стекловолокна на выпускную систему</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 16кл Лада Гранта, Калина 2</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1290</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>264901</v>
+        <v>186991</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2368-filytr-nulevogo-soprotivleniya-karbyurator-vaz</t>
+          <t>https://motorring.ru/product/1730-pauk-4-2-1-stt-dlya-lada-kalina</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Фильтр нулевого сопротивления красный для карбюраторных ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада 4х4 (Нива), Ока</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 8кл Лада Калина</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1190</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>264902</v>
+        <v>139551</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/29225-filytr-nulevogo-soprotivleniya-siniy-karbyurator-vaz</t>
+          <t>https://motorring.ru/product/27652-vstavka-zamenitely-katalizatora-4-1-stt-pod-datchika-vesta</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Воздушный фильтр нулевого сопротивления синий для карбюраторных ВАЗ 2101-2107, 2108-21099, 2110-2112, 2113-2115, Лада 4х4 (Нива), Ока</t>
+          <t>Вставка заменитель катализатора 4-1 STT под 2 датчика кислорода для 16 кл Лада Веста 1,8л</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1190</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>151129</v>
+        <v>140110</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/26000-zamki-kapota-pod-skrytuyu-ustanovku-plastik</t>
+          <t>https://motorring.ru/product/27589-vypusknoy-kollektor-pauk-4-2-1-stt-sport-16kl-lada-priora</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Замки капота Sal-Man под скрытую установку без ключа пластик</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport под 1ДК для 16-клапанных Лада Приора</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1190</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>151130</v>
+        <v>186924</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8582-zamki-kapota-pod-skrytuyu-ustanovku-klyuchom-plastik</t>
+          <t>https://motorring.ru/product/27579-vypusknoy-kollektor-pauk-4-2-1-stt-sport-16kl-lada-kalina</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Замки капота Sal-Man (пластик) под скрытую установку с ключом</t>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport под 1ДК для 16кл Лада Калина</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1290</v>
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>186966</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27585-vypusknoy-kollektor-pauk-4-2-1-stt-sport-16kl-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport под 1ДК для 16кл ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>186978</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27587-vypusknoy-kollektor-pauk-4-2-1-stt-sport-16kl-vaz</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport под 1 ДК для 16-клапанных ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>186990</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27575-vypusknoy-kollektor-pauk-4-2-1-stt-8kl-lada-granta-kalina</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 8кл Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>140109</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27576-vypusknoy-kollektor-pauk-4-2-1-stt-sport-16kl-lada-granta</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport под 1ДК для 16кл Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>186977</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27580-vypusknoy-kollektor-pauk-4-2-1-stt-sport-vyhod-63mm-16kl</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport выход 63мм под 1ДК для 16кл Лада Калина</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>186983</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27601-vypusknoy-kollektor-pauk-4-2-1-stt-sport-8kl-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport под 1ДК для 8кл Лада Калина</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>186989</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20817</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Паук 4-2-1 STT под 1 ДК для 8кл ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>187035</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27572-vypusknoy-kollektor-pauk-4-2-1-subaru-sound-16kl-lada</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Subaru Sound под 1ДК для 16-клапанных Лада Приора</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>186975</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27586-vypusknoy-kollektor-pauk-4-2-1-stt-sport-vyhod-63mm-16kl-2110</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport выход 63мм под 1ДК для 16кл ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>186982</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27591-vypusknoy-kollektor-pauk-4-2-1-stt-sport-8kl-lada-granta</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport под 1ДК для 8кл Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>203709</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27607-rezonator-truba-pod-vypusknoy-kollektor-stt-2101</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Резонатор-труба под выпускной коллектор STT нержавеющая сталь для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>186971</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27594-vypusknoy-kollektor-pauk-4-2-1-stt-sport-8kl-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport под 1ДК для 8кл ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>186981</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27598-vypusknoy-kollektor-pauk-4-2-1-stt-sport-8kl-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport для 8-клапанных под 1ДК ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>203649</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27611-rezonator-pod-vypusknoy-kollektor-stt-16kl-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Резонатор под выпускной коллектор STT для 16кл Лада Веста 1.6 до 2018 г.в</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>203630</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27627-rezonator-pod-vypusknoy-kollektor-gofroy-stt-lada-priora</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Резонатор под выпускной коллектор с гофрой STT для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>203639</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27622-rezonator-gofroy-pod-vypusknoy-kollektor-stt-lada-granta</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Резонатор с гофрой под выпускной коллектор STT для Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>203645</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3867-rezonator-gofroy-pod-vypusknoy-kollektor-stt-vaz-2113-2115</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Резонатор с гофрой под выпускной коллектор STT для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>203647</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27619-rezonator-gofroy-pod-vypusknoy-kollektor-stt-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Резонатор с гофрой под выпускной коллектор STT для Лада Калина</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>140114</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27590-vypusknoy-kollektor-pauk-4-2-1-stt-sport-vyhod-63mm-8kl</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport выход Ø63мм под 1ДК для 8кл Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>186967</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27597-vypusknoy-kollektor-pauk-4-2-1-stt-sport-vyhod-63mm-8kl-vaz</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport c выход 63мм под 1ДК для 8кл ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>186979</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27599-vypusknoy-kollektor-pauk-4-2-1-stt-sport-vyhod-63mm-8kl-vaz</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport с выход 63мм под 1ДК для 8кл ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>141003</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27639-glushitely-pryamotochnyy-stt-krepleniya-novogo-obrazca-vaz</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT крепления нового образца для ВАЗ 2110, 2111</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>141033</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27638-glushitely-pryamotochnyy-stt-krepleniya-starogo-obrazca-vaz</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT крепления старого образца для ВАЗ 2110, 2111</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>141013</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27629-glushitely-pryamotochnyy-stt-bez-nasadki-vaz-2108-2109</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT без насадки для ВАЗ 2108, 2109</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>141014</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27642-glushitely-pryamotochnyy-stt-vaz-2115</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT для ВАЗ 2115</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>141024</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27630-glushitely-pryamotochnyy-stt-bez-nasadki-vaz-21099</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT без насадки для ВАЗ 21099</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>141027</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27640-glushitely-pryamotochnyy-stt-krepleniya-novogo-obrazca-vaz-2112</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT крепления нового образца для ВАЗ 2112</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>141028</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27641-glushitely-pryamotochnyy-stt-krepleniya-starogo-obrazca-vaz-2112</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT крепления старого образца для ВАЗ 2112</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>141029</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/12235-glushitely-pryamotochnyy-stt-vaz-2113-2114</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT для ВАЗ 2113, 2114</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>141282</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27645-glushitely-pryamotochnyy-stt-lada-priora-sedan-universal</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT для Лада Приора седан, универсал</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>141283</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27646-glushitely-pryamotochnyy-stt-lada-priora-hetchbek</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT для Лада Приора хэтчбек</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>141031</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27643-glushitely-pryamotochnyy-stt-lada-kalina-sedan-universal</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT для Лада Калина седан, универсал</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>186960</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27555-vypusknoy-kollektor-pauk-4-2-1-stt-16kl-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 16кл Лада Веста 1.6</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>203655</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27609-rezonator-pryamotochnyy-stt-pod-shtatnuyu-ustanovku-16kl</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Резонатор прямоточный STT под штатную установку для 16-клапанных 1.6л Лада Веста</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>141016</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27647-glushitely-pryamotochnyy-stt-lada-niva-4h4-2121-21213-21214</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Глушитель прямоточный STT для Лада Нива 4х4 2121, 21213, 21214</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>139554</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27654-vstavka-zamenitely-katalizatora-4-1-stt-nerghaveyuschaya</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Вставка заменитель катализатора 4-1 STT нержавеющая сталь под 2 датчика кислорода  для 16 кл Лада Веста 1,6л</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>139566</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27654-vstavka-zamenitely-katalizatora-4-1-stt-nerghaveyuschaya</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Вставка заменитель катализатора 4-1 STT нержавеющая сталь под 2 датчика кислорода  для 16 кл Лада Веста 1,6л</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>140125</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27562-vypusknoy-kollektor-pauk-4-2-1-stt-16kl-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 16кл ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>186988</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27559-vypusknoy-kollektor-pauk-4-2-1-stt-8kl-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для 8-клапанных ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>140123</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27563-vypusknoy-kollektor-pauk-4-2-1-8kl-lada-niva-4h4-2121-21213</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 под 1ДК для 8кл Лада Нива 4х4 2121, 21213, 21214</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>140124</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27564-vypusknoy-kollektor-pauk-4-2-1-stt-8kl-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT под 1ДК для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>6990</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>204554</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/31536-resiver-stt-dvuh-obyemnyy-vaz-2113-2114-2115-lada-granta</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ресивер STT 4л двух-объемный для 8-клапанных ВАЗ 2113, 2114, 2115, Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>7690</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>140112</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27571-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-2108</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 16кл ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>140119</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27592-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-8kl</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 8кл Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>186961</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27582-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-2110</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 16кл ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>186962</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27566-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-granta</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 16-клапанных Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>186963</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27567-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-kalina</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 16кл Лада Калина</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>7690</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>186964</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27573-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-priora</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 16кл Лада Приора</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>7990</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>186968</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27600-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-2108</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>186969</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27602-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-kalina</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 8-клапанных Лада Калина</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>7390</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>186970</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27595-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-2110</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 8кл ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>140106</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27578-vypusknoy-kollektor-pauk-4-2-1-stt-sport-nerghaveyuschaya-kalina</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport нержавеющая сталь под 1ДК для 16кл Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>140117</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27593-vypusknoy-kollektor-pauk-4-2-1-stt-sport-nerghaveyuschaya-8kl</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport нержавеющая сталь под 1ДК для 8кл Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>140121</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27588-vypusknoy-kollektor-pauk-4-2-1-stt-sport-nerghaveyuschaya-2113</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport нержавеющая сталь под 1ДК для 16-клапанных ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>7990</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>186980</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27603-vypusknoy-kollektor-pauk-4-2-1-stt-sport-nerghaveyuschaya-kalina</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport нержавеющая сталь под 1ДК для 8кл Лада Калина</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>140126</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27583-vypusknoy-kollektor-pauk-4-2-1-stt-sport-vyhod-63mm-16</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport выход 63мм нержавеющая сталь под 1ДК для 16кл ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>8390</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>186973</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27581-vypusknoy-kollektor-pauk-4-2-1-stt-sport-vyhod-63mm</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT Sport выход 63мм нержавеющая сталь под 1ДК для 16-клапанных Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>8390</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>140113</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27558-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-vesta</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 16кл Лада Веста 1.6</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>203641</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27605-rezonator-pryamotochnyy-stt-nerghaveyuschaya-staly-vaz</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Резонатор прямоточный STT нержавеющая сталь для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>9690</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>203643</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27612-rezonator-pod-vypusknoy-kollektor-stt-nerghaveyuschaya</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Резонатор под выпускной коллектор STT нержавеющая сталь для 16кл Лада Веста 1.6 до 2018 г.в</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>140128</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27557-vypusknoy-kollektor-pauk-4-2-1-stt-dvuhsostavnoy-razbornyy</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT двухсоставной, разборный под 1ДК для 16кл Лада Веста 1.6</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>203629</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27625-rezonator-pod-vypusknoy-kollektor-stt-nerghaveyuschaya</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Резонатор под выпускной коллектор STT нержавеющая сталь для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>9890</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>203637</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27618-rezonator-pod-vypusknoy-kollektor-stt-nerghaveyuschaya-kalina</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Резонатор под выпускной коллектор STT нержавеющая сталь для Лада Калина</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>9590</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>140118</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27561-vypusknoy-kollektor-pauk-4-2-1-stt-nerghaveyuschaya-staly-2101</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Выпускной коллектор (паук) 4-2-1 STT нержавеющая сталь под 1ДК для 8-клапанных ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>10390</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>203627</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27626-rezonator-gofroy-pod-vypusknoy-kollektor-stt-priora</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Резонатор с гофрой под выпускной коллектор STT нержавеющая сталь для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>10690</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>203632</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27620-rezonator-gofroy-pod-vypusknoy-kollektor-stt</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Резонатор с гофрой под выпускной коллектор STT нержавеющая сталь для Лада Калина</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>203638</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27623-rezonator-gofroy-pod-vypusknoy-kollektor-stt-granta-kalina</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Резонатор из нержавеющей стали с гофрой под выпускной коллектор STT для Лада Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>10590</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>203654</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/27610-rezonator-pryamotochnyy-stt-nerghaveyuschaya-staly-pod</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Резонатор прямоточный STT нержавеющая сталь под штатную установку на 16кл Лада Веста 1.6</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>12590</v>
       </c>
     </row>
   </sheetData>

--- a/output_data/output.xlsx
+++ b/output_data/output.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,266 +425,1037 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6474</t>
+          <t>https://www.ozon.ru/product/generator-1117-1119-90a-avtovaz-firm-upak-11190370101003-562561608/</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Гидроусилитель руля для ВАЗ 2101-2107</t>
+          <t>Генератор 1117-1119 (90А) "АвтоВАЗ" (фирм. упак.) 11190370101003</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>50890</v>
+        <v>8574</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/nasos-gur-21214-v-sbore-279429330/</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_privoda_perednego_mosta_21214-2203012-11_kardan/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Насос гур 21214 в сборе</t>
+          <t>Вал карданный привода переднего моста с гофрой 21214-2203012-11 КАРДАН</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6871</v>
+        <v>12350</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5453</t>
+          <t>https://www.ozon.ru/product/lab13-generator-v-sbore-art-21230370101082-915425830/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Насос гидроусилителя рулевого управления в сборе для ВАЗ 2110-2112, Лада Приора, Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Lab13 Генератор в сборе, арт. 21230370101082</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9690</v>
+        <v>10021</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/35180-komplekt-gidrousilitelya-rulya-gur-dlya-lada-4h4-niva</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_privoda_zadnego_mosta_-gofra-_21214-2201012-11_kardan/</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Комплект гидроусилителя руля (ГУР) для Лада 4х4 (Нива)</t>
+          <t>Вал карданный привода заднего моста (Гофра) 21214-2201012-11 КАРДАН</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>51790</v>
+        <v>12350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/nasos_gidrousilitelya_vaz_21214_2123_rulevye_komponenty-526263/</t>
+          <t>https://standart-detail.ru/products/generator-vaz-2108-09-vaz-2113-15-vaz-2110-12-vaz-2170-priora-100-a-21120370101083</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Насос гидроусилителя ВАЗ-21214,2123 РУЛЕВЫЕ КОМПОНЕНТЫ</t>
+          <t>Генератор 100А ВАЗ 2108-21099, 2113-2115, 2110-2112, Приора (инжектор) LADA 21120-3701010-83</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12705</v>
+        <v>8185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/nasos_gidrousilitelya_vaz_2110_2112_2120_2123_rulevye_sistemy-185556/</t>
+          <t>https://www.avtoall.ru/krestovina_vaz_21213_vala_kardannogo_zao_kardan-137160/</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Насос гидроусилителя ВАЗ-2110,2112,2120,2123 РУЛЕВЫЕ СИСТЕМЫ</t>
+          <t>Крестовина ВАЗ-21213 вала карданного ЗАО Кардан</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12185</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/21213-3407009-nasos-gur-niva-21213-v-sbore-295608180/</t>
+          <t>https://motorring.ru/product/929</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21213-3407009 Насос гур НИВА 21213 в сборе</t>
+          <t>Вал карданный передний (короткий) КАРДАН на ШРУСах для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7082</v>
+        <v>10490</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/komplekt-gidrousilitelya-gur-lada-niva-shevrole-niva-karbyurator-1597978427/</t>
+          <t>https://autodemic.ru/product/generator-vaz-2108-2115-lada-priora-120-a</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Комплект гидроусилителя (ГУР) Лада Нива, Шевроле Нива (карбюратор)</t>
+          <t>Генератор ВАЗ-2108 … -2112, LADA Samara и Priora (120 А)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>44492</v>
+        <v>9317</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/komplekt-gidrousilitelya-gur-vaz-2105-2106-2107-klassika-karbyurator-1400386952/</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_promezhutochnyy_v_sbore_vaz_2123-2202010-03_original_kardan/</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Комплект гидроусилителя (ГУР) ВАЗ 2105 2106 2107 Классика (карбюратор)</t>
+          <t>Вал карданный промежуточный в сборе ВАЗ 2123-2202010-03 ОРИГИНАЛ КАРДАН</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44492</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/34441-nasos-gidrousilitelya-rulya-gur-zf-sbore-lada-niva-21213</t>
+          <t>https://autodemic.ru/product/generator-vaz-2108-2115-lada-priora-100-a</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Насос гидроусилителя руля (гур) ZF в сборе на карбюраторные Лада 4х4 (Нива)</t>
+          <t>Генератор ВАЗ-2108 … -2112, LADA Samara и Priora (100 А)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9990</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/originalnaya-rulevaya-reyka-vesta-vesta-sw-sw-cross-cross-sport-8450040235-8450006828-1049446587/</t>
+          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_peredniy_2121_214_na_krestovine_zao_kardan/</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Оригинальная рулевая рейка Веста (Vesta SW/SW Cross/Cross/Sport) 8450040235 (8450006828)</t>
+          <t>Вал карданный передний 2121-214 на крестовине. АО КАРДАН 21214-2203012-10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17630</v>
+        <v>10150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/rulevoe_upravlenie/gur_vaz/gidrousilitel_rulya_21214_inzhektor_polnyy_komplekt/</t>
+          <t>https://autodemic.ru/product/generator-lada-priora-kalina-granta-115-a</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Гидроусилитель руля 21214, Инжектор (полный комплект)</t>
+          <t>Генератор LADA Priora, Kalina II и Granta (115 А)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>43200</v>
+        <v>9684</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/rulevoe_upravlenie/gur_vaz/gidrousilitel_rulya_21213_karbyurator_polnyy_komplekt/</t>
+          <t>https://autodemic.ru/product/generator-lada-4x4-80-a-do-2003-gv</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Гидроусилитель руля 21213, Карбюратор (полный комплект)</t>
+          <t>Генератор LADA 4x4, ВАЗ-2104 … -2107 (до 2003 г.в.) 80 А</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>43000</v>
+        <v>7976</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/komplekt-gidrousilitelya-gur-lada-niva-shevrole-niva-inzhektornyy-1404446563/</t>
+          <t>https://www.avtoall.ru/generator_vaz_2108_2115_2170_shkiv_poliklinovoiy_14v_90a_avtovaz-670867/</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Комплект гидроусилителя (ГУР) Лада Нива, Шевроле Нива (инжекторный)</t>
+          <t>Генератор ВАЗ-2108-2115,2170 шкив поликлиновой 14В 90А АвтоВАЗ</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>44492</v>
+        <v>8095</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18925-reyka-rulevaya-nakonechnikami-lada-vesta</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/rem-komplekt-dlya-kardana-na-shrusakh-vaz-21214-2123-kardan-21214-2201160-00-/</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Рейка рулевая с наконечниками для Лада Веста</t>
+          <t>Ремонтный комплект для кардана на шрусах ВАЗ-21214, 2123 (КАРДАН ) 21214-2201160-00</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34990</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/komplekt-gidrousilitelya-gur-vaz-2105-2106-2107-klassika-inzhektornyy-1401231181/</t>
+          <t>https://standart-detail.ru/products/generator-vaz-2108-09-vaz-2113-15-2110-12-vaz-2170-priora-120-a-21120370101084</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Комплект гидроусилителя (ГУР) ВАЗ 2105 2106 2107 Классика (инжекторный)</t>
+          <t>Генератор 14В, 130А ВАЗ-2108-09, ВАЗ 2113-15, 2110-12, Приора ELTRA 5102.3771-30</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>44492</v>
+        <v>8553</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12531-maslyanyy-nasos-gidrousilitelya-rulya-gur-germaniya-vaz</t>
+          <t>https://www.ozon.ru/product/generator-vaz-2108-2109-21099-2110-2111-2112-2113-2114-2115-2170-120a-original-188797423/</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Масляный насос гидроусилителя руля (ГУР) ZF для ВАЗ 2110-2112, Лада Приора, Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Генератор ВАЗ 2108-2115, 2170 (120А)</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13790</v>
+        <v>8434</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://avtomagazin163.ru/gidrousilitel-rulya-2112-rus-polnyy-k-t-dlya-am-bez-kondicionera-42673/</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/chevrolet_niva_vaz_2123/183521/</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-2123 Шевроле Нива (с 09.2003г.в.) (14В/100А) (фирм. упак. LADA) 21230-3701010-83</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>8255</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10313-val-kardannyy-zadniy-2121-214-krestovine-lada-4h4-niva</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Вал карданный 21214 (длинный) КАРДАН на крестовине для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2101_2107_zao_kardan-240418/</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Вал карданный ВАЗ-2101-2107 ЗАО КАРДАН</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>14750</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/generator_vaz_1118_1119_2112_2170_2190_14v_90a_avtovaz-152723/</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-1118,1119,2112,2170,2190 14В 90А АвтоВАЗ</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>9115</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/vaz_1118_2190_2170/440175/</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-1118-19 (90 А) (фирм. упак. LADA) 11190-3701010-03</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://autodemic.ru/product/generator-chevrolet-niva-80-a-2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Генератор Chevrolet NIVA (80 А)</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>8104</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://autodemic.ru/product/generator-chevrolet-niva-120-a</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Генератор Chevrolet NIVA (120 А)</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>9642</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/generator-lada-21214-80-90a-3701010-03-21214370101003-647780649/</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Генератор LADA 21214 80/90А 3701010-03 21214370101003</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6576</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_zadniy_21214_so_shrusom_zao_kardan/</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Вал карданный задний 21214 со ШРУСом. АО "КАРДАН" г.Сызрань. 21214-2201012-00</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>12840</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/generator-2123-100a-ao-vaz-firm-upak-21230370101083-1317361536/</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Генератор 2123 (100А) (АО ВАЗ) фирм.упак 21230370101083</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>9644</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10314-kardannyy-val-peredniy-krestovine-syzrany-lada-niva</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Карданный вал передний (короткий) КАРДАН на крестовине для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_peredniy_21214_so_shrusom_zao_kardan/</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Вал карданный передний 21214 со ШРУСом. АО "КАРДАН" г.Сызрань. 21214-2203012-00</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2121_214_zadniiy_zao__kardan_-000531/</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Вал карданный ВАЗ-2121-214 задний ЗАО "Кардан"</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>12450</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40055-val-kardannyy-usilenniy-sbore-vaz-2104-2105-2107</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Вал карданный с усиленными крестовинами в сборе для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2120_2131_v_sbore__shrus__zao_kardan-249845/</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Вал карданный ВАЗ-2120,2131 в сборе (ШРУС) ЗАО КАРДАН</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>25975</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_21214_zadniiy_2123_n_o__shrus__kardan_zao-090798/</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Вал карданный ВАЗ-21214 задний,2123 Н/О (ШРУС) КАРДАН ЗАО</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>16510</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/krestovina_vaz_2101_07_vala_kardannogo_zao_kardan-011497/</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Крестовина ВАЗ-2101-07 вала карданного ЗАО Кардан</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/generator-2170-125a-21700370101082-1-sht-495894641/</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Генератор 2170 (125А) 21700370101082 (1 шт)</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>10039</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://autodemic.ru/product/generator-chevrolet-niva-100-a-s-092003gv</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Генератор Chevrolet NIVA (с 09.2003 г.в.) 100 А</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8719</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/vaz_1118_2190_2170/183557/</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-2108-2110-2115,2170 (инж.дв.) (100 А) (фирм. упак. LADA) 21120-3701010-83</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://xn--80aal0a.xn--80asehdb/shop/niva-chevrolet/electrical-equipment-niva-chevrolet/33766-generator-pramo-jelektro-110a-dlja-lada-niva-travel-chevrolet.html</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Генератор "Прамо-Электро (110А) для Lada Niva Travel, Chevrolet (оригинал)</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>10257</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/18103-krestovina-sbore-bez-shtucera-lada-niva-21214-2131-nadeghda</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Крестовина КАРДАН в сборе без штуцера для Лада 4х4 (Нива), Надежда, Шевроле Нива </t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://autodemic.ru/product/generator-lada-kalina-90-a</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Генератор LADA Kalina I (90 А)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>8524</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/933</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Вал карданный 21214 (длинный) КАРДАН на ШРУСах для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>13890</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/17743-val-kardannyy-promeghutochnyy-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Промежуточный карданный вал КАРДАН для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>10890</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_zadniy_2121_214_na_krestovine_zao_kardan/</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Вал карданный задний 2121-214 на крестовине. АО КАРДАН 21214-2201012-10</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_21214_peredniiy_n_o__shrus__kardan_zao-090986/</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Вал карданный ВАЗ-21214 передний Н/О (ШРУС) КАРДАН ЗАО</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>15910</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2121_214_peredniiy_zao__kardan_-000532/</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Вал карданный ВАЗ-2121-214 передний ЗАО "Кардан"</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>11110</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/17238-val-kardannyy-sbore-shrus-lada-niva-4h4-5-dverey</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Вал карданный задний КАРДАН на ШРУСах в сборе для 5-дверных Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>24990</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/lada-generator-lada-21120370101008-art-21120370101008-753680143/?asb=8SZ7pCRogFf8ykvbVeofl4xjTotlkFJYDA8Q3%252BciItc%253D&amp;asb2=XFmv55sTGt7dpibFQ8rObNKS7m_YSbeU8Q-6eL1YcUfj6iw8x5LyDiCp3syN1LVCsPq-JildrFrZu_iFgtNsXg&amp;avtc=1&amp;avte=2&amp;avts=1719555412&amp;keywords=%D0%93%D0%B5%D0%BD%D0%B5%D1%80%D0%B0%D1%82%D0%BE%D1%80+%D0%B2+%D1%81%D0%B1%D0%BE%D1%80%D0%B5+21120370101008</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LADA Генератор в сборе, арт. 21120370101008</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6362</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/vaz_2108_15_2110_12/439439/</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-2108-2110-2115 (120А) (фирм. упак. LADA) 21120-3701010-84</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>8940</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/vaz_2108_15_2110_12/440177/</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-2108-2110-2115 (инж.дв.) (90 А) (фирм. упак. LADA) 21120-3701010-08</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>7160</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/vaz_2101_07_2121_21214_1/183520/</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-21214,2123 (80 А) (до 2003 г.) (фирм. упак. LADA) 21214-3701010-03</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>7635</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/generator-lada-21214-100a-3701010-83-21214370101083-647783721/</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Генератор LADA 21214 100А 3701010-83 21214370101083</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>7769</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/flanec_vaz_2101_lastichnoiy_mufty_k_kardannomu_valu_kardan_zao-003606/</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Фланец ВАЗ-2101 эластичной муфты к карданному валу КАРДАН ЗАО</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/generator-vaz-2108-2109-21099-2110-2111-2112-2113-2114-2115-2170-100a-original-188797422/</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ 2108-2115, 2170 (100А) ORIGINAL</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>7173</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/transmissiya/komplektuyushchie_kpp_vaz/flanets_elastichnoy_mufty_vaz_2101-2202023-00_kardan/</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Фланец эластичной муфты ВАЗ 2101-2202023-00 КАРДАН</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/krestovina_ao_-kardan-kardannogo_vala_v_sbore_vaz_2105-2202025/</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Крестовина АО "Кардан" карданного вала в сборе ВАЗ 2105-2202025</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/924-krestovina-kardannogo-vala-sbore-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Крестовина карданного вала КАРДАН в сборе для ВАЗ 2101-2107, Лада 4х4 (Нива)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40057-val-kardannyy-zadniy-2121-214-gofra-lada-4h4-niva</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Вал карданный 21214 (длинный) КАРДАН с гофрой для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>10790</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/921-val-kardannyy-sbore-vaz-2104-2105-2107</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Вал карданный в сборе для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>12790</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/chevrolet_niva_vaz_2123/204431/</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-2123 Шевроле-Нива (120А) (фирм. упак. LADA) 21230-3701010-84</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>9270</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/vaz_1118_2190_2170/439171/</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-1118, 2170, 2190 (фирм. упак. LADA) 21700-3701010-82</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>9220</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/krestovina-zao-kardan-kardannogo-vala-v-sbore-niva-21211-2202026-00/</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Крестовина АО "Кардан" карданного вала в сборе НИВА (21211220202500)</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/17240-val-kardannyy-zadniy-zaschitnoy-gofroy-kardan-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Вал карданный задний с защитной гофрой КАРДАН для Лада 4х4, Нива Легенд, Шевроле/Лада Нива, Нива Тревел</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>10690</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_2105-2200012-02_-usilennyy-_kardan/</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Вал карданный 2105-2200012-02 (усиленный) КАРДАН</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>16990</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/vaz_2101_07_2121_21214_1/439515/</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-21214 (100А) (фирм. упак. LADA) 21214-3701010-83</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>8255</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/17239-val-kardannyy-peredniy-zaschitnoy-gofroy-kardan-lada-niva</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Вал карданный передний (короткий) КАРДАН с защитной гофрой для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>10890</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/shrus_vaz_21214_2123_vala_kardannogo_v_sbore_kardan_zao-090995/</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ШРУС ВАЗ-21214,2123 вала карданного в сборе КАРДАН ЗАО</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://autodemic.ru/product/generator-vaz-2113-2115-lada-priora-90-a</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Генератор LADA Samara и Priora (90 А)</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>7612</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/generator_vaz_21214__19___injektor_14v_80a_avtovaz-171140/</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-21214 (19-) инжектор 14В 80А АвтоВАЗ</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>8635</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://autodemic.ru/product/generator-v-sbore-lada-4x4</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-2101 …-2107 и LADA 4x4</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>8716</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -697,7 +1468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,374 +1478,1280 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>171716</v>
+        <v>376516</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/34441-nasos-gidrousilitelya-rulya-gur-zf-sbore-lada-niva-21213</t>
+          <t>https://motorring.ru/product/40055-val-kardannyy-usilenniy-sbore-vaz-2104-2105-2107</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Насос гидроусилителя руля (гур) ZF в сборе на карбюраторные Лада 4х4 (Нива)</t>
+          <t>Вал карданный с усиленными крестовинами в сборе для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="D1" t="n">
-        <v>9990</v>
+        <v>13990</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>171715</v>
+        <v>139012</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/5453</t>
+          <t>https://motorring.ru/product/17238-val-kardannyy-sbore-shrus-lada-niva-4h4-5-dverey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Насос гидроусилителя рулевого управления в сборе для ВАЗ 2110-2112, Лада Приора, Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Вал карданный задний КАРДАН на ШРУСах в сборе для 5-дверных Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9690</v>
+        <v>24990</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>171713</v>
+        <v>139013</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12531-maslyanyy-nasos-gidrousilitelya-rulya-gur-germaniya-vaz</t>
+          <t>https://motorring.ru/product/933</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Масляный насос гидроусилителя руля (ГУР) ZF для ВАЗ 2110-2112, Лада Приора, Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Вал карданный 21214 (длинный) КАРДАН на ШРУСах для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13790</v>
+        <v>13890</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>267632</v>
+        <v>139014</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18925-reyka-rulevaya-nakonechnikami-lada-vesta</t>
+          <t>https://motorring.ru/product/10313-val-kardannyy-zadniy-2121-214-krestovine-lada-4h4-niva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Рейка рулевая с наконечниками для Лада Веста</t>
+          <t>Вал карданный 21214 (длинный) КАРДАН на крестовине для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>34990</v>
+        <v>10990</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>158406</v>
+        <v>139015</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6474</t>
+          <t>https://motorring.ru/product/929</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Гидроусилитель руля для ВАЗ 2101-2107</t>
+          <t>Вал карданный передний (короткий) КАРДАН на ШРУСах для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50890</v>
+        <v>10490</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>158407</v>
+        <v>139016</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6474</t>
+          <t>https://motorring.ru/product/10314-kardannyy-val-peredniy-krestovine-syzrany-lada-niva</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Гидроусилитель руля для ВАЗ 2101-2107</t>
+          <t>Карданный вал передний (короткий) КАРДАН на крестовине для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50890</v>
+        <v>14290</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>276697</v>
+        <v>139029</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/35180-komplekt-gidrousilitelya-rulya-gur-dlya-lada-4h4-niva</t>
+          <t>https://motorring.ru/product/921-val-kardannyy-sbore-vaz-2104-2105-2107</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Комплект гидроусилителя руля (ГУР) для Лада 4х4 (Нива)</t>
+          <t>Вал карданный в сборе для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>51790</v>
+        <v>12790</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>276698</v>
+        <v>376875</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/35180-komplekt-gidrousilitelya-rulya-gur-dlya-lada-4h4-niva</t>
+          <t>https://motorring.ru/product/40057-val-kardannyy-zadniy-2121-214-gofra-lada-4h4-niva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Комплект гидроусилителя руля (ГУР) для Лада 4х4 (Нива)</t>
+          <t>Вал карданный 21214 (длинный) КАРДАН с гофрой для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>51790</v>
+        <v>10790</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>171715</v>
+        <v>376876</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/nasos_gidrousilitelya_vaz_21214_2123_rulevye_komponenty-526263/</t>
+          <t>https://motorring.ru/product/17240-val-kardannyy-zadniy-zaschitnoy-gofroy-kardan-shevrole-niva</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Насос гидроусилителя ВАЗ-21214,2123 РУЛЕВЫЕ КОМПОНЕНТЫ</t>
+          <t>Вал карданный задний с защитной гофрой КАРДАН для Лада 4х4, Нива Легенд, Шевроле/Лада Нива, Нива Тревел</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12705</v>
+        <v>10690</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>171713</v>
+        <v>376815</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.avtoall.ru/nasos_gidrousilitelya_vaz_2110_2112_2120_2123_rulevye_sistemy-185556/</t>
+          <t>https://motorring.ru/product/17239-val-kardannyy-peredniy-zaschitnoy-gofroy-kardan-lada-niva</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Насос гидроусилителя ВАЗ-2110,2112,2120,2123 РУЛЕВЫЕ СИСТЕМЫ</t>
+          <t>Вал карданный передний (короткий) КАРДАН с защитной гофрой для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12185</v>
+        <v>10890</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>158408</v>
+        <v>155722</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://avtomagazin163.ru/gidrousilitel-rulya-2112-rus-polnyy-k-t-dlya-am-bez-kondicionera-42673/</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+          <t>https://motorring.ru/product/17743-val-kardannyy-promeghutochnyy-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Промежуточный карданный вал КАРДАН для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>10890</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>276697</v>
+        <v>376810</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/rulevoe_upravlenie/gur_vaz/gidrousilitel_rulya_21214_inzhektor_polnyy_komplekt/</t>
+          <t>https://motorring.ru/product/18103-krestovina-sbore-bez-shtucera-lada-niva-21214-2131-nadeghda</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Гидроусилитель руля 21214, Инжектор (полный комплект)</t>
+          <t xml:space="preserve">Крестовина КАРДАН в сборе без штуцера для Лада 4х4 (Нива), Надежда, Шевроле Нива </t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43200</v>
+        <v>749</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>276698</v>
+        <v>160519</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://33sport.ru/catalog/rulevoe_upravlenie/gur_vaz/gidrousilitel_rulya_21213_karbyurator_polnyy_komplekt/</t>
+          <t>https://motorring.ru/product/924-krestovina-kardannogo-vala-sbore-vaz-2101-2107</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Гидроусилитель руля 21213, Карбюратор (полный комплект)</t>
+          <t>Крестовина карданного вала КАРДАН в сборе для ВАЗ 2101-2107, Лада 4х4 (Нива)</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>43000</v>
+        <v>890</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>171716</v>
+        <v>379943</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/21213-3407009-nasos-gur-niva-21213-v-sbore-295608180/</t>
+          <t>https://standart-detail.ru/products/generator-vaz-2108-09-vaz-2113-15-vaz-2110-12-vaz-2170-priora-100-a-21120370101083</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21213-3407009 Насос гур НИВА 21213 в сборе</t>
+          <t>Генератор 100А ВАЗ 2108-21099, 2113-2115, 2110-2112, Приора (инжектор) LADA 21120-3701010-83</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7082</v>
+        <v>8185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>171715</v>
+        <v>379961</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/nasos-gur-21214-v-sbore-279429330/</t>
+          <t>https://xn--80aal0a.xn--80asehdb/shop/niva-chevrolet/electrical-equipment-niva-chevrolet/33766-generator-pramo-jelektro-110a-dlja-lada-niva-travel-chevrolet.html</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Насос гур 21214 в сборе</t>
+          <t>Генератор "Прамо-Электро (110А) для Lada Niva Travel, Chevrolet (оригинал)</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6871</v>
+        <v>10257</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>171713</v>
+        <v>379960</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/nasos-gur-21214-v-sbore-279429330/</t>
+          <t>https://standart-detail.ru/products/generator-vaz-2108-09-vaz-2113-15-2110-12-vaz-2170-priora-120-a-21120370101084</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Насос гур 21214 в сборе</t>
+          <t>Генератор 14В, 130А ВАЗ-2108-09, ВАЗ 2113-15, 2110-12, Приора ELTRA 5102.3771-30</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6871</v>
+        <v>8553</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>267632</v>
+        <v>355437</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/originalnaya-rulevaya-reyka-vesta-vesta-sw-sw-cross-cross-sport-8450040235-8450006828-1049446587/</t>
+          <t>https://www.avtoall.ru/generator_vaz_21214__19___injektor_14v_80a_avtovaz-171140/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Оригинальная рулевая рейка Веста (Vesta SW/SW Cross/Cross/Sport) 8450040235 (8450006828)</t>
+          <t>Генератор ВАЗ-21214 (19-) инжектор 14В 80А АвтоВАЗ</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17630</v>
+        <v>8635</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>158406</v>
+        <v>355461</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/komplekt-gidrousilitelya-gur-vaz-2105-2106-2107-klassika-inzhektornyy-1401231181/</t>
+          <t>https://www.avtoall.ru/generator_vaz_2108_2115_2170_shkiv_poliklinovoiy_14v_90a_avtovaz-670867/</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Комплект гидроусилителя (ГУР) ВАЗ 2105 2106 2107 Классика (инжекторный)</t>
+          <t>Генератор ВАЗ-2108-2115,2170 шкив поликлиновой 14В 90А АвтоВАЗ</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>44492</v>
+        <v>8095</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>158407</v>
+        <v>355463</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/komplekt-gidrousilitelya-gur-vaz-2105-2106-2107-klassika-karbyurator-1400386952/</t>
+          <t>https://www.avtoall.ru/generator_vaz_1118_1119_2112_2170_2190_14v_90a_avtovaz-152723/</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Комплект гидроусилителя (ГУР) ВАЗ 2105 2106 2107 Классика (карбюратор)</t>
+          <t>Генератор ВАЗ-1118,1119,2112,2170,2190 14В 90А АвтоВАЗ</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>44492</v>
+        <v>9115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>276697</v>
+        <v>376516</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/komplekt-gidrousilitelya-gur-lada-niva-shevrole-niva-inzhektornyy-1404446563/</t>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_2105-2200012-02_-usilennyy-_kardan/</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Комплект гидроусилителя (ГУР) Лада Нива, Шевроле Нива (инжекторный)</t>
+          <t>Вал карданный 2105-2200012-02 (усиленный) КАРДАН</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>44492</v>
+        <v>16990</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>276698</v>
+        <v>139013</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/komplekt-gidrousilitelya-gur-lada-niva-shevrole-niva-karbyurator-1597978427/</t>
+          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_zadniy_21214_so_shrusom_zao_kardan/</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Комплект гидроусилителя (ГУР) Лада Нива, Шевроле Нива (карбюратор)</t>
+          <t>Вал карданный задний 21214 со ШРУСом. АО "КАРДАН" г.Сызрань. 21214-2201012-00</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>44492</v>
+        <v>12840</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>139014</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_zadniy_2121_214_na_krestovine_zao_kardan/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Вал карданный задний 2121-214 на крестовине. АО КАРДАН 21214-2201012-10</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>139015</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_peredniy_21214_so_shrusom_zao_kardan/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Вал карданный передний 21214 со ШРУСом. АО "КАРДАН" г.Сызрань. 21214-2203012-00</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>139016</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/4kh4_off_road_niva/kardannyy_val_niva/val_kardannyy_peredniy_2121_214_na_krestovine_zao_kardan/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Вал карданный передний 2121-214 на крестовине. АО КАРДАН 21214-2203012-10</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>10150</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>376875</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_privoda_zadnego_mosta_-gofra-_21214-2201012-11_kardan/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Вал карданный привода заднего моста (Гофра) 21214-2201012-11 КАРДАН</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>376815</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_privoda_perednego_mosta_21214-2203012-11_kardan/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Вал карданный привода переднего моста с гофрой 21214-2203012-11 КАРДАН</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>155722</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/val_kardannyy_promezhutochnyy_v_sbore_vaz_2123-2202010-03_original_kardan/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Вал карданный промежуточный в сборе ВАЗ 2123-2202010-03 ОРИГИНАЛ КАРДАН</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>160520</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/krestovina-zao-kardan-kardannogo-vala-v-sbore-niva-21211-2202026-00/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Крестовина АО "Кардан" карданного вала в сборе НИВА (21211220202500)</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>160519</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/krestovina_ao_-kardan-kardannogo_vala_v_sbore_vaz_2105-2202025/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Крестовина АО "Кардан" карданного вала в сборе ВАЗ 2105-2202025</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>376869</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/transmissiya/krestoviny-_kardannye_valy_vaz/rem-komplekt-dlya-kardana-na-shrusakh-vaz-21214-2123-kardan-21214-2201160-00-/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ремонтный комплект для кардана на шрусах ВАЗ-21214, 2123 (КАРДАН ) 21214-2201160-00</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>376807</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/transmissiya/komplektuyushchie_kpp_vaz/flanets_elastichnoy_mufty_vaz_2101-2202023-00_kardan/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Фланец эластичной муфты ВАЗ 2101-2202023-00 КАРДАН</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>379943</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/vaz_1118_2190_2170/183557/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-2108-2110-2115,2170 (инж.дв.) (100 А) (фирм. упак. LADA) 21120-3701010-83</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>380013</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/vaz_2101_07_2121_21214_1/439515/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-21214 (100А) (фирм. упак. LADA) 21214-3701010-83</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>8255</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>379961</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/chevrolet_niva_vaz_2123/183521/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-2123 Шевроле Нива (с 09.2003г.в.) (14В/100А) (фирм. упак. LADA) 21230-3701010-83</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>8255</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>355457</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/vaz_1118_2190_2170/439171/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-1118, 2170, 2190 (фирм. упак. LADA) 21700-3701010-82</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>9220</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>379960</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/vaz_2108_15_2110_12/439439/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-2108-2110-2115 (120А) (фирм. упак. LADA) 21120-3701010-84</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>8940</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>380012</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/chevrolet_niva_vaz_2123/204431/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-2123 Шевроле-Нива (120А) (фирм. упак. LADA) 21230-3701010-84</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>9270</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>355437</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/vaz_2101_07_2121_21214_1/183520/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-21214,2123 (80 А) (до 2003 г.) (фирм. упак. LADA) 21214-3701010-03</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>7635</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>355436</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/chevrolet_niva_vaz_2123/183521/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-2123 Шевроле Нива (с 09.2003г.в.) (14В/100А) (фирм. упак. LADA) 21230-3701010-83</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8255</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>355461</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/vaz_2108_15_2110_12/440177/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-2108-2110-2115 (инж.дв.) (90 А) (фирм. упак. LADA) 21120-3701010-08</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>7160</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>355463</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://original-detal.ru/catalog/elektrooborudovanie/elektrooborudovanie_dvigatelya/generatory/generatory_1/vaz_1118_2190_2170/440175/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-1118-19 (90 А) (фирм. упак. LADA) 11190-3701010-03</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>376516</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2101_2107_zao_kardan-240418/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Вал карданный ВАЗ-2101-2107 ЗАО КАРДАН</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>14750</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>139012</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2120_2131_v_sbore__shrus__zao_kardan-249845/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Вал карданный ВАЗ-2120,2131 в сборе (ШРУС) ЗАО КАРДАН</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>25975</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>139013</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_21214_zadniiy_2123_n_o__shrus__kardan_zao-090798/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Вал карданный ВАЗ-21214 задний,2123 Н/О (ШРУС) КАРДАН ЗАО</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>16510</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>139014</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2121_214_zadniiy_zao__kardan_-000531/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Вал карданный ВАЗ-2121-214 задний ЗАО "Кардан"</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>12450</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>139015</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_21214_peredniiy_n_o__shrus__kardan_zao-090986/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Вал карданный ВАЗ-21214 передний Н/О (ШРУС) КАРДАН ЗАО</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>15910</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>139016</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2121_214_peredniiy_zao__kardan_-000532/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Вал карданный ВАЗ-2121-214 передний ЗАО "Кардан"</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>11110</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>139029</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/val_kardannyiy_vaz_2101_2107_zao_kardan-240418/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Вал карданный ВАЗ-2101-2107 ЗАО КАРДАН</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>14750</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>160520</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/krestovina_vaz_21213_vala_kardannogo_zao_kardan-137160/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Крестовина ВАЗ-21213 вала карданного ЗАО Кардан</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>160519</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/krestovina_vaz_2101_07_vala_kardannogo_zao_kardan-011497/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Крестовина ВАЗ-2101-07 вала карданного ЗАО Кардан</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>376869</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/shrus_vaz_21214_2123_vala_kardannogo_v_sbore_kardan_zao-090995/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ШРУС ВАЗ-21214,2123 вала карданного в сборе КАРДАН ЗАО</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>376807</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.avtoall.ru/flanec_vaz_2101_lastichnoiy_mufty_k_kardannomu_valu_kardan_zao-003606/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Фланец ВАЗ-2101 эластичной муфты к карданному валу КАРДАН ЗАО</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>379943</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://autodemic.ru/product/generator-vaz-2108-2115-lada-priora-100-a</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-2108 … -2112, LADA Samara и Priora (100 А)</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>8131</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>380013</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://autodemic.ru/product/generator-v-sbore-lada-4x4</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-2101 …-2107 и LADA 4x4</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>8716</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>379961</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://autodemic.ru/product/generator-chevrolet-niva-100-a-s-092003gv</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Генератор Chevrolet NIVA (с 09.2003 г.в.) 100 А</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>8719</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>355457</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://autodemic.ru/product/generator-lada-priora-kalina-granta-115-a</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Генератор LADA Priora, Kalina II и Granta (115 А)</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>9684</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>379960</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://autodemic.ru/product/generator-vaz-2108-2115-lada-priora-120-a</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ-2108 … -2112, LADA Samara и Priora (120 А)</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>9317</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>380012</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://autodemic.ru/product/generator-chevrolet-niva-120-a</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Генератор Chevrolet NIVA (120 А)</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>9642</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>355437</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://autodemic.ru/product/generator-lada-4x4-80-a-do-2003-gv</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Генератор LADA 4x4, ВАЗ-2104 … -2107 (до 2003 г.в.) 80 А</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>7976</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>355436</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://autodemic.ru/product/generator-chevrolet-niva-80-a-2</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Генератор Chevrolet NIVA (80 А)</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>8104</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>355461</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://autodemic.ru/product/generator-vaz-2113-2115-lada-priora-90-a</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Генератор LADA Samara и Priora (90 А)</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>7612</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>355463</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://autodemic.ru/product/generator-lada-kalina-90-a</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Генератор LADA Kalina I (90 А)</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>8524</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>379943</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/generator-vaz-2108-2109-21099-2110-2111-2112-2113-2114-2115-2170-100a-original-188797422/</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ 2108-2115, 2170 (100А) ORIGINAL</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>7173</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>380013</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/generator-lada-21214-100a-3701010-83-21214370101083-647783721/</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Генератор LADA 21214 100А 3701010-83 21214370101083</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>7769</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>379961</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/generator-2123-100a-ao-vaz-firm-upak-21230370101083-1317361536/</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Генератор 2123 (100А) (АО ВАЗ) фирм.упак 21230370101083</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>9644</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>355457</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/generator-2170-125a-21700370101082-1-sht-495894641/</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Генератор 2170 (125А) 21700370101082 (1 шт)</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>10039</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>379960</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/generator-vaz-2108-2109-21099-2110-2111-2112-2113-2114-2115-2170-120a-original-188797423/</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Генератор ВАЗ 2108-2115, 2170 (120А)</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>8434</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>355437</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/generator-lada-21214-80-90a-3701010-03-21214370101003-647780649/</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Генератор LADA 21214 80/90А 3701010-03 21214370101003</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>6576</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>355436</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/lab13-generator-v-sbore-art-21230370101082-915425830/</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Lab13 Генератор в сборе, арт. 21230370101082</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>355461</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/lada-generator-lada-21120370101008-art-21120370101008-753680143/?asb=8SZ7pCRogFf8ykvbVeofl4xjTotlkFJYDA8Q3%252BciItc%253D&amp;asb2=XFmv55sTGt7dpibFQ8rObNKS7m_YSbeU8Q-6eL1YcUfj6iw8x5LyDiCp3syN1LVCsPq-JildrFrZu_iFgtNsXg&amp;avtc=1&amp;avte=2&amp;avts=1719555412&amp;keywords=%D0%93%D0%B5%D0%BD%D0%B5%D1%80%D0%B0%D1%82%D0%BE%D1%80+%D0%B2+%D1%81%D0%B1%D0%BE%D1%80%D0%B5+21120370101008</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>LADA Генератор в сборе, арт. 21120370101008</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>6362</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>355463</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/generator-1117-1119-90a-avtovaz-firm-upak-11190370101003-562561608/</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Генератор 1117-1119 (90А) "АвтоВАЗ" (фирм. упак.) 11190370101003</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>8574</v>
       </c>
     </row>
   </sheetData>

--- a/output_data/output.xlsx
+++ b/output_data/output.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,376 +425,481 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18433-nakladka-rogatka-ruly-oranghevaya-lada-kalina-kross</t>
+          <t>https://motorring.ru/product/2939-neventiliruemye-tormoznye-diski-ats-r13-nasechkami-2101</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Накладка (рогатка) Кросс в руль оранжевая для ВАЗ 2110-2112 с европанелью, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Нива Тревел, Шевроле Нива</t>
+          <t>Невентилируемые тормозные диски АТС R13 с насечками (без перфорации) для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>849</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20847-kryshka-lyuka-schitka-perednego-kryla-nighnyaya-lada-granta</t>
+          <t>https://motorring.ru/product/40963-perednie-tormoznye-diski-atc-11186-r15-kalina-sport</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Крышка люка щитка переднего крыла нижняя для Лада Гранта FL</t>
+          <t>Вентилируемые передние тормозные диски ATC 11186 R15 с насечками и перфорацией для Лада Гранта Спорт, Калина Спорт, Калина 2 Спорт</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>269</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/14187-koghuh-ventilyatora-ohlaghdeniya-dvigatelya-lada-granta</t>
+          <t>https://motorring.ru/product/40921-neventiliruemye-diski-tormoza-atc-urban-r15-bez-nasechek</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Кожух вентилятора охлаждения двигателя для Лада Гранта, Калина 2 до 2016 г.в</t>
+          <t>Невентилируемые диски переднего тормоза АТС-STANDART Урбан r15 без насечек и перфорации для Лада 4х4 с 2016 г.в., Нива Легенд, под ступичные узлы с внешним креплением тормозного диска для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>569</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18651-nighnyaya-reshetka-perednego-bampera-lada-vesta</t>
+          <t>https://motorring.ru/product/41004-ventiliruemye-perednie-tormoznye-diski-hofer-r15-vesta</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Нижняя решетка переднего бампера для Лада Веста</t>
+          <t>Вентилируемые передние тормозные диски HOFER R15 без насечек и перфорации для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1890</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/30392-originalynye-ramki-ptf-chernoy-vstavkoy-bamper-kalina2</t>
+          <t>https://motorring.ru/product/40979-zadniye-tormoznye-diski-atc-nasechki-lada-kalina-sport</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Оригинальные рамки ПТФ с черной вставкой в бампер для Лада Калина 2</t>
+          <t>Невентилируемые задние тормозные диски АТС-SPORT R15 с насечками (без перфорации) для Лада Гранта Спорт, Калина Спорт, Калина 2 Спорт</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>990</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/4546-ramki-protivotumannyh-far-ptf-neokrashennye-peredniy-bamper</t>
+          <t>https://motorring.ru/product/18220-disk-perednego-tormoza-dyuymov-ventiliruemyy</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Комплект рамок противотуманных фар (ПТФ) в передний бампер для Лада Приора SE, Приора 2</t>
+          <t>Вентилируемые тормозные диски АТС-SPORT BLACK R14 с перфорацией и насечками для ВАЗ 2110-2112, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>329</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/14191-koghuh-ventilyatora-ohlaghdeniya-kondicionera-panasonic</t>
+          <t>https://motorring.ru/product/40922-neventiliruemye-diski-tormoza-atc-urban-r15-nasecheki</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Кожух вентилятора охлаждения кондиционера Panasonic для Лада Калина, Приора</t>
+          <t>Невентилируемые диски переднего тормоза АТС-SPORT Урбан r15 с насечеками и перфорацией для Лада 4х4 с 2016 г.в., Нива Легенд, под ступичные узлы с внешним креплением тормозного диска для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>729</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25359-polukorpus-vozdushnogo-filytra-polusbore-3chasti-kalina</t>
+          <t>https://motorring.ru/product/40977-zadniye-tormoznye-diski-atc-lada-vesta-kross</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Полукорпус воздушного фильтра в полусборе (2 части) на 1,4л АКПП для Лада Калина, Гранта</t>
+          <t>Невентилируемые задние тормозные диски АТС-STANDART R15 без насечек и перфорации для Лада Веста Кросс, Икс Рей Кросс</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1190</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15339-ramka-kpp-konsoli-chernaya-glyancevaya-dlya-lada-priora</t>
+          <t>https://motorring.ru/product/40968-ventiliruemye-diski-ats-2110-sport-r13-bez-nasechek</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Рамка КПП консоли черная глянцевая для Лада Приора 2</t>
+          <t>Вентилируемые тормозные диски АТС-SPORT R13 с перфорацией (без насечек) для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1290</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25582-podstakannik-glubokiy-novogo-obrazca-salon-lada-vesta</t>
+          <t>https://motorring.ru/product/40973-ventiliruemye-perednie-diski-atc-r15-black-vesta</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Подстаканник глубокий нового образца черный лак в салон Лада Веста</t>
+          <t>Вентилируемые передние тормозные диски АТС-SPORT BLACK R15 с насечками и перфорацией для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1390</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20192-nakladki-obshivok-dverey-batony-vaz-2101-2107</t>
+          <t>https://motorring.ru/product/40959-tormoznye-barabany-atc-bez-podshipnika-kolyca-abs-vesta</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Накладки обшивок дверей (батоны) для ВАЗ 2101-2107</t>
+          <t>Задние тормозные барабаны ATC без подшипника и кольца АБС для Лада Веста, Икс Рей, Рено Логан 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>490</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8259</t>
+          <t>https://motorring.ru/product/18218-disk-tormoza-perednego-vaz-2108-21099-2110-2112-lada-kalina</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Рамки ПТФ в бампер образца 2014-2018 годов для Лада Гранта</t>
+          <t>Вентилируемые диски переднего тормоза АТС-SPORT R14 с насечками (без перфорации) для ВАЗ 2110-2112, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>690</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10903-kronshteyny-krepleniya-ruchek-zadnih-dverey-dlya-lada</t>
+          <t>https://motorring.ru/product/40957-zadnie-tormoznye-barabany-atc-dlya-vaz-2108-21099-2110-2112</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Кронштейны крепления ручек задних дверей для Лада Приора</t>
+          <t>Задние тормозные барабаны ATC для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Датсун</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>290</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15121-koghuh-ventilyatora-lada-granta</t>
+          <t>https://motorring.ru/product/40961-perednie-tormoznye-diski-atc-11186-r15-ventiliruemye</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Кожух вентилятора для Лада Гранта FL</t>
+          <t>Вентилируемые передние тормозные диски ATC 11186 R15 без насечек и перфорации для Лада Гранта Спорт, Калина Спорт, Калина 2 Спорт</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1190</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16349-komplekt-kronshteynov-krepleniya-peredney-ruchki-dveri-lada</t>
+          <t>https://motorring.ru/product/40955-tormoznoy-baraban-atc-bez-podshipnika-kolyca-abs-largus</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Комплект кронштейнов крепления передних ручек дверей для Лада Приора</t>
+          <t>Задний тормозной барабан ATC без подшипника и кольца АБС для Лада Ларгус</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>290</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25308-koghuh-ventilyatora-kondicionera-lada-kalina</t>
+          <t>https://motorring.ru/product/40967-tormoznye-diski-atc-2110-r13-black-nasechki-bez-perforaciy-2110</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Кожух вентилятора кондиционера Лада Калина 2</t>
+          <t>Вентилируемые тормозные диски АТС-SPORT BLACK  R13 с насечками и перфорацией для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>769</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10901-ruchki-podlokotniki-perednih-dverey-vaz-2101-2107</t>
+          <t>https://motorring.ru/product/40974-ventiliruemye-perednie-diski-atc-nasechki-perforacia-vesta</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Комплект ручек-подлокотников передних и задних дверей для ВАЗ 2101-2107</t>
+          <t>Вентилируемые передние тормозные диски АТС-SPORT R15 с насечками и перфорацией для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>590</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18431-vstavka-rulya-serebristaya-lada-kalina-priora</t>
+          <t>https://motorring.ru/product/12213-tormoznye-diski-atc-2121-05-sport-nasechki-perforaciya</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Вставка руля (рогатка) серебристая для ВАЗ 2110-2112 с европанелью, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Нива Тревел, Шевроле Нива</t>
+          <t>Невентилируемые тормозные диски АТС-SPORT R15 с насечками и перфорацией для Лада 4х4 (Нива) до 2016 г.в., Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>699</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/36685-kojuh-ventilyatora-lada-4x4-niva-niva-legend</t>
+          <t>https://motorring.ru/product/32057-tormoznye-diski-atc-2110-r13-nasechki-perforaciya</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Кожух вентилятора для Лада 4x4, Нива Легенд</t>
+          <t>Вентилируемые тормозные диски АТС-STANDART R13 без насечек и перфорации для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>590</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9064-originalynye-ramki-ptf-lada-vesta</t>
+          <t>https://motorring.ru/product/18219-disk-tormoza-perednego-lada-kalina-priora</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Оригинальные рамки ПТФ для Лада Веста</t>
+          <t>Вентилируемые диски переднего тормоза АТС-STANDART R14 без насечек и перфорации для ВАЗ 2110-2112, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>790</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11390-originalynye-kronshteyny-krepleniya-ptf-dlya-lada-vesta</t>
+          <t>https://motorring.ru/product/40971-ventiliruemye-perednie-diski-atc-r15-nasechki-vesta</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Кронштейны крепления ПТФ для Лада Веста</t>
+          <t>Вентилируемые передние тормозные диски АТС-SPORT R15 с насечками (без перфорации) для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>790</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18876-usilitely-bamper-nighniy-lada-vesta</t>
+          <t>https://motorring.ru/product/2933-neventiliruemye-tormoznye-diski-atc-r15-bez-nasechek</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Усилитель бампер нижний для Лада Веста, Веста SW</t>
+          <t>Невентилируемые тормозные диски АТС-STANDART R15 без насечек и перфорации для Лада 4х4 (Нива) до 2016 г.в., Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3590</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/21934-pepelynica-chernaya-dlya-lada-priora</t>
+          <t>https://motorring.ru/product/40965-neventiliruemye-tormoznye-diski-atc-r13-bez-nasechek-2108</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Оригинальная пепельница для Лада Приора</t>
+          <t>Невентилируемые тормозные диски АТС-STANDART R13 без насечек и перфорации для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>590</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8872-zavodskie-pistony-eghiki-sht-obivok-dverey-salona-lada</t>
+          <t>https://motorring.ru/product/40964-neventiliruemye-tormoznye-diski-ats-r13-bez-nasechek-2101</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Заводские пистоны Ежики (40 шт) обивок дверей салона для Лада Приора 2, Калина 2, Гранта</t>
+          <t>Невентилируемые тормозные диски АТС R13 без насечек и перфорации для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>190</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/34004-korpus-vozdushnogo-filytra-sbore-shevrole-lada-niva-2123</t>
+          <t>https://motorring.ru/product/2934-ventiliruemye-tormoznye-diski-ats-2110-05-sport-r13</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Корпус воздушного фильтра в сборе для Шевроле Нива, Нива Тревел</t>
+          <t>Вентилируемые тормозные диски АТС-SPORT R13 с насечками и перфорацией для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1190</v>
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25365-tormoznye-diski-atc-2112-r14-nasechki-perforaciya</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Вентилируемые тормозные диски АТС-SPORT R14 с насечками и перфорацией для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/2931-ventiliruemye-tormoznye-diski-ats-2112-02-r14-perforaciey</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Вентилируемые тормозные диски АТС-SPORT R14 с перфорацией (без насечек) для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40970-ventiliruemye-perednie-tormoznye-diski-atc-r15-vesta</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Вентилируемые передние тормозные диски АТС-STANDART R15 без насечек и перфорации для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40978-zadniye-tormoznye-diski-atc-nasechki-lada-vesta-kross</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Невентилируемые задние тормозные диски АТС-SPORT R15 с насечками (без перфорации) для Лада Веста Кросс, Икс Рей Кросс</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/2932-neventiliruemye-tormoznye-diski-ats-r13-nasechkami-2108</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Невентилируемые тормозные диски АТС-SPORT R13 с насечками и перфорацией для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40958-zadnie-tormoznye-barabany-atc-pod-abs-podshipnik-52mm-logan</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Задние тормозные барабаны ATC под АБС и подшипник 52мм для Renault Logan, Sandero, Clio, Megane, Symbol, Twingo</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/2938-ventiliruemye-tormoznye-diski-ats-2112-05-sport-r14</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Вентилируемые тормозные диски АТС-SPORT 2112-07 SPORT R14 с насечками и перфорацией для ВАЗ 2110-2112, Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>4090</v>
       </c>
     </row>
   </sheetData>
@@ -808,7 +913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,560 +923,578 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>259562</v>
+        <v>219491</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8872-zavodskie-pistony-eghiki-sht-obivok-dverey-salona-lada</t>
+          <t>https://motorring.ru/product/40957-zadnie-tormoznye-barabany-atc-dlya-vaz-2108-21099-2110-2112</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Заводские пистоны Ежики (40 шт) обивок дверей салона для Лада Приора 2, Калина 2, Гранта</t>
+          <t>Задние тормозные барабаны ATC для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Датсун</t>
         </is>
       </c>
       <c r="D1" t="n">
-        <v>190</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>182724</v>
+        <v>219557</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20847-kryshka-lyuka-schitka-perednego-kryla-nighnyaya-lada-granta</t>
+          <t>https://motorring.ru/product/40961-perednie-tormoznye-diski-atc-11186-r15-ventiliruemye</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Крышка люка щитка переднего крыла нижняя для Лада Гранта FL</t>
+          <t>Вентилируемые передние тормозные диски ATC 11186 R15 без насечек и перфорации для Лада Гранта Спорт, Калина Спорт, Калина 2 Спорт</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>269</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>170834</v>
+        <v>219550</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20192-nakladki-obshivok-dverey-batony-vaz-2101-2107</t>
+          <t>https://motorring.ru/product/40963-perednie-tormoznye-diski-atc-11186-r15-kalina-sport</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Накладки обшивок дверей (батоны) для ВАЗ 2101-2107</t>
+          <t>Вентилируемые передние тормозные диски ATC 11186 R15 с насечками и перфорацией для Лада Гранта Спорт, Калина Спорт, Калина 2 Спорт</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>490</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>170835</v>
+        <v>219553</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/20192-nakladki-obshivok-dverey-batony-vaz-2101-2107</t>
+          <t>https://motorring.ru/product/40964-neventiliruemye-tormoznye-diski-ats-r13-bez-nasechek-2101</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Накладки обшивок дверей (батоны) для ВАЗ 2101-2107</t>
+          <t>Невентилируемые тормозные диски АТС R13 без насечек и перфорации для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>490</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>212911</v>
+        <v>219538</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10901-ruchki-podlokotniki-perednih-dverey-vaz-2101-2107</t>
+          <t>https://motorring.ru/product/2939-neventiliruemye-tormoznye-diski-ats-r13-nasechkami-2101</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Комплект ручек-подлокотников передних и задних дверей для ВАЗ 2101-2107</t>
+          <t>Невентилируемые тормозные диски АТС R13 с насечками (без перфорации) для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>590</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>212926</v>
+        <v>219541</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10901-ruchki-podlokotniki-perednih-dverey-vaz-2101-2107</t>
+          <t>https://motorring.ru/product/40965-neventiliruemye-tormoznye-diski-atc-r13-bez-nasechek-2108</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Комплект ручек-подлокотников передних и задних дверей для ВАЗ 2101-2107</t>
+          <t>Невентилируемые тормозные диски АТС-STANDART R13 без насечек и перфорации для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>590</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>202666</v>
+        <v>219539</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/9064-originalynye-ramki-ptf-lada-vesta</t>
+          <t>https://motorring.ru/product/2932-neventiliruemye-tormoznye-diski-ats-r13-nasechkami-2108</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Оригинальные рамки ПТФ для Лада Веста</t>
+          <t>Невентилируемые тормозные диски АТС-SPORT R13 с насечками и перфорацией для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>790</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>144311</v>
+        <v>219534</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/36685-kojuh-ventilyatora-lada-4x4-niva-niva-legend</t>
+          <t>https://motorring.ru/product/40979-zadniye-tormoznye-diski-atc-nasechki-lada-kalina-sport</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Кожух вентилятора для Лада 4x4, Нива Легенд</t>
+          <t>Невентилируемые задние тормозные диски АТС-SPORT R15 с насечками (без перфорации) для Лада Гранта Спорт, Калина Спорт, Калина 2 Спорт</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>590</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>157748</v>
+        <v>219552</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/14187-koghuh-ventilyatora-ohlaghdeniya-dvigatelya-lada-granta</t>
+          <t>https://motorring.ru/product/32057-tormoznye-diski-atc-2110-r13-nasechki-perforaciya</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Кожух вентилятора охлаждения двигателя для Лада Гранта, Калина 2 до 2016 г.в</t>
+          <t>Вентилируемые тормозные диски АТС-STANDART R13 без насечек и перфорации для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>165508</v>
+        <v>219537</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18431-vstavka-rulya-serebristaya-lada-kalina-priora</t>
+          <t>https://motorring.ru/product/40968-ventiliruemye-diski-ats-2110-sport-r13-bez-nasechek</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Вставка руля (рогатка) серебристая для ВАЗ 2110-2112 с европанелью, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Нива Тревел, Шевроле Нива</t>
+          <t>Вентилируемые тормозные диски АТС-SPORT R13 с перфорацией (без насечек) для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>699</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>165523</v>
+        <v>219535</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18433-nakladka-rogatka-ruly-oranghevaya-lada-kalina-kross</t>
+          <t>https://motorring.ru/product/2934-ventiliruemye-tormoznye-diski-ats-2110-05-sport-r13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Накладка (рогатка) Кросс в руль оранжевая для ВАЗ 2110-2112 с европанелью, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Нива Тревел, Шевроле Нива</t>
+          <t>Вентилируемые тормозные диски АТС-SPORT R13 с насечками и перфорацией для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>849</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>144310</v>
+        <v>219536</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/14191-koghuh-ventilyatora-ohlaghdeniya-kondicionera-panasonic</t>
+          <t>https://motorring.ru/product/40967-tormoznye-diski-atc-2110-r13-black-nasechki-bez-perforaciy-2110</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Кожух вентилятора охлаждения кондиционера Panasonic для Лада Калина, Приора</t>
+          <t>Вентилируемые тормозные диски АТС-SPORT BLACK  R13 с насечками и перфорацией для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>729</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>195203</v>
+        <v>219555</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25359-polukorpus-vozdushnogo-filytra-polusbore-3chasti-kalina</t>
+          <t>https://motorring.ru/product/18219-disk-tormoza-perednego-lada-kalina-priora</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Полукорпус воздушного фильтра в полусборе (2 части) на 1,4л АКПП для Лада Калина, Гранта</t>
+          <t>Вентилируемые диски переднего тормоза АТС-STANDART R14 без насечек и перфорации для ВАЗ 2110-2112, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1190</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>160824</v>
+        <v>276605</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/11390-originalynye-kronshteyny-krepleniya-ptf-dlya-lada-vesta</t>
+          <t>https://motorring.ru/product/2931-ventiliruemye-tormoznye-diski-ats-2112-02-r14-perforaciey</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Кронштейны крепления ПТФ для Лада Веста</t>
+          <t>Вентилируемые тормозные диски АТС-SPORT R14 с перфорацией (без насечек) для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>790</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>202715</v>
+        <v>328579</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/30392-originalynye-ramki-ptf-chernoy-vstavkoy-bamper-kalina2</t>
+          <t>https://motorring.ru/product/18218-disk-tormoza-perednego-vaz-2108-21099-2110-2112-lada-kalina</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Оригинальные рамки ПТФ с черной вставкой в бампер для Лада Калина 2</t>
+          <t>Вентилируемые диски переднего тормоза АТС-SPORT R14 с насечками (без перфорации) для ВАЗ 2110-2112, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>990</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>194560</v>
+        <v>219543</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25582-podstakannik-glubokiy-novogo-obrazca-salon-lada-vesta</t>
+          <t>https://motorring.ru/product/25365-tormoznye-diski-atc-2112-r14-nasechki-perforaciya</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Подстаканник глубокий нового образца черный лак в салон Лада Веста</t>
+          <t>Вентилируемые тормозные диски АТС-SPORT R14 с насечками и перфорацией для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1390</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>157744</v>
+        <v>219544</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15121-koghuh-ventilyatora-lada-granta</t>
+          <t>https://motorring.ru/product/18220-disk-perednego-tormoza-dyuymov-ventiliruemyy</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Кожух вентилятора для Лада Гранта FL</t>
+          <t>Вентилируемые тормозные диски АТС-SPORT BLACK R14 с перфорацией и насечками для ВАЗ 2110-2112, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1190</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>194563</v>
+        <v>219545</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/15339-ramka-kpp-konsoli-chernaya-glyancevaya-dlya-lada-priora</t>
+          <t>https://motorring.ru/product/2938-ventiliruemye-tormoznye-diski-ats-2112-05-sport-r14</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Рамка КПП консоли черная глянцевая для Лада Приора 2</t>
+          <t>Вентилируемые тормозные диски АТС-SPORT 2112-07 SPORT R14 с насечками и перфорацией для ВАЗ 2110-2112, Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1290</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251296</v>
+        <v>219559</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/34004-korpus-vozdushnogo-filytra-sbore-shevrole-lada-niva-2123</t>
+          <t>https://motorring.ru/product/2933-neventiliruemye-tormoznye-diski-atc-r15-bez-nasechek</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Корпус воздушного фильтра в сборе для Шевроле Нива, Нива Тревел</t>
+          <t>Невентилируемые тормозные диски АТС-STANDART R15 без насечек и перфорации для Лада 4х4 (Нива) до 2016 г.в., Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1190</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>206071</v>
+        <v>219493</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18651-nighnyaya-reshetka-perednego-bampera-lada-vesta</t>
+          <t>https://motorring.ru/product/12213-tormoznye-diski-atc-2121-05-sport-nasechki-perforaciya</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Нижняя решетка переднего бампера для Лада Веста</t>
+          <t>Невентилируемые тормозные диски АТС-SPORT R15 с насечками и перфорацией для Лада 4х4 (Нива) до 2016 г.в., Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1890</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>223643</v>
+        <v>145498</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18876-usilitely-bamper-nighniy-lada-vesta</t>
+          <t>https://motorring.ru/product/40958-zadnie-tormoznye-barabany-atc-pod-abs-podshipnik-52mm-logan</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Усилитель бампер нижний для Лада Веста, Веста SW</t>
+          <t>Задние тормозные барабаны ATC под АБС и подшипник 52мм для Renault Logan, Sandero, Clio, Megane, Symbol, Twingo</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3590</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>144309</v>
+        <v>219486</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25308-koghuh-ventilyatora-kondicionera-lada-kalina</t>
+          <t>https://motorring.ru/product/40959-tormoznye-barabany-atc-bez-podshipnika-kolyca-abs-vesta</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Кожух вентилятора кондиционера Лада Калина 2</t>
+          <t>Задние тормозные барабаны ATC без подшипника и кольца АБС для Лада Веста, Икс Рей, Рено Логан 2</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>769</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>160667</v>
+        <v>219417</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10903-kronshteyny-krepleniya-ruchek-zadnih-dverey-dlya-lada</t>
+          <t>https://motorring.ru/product/40955-tormoznoy-baraban-atc-bez-podshipnika-kolyca-abs-largus</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Кронштейны крепления ручек задних дверей для Лада Приора</t>
+          <t>Задний тормозной барабан ATC без подшипника и кольца АБС для Лада Ларгус</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>290</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>160668</v>
+        <v>219556</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/10903-kronshteyny-krepleniya-ruchek-zadnih-dverey-dlya-lada</t>
+          <t>https://motorring.ru/product/40970-ventiliruemye-perednie-tormoznye-diski-atc-r15-vesta</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Кронштейны крепления ручек задних дверей для Лада Приора</t>
+          <t>Вентилируемые передние тормозные диски АТС-STANDART R15 без насечек и перфорации для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>290</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>160679</v>
+        <v>219549</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16349-komplekt-kronshteynov-krepleniya-peredney-ruchki-dveri-lada</t>
+          <t>https://motorring.ru/product/40971-ventiliruemye-perednie-diski-atc-r15-nasechki-vesta</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Комплект кронштейнов крепления передних ручек дверей для Лада Приора</t>
+          <t>Вентилируемые передние тормозные диски АТС-SPORT R15 с насечками (без перфорации) для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>290</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>160680</v>
+        <v>219546</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/16349-komplekt-kronshteynov-krepleniya-peredney-ruchki-dveri-lada</t>
+          <t>https://motorring.ru/product/40974-ventiliruemye-perednie-diski-atc-nasechki-perforacia-vesta</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Комплект кронштейнов крепления передних ручек дверей для Лада Приора</t>
+          <t>Вентилируемые передние тормозные диски АТС-SPORT R15 с насечками и перфорацией для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>290</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>259317</v>
+        <v>219547</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/21934-pepelynica-chernaya-dlya-lada-priora</t>
+          <t>https://motorring.ru/product/40973-ventiliruemye-perednie-diski-atc-r15-black-vesta</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Оригинальная пепельница для Лада Приора</t>
+          <t>Вентилируемые передние тормозные диски АТС-SPORT BLACK R15 с насечками и перфорацией для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>590</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>259318</v>
+        <v>219558</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/21934-pepelynica-chernaya-dlya-lada-priora</t>
+          <t>https://motorring.ru/product/40921-neventiliruemye-diski-tormoza-atc-urban-r15-bez-nasechek</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Оригинальная пепельница для Лада Приора</t>
+          <t>Невентилируемые диски переднего тормоза АТС-STANDART Урбан r15 без насечек и перфорации для Лада 4х4 с 2016 г.в., Нива Легенд, под ступичные узлы с внешним креплением тормозного диска для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>590</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>315661</v>
+        <v>219551</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8259</t>
+          <t>https://motorring.ru/product/40922-neventiliruemye-diski-tormoza-atc-urban-r15-nasecheki</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Рамки ПТФ в бампер образца 2014-2018 годов для Лада Гранта</t>
+          <t>Невентилируемые диски переднего тормоза АТС-SPORT Урбан r15 с насечеками и перфорацией для Лада 4х4 с 2016 г.в., Нива Легенд, под ступичные узлы с внешним креплением тормозного диска для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>690</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>315659</v>
+        <v>219554</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/8259</t>
+          <t>https://motorring.ru/product/40977-zadniye-tormoznye-diski-atc-lada-vesta-kross</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Рамки ПТФ в бампер образца 2014-2018 годов для Лада Гранта</t>
+          <t>Невентилируемые задние тормозные диски АТС-STANDART R15 без насечек и перфорации для Лада Веста Кросс, Икс Рей Кросс</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>690</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>202669</v>
+        <v>219542</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/4546-ramki-protivotumannyh-far-ptf-neokrashennye-peredniy-bamper</t>
+          <t>https://motorring.ru/product/40978-zadniye-tormoznye-diski-atc-nasechki-lada-vesta-kross</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Комплект рамок противотуманных фар (ПТФ) в передний бампер для Лада Приора SE, Приора 2</t>
+          <t>Невентилируемые задние тормозные диски АТС-SPORT R15 с насечками (без перфорации) для Лада Веста Кросс, Икс Рей Кросс</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>329</v>
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>372749</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/41004-ventiliruemye-perednie-tormoznye-diski-hofer-r15-vesta</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Вентилируемые передние тормозные диски HOFER R15 без насечек и перфорации для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3290</v>
       </c>
     </row>
   </sheetData>

--- a/output_data/output.xlsx
+++ b/output_data/output.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,481 +425,286 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2939-neventiliruemye-tormoznye-diski-ats-r13-nasechkami-2101</t>
+          <t>https://motorring.ru/product/13072-tormoznye-kolodki-perednie-asp-mensan-dlya-lada-largus</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Невентилируемые тормозные диски АТС R13 с насечками (без перфорации) для ВАЗ 2101-2107</t>
+          <t>Тормозные колодки передние ASP Mensan для 16-клапанных Лада Ларгус, Веста</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>3390</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40963-perednie-tormoznye-diski-atc-11186-r15-kalina-sport</t>
+          <t>https://motorring.ru/product/13071-tormoznye-kolodki-perednie-asp-mensan-dlya-lada-largus</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Вентилируемые передние тормозные диски ATC 11186 R15 с насечками и перфорацией для Лада Гранта Спорт, Калина Спорт, Калина 2 Спорт</t>
+          <t>Тормозные колодки передние ASP Mensan для 8-клапанных Лада Ларгус</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4690</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40921-neventiliruemye-diski-tormoza-atc-urban-r15-bez-nasechek</t>
+          <t>https://motorring.ru/product/13063-tormoznye-barabany-zadnie-chugun-asp-mensan-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Невентилируемые диски переднего тормоза АТС-STANDART Урбан r15 без насечек и перфорации для Лада 4х4 с 2016 г.в., Нива Легенд, под ступичные узлы с внешним креплением тормозного диска для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Тормозные барабаны задние чугун ASP Mensan для ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Калина 2, Гранта, Приора</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3590</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/41004-ventiliruemye-perednie-tormoznye-diski-hofer-r15-vesta</t>
+          <t>https://motorring.ru/product/13068</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Вентилируемые передние тормозные диски HOFER R15 без насечек и перфорации для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
+          <t>Тормозные колодки передние ASP Mensan для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3290</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40979-zadniye-tormoznye-diski-atc-nasechki-lada-kalina-sport</t>
+          <t>https://motorring.ru/product/24319-tormoznye-kolodki-zadnie-asp-lada-largus</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Невентилируемые задние тормозные диски АТС-SPORT R15 с насечками (без перфорации) для Лада Гранта Спорт, Калина Спорт, Калина 2 Спорт</t>
+          <t>Тормозные колодки задние ASP для Лада Ларгус</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3390</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18220-disk-perednego-tormoza-dyuymov-ventiliruemyy</t>
+          <t>https://motorring.ru/product/24313-tormoznye-diski-asp-nasechki-perforaciya-ventiliruemye-lada</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски АТС-SPORT BLACK R14 с перфорацией и насечками для ВАЗ 2110-2112, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
+          <t>Вентилируемые тормозные диски ASP R15 с насечками и перфорацией для Лада Ларгус, Веста, Икс Рей</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4290</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40922-neventiliruemye-diski-tormoza-atc-urban-r15-nasecheki</t>
+          <t>https://motorring.ru/product/6986</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Невентилируемые диски переднего тормоза АТС-SPORT Урбан r15 с насечеками и перфорацией для Лада 4х4 с 2016 г.в., Нива Легенд, под ступичные узлы с внешним креплением тормозного диска для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Невентилируемые тормозные диски ASP R13 без насечек и перфорации для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3990</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40977-zadniye-tormoznye-diski-atc-lada-vesta-kross</t>
+          <t>https://motorring.ru/product/37249-tros-privoda-akseleratora-gaza-asp-lada-largus</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Невентилируемые задние тормозные диски АТС-STANDART R15 без насечек и перфорации для Лада Веста Кросс, Икс Рей Кросс</t>
+          <t>Трос привода акселератора (газа) ASP для 8-клапанных Лада Ларгус</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3690</v>
+        <v>769</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40968-ventiliruemye-diski-ats-2110-sport-r13-bez-nasechek</t>
+          <t>https://motorring.ru/product/6988-ventiliruemye-tormoznye-diski-asp-2110-r13-bez-nasechek</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски АТС-SPORT R13 с перфорацией (без насечек) для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
+          <t>Вентилируемые тормозные диски ASP 2110 R13 без насечек и перфорации для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3290</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40973-ventiliruemye-perednie-diski-atc-r15-black-vesta</t>
+          <t>https://motorring.ru/product/6990-neventiliruemye-tormoznye-diski-asp-2121-r15-bez-nasechek</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Вентилируемые передние тормозные диски АТС-SPORT BLACK R15 с насечками и перфорацией для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
+          <t>Невентилируемые тормозные диски ASP 2121 R15 без насечек и перфорации для Лада 4х4 (Нива) до 2016 г.в., Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5790</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40959-tormoznye-barabany-atc-bez-podshipnika-kolyca-abs-vesta</t>
+          <t>https://motorring.ru/product/700-tormoznye-diski-asp-2112-sport-r14-nasechki-perforaciya</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Задние тормозные барабаны ATC без подшипника и кольца АБС для Лада Веста, Икс Рей, Рено Логан 2</t>
+          <t>Вентилируемые тормозные диски ASP 2112 SPORT R14 с насечками и перфорацией для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3890</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18218-disk-tormoza-perednego-vaz-2108-21099-2110-2112-lada-kalina</t>
+          <t>https://motorring.ru/product/13069-tormoznye-kolodki-perednie-asp-mensan-dlya-peredneprivodnyh</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Вентилируемые диски переднего тормоза АТС-SPORT R14 с насечками (без перфорации) для ВАЗ 2110-2112, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
+          <t>Тормозные колодки передние ASP Mensan для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3290</v>
+        <v>790</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40957-zadnie-tormoznye-barabany-atc-dlya-vaz-2108-21099-2110-2112</t>
+          <t>https://motorring.ru/product/13067-tormoznye-kolodki-zadnie-asp-mensan-dlya-lada-priora-kalina</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Задние тормозные барабаны ATC для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Датсун</t>
+          <t>Тормозные колодки задние ASP Mensan под АБС для Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2590</v>
+        <v>969</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40961-perednie-tormoznye-diski-atc-11186-r15-ventiliruemye</t>
+          <t>https://motorring.ru/product/6987</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Вентилируемые передние тормозные диски ATC 11186 R15 без насечек и перфорации для Лада Гранта Спорт, Калина Спорт, Калина 2 Спорт</t>
+          <t>Невентилируемые тормозные диски ASP R13 без насечек и перфорации для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3690</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40955-tormoznoy-baraban-atc-bez-podshipnika-kolyca-abs-largus</t>
+          <t>https://motorring.ru/product/37250-tros-scepleniya-asp-lada-largus-reno-logan-sandero</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Задний тормозной барабан ATC без подшипника и кольца АБС для Лада Ларгус</t>
+          <t>Трос сцепления ASP для Лада Ларгус, Рено Логан, Сандеро</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3590</v>
+        <v>949</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40967-tormoznye-diski-atc-2110-r13-black-nasechki-bez-perforaciy-2110</t>
+          <t>https://motorring.ru/product/13065-tormoznye-kolodki-zadnie-asp-mensan-dlya-peredneprivodnyh</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски АТС-SPORT BLACK  R13 с насечками и перфорацией для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
+          <t>Тормозные колодки задние ASP Mensan для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун без АБС</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3590</v>
+        <v>949</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40974-ventiliruemye-perednie-diski-atc-nasechki-perforacia-vesta</t>
+          <t>https://motorring.ru/product/19692-komplekt-perednih-tormoznyh-kolodok-asp-vaz-2110-2111-2112</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Вентилируемые передние тормозные диски АТС-SPORT R15 с насечками и перфорацией для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
+          <t>Комплект передних тормозных колодок ASP для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4890</v>
+        <v>769</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/12213-tormoznye-diski-atc-2121-05-sport-nasechki-perforaciya</t>
+          <t>https://motorring.ru/product/13070</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Невентилируемые тормозные диски АТС-SPORT R15 с насечками и перфорацией для Лада 4х4 (Нива) до 2016 г.в., Нива Тревел, Шевроле Нива</t>
+          <t>Тормозные колодки передние ASP Mensan для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3890</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/32057-tormoznye-diski-atc-2110-r13-nasechki-perforaciya</t>
+          <t>https://motorring.ru/product/13064-tormoznye-kolodki-zadnie-asp-mensan-dlya-vaz-2101-2107-lada</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски АТС-STANDART R13 без насечек и перфорации для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
+          <t>Тормозные колодки задние ASP Mensan под тормозные барабаны для ВАЗ 2101-2107, Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/18219-disk-tormoza-perednego-lada-kalina-priora</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Вентилируемые диски переднего тормоза АТС-STANDART R14 без насечек и перфорации для ВАЗ 2110-2112, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40971-ventiliruemye-perednie-diski-atc-r15-nasechki-vesta</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Вентилируемые передние тормозные диски АТС-SPORT R15 с насечками (без перфорации) для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>4590</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/2933-neventiliruemye-tormoznye-diski-atc-r15-bez-nasechek</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Невентилируемые тормозные диски АТС-STANDART R15 без насечек и перфорации для Лада 4х4 (Нива) до 2016 г.в., Нива Тревел, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>3090</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40965-neventiliruemye-tormoznye-diski-atc-r13-bez-nasechek-2108</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Невентилируемые тормозные диски АТС-STANDART R13 без насечек и перфорации для ВАЗ 2108-21099, 2113-2115</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40964-neventiliruemye-tormoznye-diski-ats-r13-bez-nasechek-2101</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Невентилируемые тормозные диски АТС R13 без насечек и перфорации для ВАЗ 2101-2107</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/2934-ventiliruemye-tormoznye-diski-ats-2110-05-sport-r13</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Вентилируемые тормозные диски АТС-SPORT R13 с насечками и перфорацией для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/25365-tormoznye-diski-atc-2112-r14-nasechki-perforaciya</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Вентилируемые тормозные диски АТС-SPORT R14 с насечками и перфорацией для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>3590</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/2931-ventiliruemye-tormoznye-diski-ats-2112-02-r14-perforaciey</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Вентилируемые тормозные диски АТС-SPORT R14 с перфорацией (без насечек) для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>3290</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40970-ventiliruemye-perednie-tormoznye-diski-atc-r15-vesta</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Вентилируемые передние тормозные диски АТС-STANDART R15 без насечек и перфорации для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>3790</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40978-zadniye-tormoznye-diski-atc-nasechki-lada-vesta-kross</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Невентилируемые задние тормозные диски АТС-SPORT R15 с насечками (без перфорации) для Лада Веста Кросс, Икс Рей Кросс</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>4590</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/2932-neventiliruemye-tormoznye-diski-ats-r13-nasechkami-2108</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Невентилируемые тормозные диски АТС-SPORT R13 с насечками и перфорацией для ВАЗ 2108-21099, 2113-2115</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40958-zadnie-tormoznye-barabany-atc-pod-abs-podshipnik-52mm-logan</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Задние тормозные барабаны ATC под АБС и подшипник 52мм для Renault Logan, Sandero, Clio, Megane, Symbol, Twingo</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>3890</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/2938-ventiliruemye-tormoznye-diski-ats-2112-05-sport-r14</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Вентилируемые тормозные диски АТС-SPORT 2112-07 SPORT R14 с насечками и перфорацией для ВАЗ 2110-2112, Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>4090</v>
+        <v>1090</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,578 +728,344 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>219491</v>
+        <v>219577</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40957-zadnie-tormoznye-barabany-atc-dlya-vaz-2108-21099-2110-2112</t>
+          <t>https://motorring.ru/product/13068</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Задние тормозные барабаны ATC для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Датсун</t>
+          <t>Тормозные колодки передние ASP Mensan для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="D1" t="n">
-        <v>2590</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>219557</v>
+        <v>219578</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40961-perednie-tormoznye-diski-atc-11186-r15-ventiliruemye</t>
+          <t>https://motorring.ru/product/13069-tormoznye-kolodki-perednie-asp-mensan-dlya-peredneprivodnyh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Вентилируемые передние тормозные диски ATC 11186 R15 без насечек и перфорации для Лада Гранта Спорт, Калина Спорт, Калина 2 Спорт</t>
+          <t>Тормозные колодки передние ASP Mensan для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3690</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>219550</v>
+        <v>219583</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40963-perednie-tormoznye-diski-atc-11186-r15-kalina-sport</t>
+          <t>https://motorring.ru/product/13070</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Вентилируемые передние тормозные диски ATC 11186 R15 с насечками и перфорацией для Лада Гранта Спорт, Калина Спорт, Калина 2 Спорт</t>
+          <t>Тормозные колодки передние ASP Mensan для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4690</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>219553</v>
+        <v>219579</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40964-neventiliruemye-tormoznye-diski-ats-r13-bez-nasechek-2101</t>
+          <t>https://motorring.ru/product/19692-komplekt-perednih-tormoznyh-kolodok-asp-vaz-2110-2111-2112</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Невентилируемые тормозные диски АТС R13 без насечек и перфорации для ВАЗ 2101-2107</t>
+          <t>Комплект передних тормозных колодок ASP для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2690</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>219538</v>
+        <v>219844</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2939-neventiliruemye-tormoznye-diski-ats-r13-nasechkami-2101</t>
+          <t>https://motorring.ru/product/37250-tros-scepleniya-asp-lada-largus-reno-logan-sandero</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Невентилируемые тормозные диски АТС R13 с насечками (без перфорации) для ВАЗ 2101-2107</t>
+          <t>Трос сцепления ASP для Лада Ларгус, Рено Логан, Сандеро</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3390</v>
+        <v>949</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>219541</v>
+        <v>219572</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40965-neventiliruemye-tormoznye-diski-atc-r13-bez-nasechek-2108</t>
+          <t>https://motorring.ru/product/13065-tormoznye-kolodki-zadnie-asp-mensan-dlya-peredneprivodnyh</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Невентилируемые тормозные диски АТС-STANDART R13 без насечек и перфорации для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Тормозные колодки задние ASP Mensan для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун без АБС</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2490</v>
+        <v>949</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>219539</v>
+        <v>219575</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2932-neventiliruemye-tormoznye-diski-ats-r13-nasechkami-2108</t>
+          <t>https://motorring.ru/product/13067-tormoznye-kolodki-zadnie-asp-mensan-dlya-lada-priora-kalina</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Невентилируемые тормозные диски АТС-SPORT R13 с насечками и перфорацией для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Тормозные колодки задние ASP Mensan под АБС для Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2990</v>
+        <v>969</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>219534</v>
+        <v>219581</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40979-zadniye-tormoznye-diski-atc-nasechki-lada-kalina-sport</t>
+          <t>https://motorring.ru/product/13072-tormoznye-kolodki-perednie-asp-mensan-dlya-lada-largus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Невентилируемые задние тормозные диски АТС-SPORT R15 с насечками (без перфорации) для Лада Гранта Спорт, Калина Спорт, Калина 2 Спорт</t>
+          <t>Тормозные колодки передние ASP Mensan для 16-клапанных Лада Ларгус, Веста</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3390</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>219552</v>
+        <v>219573</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/32057-tormoznye-diski-atc-2110-r13-nasechki-perforaciya</t>
+          <t>https://motorring.ru/product/13064-tormoznye-kolodki-zadnie-asp-mensan-dlya-vaz-2101-2107-lada</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски АТС-STANDART R13 без насечек и перфорации для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
+          <t>Тормозные колодки задние ASP Mensan под тормозные барабаны для ВАЗ 2101-2107, Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2690</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>219537</v>
+        <v>219582</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40968-ventiliruemye-diski-ats-2110-sport-r13-bez-nasechek</t>
+          <t>https://motorring.ru/product/13071-tormoznye-kolodki-perednie-asp-mensan-dlya-lada-largus</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски АТС-SPORT R13 с перфорацией (без насечек) для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
+          <t>Тормозные колодки передние ASP Mensan для 8-клапанных Лада Ларгус</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3290</v>
+        <v>929</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>219535</v>
+        <v>219576</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2934-ventiliruemye-tormoznye-diski-ats-2110-05-sport-r13</t>
+          <t>https://motorring.ru/product/24319-tormoznye-kolodki-zadnie-asp-lada-largus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски АТС-SPORT R13 с насечками и перфорацией для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
+          <t>Тормозные колодки задние ASP для Лада Ларгус</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3390</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>219536</v>
+        <v>219492</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/40967-tormoznye-diski-atc-2110-r13-black-nasechki-bez-perforaciy-2110</t>
+          <t>https://motorring.ru/product/13063-tormoznye-barabany-zadnie-chugun-asp-mensan-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски АТС-SPORT BLACK  R13 с насечками и перфорацией для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
+          <t>Тормозные барабаны задние чугун ASP Mensan для ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Калина 2, Гранта, Приора</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3590</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>219555</v>
+        <v>219741</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18219-disk-tormoza-perednego-lada-kalina-priora</t>
+          <t>https://motorring.ru/product/37249-tros-privoda-akseleratora-gaza-asp-lada-largus</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Вентилируемые диски переднего тормоза АТС-STANDART R14 без насечек и перфорации для ВАЗ 2110-2112, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
+          <t>Трос привода акселератора (газа) ASP для 8-клапанных Лада Ларгус</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2690</v>
+        <v>769</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>276605</v>
+        <v>219514</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2931-ventiliruemye-tormoznye-diski-ats-2112-02-r14-perforaciey</t>
+          <t>https://motorring.ru/product/6987</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски АТС-SPORT R14 с перфорацией (без насечек) для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+          <t>Невентилируемые тормозные диски ASP R13 без насечек и перфорации для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3290</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>328579</v>
+        <v>219512</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18218-disk-tormoza-perednego-vaz-2108-21099-2110-2112-lada-kalina</t>
+          <t>https://motorring.ru/product/6988-ventiliruemye-tormoznye-diski-asp-2110-r13-bez-nasechek</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Вентилируемые диски переднего тормоза АТС-SPORT R14 с насечками (без перфорации) для ВАЗ 2110-2112, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
+          <t>Вентилируемые тормозные диски ASP 2110 R13 без насечек и перфорации для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3290</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>219543</v>
+        <v>219511</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/25365-tormoznye-diski-atc-2112-r14-nasechki-perforaciya</t>
+          <t>https://motorring.ru/product/6990-neventiliruemye-tormoznye-diski-asp-2121-r15-bez-nasechek</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски АТС-SPORT R14 с насечками и перфорацией для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+          <t>Невентилируемые тормозные диски ASP 2121 R15 без насечек и перфорации для Лада 4х4 (Нива) до 2016 г.в., Нива Тревел, Шевроле Нива</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3590</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>219544</v>
+        <v>219510</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/18220-disk-perednego-tormoza-dyuymov-ventiliruemyy</t>
+          <t>https://motorring.ru/product/6986</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски АТС-SPORT BLACK R14 с перфорацией и насечками для ВАЗ 2110-2112, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
+          <t>Невентилируемые тормозные диски ASP R13 без насечек и перфорации для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4290</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>219545</v>
+        <v>219516</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2938-ventiliruemye-tormoznye-diski-ats-2112-05-sport-r14</t>
+          <t>https://motorring.ru/product/700-tormoznye-diski-asp-2112-sport-r14-nasechki-perforaciya</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски АТС-SPORT 2112-07 SPORT R14 с насечками и перфорацией для ВАЗ 2110-2112, Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
+          <t>Вентилируемые тормозные диски ASP 2112 SPORT R14 с насечками и перфорацией для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4090</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>219559</v>
+        <v>219518</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/2933-neventiliruemye-tormoznye-diski-atc-r15-bez-nasechek</t>
+          <t>https://motorring.ru/product/24313-tormoznye-diski-asp-nasechki-perforaciya-ventiliruemye-lada</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Невентилируемые тормозные диски АТС-STANDART R15 без насечек и перфорации для Лада 4х4 (Нива) до 2016 г.в., Нива Тревел, Шевроле Нива</t>
+          <t>Вентилируемые тормозные диски ASP R15 с насечками и перфорацией для Лада Ларгус, Веста, Икс Рей</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3090</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>219493</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/12213-tormoznye-diski-atc-2121-05-sport-nasechki-perforaciya</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Невентилируемые тормозные диски АТС-SPORT R15 с насечками и перфорацией для Лада 4х4 (Нива) до 2016 г.в., Нива Тревел, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>3890</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>145498</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40958-zadnie-tormoznye-barabany-atc-pod-abs-podshipnik-52mm-logan</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Задние тормозные барабаны ATC под АБС и подшипник 52мм для Renault Logan, Sandero, Clio, Megane, Symbol, Twingo</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>3890</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>219486</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40959-tormoznye-barabany-atc-bez-podshipnika-kolyca-abs-vesta</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Задние тормозные барабаны ATC без подшипника и кольца АБС для Лада Веста, Икс Рей, Рено Логан 2</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>3890</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>219417</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40955-tormoznoy-baraban-atc-bez-podshipnika-kolyca-abs-largus</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Задний тормозной барабан ATC без подшипника и кольца АБС для Лада Ларгус</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>3590</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>219556</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40970-ventiliruemye-perednie-tormoznye-diski-atc-r15-vesta</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Вентилируемые передние тормозные диски АТС-STANDART R15 без насечек и перфорации для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>3790</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>219549</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40971-ventiliruemye-perednie-diski-atc-r15-nasechki-vesta</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Вентилируемые передние тормозные диски АТС-SPORT R15 с насечками (без перфорации) для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>4590</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>219546</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40974-ventiliruemye-perednie-diski-atc-nasechki-perforacia-vesta</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Вентилируемые передние тормозные диски АТС-SPORT R15 с насечками и перфорацией для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>4890</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>219547</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40973-ventiliruemye-perednie-diski-atc-r15-black-vesta</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Вентилируемые передние тормозные диски АТС-SPORT BLACK R15 с насечками и перфорацией для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>5790</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>219558</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40921-neventiliruemye-diski-tormoza-atc-urban-r15-bez-nasechek</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Невентилируемые диски переднего тормоза АТС-STANDART Урбан r15 без насечек и перфорации для Лада 4х4 с 2016 г.в., Нива Легенд, под ступичные узлы с внешним креплением тормозного диска для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>3590</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>219551</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40922-neventiliruemye-diski-tormoza-atc-urban-r15-nasecheki</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Невентилируемые диски переднего тормоза АТС-SPORT Урбан r15 с насечеками и перфорацией для Лада 4х4 с 2016 г.в., Нива Легенд, под ступичные узлы с внешним креплением тормозного диска для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>3990</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>219554</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40977-zadniye-tormoznye-diski-atc-lada-vesta-kross</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Невентилируемые задние тормозные диски АТС-STANDART R15 без насечек и перфорации для Лада Веста Кросс, Икс Рей Кросс</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>3690</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>219542</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/40978-zadniye-tormoznye-diski-atc-nasechki-lada-vesta-kross</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Невентилируемые задние тормозные диски АТС-SPORT R15 с насечками (без перфорации) для Лада Веста Кросс, Икс Рей Кросс</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>4590</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>372749</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>https://motorring.ru/product/41004-ventiliruemye-perednie-tormoznye-diski-hofer-r15-vesta</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Вентилируемые передние тормозные диски HOFER R15 без насечек и перфорации для Лада Веста, Икс Рей, Ларгус, Renault Logan, Sandero, Megane, Clio, Nissan Micra, Note, Tiida</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>3290</v>
+        <v>5290</v>
       </c>
     </row>
   </sheetData>

--- a/output_data/output.xlsx
+++ b/output_data/output.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,286 +425,901 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13072-tormoznye-kolodki-perednie-asp-mensan-dlya-lada-largus</t>
+          <t>https://motorring.ru/product/41509-komplekt-krasnyh-diodnyh-fonarey-stile-mersedes-vesta</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Тормозные колодки передние ASP Mensan для 16-клапанных Лада Ларгус, Веста</t>
+          <t>Комплект красных задних диодных фонарей в стиле Мерседес Е-класс с бегающим поворотником для Лада Веста</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1190</v>
+        <v>14790</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13071-tormoznye-kolodki-perednie-asp-mensan-dlya-lada-largus</t>
+          <t>https://motorring.ru/product/36558-korpus-levoy-blok-fary-dlya-lada-vesta</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Тормозные колодки передние ASP Mensan для 8-клапанных Лада Ларгус</t>
+          <t>Корпус левой блок-фары для Лада Веста</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>929</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13063-tormoznye-barabany-zadnie-chugun-asp-mensan-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/35375-povtoriteli-zerkal-plazma-obrazca-2019-goda-lada-vesta</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Тормозные барабаны задние чугун ASP Mensan для ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Калина 2, Гранта, Приора</t>
+          <t>Повторители зеркал плазма в зеркала образца 2019 года для Лада Веста</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2890</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13068</t>
+          <t>https://motorring.ru/product/21125-steklo-levoy-fary-lada-granta</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Тормозные колодки передние ASP Mensan для ВАЗ 2101-2107</t>
+          <t>Стекло левой фары для Лада Гранта FL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>590</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/24319-tormoznye-kolodki-zadnie-asp-lada-largus</t>
+          <t>https://motorring.ru/product/31233-protivotumannyy-fonary-bamper-dlya-lada-vesta-lada-granta</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Тормозные колодки задние ASP для Лада Ларгус</t>
+          <t>Противотуманный фонарь в бампер для Лада Веста, Лада Гранта лифтбек</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1390</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/24313-tormoznye-diski-asp-nasechki-perforaciya-ventiliruemye-lada</t>
+          <t>https://motorring.ru/product/28998-svetodiodnye-zadnie-fonari-tehavtosvet-12v-dlya-vis-pikap</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски ASP R15 с насечками и перфорацией для Лада Ларгус, Веста, Икс Рей</t>
+          <t>Светодиодные задние фонари ТехАвтоСвет 12В для ВИС Пикап, ГАЗ 3302</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5290</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6986</t>
+          <t>https://motorring.ru/product/2543-podfarniki-novogo-obrazca-belyy-povorotnik-lada-niva</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Невентилируемые тормозные диски ASP R13 без насечек и перфорации для ВАЗ 2101-2107</t>
+          <t>Подфарники нового образца белый поворотник для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2490</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37249-tros-privoda-akseleratora-gaza-asp-lada-largus</t>
+          <t>https://motorring.ru/product/28444-diodnye-katafoty-stile-dvoynogo-vyhlopa-leksus-5skob</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Трос привода акселератора (газа) ASP для 8-клапанных Лада Ларгус</t>
+          <t>Диодные катафоты в стиле двойного выхлопа Лексус Стайл черные с узором 5 скоб и повторителем для Лада Приора 2 седан, хэтчбек</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>769</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6988-ventiliruemye-tormoznye-diski-asp-2110-r13-bez-nasechek</t>
+          <t>https://motorring.ru/product/21163-steklo-protivotumannoy-fary-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски ASP 2110 R13 без насечек и перфорации для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
+          <t>Стекло противотуманной фары Освар для ВАЗ 2108-21099</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3090</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6990-neventiliruemye-tormoznye-diski-asp-2121-r15-bez-nasechek</t>
+          <t>https://motorring.ru/product/28445-diodnye-katafoty-stile-dvoynogo-vyhlopa-leksus-cherniye</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Невентилируемые тормозные диски ASP 2121 R15 без насечек и перфорации для Лада 4х4 (Нива) до 2016 г.в., Нива Тревел, Шевроле Нива</t>
+          <t>Диодные катафоты в стиле двойного выхлопа Лексус Стайл черные с узором и повторителем для Лада Приора 2 седан, хэтчбек</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3390</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/700-tormoznye-diski-asp-2112-sport-r14-nasechki-perforaciya</t>
+          <t>https://motorring.ru/product/41504-komplekt-gladkih-stekol-far-dlya-vaz-2108-21099</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски ASP 2112 SPORT R14 с насечками и перфорацией для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+          <t>Комплект гладких стекол фар для ВАЗ 2108-21099</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4490</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13069-tormoznye-kolodki-perednie-asp-mensan-dlya-peredneprivodnyh</t>
+          <t>https://motorring.ru/product/21731-diodnyy-fonary-osvescheniya-nomernogo-znaka-lada-kalina</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Тормозные колодки передние ASP Mensan для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
+          <t>Диодный фонарь освещения номерного знака для Лада Калина, Калина 2, Приора, Гранта, Веста</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>790</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13067-tormoznye-kolodki-zadnie-asp-mensan-dlya-lada-priora-kalina</t>
+          <t>https://motorring.ru/product/36559-korpus-pravoy-blok-fary-dlya-lada-vesta</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Тормозные колодки задние ASP Mensan под АБС для Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
+          <t>Корпус правой блок-фары для Лада Веста</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>969</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6987</t>
+          <t>https://motorring.ru/product/21110-diodnye-ptf-lada-priora</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Невентилируемые тормозные диски ASP R13 без насечек и перфорации для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Диодные ПТФ ML Auto Light Technology 3 полосы для Лада Приора</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2890</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37250-tros-scepleniya-asp-lada-largus-reno-logan-sandero</t>
+          <t>https://motorring.ru/product/23179-diodnyy-ptf-belyy-matovii-zadniy-bamper-lada-vesta-granta-liftbek</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Трос сцепления ASP для Лада Ларгус, Рено Логан, Сандеро</t>
+          <t>Диодный ПТФ белый матовый в задний бампер Лада Веста, Гранта лифтбек, Гранта FL лифтбек</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>949</v>
+        <v>690</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13065-tormoznye-kolodki-zadnie-asp-mensan-dlya-peredneprivodnyh</t>
+          <t>https://motorring.ru/product/40485-perednie-fary-stile-audi-q8-povorotnik-dho-lada-granta</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Тормозные колодки задние ASP Mensan для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун без АБС</t>
+          <t>Передние фары в стиле Ауди Q8 с динамическим розжигом ДХО и поворотниками для Лада Гранта</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>949</v>
+        <v>12490</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/19692-komplekt-perednih-tormoznyh-kolodok-asp-vaz-2110-2111-2112</t>
+          <t>https://motorring.ru/product/8507-zadniy-fonary-levyy-seviem-dlya-lada-largus</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Комплект передних тормозных колодок ASP для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
+          <t>Задний фонарь левый СЕВиЕМ для Лада Ларгус</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>769</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13070</t>
+          <t>https://motorring.ru/product/32757-perednie-fary-stile-granty-fl-dlya-lada-granta</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Тормозные колодки передние ASP Mensan для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Передние фары ML в стиле Гранты FL для Лада Гранта</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>669</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13064-tormoznye-kolodki-zadnie-asp-mensan-dlya-vaz-2101-2107-lada</t>
+          <t>https://motorring.ru/product/21126-steklo-pravoe-fary-lada-granta</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Тормозные колодки задние ASP Mensan под тормозные барабаны для ВАЗ 2101-2107, Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Стекло правой фары для Лада Гранта FL</t>
         </is>
       </c>
       <c r="C19" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5256-tyuning-fary-kirghach-chernym-korpusom-lada-priora</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Тюнинг фары с чёрным корпусом (на основе оригинальных) для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21169-steklo-protivotumannoy-fary-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Стекло противотуманной фары для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22575-protivotumannye-fary-diodnye-polosy-restaylingovyy-bamper</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Противотуманные фары диодные 3 полосы в рестайлинговый бампер для Лада Приора седан, Приора 2</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8146-zadniy-fonary-pravyy-seviem-lada-largus</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Задний фонарь правый СЕВиЕМ для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>1090</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28223-shilydik-ladyya-chrom-stile-vesta-dlya-lada-priora</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Шильдик решетки радиатора Ладья хром в стиле Веста с клеевым слоем на решетку радиатора для Лада Приора и на решетку и крышку багажника для Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28443-diodnye-katafoty-stile-dvoynogo-vyhlopa-leksus-3skobki</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Диодные катафоты в стиле двойного выхлопа Лексус Стайл черные с узором 3 скобки и повторителем для Лада Приора 2 седан, хэтчбек</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/38820-kolpachok-stupicy-litoy-disk-serebro-r14-17-lada</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Колпачок ступицы в серебристом цвете с объемным шильдиком на литой диск R15-17 D57мм для Лада Приора, Калина, Калина 2, Гранта, Гранта FL, Ларгус, Ларгус FL, Веста, Икс Рей</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/2798-steklo-protivotumannoy-fary-kirghach-beloe-dlya-vaz-2113-15</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Стекло противотуманной фары Киржач, белое для ВАЗ 2110-2112, 2113-2115, Шевроле Нива до 2009 года</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21140-steklo-levoy-fary-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Стекло левой фары Киржач для ВАЗ 2108-21099</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/34426-universalynaya-rezinovaya-guba-samurai-krasniy-kant</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Универсальная резиновая губа Самурай черная с красным кантом на передний бампер</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21142-steklo-pravoy-fary-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Стекло правой фары Киржач для ВАЗ 2108-21099</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/23180-diodnyy-ptf-krasnii-matovii-zadniy-bamper-lada-vesta-granta-liftb</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Диодный ПТФ красный матовый в задний бампер для Лада Веста, Гранта лифтбек, Гранта FL лифтбек</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36553-korpus-pravoy-blok-fary-dlya-lada-granta-fl</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Корпус правой блок-фары ML для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36552-korpus-levoy-blok-fary-dlya-lada-granta-fl</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Корпус левой блок-фары ML для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/2791-povorotnik-al-belyy-levyy-dlya-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Поворотник левой фары белый для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/35199-universalynaya-rezinovaya-guba-samurai-flourescentniy-kant</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Универсальная резиновая губа Самурай черная с флуоресцентным кантом на передний бампер</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/2778-zadniy-fonary-pravyy-vaz-2106-lada-niva-2121</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Задний фонарь правый для ВАЗ 2106, Лада 4х4 (Нива) 2121</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24153-diodnye-ptf-dvuhcvetniye-analog-lada-priora-shevrole</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ (аналог) двухцветные (бело-синий 6000К и желтый 3000К) для Лада Приора, Шевроле Нива с 2009 г.в., Лада Нива 2123</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20552-svetodiodnye-fonari-klyushki-vaz-2110</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Светодиодные фонари клюшки для ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/32937-komplekt-osnovnyh-nighnih-zadnih-diodnyh-fonarey-largus</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Комплект основных (нижних) задних диодных фонарей для Лада Ларгус, Ларгус FL</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/34427-universalynaya-rezinovaya-guba-samurai-siniy-kant</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Универсальная резиновая губа Самурай черная с синим кантом на передний бампер</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8512-komplekt-far-seviem-lada-largus-reno-logan</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Комплект фар СЕВиЕМ для Лада Ларгус, Рено Логан</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/39065-komplekt-gladkih-stekol-perednih-far-dlya-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Комплект гладких стекол передних фар производства Bosch для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/31248-protivotumannyy-fonary-bamper-dlya-lada-granta-liftbek</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Противотуманный фонарь в бампер для Лада Гранта лифтбек</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/2777-zadniy-fonary-levyy-vaz-2106-lada-niva-2121</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Задний фонарь левый для ВАЗ 2106, Лада 4х4 (Нива) 2121</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/34249-zadnie-svetodiodnye-fonari-tonirovannye-stile-range-rover-niva</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Задние светодиодные тюнинг фонари TheBestPartner в стиле Рэндж Ровера тонированные для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/23948-diodnye-zadnie-fonari-dinamicheskim-povtoritelem-povorota</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Диодные задние фонари с динамическим повторителем поворота на крылья для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6890</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24152-protivotumannye-fary-diodnye-polosy-dvuhcetniye-priora-2</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Противотуманные фары бело-желтые диодные 3 полосы двухцветные (аналог) в рестайлинговый бампер для Лада Приора седан, Приора 2</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/14907-protivotumannye-fary-restaylingovyy-bamper-lada-priora</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Противотуманные фары в рестайлинговый бампер для Лада Приора седан, Приора 2</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20401-universalynaya-rezinovaya-guba-samuray-karbon-peredniy</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Универсальная резиновая губа Самурай под карбон на передний бампер</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40488-komplekt-far-stile-bmv-angelyskimi-glazkami-mtf-priora</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Комплект черных фар в стиле БМВ с ангельскими глазками MTF для Лада Приора</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25987-povtoriteli-povorota-leksus-stayl-miganie-priora</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Динамические повторители поворота темные Лексус Стайл с многоцветным миганием в зеркала для Лада Приора 2</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/35129-dinamicheskie-povtoriteli-povorota-shirokie-strelki-vesta</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Динамические повторители поворота с узором широкие стрелки в зеркала образца 2015 года для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/41508-komplekt-chernyh-diodnyh-fonarey-stile-mersedes-vesta</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Комплект черных задних диодных фонарей в стиле Мерседес Е-класс с бегающим поворотником для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>14790</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/14234-povtoriteli-povorota-diodnye-tonirovannye-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Повторители поворота диодные тонированные для Лада Калина, Приора, Гранта</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20174-zaglushki-stile-dvoynogo-vyhlopa-leksus-stayl-diodami-lada</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Заглушки в стиле двойного выхлопа Лексус Стайл красные с диодами и повторителем для Лада Приора 2 седан, хэтчбек</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/41017-analogovie-chernye-fary-linzoy-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Аналоговые черные фары ML с линзой для Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>16290</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/13282-shilydik-laquo-ladyya-raquo-starogo-obrazca-chernyy-matovyy</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Шильдик Ладья старого образца черный матовый на решетку радиатора для Лада Приора и на решетку и крышку багажника для Гранта, Калина 2</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5532-katafoty-diodnye-zadniy-bamper-lada-priora-sedan-hetchbek</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Катафоты диодные в задний бампер для Лада Приора седан, хэтчбек</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/34286-gladkie-stekla-far-dlya-vaz-2113-2115</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Гладкие стекла фар (пластик) для ВАЗ 2113, 2114, 2115</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20175-zaglushki-stile-dvoynogo-vyhlopa-leksus-stayl-diodami</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Заглушки в стиле двойного выхлопа Лексус Стайл белые с диодами и повторителем для Лада Приора 2 седан, хэтчбек</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1190</v>
       </c>
     </row>
   </sheetData>
@@ -718,7 +1333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,344 +1343,1298 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>219577</v>
+        <v>145575</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13068</t>
+          <t>https://motorring.ru/product/28998-svetodiodnye-zadnie-fonari-tehavtosvet-12v-dlya-vis-pikap</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Тормозные колодки передние ASP Mensan для ВАЗ 2101-2107</t>
+          <t>Светодиодные задние фонари ТехАвтоСвет 12В для ВИС Пикап, ГАЗ 3302</t>
         </is>
       </c>
       <c r="D1" t="n">
-        <v>590</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>219578</v>
+        <v>256559</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13069-tormoznye-kolodki-perednie-asp-mensan-dlya-peredneprivodnyh</t>
+          <t>https://motorring.ru/product/41504-komplekt-gladkih-stekol-far-dlya-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Тормозные колодки передние ASP Mensan для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Гранта, Гранта FL, Приора, Датсун</t>
+          <t>Комплект гладких стекол фар для ВАЗ 2108-21099</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>790</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>219583</v>
+        <v>217463</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13070</t>
+          <t>https://motorring.ru/product/2798-steklo-protivotumannoy-fary-kirghach-beloe-dlya-vaz-2113-15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Тормозные колодки передние ASP Mensan для Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Стекло противотуманной фары Киржач, белое для ВАЗ 2110-2112, 2113-2115, Шевроле Нива до 2009 года</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>669</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>219579</v>
+        <v>217465</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/19692-komplekt-perednih-tormoznyh-kolodok-asp-vaz-2110-2111-2112</t>
+          <t>https://motorring.ru/product/21169-steklo-protivotumannoy-fary-vaz-2110-2112</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Комплект передних тормозных колодок ASP для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
+          <t>Стекло противотуманной фары для ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>769</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>219844</v>
+        <v>247407</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37250-tros-scepleniya-asp-lada-largus-reno-logan-sandero</t>
+          <t>https://motorring.ru/product/38820-kolpachok-stupicy-litoy-disk-serebro-r14-17-lada</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Трос сцепления ASP для Лада Ларгус, Рено Логан, Сандеро</t>
+          <t>Колпачок ступицы в серебристом цвете с объемным шильдиком на литой диск R15-17 D57мм для Лада Приора, Калина, Калина 2, Гранта, Гранта FL, Ларгус, Ларгус FL, Веста, Икс Рей</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>949</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>219572</v>
+        <v>225818</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13065-tormoznye-kolodki-zadnie-asp-mensan-dlya-peredneprivodnyh</t>
+          <t>https://motorring.ru/product/28223-shilydik-ladyya-chrom-stile-vesta-dlya-lada-priora</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Тормозные колодки задние ASP Mensan для ВАЗ 2108-21099, 2110-2112, 2113-2115, Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун без АБС</t>
+          <t>Шильдик решетки радиатора Ладья хром в стиле Веста с клеевым слоем на решетку радиатора для Лада Приора и на решетку и крышку багажника для Гранта, Калина 2</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>949</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>219575</v>
+        <v>250385</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13067-tormoznye-kolodki-zadnie-asp-mensan-dlya-lada-priora-kalina</t>
+          <t>https://motorring.ru/product/13282-shilydik-laquo-ladyya-raquo-starogo-obrazca-chernyy-matovyy</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Тормозные колодки задние ASP Mensan под АБС для Лада Калина, Калина 2, Приора, Гранта, Гранта FL, Датсун</t>
+          <t>Шильдик Ладья старого образца черный матовый на решетку радиатора для Лада Приора и на решетку и крышку багажника для Гранта, Калина 2</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>969</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>219581</v>
+        <v>224184</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13072-tormoznye-kolodki-perednie-asp-mensan-dlya-lada-largus</t>
+          <t>https://motorring.ru/product/21731-diodnyy-fonary-osvescheniya-nomernogo-znaka-lada-kalina</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Тормозные колодки передние ASP Mensan для 16-клапанных Лада Ларгус, Веста</t>
+          <t>Диодный фонарь освещения номерного знака для Лада Калина, Калина 2, Приора, Гранта, Веста</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1190</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>219573</v>
+        <v>217455</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13064-tormoznye-kolodki-zadnie-asp-mensan-dlya-vaz-2101-2107-lada</t>
+          <t>https://motorring.ru/product/21140-steklo-levoy-fary-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Тормозные колодки задние ASP Mensan под тормозные барабаны для ВАЗ 2101-2107, Лада 4х4, Нива Легенд, Нива Тревел, Шевроле Нива</t>
+          <t>Стекло левой фары Киржач для ВАЗ 2108-21099</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1090</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>219582</v>
+        <v>217460</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13071-tormoznye-kolodki-perednie-asp-mensan-dlya-lada-largus</t>
+          <t>https://motorring.ru/product/21142-steklo-pravoy-fary-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Тормозные колодки передние ASP Mensan для 8-клапанных Лада Ларгус</t>
+          <t>Стекло правой фары Киржач для ВАЗ 2108-21099</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>929</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>219576</v>
+        <v>256560</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/24319-tormoznye-kolodki-zadnie-asp-lada-largus</t>
+          <t>https://motorring.ru/product/21163-steklo-protivotumannoy-fary-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Тормозные колодки задние ASP для Лада Ларгус</t>
+          <t>Стекло противотуманной фары Освар для ВАЗ 2108-21099</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1390</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>219492</v>
+        <v>217464</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/13063-tormoznye-barabany-zadnie-chugun-asp-mensan-vaz-2108-21099</t>
+          <t>https://motorring.ru/product/21163-steklo-protivotumannoy-fary-vaz-2108-21099</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Тормозные барабаны задние чугун ASP Mensan для ВАЗ 2108-21099, 2110-2112, 2113-2115, Калина, Калина 2, Гранта, Приора</t>
+          <t>Стекло противотуманной фары Освар для ВАЗ 2108-21099</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2890</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>219741</v>
+        <v>194072</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/37249-tros-privoda-akseleratora-gaza-asp-lada-largus</t>
+          <t>https://motorring.ru/product/14234-povtoriteli-povorota-diodnye-tonirovannye-lada-kalina</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Трос привода акселератора (газа) ASP для 8-клапанных Лада Ларгус</t>
+          <t>Повторители поворота диодные тонированные для Лада Калина, Приора, Гранта</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>769</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>219514</v>
+        <v>224195</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6987</t>
+          <t>https://motorring.ru/product/2777-zadniy-fonary-levyy-vaz-2106-lada-niva-2121</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Невентилируемые тормозные диски ASP R13 без насечек и перфорации для ВАЗ 2108-21099, 2113-2115</t>
+          <t>Задний фонарь левый для ВАЗ 2106, Лада 4х4 (Нива) 2121</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2890</v>
+        <v>890</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>219512</v>
+        <v>224222</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6988-ventiliruemye-tormoznye-diski-asp-2110-r13-bez-nasechek</t>
+          <t>https://motorring.ru/product/2778-zadniy-fonary-pravyy-vaz-2106-lada-niva-2121</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски ASP 2110 R13 без насечек и перфорации для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина</t>
+          <t>Задний фонарь правый для ВАЗ 2106, Лада 4х4 (Нива) 2121</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3090</v>
+        <v>890</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>219511</v>
+        <v>194923</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6990-neventiliruemye-tormoznye-diski-asp-2121-r15-bez-nasechek</t>
+          <t>https://motorring.ru/product/2543-podfarniki-novogo-obrazca-belyy-povorotnik-lada-niva</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Невентилируемые тормозные диски ASP 2121 R15 без насечек и перфорации для Лада 4х4 (Нива) до 2016 г.в., Нива Тревел, Шевроле Нива</t>
+          <t>Подфарники нового образца белый поворотник для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3390</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>219510</v>
+        <v>194925</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/6986</t>
+          <t>https://motorring.ru/product/2543-podfarniki-novogo-obrazca-belyy-povorotnik-lada-niva</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Невентилируемые тормозные диски ASP R13 без насечек и перфорации для ВАЗ 2101-2107</t>
+          <t>Подфарники нового образца белый поворотник для Лада 4х4, Нива Легенд</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2490</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>219516</v>
+        <v>155775</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/700-tormoznye-diski-asp-2112-sport-r14-nasechki-perforaciya</t>
+          <t>https://motorring.ru/product/5532-katafoty-diodnye-zadniy-bamper-lada-priora-sedan-hetchbek</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски ASP 2112 SPORT R14 с насечками и перфорацией для ВАЗ 2110-2112, Лада Гранта, Гранта FL, Калина, Калина 2, Приора, Датсун</t>
+          <t>Катафоты диодные в задний бампер для Лада Приора седан, хэтчбек</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4490</v>
+        <v>629</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>219518</v>
+        <v>223054</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://motorring.ru/product/24313-tormoznye-diski-asp-nasechki-perforaciya-ventiliruemye-lada</t>
+          <t>https://motorring.ru/product/20401-universalynaya-rezinovaya-guba-samuray-karbon-peredniy</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Вентилируемые тормозные диски ASP R15 с насечками и перфорацией для Лада Ларгус, Веста, Икс Рей</t>
+          <t>Универсальная резиновая губа Самурай под карбон на передний бампер</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5290</v>
+        <v>890</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>223053</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/34426-universalynaya-rezinovaya-guba-samurai-krasniy-kant</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Универсальная резиновая губа Самурай черная с красным кантом на передний бампер</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>223057</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20401-universalynaya-rezinovaya-guba-samuray-karbon-peredniy</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Универсальная резиновая губа Самурай под карбон на передний бампер</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>223058</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/34427-universalynaya-rezinovaya-guba-samurai-siniy-kant</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Универсальная резиновая губа Самурай черная с синим кантом на передний бампер</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>223055</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20401-universalynaya-rezinovaya-guba-samuray-karbon-peredniy</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Универсальная резиновая губа Самурай под карбон на передний бампер</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>224253</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/23179-diodnyy-ptf-belyy-matovii-zadniy-bamper-lada-vesta-granta-liftbek</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Диодный ПТФ белый матовый в задний бампер Лада Веста, Гранта лифтбек, Гранта FL лифтбек</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>217473</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/39065-komplekt-gladkih-stekol-perednih-far-dlya-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Комплект гладких стекол передних фар производства Bosch для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>217475</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/39065-komplekt-gladkih-stekol-perednih-far-dlya-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Комплект гладких стекол передних фар производства Bosch для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>224254</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/23180-diodnyy-ptf-krasnii-matovii-zadniy-bamper-lada-vesta-granta-liftb</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Диодный ПТФ красный матовый в задний бампер для Лада Веста, Гранта лифтбек, Гранта FL лифтбек</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>224255</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/31233-protivotumannyy-fonary-bamper-dlya-lada-vesta-lada-granta</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Противотуманный фонарь в бампер для Лада Веста, Лада Гранта лифтбек</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>224257</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/31248-protivotumannyy-fonary-bamper-dlya-lada-granta-liftbek</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Противотуманный фонарь в бампер для Лада Гранта лифтбек</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>223060</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/35199-universalynaya-rezinovaya-guba-samurai-flourescentniy-kant</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Универсальная резиновая губа Самурай черная с флуоресцентным кантом на передний бампер</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>223041</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/2791-povorotnik-al-belyy-levyy-dlya-vaz-2110-2112</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Поворотник левой фары белый для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>224199</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8507-zadniy-fonary-levyy-seviem-dlya-lada-largus</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Задний фонарь левый СЕВиЕМ для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>224226</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8146-zadniy-fonary-pravyy-seviem-lada-largus</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Задний фонарь правый СЕВиЕМ для Лада Ларгус</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>194070</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/25987-povtoriteli-povorota-leksus-stayl-miganie-priora</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Динамические повторители поворота темные Лексус Стайл с многоцветным миганием в зеркала для Лада Приора 2</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>143693</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/35129-dinamicheskie-povtoriteli-povorota-shirokie-strelki-vesta</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Динамические повторители поворота с узором широкие стрелки в зеркала образца 2015 года для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>143751</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20174-zaglushki-stile-dvoynogo-vyhlopa-leksus-stayl-diodami-lada</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Заглушки в стиле двойного выхлопа Лексус Стайл красные с диодами и повторителем для Лада Приора 2 седан, хэтчбек</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>143755</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20174-zaglushki-stile-dvoynogo-vyhlopa-leksus-stayl-diodami-lada</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Заглушки в стиле двойного выхлопа Лексус Стайл красные с диодами и повторителем для Лада Приора 2 седан, хэтчбек</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>143753</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28445-diodnye-katafoty-stile-dvoynogo-vyhlopa-leksus-cherniye</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Диодные катафоты в стиле двойного выхлопа Лексус Стайл черные с узором и повторителем для Лада Приора 2 седан, хэтчбек</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>143757</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28445-diodnye-katafoty-stile-dvoynogo-vyhlopa-leksus-cherniye</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Диодные катафоты в стиле двойного выхлопа Лексус Стайл черные с узором и повторителем для Лада Приора 2 седан, хэтчбек</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>143754</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28443-diodnye-katafoty-stile-dvoynogo-vyhlopa-leksus-3skobki</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Диодные катафоты в стиле двойного выхлопа Лексус Стайл черные с узором 3 скобки и повторителем для Лада Приора 2 седан, хэтчбек</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>143752</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28444-diodnye-katafoty-stile-dvoynogo-vyhlopa-leksus-5skob</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Диодные катафоты в стиле двойного выхлопа Лексус Стайл черные с узором 5 скоб и повторителем для Лада Приора 2 седан, хэтчбек</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>143756</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28444-diodnye-katafoty-stile-dvoynogo-vyhlopa-leksus-5skob</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Диодные катафоты в стиле двойного выхлопа Лексус Стайл черные с узором 5 скоб и повторителем для Лада Приора 2 седан, хэтчбек</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>143750</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28443-diodnye-katafoty-stile-dvoynogo-vyhlopa-leksus-3skobki</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Диодные катафоты в стиле двойного выхлопа Лексус Стайл черные с узором 3 скобки и повторителем для Лада Приора 2 седан, хэтчбек</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>201805</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/14907-protivotumannye-fary-restaylingovyy-bamper-lada-priora</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Противотуманные фары в рестайлинговый бампер для Лада Приора седан, Приора 2</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>145329</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20175-zaglushki-stile-dvoynogo-vyhlopa-leksus-stayl-diodami</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Заглушки в стиле двойного выхлопа Лексус Стайл белые с диодами и повторителем для Лада Приора 2 седан, хэтчбек</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>143694</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/35375-povtoriteli-zerkal-plazma-obrazca-2019-goda-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Повторители зеркал плазма в зеркала образца 2019 года для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>217450</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21125-steklo-levoy-fary-lada-granta</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Стекло левой фары для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>217451</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21126-steklo-pravoe-fary-lada-granta</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Стекло правой фары для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>201774</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24152-protivotumannye-fary-diodnye-polosy-dvuhcetniye-priora-2</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Противотуманные фары бело-желтые диодные 3 полосы двухцветные (аналог) в рестайлинговый бампер для Лада Приора седан, Приора 2</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>247464</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36553-korpus-pravoy-blok-fary-dlya-lada-granta-fl</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Корпус правой блок-фары ML для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>247461</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36552-korpus-levoy-blok-fary-dlya-lada-granta-fl</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Корпус левой блок-фары ML для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>158512</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24153-diodnye-ptf-dvuhcvetniye-analog-lada-priora-shevrole</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ (аналог) двухцветные (бело-синий 6000К и желтый 3000К) для Лада Приора, Шевроле Нива с 2009 г.в., Лада Нива 2123</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>143738</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/22575-protivotumannye-fary-diodnye-polosy-restaylingovyy-bamper</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Противотуманные фары диодные 3 полосы в рестайлинговый бампер для Лада Приора седан, Приора 2</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>158511</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/21110-diodnye-ptf-lada-priora</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Диодные ПТФ ML Auto Light Technology 3 полосы для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>247460</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36558-korpus-levoy-blok-fary-dlya-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Корпус левой блок-фары для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>247463</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/36559-korpus-pravoy-blok-fary-dlya-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Корпус правой блок-фары для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>136978</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8512-komplekt-far-seviem-lada-largus-reno-logan</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Комплект фар СЕВиЕМ для Лада Ларгус, Рено Логан</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>136987</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8512-komplekt-far-seviem-lada-largus-reno-logan</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Комплект фар СЕВиЕМ для Лада Ларгус, Рено Логан</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>145494</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/34249-zadnie-svetodiodnye-fonari-tonirovannye-stile-range-rover-niva</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Задние светодиодные тюнинг фонари TheBestPartner в стиле Рэндж Ровера тонированные для Лада 4х4, Нива Легенд</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>213589</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/20552-svetodiodnye-fonari-klyushki-vaz-2110</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Светодиодные фонари клюшки для ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>143748</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/23948-diodnye-zadnie-fonari-dinamicheskim-povtoritelem-povorota</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Диодные задние фонари с динамическим повторителем поворота на крылья для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>6890</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>187236</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/32757-perednie-fary-stile-granty-fl-dlya-lada-granta</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Передние фары ML в стиле Гранты FL для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>224170</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/32937-komplekt-osnovnyh-nighnih-zadnih-diodnyh-fonarey-largus</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Комплект основных (нижних) задних диодных фонарей для Лада Ларгус, Ларгус FL</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>223839</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/41017-analogovie-chernye-fary-linzoy-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Аналоговые черные фары ML с линзой для Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>16290</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>223862</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/41017-analogovie-chernye-fary-linzoy-shevrole-niva</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Аналоговые черные фары ML с линзой для Шевроле Нива</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>16290</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>187235</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40485-perednie-fary-stile-audi-q8-povorotnik-dho-lada-granta</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Передние фары в стиле Ауди Q8 с динамическим розжигом ДХО и поворотниками для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>226468</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/5256-tyuning-fary-kirghach-chernym-korpusom-lada-priora</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Тюнинг фары с чёрным корпусом (на основе оригинальных) для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>223884</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40488-komplekt-far-stile-bmv-angelyskimi-glazkami-mtf-priora</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Комплект черных фар в стиле БМВ с ангельскими глазками MTF для Лада Приора</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>224171</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/41509-komplekt-krasnyh-diodnyh-fonarey-stile-mersedes-vesta</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Комплект красных задних диодных фонарей в стиле Мерседес Е-класс с бегающим поворотником для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>14790</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>224172</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/41508-komplekt-chernyh-diodnyh-fonarey-stile-mersedes-vesta</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Комплект черных задних диодных фонарей в стиле Мерседес Е-класс с бегающим поворотником для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>14790</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>217472</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/34286-gladkie-stekla-far-dlya-vaz-2113-2115</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Гладкие стекла фар (пластик) для ВАЗ 2113, 2114, 2115</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>217474</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/34286-gladkie-stekla-far-dlya-vaz-2113-2115</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Гладкие стекла фар (пластик) для ВАЗ 2113, 2114, 2115</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1390</v>
       </c>
     </row>
   </sheetData>

--- a/output_data/output.xlsx
+++ b/output_data/output.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,211 +425,2371 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/potolok-zhestkiy-obshivka-potolka-oka-chernyy-1743799697/</t>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_na_shevrole_niva_2123_perednie_30/</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Потолок жесткий (обшивка потолка) Ока - черный.</t>
+          <t>Пружины Технорессор на Шевроле Нива 2123, передние (+30)</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>7086</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/car-interior-trim-1477880025/</t>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210810priora_kalina_granta_zadnie_120/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Потолок приора черный ромб 2170</t>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние (-120)</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4942</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/chernaya-zhestkaya-obivka-potolka-dlya-lada-kalina-kalina-2-granta-fl-hetchbek-1688847322/</t>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_perednie_fobos_sport_90mm/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Черная жесткая обивка потолка для Лада Калина, Калина 2, Гранта fl хэтчбек</t>
+          <t>Пружины подвески 2110 передние Фобос Спорт -90мм</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8662</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/lada-image-car-interior-trim-1599964531/</t>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2170/pruzhiny_fobos_priora_2170_perednie_25_mm/</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Потолок для ВАЗ 2109, ВАЗ 2114 черный BLACK EDITION</t>
+          <t>Пружины "Фобос " Priora 2170 передние -25 мм</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4564</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/obshivki-karty-dverey-niva-romb-dlya-vaz-21213-1380427133/</t>
+          <t>https://motorring.ru/product/33910-prughiny-zad-podveski-tehnoressor-zanizh-50-shevy</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Обшивки карты дверей НИВА РОМБ, для ВАЗ 21213</t>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 50 мм для Шевроле Нива, Лада Нива Тревел</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7326</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/chernyy-potolok-serii-black-edition-dlya-avtomobilya-vaz-2110-1127063406/</t>
+          <t>https://motorring.ru/product/33821-prughiny-zadney-podveski-tehnoressor-zanigh-70-2101-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Черный потолок серии BLACK EDITION-для Автомобиля ВАЗ-2110</t>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 70мм для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4642</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/potolok-salona-dlya-lada-granta-lada-granta-fl-sedan-chernyy-1721525633/</t>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_zadnie_fobos_sport_50mm/</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Потолок салона для Лада Гранта, Лада Гранта ФЛ Седан Черный</t>
+          <t>Пружины подвески 2110 задние Фобос Спорт -50мм</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5234</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/chernyy-zhestkiy-potolok-dlya-vaz-2112-1644453676/</t>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_fobos_vaz_2110_peremennyj_shag_zadnie/</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Черный жесткий потолок для ВАЗ 2112</t>
+          <t>Пружины "Фобос" ВАЗ-2110 переменный шаг задние</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4847</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/chernyy-zhestkiy-potolok-lada-priora-sedan-lyuks-vaz-2170-obivka-kryshi-art-21700-5702012-10-1703099360/</t>
+          <t>https://motorring.ru/product/33879-prughiny-zad-podveski-tehnoressor-zavish-20-vesta</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Черный жесткий потолок Лада Приора седан Люкс ВАЗ 2170 обивка крыши арт 21700-5702012-10 штатная установка</t>
+          <t>Пружины задней подвески Технорессор с завышением 20мм для Лада Веста</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5044</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/fabrika-tyuninga-car-interior-trim-1547093858/</t>
+          <t>https://motorring.ru/product/10470-prughiny-zadney-podveski-tehnoressor-50-lada-vesta</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Черный потолок на LADA Priora / Хэтчбек 2172</t>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 50мм для Лада Веста</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4944</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/chernyy-zhestkiy-potolok-vaz-2121-21213-dlya-3-dvernoy-lada-4h4-niva-do-2020-g-v-1653810732/</t>
+          <t>https://33sport.ru/catalog/proizvoditeli/Fobos_r/pruzhiny_podveski_lada_vesta_zadnie_usilennye_fobos/</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Черный жесткий потолок ВАЗ 2121 21213 для 3-дверной Лада 4х4 (Нива) до 2020 г.в.</t>
+          <t>Пружины подвески Лада Веста задние усиленные Фобос (8450006758)</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7567</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/obshivka-dverey-lyuks-kozhzam-s-tkanevoy-vstavkoy-dlya-vaz-2123-shevrole-niva-582613602/</t>
+          <t>https://motorring.ru/product/8708-prughiny-zadney-podveski-tehnoressor-bez-zanigheniya-kalina</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Обшивка дверей ЛЮКС кожзам с тканевой вставкой для ВАЗ 2123 Шевроле Нива</t>
+          <t>Пружины задней подвески Технорессор серии Стандарт без занижения для Лада Калина</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12320</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/chernaya-zhestkaya-obivka-potolka-potolok-salona-dlya-lada-vaz-21099-vaz-2115-1688847494/</t>
+          <t>https://motorring.ru/product/33796-prughiny-peredney-podveski-tehnoressor-zavysh-20mm-2190-fl</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Черная жесткая обивка потолка (потолок салона) для Лада ВАЗ 21099, ВАЗ 2115</t>
+          <t>Пружины передней подвески Технорессор с завышением 20мм для Лада Гранта FL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10239</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/chernyy-potolok-dlya-vaz-2105-2107-1512685920/</t>
+          <t>https://motorring.ru/product/33892-prughiny-peredney-podveski-tehnoressor-30-2123</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Черный потолок для ВАЗ 2105, 2107</t>
+          <t>Пружины передней подвески Технорессор Драйв с занижением 30мм для Шевроле Нива, Лада Нива Тревел</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5730</v>
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_priora_kalina_bochka_perednie_30/</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Приора, Калина (бочка)  передние (-30)</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16253-perednie-prughiny-fobos-sport-zanigheniem-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт с занижением 70 мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_perednie_70/</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 передние(-70)</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33875-prughiny-zad-podveski-tehnoressor-zanij-70-vesta</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв c занижением 70мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_perednie_fobos_sport_70mm/</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 передние Фобос Спорт -70мм</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3345-perednie-prughiny-fobos-sport-zanigheniem-40mm-dlya-vaz</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт с занижением 40мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6628-prughiny-zadney-podveski-tehnoressor-90mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 90мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33813-prughiny-pered-podveski-tehnoressor-zanij-70-vesta</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 70 мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_perednie_30/</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 передние(-30)</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_perednie_fobos_sport_-25mm_-2101-2902712/</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 передние Фобос Спорт -25мм (2101-2902712)</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4361-prughiny-perednie-fobos-standart-bez-zanigheniya-dlya-lada</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос стандарт (без занижения) для Лада Приора, Приора 2</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4567-zadnie-prughiny-fobos-standart-peremennyy-shag-kalina</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Задние пружины Фобос Стандарт переменный шаг без занижения для Лада Калина, Калина 2</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16278-zadnie-prughiny-fobos-standart-bez-zanigheniya-granta</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Задние пружины Фобос стандарт без занижения для Лада Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33805-prughiny-peredney-podveski-tehnoressor-50-shevy</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор с завышением 50мм для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33880-prughiny-peredney-podveski-tehnoressor-drive-120-2101</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 120мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33672-prughiny-peredney-podveski-tehnoressor-zavisheniem-20mm-2190</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор с завышением 20мм для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/proizvoditeli/Fobos_r/pruzhiny_podveski_lada_vesta_perednie_fobos_-8450006725/</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Пружины подвески Лада Веста передние Фобос (8450006725)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vesta_perednie_50/</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Vesta передние, (-50)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10467-prughiny-peredney-podveski-tehnoressor-30-lada-vesta</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 30мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6627-prughiny-peredney-podveski-tehnoressor-90mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 90мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10469-prughiny-zadney-podveski-tehnoressor-30-lada-vesta</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 30мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_na_shevrole_niva_2123_zadnie_30/</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор на Шевроле Нива 2123, задние (+30)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_zadnie_fobos_sport_-70mm_-2101-2912712/</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 задние Фобос Спорт -70мм (2101-2912712)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33869-prughiny-peredney-podveski-tehnoressor-drive-30-2101</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 30мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3346-perednie-prughiny-fobos-sport-zanigheniem-50mm-vaz</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт с занижением 50мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16263-prughiny-perednie-fobos-standart-bez-zanigheniya-dlya-vaz</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос Стандарт без занижения для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6621-prughiny-peredney-podveski-tehnoressor-70mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 70мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_zadnie_fobos_sport_25mm/</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 задние Фобос Спорт -25мм</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3343-perednie-prughiny-fobos-sport-zanighenie-25mm-2108-21099</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт занижение -25мм на 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33822-prughiny-zadney-podveski-tehnoressor-zanigh-120-2101-07</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 120мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3339-perednie-prughiny-fobos-sport-zanighenie-25mm-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт занижение 25мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16264</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Пружины задние Фобос Стандарт без занижения для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28996-prughiny-peredney-podveski-tehnoressor-bez-zanigheniya-vaz</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Стандарт без занижения для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16247-prughiny-perednie-fobos-sport-zanigheniem-50-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос Спорт с занижением 50 мм для Лада Калина, Калина 2</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/proizvoditeli/Fobos_r/pruzhiny_podveski_lada_vesta_sw_cross_zadnie_usilennye_fobos_-8450031060/</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Пружины подвески Лада Веста SW Cross задние усиленные Фобос (8450031060)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_zadnie_50/</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 задние (-50)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33797-usilennye-prughiny-pered-podveski-tehnoressor-vaz-2101-07</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Усиленные пружины передней подвески Технорессор серии Стандарт без завышения для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8702-prughiny-zadney-podveski-tehnoressor-bez-zanigheniya-dlya</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Стандарт без занижения для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33794-prughiny-peredney-podveski-tehnoressor-drive-90mm-2190-fl</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 90мм для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_zadnie_fobos_sport_-25mm_-2101-2912712/</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 задние Фобос Спорт -25мм (2101-2912712)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33667-usilennye-prughiny-peredney-podveski-tehnoressor-lada-granta</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Усиленные пружины передней подвески Технорессор серии Стандарт без занижения для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33825-prughiny-zadney-podveski-tehnoressor-drift-2101-07</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Дрифт с занижением 50мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6669-prughiny-peredney-podveski-tehnoressor-50-granta</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 50мм для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/tekhnoressor_priora_kalina_bochka_perednie_bez_zanizheniya/</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Приора, Калина (бочка) передние (без занижения)</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vesta_zadnie_30/</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Vesta задние, (-30)</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4358-perednie-prughiny-fobos-standart-bez-zanigheniya-vaz</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос стандарт без занижения для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33877-prughiny-zad-podveski-tehnoressor-standart-vesta</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Стандарт без занижения для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_perednie_vaz_2123_shevrole_niva_50/</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Пружины ТЕХНОРЕССОР Передние ВАЗ 2123 Шевроле Нива (+50)</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4356-zadnie-prughiny-fobos-standart-bez-zanigheniya-vaz</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Задние пружины Фобос стандарт без занижения для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16272-prughiny-perednie-fobos-standartnye-bez-zanigheniya-lada</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос стандартные без занижения для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/niva/pruzhiny_fobos_vaz_2121_niva_peremennyj_shag_perednie/</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Пружины "Фобос" ВАЗ-2121 НИВА переменный шаг передние</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33819-prughiny-zadney-podveski-tehnoressor-zanigh-50-2101-07</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 50мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_perednie_fobos_sport_40mm/</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 передние Фобос Спорт -40мм</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10468-prughiny-peredney-podveski-tehnoressor-50mm-lada-vesta</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 50мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6625-prughiny-peredney-podveski-tehnoressor-120mm-2108</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 120мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33691-prughiny-peredney-podveski-tehnoressor-drive-50mm-2190-fl</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 50мм для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33878-usil-prughiny-zad-podveski-tehnoressor-bez-vesta</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Усиленные пружины задней подвески Технорессор серии Стандарт без занижения для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6667-prughiny-peredney-podveski-tehnoressor-30-granta</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 30 мм для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33809-prughiny-pered-podveski-tehnoressor-20-10-12</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор с завышением 20мм для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33684-usil-prughiny-peredney-podveski-tehnoressor-zavisheniem-20mm-2190</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Усиленные пружины передней подвески Технорессор с завышением 20мм для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_priora_kalina_bochka_perednie_90/</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Приора, Калина (бочка)  передние (-90)</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_priora_kalina_bochka_perednie_50/</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Приора, Калина (бочка)  передние (-50)</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4357-zadnie-prughiny-fobos-standart-bez-zanigheniya-vaz</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Задние пружины Фобос стандарт без занижения для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33823-prughiny-zadney-podveski-tehnoressor-zanigh-120-2101-07</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор с завышением 20мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6671-prughiny-peredney-podveski-tehnoressor-70mm-lada-granta</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 70мм для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4359-prughiny-fobos-standart-vaz-2110-2112-perednie-bez</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос стандарт без занижения для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16248</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос Спорт с занижением 70 мм для Лада Калина, Калина 2</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_perednie_fobos_sport_50mm/</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 передние Фобос Спорт -50мм</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/proizvoditeli/Fobos_r/pruzhiny_podveski_lada_vesta_sw_cross_zadnie_fobos_-8450031060/</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Пружины подвески Лада Веста SW Cross задние Фобос (8450031060)</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33817-prughiny-zadney-podveski-tehnoressor-zanigh-30-2101-07</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 30мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_vaz_210810_perednie_90/</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2108/10 передние (-90)</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2170/pruzhiny_fobos_priora_2170_perednie_40_mm/</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Пружины "Фобос " Priora 2170 передние -40 мм</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vaz_2101-07_zadnie_-120/</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2101-07 задние (-120)</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3341-prughiny-perednie-fobos-sport-zanigheniem-50-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос Спорт с занижением 50 мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16255-zadnie-prughiny-fobos-sport-zanigheniem-70-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Задние пружины Фобос Спорт с занижением 70 мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vesta_zadnie_50/</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Vesta задние, (-50)</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210810priora_kalina_granta_zadnie_90/</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние (-90)</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_priora-_kalina-_granta_-bochka-_perednie_-20/</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Приора, Калина, Гранта (бочка)  передние (+20)</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_zadnie_fobos_sport_-50mm_-2101-2912712/</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 задние Фобос Спорт -50мм (2101-2912712)</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6622-prughiny-zadney-podveski-tehnoressor-70mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 70мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33828-prughiny-zadney-podveski-tehnoressor-zavish-20-2110-12</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор с завышением 20мм для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_2108_10_priora_kalina_granta_zadnie_peremennyy_shag/</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vaz_2101-2107_perednie-90/</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2101-2107 передние(-90)</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6624-prughiny-zadney-podveski-tehnoressor-50mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 50мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16266-prughiny-zadnie-fobos-sport-zanighenie-70mm-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Пружины задние Фобос Спорт с занижением 70 мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33871-prughiny-peredney-podveski-tehnoressor-drive-50-2101</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 50мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210810priora_kalina_granta_zadnie_50/</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние (-50)</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6673-prughiny-peredney-podveski--120mm-dlya-lada-granta</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 120мм для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33876-prughiny-peredney-podveski-tehnoressor-drive-70-2101</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 70мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_zadnie_70/</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 задние (-70)</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33873-prughiny-peredney-podveski-tehnoressor-drive-90-2101</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 90мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_perednie_fobos_sport_-70mm_-2101-2902712/</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 передние Фобос Спорт -70мм (2101-2902712)</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33692-prughiny-peredney-podveski-tehnoressor-drive-30mm-2190-fl</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 30мм для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>6290</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_priora_kalina_bochka_perednie_70/</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Приора, Калина (бочка)  передние (-70)</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28995-prughiny-zadney-podveski-tehnoressor-bez-zanigheniya-2101</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Стандарт без занижения для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_zadnie_30/</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 задние (-30)</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_vaz_210810_perednie_120/</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2108/10 передние (-120)</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_perednie_fobos_sport_-50mm_-2101-2902712/</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 передние Фобос Спорт -50мм (2101-2902712)</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoresor_vaz_2101-07_perednie_-drift-_fioletovyy_-50mm/</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Пружины Техноресор ВАЗ 2101-07 передние (дрифт, фиолетовый -50мм)</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_zadnie_fobos_sport_70mm/</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 задние Фобос Спорт -70мм</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_vaz_210810_perednie_70/</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2108/10 передние (-70)</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_zadnie_shevrole_niva_50/</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Пружины ТЕХНОРЕССОР Задние Шевроле Нива 2123 (+50)</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3340-prughiny-zadnie-fobos-sport-zanigheniem-50-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Пружины задние Фобос Спорт с занижением 50 мм на ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/niva/pruzhiny_fobos_vaz_2121_niva_peremennyj_shag_zadnie/</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Пружины "Фобос" ВАЗ-2121 НИВА переменный шаг задние</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33798-usilennye-prughiny-pered-podveski-tehnoressor-20-vaz-2101-07</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Усиленные пружины передней подвески Технорессор с завышением 20мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3347-zadnie-prughiny-fobos-sport-zanigheniem-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Задние пружины Фобос Спорт с занижением 50 мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3344-zadnie-prughiny-fobos-sport-zanigheniem-40mm-vaz-2108</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Задние пружины Фобос Спорт с занижением 40мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33795-prughiny-peredney-podveski-tehnoressor-standart-2190-fl</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Стандарт без занижения для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_2108_10_priora_kalina_granta_zadnie_20/</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние (+20)</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_zadnie_fobos_sport_90mm/</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 задние Фобос Спорт -90мм</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4562-perednie-prughiny-fobos-sport-zanigheniem-40-lada-kalina</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт с занижением 40 мм для Лада Калина, Калина 2</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33802-prughiny-peredney-podveski-tehnoressor-drift-50-01-07</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Дрифт с занижением 50мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33807-prughiny-pered-podveski-tehnoressor-20-08-99</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор с завышением 20мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6675-prughiny-peredney-podveski-90mm-dlya-lada-granta</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 90мм для Лада Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_perednie_s_peremennym_shagom_fobos_-21010-2902712/</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 передние с переменным шагом Фобос (21010-2902712)</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8701-prughiny-peredney-podveski-tehnoressor-bez-zanigheniya-2108</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Стандарт без занижения для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210810priora_kalina_granta_zadnie_30/</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние (-30)</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoresor_vaz_2101-07_zadnie_-drift-_fioletovyy_-50mm/</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Пружины Техноресор ВАЗ 2101-07 задние (дрифт, фиолетовый -50мм)</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6626-prughiny-zadney-podveski-tehnoressor-120mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 120мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_zadnie_fobos_sport_40mm/</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 задние Фобос Спорт -40мм</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16262-prughiny-perednie-fobos-sport-zanigheniem-70mm-dlya-vaz</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос Спорт с занижением 70мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/24988-prughina-peredney-podveski-fobos-lada-iks-rey</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Фобос усиленные для Лада Икс Рей</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33820-prughiny-zadney-podveski-tehnoressor-zanigh-90-2101-07</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 90мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33826-prughiny-zadney-podveski-tehnoressor-zavish-20mm-2101-07</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Усиленные пружины задней подвески Технорессор серии Стандарт с завышением 20мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33909-prughiny-zad-podveski-tehnoressor-zanizh-30-shevy</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор с занижением 30 мм для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40190-usil-prughiny-peredney-podveski-tehnoressor-bez-zanigheniya-2110</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Усиленные пружины передней подвески Технорессор серии Стандарт без занижения для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33824-prughiny-zadney-podveski-tehnoressor-standart-2101-07</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Усиленные пружины задней подвески Технорессор серии Стандарт без занижения для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_vaz_210810_perednie_30/</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2108/10 передние (-30)</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vesta_perednie_30/</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Vesta передние, (-30)</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4560</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт с занижением 25 мм для Лада Калина, Калина 2</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3338-prughiny-zadnie-dlya-vaz-2101-07-sport-zanighenie-25mm</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Пружины задние Фобос Спорт с занижением 25мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6629-prughiny-peredney-podveski-tehnoressor-30mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 30мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_fobos_vaz_2110_peremennyj_shag_perednie/</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Пружины "Фобос" ВАЗ-2110 переменный шаг передние</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_vaz_210810_perednie_50/</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2108/10 передние (-50)</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33815-prughiny-pered-podveski-tehnoressor-zavish-20-vesta</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор с завышением 20 мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6623-prughiny-peredney-podveski-tehnoressor-50mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 50мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/proizvoditeli/Fobos_r/pruzhiny_podveski_lada_xray_perednie_usilennye_fobos_-550209371r/</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Пружины подвески Лада Xray передние усиленные Фобос (550209371R)</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210810priora_kalina_granta_zadnie_70/</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние (-70)</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_perednie_50/</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 передние(-50)</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6630-prughiny-zadney-podveski-tehnoressor-30mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 30мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_perednie_fobos_sport_25mm/</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 передние Фобос Спорт -25мм</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33814-prughiny-pered-podveski-tehnoressor-bez-zanij-vesta</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Стандрат без занижения для Лада Веста</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3342-zadnie-prughiny-fobos-sport-zanighenie-25mm-vaz-2108</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Задние пружины Фобос Спорт занижение -25мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33709-prughiny-peredney-podveski-tehnoressor-drive-70mm-2190-fl</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 70мм для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>5890</v>
       </c>
     </row>
   </sheetData>
@@ -643,7 +2803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,283 +2812,4719 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/chernyy-potolok-dlya-vaz-2105-2107-1512685920/</t>
-        </is>
+      <c r="A1" t="n">
+        <v>201936</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/chernyy-potolok-dlya-vaz-2105-2107-1512685920/</t>
+          <t>https://motorring.ru/product/24988-prughina-peredney-podveski-fobos-lada-iks-rey</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Черный потолок для ВАЗ 2105, 2107</t>
+          <t>Пружины передней подвески Фобос усиленные для Лада Икс Рей</t>
         </is>
       </c>
       <c r="D1" t="n">
-        <v>5730</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/lada-image-car-interior-trim-1599964531/</t>
-        </is>
+      <c r="A2" t="n">
+        <v>201873</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/lada-image-car-interior-trim-1599964531/</t>
+          <t>https://motorring.ru/product/16272-prughiny-perednie-fobos-standartnye-bez-zanigheniya-lada</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Потолок для ВАЗ 2109, ВАЗ 2114 черный BLACK EDITION</t>
+          <t>Пружины передние Фобос стандартные без занижения для Лада Гранта</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4564</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/chernaya-zhestkaya-obivka-potolka-potolok-salona-dlya-lada-vaz-21099-vaz-2115-1688847494/</t>
-        </is>
+      <c r="A3" t="n">
+        <v>201871</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/chernaya-zhestkaya-obivka-potolka-potolok-salona-dlya-lada-vaz-21099-vaz-2115-1688847494/</t>
+          <t>https://motorring.ru/product/4361-prughiny-perednie-fobos-standart-bez-zanigheniya-dlya-lada</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Черная жесткая обивка потолка (потолок салона) для Лада ВАЗ 21099, ВАЗ 2115</t>
+          <t>Пружины передние Фобос стандарт (без занижения) для Лада Приора, Приора 2</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10239</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/chernyy-potolok-serii-black-edition-dlya-avtomobilya-vaz-2110-1127063406/</t>
-        </is>
+      <c r="A4" t="n">
+        <v>201858</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/chernyy-potolok-serii-black-edition-dlya-avtomobilya-vaz-2110-1127063406/</t>
+          <t>https://motorring.ru/product/4358-perednie-prughiny-fobos-standart-bez-zanigheniya-vaz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Черный потолок серии BLACK EDITION-для Автомобиля ВАЗ-2110</t>
+          <t>Передние пружины Фобос стандарт без занижения для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4642</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/chernyy-zhestkiy-potolok-lada-priora-sedan-lyuks-vaz-2170-obivka-kryshi-art-21700-5702012-10-1703099360/</t>
-        </is>
+      <c r="A5" t="n">
+        <v>201874</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/chernyy-zhestkiy-potolok-lada-priora-sedan-lyuks-vaz-2170-obivka-kryshi-art-21700-5702012-10-1703099360/</t>
+          <t>https://motorring.ru/product/4356-zadnie-prughiny-fobos-standart-bez-zanigheniya-vaz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Черный жесткий потолок Лада Приора седан Люкс ВАЗ 2170 обивка крыши арт 21700-5702012-10 штатная установка</t>
+          <t>Задние пружины Фобос стандарт без занижения для ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5044</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/potolok-zhestkiy-obshivka-potolka-oka-chernyy-1743799697/</t>
-        </is>
+      <c r="A6" t="n">
+        <v>201869</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/potolok-zhestkiy-obshivka-potolka-oka-chernyy-1743799697/</t>
+          <t>https://motorring.ru/product/4567-zadnie-prughiny-fobos-standart-peremennyy-shag-kalina</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Потолок жесткий (обшивка потолка) Ока - черный.</t>
+          <t>Задние пружины Фобос Стандарт переменный шаг без занижения для Лада Калина, Калина 2</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7086</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/chernyy-zhestkiy-potolok-dlya-vaz-2112-1644453676/</t>
-        </is>
+      <c r="A7" t="n">
+        <v>201872</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/chernyy-zhestkiy-potolok-dlya-vaz-2112-1644453676/</t>
+          <t>https://motorring.ru/product/16278-zadnie-prughiny-fobos-standart-bez-zanigheniya-granta</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Черный жесткий потолок для ВАЗ 2112</t>
+          <t>Задние пружины Фобос стандарт без занижения для Лада Гранта, Гранта FL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4847</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/potolok-salona-dlya-lada-granta-lada-granta-fl-sedan-chernyy-1721525633/</t>
-        </is>
+      <c r="A8" t="n">
+        <v>201865</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/potolok-salona-dlya-lada-granta-lada-granta-fl-sedan-chernyy-1721525633/</t>
+          <t>https://motorring.ru/product/4357-zadnie-prughiny-fobos-standart-bez-zanigheniya-vaz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Потолок салона для Лада Гранта, Лада Гранта ФЛ Седан Черный</t>
+          <t>Задние пружины Фобос стандарт без занижения для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5234</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/chernaya-zhestkaya-obivka-potolka-dlya-lada-kalina-kalina-2-granta-fl-hetchbek-1688847322/</t>
-        </is>
+      <c r="A9" t="n">
+        <v>201866</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/chernaya-zhestkaya-obivka-potolka-dlya-lada-kalina-kalina-2-granta-fl-hetchbek-1688847322/</t>
+          <t>https://motorring.ru/product/4358-perednie-prughiny-fobos-standart-bez-zanigheniya-vaz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Черная жесткая обивка потолка для Лада Калина, Калина 2, Гранта fl хэтчбек</t>
+          <t>Передние пружины Фобос стандарт без занижения для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8662</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/fabrika-tyuninga-car-interior-trim-1547093858/</t>
-        </is>
+      <c r="A10" t="n">
+        <v>201868</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/fabrika-tyuninga-car-interior-trim-1547093858/</t>
+          <t>https://motorring.ru/product/4359-prughiny-fobos-standart-vaz-2110-2112-perednie-bez</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Черный потолок на LADA Priora / Хэтчбек 2172</t>
+          <t>Пружины передние Фобос стандарт без занижения для ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4944</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/chernyy-zhestkiy-potolok-vaz-2121-21213-dlya-3-dvernoy-lada-4h4-niva-do-2020-g-v-1653810732/</t>
-        </is>
+      <c r="A11" t="n">
+        <v>145472</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/chernyy-zhestkiy-potolok-vaz-2121-21213-dlya-3-dvernoy-lada-4h4-niva-do-2020-g-v-1653810732/</t>
+          <t>https://motorring.ru/product/4356-zadnie-prughiny-fobos-standart-bez-zanigheniya-vaz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Черный жесткий потолок ВАЗ 2121 21213 для 3-дверной Лада 4х4 (Нива) до 2020 г.в.</t>
+          <t>Задние пружины Фобос стандарт без занижения для ВАЗ 2110-2112</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7567</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/car-interior-trim-1477880025/</t>
-        </is>
+      <c r="A12" t="n">
+        <v>202027</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/car-interior-trim-1477880025/</t>
+          <t>https://motorring.ru/product/16263-prughiny-perednie-fobos-standart-bez-zanigheniya-dlya-vaz</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Потолок приора черный ромб 2170</t>
+          <t>Пружины передние Фобос Стандарт без занижения для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4942</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/obshivki-karty-dverey-niva-romb-dlya-vaz-21213-1380427133/</t>
-        </is>
+      <c r="A13" t="n">
+        <v>201935</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/obshivki-karty-dverey-niva-romb-dlya-vaz-21213-1380427133/</t>
+          <t>https://motorring.ru/product/16264</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Обшивки карты дверей НИВА РОМБ, для ВАЗ 21213</t>
+          <t>Пружины задние Фобос Стандарт без занижения для ВАЗ 2101-2107</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7326</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/obshivka-dverey-lyuks-kozhzam-s-tkanevoy-vstavkoy-dlya-vaz-2123-shevrole-niva-582613602/</t>
-        </is>
+      <c r="A14" t="n">
+        <v>201998</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/obshivka-dverey-lyuks-kozhzam-s-tkanevoy-vstavkoy-dlya-vaz-2123-shevrole-niva-582613602/</t>
+          <t>https://motorring.ru/product/8701-prughiny-peredney-podveski-tehnoressor-bez-zanigheniya-2108</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Обшивка дверей ЛЮКС кожзам с тканевой вставкой для ВАЗ 2123 Шевроле Нива</t>
+          <t>Пружины передней подвески Технорессор серии Стандарт без занижения для ВАЗ 2108-21099, 2113-2115</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12320</v>
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>202001</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8708-prughiny-zadney-podveski-tehnoressor-bez-zanigheniya-kalina</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Стандарт без занижения для Лада Калина</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>201916</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/8702-prughiny-zadney-podveski-tehnoressor-bez-zanigheniya-dlya</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Стандарт без занижения для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>201999</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33814-prughiny-pered-podveski-tehnoressor-bez-zanij-vesta</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Стандрат без занижения для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>201917</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33877-prughiny-zad-podveski-tehnoressor-standart-vesta</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Стандарт без занижения для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>201900</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33879-prughiny-zad-podveski-tehnoressor-zavish-20-vesta</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор с завышением 20мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>201967</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33815-prughiny-pered-podveski-tehnoressor-zavish-20-vesta</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор с завышением 20 мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>201995</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33809-prughiny-pered-podveski-tehnoressor-20-10-12</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор с завышением 20мм для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>187444</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33798-usilennye-prughiny-pered-podveski-tehnoressor-20-vaz-2101-07</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Усиленные пружины передней подвески Технорессор с завышением 20мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>187451</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33798-usilennye-prughiny-pered-podveski-tehnoressor-20-vaz-2101-07</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Усиленные пружины передней подвески Технорессор с завышением 20мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>145461</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33823-prughiny-zadney-podveski-tehnoressor-zanigh-120-2101-07</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор с завышением 20мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>145468</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33826-prughiny-zadney-podveski-tehnoressor-zavish-20mm-2101-07</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Усиленные пружины задней подвески Технорессор серии Стандарт с завышением 20мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>187452</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28996-prughiny-peredney-podveski-tehnoressor-bez-zanigheniya-vaz</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Стандарт без занижения для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>187453</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33797-usilennye-prughiny-pered-podveski-tehnoressor-vaz-2101-07</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Усиленные пружины передней подвески Технорессор серии Стандарт без завышения для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>145469</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/28995-prughiny-zadney-podveski-tehnoressor-bez-zanigheniya-2101</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Стандарт без занижения для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>145470</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33824-prughiny-zadney-podveski-tehnoressor-standart-2101-07</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Усиленные пружины задней подвески Технорессор серии Стандарт без занижения для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>187454</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33802-prughiny-peredney-podveski-tehnoressor-drift-50-01-07</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Дрифт с занижением 50мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>145471</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33825-prughiny-zadney-podveski-tehnoressor-drift-2101-07</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Дрифт с занижением 50мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>201966</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33807-prughiny-pered-podveski-tehnoressor-20-08-99</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор с завышением 20мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>201993</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/40190-usil-prughiny-peredney-podveski-tehnoressor-bez-zanigheniya-2110</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Усиленные пружины передней подвески Технорессор серии Стандарт без занижения для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>201914</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33878-usil-prughiny-zad-podveski-tehnoressor-bez-vesta</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Усиленные пружины задней подвески Технорессор серии Стандарт без занижения для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>201997</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33684-usil-prughiny-peredney-podveski-tehnoressor-zavisheniem-20mm-2190</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Усиленные пружины передней подвески Технорессор с завышением 20мм для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>201969</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33672-prughiny-peredney-podveski-tehnoressor-zavisheniem-20mm-2190</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор с завышением 20мм для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>201899</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33828-prughiny-zadney-podveski-tehnoressor-zavish-20-2110-12</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор с завышением 20мм для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>202000</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33795-prughiny-peredney-podveski-tehnoressor-standart-2190-fl</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Стандарт без занижения для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>201996</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33796-prughiny-peredney-podveski-tehnoressor-zavysh-20mm-2190-fl</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор с завышением 20мм для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>201901</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33909-prughiny-zad-podveski-tehnoressor-zanizh-30-shevy</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор с занижением 30 мм для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>201902</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33910-prughiny-zad-podveski-tehnoressor-zanizh-50-shevy</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 50 мм для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>201970</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33892-prughiny-peredney-podveski-tehnoressor-30-2123</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор Драйв с занижением 30мм для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>201968</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33796-prughiny-peredney-podveski-tehnoressor-zavysh-20mm-2190-fl</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор с завышением 20мм для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>202003</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33667-usilennye-prughiny-peredney-podveski-tehnoressor-lada-granta</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Усиленные пружины передней подвески Технорессор серии Стандарт без занижения для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>202005</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4359-prughiny-fobos-standart-vaz-2110-2112-perednie-bez</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос стандарт без занижения для ВАЗ 2110-2112</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>201965</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33805-prughiny-peredney-podveski-tehnoressor-50-shevy</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор с завышением 50мм для Шевроле Нива, Лада Нива Тревел</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>201875</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4567-zadnie-prughiny-fobos-standart-peremennyy-shag-kalina</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Задние пружины Фобос Стандарт переменный шаг без занижения для Лада Калина, Калина 2</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>251661</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16263-prughiny-perednie-fobos-standart-bez-zanigheniya-dlya-vaz</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос Стандарт без занижения для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>443462</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33822-prughiny-zadney-podveski-tehnoressor-zanigh-120-2101-07</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 120мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>443575</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6626-prughiny-zadney-podveski-tehnoressor-120mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 120мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>443463</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33817-prughiny-zadney-podveski-tehnoressor-zanigh-30-2101-07</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 30мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>443576</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6630-prughiny-zadney-podveski-tehnoressor-30mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 30мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>443968</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10469-prughiny-zadney-podveski-tehnoressor-30-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 30мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>443464</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33819-prughiny-zadney-podveski-tehnoressor-zanigh-50-2101-07</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 50мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>443577</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6624-prughiny-zadney-podveski-tehnoressor-50mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 50мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>443969</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10470-prughiny-zadney-podveski-tehnoressor-50-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 50мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>443465</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33821-prughiny-zadney-podveski-tehnoressor-zanigh-70-2101-07</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 70мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>443578</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6622-prughiny-zadney-podveski-tehnoressor-70mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 70мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>443970</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33875-prughiny-zad-podveski-tehnoressor-zanij-70-vesta</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв c занижением 70мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>443466</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33820-prughiny-zadney-podveski-tehnoressor-zanigh-90-2101-07</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 90мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>443579</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6628-prughiny-zadney-podveski-tehnoressor-90mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 90мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>443472</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3338-prughiny-zadnie-dlya-vaz-2101-07-sport-zanighenie-25mm</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Пружины задние Фобос Спорт с занижением 25мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>443581</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3342-zadnie-prughiny-fobos-sport-zanighenie-25mm-vaz-2108</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Задние пружины Фобос Спорт занижение -25мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>443580</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3344-zadnie-prughiny-fobos-sport-zanigheniem-40mm-vaz-2108</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Задние пружины Фобос Спорт с занижением 40мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>443474</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3340-prughiny-zadnie-fobos-sport-zanigheniem-50-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Пружины задние Фобос Спорт с занижением 50 мм на ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>443582</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3347-zadnie-prughiny-fobos-sport-zanigheniem-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Задние пружины Фобос Спорт с занижением 50 мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>443475</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16266-prughiny-zadnie-fobos-sport-zanighenie-70mm-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Пружины задние Фобос Спорт с занижением 70 мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>443583</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16255-zadnie-prughiny-fobos-sport-zanigheniem-70-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Задние пружины Фобос Спорт с занижением 70 мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>443467</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33880-prughiny-peredney-podveski-tehnoressor-drive-120-2101</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 120мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>443585</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6625-prughiny-peredney-podveski-tehnoressor-120mm-2108</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 120мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>443689</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6673-prughiny-peredney-podveski--120mm-dlya-lada-granta</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 120мм для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>443468</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33869-prughiny-peredney-podveski-tehnoressor-drive-30-2101</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 30мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>443586</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6629-prughiny-peredney-podveski-tehnoressor-30mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 30мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>443971</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10467-prughiny-peredney-podveski-tehnoressor-30-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 30мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>443724</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33692-prughiny-peredney-podveski-tehnoressor-drive-30mm-2190-fl</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 30мм для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>6290</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>443690</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6667-prughiny-peredney-podveski-tehnoressor-30-granta</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 30 мм для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>443469</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33871-prughiny-peredney-podveski-tehnoressor-drive-50-2101</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 50мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>443587</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6623-prughiny-peredney-podveski-tehnoressor-50mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 50мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>443972</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10468-prughiny-peredney-podveski-tehnoressor-50mm-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 50мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>443725</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33691-prughiny-peredney-podveski-tehnoressor-drive-50mm-2190-fl</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 50мм для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>443691</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6669-prughiny-peredney-podveski-tehnoressor-50-granta</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 50мм для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>443470</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33876-prughiny-peredney-podveski-tehnoressor-drive-70-2101</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 70мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>443588</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6621-prughiny-peredney-podveski-tehnoressor-70mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 70мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>443973</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33813-prughiny-pered-podveski-tehnoressor-zanij-70-vesta</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 70 мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>443726</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33709-prughiny-peredney-podveski-tehnoressor-drive-70mm-2190-fl</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 70мм для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>443692</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6671-prughiny-peredney-podveski-tehnoressor-70mm-lada-granta</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 70мм для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>443471</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33873-prughiny-peredney-podveski-tehnoressor-drive-90-2101</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 90мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>443589</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6627-prughiny-peredney-podveski-tehnoressor-90mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 90мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>443727</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33794-prughiny-peredney-podveski-tehnoressor-drive-90mm-2190-fl</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 90мм для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>443693</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6675-prughiny-peredney-podveski-90mm-dlya-lada-granta</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 90мм для Лада Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>443476</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3339-perednie-prughiny-fobos-sport-zanighenie-25mm-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт занижение 25мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>443590</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3343-perednie-prughiny-fobos-sport-zanighenie-25mm-2108-21099</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт занижение -25мм на 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>443694</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4560</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт с занижением 25 мм для Лада Калина, Калина 2</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>443591</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3345-perednie-prughiny-fobos-sport-zanigheniem-40mm-dlya-vaz</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт с занижением 40мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>443695</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4562-perednie-prughiny-fobos-sport-zanigheniem-40-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт с занижением 40 мм для Лада Калина, Калина 2</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>443478</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3341-prughiny-perednie-fobos-sport-zanigheniem-50-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос Спорт с занижением 50 мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>443592</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3346-perednie-prughiny-fobos-sport-zanigheniem-50mm-vaz</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт с занижением 50мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>443696</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16247-prughiny-perednie-fobos-sport-zanigheniem-50-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос Спорт с занижением 50 мм для Лада Калина, Калина 2</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>443479</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16262-prughiny-perednie-fobos-sport-zanigheniem-70mm-dlya-vaz</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос Спорт с занижением 70мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>443593</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16253-perednie-prughiny-fobos-sport-zanigheniem-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт с занижением 70 мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>443697</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16248</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос Спорт с занижением 70 мм для Лада Калина, Калина 2</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>145463</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33822-prughiny-zadney-podveski-tehnoressor-zanigh-120-2101-07</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 120мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>145464</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33817-prughiny-zadney-podveski-tehnoressor-zanigh-30-2101-07</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 30мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>145465</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33819-prughiny-zadney-podveski-tehnoressor-zanigh-50-2101-07</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 50мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>145466</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33821-prughiny-zadney-podveski-tehnoressor-zanigh-70-2101-07</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 70мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>145467</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33820-prughiny-zadney-podveski-tehnoressor-zanigh-90-2101-07</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 90мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>187446</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33880-prughiny-peredney-podveski-tehnoressor-drive-120-2101</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 120мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>187447</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33869-prughiny-peredney-podveski-tehnoressor-drive-30-2101</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 30мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>187448</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33871-prughiny-peredney-podveski-tehnoressor-drive-50-2101</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 50мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>187449</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33876-prughiny-peredney-podveski-tehnoressor-drive-70-2101</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 70мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>187450</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33873-prughiny-peredney-podveski-tehnoressor-drive-90-2101</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 90мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>201904</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6626-prughiny-zadney-podveski-tehnoressor-120mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 120мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>201905</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6630-prughiny-zadney-podveski-tehnoressor-30mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 30мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>201906</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6624-prughiny-zadney-podveski-tehnoressor-50mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 50мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>201907</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6622-prughiny-zadney-podveski-tehnoressor-70mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 70мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>201908</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6628-prughiny-zadney-podveski-tehnoressor-90mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 90мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>201910</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10469-prughiny-zadney-podveski-tehnoressor-30-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 30мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>201911</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10470-prughiny-zadney-podveski-tehnoressor-50-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв с занижением 50мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>201912</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33875-prughiny-zad-podveski-tehnoressor-zanij-70-vesta</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Пружины задней подвески Технорессор серии Драйв c занижением 70мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>201972</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6625-prughiny-peredney-podveski-tehnoressor-120mm-2108</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 120мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>201973</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6629-prughiny-peredney-podveski-tehnoressor-30mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 30мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>201974</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6623-prughiny-peredney-podveski-tehnoressor-50mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 50мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>201975</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6621-prughiny-peredney-podveski-tehnoressor-70mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 70мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>201976</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6627-prughiny-peredney-podveski-tehnoressor-90mm-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 90мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>201978</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10467-prughiny-peredney-podveski-tehnoressor-30-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 30мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>201979</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/10468-prughiny-peredney-podveski-tehnoressor-50mm-lada-vesta</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 50мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>201980</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33813-prughiny-pered-podveski-tehnoressor-zanij-70-vesta</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 70 мм для Лада Веста</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>201983</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33692-prughiny-peredney-podveski-tehnoressor-drive-30mm-2190-fl</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 30мм для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>6290</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>201984</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33691-prughiny-peredney-podveski-tehnoressor-drive-50mm-2190-fl</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 50мм для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>201985</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33709-prughiny-peredney-podveski-tehnoressor-drive-70mm-2190-fl</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 70мм для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>201986</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/33794-prughiny-peredney-podveski-tehnoressor-drive-90mm-2190-fl</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 90мм для Лада Гранта FL</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>201988</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6673-prughiny-peredney-podveski--120mm-dlya-lada-granta</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 120мм для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>201989</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6667-prughiny-peredney-podveski-tehnoressor-30-granta</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 30 мм для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>201990</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6669-prughiny-peredney-podveski-tehnoressor-50-granta</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 50мм для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>201991</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6671-prughiny-peredney-podveski-tehnoressor-70mm-lada-granta</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 70мм для Лада Гранта</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>201992</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/6675-prughiny-peredney-podveski-90mm-dlya-lada-granta</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Пружины передней подвески Технорессор серии Драйв с занижением 90мм для Лада Гранта, Гранта FL</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>201926</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3342-zadnie-prughiny-fobos-sport-zanighenie-25mm-vaz-2108</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Задние пружины Фобос Спорт занижение -25мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>201925</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3344-zadnie-prughiny-fobos-sport-zanigheniem-40mm-vaz-2108</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Задние пружины Фобос Спорт с занижением 40мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>201927</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3347-zadnie-prughiny-fobos-sport-zanigheniem-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Задние пружины Фобос Спорт с занижением 50 мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>201928</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16255-zadnie-prughiny-fobos-sport-zanigheniem-70-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Задние пружины Фобос Спорт с занижением 70 мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>201931</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3338-prughiny-zadnie-dlya-vaz-2101-07-sport-zanighenie-25mm</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Пружины задние Фобос Спорт с занижением 25мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>201933</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3340-prughiny-zadnie-fobos-sport-zanigheniem-50-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Пружины задние Фобос Спорт с занижением 50 мм на ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>201934</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16266-prughiny-zadnie-fobos-sport-zanighenie-70mm-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Пружины задние Фобос Спорт с занижением 70 мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>202011</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3339-perednie-prughiny-fobos-sport-zanighenie-25mm-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт занижение 25мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>202013</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3341-prughiny-perednie-fobos-sport-zanigheniem-50-vaz-2101-2107</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос Спорт с занижением 50 мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>202014</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16262-prughiny-perednie-fobos-sport-zanigheniem-70mm-dlya-vaz</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос Спорт с занижением 70мм для ВАЗ 2101-2107</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>202016</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3343-perednie-prughiny-fobos-sport-zanighenie-25mm-2108-21099</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт занижение -25мм на 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>202017</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3345-perednie-prughiny-fobos-sport-zanigheniem-40mm-dlya-vaz</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт с занижением 40мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>202018</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/3346-perednie-prughiny-fobos-sport-zanigheniem-50mm-vaz</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт с занижением 50мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>202019</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16253-perednie-prughiny-fobos-sport-zanigheniem-vaz-2108-21099</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт с занижением 70 мм для ВАЗ 2108-21099, 2113-2115</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>202022</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4560</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт с занижением 25 мм для Лада Калина, Калина 2</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>202023</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/4562-perednie-prughiny-fobos-sport-zanigheniem-40-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Передние пружины Фобос Спорт с занижением 40 мм для Лада Калина, Калина 2</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>202024</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16247-prughiny-perednie-fobos-sport-zanigheniem-50-lada-kalina</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос Спорт с занижением 50 мм для Лада Калина, Калина 2</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>202025</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://motorring.ru/product/16248</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Пружины передние Фобос Спорт с занижением 70 мм для Лада Калина, Калина 2</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>201937</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/proizvoditeli/Fobos_r/pruzhiny_podveski_lada_vesta_zadnie_usilennye_fobos/</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Пружины подвески Лада Веста задние усиленные Фобос (8450006758)</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>202028</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/proizvoditeli/Fobos_r/pruzhiny_podveski_lada_xray_perednie_usilennye_fobos_-550209371r/</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Пружины подвески Лада Xray передние усиленные Фобос (550209371R)</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>201938</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/proizvoditeli/Fobos_r/pruzhiny_podveski_lada_vesta_sw_cross_zadnie_usilennye_fobos_-8450031060/</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Пружины подвески Лада Веста SW Cross задние усиленные Фобос (8450031060)</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>202001</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/tekhnoressor_priora_kalina_bochka_perednie_bez_zanizheniya/</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Приора, Калина (бочка) передние (без занижения)</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>201916</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_2108_10_priora_kalina_granta_zadnie_peremennyy_shag/</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>187454</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoresor_vaz_2101-07_perednie_-drift-_fioletovyy_-50mm/</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Пружины Техноресор ВАЗ 2101-07 передние (дрифт, фиолетовый -50мм)</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>145471</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoresor_vaz_2101-07_zadnie_-drift-_fioletovyy_-50mm/</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Пружины Техноресор ВАЗ 2101-07 задние (дрифт, фиолетовый -50мм)</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>201969</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_priora-_kalina-_granta_-bochka-_perednie_-20/</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Приора, Калина, Гранта (бочка)  передние (+20)</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>201899</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_2108_10_priora_kalina_granta_zadnie_20/</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние (+20)</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>201901</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_na_shevrole_niva_2123_zadnie_30/</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор на Шевроле Нива 2123, задние (+30)</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>201902</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_zadnie_shevrole_niva_50/</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Пружины ТЕХНОРЕССОР Задние Шевроле Нива 2123 (+50)</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>201970</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_na_shevrole_niva_2123_perednie_30/</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор на Шевроле Нива 2123, передние (+30)</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>202005</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_fobos_vaz_2110_peremennyj_shag_perednie/</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Пружины "Фобос" ВАЗ-2110 переменный шаг передние</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>201919</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/proizvoditeli/Fobos_r/pruzhiny_podveski_lada_vesta_sw_cross_zadnie_fobos_-8450031060/</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Пружины подвески Лада Веста SW Cross задние Фобос (8450031060)</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>202004</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/proizvoditeli/Fobos_r/pruzhiny_podveski_lada_vesta_perednie_fobos_-8450006725/</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Пружины подвески Лада Веста передние Фобос (8450006725)</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>202006</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/niva/pruzhiny_fobos_vaz_2121_niva_peremennyj_shag_perednie/</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Пружины "Фобос" ВАЗ-2121 НИВА переменный шаг передние</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>201921</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/niva/pruzhiny_fobos_vaz_2121_niva_peremennyj_shag_zadnie/</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Пружины "Фобос" ВАЗ-2121 НИВА переменный шаг задние</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>201965</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_perednie_vaz_2123_shevrole_niva_50/</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Пружины ТЕХНОРЕССОР Передние ВАЗ 2123 Шевроле Нива (+50)</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>201875</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_fobos_vaz_2110_peremennyj_shag_zadnie/</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Пружины "Фобос" ВАЗ-2110 переменный шаг задние</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>251661</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_perednie_s_peremennym_shagom_fobos_-21010-2902712/</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 передние с переменным шагом Фобос (21010-2902712)</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>443462</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vaz_2101-07_zadnie_-120/</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2101-07 задние (-120)</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>443575</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210810priora_kalina_granta_zadnie_120/</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние (-120)</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>443463</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_zadnie_30/</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 задние (-30)</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>443576</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210810priora_kalina_granta_zadnie_30/</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние (-30)</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>443968</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vesta_zadnie_30/</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Vesta задние, (-30)</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>443464</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_zadnie_50/</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 задние (-50)</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>443577</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210810priora_kalina_granta_zadnie_50/</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние (-50)</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>443969</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vesta_zadnie_50/</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Vesta задние, (-50)</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>443465</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_zadnie_70/</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 задние (-70)</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>443578</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210810priora_kalina_granta_zadnie_70/</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние (-70)</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>443579</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210810priora_kalina_granta_zadnie_90/</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние (-90)</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>443472</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_zadnie_fobos_sport_-25mm_-2101-2912712/</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 задние Фобос Спорт -25мм (2101-2912712)</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>443581</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_zadnie_fobos_sport_25mm/</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 задние Фобос Спорт -25мм</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>443580</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_zadnie_fobos_sport_40mm/</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 задние Фобос Спорт -40мм</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>443474</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_zadnie_fobos_sport_-50mm_-2101-2912712/</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 задние Фобос Спорт -50мм (2101-2912712)</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>443582</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_zadnie_fobos_sport_50mm/</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 задние Фобос Спорт -50мм</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>443475</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_zadnie_fobos_sport_-70mm_-2101-2912712/</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 задние Фобос Спорт -70мм (2101-2912712)</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>443583</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_zadnie_fobos_sport_70mm/</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 задние Фобос Спорт -70мм</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>443584</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_zadnie_fobos_sport_90mm/</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 задние Фобос Спорт -90мм</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>443585</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_vaz_210810_perednie_120/</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2108/10 передние (-120)</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>443468</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_perednie_30/</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 передние(-30)</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>443586</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_vaz_210810_perednie_30/</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2108/10 передние (-30)</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>443971</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vesta_perednie_30/</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Vesta передние, (-30)</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>443690</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_priora_kalina_bochka_perednie_30/</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Приора, Калина (бочка)  передние (-30)</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>443469</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_perednie_50/</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 передние(-50)</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>443587</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_vaz_210810_perednie_50/</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2108/10 передние (-50)</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>443972</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vesta_perednie_50/</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Vesta передние, (-50)</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>443691</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_priora_kalina_bochka_perednie_50/</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Приора, Калина (бочка)  передние (-50)</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>443470</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_perednie_70/</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 передние(-70)</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>443588</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_vaz_210810_perednie_70/</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2108/10 передние (-70)</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>443692</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_priora_kalina_bochka_perednie_70/</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Приора, Калина (бочка)  передние (-70)</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>443471</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vaz_2101-2107_perednie-90/</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2101-2107 передние(-90)</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>443589</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_vaz_210810_perednie_90/</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2108/10 передние (-90)</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>443693</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_priora_kalina_bochka_perednie_90/</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Приора, Калина (бочка)  передние (-90)</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>443476</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_perednie_fobos_sport_-25mm_-2101-2902712/</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 передние Фобос Спорт -25мм (2101-2902712)</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>443590</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_perednie_fobos_sport_25mm/</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 передние Фобос Спорт -25мм</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>443694</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2170/pruzhiny_fobos_priora_2170_perednie_25_mm/</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Пружины "Фобос " Priora 2170 передние -25 мм</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>443591</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_perednie_fobos_sport_40mm/</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 передние Фобос Спорт -40мм</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>443695</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2170/pruzhiny_fobos_priora_2170_perednie_40_mm/</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Пружины "Фобос " Priora 2170 передние -40 мм</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>443478</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_perednie_fobos_sport_-50mm_-2101-2902712/</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 передние Фобос Спорт -50мм (2101-2902712)</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>443592</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_perednie_fobos_sport_50mm/</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 передние Фобос Спорт -50мм</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>443479</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_perednie_fobos_sport_-70mm_-2101-2902712/</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 передние Фобос Спорт -70мм (2101-2902712)</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>443593</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_perednie_fobos_sport_70mm/</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 передние Фобос Спорт -70мм</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>443594</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_perednie_fobos_sport_90mm/</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 передние Фобос Спорт -90мм</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>145463</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vaz_2101-07_zadnie_-120/</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2101-07 задние (-120)</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>145464</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_zadnie_30/</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 задние (-30)</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>145465</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_zadnie_50/</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 задние (-50)</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>145466</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_zadnie_70/</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 задние (-70)</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>187447</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_perednie_30/</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 передние(-30)</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>187448</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_perednie_50/</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 передние(-50)</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>187449</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210107_perednie_70/</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2101/07 передние(-70)</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>187450</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vaz_2101-2107_perednie-90/</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2101-2107 передние(-90)</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>201904</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210810priora_kalina_granta_zadnie_120/</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние (-120)</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>201905</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210810priora_kalina_granta_zadnie_30/</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние (-30)</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>201906</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210810priora_kalina_granta_zadnie_50/</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние (-50)</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>201907</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210810priora_kalina_granta_zadnie_70/</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние (-70)</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>201908</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_210810priora_kalina_granta_zadnie_90/</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор 2108/10/Приора, Калина, Гранта задние (-90)</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>201910</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vesta_zadnie_30/</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Vesta задние, (-30)</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>201911</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vesta_zadnie_50/</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Vesta задние, (-50)</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>201972</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_vaz_210810_perednie_120/</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2108/10 передние (-120)</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>201973</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_vaz_210810_perednie_30/</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2108/10 передние (-30)</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>201974</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_vaz_210810_perednie_50/</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2108/10 передние (-50)</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>201975</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_vaz_210810_perednie_70/</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2108/10 передние (-70)</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>201976</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_vaz_210810_perednie_90/</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор ВАЗ 2108/10 передние (-90)</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>201978</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vesta_perednie_30/</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Vesta передние, (-30)</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>201979</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tekhnoressor_vesta_perednie_50/</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Vesta передние, (-50)</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>201989</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_priora_kalina_bochka_perednie_30/</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Приора, Калина (бочка)  передние (-30)</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>201990</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_priora_kalina_bochka_perednie_50/</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Приора, Калина (бочка)  передние (-50)</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>201991</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_priora_kalina_bochka_perednie_70/</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Приора, Калина (бочка)  передние (-70)</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>201992</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_tekhnoressor/pruzhiny_tehnoressor_priora_kalina_bochka_perednie_90/</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Пружины Технорессор Приора, Калина (бочка)  передние (-90)</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>201926</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_zadnie_fobos_sport_25mm/</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 задние Фобос Спорт -25мм</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>201925</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_zadnie_fobos_sport_40mm/</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 задние Фобос Спорт -40мм</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>201927</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_zadnie_fobos_sport_50mm/</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 задние Фобос Спорт -50мм</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>201928</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_zadnie_fobos_sport_70mm/</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 задние Фобос Спорт -70мм</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>201929</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_zadnie_fobos_sport_90mm/</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 задние Фобос Спорт -90мм</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>201931</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_zadnie_fobos_sport_-25mm_-2101-2912712/</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 задние Фобос Спорт -25мм (2101-2912712)</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>201933</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_zadnie_fobos_sport_-50mm_-2101-2912712/</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 задние Фобос Спорт -50мм (2101-2912712)</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>201934</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_zadnie_fobos_sport_-70mm_-2101-2912712/</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 задние Фобос Спорт -70мм (2101-2912712)</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>202011</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_perednie_fobos_sport_-25mm_-2101-2902712/</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 передние Фобос Спорт -25мм (2101-2902712)</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>202013</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_perednie_fobos_sport_-50mm_-2101-2902712/</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 передние Фобос Спорт -50мм (2101-2902712)</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>202014</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/avtomobili-zapchasti/vaz_2105-zapchasti/pruzhiny_podveski_vaz_2101_perednie_fobos_sport_-70mm_-2101-2902712/</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Пружины подвески ВАЗ 2101 передние Фобос Спорт -70мм (2101-2902712)</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>202016</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_perednie_fobos_sport_25mm/</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 передние Фобос Спорт -25мм</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>202017</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_perednie_fobos_sport_40mm/</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 передние Фобос Спорт -40мм</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>202018</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_perednie_fobos_sport_50mm/</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 передние Фобос Спорт -50мм</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>202019</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_perednie_fobos_sport_70mm/</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 передние Фобос Спорт -70мм</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>202020</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2110/pruzhiny_podveski_2110_perednie_fobos_sport_90mm/</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Пружины подвески 2110 передние Фобос Спорт -90мм</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>202022</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2170/pruzhiny_fobos_priora_2170_perednie_25_mm/</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Пружины "Фобос " Priora 2170 передние -25 мм</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>202023</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://33sport.ru/catalog/podveska/pruzhiny_fobos/2170/pruzhiny_fobos_priora_2170_perednie_40_mm/</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Пружины "Фобос " Priora 2170 передние -40 мм</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>3120</v>
       </c>
     </row>
   </sheetData>
